--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,7 +439,7 @@
     <t>['12', '77']</t>
   </si>
   <si>
-    <t>['30', '82', '90+1']</t>
+    <t>['29', '82', '90+1']</t>
   </si>
   <si>
     <t>['74', '90+3']</t>
@@ -448,7 +448,13 @@
     <t>['61']</t>
   </si>
   <si>
-    <t>['36', '86']</t>
+    <t>['35', '86']</t>
+  </si>
+  <si>
+    <t>['45+1', '87']</t>
+  </si>
+  <si>
+    <t>['9', '24', '71']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -589,13 +595,10 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['28', '45+3', '61', '68', '90+6']</t>
-  </si>
-  <si>
-    <t>['28']</t>
-  </si>
-  <si>
-    <t>['40', '70']</t>
+    <t>['26', '45+2', '61', '68', '90+6']</t>
+  </si>
+  <si>
+    <t>['39', '70']</t>
   </si>
   <si>
     <t>['54', '65']</t>
@@ -960,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1222,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1300,7 +1303,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1425,7 +1428,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1631,7 +1634,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1837,7 +1840,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2043,7 +2046,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2249,7 +2252,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2327,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1.6</v>
@@ -2455,7 +2458,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2661,7 +2664,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2867,7 +2870,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3357,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ12">
         <v>1.25</v>
@@ -3566,7 +3569,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -4103,7 +4106,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4309,7 +4312,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4515,7 +4518,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4593,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5133,7 +5136,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5339,7 +5342,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5545,7 +5548,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5751,7 +5754,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5832,7 +5835,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -5957,7 +5960,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6241,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ26">
         <v>0.5</v>
@@ -6369,7 +6372,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6575,7 +6578,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6781,7 +6784,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7686,7 +7689,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -7811,7 +7814,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7889,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>3</v>
@@ -8017,7 +8020,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8635,7 +8638,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8841,7 +8844,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9047,7 +9050,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9253,7 +9256,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9537,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ42">
         <v>1.8</v>
@@ -9746,7 +9749,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR43">
         <v>0.6899999999999999</v>
@@ -9871,7 +9874,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -9952,7 +9955,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10489,7 +10492,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10695,7 +10698,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10901,7 +10904,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11107,7 +11110,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11313,7 +11316,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11391,7 +11394,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>1.25</v>
@@ -11519,7 +11522,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12137,7 +12140,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12343,7 +12346,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12836,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR58">
         <v>1.2</v>
@@ -12961,7 +12964,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13167,7 +13170,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13373,7 +13376,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13454,7 +13457,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -13657,7 +13660,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ62">
         <v>1.43</v>
@@ -13785,7 +13788,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13991,7 +13994,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14197,7 +14200,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14275,7 +14278,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -14609,7 +14612,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14815,7 +14818,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15021,7 +15024,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15227,7 +15230,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15433,7 +15436,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15639,7 +15642,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15845,7 +15848,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16051,7 +16054,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16463,7 +16466,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16669,7 +16672,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -16875,7 +16878,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17081,7 +17084,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17237,6 +17240,418 @@
         <v>3.2</v>
       </c>
       <c r="BP79">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7343717</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45411.625</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>75</v>
+      </c>
+      <c r="H80" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>145</v>
+      </c>
+      <c r="P80" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q80">
+        <v>3.1</v>
+      </c>
+      <c r="R80">
+        <v>1.95</v>
+      </c>
+      <c r="S80">
+        <v>4</v>
+      </c>
+      <c r="T80">
+        <v>1.53</v>
+      </c>
+      <c r="U80">
+        <v>2.38</v>
+      </c>
+      <c r="V80">
+        <v>3.75</v>
+      </c>
+      <c r="W80">
+        <v>1.25</v>
+      </c>
+      <c r="X80">
+        <v>11</v>
+      </c>
+      <c r="Y80">
+        <v>1.05</v>
+      </c>
+      <c r="Z80">
+        <v>2.18</v>
+      </c>
+      <c r="AA80">
+        <v>3.15</v>
+      </c>
+      <c r="AB80">
+        <v>3.25</v>
+      </c>
+      <c r="AC80">
+        <v>1.06</v>
+      </c>
+      <c r="AD80">
+        <v>6.8</v>
+      </c>
+      <c r="AE80">
+        <v>1.43</v>
+      </c>
+      <c r="AF80">
+        <v>2.54</v>
+      </c>
+      <c r="AG80">
+        <v>2.5</v>
+      </c>
+      <c r="AH80">
+        <v>1.5</v>
+      </c>
+      <c r="AI80">
+        <v>2.1</v>
+      </c>
+      <c r="AJ80">
+        <v>1.67</v>
+      </c>
+      <c r="AK80">
+        <v>1.32</v>
+      </c>
+      <c r="AL80">
+        <v>1.32</v>
+      </c>
+      <c r="AM80">
+        <v>1.55</v>
+      </c>
+      <c r="AN80">
+        <v>0.6</v>
+      </c>
+      <c r="AO80">
+        <v>0.75</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>0.6</v>
+      </c>
+      <c r="AR80">
+        <v>1.38</v>
+      </c>
+      <c r="AS80">
+        <v>1.27</v>
+      </c>
+      <c r="AT80">
+        <v>2.65</v>
+      </c>
+      <c r="AU80">
+        <v>6</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>2</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>8</v>
+      </c>
+      <c r="AZ80">
+        <v>7</v>
+      </c>
+      <c r="BA80">
+        <v>12</v>
+      </c>
+      <c r="BB80">
+        <v>6</v>
+      </c>
+      <c r="BC80">
+        <v>18</v>
+      </c>
+      <c r="BD80">
+        <v>2.38</v>
+      </c>
+      <c r="BE80">
+        <v>8</v>
+      </c>
+      <c r="BF80">
+        <v>1.8</v>
+      </c>
+      <c r="BG80">
+        <v>1.2</v>
+      </c>
+      <c r="BH80">
+        <v>3.84</v>
+      </c>
+      <c r="BI80">
+        <v>1.39</v>
+      </c>
+      <c r="BJ80">
+        <v>2.77</v>
+      </c>
+      <c r="BK80">
+        <v>1.73</v>
+      </c>
+      <c r="BL80">
+        <v>1.99</v>
+      </c>
+      <c r="BM80">
+        <v>2.2</v>
+      </c>
+      <c r="BN80">
+        <v>1.6</v>
+      </c>
+      <c r="BO80">
+        <v>2.95</v>
+      </c>
+      <c r="BP80">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7343722</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45411.83333333334</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s">
+        <v>77</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>146</v>
+      </c>
+      <c r="P81" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q81">
+        <v>1.91</v>
+      </c>
+      <c r="R81">
+        <v>2.3</v>
+      </c>
+      <c r="S81">
+        <v>8</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.75</v>
+      </c>
+      <c r="V81">
+        <v>2.75</v>
+      </c>
+      <c r="W81">
+        <v>1.4</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1.08</v>
+      </c>
+      <c r="Z81">
+        <v>1.38</v>
+      </c>
+      <c r="AA81">
+        <v>4.5</v>
+      </c>
+      <c r="AB81">
+        <v>7</v>
+      </c>
+      <c r="AC81">
+        <v>1.02</v>
+      </c>
+      <c r="AD81">
+        <v>9.1</v>
+      </c>
+      <c r="AE81">
+        <v>1.28</v>
+      </c>
+      <c r="AF81">
+        <v>3.2</v>
+      </c>
+      <c r="AG81">
+        <v>1.93</v>
+      </c>
+      <c r="AH81">
+        <v>1.83</v>
+      </c>
+      <c r="AI81">
+        <v>2.25</v>
+      </c>
+      <c r="AJ81">
+        <v>1.57</v>
+      </c>
+      <c r="AK81">
+        <v>1.08</v>
+      </c>
+      <c r="AL81">
+        <v>1.15</v>
+      </c>
+      <c r="AM81">
+        <v>2.5</v>
+      </c>
+      <c r="AN81">
+        <v>2.5</v>
+      </c>
+      <c r="AO81">
+        <v>0.5</v>
+      </c>
+      <c r="AP81">
+        <v>2.6</v>
+      </c>
+      <c r="AQ81">
+        <v>0.4</v>
+      </c>
+      <c r="AR81">
+        <v>1.33</v>
+      </c>
+      <c r="AS81">
+        <v>1.21</v>
+      </c>
+      <c r="AT81">
+        <v>2.54</v>
+      </c>
+      <c r="AU81">
+        <v>5</v>
+      </c>
+      <c r="AV81">
+        <v>3</v>
+      </c>
+      <c r="AW81">
+        <v>6</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>11</v>
+      </c>
+      <c r="AZ81">
+        <v>4</v>
+      </c>
+      <c r="BA81">
+        <v>3</v>
+      </c>
+      <c r="BB81">
+        <v>3</v>
+      </c>
+      <c r="BC81">
+        <v>6</v>
+      </c>
+      <c r="BD81">
+        <v>1.18</v>
+      </c>
+      <c r="BE81">
+        <v>11</v>
+      </c>
+      <c r="BF81">
+        <v>6</v>
+      </c>
+      <c r="BG81">
+        <v>1.3</v>
+      </c>
+      <c r="BH81">
+        <v>3.2</v>
+      </c>
+      <c r="BI81">
+        <v>1.47</v>
+      </c>
+      <c r="BJ81">
+        <v>2.5</v>
+      </c>
+      <c r="BK81">
+        <v>1.85</v>
+      </c>
+      <c r="BL81">
+        <v>1.85</v>
+      </c>
+      <c r="BM81">
+        <v>2.37</v>
+      </c>
+      <c r="BN81">
+        <v>1.51</v>
+      </c>
+      <c r="BO81">
+        <v>3.2</v>
+      </c>
+      <c r="BP81">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -454,7 +454,7 @@
     <t>['45+1', '87']</t>
   </si>
   <si>
-    <t>['9', '24', '71']</t>
+    <t>['8', '23', '72']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -17589,22 +17589,22 @@
         <v>2.54</v>
       </c>
       <c r="AU81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW81">
         <v>6</v>
       </c>
       <c r="AX81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY81">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA81">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -17383,22 +17383,22 @@
         <v>2.65</v>
       </c>
       <c r="AU80">
+        <v>9</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>2</v>
+      </c>
+      <c r="AX80">
+        <v>3</v>
+      </c>
+      <c r="AY80">
+        <v>11</v>
+      </c>
+      <c r="AZ80">
         <v>6</v>
-      </c>
-      <c r="AV80">
-        <v>3</v>
-      </c>
-      <c r="AW80">
-        <v>2</v>
-      </c>
-      <c r="AX80">
-        <v>4</v>
-      </c>
-      <c r="AY80">
-        <v>8</v>
-      </c>
-      <c r="AZ80">
-        <v>7</v>
       </c>
       <c r="BA80">
         <v>12</v>
@@ -17589,22 +17589,22 @@
         <v>2.54</v>
       </c>
       <c r="AU81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW81">
         <v>6</v>
       </c>
       <c r="AX81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY81">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA81">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>['54', '65']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7071,7 +7074,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -8922,7 +8925,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ39">
         <v>1.33</v>
@@ -9131,7 +9134,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR40">
         <v>1.57</v>
@@ -11600,7 +11603,7 @@
         <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ52">
         <v>1.8</v>
@@ -12015,7 +12018,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -14690,7 +14693,7 @@
         <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ67">
         <v>1.6</v>
@@ -15105,7 +15108,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ69">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -17653,6 +17656,212 @@
       </c>
       <c r="BP81">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7343730</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45415.52083333334</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" t="s">
+        <v>83</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>100</v>
+      </c>
+      <c r="P82" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q82">
+        <v>2.38</v>
+      </c>
+      <c r="R82">
+        <v>2.2</v>
+      </c>
+      <c r="S82">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>1.4</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>9</v>
+      </c>
+      <c r="Y82">
+        <v>1.07</v>
+      </c>
+      <c r="Z82">
+        <v>1.69</v>
+      </c>
+      <c r="AA82">
+        <v>3.4</v>
+      </c>
+      <c r="AB82">
+        <v>4.75</v>
+      </c>
+      <c r="AC82">
+        <v>1.06</v>
+      </c>
+      <c r="AD82">
+        <v>8</v>
+      </c>
+      <c r="AE82">
+        <v>1.33</v>
+      </c>
+      <c r="AF82">
+        <v>3.1</v>
+      </c>
+      <c r="AG82">
+        <v>2.02</v>
+      </c>
+      <c r="AH82">
+        <v>1.73</v>
+      </c>
+      <c r="AI82">
+        <v>1.91</v>
+      </c>
+      <c r="AJ82">
+        <v>1.8</v>
+      </c>
+      <c r="AK82">
+        <v>1.13</v>
+      </c>
+      <c r="AL82">
+        <v>1.22</v>
+      </c>
+      <c r="AM82">
+        <v>2.1</v>
+      </c>
+      <c r="AN82">
+        <v>0.67</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0.75</v>
+      </c>
+      <c r="AQ82">
+        <v>0.2</v>
+      </c>
+      <c r="AR82">
+        <v>1.08</v>
+      </c>
+      <c r="AS82">
+        <v>1.02</v>
+      </c>
+      <c r="AT82">
+        <v>2.1</v>
+      </c>
+      <c r="AU82">
+        <v>2</v>
+      </c>
+      <c r="AV82">
+        <v>4</v>
+      </c>
+      <c r="AW82">
+        <v>1</v>
+      </c>
+      <c r="AX82">
+        <v>2</v>
+      </c>
+      <c r="AY82">
+        <v>3</v>
+      </c>
+      <c r="AZ82">
+        <v>6</v>
+      </c>
+      <c r="BA82">
+        <v>2</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>2</v>
+      </c>
+      <c r="BD82">
+        <v>1.51</v>
+      </c>
+      <c r="BE82">
+        <v>9</v>
+      </c>
+      <c r="BF82">
+        <v>2.9</v>
+      </c>
+      <c r="BG82">
+        <v>1.28</v>
+      </c>
+      <c r="BH82">
+        <v>3.3</v>
+      </c>
+      <c r="BI82">
+        <v>1.5</v>
+      </c>
+      <c r="BJ82">
+        <v>2.4</v>
+      </c>
+      <c r="BK82">
+        <v>1.85</v>
+      </c>
+      <c r="BL82">
+        <v>1.85</v>
+      </c>
+      <c r="BM82">
+        <v>2.32</v>
+      </c>
+      <c r="BN82">
+        <v>1.54</v>
+      </c>
+      <c r="BO82">
+        <v>3</v>
+      </c>
+      <c r="BP82">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,18 @@
     <t>['8', '23', '72']</t>
   </si>
   <si>
+    <t>['10', '16']</t>
+  </si>
+  <si>
+    <t>['8', '44', '79', '90+1']</t>
+  </si>
+  <si>
+    <t>['50', '78', '90+2']</t>
+  </si>
+  <si>
+    <t>['88', '90+1']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -605,6 +617,15 @@
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['8', '90']</t>
+  </si>
+  <si>
+    <t>['12', '87']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1246,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1303,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ2">
         <v>0.4</v>
@@ -1431,7 +1452,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1637,7 +1658,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1718,7 +1739,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ4">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1843,7 +1864,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2049,7 +2070,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2255,7 +2276,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2461,7 +2482,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2542,7 +2563,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2667,7 +2688,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2873,7 +2894,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -2951,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ10">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3157,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>1.43</v>
@@ -3366,7 +3387,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3775,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ14">
         <v>1.8</v>
@@ -4109,7 +4130,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4190,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>1.34</v>
@@ -4315,7 +4336,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4521,7 +4542,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5011,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -5139,7 +5160,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5345,7 +5366,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5423,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5551,7 +5572,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5632,7 +5653,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5757,7 +5778,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5963,7 +5984,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6375,7 +6396,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6453,7 +6474,7 @@
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ27">
         <v>1.43</v>
@@ -6581,7 +6602,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6662,7 +6683,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6787,7 +6808,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7277,7 +7298,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7483,7 +7504,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ32">
         <v>1.6</v>
@@ -7817,7 +7838,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7898,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -8023,7 +8044,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8104,7 +8125,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>0.51</v>
@@ -8307,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ36">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8641,7 +8662,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8847,7 +8868,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9053,7 +9074,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9259,7 +9280,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9340,7 +9361,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9877,7 +9898,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -9955,7 +9976,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ44">
         <v>0.4</v>
@@ -10495,7 +10516,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10701,7 +10722,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10779,7 +10800,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -10907,7 +10928,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -10985,7 +11006,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11113,7 +11134,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11319,7 +11340,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11400,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.16</v>
@@ -11525,7 +11546,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11606,7 +11627,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ52">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.3</v>
@@ -11809,7 +11830,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ53">
         <v>1.6</v>
@@ -12143,7 +12164,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12349,7 +12370,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12430,7 +12451,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ56">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -12967,7 +12988,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13173,7 +13194,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13254,7 +13275,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13379,7 +13400,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13791,7 +13812,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13869,7 +13890,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ63">
         <v>1.6</v>
@@ -13997,7 +14018,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14203,7 +14224,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14487,7 +14508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14615,7 +14636,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14821,7 +14842,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -14899,10 +14920,10 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15027,7 +15048,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15105,7 +15126,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ69">
         <v>0.2</v>
@@ -15233,7 +15254,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15314,7 +15335,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15439,7 +15460,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15645,7 +15666,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15726,7 +15747,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.26</v>
@@ -15851,7 +15872,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16057,7 +16078,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16469,7 +16490,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16881,7 +16902,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17087,7 +17108,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17705,7 +17726,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17798,31 +17819,31 @@
         <v>2.1</v>
       </c>
       <c r="AU82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV82">
+        <v>3</v>
+      </c>
+      <c r="AW82">
         <v>4</v>
       </c>
-      <c r="AW82">
-        <v>1</v>
-      </c>
       <c r="AX82">
         <v>2</v>
       </c>
       <c r="AY82">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AZ82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB82">
         <v>0</v>
       </c>
       <c r="BC82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD82">
         <v>1.51</v>
@@ -17862,6 +17883,830 @@
       </c>
       <c r="BP82">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7343727</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45415.625</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>81</v>
+      </c>
+      <c r="H83" t="s">
+        <v>80</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>147</v>
+      </c>
+      <c r="P83" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q83">
+        <v>4.5</v>
+      </c>
+      <c r="R83">
+        <v>2.15</v>
+      </c>
+      <c r="S83">
+        <v>2.4</v>
+      </c>
+      <c r="T83">
+        <v>1.4</v>
+      </c>
+      <c r="U83">
+        <v>2.7</v>
+      </c>
+      <c r="V83">
+        <v>2.88</v>
+      </c>
+      <c r="W83">
+        <v>1.36</v>
+      </c>
+      <c r="X83">
+        <v>7</v>
+      </c>
+      <c r="Y83">
+        <v>1.07</v>
+      </c>
+      <c r="Z83">
+        <v>4</v>
+      </c>
+      <c r="AA83">
+        <v>3.3</v>
+      </c>
+      <c r="AB83">
+        <v>1.83</v>
+      </c>
+      <c r="AC83">
+        <v>1.04</v>
+      </c>
+      <c r="AD83">
+        <v>8.5</v>
+      </c>
+      <c r="AE83">
+        <v>1.32</v>
+      </c>
+      <c r="AF83">
+        <v>3.23</v>
+      </c>
+      <c r="AG83">
+        <v>2</v>
+      </c>
+      <c r="AH83">
+        <v>1.85</v>
+      </c>
+      <c r="AI83">
+        <v>1.85</v>
+      </c>
+      <c r="AJ83">
+        <v>1.85</v>
+      </c>
+      <c r="AK83">
+        <v>1.88</v>
+      </c>
+      <c r="AL83">
+        <v>1.3</v>
+      </c>
+      <c r="AM83">
+        <v>1.25</v>
+      </c>
+      <c r="AN83">
+        <v>0.6</v>
+      </c>
+      <c r="AO83">
+        <v>3</v>
+      </c>
+      <c r="AP83">
+        <v>0.67</v>
+      </c>
+      <c r="AQ83">
+        <v>2.67</v>
+      </c>
+      <c r="AR83">
+        <v>1.58</v>
+      </c>
+      <c r="AS83">
+        <v>1.54</v>
+      </c>
+      <c r="AT83">
+        <v>3.12</v>
+      </c>
+      <c r="AU83">
+        <v>8</v>
+      </c>
+      <c r="AV83">
+        <v>9</v>
+      </c>
+      <c r="AW83">
+        <v>2</v>
+      </c>
+      <c r="AX83">
+        <v>1</v>
+      </c>
+      <c r="AY83">
+        <v>10</v>
+      </c>
+      <c r="AZ83">
+        <v>10</v>
+      </c>
+      <c r="BA83">
+        <v>3</v>
+      </c>
+      <c r="BB83">
+        <v>4</v>
+      </c>
+      <c r="BC83">
+        <v>7</v>
+      </c>
+      <c r="BD83">
+        <v>2.76</v>
+      </c>
+      <c r="BE83">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF83">
+        <v>1.58</v>
+      </c>
+      <c r="BG83">
+        <v>1.27</v>
+      </c>
+      <c r="BH83">
+        <v>3.28</v>
+      </c>
+      <c r="BI83">
+        <v>1.55</v>
+      </c>
+      <c r="BJ83">
+        <v>2.4</v>
+      </c>
+      <c r="BK83">
+        <v>1.91</v>
+      </c>
+      <c r="BL83">
+        <v>1.89</v>
+      </c>
+      <c r="BM83">
+        <v>2.4</v>
+      </c>
+      <c r="BN83">
+        <v>1.55</v>
+      </c>
+      <c r="BO83">
+        <v>3.28</v>
+      </c>
+      <c r="BP83">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7343732</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45415.83333333334</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" t="s">
+        <v>75</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84" t="s">
+        <v>148</v>
+      </c>
+      <c r="P84" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
+      <c r="R84">
+        <v>2.3</v>
+      </c>
+      <c r="S84">
+        <v>7</v>
+      </c>
+      <c r="T84">
+        <v>1.4</v>
+      </c>
+      <c r="U84">
+        <v>2.75</v>
+      </c>
+      <c r="V84">
+        <v>2.75</v>
+      </c>
+      <c r="W84">
+        <v>1.4</v>
+      </c>
+      <c r="X84">
+        <v>8</v>
+      </c>
+      <c r="Y84">
+        <v>1.08</v>
+      </c>
+      <c r="Z84">
+        <v>1.4</v>
+      </c>
+      <c r="AA84">
+        <v>4.33</v>
+      </c>
+      <c r="AB84">
+        <v>6.5</v>
+      </c>
+      <c r="AC84">
+        <v>1.02</v>
+      </c>
+      <c r="AD84">
+        <v>9</v>
+      </c>
+      <c r="AE84">
+        <v>1.28</v>
+      </c>
+      <c r="AF84">
+        <v>3.2</v>
+      </c>
+      <c r="AG84">
+        <v>1.98</v>
+      </c>
+      <c r="AH84">
+        <v>1.88</v>
+      </c>
+      <c r="AI84">
+        <v>2.2</v>
+      </c>
+      <c r="AJ84">
+        <v>1.62</v>
+      </c>
+      <c r="AK84">
+        <v>1.06</v>
+      </c>
+      <c r="AL84">
+        <v>1.18</v>
+      </c>
+      <c r="AM84">
+        <v>2.64</v>
+      </c>
+      <c r="AN84">
+        <v>2.6</v>
+      </c>
+      <c r="AO84">
+        <v>2.25</v>
+      </c>
+      <c r="AP84">
+        <v>2.67</v>
+      </c>
+      <c r="AQ84">
+        <v>1.8</v>
+      </c>
+      <c r="AR84">
+        <v>1.75</v>
+      </c>
+      <c r="AS84">
+        <v>1.41</v>
+      </c>
+      <c r="AT84">
+        <v>3.16</v>
+      </c>
+      <c r="AU84">
+        <v>9</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>2</v>
+      </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <v>11</v>
+      </c>
+      <c r="AZ84">
+        <v>4</v>
+      </c>
+      <c r="BA84">
+        <v>9</v>
+      </c>
+      <c r="BB84">
+        <v>4</v>
+      </c>
+      <c r="BC84">
+        <v>13</v>
+      </c>
+      <c r="BD84">
+        <v>1.42</v>
+      </c>
+      <c r="BE84">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF84">
+        <v>3.5</v>
+      </c>
+      <c r="BG84">
+        <v>1.29</v>
+      </c>
+      <c r="BH84">
+        <v>3.3</v>
+      </c>
+      <c r="BI84">
+        <v>1.51</v>
+      </c>
+      <c r="BJ84">
+        <v>2.4</v>
+      </c>
+      <c r="BK84">
+        <v>1.85</v>
+      </c>
+      <c r="BL84">
+        <v>1.85</v>
+      </c>
+      <c r="BM84">
+        <v>2.33</v>
+      </c>
+      <c r="BN84">
+        <v>1.53</v>
+      </c>
+      <c r="BO84">
+        <v>3</v>
+      </c>
+      <c r="BP84">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7343729</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s">
+        <v>72</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>149</v>
+      </c>
+      <c r="P85" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q85">
+        <v>2.59</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>4.33</v>
+      </c>
+      <c r="T85">
+        <v>1.44</v>
+      </c>
+      <c r="U85">
+        <v>2.63</v>
+      </c>
+      <c r="V85">
+        <v>3.25</v>
+      </c>
+      <c r="W85">
+        <v>1.33</v>
+      </c>
+      <c r="X85">
+        <v>9</v>
+      </c>
+      <c r="Y85">
+        <v>1.07</v>
+      </c>
+      <c r="Z85">
+        <v>1.91</v>
+      </c>
+      <c r="AA85">
+        <v>3.3</v>
+      </c>
+      <c r="AB85">
+        <v>3.6</v>
+      </c>
+      <c r="AC85">
+        <v>1.06</v>
+      </c>
+      <c r="AD85">
+        <v>8</v>
+      </c>
+      <c r="AE85">
+        <v>1.33</v>
+      </c>
+      <c r="AF85">
+        <v>3.1</v>
+      </c>
+      <c r="AG85">
+        <v>2.04</v>
+      </c>
+      <c r="AH85">
+        <v>1.74</v>
+      </c>
+      <c r="AI85">
+        <v>1.91</v>
+      </c>
+      <c r="AJ85">
+        <v>1.8</v>
+      </c>
+      <c r="AK85">
+        <v>1.25</v>
+      </c>
+      <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
+        <v>1.77</v>
+      </c>
+      <c r="AN85">
+        <v>0.75</v>
+      </c>
+      <c r="AO85">
+        <v>1.25</v>
+      </c>
+      <c r="AP85">
+        <v>1.2</v>
+      </c>
+      <c r="AQ85">
+        <v>1</v>
+      </c>
+      <c r="AR85">
+        <v>1.49</v>
+      </c>
+      <c r="AS85">
+        <v>0.99</v>
+      </c>
+      <c r="AT85">
+        <v>2.48</v>
+      </c>
+      <c r="AU85">
+        <v>8</v>
+      </c>
+      <c r="AV85">
+        <v>4</v>
+      </c>
+      <c r="AW85">
+        <v>2</v>
+      </c>
+      <c r="AX85">
+        <v>1</v>
+      </c>
+      <c r="AY85">
+        <v>10</v>
+      </c>
+      <c r="AZ85">
+        <v>5</v>
+      </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
+        <v>9</v>
+      </c>
+      <c r="BD85">
+        <v>1.62</v>
+      </c>
+      <c r="BE85">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF85">
+        <v>2.58</v>
+      </c>
+      <c r="BG85">
+        <v>1.22</v>
+      </c>
+      <c r="BH85">
+        <v>3.65</v>
+      </c>
+      <c r="BI85">
+        <v>1.43</v>
+      </c>
+      <c r="BJ85">
+        <v>2.54</v>
+      </c>
+      <c r="BK85">
+        <v>1.77</v>
+      </c>
+      <c r="BL85">
+        <v>1.95</v>
+      </c>
+      <c r="BM85">
+        <v>2.23</v>
+      </c>
+      <c r="BN85">
+        <v>1.55</v>
+      </c>
+      <c r="BO85">
+        <v>2.98</v>
+      </c>
+      <c r="BP85">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7343726</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45416.625</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s">
+        <v>84</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>150</v>
+      </c>
+      <c r="P86" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q86">
+        <v>3.65</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>2.9</v>
+      </c>
+      <c r="T86">
+        <v>1.45</v>
+      </c>
+      <c r="U86">
+        <v>2.55</v>
+      </c>
+      <c r="V86">
+        <v>3</v>
+      </c>
+      <c r="W86">
+        <v>1.33</v>
+      </c>
+      <c r="X86">
+        <v>9</v>
+      </c>
+      <c r="Y86">
+        <v>1.07</v>
+      </c>
+      <c r="Z86">
+        <v>3.1</v>
+      </c>
+      <c r="AA86">
+        <v>3.2</v>
+      </c>
+      <c r="AB86">
+        <v>2.15</v>
+      </c>
+      <c r="AC86">
+        <v>1.06</v>
+      </c>
+      <c r="AD86">
+        <v>8</v>
+      </c>
+      <c r="AE86">
+        <v>1.35</v>
+      </c>
+      <c r="AF86">
+        <v>3</v>
+      </c>
+      <c r="AG86">
+        <v>1.95</v>
+      </c>
+      <c r="AH86">
+        <v>1.62</v>
+      </c>
+      <c r="AI86">
+        <v>1.83</v>
+      </c>
+      <c r="AJ86">
+        <v>1.83</v>
+      </c>
+      <c r="AK86">
+        <v>1.62</v>
+      </c>
+      <c r="AL86">
+        <v>1.28</v>
+      </c>
+      <c r="AM86">
+        <v>1.33</v>
+      </c>
+      <c r="AN86">
+        <v>0.25</v>
+      </c>
+      <c r="AO86">
+        <v>1.8</v>
+      </c>
+      <c r="AP86">
+        <v>0.8</v>
+      </c>
+      <c r="AQ86">
+        <v>1.5</v>
+      </c>
+      <c r="AR86">
+        <v>1.57</v>
+      </c>
+      <c r="AS86">
+        <v>1.39</v>
+      </c>
+      <c r="AT86">
+        <v>2.96</v>
+      </c>
+      <c r="AU86">
+        <v>8</v>
+      </c>
+      <c r="AV86">
+        <v>8</v>
+      </c>
+      <c r="AW86">
+        <v>6</v>
+      </c>
+      <c r="AX86">
+        <v>7</v>
+      </c>
+      <c r="AY86">
+        <v>14</v>
+      </c>
+      <c r="AZ86">
+        <v>15</v>
+      </c>
+      <c r="BA86">
+        <v>3</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>3</v>
+      </c>
+      <c r="BD86">
+        <v>2.45</v>
+      </c>
+      <c r="BE86">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF86">
+        <v>1.68</v>
+      </c>
+      <c r="BG86">
+        <v>1.21</v>
+      </c>
+      <c r="BH86">
+        <v>3.74</v>
+      </c>
+      <c r="BI86">
+        <v>1.41</v>
+      </c>
+      <c r="BJ86">
+        <v>2.6</v>
+      </c>
+      <c r="BK86">
+        <v>1.77</v>
+      </c>
+      <c r="BL86">
+        <v>1.95</v>
+      </c>
+      <c r="BM86">
+        <v>2.17</v>
+      </c>
+      <c r="BN86">
+        <v>1.58</v>
+      </c>
+      <c r="BO86">
+        <v>2.91</v>
+      </c>
+      <c r="BP86">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,15 +460,18 @@
     <t>['10', '16']</t>
   </si>
   <si>
-    <t>['8', '44', '79', '90+1']</t>
-  </si>
-  <si>
-    <t>['50', '78', '90+2']</t>
+    <t>['8', '43', '79', '90+1']</t>
+  </si>
+  <si>
+    <t>['48', '78', '90+2']</t>
   </si>
   <si>
     <t>['88', '90+1']</t>
   </si>
   <si>
+    <t>['5', '35']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -626,6 +629,9 @@
   </si>
   <si>
     <t>['21']</t>
+  </si>
+  <si>
+    <t>['21', '32', '84']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1252,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1452,7 +1458,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1658,7 +1664,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1864,7 +1870,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2070,7 +2076,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2276,7 +2282,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2482,7 +2488,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2688,7 +2694,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2766,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2894,7 +2900,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -4130,7 +4136,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4336,7 +4342,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4417,7 +4423,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ17">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4542,7 +4548,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4826,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>1.43</v>
@@ -5160,7 +5166,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5366,7 +5372,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5572,7 +5578,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5778,7 +5784,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5984,7 +5990,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6062,7 +6068,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6396,7 +6402,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6602,7 +6608,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6808,7 +6814,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7838,7 +7844,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8044,7 +8050,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8662,7 +8668,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8743,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8868,7 +8874,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9074,7 +9080,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9280,7 +9286,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9898,7 +9904,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10516,7 +10522,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10722,7 +10728,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10928,7 +10934,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11134,7 +11140,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11212,7 +11218,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
         <v>1.33</v>
@@ -11340,7 +11346,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11546,7 +11552,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11833,7 +11839,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12164,7 +12170,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12370,7 +12376,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12988,7 +12994,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13069,7 +13075,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ59">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -13194,7 +13200,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13400,7 +13406,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13812,7 +13818,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14018,7 +14024,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14224,7 +14230,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14636,7 +14642,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14717,7 +14723,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ67">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -14842,7 +14848,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15048,7 +15054,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15254,7 +15260,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15460,7 +15466,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15666,7 +15672,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15744,7 +15750,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -15872,7 +15878,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16078,7 +16084,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16490,7 +16496,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16902,7 +16908,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17108,7 +17114,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17726,7 +17732,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17932,7 +17938,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18138,7 +18144,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18344,7 +18350,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18707,6 +18713,212 @@
       </c>
       <c r="BP86">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7343728</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87" t="s">
+        <v>151</v>
+      </c>
+      <c r="P87" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q87">
+        <v>3.6</v>
+      </c>
+      <c r="R87">
+        <v>1.91</v>
+      </c>
+      <c r="S87">
+        <v>3.3</v>
+      </c>
+      <c r="T87">
+        <v>1.5</v>
+      </c>
+      <c r="U87">
+        <v>2.4</v>
+      </c>
+      <c r="V87">
+        <v>3.3</v>
+      </c>
+      <c r="W87">
+        <v>1.29</v>
+      </c>
+      <c r="X87">
+        <v>9</v>
+      </c>
+      <c r="Y87">
+        <v>1.03</v>
+      </c>
+      <c r="Z87">
+        <v>2.7</v>
+      </c>
+      <c r="AA87">
+        <v>2.9</v>
+      </c>
+      <c r="AB87">
+        <v>2.63</v>
+      </c>
+      <c r="AC87">
+        <v>1.08</v>
+      </c>
+      <c r="AD87">
+        <v>6.5</v>
+      </c>
+      <c r="AE87">
+        <v>1.48</v>
+      </c>
+      <c r="AF87">
+        <v>2.46</v>
+      </c>
+      <c r="AG87">
+        <v>2.59</v>
+      </c>
+      <c r="AH87">
+        <v>1.44</v>
+      </c>
+      <c r="AI87">
+        <v>2</v>
+      </c>
+      <c r="AJ87">
+        <v>1.73</v>
+      </c>
+      <c r="AK87">
+        <v>1.5</v>
+      </c>
+      <c r="AL87">
+        <v>1.38</v>
+      </c>
+      <c r="AM87">
+        <v>1.42</v>
+      </c>
+      <c r="AN87">
+        <v>2</v>
+      </c>
+      <c r="AO87">
+        <v>1.6</v>
+      </c>
+      <c r="AP87">
+        <v>1.67</v>
+      </c>
+      <c r="AQ87">
+        <v>1.83</v>
+      </c>
+      <c r="AR87">
+        <v>1.24</v>
+      </c>
+      <c r="AS87">
+        <v>1.02</v>
+      </c>
+      <c r="AT87">
+        <v>2.26</v>
+      </c>
+      <c r="AU87">
+        <v>6</v>
+      </c>
+      <c r="AV87">
+        <v>7</v>
+      </c>
+      <c r="AW87">
+        <v>9</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>15</v>
+      </c>
+      <c r="AZ87">
+        <v>11</v>
+      </c>
+      <c r="BA87">
+        <v>13</v>
+      </c>
+      <c r="BB87">
+        <v>1</v>
+      </c>
+      <c r="BC87">
+        <v>14</v>
+      </c>
+      <c r="BD87">
+        <v>2.2</v>
+      </c>
+      <c r="BE87">
+        <v>7.5</v>
+      </c>
+      <c r="BF87">
+        <v>1.91</v>
+      </c>
+      <c r="BG87">
+        <v>1.31</v>
+      </c>
+      <c r="BH87">
+        <v>3.15</v>
+      </c>
+      <c r="BI87">
+        <v>1.67</v>
+      </c>
+      <c r="BJ87">
+        <v>2.1</v>
+      </c>
+      <c r="BK87">
+        <v>2</v>
+      </c>
+      <c r="BL87">
+        <v>1.73</v>
+      </c>
+      <c r="BM87">
+        <v>2.75</v>
+      </c>
+      <c r="BN87">
+        <v>1.4</v>
+      </c>
+      <c r="BO87">
+        <v>3.65</v>
+      </c>
+      <c r="BP87">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,7 +469,10 @@
     <t>['88', '90+1']</t>
   </si>
   <si>
-    <t>['5', '35']</t>
+    <t>['4', '34']</t>
+  </si>
+  <si>
+    <t>['35', '39', '90+2']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -631,7 +634,10 @@
     <t>['21']</t>
   </si>
   <si>
-    <t>['21', '32', '84']</t>
+    <t>['19', '30', '84']</t>
+  </si>
+  <si>
+    <t>['20', '65']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1258,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1458,7 +1464,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1536,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ3">
         <v>1.43</v>
@@ -1664,7 +1670,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1870,7 +1876,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1948,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2076,7 +2082,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2282,7 +2288,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2488,7 +2494,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2694,7 +2700,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2900,7 +2906,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -4011,7 +4017,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4136,7 +4142,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4342,7 +4348,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4548,7 +4554,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4629,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -5166,7 +5172,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5244,7 +5250,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5372,7 +5378,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5578,7 +5584,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5784,7 +5790,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5990,7 +5996,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6277,7 +6283,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -6402,7 +6408,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6608,7 +6614,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6814,7 +6820,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7716,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ33">
         <v>0.4</v>
@@ -7844,7 +7850,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8050,7 +8056,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8540,10 +8546,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -8668,7 +8674,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8874,7 +8880,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9080,7 +9086,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9286,7 +9292,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9904,7 +9910,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10522,7 +10528,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10603,7 +10609,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10728,7 +10734,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10934,7 +10940,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11015,7 +11021,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11140,7 +11146,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11346,7 +11352,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11552,7 +11558,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12170,7 +12176,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12248,7 +12254,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ55">
         <v>1.6</v>
@@ -12376,7 +12382,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12454,7 +12460,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>2.67</v>
@@ -12994,7 +13000,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13072,7 +13078,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>1.83</v>
@@ -13200,7 +13206,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13406,7 +13412,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13818,7 +13824,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14024,7 +14030,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14230,7 +14236,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14311,7 +14317,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14517,7 +14523,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -14642,7 +14648,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14848,7 +14854,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15054,7 +15060,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15260,7 +15266,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15338,7 +15344,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15466,7 +15472,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15544,7 +15550,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -15672,7 +15678,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15878,7 +15884,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15959,7 +15965,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>0.8</v>
@@ -16084,7 +16090,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16496,7 +16502,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16908,7 +16914,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17114,7 +17120,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17732,7 +17738,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17938,7 +17944,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18144,7 +18150,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18350,7 +18356,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18762,7 +18768,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18919,6 +18925,418 @@
       </c>
       <c r="BP87">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7343725</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45417.625</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>71</v>
+      </c>
+      <c r="H88" t="s">
+        <v>82</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>93</v>
+      </c>
+      <c r="P88" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q88">
+        <v>4.75</v>
+      </c>
+      <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
+        <v>2.6</v>
+      </c>
+      <c r="T88">
+        <v>1.45</v>
+      </c>
+      <c r="U88">
+        <v>2.55</v>
+      </c>
+      <c r="V88">
+        <v>3.1</v>
+      </c>
+      <c r="W88">
+        <v>1.33</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Y88">
+        <v>1.06</v>
+      </c>
+      <c r="Z88">
+        <v>3.4</v>
+      </c>
+      <c r="AA88">
+        <v>3.2</v>
+      </c>
+      <c r="AB88">
+        <v>2.06</v>
+      </c>
+      <c r="AC88">
+        <v>1.07</v>
+      </c>
+      <c r="AD88">
+        <v>7.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.38</v>
+      </c>
+      <c r="AF88">
+        <v>2.88</v>
+      </c>
+      <c r="AG88">
+        <v>2.1</v>
+      </c>
+      <c r="AH88">
+        <v>1.67</v>
+      </c>
+      <c r="AI88">
+        <v>2</v>
+      </c>
+      <c r="AJ88">
+        <v>1.73</v>
+      </c>
+      <c r="AK88">
+        <v>1.82</v>
+      </c>
+      <c r="AL88">
+        <v>1.28</v>
+      </c>
+      <c r="AM88">
+        <v>1.19</v>
+      </c>
+      <c r="AN88">
+        <v>0.2</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>0.17</v>
+      </c>
+      <c r="AQ88">
+        <v>1.33</v>
+      </c>
+      <c r="AR88">
+        <v>1.17</v>
+      </c>
+      <c r="AS88">
+        <v>1.64</v>
+      </c>
+      <c r="AT88">
+        <v>2.81</v>
+      </c>
+      <c r="AU88">
+        <v>4</v>
+      </c>
+      <c r="AV88">
+        <v>3</v>
+      </c>
+      <c r="AW88">
+        <v>12</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>16</v>
+      </c>
+      <c r="AZ88">
+        <v>7</v>
+      </c>
+      <c r="BA88">
+        <v>4</v>
+      </c>
+      <c r="BB88">
+        <v>2</v>
+      </c>
+      <c r="BC88">
+        <v>6</v>
+      </c>
+      <c r="BD88">
+        <v>2.1</v>
+      </c>
+      <c r="BE88">
+        <v>8</v>
+      </c>
+      <c r="BF88">
+        <v>1.91</v>
+      </c>
+      <c r="BG88">
+        <v>1.26</v>
+      </c>
+      <c r="BH88">
+        <v>3.34</v>
+      </c>
+      <c r="BI88">
+        <v>1.46</v>
+      </c>
+      <c r="BJ88">
+        <v>2.52</v>
+      </c>
+      <c r="BK88">
+        <v>1.85</v>
+      </c>
+      <c r="BL88">
+        <v>1.85</v>
+      </c>
+      <c r="BM88">
+        <v>2.37</v>
+      </c>
+      <c r="BN88">
+        <v>1.51</v>
+      </c>
+      <c r="BO88">
+        <v>3.2</v>
+      </c>
+      <c r="BP88">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7343731</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45417.72916666666</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>73</v>
+      </c>
+      <c r="H89" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89" t="s">
+        <v>152</v>
+      </c>
+      <c r="P89" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q89">
+        <v>2.76</v>
+      </c>
+      <c r="R89">
+        <v>1.97</v>
+      </c>
+      <c r="S89">
+        <v>4.05</v>
+      </c>
+      <c r="T89">
+        <v>1.48</v>
+      </c>
+      <c r="U89">
+        <v>2.54</v>
+      </c>
+      <c r="V89">
+        <v>3.26</v>
+      </c>
+      <c r="W89">
+        <v>1.31</v>
+      </c>
+      <c r="X89">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y89">
+        <v>1.05</v>
+      </c>
+      <c r="Z89">
+        <v>1.95</v>
+      </c>
+      <c r="AA89">
+        <v>3.15</v>
+      </c>
+      <c r="AB89">
+        <v>3.35</v>
+      </c>
+      <c r="AC89">
+        <v>1.04</v>
+      </c>
+      <c r="AD89">
+        <v>7.4</v>
+      </c>
+      <c r="AE89">
+        <v>1.38</v>
+      </c>
+      <c r="AF89">
+        <v>2.71</v>
+      </c>
+      <c r="AG89">
+        <v>2.09</v>
+      </c>
+      <c r="AH89">
+        <v>1.54</v>
+      </c>
+      <c r="AI89">
+        <v>1.91</v>
+      </c>
+      <c r="AJ89">
+        <v>1.76</v>
+      </c>
+      <c r="AK89">
+        <v>1.28</v>
+      </c>
+      <c r="AL89">
+        <v>1.3</v>
+      </c>
+      <c r="AM89">
+        <v>1.63</v>
+      </c>
+      <c r="AN89">
+        <v>0.6</v>
+      </c>
+      <c r="AO89">
+        <v>0.5</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="AQ89">
+        <v>0.4</v>
+      </c>
+      <c r="AR89">
+        <v>1.29</v>
+      </c>
+      <c r="AS89">
+        <v>0.93</v>
+      </c>
+      <c r="AT89">
+        <v>2.22</v>
+      </c>
+      <c r="AU89">
+        <v>4</v>
+      </c>
+      <c r="AV89">
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <v>0</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>4</v>
+      </c>
+      <c r="AZ89">
+        <v>0</v>
+      </c>
+      <c r="BA89">
+        <v>0</v>
+      </c>
+      <c r="BB89">
+        <v>5</v>
+      </c>
+      <c r="BC89">
+        <v>5</v>
+      </c>
+      <c r="BD89">
+        <v>1.95</v>
+      </c>
+      <c r="BE89">
+        <v>8</v>
+      </c>
+      <c r="BF89">
+        <v>2.1</v>
+      </c>
+      <c r="BG89">
+        <v>1.21</v>
+      </c>
+      <c r="BH89">
+        <v>3.74</v>
+      </c>
+      <c r="BI89">
+        <v>1.46</v>
+      </c>
+      <c r="BJ89">
+        <v>2.52</v>
+      </c>
+      <c r="BK89">
+        <v>1.8</v>
+      </c>
+      <c r="BL89">
+        <v>1.9</v>
+      </c>
+      <c r="BM89">
+        <v>2.37</v>
+      </c>
+      <c r="BN89">
+        <v>1.51</v>
+      </c>
+      <c r="BO89">
+        <v>3.2</v>
+      </c>
+      <c r="BP89">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -472,7 +472,7 @@
     <t>['4', '34']</t>
   </si>
   <si>
-    <t>['35', '39', '90+2']</t>
+    <t>['34', '38', '90+2']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -19067,19 +19067,19 @@
         <v>2.81</v>
       </c>
       <c r="AU88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW88">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AX88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY88">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AZ88">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,9 @@
     <t>['34', '38', '90+2']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -638,6 +641,9 @@
   </si>
   <si>
     <t>['20', '65']</t>
+  </si>
+  <si>
+    <t>['7', '11', '18', '32']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1264,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1336,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ2">
         <v>0.4</v>
@@ -1464,7 +1470,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1670,7 +1676,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1876,7 +1882,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2082,7 +2088,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2288,7 +2294,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2494,7 +2500,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2700,7 +2706,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2906,7 +2912,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3605,7 +3611,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -4142,7 +4148,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4348,7 +4354,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4554,7 +4560,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5044,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -5172,7 +5178,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5378,7 +5384,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5584,7 +5590,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5790,7 +5796,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5871,7 +5877,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ24">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -5996,7 +6002,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6408,7 +6414,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6614,7 +6620,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6820,7 +6826,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7850,7 +7856,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8056,7 +8062,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8340,7 +8346,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8674,7 +8680,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8880,7 +8886,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9086,7 +9092,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9292,7 +9298,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9785,7 +9791,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>0.6899999999999999</v>
@@ -9910,7 +9916,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10528,7 +10534,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10734,7 +10740,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10940,7 +10946,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11146,7 +11152,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11352,7 +11358,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11558,7 +11564,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11842,7 +11848,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ53">
         <v>1.83</v>
@@ -12176,7 +12182,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12382,7 +12388,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12875,7 +12881,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.2</v>
@@ -13000,7 +13006,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13206,7 +13212,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13412,7 +13418,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13824,7 +13830,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14030,7 +14036,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14236,7 +14242,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14648,7 +14654,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14854,7 +14860,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15060,7 +15066,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15138,7 +15144,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ69">
         <v>0.2</v>
@@ -15266,7 +15272,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15472,7 +15478,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15678,7 +15684,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15884,7 +15890,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16090,7 +16096,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16502,7 +16508,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16914,7 +16920,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17120,7 +17126,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17407,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.38</v>
@@ -17738,7 +17744,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17944,7 +17950,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18150,7 +18156,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18228,7 +18234,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ84">
         <v>1.8</v>
@@ -18356,7 +18362,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18768,7 +18774,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18974,7 +18980,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19337,6 +19343,212 @@
       </c>
       <c r="BP89">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7343733</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45422.83333333334</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+      <c r="O90" t="s">
+        <v>153</v>
+      </c>
+      <c r="P90" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q90">
+        <v>1.88</v>
+      </c>
+      <c r="R90">
+        <v>2.47</v>
+      </c>
+      <c r="S90">
+        <v>8.07</v>
+      </c>
+      <c r="T90">
+        <v>1.36</v>
+      </c>
+      <c r="U90">
+        <v>2.88</v>
+      </c>
+      <c r="V90">
+        <v>2.7</v>
+      </c>
+      <c r="W90">
+        <v>1.4</v>
+      </c>
+      <c r="X90">
+        <v>6.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.08</v>
+      </c>
+      <c r="Z90">
+        <v>1.32</v>
+      </c>
+      <c r="AA90">
+        <v>4.5</v>
+      </c>
+      <c r="AB90">
+        <v>8.5</v>
+      </c>
+      <c r="AC90">
+        <v>1.02</v>
+      </c>
+      <c r="AD90">
+        <v>10</v>
+      </c>
+      <c r="AE90">
+        <v>1.29</v>
+      </c>
+      <c r="AF90">
+        <v>3.55</v>
+      </c>
+      <c r="AG90">
+        <v>1.88</v>
+      </c>
+      <c r="AH90">
+        <v>1.87</v>
+      </c>
+      <c r="AI90">
+        <v>2.1</v>
+      </c>
+      <c r="AJ90">
+        <v>1.6</v>
+      </c>
+      <c r="AK90">
+        <v>1.03</v>
+      </c>
+      <c r="AL90">
+        <v>1.14</v>
+      </c>
+      <c r="AM90">
+        <v>3</v>
+      </c>
+      <c r="AN90">
+        <v>2.67</v>
+      </c>
+      <c r="AO90">
+        <v>0.6</v>
+      </c>
+      <c r="AP90">
+        <v>2.29</v>
+      </c>
+      <c r="AQ90">
+        <v>1</v>
+      </c>
+      <c r="AR90">
+        <v>1.78</v>
+      </c>
+      <c r="AS90">
+        <v>1.26</v>
+      </c>
+      <c r="AT90">
+        <v>3.04</v>
+      </c>
+      <c r="AU90">
+        <v>6</v>
+      </c>
+      <c r="AV90">
+        <v>7</v>
+      </c>
+      <c r="AW90">
+        <v>3</v>
+      </c>
+      <c r="AX90">
+        <v>5</v>
+      </c>
+      <c r="AY90">
+        <v>9</v>
+      </c>
+      <c r="AZ90">
+        <v>12</v>
+      </c>
+      <c r="BA90">
+        <v>10</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>14</v>
+      </c>
+      <c r="BD90">
+        <v>1.5</v>
+      </c>
+      <c r="BE90">
+        <v>8.5</v>
+      </c>
+      <c r="BF90">
+        <v>3</v>
+      </c>
+      <c r="BG90">
+        <v>1.23</v>
+      </c>
+      <c r="BH90">
+        <v>3.56</v>
+      </c>
+      <c r="BI90">
+        <v>1.45</v>
+      </c>
+      <c r="BJ90">
+        <v>2.55</v>
+      </c>
+      <c r="BK90">
+        <v>1.77</v>
+      </c>
+      <c r="BL90">
+        <v>1.95</v>
+      </c>
+      <c r="BM90">
+        <v>2.32</v>
+      </c>
+      <c r="BN90">
+        <v>1.54</v>
+      </c>
+      <c r="BO90">
+        <v>3.1</v>
+      </c>
+      <c r="BP90">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,12 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['18', '27']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -644,6 +650,9 @@
   </si>
   <si>
     <t>['7', '11', '18', '32']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1273,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1345,7 +1354,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1470,7 +1479,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1551,7 +1560,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ3">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1676,7 +1685,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1754,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1882,7 +1891,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2088,7 +2097,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2166,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2294,7 +2303,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2372,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ7">
         <v>1.6</v>
@@ -2500,7 +2509,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2706,7 +2715,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2787,7 +2796,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2912,7 +2921,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3199,7 +3208,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3402,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -4148,7 +4157,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4226,7 +4235,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4354,7 +4363,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4432,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ17">
         <v>1.83</v>
@@ -4560,7 +4569,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4638,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -4847,7 +4856,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>1.89</v>
@@ -5053,7 +5062,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5178,7 +5187,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5384,7 +5393,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5465,7 +5474,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.2</v>
@@ -5590,7 +5599,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5796,7 +5805,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5874,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6002,7 +6011,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6286,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ26">
         <v>0.4</v>
@@ -6414,7 +6423,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6495,7 +6504,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ27">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6620,7 +6629,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6826,7 +6835,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7319,7 +7328,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>0.74</v>
@@ -7731,7 +7740,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ33">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -7856,7 +7865,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7934,7 +7943,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ34">
         <v>2.67</v>
@@ -8062,7 +8071,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8680,7 +8689,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8758,7 +8767,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38">
         <v>1.83</v>
@@ -8886,7 +8895,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8967,7 +8976,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9092,7 +9101,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9298,7 +9307,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9582,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ42">
         <v>1.8</v>
@@ -9916,7 +9925,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -9997,7 +10006,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10203,7 +10212,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ45">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.48</v>
@@ -10409,7 +10418,7 @@
         <v>3</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.56</v>
@@ -10534,7 +10543,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10612,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ47">
         <v>0.4</v>
@@ -10740,7 +10749,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10946,7 +10955,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11152,7 +11161,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11233,7 +11242,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR50">
         <v>1.19</v>
@@ -11358,7 +11367,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11436,7 +11445,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11564,7 +11573,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12054,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
         <v>0.2</v>
@@ -12182,7 +12191,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12388,7 +12397,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12878,7 +12887,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13006,7 +13015,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13212,7 +13221,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13418,7 +13427,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13499,7 +13508,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ61">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -13702,10 +13711,10 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ62">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.31</v>
@@ -13830,7 +13839,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14036,7 +14045,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14114,7 +14123,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ64">
         <v>1.8</v>
@@ -14242,7 +14251,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14320,7 +14329,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ65">
         <v>0.4</v>
@@ -14654,7 +14663,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14860,7 +14869,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15066,7 +15075,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15272,7 +15281,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15478,7 +15487,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15559,7 +15568,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR71">
         <v>1.16</v>
@@ -15684,7 +15693,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15890,7 +15899,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16096,7 +16105,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16177,7 +16186,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>0.9</v>
@@ -16508,7 +16517,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16586,10 +16595,10 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ76">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
         <v>1.18</v>
@@ -16920,7 +16929,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -16998,7 +17007,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ78">
         <v>1.8</v>
@@ -17126,7 +17135,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17207,7 +17216,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ79">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -17410,7 +17419,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17616,10 +17625,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ81">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR81">
         <v>1.33</v>
@@ -17744,7 +17753,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17950,7 +17959,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18156,7 +18165,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18362,7 +18371,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18774,7 +18783,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18980,7 +18989,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19392,7 +19401,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19485,22 +19494,22 @@
         <v>3.04</v>
       </c>
       <c r="AU90">
+        <v>9</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>2</v>
+      </c>
+      <c r="AX90">
         <v>6</v>
       </c>
-      <c r="AV90">
-        <v>7</v>
-      </c>
-      <c r="AW90">
-        <v>3</v>
-      </c>
-      <c r="AX90">
-        <v>5</v>
-      </c>
       <c r="AY90">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ90">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA90">
         <v>10</v>
@@ -19549,6 +19558,830 @@
       </c>
       <c r="BP90">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7343735</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>154</v>
+      </c>
+      <c r="P91" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q91">
+        <v>3.3</v>
+      </c>
+      <c r="R91">
+        <v>1.95</v>
+      </c>
+      <c r="S91">
+        <v>3.5</v>
+      </c>
+      <c r="T91">
+        <v>1.5</v>
+      </c>
+      <c r="U91">
+        <v>2.38</v>
+      </c>
+      <c r="V91">
+        <v>3.3</v>
+      </c>
+      <c r="W91">
+        <v>1.29</v>
+      </c>
+      <c r="X91">
+        <v>8.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.04</v>
+      </c>
+      <c r="Z91">
+        <v>2.6</v>
+      </c>
+      <c r="AA91">
+        <v>3</v>
+      </c>
+      <c r="AB91">
+        <v>2.5</v>
+      </c>
+      <c r="AC91">
+        <v>1.08</v>
+      </c>
+      <c r="AD91">
+        <v>6.5</v>
+      </c>
+      <c r="AE91">
+        <v>1.45</v>
+      </c>
+      <c r="AF91">
+        <v>2.6</v>
+      </c>
+      <c r="AG91">
+        <v>2.15</v>
+      </c>
+      <c r="AH91">
+        <v>1.62</v>
+      </c>
+      <c r="AI91">
+        <v>1.95</v>
+      </c>
+      <c r="AJ91">
+        <v>1.7</v>
+      </c>
+      <c r="AK91">
+        <v>1.4</v>
+      </c>
+      <c r="AL91">
+        <v>1.38</v>
+      </c>
+      <c r="AM91">
+        <v>1.48</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
+        <v>1.43</v>
+      </c>
+      <c r="AP91">
+        <v>1.29</v>
+      </c>
+      <c r="AQ91">
+        <v>1.25</v>
+      </c>
+      <c r="AR91">
+        <v>1.05</v>
+      </c>
+      <c r="AS91">
+        <v>1.38</v>
+      </c>
+      <c r="AT91">
+        <v>2.43</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>4</v>
+      </c>
+      <c r="AW91">
+        <v>0</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>5</v>
+      </c>
+      <c r="AZ91">
+        <v>4</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>6</v>
+      </c>
+      <c r="BC91">
+        <v>9</v>
+      </c>
+      <c r="BD91">
+        <v>1.73</v>
+      </c>
+      <c r="BE91">
+        <v>8</v>
+      </c>
+      <c r="BF91">
+        <v>2.4</v>
+      </c>
+      <c r="BG91">
+        <v>1.25</v>
+      </c>
+      <c r="BH91">
+        <v>3.42</v>
+      </c>
+      <c r="BI91">
+        <v>1.48</v>
+      </c>
+      <c r="BJ91">
+        <v>2.47</v>
+      </c>
+      <c r="BK91">
+        <v>1.85</v>
+      </c>
+      <c r="BL91">
+        <v>1.85</v>
+      </c>
+      <c r="BM91">
+        <v>2.4</v>
+      </c>
+      <c r="BN91">
+        <v>1.5</v>
+      </c>
+      <c r="BO91">
+        <v>3.2</v>
+      </c>
+      <c r="BP91">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7343737</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45423.52083333334</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92" t="s">
+        <v>93</v>
+      </c>
+      <c r="P92" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q92">
+        <v>3.14</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>3.81</v>
+      </c>
+      <c r="T92">
+        <v>1.46</v>
+      </c>
+      <c r="U92">
+        <v>2.7</v>
+      </c>
+      <c r="V92">
+        <v>3.34</v>
+      </c>
+      <c r="W92">
+        <v>1.33</v>
+      </c>
+      <c r="X92">
+        <v>8.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.05</v>
+      </c>
+      <c r="Z92">
+        <v>2.3</v>
+      </c>
+      <c r="AA92">
+        <v>2.92</v>
+      </c>
+      <c r="AB92">
+        <v>2.83</v>
+      </c>
+      <c r="AC92">
+        <v>1.06</v>
+      </c>
+      <c r="AD92">
+        <v>7.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.36</v>
+      </c>
+      <c r="AF92">
+        <v>2.88</v>
+      </c>
+      <c r="AG92">
+        <v>2.09</v>
+      </c>
+      <c r="AH92">
+        <v>1.53</v>
+      </c>
+      <c r="AI92">
+        <v>1.86</v>
+      </c>
+      <c r="AJ92">
+        <v>1.9</v>
+      </c>
+      <c r="AK92">
+        <v>1.36</v>
+      </c>
+      <c r="AL92">
+        <v>1.31</v>
+      </c>
+      <c r="AM92">
+        <v>1.52</v>
+      </c>
+      <c r="AN92">
+        <v>0.33</v>
+      </c>
+      <c r="AO92">
+        <v>0.4</v>
+      </c>
+      <c r="AP92">
+        <v>0.43</v>
+      </c>
+      <c r="AQ92">
+        <v>0.5</v>
+      </c>
+      <c r="AR92">
+        <v>1.2</v>
+      </c>
+      <c r="AS92">
+        <v>1.12</v>
+      </c>
+      <c r="AT92">
+        <v>2.32</v>
+      </c>
+      <c r="AU92">
+        <v>2</v>
+      </c>
+      <c r="AV92">
+        <v>0</v>
+      </c>
+      <c r="AW92">
+        <v>7</v>
+      </c>
+      <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
+        <v>9</v>
+      </c>
+      <c r="AZ92">
+        <v>5</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>3</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>1.83</v>
+      </c>
+      <c r="BE92">
+        <v>8</v>
+      </c>
+      <c r="BF92">
+        <v>2.25</v>
+      </c>
+      <c r="BG92">
+        <v>1.23</v>
+      </c>
+      <c r="BH92">
+        <v>3.56</v>
+      </c>
+      <c r="BI92">
+        <v>1.46</v>
+      </c>
+      <c r="BJ92">
+        <v>2.52</v>
+      </c>
+      <c r="BK92">
+        <v>1.85</v>
+      </c>
+      <c r="BL92">
+        <v>1.85</v>
+      </c>
+      <c r="BM92">
+        <v>2.37</v>
+      </c>
+      <c r="BN92">
+        <v>1.51</v>
+      </c>
+      <c r="BO92">
+        <v>3.2</v>
+      </c>
+      <c r="BP92">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7343734</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45423.625</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s">
+        <v>73</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>93</v>
+      </c>
+      <c r="P93" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q93">
+        <v>2.85</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>3.7</v>
+      </c>
+      <c r="T93">
+        <v>1.41</v>
+      </c>
+      <c r="U93">
+        <v>2.8</v>
+      </c>
+      <c r="V93">
+        <v>3.09</v>
+      </c>
+      <c r="W93">
+        <v>1.35</v>
+      </c>
+      <c r="X93">
+        <v>6.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.08</v>
+      </c>
+      <c r="Z93">
+        <v>2.18</v>
+      </c>
+      <c r="AA93">
+        <v>3.25</v>
+      </c>
+      <c r="AB93">
+        <v>3.15</v>
+      </c>
+      <c r="AC93">
+        <v>1.06</v>
+      </c>
+      <c r="AD93">
+        <v>8</v>
+      </c>
+      <c r="AE93">
+        <v>1.35</v>
+      </c>
+      <c r="AF93">
+        <v>3</v>
+      </c>
+      <c r="AG93">
+        <v>2.1</v>
+      </c>
+      <c r="AH93">
+        <v>1.7</v>
+      </c>
+      <c r="AI93">
+        <v>1.8</v>
+      </c>
+      <c r="AJ93">
+        <v>1.91</v>
+      </c>
+      <c r="AK93">
+        <v>1.35</v>
+      </c>
+      <c r="AL93">
+        <v>1.33</v>
+      </c>
+      <c r="AM93">
+        <v>1.65</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>1</v>
+      </c>
+      <c r="AP93">
+        <v>0.86</v>
+      </c>
+      <c r="AQ93">
+        <v>1.33</v>
+      </c>
+      <c r="AR93">
+        <v>1.47</v>
+      </c>
+      <c r="AS93">
+        <v>1.44</v>
+      </c>
+      <c r="AT93">
+        <v>2.91</v>
+      </c>
+      <c r="AU93">
+        <v>0</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>0</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>0</v>
+      </c>
+      <c r="AZ93">
+        <v>5</v>
+      </c>
+      <c r="BA93">
+        <v>11</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
+      </c>
+      <c r="BC93">
+        <v>12</v>
+      </c>
+      <c r="BD93">
+        <v>1.83</v>
+      </c>
+      <c r="BE93">
+        <v>8</v>
+      </c>
+      <c r="BF93">
+        <v>2.25</v>
+      </c>
+      <c r="BG93">
+        <v>1.29</v>
+      </c>
+      <c r="BH93">
+        <v>3.4</v>
+      </c>
+      <c r="BI93">
+        <v>1.43</v>
+      </c>
+      <c r="BJ93">
+        <v>2.62</v>
+      </c>
+      <c r="BK93">
+        <v>1.77</v>
+      </c>
+      <c r="BL93">
+        <v>1.95</v>
+      </c>
+      <c r="BM93">
+        <v>2.32</v>
+      </c>
+      <c r="BN93">
+        <v>1.54</v>
+      </c>
+      <c r="BO93">
+        <v>3.1</v>
+      </c>
+      <c r="BP93">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7343739</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45423.75</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s">
+        <v>78</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>155</v>
+      </c>
+      <c r="P94" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q94">
+        <v>1.93</v>
+      </c>
+      <c r="R94">
+        <v>2.4</v>
+      </c>
+      <c r="S94">
+        <v>7.82</v>
+      </c>
+      <c r="T94">
+        <v>1.39</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+      <c r="V94">
+        <v>2.96</v>
+      </c>
+      <c r="W94">
+        <v>1.4</v>
+      </c>
+      <c r="X94">
+        <v>7.2</v>
+      </c>
+      <c r="Y94">
+        <v>1.08</v>
+      </c>
+      <c r="Z94">
+        <v>1.4</v>
+      </c>
+      <c r="AA94">
+        <v>4.3</v>
+      </c>
+      <c r="AB94">
+        <v>7</v>
+      </c>
+      <c r="AC94">
+        <v>1.03</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.28</v>
+      </c>
+      <c r="AF94">
+        <v>3.4</v>
+      </c>
+      <c r="AG94">
+        <v>1.94</v>
+      </c>
+      <c r="AH94">
+        <v>1.82</v>
+      </c>
+      <c r="AI94">
+        <v>2.11</v>
+      </c>
+      <c r="AJ94">
+        <v>1.69</v>
+      </c>
+      <c r="AK94">
+        <v>1.07</v>
+      </c>
+      <c r="AL94">
+        <v>1.19</v>
+      </c>
+      <c r="AM94">
+        <v>2.66</v>
+      </c>
+      <c r="AN94">
+        <v>2.6</v>
+      </c>
+      <c r="AO94">
+        <v>1.33</v>
+      </c>
+      <c r="AP94">
+        <v>2.67</v>
+      </c>
+      <c r="AQ94">
+        <v>1.14</v>
+      </c>
+      <c r="AR94">
+        <v>1.37</v>
+      </c>
+      <c r="AS94">
+        <v>1.13</v>
+      </c>
+      <c r="AT94">
+        <v>2.5</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>2</v>
+      </c>
+      <c r="AW94">
+        <v>2</v>
+      </c>
+      <c r="AX94">
+        <v>2</v>
+      </c>
+      <c r="AY94">
+        <v>5</v>
+      </c>
+      <c r="AZ94">
+        <v>4</v>
+      </c>
+      <c r="BA94">
+        <v>2</v>
+      </c>
+      <c r="BB94">
+        <v>1</v>
+      </c>
+      <c r="BC94">
+        <v>3</v>
+      </c>
+      <c r="BD94">
+        <v>1.14</v>
+      </c>
+      <c r="BE94">
+        <v>11</v>
+      </c>
+      <c r="BF94">
+        <v>6.5</v>
+      </c>
+      <c r="BG94">
+        <v>1.3</v>
+      </c>
+      <c r="BH94">
+        <v>3.2</v>
+      </c>
+      <c r="BI94">
+        <v>1.55</v>
+      </c>
+      <c r="BJ94">
+        <v>2.3</v>
+      </c>
+      <c r="BK94">
+        <v>1.95</v>
+      </c>
+      <c r="BL94">
+        <v>1.77</v>
+      </c>
+      <c r="BM94">
+        <v>2.62</v>
+      </c>
+      <c r="BN94">
+        <v>1.43</v>
+      </c>
+      <c r="BO94">
+        <v>3.34</v>
+      </c>
+      <c r="BP94">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -19494,22 +19494,22 @@
         <v>3.04</v>
       </c>
       <c r="AU90">
+        <v>6</v>
+      </c>
+      <c r="AV90">
+        <v>7</v>
+      </c>
+      <c r="AW90">
+        <v>3</v>
+      </c>
+      <c r="AX90">
+        <v>5</v>
+      </c>
+      <c r="AY90">
         <v>9</v>
       </c>
-      <c r="AV90">
-        <v>5</v>
-      </c>
-      <c r="AW90">
-        <v>2</v>
-      </c>
-      <c r="AX90">
-        <v>6</v>
-      </c>
-      <c r="AY90">
-        <v>11</v>
-      </c>
       <c r="AZ90">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA90">
         <v>10</v>
@@ -20318,31 +20318,31 @@
         <v>2.5</v>
       </c>
       <c r="AU94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY94">
+        <v>9</v>
+      </c>
+      <c r="AZ94">
+        <v>7</v>
+      </c>
+      <c r="BA94">
+        <v>3</v>
+      </c>
+      <c r="BB94">
+        <v>2</v>
+      </c>
+      <c r="BC94">
         <v>5</v>
-      </c>
-      <c r="AZ94">
-        <v>4</v>
-      </c>
-      <c r="BA94">
-        <v>2</v>
-      </c>
-      <c r="BB94">
-        <v>1</v>
-      </c>
-      <c r="BC94">
-        <v>3</v>
       </c>
       <c r="BD94">
         <v>1.14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,9 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['9', '45+1']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -653,6 +656,12 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['32', '53', '57', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,7 +1282,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1479,7 +1488,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1685,7 +1694,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1891,7 +1900,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1972,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2097,7 +2106,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2303,7 +2312,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2509,7 +2518,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2715,7 +2724,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2921,7 +2930,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3823,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>1.8</v>
@@ -4157,7 +4166,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4363,7 +4372,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4444,7 +4453,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ17">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4569,7 +4578,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4650,7 +4659,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -5187,7 +5196,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5268,7 +5277,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR21">
         <v>1.09</v>
@@ -5393,7 +5402,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5471,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5599,7 +5608,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5677,7 +5686,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ23">
         <v>2.67</v>
@@ -5805,7 +5814,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6011,7 +6020,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6092,7 +6101,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR25">
         <v>1.39</v>
@@ -6423,7 +6432,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6501,7 +6510,7 @@
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -6629,7 +6638,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6707,7 +6716,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ28">
         <v>1.8</v>
@@ -6835,7 +6844,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7865,7 +7874,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8071,7 +8080,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8149,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8564,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -8689,7 +8698,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8770,7 +8779,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8895,7 +8904,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9101,7 +9110,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9179,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
         <v>0.2</v>
@@ -9307,7 +9316,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9797,7 +9806,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9925,7 +9934,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10003,7 +10012,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10415,7 +10424,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -10543,7 +10552,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10749,7 +10758,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10830,7 +10839,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10955,7 +10964,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11036,7 +11045,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11161,7 +11170,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11367,7 +11376,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11573,7 +11582,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11860,7 +11869,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ53">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12191,7 +12200,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12397,7 +12406,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12681,10 +12690,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13015,7 +13024,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13096,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -13221,7 +13230,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13299,7 +13308,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ60">
         <v>1.8</v>
@@ -13427,7 +13436,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13839,7 +13848,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14045,7 +14054,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14251,7 +14260,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14535,10 +14544,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -14663,7 +14672,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14744,7 +14753,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ67">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -14869,7 +14878,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15075,7 +15084,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15281,7 +15290,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15487,7 +15496,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15693,7 +15702,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15899,7 +15908,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15977,10 +15986,10 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR73">
         <v>0.8</v>
@@ -16105,7 +16114,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16183,7 +16192,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ74">
         <v>1.33</v>
@@ -16392,7 +16401,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ75">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR75">
         <v>1.21</v>
@@ -16517,7 +16526,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16801,7 +16810,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ77">
         <v>1.6</v>
@@ -16929,7 +16938,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17135,7 +17144,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17753,7 +17762,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17959,7 +17968,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18037,7 +18046,7 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>2.67</v>
@@ -18165,7 +18174,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18371,7 +18380,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18783,7 +18792,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18864,7 +18873,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ87">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -18989,7 +18998,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19070,7 +19079,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19401,7 +19410,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20019,7 +20028,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20382,6 +20391,624 @@
       </c>
       <c r="BP94">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7343738</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s">
+        <v>76</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>156</v>
+      </c>
+      <c r="P95" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q95">
+        <v>3.47</v>
+      </c>
+      <c r="R95">
+        <v>2.14</v>
+      </c>
+      <c r="S95">
+        <v>3.34</v>
+      </c>
+      <c r="T95">
+        <v>1.44</v>
+      </c>
+      <c r="U95">
+        <v>2.78</v>
+      </c>
+      <c r="V95">
+        <v>3.22</v>
+      </c>
+      <c r="W95">
+        <v>1.35</v>
+      </c>
+      <c r="X95">
+        <v>8.1</v>
+      </c>
+      <c r="Y95">
+        <v>1.06</v>
+      </c>
+      <c r="Z95">
+        <v>2.75</v>
+      </c>
+      <c r="AA95">
+        <v>3.1</v>
+      </c>
+      <c r="AB95">
+        <v>2.63</v>
+      </c>
+      <c r="AC95">
+        <v>1.05</v>
+      </c>
+      <c r="AD95">
+        <v>8</v>
+      </c>
+      <c r="AE95">
+        <v>1.36</v>
+      </c>
+      <c r="AF95">
+        <v>2.9</v>
+      </c>
+      <c r="AG95">
+        <v>2.05</v>
+      </c>
+      <c r="AH95">
+        <v>1.56</v>
+      </c>
+      <c r="AI95">
+        <v>1.82</v>
+      </c>
+      <c r="AJ95">
+        <v>1.94</v>
+      </c>
+      <c r="AK95">
+        <v>1.46</v>
+      </c>
+      <c r="AL95">
+        <v>1.3</v>
+      </c>
+      <c r="AM95">
+        <v>1.42</v>
+      </c>
+      <c r="AN95">
+        <v>0.67</v>
+      </c>
+      <c r="AO95">
+        <v>1.83</v>
+      </c>
+      <c r="AP95">
+        <v>1</v>
+      </c>
+      <c r="AQ95">
+        <v>1.57</v>
+      </c>
+      <c r="AR95">
+        <v>1.59</v>
+      </c>
+      <c r="AS95">
+        <v>1.09</v>
+      </c>
+      <c r="AT95">
+        <v>2.68</v>
+      </c>
+      <c r="AU95">
+        <v>3</v>
+      </c>
+      <c r="AV95">
+        <v>2</v>
+      </c>
+      <c r="AW95">
+        <v>5</v>
+      </c>
+      <c r="AX95">
+        <v>3</v>
+      </c>
+      <c r="AY95">
+        <v>8</v>
+      </c>
+      <c r="AZ95">
+        <v>5</v>
+      </c>
+      <c r="BA95">
+        <v>5</v>
+      </c>
+      <c r="BB95">
+        <v>1</v>
+      </c>
+      <c r="BC95">
+        <v>6</v>
+      </c>
+      <c r="BD95">
+        <v>1.95</v>
+      </c>
+      <c r="BE95">
+        <v>7.5</v>
+      </c>
+      <c r="BF95">
+        <v>2.1</v>
+      </c>
+      <c r="BG95">
+        <v>1.28</v>
+      </c>
+      <c r="BH95">
+        <v>3.35</v>
+      </c>
+      <c r="BI95">
+        <v>1.53</v>
+      </c>
+      <c r="BJ95">
+        <v>2.33</v>
+      </c>
+      <c r="BK95">
+        <v>1.95</v>
+      </c>
+      <c r="BL95">
+        <v>1.77</v>
+      </c>
+      <c r="BM95">
+        <v>2.62</v>
+      </c>
+      <c r="BN95">
+        <v>1.43</v>
+      </c>
+      <c r="BO95">
+        <v>3.34</v>
+      </c>
+      <c r="BP95">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7343736</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="F96">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>83</v>
+      </c>
+      <c r="H96" t="s">
+        <v>79</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>93</v>
+      </c>
+      <c r="P96" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q96">
+        <v>3.91</v>
+      </c>
+      <c r="R96">
+        <v>2.27</v>
+      </c>
+      <c r="S96">
+        <v>2.79</v>
+      </c>
+      <c r="T96">
+        <v>1.37</v>
+      </c>
+      <c r="U96">
+        <v>3.1</v>
+      </c>
+      <c r="V96">
+        <v>2.83</v>
+      </c>
+      <c r="W96">
+        <v>1.43</v>
+      </c>
+      <c r="X96">
+        <v>6</v>
+      </c>
+      <c r="Y96">
+        <v>1.09</v>
+      </c>
+      <c r="Z96">
+        <v>3.2</v>
+      </c>
+      <c r="AA96">
+        <v>3.3</v>
+      </c>
+      <c r="AB96">
+        <v>2.1</v>
+      </c>
+      <c r="AC96">
+        <v>1.03</v>
+      </c>
+      <c r="AD96">
+        <v>9</v>
+      </c>
+      <c r="AE96">
+        <v>1.29</v>
+      </c>
+      <c r="AF96">
+        <v>3.3</v>
+      </c>
+      <c r="AG96">
+        <v>1.91</v>
+      </c>
+      <c r="AH96">
+        <v>1.8</v>
+      </c>
+      <c r="AI96">
+        <v>1.73</v>
+      </c>
+      <c r="AJ96">
+        <v>2</v>
+      </c>
+      <c r="AK96">
+        <v>1.7</v>
+      </c>
+      <c r="AL96">
+        <v>1.3</v>
+      </c>
+      <c r="AM96">
+        <v>1.35</v>
+      </c>
+      <c r="AN96">
+        <v>1.33</v>
+      </c>
+      <c r="AO96">
+        <v>2</v>
+      </c>
+      <c r="AP96">
+        <v>1.14</v>
+      </c>
+      <c r="AQ96">
+        <v>2.14</v>
+      </c>
+      <c r="AR96">
+        <v>0.91</v>
+      </c>
+      <c r="AS96">
+        <v>1.25</v>
+      </c>
+      <c r="AT96">
+        <v>2.16</v>
+      </c>
+      <c r="AU96">
+        <v>9</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>5</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>14</v>
+      </c>
+      <c r="AZ96">
+        <v>7</v>
+      </c>
+      <c r="BA96">
+        <v>5</v>
+      </c>
+      <c r="BB96">
+        <v>7</v>
+      </c>
+      <c r="BC96">
+        <v>12</v>
+      </c>
+      <c r="BD96">
+        <v>2.2</v>
+      </c>
+      <c r="BE96">
+        <v>8</v>
+      </c>
+      <c r="BF96">
+        <v>1.91</v>
+      </c>
+      <c r="BG96">
+        <v>1.29</v>
+      </c>
+      <c r="BH96">
+        <v>3.3</v>
+      </c>
+      <c r="BI96">
+        <v>1.48</v>
+      </c>
+      <c r="BJ96">
+        <v>2.47</v>
+      </c>
+      <c r="BK96">
+        <v>1.77</v>
+      </c>
+      <c r="BL96">
+        <v>1.95</v>
+      </c>
+      <c r="BM96">
+        <v>2.33</v>
+      </c>
+      <c r="BN96">
+        <v>1.53</v>
+      </c>
+      <c r="BO96">
+        <v>3.1</v>
+      </c>
+      <c r="BP96">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7343740</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45424.625</v>
+      </c>
+      <c r="F97">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>84</v>
+      </c>
+      <c r="H97" t="s">
+        <v>82</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>5</v>
+      </c>
+      <c r="O97" t="s">
+        <v>102</v>
+      </c>
+      <c r="P97" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q97">
+        <v>3.85</v>
+      </c>
+      <c r="R97">
+        <v>2.26</v>
+      </c>
+      <c r="S97">
+        <v>2.83</v>
+      </c>
+      <c r="T97">
+        <v>1.38</v>
+      </c>
+      <c r="U97">
+        <v>3.07</v>
+      </c>
+      <c r="V97">
+        <v>2.87</v>
+      </c>
+      <c r="W97">
+        <v>1.42</v>
+      </c>
+      <c r="X97">
+        <v>6.9</v>
+      </c>
+      <c r="Y97">
+        <v>1.08</v>
+      </c>
+      <c r="Z97">
+        <v>2.9</v>
+      </c>
+      <c r="AA97">
+        <v>3.25</v>
+      </c>
+      <c r="AB97">
+        <v>2.15</v>
+      </c>
+      <c r="AC97">
+        <v>1.02</v>
+      </c>
+      <c r="AD97">
+        <v>10</v>
+      </c>
+      <c r="AE97">
+        <v>1.29</v>
+      </c>
+      <c r="AF97">
+        <v>3.4</v>
+      </c>
+      <c r="AG97">
+        <v>1.85</v>
+      </c>
+      <c r="AH97">
+        <v>1.85</v>
+      </c>
+      <c r="AI97">
+        <v>1.69</v>
+      </c>
+      <c r="AJ97">
+        <v>2.11</v>
+      </c>
+      <c r="AK97">
+        <v>1.63</v>
+      </c>
+      <c r="AL97">
+        <v>1.28</v>
+      </c>
+      <c r="AM97">
+        <v>1.32</v>
+      </c>
+      <c r="AN97">
+        <v>3</v>
+      </c>
+      <c r="AO97">
+        <v>1.33</v>
+      </c>
+      <c r="AP97">
+        <v>2.5</v>
+      </c>
+      <c r="AQ97">
+        <v>1.57</v>
+      </c>
+      <c r="AR97">
+        <v>1.71</v>
+      </c>
+      <c r="AS97">
+        <v>1.58</v>
+      </c>
+      <c r="AT97">
+        <v>3.29</v>
+      </c>
+      <c r="AU97">
+        <v>4</v>
+      </c>
+      <c r="AV97">
+        <v>5</v>
+      </c>
+      <c r="AW97">
+        <v>8</v>
+      </c>
+      <c r="AX97">
+        <v>1</v>
+      </c>
+      <c r="AY97">
+        <v>12</v>
+      </c>
+      <c r="AZ97">
+        <v>6</v>
+      </c>
+      <c r="BA97">
+        <v>3</v>
+      </c>
+      <c r="BB97">
+        <v>6</v>
+      </c>
+      <c r="BC97">
+        <v>9</v>
+      </c>
+      <c r="BD97">
+        <v>2.2</v>
+      </c>
+      <c r="BE97">
+        <v>8</v>
+      </c>
+      <c r="BF97">
+        <v>1.91</v>
+      </c>
+      <c r="BG97">
+        <v>1.25</v>
+      </c>
+      <c r="BH97">
+        <v>3.6</v>
+      </c>
+      <c r="BI97">
+        <v>1.35</v>
+      </c>
+      <c r="BJ97">
+        <v>2.95</v>
+      </c>
+      <c r="BK97">
+        <v>1.7</v>
+      </c>
+      <c r="BL97">
+        <v>2.05</v>
+      </c>
+      <c r="BM97">
+        <v>2.07</v>
+      </c>
+      <c r="BN97">
+        <v>1.67</v>
+      </c>
+      <c r="BO97">
+        <v>2.7</v>
+      </c>
+      <c r="BP97">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -20739,7 +20739,7 @@
         <v>2.16</v>
       </c>
       <c r="AU96">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV96">
         <v>4</v>
@@ -20748,13 +20748,13 @@
         <v>5</v>
       </c>
       <c r="AX96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY96">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ96">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA96">
         <v>5</v>
@@ -20945,22 +20945,22 @@
         <v>3.29</v>
       </c>
       <c r="AU97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV97">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AW97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY97">
         <v>12</v>
       </c>
       <c r="AZ97">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA97">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>['9', '45+1']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1023,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1285,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1488,7 +1491,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1566,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ3">
         <v>1.25</v>
@@ -1694,7 +1697,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1775,7 +1778,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1900,7 +1903,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2106,7 +2109,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2312,7 +2315,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2518,7 +2521,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2724,7 +2727,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2930,7 +2933,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -4166,7 +4169,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4247,7 +4250,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR16">
         <v>1.34</v>
@@ -4372,7 +4375,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4578,7 +4581,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5196,7 +5199,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5274,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ21">
         <v>2.14</v>
@@ -5402,7 +5405,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5608,7 +5611,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5814,7 +5817,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6020,7 +6023,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6432,7 +6435,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6638,7 +6641,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6844,7 +6847,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7746,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -7874,7 +7877,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8080,7 +8083,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8367,7 +8370,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8698,7 +8701,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8904,7 +8907,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9110,7 +9113,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9316,7 +9319,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9934,7 +9937,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10552,7 +10555,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10758,7 +10761,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10964,7 +10967,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11170,7 +11173,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11376,7 +11379,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11582,7 +11585,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11663,7 +11666,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.3</v>
@@ -12200,7 +12203,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12278,7 +12281,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ55">
         <v>1.6</v>
@@ -12406,7 +12409,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13024,7 +13027,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13230,7 +13233,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13436,7 +13439,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13848,7 +13851,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14054,7 +14057,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14260,7 +14263,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14672,7 +14675,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14878,7 +14881,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15084,7 +15087,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15290,7 +15293,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15496,7 +15499,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15574,7 +15577,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ71">
         <v>1.14</v>
@@ -15702,7 +15705,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15783,7 +15786,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR72">
         <v>1.26</v>
@@ -15908,7 +15911,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16114,7 +16117,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16526,7 +16529,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16938,7 +16941,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17144,7 +17147,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17762,7 +17765,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17968,7 +17971,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18174,7 +18177,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18380,7 +18383,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18667,7 +18670,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR86">
         <v>1.57</v>
@@ -18792,7 +18795,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18998,7 +19001,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19076,7 +19079,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ88">
         <v>1.57</v>
@@ -19410,7 +19413,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20028,7 +20031,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20440,7 +20443,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20646,7 +20649,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20852,7 +20855,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21009,6 +21012,212 @@
       </c>
       <c r="BP97">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7343741</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45430.52083333334</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s">
+        <v>84</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>157</v>
+      </c>
+      <c r="P98" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q98">
+        <v>3.44</v>
+      </c>
+      <c r="R98">
+        <v>1.99</v>
+      </c>
+      <c r="S98">
+        <v>3.08</v>
+      </c>
+      <c r="T98">
+        <v>1.44</v>
+      </c>
+      <c r="U98">
+        <v>2.65</v>
+      </c>
+      <c r="V98">
+        <v>2.99</v>
+      </c>
+      <c r="W98">
+        <v>1.36</v>
+      </c>
+      <c r="X98">
+        <v>7.7</v>
+      </c>
+      <c r="Y98">
+        <v>1.06</v>
+      </c>
+      <c r="Z98">
+        <v>2.8</v>
+      </c>
+      <c r="AA98">
+        <v>3.2</v>
+      </c>
+      <c r="AB98">
+        <v>2.44</v>
+      </c>
+      <c r="AC98">
+        <v>1.03</v>
+      </c>
+      <c r="AD98">
+        <v>7.9</v>
+      </c>
+      <c r="AE98">
+        <v>1.32</v>
+      </c>
+      <c r="AF98">
+        <v>2.98</v>
+      </c>
+      <c r="AG98">
+        <v>2.05</v>
+      </c>
+      <c r="AH98">
+        <v>1.7</v>
+      </c>
+      <c r="AI98">
+        <v>1.77</v>
+      </c>
+      <c r="AJ98">
+        <v>1.89</v>
+      </c>
+      <c r="AK98">
+        <v>1.47</v>
+      </c>
+      <c r="AL98">
+        <v>1.31</v>
+      </c>
+      <c r="AM98">
+        <v>1.39</v>
+      </c>
+      <c r="AN98">
+        <v>0.17</v>
+      </c>
+      <c r="AO98">
+        <v>1.5</v>
+      </c>
+      <c r="AP98">
+        <v>0.57</v>
+      </c>
+      <c r="AQ98">
+        <v>1.29</v>
+      </c>
+      <c r="AR98">
+        <v>1.19</v>
+      </c>
+      <c r="AS98">
+        <v>1.55</v>
+      </c>
+      <c r="AT98">
+        <v>2.74</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>1</v>
+      </c>
+      <c r="AY98">
+        <v>7</v>
+      </c>
+      <c r="AZ98">
+        <v>4</v>
+      </c>
+      <c r="BA98">
+        <v>1</v>
+      </c>
+      <c r="BB98">
+        <v>5</v>
+      </c>
+      <c r="BC98">
+        <v>6</v>
+      </c>
+      <c r="BD98">
+        <v>1.7</v>
+      </c>
+      <c r="BE98">
+        <v>8.5</v>
+      </c>
+      <c r="BF98">
+        <v>2.38</v>
+      </c>
+      <c r="BG98">
+        <v>1.2</v>
+      </c>
+      <c r="BH98">
+        <v>4</v>
+      </c>
+      <c r="BI98">
+        <v>1.36</v>
+      </c>
+      <c r="BJ98">
+        <v>2.9</v>
+      </c>
+      <c r="BK98">
+        <v>1.58</v>
+      </c>
+      <c r="BL98">
+        <v>2.32</v>
+      </c>
+      <c r="BM98">
+        <v>1.96</v>
+      </c>
+      <c r="BN98">
+        <v>1.84</v>
+      </c>
+      <c r="BO98">
+        <v>2.47</v>
+      </c>
+      <c r="BP98">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -665,6 +665,12 @@
   </si>
   <si>
     <t>['32', '53', '57', '90+7']</t>
+  </si>
+  <si>
+    <t>['13', '18']</t>
+  </si>
+  <si>
+    <t>['23', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2602,7 +2608,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2805,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -4041,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
         <v>0.4</v>
@@ -4865,7 +4871,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ19">
         <v>1.25</v>
@@ -5692,7 +5698,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ23">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6101,7 +6107,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ25">
         <v>2.14</v>
@@ -6925,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29">
         <v>1.8</v>
@@ -7134,7 +7140,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ30">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7958,7 +7964,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -9194,7 +9200,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.57</v>
@@ -10221,7 +10227,7 @@
         <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -11251,7 +11257,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ50">
         <v>1.14</v>
@@ -12078,7 +12084,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12490,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -13517,7 +13523,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ61">
         <v>0.5</v>
@@ -14962,7 +14968,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15168,7 +15174,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ69">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -15783,7 +15789,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ72">
         <v>1.29</v>
@@ -17225,7 +17231,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79">
         <v>1.14</v>
@@ -17846,7 +17852,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ82">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18052,7 +18058,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18873,7 +18879,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ87">
         <v>1.57</v>
@@ -21154,31 +21160,31 @@
         <v>2.74</v>
       </c>
       <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
         <v>4</v>
       </c>
-      <c r="AV98">
-        <v>3</v>
-      </c>
       <c r="AW98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY98">
+        <v>10</v>
+      </c>
+      <c r="AZ98">
         <v>7</v>
       </c>
-      <c r="AZ98">
-        <v>4</v>
-      </c>
       <c r="BA98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC98">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD98">
         <v>1.7</v>
@@ -21218,6 +21224,418 @@
       </c>
       <c r="BP98">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7343745</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45430.625</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>83</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>93</v>
+      </c>
+      <c r="P99" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q99">
+        <v>2.55</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>4.1</v>
+      </c>
+      <c r="T99">
+        <v>1.4</v>
+      </c>
+      <c r="U99">
+        <v>2.6</v>
+      </c>
+      <c r="V99">
+        <v>2.95</v>
+      </c>
+      <c r="W99">
+        <v>1.32</v>
+      </c>
+      <c r="X99">
+        <v>7.2</v>
+      </c>
+      <c r="Y99">
+        <v>1.05</v>
+      </c>
+      <c r="Z99">
+        <v>2.09</v>
+      </c>
+      <c r="AA99">
+        <v>3.25</v>
+      </c>
+      <c r="AB99">
+        <v>3.45</v>
+      </c>
+      <c r="AC99">
+        <v>1.08</v>
+      </c>
+      <c r="AD99">
+        <v>6.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.33</v>
+      </c>
+      <c r="AF99">
+        <v>3</v>
+      </c>
+      <c r="AG99">
+        <v>2.1</v>
+      </c>
+      <c r="AH99">
+        <v>1.65</v>
+      </c>
+      <c r="AI99">
+        <v>1.8</v>
+      </c>
+      <c r="AJ99">
+        <v>1.85</v>
+      </c>
+      <c r="AK99">
+        <v>1.17</v>
+      </c>
+      <c r="AL99">
+        <v>1.33</v>
+      </c>
+      <c r="AM99">
+        <v>1.67</v>
+      </c>
+      <c r="AN99">
+        <v>1.67</v>
+      </c>
+      <c r="AO99">
+        <v>0.2</v>
+      </c>
+      <c r="AP99">
+        <v>1.43</v>
+      </c>
+      <c r="AQ99">
+        <v>0.67</v>
+      </c>
+      <c r="AR99">
+        <v>1.32</v>
+      </c>
+      <c r="AS99">
+        <v>1.03</v>
+      </c>
+      <c r="AT99">
+        <v>2.35</v>
+      </c>
+      <c r="AU99">
+        <v>8</v>
+      </c>
+      <c r="AV99">
+        <v>4</v>
+      </c>
+      <c r="AW99">
+        <v>4</v>
+      </c>
+      <c r="AX99">
+        <v>5</v>
+      </c>
+      <c r="AY99">
+        <v>12</v>
+      </c>
+      <c r="AZ99">
+        <v>9</v>
+      </c>
+      <c r="BA99">
+        <v>6</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>10</v>
+      </c>
+      <c r="BD99">
+        <v>1.75</v>
+      </c>
+      <c r="BE99">
+        <v>8.5</v>
+      </c>
+      <c r="BF99">
+        <v>2.33</v>
+      </c>
+      <c r="BG99">
+        <v>1.26</v>
+      </c>
+      <c r="BH99">
+        <v>3.34</v>
+      </c>
+      <c r="BI99">
+        <v>1.48</v>
+      </c>
+      <c r="BJ99">
+        <v>2.4</v>
+      </c>
+      <c r="BK99">
+        <v>2</v>
+      </c>
+      <c r="BL99">
+        <v>1.8</v>
+      </c>
+      <c r="BM99">
+        <v>2.38</v>
+      </c>
+      <c r="BN99">
+        <v>1.49</v>
+      </c>
+      <c r="BO99">
+        <v>3</v>
+      </c>
+      <c r="BP99">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7343742</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45430.75</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>82</v>
+      </c>
+      <c r="H100" t="s">
+        <v>80</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100" t="s">
+        <v>93</v>
+      </c>
+      <c r="P100" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q100">
+        <v>4.05</v>
+      </c>
+      <c r="R100">
+        <v>1.96</v>
+      </c>
+      <c r="S100">
+        <v>2.78</v>
+      </c>
+      <c r="T100">
+        <v>1.47</v>
+      </c>
+      <c r="U100">
+        <v>2.57</v>
+      </c>
+      <c r="V100">
+        <v>3.12</v>
+      </c>
+      <c r="W100">
+        <v>1.33</v>
+      </c>
+      <c r="X100">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y100">
+        <v>1.06</v>
+      </c>
+      <c r="Z100">
+        <v>3.15</v>
+      </c>
+      <c r="AA100">
+        <v>3</v>
+      </c>
+      <c r="AB100">
+        <v>2.09</v>
+      </c>
+      <c r="AC100">
+        <v>1.04</v>
+      </c>
+      <c r="AD100">
+        <v>7.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.35</v>
+      </c>
+      <c r="AF100">
+        <v>2.84</v>
+      </c>
+      <c r="AG100">
+        <v>2.04</v>
+      </c>
+      <c r="AH100">
+        <v>1.56</v>
+      </c>
+      <c r="AI100">
+        <v>1.84</v>
+      </c>
+      <c r="AJ100">
+        <v>1.82</v>
+      </c>
+      <c r="AK100">
+        <v>1.61</v>
+      </c>
+      <c r="AL100">
+        <v>1.31</v>
+      </c>
+      <c r="AM100">
+        <v>1.29</v>
+      </c>
+      <c r="AN100">
+        <v>2.2</v>
+      </c>
+      <c r="AO100">
+        <v>2.67</v>
+      </c>
+      <c r="AP100">
+        <v>1.83</v>
+      </c>
+      <c r="AQ100">
+        <v>2.71</v>
+      </c>
+      <c r="AR100">
+        <v>1.43</v>
+      </c>
+      <c r="AS100">
+        <v>1.63</v>
+      </c>
+      <c r="AT100">
+        <v>3.06</v>
+      </c>
+      <c r="AU100">
+        <v>6</v>
+      </c>
+      <c r="AV100">
+        <v>6</v>
+      </c>
+      <c r="AW100">
+        <v>5</v>
+      </c>
+      <c r="AX100">
+        <v>1</v>
+      </c>
+      <c r="AY100">
+        <v>11</v>
+      </c>
+      <c r="AZ100">
+        <v>7</v>
+      </c>
+      <c r="BA100">
+        <v>8</v>
+      </c>
+      <c r="BB100">
+        <v>3</v>
+      </c>
+      <c r="BC100">
+        <v>11</v>
+      </c>
+      <c r="BD100">
+        <v>2.41</v>
+      </c>
+      <c r="BE100">
+        <v>8.5</v>
+      </c>
+      <c r="BF100">
+        <v>1.71</v>
+      </c>
+      <c r="BG100">
+        <v>1.33</v>
+      </c>
+      <c r="BH100">
+        <v>3</v>
+      </c>
+      <c r="BI100">
+        <v>1.58</v>
+      </c>
+      <c r="BJ100">
+        <v>2.3</v>
+      </c>
+      <c r="BK100">
+        <v>1.98</v>
+      </c>
+      <c r="BL100">
+        <v>1.81</v>
+      </c>
+      <c r="BM100">
+        <v>2.51</v>
+      </c>
+      <c r="BN100">
+        <v>1.5</v>
+      </c>
+      <c r="BO100">
+        <v>3.2</v>
+      </c>
+      <c r="BP100">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,12 @@
     <t>['68']</t>
   </si>
   <si>
+    <t>['59', '74']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -667,10 +673,10 @@
     <t>['32', '53', '57', '90+7']</t>
   </si>
   <si>
-    <t>['13', '18']</t>
+    <t>['12', '17']</t>
   </si>
   <si>
-    <t>['23', '90+5']</t>
+    <t>['22', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1297,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1497,7 +1503,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1703,7 +1709,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1909,7 +1915,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2115,7 +2121,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2321,7 +2327,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2527,7 +2533,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2733,7 +2739,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2939,7 +2945,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3017,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3223,7 +3229,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.25</v>
@@ -4050,7 +4056,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4175,7 +4181,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4381,7 +4387,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4462,7 +4468,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ17">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4587,7 +4593,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5205,7 +5211,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5411,7 +5417,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5617,7 +5623,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5823,7 +5829,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6029,7 +6035,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6316,7 +6322,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ26">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -6441,7 +6447,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6647,7 +6653,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6728,7 +6734,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6853,7 +6859,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7343,7 +7349,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7549,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>1.6</v>
@@ -7883,7 +7889,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8089,7 +8095,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8707,7 +8713,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8788,7 +8794,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8913,7 +8919,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -8991,7 +8997,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ39">
         <v>1.14</v>
@@ -9119,7 +9125,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9325,7 +9331,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9406,7 +9412,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9943,7 +9949,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10561,7 +10567,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10642,7 +10648,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ47">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10767,7 +10773,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10845,7 +10851,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48">
         <v>2.14</v>
@@ -10973,7 +10979,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11051,7 +11057,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.57</v>
@@ -11179,7 +11185,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11385,7 +11391,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11591,7 +11597,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11669,7 +11675,7 @@
         <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ52">
         <v>1.29</v>
@@ -11878,7 +11884,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ53">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12209,7 +12215,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12415,7 +12421,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13033,7 +13039,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13114,7 +13120,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -13239,7 +13245,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13320,7 +13326,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13445,7 +13451,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13857,7 +13863,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13935,7 +13941,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ63">
         <v>1.6</v>
@@ -14063,7 +14069,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14269,7 +14275,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14350,7 +14356,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ65">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14681,7 +14687,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14759,10 +14765,10 @@
         <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ67">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -14887,7 +14893,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -14965,7 +14971,7 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
         <v>2.71</v>
@@ -15093,7 +15099,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15299,7 +15305,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15505,7 +15511,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15711,7 +15717,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15917,7 +15923,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16123,7 +16129,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16535,7 +16541,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16947,7 +16953,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17153,7 +17159,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17771,7 +17777,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17849,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ82">
         <v>0.67</v>
@@ -17977,7 +17983,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18183,7 +18189,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18264,7 +18270,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ84">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18389,7 +18395,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18467,7 +18473,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18673,7 +18679,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ86">
         <v>1.29</v>
@@ -18801,7 +18807,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18882,7 +18888,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ87">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -19007,7 +19013,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19294,7 +19300,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR89">
         <v>1.29</v>
@@ -19419,7 +19425,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20037,7 +20043,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20449,7 +20455,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20530,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR95">
         <v>1.59</v>
@@ -20655,7 +20661,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20861,7 +20867,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21273,7 +21279,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21479,7 +21485,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21636,6 +21642,624 @@
       </c>
       <c r="BP100">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7343747</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45431.52083333334</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>85</v>
+      </c>
+      <c r="H101" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>93</v>
+      </c>
+      <c r="P101" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q101">
+        <v>3.2</v>
+      </c>
+      <c r="R101">
+        <v>2.05</v>
+      </c>
+      <c r="S101">
+        <v>3.6</v>
+      </c>
+      <c r="T101">
+        <v>1.5</v>
+      </c>
+      <c r="U101">
+        <v>2.5</v>
+      </c>
+      <c r="V101">
+        <v>3.4</v>
+      </c>
+      <c r="W101">
+        <v>1.3</v>
+      </c>
+      <c r="X101">
+        <v>10</v>
+      </c>
+      <c r="Y101">
+        <v>1.06</v>
+      </c>
+      <c r="Z101">
+        <v>2.38</v>
+      </c>
+      <c r="AA101">
+        <v>3.1</v>
+      </c>
+      <c r="AB101">
+        <v>2.8</v>
+      </c>
+      <c r="AC101">
+        <v>1.04</v>
+      </c>
+      <c r="AD101">
+        <v>7.6</v>
+      </c>
+      <c r="AE101">
+        <v>1.36</v>
+      </c>
+      <c r="AF101">
+        <v>2.79</v>
+      </c>
+      <c r="AG101">
+        <v>2.1</v>
+      </c>
+      <c r="AH101">
+        <v>1.61</v>
+      </c>
+      <c r="AI101">
+        <v>1.91</v>
+      </c>
+      <c r="AJ101">
+        <v>1.8</v>
+      </c>
+      <c r="AK101">
+        <v>1.36</v>
+      </c>
+      <c r="AL101">
+        <v>1.31</v>
+      </c>
+      <c r="AM101">
+        <v>1.51</v>
+      </c>
+      <c r="AN101">
+        <v>0.75</v>
+      </c>
+      <c r="AO101">
+        <v>1.8</v>
+      </c>
+      <c r="AP101">
+        <v>0.6</v>
+      </c>
+      <c r="AQ101">
+        <v>2</v>
+      </c>
+      <c r="AR101">
+        <v>1.11</v>
+      </c>
+      <c r="AS101">
+        <v>1.32</v>
+      </c>
+      <c r="AT101">
+        <v>2.43</v>
+      </c>
+      <c r="AU101">
+        <v>0</v>
+      </c>
+      <c r="AV101">
+        <v>2</v>
+      </c>
+      <c r="AW101">
+        <v>3</v>
+      </c>
+      <c r="AX101">
+        <v>6</v>
+      </c>
+      <c r="AY101">
+        <v>3</v>
+      </c>
+      <c r="AZ101">
+        <v>8</v>
+      </c>
+      <c r="BA101">
+        <v>2</v>
+      </c>
+      <c r="BB101">
+        <v>8</v>
+      </c>
+      <c r="BC101">
+        <v>10</v>
+      </c>
+      <c r="BD101">
+        <v>1.8</v>
+      </c>
+      <c r="BE101">
+        <v>7.5</v>
+      </c>
+      <c r="BF101">
+        <v>2.38</v>
+      </c>
+      <c r="BG101">
+        <v>1.38</v>
+      </c>
+      <c r="BH101">
+        <v>2.8</v>
+      </c>
+      <c r="BI101">
+        <v>1.67</v>
+      </c>
+      <c r="BJ101">
+        <v>2.1</v>
+      </c>
+      <c r="BK101">
+        <v>2.1</v>
+      </c>
+      <c r="BL101">
+        <v>1.67</v>
+      </c>
+      <c r="BM101">
+        <v>2.65</v>
+      </c>
+      <c r="BN101">
+        <v>1.42</v>
+      </c>
+      <c r="BO101">
+        <v>3.6</v>
+      </c>
+      <c r="BP101">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7343746</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45431.625</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s">
+        <v>74</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>158</v>
+      </c>
+      <c r="P102" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q102">
+        <v>2.63</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>5</v>
+      </c>
+      <c r="T102">
+        <v>1.5</v>
+      </c>
+      <c r="U102">
+        <v>2.5</v>
+      </c>
+      <c r="V102">
+        <v>3.5</v>
+      </c>
+      <c r="W102">
+        <v>1.29</v>
+      </c>
+      <c r="X102">
+        <v>11</v>
+      </c>
+      <c r="Y102">
+        <v>1.05</v>
+      </c>
+      <c r="Z102">
+        <v>2.05</v>
+      </c>
+      <c r="AA102">
+        <v>3.1</v>
+      </c>
+      <c r="AB102">
+        <v>3.4</v>
+      </c>
+      <c r="AC102">
+        <v>1.05</v>
+      </c>
+      <c r="AD102">
+        <v>6.9</v>
+      </c>
+      <c r="AE102">
+        <v>1.39</v>
+      </c>
+      <c r="AF102">
+        <v>2.67</v>
+      </c>
+      <c r="AG102">
+        <v>2.2</v>
+      </c>
+      <c r="AH102">
+        <v>1.55</v>
+      </c>
+      <c r="AI102">
+        <v>2.1</v>
+      </c>
+      <c r="AJ102">
+        <v>1.67</v>
+      </c>
+      <c r="AK102">
+        <v>1.17</v>
+      </c>
+      <c r="AL102">
+        <v>1.3</v>
+      </c>
+      <c r="AM102">
+        <v>1.84</v>
+      </c>
+      <c r="AN102">
+        <v>1.2</v>
+      </c>
+      <c r="AO102">
+        <v>0.4</v>
+      </c>
+      <c r="AP102">
+        <v>1.5</v>
+      </c>
+      <c r="AQ102">
+        <v>0.33</v>
+      </c>
+      <c r="AR102">
+        <v>1.47</v>
+      </c>
+      <c r="AS102">
+        <v>0.75</v>
+      </c>
+      <c r="AT102">
+        <v>2.22</v>
+      </c>
+      <c r="AU102">
+        <v>6</v>
+      </c>
+      <c r="AV102">
+        <v>0</v>
+      </c>
+      <c r="AW102">
+        <v>5</v>
+      </c>
+      <c r="AX102">
+        <v>2</v>
+      </c>
+      <c r="AY102">
+        <v>11</v>
+      </c>
+      <c r="AZ102">
+        <v>2</v>
+      </c>
+      <c r="BA102">
+        <v>1</v>
+      </c>
+      <c r="BB102">
+        <v>2</v>
+      </c>
+      <c r="BC102">
+        <v>3</v>
+      </c>
+      <c r="BD102">
+        <v>1.83</v>
+      </c>
+      <c r="BE102">
+        <v>8</v>
+      </c>
+      <c r="BF102">
+        <v>2.25</v>
+      </c>
+      <c r="BG102">
+        <v>1.36</v>
+      </c>
+      <c r="BH102">
+        <v>2.9</v>
+      </c>
+      <c r="BI102">
+        <v>1.63</v>
+      </c>
+      <c r="BJ102">
+        <v>2.26</v>
+      </c>
+      <c r="BK102">
+        <v>1.95</v>
+      </c>
+      <c r="BL102">
+        <v>1.77</v>
+      </c>
+      <c r="BM102">
+        <v>2.5</v>
+      </c>
+      <c r="BN102">
+        <v>1.48</v>
+      </c>
+      <c r="BO102">
+        <v>3.3</v>
+      </c>
+      <c r="BP102">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7343743</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45431.72916666666</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" t="s">
+        <v>76</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>159</v>
+      </c>
+      <c r="P103" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q103">
+        <v>3.4</v>
+      </c>
+      <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>3.4</v>
+      </c>
+      <c r="T103">
+        <v>1.5</v>
+      </c>
+      <c r="U103">
+        <v>2.4</v>
+      </c>
+      <c r="V103">
+        <v>3.3</v>
+      </c>
+      <c r="W103">
+        <v>1.29</v>
+      </c>
+      <c r="X103">
+        <v>8.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.04</v>
+      </c>
+      <c r="Z103">
+        <v>2.6</v>
+      </c>
+      <c r="AA103">
+        <v>3</v>
+      </c>
+      <c r="AB103">
+        <v>2.6</v>
+      </c>
+      <c r="AC103">
+        <v>1.08</v>
+      </c>
+      <c r="AD103">
+        <v>6.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.44</v>
+      </c>
+      <c r="AF103">
+        <v>2.6</v>
+      </c>
+      <c r="AG103">
+        <v>2.3</v>
+      </c>
+      <c r="AH103">
+        <v>1.5</v>
+      </c>
+      <c r="AI103">
+        <v>2</v>
+      </c>
+      <c r="AJ103">
+        <v>1.73</v>
+      </c>
+      <c r="AK103">
+        <v>1.45</v>
+      </c>
+      <c r="AL103">
+        <v>1.38</v>
+      </c>
+      <c r="AM103">
+        <v>1.45</v>
+      </c>
+      <c r="AN103">
+        <v>0.8</v>
+      </c>
+      <c r="AO103">
+        <v>1.57</v>
+      </c>
+      <c r="AP103">
+        <v>1.17</v>
+      </c>
+      <c r="AQ103">
+        <v>1.38</v>
+      </c>
+      <c r="AR103">
+        <v>1.68</v>
+      </c>
+      <c r="AS103">
+        <v>1.04</v>
+      </c>
+      <c r="AT103">
+        <v>2.72</v>
+      </c>
+      <c r="AU103">
+        <v>5</v>
+      </c>
+      <c r="AV103">
+        <v>8</v>
+      </c>
+      <c r="AW103">
+        <v>9</v>
+      </c>
+      <c r="AX103">
+        <v>6</v>
+      </c>
+      <c r="AY103">
+        <v>14</v>
+      </c>
+      <c r="AZ103">
+        <v>14</v>
+      </c>
+      <c r="BA103">
+        <v>1</v>
+      </c>
+      <c r="BB103">
+        <v>4</v>
+      </c>
+      <c r="BC103">
+        <v>5</v>
+      </c>
+      <c r="BD103">
+        <v>1.88</v>
+      </c>
+      <c r="BE103">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF103">
+        <v>2.15</v>
+      </c>
+      <c r="BG103">
+        <v>1.4</v>
+      </c>
+      <c r="BH103">
+        <v>2.7</v>
+      </c>
+      <c r="BI103">
+        <v>1.68</v>
+      </c>
+      <c r="BJ103">
+        <v>2.15</v>
+      </c>
+      <c r="BK103">
+        <v>2.12</v>
+      </c>
+      <c r="BL103">
+        <v>1.71</v>
+      </c>
+      <c r="BM103">
+        <v>2.62</v>
+      </c>
+      <c r="BN103">
+        <v>1.42</v>
+      </c>
+      <c r="BO103">
+        <v>3.6</v>
+      </c>
+      <c r="BP103">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -21784,22 +21784,22 @@
         <v>2.43</v>
       </c>
       <c r="AU101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX101">
         <v>6</v>
       </c>
       <c r="AY101">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ101">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA101">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,9 @@
     <t>['45+2']</t>
   </si>
   <si>
+    <t>['85', '87']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -677,6 +680,12 @@
   </si>
   <si>
     <t>['22', '90+5']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['79', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1306,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1503,7 +1512,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1709,7 +1718,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1915,7 +1924,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1993,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ5">
         <v>2.14</v>
@@ -2121,7 +2130,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2327,7 +2336,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2533,7 +2542,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2739,7 +2748,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2945,7 +2954,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3438,7 +3447,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3847,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4181,7 +4190,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4387,7 +4396,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4593,7 +4602,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5211,7 +5220,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5417,7 +5426,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5495,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5623,7 +5632,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5829,7 +5838,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6035,7 +6044,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6447,7 +6456,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6525,7 +6534,7 @@
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -6653,7 +6662,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6859,7 +6868,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -6940,7 +6949,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.71</v>
@@ -7889,7 +7898,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8095,7 +8104,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8176,7 +8185,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>0.51</v>
@@ -8585,7 +8594,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ37">
         <v>1.57</v>
@@ -8713,7 +8722,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8919,7 +8928,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9125,7 +9134,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9331,7 +9340,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9618,7 +9627,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ42">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.51</v>
@@ -9949,7 +9958,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10027,7 +10036,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10567,7 +10576,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10773,7 +10782,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10979,7 +10988,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11185,7 +11194,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11391,7 +11400,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11472,7 +11481,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>1.16</v>
@@ -11597,7 +11606,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12215,7 +12224,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12421,7 +12430,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12499,7 +12508,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56">
         <v>2.71</v>
@@ -13039,7 +13048,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13117,7 +13126,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ59">
         <v>1.38</v>
@@ -13245,7 +13254,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13451,7 +13460,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13863,7 +13872,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14069,7 +14078,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14150,7 +14159,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>1.2</v>
@@ -14275,7 +14284,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14559,7 +14568,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66">
         <v>1.57</v>
@@ -14687,7 +14696,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14893,7 +14902,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15099,7 +15108,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15305,7 +15314,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15383,10 +15392,10 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15511,7 +15520,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15717,7 +15726,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15923,7 +15932,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16129,7 +16138,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16541,7 +16550,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16953,7 +16962,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17034,7 +17043,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.11</v>
@@ -17159,7 +17168,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17777,7 +17786,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17983,7 +17992,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18061,7 +18070,7 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>2.71</v>
@@ -18189,7 +18198,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18395,7 +18404,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18476,7 +18485,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18807,7 +18816,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19013,7 +19022,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19297,7 +19306,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ89">
         <v>0.33</v>
@@ -19425,7 +19434,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20043,7 +20052,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20455,7 +20464,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20533,7 +20542,7 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95">
         <v>1.38</v>
@@ -20661,7 +20670,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20867,7 +20876,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21279,7 +21288,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21485,7 +21494,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21784,22 +21793,22 @@
         <v>2.43</v>
       </c>
       <c r="AU101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX101">
         <v>6</v>
       </c>
       <c r="AY101">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AZ101">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA101">
         <v>2</v>
@@ -22260,6 +22269,418 @@
       </c>
       <c r="BP103">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7343744</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45432.625</v>
+      </c>
+      <c r="F104">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>81</v>
+      </c>
+      <c r="H104" t="s">
+        <v>72</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>160</v>
+      </c>
+      <c r="P104" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q104">
+        <v>2.5</v>
+      </c>
+      <c r="R104">
+        <v>2.2</v>
+      </c>
+      <c r="S104">
+        <v>4.5</v>
+      </c>
+      <c r="T104">
+        <v>1.4</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
+        <v>3</v>
+      </c>
+      <c r="W104">
+        <v>1.36</v>
+      </c>
+      <c r="X104">
+        <v>8</v>
+      </c>
+      <c r="Y104">
+        <v>1.08</v>
+      </c>
+      <c r="Z104">
+        <v>1.93</v>
+      </c>
+      <c r="AA104">
+        <v>3.3</v>
+      </c>
+      <c r="AB104">
+        <v>3.7</v>
+      </c>
+      <c r="AC104">
+        <v>1.02</v>
+      </c>
+      <c r="AD104">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE104">
+        <v>1.28</v>
+      </c>
+      <c r="AF104">
+        <v>3.18</v>
+      </c>
+      <c r="AG104">
+        <v>1.97</v>
+      </c>
+      <c r="AH104">
+        <v>1.74</v>
+      </c>
+      <c r="AI104">
+        <v>1.83</v>
+      </c>
+      <c r="AJ104">
+        <v>1.83</v>
+      </c>
+      <c r="AK104">
+        <v>1.2</v>
+      </c>
+      <c r="AL104">
+        <v>1.3</v>
+      </c>
+      <c r="AM104">
+        <v>1.91</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
+        <v>1</v>
+      </c>
+      <c r="AP104">
+        <v>1.25</v>
+      </c>
+      <c r="AQ104">
+        <v>0.83</v>
+      </c>
+      <c r="AR104">
+        <v>1.56</v>
+      </c>
+      <c r="AS104">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT104">
+        <v>2.5</v>
+      </c>
+      <c r="AU104">
+        <v>4</v>
+      </c>
+      <c r="AV104">
+        <v>6</v>
+      </c>
+      <c r="AW104">
+        <v>6</v>
+      </c>
+      <c r="AX104">
+        <v>5</v>
+      </c>
+      <c r="AY104">
+        <v>10</v>
+      </c>
+      <c r="AZ104">
+        <v>11</v>
+      </c>
+      <c r="BA104">
+        <v>4</v>
+      </c>
+      <c r="BB104">
+        <v>5</v>
+      </c>
+      <c r="BC104">
+        <v>9</v>
+      </c>
+      <c r="BD104">
+        <v>1.73</v>
+      </c>
+      <c r="BE104">
+        <v>8</v>
+      </c>
+      <c r="BF104">
+        <v>2.38</v>
+      </c>
+      <c r="BG104">
+        <v>1.25</v>
+      </c>
+      <c r="BH104">
+        <v>3.6</v>
+      </c>
+      <c r="BI104">
+        <v>1.37</v>
+      </c>
+      <c r="BJ104">
+        <v>2.85</v>
+      </c>
+      <c r="BK104">
+        <v>1.65</v>
+      </c>
+      <c r="BL104">
+        <v>2.1</v>
+      </c>
+      <c r="BM104">
+        <v>2.1</v>
+      </c>
+      <c r="BN104">
+        <v>1.65</v>
+      </c>
+      <c r="BO104">
+        <v>2.75</v>
+      </c>
+      <c r="BP104">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7343748</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45432.83333333334</v>
+      </c>
+      <c r="F105">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H105" t="s">
+        <v>70</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>93</v>
+      </c>
+      <c r="P105" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q105">
+        <v>5.2</v>
+      </c>
+      <c r="R105">
+        <v>2.19</v>
+      </c>
+      <c r="S105">
+        <v>2.13</v>
+      </c>
+      <c r="T105">
+        <v>1.36</v>
+      </c>
+      <c r="U105">
+        <v>2.99</v>
+      </c>
+      <c r="V105">
+        <v>2.62</v>
+      </c>
+      <c r="W105">
+        <v>1.45</v>
+      </c>
+      <c r="X105">
+        <v>6.35</v>
+      </c>
+      <c r="Y105">
+        <v>1.1</v>
+      </c>
+      <c r="Z105">
+        <v>3.75</v>
+      </c>
+      <c r="AA105">
+        <v>3.24</v>
+      </c>
+      <c r="AB105">
+        <v>1.77</v>
+      </c>
+      <c r="AC105">
+        <v>1.01</v>
+      </c>
+      <c r="AD105">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE105">
+        <v>1.22</v>
+      </c>
+      <c r="AF105">
+        <v>3.65</v>
+      </c>
+      <c r="AG105">
+        <v>1.85</v>
+      </c>
+      <c r="AH105">
+        <v>1.95</v>
+      </c>
+      <c r="AI105">
+        <v>1.77</v>
+      </c>
+      <c r="AJ105">
+        <v>1.89</v>
+      </c>
+      <c r="AK105">
+        <v>2.22</v>
+      </c>
+      <c r="AL105">
+        <v>1.22</v>
+      </c>
+      <c r="AM105">
+        <v>1.12</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
+        <v>1.8</v>
+      </c>
+      <c r="AP105">
+        <v>0.86</v>
+      </c>
+      <c r="AQ105">
+        <v>2</v>
+      </c>
+      <c r="AR105">
+        <v>1.17</v>
+      </c>
+      <c r="AS105">
+        <v>1.41</v>
+      </c>
+      <c r="AT105">
+        <v>2.58</v>
+      </c>
+      <c r="AU105">
+        <v>2</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>1</v>
+      </c>
+      <c r="AX105">
+        <v>2</v>
+      </c>
+      <c r="AY105">
+        <v>3</v>
+      </c>
+      <c r="AZ105">
+        <v>5</v>
+      </c>
+      <c r="BA105">
+        <v>2</v>
+      </c>
+      <c r="BB105">
+        <v>8</v>
+      </c>
+      <c r="BC105">
+        <v>10</v>
+      </c>
+      <c r="BD105">
+        <v>3</v>
+      </c>
+      <c r="BE105">
+        <v>8.5</v>
+      </c>
+      <c r="BF105">
+        <v>1.53</v>
+      </c>
+      <c r="BG105">
+        <v>1.27</v>
+      </c>
+      <c r="BH105">
+        <v>3.28</v>
+      </c>
+      <c r="BI105">
+        <v>1.56</v>
+      </c>
+      <c r="BJ105">
+        <v>2.39</v>
+      </c>
+      <c r="BK105">
+        <v>1.85</v>
+      </c>
+      <c r="BL105">
+        <v>1.85</v>
+      </c>
+      <c r="BM105">
+        <v>2.4</v>
+      </c>
+      <c r="BN105">
+        <v>1.55</v>
+      </c>
+      <c r="BO105">
+        <v>3.2</v>
+      </c>
+      <c r="BP105">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -22411,22 +22411,22 @@
         <v>2.5</v>
       </c>
       <c r="AU104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV104">
+        <v>5</v>
+      </c>
+      <c r="AW104">
+        <v>2</v>
+      </c>
+      <c r="AX104">
+        <v>1</v>
+      </c>
+      <c r="AY104">
+        <v>7</v>
+      </c>
+      <c r="AZ104">
         <v>6</v>
-      </c>
-      <c r="AW104">
-        <v>6</v>
-      </c>
-      <c r="AX104">
-        <v>5</v>
-      </c>
-      <c r="AY104">
-        <v>10</v>
-      </c>
-      <c r="AZ104">
-        <v>11</v>
       </c>
       <c r="BA104">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,12 @@
     <t>['85', '87']</t>
   </si>
   <si>
+    <t>['59', '70', '90+2']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -686,6 +692,9 @@
   </si>
   <si>
     <t>['79', '90+5']</t>
+  </si>
+  <si>
+    <t>['49', '74']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1315,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1512,7 +1521,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1718,7 +1727,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1799,7 +1808,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1924,7 +1933,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2005,7 +2014,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ5">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2130,7 +2139,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2336,7 +2345,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2414,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
         <v>1.6</v>
@@ -2542,7 +2551,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2748,7 +2757,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2954,7 +2963,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3444,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ12">
         <v>0.83</v>
@@ -4190,7 +4199,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4271,7 +4280,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>1.34</v>
@@ -4396,7 +4405,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4602,7 +4611,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4680,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18">
         <v>1.57</v>
@@ -5220,7 +5229,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5301,7 +5310,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ21">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR21">
         <v>1.09</v>
@@ -5426,7 +5435,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5632,7 +5641,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5838,7 +5847,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6044,7 +6053,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6125,7 +6134,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ25">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR25">
         <v>1.39</v>
@@ -6328,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ26">
         <v>0.33</v>
@@ -6456,7 +6465,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6662,7 +6671,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6868,7 +6877,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7898,7 +7907,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -7976,7 +7985,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ34">
         <v>2.71</v>
@@ -8104,7 +8113,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8391,7 +8400,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8722,7 +8731,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8928,7 +8937,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9134,7 +9143,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9340,7 +9349,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9624,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ42">
         <v>2</v>
@@ -9958,7 +9967,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10576,7 +10585,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10782,7 +10791,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10863,7 +10872,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ48">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10988,7 +10997,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11194,7 +11203,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11400,7 +11409,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11478,7 +11487,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ51">
         <v>0.83</v>
@@ -11606,7 +11615,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11687,7 +11696,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR52">
         <v>1.3</v>
@@ -12224,7 +12233,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12430,7 +12439,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12717,7 +12726,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ57">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13048,7 +13057,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13254,7 +13263,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13460,7 +13469,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13744,7 +13753,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ62">
         <v>1.25</v>
@@ -13872,7 +13881,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14078,7 +14087,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14284,7 +14293,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14362,7 +14371,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ65">
         <v>0.33</v>
@@ -14696,7 +14705,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14902,7 +14911,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15108,7 +15117,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15314,7 +15323,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15520,7 +15529,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15726,7 +15735,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15807,7 +15816,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ72">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.26</v>
@@ -15932,7 +15941,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16138,7 +16147,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16425,7 +16434,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ75">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR75">
         <v>1.21</v>
@@ -16550,7 +16559,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16962,7 +16971,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17168,7 +17177,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17452,7 +17461,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17658,7 +17667,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ81">
         <v>0.5</v>
@@ -17786,7 +17795,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17992,7 +18001,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18198,7 +18207,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18404,7 +18413,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18691,7 +18700,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ86">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.57</v>
@@ -18816,7 +18825,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19022,7 +19031,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19434,7 +19443,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20052,7 +20061,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20130,7 +20139,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ93">
         <v>1.33</v>
@@ -20336,7 +20345,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ94">
         <v>1.14</v>
@@ -20464,7 +20473,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20670,7 +20679,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20751,7 +20760,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ96">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR96">
         <v>0.91</v>
@@ -20876,7 +20885,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21163,7 +21172,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ98">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
         <v>1.19</v>
@@ -21288,7 +21297,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21494,7 +21503,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22318,7 +22327,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22524,7 +22533,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22681,6 +22690,418 @@
       </c>
       <c r="BP105">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7343756</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45435.83333333334</v>
+      </c>
+      <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>80</v>
+      </c>
+      <c r="H106" t="s">
+        <v>84</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>3</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>161</v>
+      </c>
+      <c r="P106" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q106">
+        <v>2.02</v>
+      </c>
+      <c r="R106">
+        <v>2.5</v>
+      </c>
+      <c r="S106">
+        <v>6.13</v>
+      </c>
+      <c r="T106">
+        <v>1.33</v>
+      </c>
+      <c r="U106">
+        <v>3</v>
+      </c>
+      <c r="V106">
+        <v>2.61</v>
+      </c>
+      <c r="W106">
+        <v>1.5</v>
+      </c>
+      <c r="X106">
+        <v>6</v>
+      </c>
+      <c r="Y106">
+        <v>1.11</v>
+      </c>
+      <c r="Z106">
+        <v>1.5</v>
+      </c>
+      <c r="AA106">
+        <v>4.16</v>
+      </c>
+      <c r="AB106">
+        <v>6.13</v>
+      </c>
+      <c r="AC106">
+        <v>1.04</v>
+      </c>
+      <c r="AD106">
+        <v>9</v>
+      </c>
+      <c r="AE106">
+        <v>1.22</v>
+      </c>
+      <c r="AF106">
+        <v>3.9</v>
+      </c>
+      <c r="AG106">
+        <v>1.85</v>
+      </c>
+      <c r="AH106">
+        <v>1.89</v>
+      </c>
+      <c r="AI106">
+        <v>1.8</v>
+      </c>
+      <c r="AJ106">
+        <v>1.83</v>
+      </c>
+      <c r="AK106">
+        <v>1.08</v>
+      </c>
+      <c r="AL106">
+        <v>1.17</v>
+      </c>
+      <c r="AM106">
+        <v>2.55</v>
+      </c>
+      <c r="AN106">
+        <v>2.67</v>
+      </c>
+      <c r="AO106">
+        <v>1.29</v>
+      </c>
+      <c r="AP106">
+        <v>2.71</v>
+      </c>
+      <c r="AQ106">
+        <v>1.13</v>
+      </c>
+      <c r="AR106">
+        <v>1.37</v>
+      </c>
+      <c r="AS106">
+        <v>1.5</v>
+      </c>
+      <c r="AT106">
+        <v>2.87</v>
+      </c>
+      <c r="AU106">
+        <v>3</v>
+      </c>
+      <c r="AV106">
+        <v>2</v>
+      </c>
+      <c r="AW106">
+        <v>4</v>
+      </c>
+      <c r="AX106">
+        <v>3</v>
+      </c>
+      <c r="AY106">
+        <v>7</v>
+      </c>
+      <c r="AZ106">
+        <v>5</v>
+      </c>
+      <c r="BA106">
+        <v>4</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>8</v>
+      </c>
+      <c r="BD106">
+        <v>1.33</v>
+      </c>
+      <c r="BE106">
+        <v>9.5</v>
+      </c>
+      <c r="BF106">
+        <v>4</v>
+      </c>
+      <c r="BG106">
+        <v>1.25</v>
+      </c>
+      <c r="BH106">
+        <v>3.6</v>
+      </c>
+      <c r="BI106">
+        <v>1.37</v>
+      </c>
+      <c r="BJ106">
+        <v>2.75</v>
+      </c>
+      <c r="BK106">
+        <v>1.82</v>
+      </c>
+      <c r="BL106">
+        <v>1.98</v>
+      </c>
+      <c r="BM106">
+        <v>2.07</v>
+      </c>
+      <c r="BN106">
+        <v>1.64</v>
+      </c>
+      <c r="BO106">
+        <v>2.71</v>
+      </c>
+      <c r="BP106">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7343751</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45436.625</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s">
+        <v>79</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>162</v>
+      </c>
+      <c r="P107" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q107">
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>4</v>
+      </c>
+      <c r="T107">
+        <v>1.5</v>
+      </c>
+      <c r="U107">
+        <v>2.5</v>
+      </c>
+      <c r="V107">
+        <v>3.4</v>
+      </c>
+      <c r="W107">
+        <v>1.3</v>
+      </c>
+      <c r="X107">
+        <v>10</v>
+      </c>
+      <c r="Y107">
+        <v>1.06</v>
+      </c>
+      <c r="Z107">
+        <v>2.2</v>
+      </c>
+      <c r="AA107">
+        <v>3.1</v>
+      </c>
+      <c r="AB107">
+        <v>3.2</v>
+      </c>
+      <c r="AC107">
+        <v>1.04</v>
+      </c>
+      <c r="AD107">
+        <v>7.4</v>
+      </c>
+      <c r="AE107">
+        <v>1.38</v>
+      </c>
+      <c r="AF107">
+        <v>2.71</v>
+      </c>
+      <c r="AG107">
+        <v>2.28</v>
+      </c>
+      <c r="AH107">
+        <v>1.6</v>
+      </c>
+      <c r="AI107">
+        <v>2</v>
+      </c>
+      <c r="AJ107">
+        <v>1.73</v>
+      </c>
+      <c r="AK107">
+        <v>1.3</v>
+      </c>
+      <c r="AL107">
+        <v>1.3</v>
+      </c>
+      <c r="AM107">
+        <v>1.65</v>
+      </c>
+      <c r="AN107">
+        <v>0.86</v>
+      </c>
+      <c r="AO107">
+        <v>2.14</v>
+      </c>
+      <c r="AP107">
+        <v>0.75</v>
+      </c>
+      <c r="AQ107">
+        <v>2.25</v>
+      </c>
+      <c r="AR107">
+        <v>1.35</v>
+      </c>
+      <c r="AS107">
+        <v>1.25</v>
+      </c>
+      <c r="AT107">
+        <v>2.6</v>
+      </c>
+      <c r="AU107">
+        <v>4</v>
+      </c>
+      <c r="AV107">
+        <v>6</v>
+      </c>
+      <c r="AW107">
+        <v>9</v>
+      </c>
+      <c r="AX107">
+        <v>3</v>
+      </c>
+      <c r="AY107">
+        <v>13</v>
+      </c>
+      <c r="AZ107">
+        <v>9</v>
+      </c>
+      <c r="BA107">
+        <v>5</v>
+      </c>
+      <c r="BB107">
+        <v>7</v>
+      </c>
+      <c r="BC107">
+        <v>12</v>
+      </c>
+      <c r="BD107">
+        <v>1.73</v>
+      </c>
+      <c r="BE107">
+        <v>8</v>
+      </c>
+      <c r="BF107">
+        <v>2.4</v>
+      </c>
+      <c r="BG107">
+        <v>1.24</v>
+      </c>
+      <c r="BH107">
+        <v>3.6</v>
+      </c>
+      <c r="BI107">
+        <v>1.44</v>
+      </c>
+      <c r="BJ107">
+        <v>2.55</v>
+      </c>
+      <c r="BK107">
+        <v>1.77</v>
+      </c>
+      <c r="BL107">
+        <v>1.95</v>
+      </c>
+      <c r="BM107">
+        <v>2.18</v>
+      </c>
+      <c r="BN107">
+        <v>1.61</v>
+      </c>
+      <c r="BO107">
+        <v>2.75</v>
+      </c>
+      <c r="BP107">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,7 +502,13 @@
     <t>['59', '70', '90+2']</t>
   </si>
   <si>
-    <t>['40']</t>
+    <t>['3', '77']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -527,9 +533,6 @@
   </si>
   <si>
     <t>['51']</t>
-  </si>
-  <si>
-    <t>['84']</t>
   </si>
   <si>
     <t>['29', '56', '79']</t>
@@ -695,6 +698,9 @@
   </si>
   <si>
     <t>['49', '74']</t>
+  </si>
+  <si>
+    <t>['45', '87']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1321,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1393,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1521,7 +1527,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1602,7 +1608,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1727,7 +1733,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1805,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ4">
         <v>1.13</v>
@@ -1933,7 +1939,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2139,7 +2145,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2220,7 +2226,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2345,7 +2351,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2551,7 +2557,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2757,7 +2763,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2963,7 +2969,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3250,7 +3256,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3865,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -4199,7 +4205,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4405,7 +4411,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4483,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -4611,7 +4617,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4898,7 +4904,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR19">
         <v>1.89</v>
@@ -5101,10 +5107,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ20">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5229,7 +5235,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5435,7 +5441,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5513,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5641,7 +5647,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5847,7 +5853,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5925,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6053,7 +6059,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6465,7 +6471,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6543,10 +6549,10 @@
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6671,7 +6677,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6877,7 +6883,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7164,7 +7170,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7907,7 +7913,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8113,7 +8119,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8397,7 +8403,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ36">
         <v>1.13</v>
@@ -8731,7 +8737,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8937,7 +8943,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9018,7 +9024,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ39">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9143,7 +9149,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9224,7 +9230,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.57</v>
@@ -9349,7 +9355,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9967,7 +9973,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10045,7 +10051,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10254,7 +10260,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR45">
         <v>1.48</v>
@@ -10585,7 +10591,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10663,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ47">
         <v>0.33</v>
@@ -10791,7 +10797,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10997,7 +11003,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11203,7 +11209,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11284,7 +11290,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ50">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.19</v>
@@ -11409,7 +11415,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11615,7 +11621,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11899,7 +11905,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ53">
         <v>1.38</v>
@@ -12108,7 +12114,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12233,7 +12239,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12439,7 +12445,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13057,7 +13063,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13263,7 +13269,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13469,7 +13475,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13756,7 +13762,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR62">
         <v>1.31</v>
@@ -13881,7 +13887,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14087,7 +14093,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14165,7 +14171,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ64">
         <v>2</v>
@@ -14293,7 +14299,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14577,7 +14583,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ66">
         <v>1.57</v>
@@ -14705,7 +14711,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14911,7 +14917,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15117,7 +15123,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15195,10 +15201,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -15323,7 +15329,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15529,7 +15535,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15610,7 +15616,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ71">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.16</v>
@@ -15735,7 +15741,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15941,7 +15947,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16147,7 +16153,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16559,7 +16565,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16637,10 +16643,10 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR76">
         <v>1.18</v>
@@ -16971,7 +16977,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17177,7 +17183,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17258,7 +17264,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -17795,7 +17801,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17876,7 +17882,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ82">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18001,7 +18007,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18079,7 +18085,7 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83">
         <v>2.71</v>
@@ -18207,7 +18213,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18285,7 +18291,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ84">
         <v>2</v>
@@ -18413,7 +18419,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18825,7 +18831,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19031,7 +19037,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19443,7 +19449,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19521,7 +19527,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19730,7 +19736,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR91">
         <v>1.05</v>
@@ -19933,7 +19939,7 @@
         <v>0.4</v>
       </c>
       <c r="AP92">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ92">
         <v>0.5</v>
@@ -20061,7 +20067,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20348,7 +20354,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ94">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.37</v>
@@ -20473,7 +20479,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20551,7 +20557,7 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ95">
         <v>1.38</v>
@@ -20679,7 +20685,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20885,7 +20891,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21297,7 +21303,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21378,7 +21384,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ99">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21503,7 +21509,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22327,7 +22333,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22405,7 +22411,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ104">
         <v>0.83</v>
@@ -22533,7 +22539,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22942,10 +22948,10 @@
         <v>3</v>
       </c>
       <c r="O107" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23102,6 +23108,624 @@
       </c>
       <c r="BP107">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7343754</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45437.52083333334</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>72</v>
+      </c>
+      <c r="H108" t="s">
+        <v>78</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>162</v>
+      </c>
+      <c r="P108" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q108">
+        <v>3.25</v>
+      </c>
+      <c r="R108">
+        <v>2.05</v>
+      </c>
+      <c r="S108">
+        <v>3.5</v>
+      </c>
+      <c r="T108">
+        <v>1.5</v>
+      </c>
+      <c r="U108">
+        <v>2.5</v>
+      </c>
+      <c r="V108">
+        <v>3.4</v>
+      </c>
+      <c r="W108">
+        <v>1.3</v>
+      </c>
+      <c r="X108">
+        <v>10</v>
+      </c>
+      <c r="Y108">
+        <v>1.06</v>
+      </c>
+      <c r="Z108">
+        <v>2.62</v>
+      </c>
+      <c r="AA108">
+        <v>3</v>
+      </c>
+      <c r="AB108">
+        <v>2.62</v>
+      </c>
+      <c r="AC108">
+        <v>1.07</v>
+      </c>
+      <c r="AD108">
+        <v>7.5</v>
+      </c>
+      <c r="AE108">
+        <v>1.4</v>
+      </c>
+      <c r="AF108">
+        <v>2.8</v>
+      </c>
+      <c r="AG108">
+        <v>2.14</v>
+      </c>
+      <c r="AH108">
+        <v>1.63</v>
+      </c>
+      <c r="AI108">
+        <v>1.83</v>
+      </c>
+      <c r="AJ108">
+        <v>1.83</v>
+      </c>
+      <c r="AK108">
+        <v>1.42</v>
+      </c>
+      <c r="AL108">
+        <v>1.3</v>
+      </c>
+      <c r="AM108">
+        <v>1.48</v>
+      </c>
+      <c r="AN108">
+        <v>0.43</v>
+      </c>
+      <c r="AO108">
+        <v>1.14</v>
+      </c>
+      <c r="AP108">
+        <v>0.75</v>
+      </c>
+      <c r="AQ108">
+        <v>1</v>
+      </c>
+      <c r="AR108">
+        <v>1.21</v>
+      </c>
+      <c r="AS108">
+        <v>1.12</v>
+      </c>
+      <c r="AT108">
+        <v>2.33</v>
+      </c>
+      <c r="AU108">
+        <v>6</v>
+      </c>
+      <c r="AV108">
+        <v>3</v>
+      </c>
+      <c r="AW108">
+        <v>2</v>
+      </c>
+      <c r="AX108">
+        <v>6</v>
+      </c>
+      <c r="AY108">
+        <v>8</v>
+      </c>
+      <c r="AZ108">
+        <v>9</v>
+      </c>
+      <c r="BA108">
+        <v>5</v>
+      </c>
+      <c r="BB108">
+        <v>5</v>
+      </c>
+      <c r="BC108">
+        <v>10</v>
+      </c>
+      <c r="BD108">
+        <v>1.8</v>
+      </c>
+      <c r="BE108">
+        <v>8</v>
+      </c>
+      <c r="BF108">
+        <v>2.3</v>
+      </c>
+      <c r="BG108">
+        <v>1.3</v>
+      </c>
+      <c r="BH108">
+        <v>3.2</v>
+      </c>
+      <c r="BI108">
+        <v>1.44</v>
+      </c>
+      <c r="BJ108">
+        <v>2.6</v>
+      </c>
+      <c r="BK108">
+        <v>1.88</v>
+      </c>
+      <c r="BL108">
+        <v>1.92</v>
+      </c>
+      <c r="BM108">
+        <v>2.35</v>
+      </c>
+      <c r="BN108">
+        <v>1.52</v>
+      </c>
+      <c r="BO108">
+        <v>3.2</v>
+      </c>
+      <c r="BP108">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7343753</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45437.625</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s">
+        <v>83</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>163</v>
+      </c>
+      <c r="P109" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q109">
+        <v>4</v>
+      </c>
+      <c r="R109">
+        <v>2.2</v>
+      </c>
+      <c r="S109">
+        <v>2.63</v>
+      </c>
+      <c r="T109">
+        <v>1.4</v>
+      </c>
+      <c r="U109">
+        <v>2.75</v>
+      </c>
+      <c r="V109">
+        <v>2.75</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>8</v>
+      </c>
+      <c r="Y109">
+        <v>1.08</v>
+      </c>
+      <c r="Z109">
+        <v>1.9</v>
+      </c>
+      <c r="AA109">
+        <v>3.35</v>
+      </c>
+      <c r="AB109">
+        <v>3.8</v>
+      </c>
+      <c r="AC109">
+        <v>1.05</v>
+      </c>
+      <c r="AD109">
+        <v>8.5</v>
+      </c>
+      <c r="AE109">
+        <v>1.3</v>
+      </c>
+      <c r="AF109">
+        <v>3.35</v>
+      </c>
+      <c r="AG109">
+        <v>1.8</v>
+      </c>
+      <c r="AH109">
+        <v>1.85</v>
+      </c>
+      <c r="AI109">
+        <v>1.73</v>
+      </c>
+      <c r="AJ109">
+        <v>2</v>
+      </c>
+      <c r="AK109">
+        <v>1.77</v>
+      </c>
+      <c r="AL109">
+        <v>1.25</v>
+      </c>
+      <c r="AM109">
+        <v>1.25</v>
+      </c>
+      <c r="AN109">
+        <v>1.25</v>
+      </c>
+      <c r="AO109">
+        <v>0.67</v>
+      </c>
+      <c r="AP109">
+        <v>1.11</v>
+      </c>
+      <c r="AQ109">
+        <v>1</v>
+      </c>
+      <c r="AR109">
+        <v>1.53</v>
+      </c>
+      <c r="AS109">
+        <v>1.07</v>
+      </c>
+      <c r="AT109">
+        <v>2.6</v>
+      </c>
+      <c r="AU109">
+        <v>2</v>
+      </c>
+      <c r="AV109">
+        <v>3</v>
+      </c>
+      <c r="AW109">
+        <v>6</v>
+      </c>
+      <c r="AX109">
+        <v>3</v>
+      </c>
+      <c r="AY109">
+        <v>8</v>
+      </c>
+      <c r="AZ109">
+        <v>6</v>
+      </c>
+      <c r="BA109">
+        <v>3</v>
+      </c>
+      <c r="BB109">
+        <v>7</v>
+      </c>
+      <c r="BC109">
+        <v>10</v>
+      </c>
+      <c r="BD109">
+        <v>2.3</v>
+      </c>
+      <c r="BE109">
+        <v>8</v>
+      </c>
+      <c r="BF109">
+        <v>1.8</v>
+      </c>
+      <c r="BG109">
+        <v>1.29</v>
+      </c>
+      <c r="BH109">
+        <v>3.3</v>
+      </c>
+      <c r="BI109">
+        <v>1.41</v>
+      </c>
+      <c r="BJ109">
+        <v>2.7</v>
+      </c>
+      <c r="BK109">
+        <v>1.95</v>
+      </c>
+      <c r="BL109">
+        <v>1.85</v>
+      </c>
+      <c r="BM109">
+        <v>2.27</v>
+      </c>
+      <c r="BN109">
+        <v>1.56</v>
+      </c>
+      <c r="BO109">
+        <v>3.05</v>
+      </c>
+      <c r="BP109">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7343750</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45437.75</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>70</v>
+      </c>
+      <c r="H110" t="s">
+        <v>85</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>164</v>
+      </c>
+      <c r="P110" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q110">
+        <v>2.1</v>
+      </c>
+      <c r="R110">
+        <v>2.2</v>
+      </c>
+      <c r="S110">
+        <v>6.5</v>
+      </c>
+      <c r="T110">
+        <v>1.4</v>
+      </c>
+      <c r="U110">
+        <v>2.75</v>
+      </c>
+      <c r="V110">
+        <v>3</v>
+      </c>
+      <c r="W110">
+        <v>1.36</v>
+      </c>
+      <c r="X110">
+        <v>9</v>
+      </c>
+      <c r="Y110">
+        <v>1.07</v>
+      </c>
+      <c r="Z110">
+        <v>1.53</v>
+      </c>
+      <c r="AA110">
+        <v>3.85</v>
+      </c>
+      <c r="AB110">
+        <v>6</v>
+      </c>
+      <c r="AC110">
+        <v>1.05</v>
+      </c>
+      <c r="AD110">
+        <v>8.5</v>
+      </c>
+      <c r="AE110">
+        <v>1.33</v>
+      </c>
+      <c r="AF110">
+        <v>3.1</v>
+      </c>
+      <c r="AG110">
+        <v>1.95</v>
+      </c>
+      <c r="AH110">
+        <v>1.7</v>
+      </c>
+      <c r="AI110">
+        <v>2.1</v>
+      </c>
+      <c r="AJ110">
+        <v>1.67</v>
+      </c>
+      <c r="AK110">
+        <v>1.08</v>
+      </c>
+      <c r="AL110">
+        <v>1.2</v>
+      </c>
+      <c r="AM110">
+        <v>2.4</v>
+      </c>
+      <c r="AN110">
+        <v>2.29</v>
+      </c>
+      <c r="AO110">
+        <v>1.25</v>
+      </c>
+      <c r="AP110">
+        <v>2.38</v>
+      </c>
+      <c r="AQ110">
+        <v>1.11</v>
+      </c>
+      <c r="AR110">
+        <v>1.77</v>
+      </c>
+      <c r="AS110">
+        <v>1.36</v>
+      </c>
+      <c r="AT110">
+        <v>3.13</v>
+      </c>
+      <c r="AU110">
+        <v>5</v>
+      </c>
+      <c r="AV110">
+        <v>2</v>
+      </c>
+      <c r="AW110">
+        <v>7</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>12</v>
+      </c>
+      <c r="AZ110">
+        <v>5</v>
+      </c>
+      <c r="BA110">
+        <v>4</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
+        <v>4</v>
+      </c>
+      <c r="BD110">
+        <v>1.4</v>
+      </c>
+      <c r="BE110">
+        <v>9</v>
+      </c>
+      <c r="BF110">
+        <v>3.5</v>
+      </c>
+      <c r="BG110">
+        <v>1.38</v>
+      </c>
+      <c r="BH110">
+        <v>2.8</v>
+      </c>
+      <c r="BI110">
+        <v>1.65</v>
+      </c>
+      <c r="BJ110">
+        <v>2.1</v>
+      </c>
+      <c r="BK110">
+        <v>2.05</v>
+      </c>
+      <c r="BL110">
+        <v>1.7</v>
+      </c>
+      <c r="BM110">
+        <v>2.6</v>
+      </c>
+      <c r="BN110">
+        <v>1.44</v>
+      </c>
+      <c r="BO110">
+        <v>3.4</v>
+      </c>
+      <c r="BP110">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,13 +502,16 @@
     <t>['59', '70', '90+2']</t>
   </si>
   <si>
-    <t>['3', '77']</t>
-  </si>
-  <si>
-    <t>['28']</t>
+    <t>['2', '77']</t>
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['50', '71', '73']</t>
+  </si>
+  <si>
+    <t>['9', '15', '45+4']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -700,7 +703,10 @@
     <t>['49', '74']</t>
   </si>
   <si>
-    <t>['45', '87']</t>
+    <t>['44', '87']</t>
+  </si>
+  <si>
+    <t>['12', '30']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,7 +1327,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1402,7 +1408,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1527,7 +1533,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1733,7 +1739,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1939,7 +1945,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2017,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5">
         <v>2.25</v>
@@ -2145,7 +2151,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2223,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2351,7 +2357,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2557,7 +2563,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2763,7 +2769,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2969,7 +2975,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -3668,7 +3674,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -4077,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.33</v>
@@ -4205,7 +4211,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4283,7 +4289,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -4411,7 +4417,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4492,7 +4498,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4617,7 +4623,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5235,7 +5241,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5441,7 +5447,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5647,7 +5653,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5853,7 +5859,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5934,7 +5940,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -6059,7 +6065,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6471,7 +6477,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6677,7 +6683,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6883,7 +6889,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -6961,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7788,7 +7794,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -7913,7 +7919,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8119,7 +8125,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8609,7 +8615,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ37">
         <v>1.57</v>
@@ -8737,7 +8743,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8815,10 +8821,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8943,7 +8949,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9149,7 +9155,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9355,7 +9361,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9848,7 +9854,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR43">
         <v>0.6899999999999999</v>
@@ -9973,7 +9979,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10054,7 +10060,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10257,7 +10263,7 @@
         <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.11</v>
@@ -10591,7 +10597,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10797,7 +10803,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11003,7 +11009,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11209,7 +11215,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11415,7 +11421,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11621,7 +11627,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11908,7 +11914,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ53">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12111,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12239,7 +12245,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12445,7 +12451,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12523,7 +12529,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ56">
         <v>2.71</v>
@@ -12935,10 +12941,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
+        <v>1.5</v>
+      </c>
+      <c r="AQ58">
         <v>1.29</v>
-      </c>
-      <c r="AQ58">
-        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.2</v>
@@ -13063,7 +13069,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13141,10 +13147,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ59">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -13269,7 +13275,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13475,7 +13481,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13553,10 +13559,10 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -13887,7 +13893,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14093,7 +14099,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14299,7 +14305,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14711,7 +14717,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14792,7 +14798,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -14917,7 +14923,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15123,7 +15129,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15329,7 +15335,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15407,7 +15413,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ70">
         <v>0.83</v>
@@ -15535,7 +15541,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15741,7 +15747,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15947,7 +15953,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16153,7 +16159,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16565,7 +16571,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16977,7 +16983,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17055,7 +17061,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17183,7 +17189,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17261,7 +17267,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17470,7 +17476,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR80">
         <v>1.38</v>
@@ -17676,7 +17682,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR81">
         <v>1.33</v>
@@ -17801,7 +17807,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18007,7 +18013,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18213,7 +18219,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18419,7 +18425,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18831,7 +18837,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18912,7 +18918,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ87">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -19037,7 +19043,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19321,7 +19327,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ89">
         <v>0.33</v>
@@ -19449,7 +19455,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19530,7 +19536,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR90">
         <v>1.78</v>
@@ -19733,7 +19739,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
         <v>1.11</v>
@@ -19942,7 +19948,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ92">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -20067,7 +20073,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20479,7 +20485,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20560,7 +20566,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ95">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR95">
         <v>1.59</v>
@@ -20685,7 +20691,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20891,7 +20897,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21303,7 +21309,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21509,7 +21515,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21587,7 +21593,7 @@
         <v>2.67</v>
       </c>
       <c r="AP100">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>2.71</v>
@@ -22208,7 +22214,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ103">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR103">
         <v>1.68</v>
@@ -22333,7 +22339,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22539,7 +22545,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22617,7 +22623,7 @@
         <v>1.8</v>
       </c>
       <c r="AP105">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ105">
         <v>2</v>
@@ -22951,7 +22957,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23360,10 +23366,10 @@
         <v>3</v>
       </c>
       <c r="O109" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23566,7 +23572,7 @@
         <v>1</v>
       </c>
       <c r="O110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P110" t="s">
         <v>93</v>
@@ -23726,6 +23732,624 @@
       </c>
       <c r="BP110">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7343752</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45438.52083333334</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>74</v>
+      </c>
+      <c r="H111" t="s">
+        <v>77</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111" t="s">
+        <v>164</v>
+      </c>
+      <c r="P111" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q111">
+        <v>3.1</v>
+      </c>
+      <c r="R111">
+        <v>1.9</v>
+      </c>
+      <c r="S111">
+        <v>3.75</v>
+      </c>
+      <c r="T111">
+        <v>1.56</v>
+      </c>
+      <c r="U111">
+        <v>2.31</v>
+      </c>
+      <c r="V111">
+        <v>3.54</v>
+      </c>
+      <c r="W111">
+        <v>1.27</v>
+      </c>
+      <c r="X111">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y111">
+        <v>1.03</v>
+      </c>
+      <c r="Z111">
+        <v>2.35</v>
+      </c>
+      <c r="AA111">
+        <v>2.9</v>
+      </c>
+      <c r="AB111">
+        <v>3.08</v>
+      </c>
+      <c r="AC111">
+        <v>1.07</v>
+      </c>
+      <c r="AD111">
+        <v>6.3</v>
+      </c>
+      <c r="AE111">
+        <v>1.47</v>
+      </c>
+      <c r="AF111">
+        <v>2.55</v>
+      </c>
+      <c r="AG111">
+        <v>2.59</v>
+      </c>
+      <c r="AH111">
+        <v>1.44</v>
+      </c>
+      <c r="AI111">
+        <v>2.05</v>
+      </c>
+      <c r="AJ111">
+        <v>1.72</v>
+      </c>
+      <c r="AK111">
+        <v>1.33</v>
+      </c>
+      <c r="AL111">
+        <v>1.3</v>
+      </c>
+      <c r="AM111">
+        <v>1.57</v>
+      </c>
+      <c r="AN111">
+        <v>1.29</v>
+      </c>
+      <c r="AO111">
+        <v>0.5</v>
+      </c>
+      <c r="AP111">
+        <v>1.5</v>
+      </c>
+      <c r="AQ111">
+        <v>0.43</v>
+      </c>
+      <c r="AR111">
+        <v>1.06</v>
+      </c>
+      <c r="AS111">
+        <v>1.07</v>
+      </c>
+      <c r="AT111">
+        <v>2.13</v>
+      </c>
+      <c r="AU111">
+        <v>6</v>
+      </c>
+      <c r="AV111">
+        <v>5</v>
+      </c>
+      <c r="AW111">
+        <v>4</v>
+      </c>
+      <c r="AX111">
+        <v>3</v>
+      </c>
+      <c r="AY111">
+        <v>10</v>
+      </c>
+      <c r="AZ111">
+        <v>8</v>
+      </c>
+      <c r="BA111">
+        <v>8</v>
+      </c>
+      <c r="BB111">
+        <v>1</v>
+      </c>
+      <c r="BC111">
+        <v>9</v>
+      </c>
+      <c r="BD111">
+        <v>1.62</v>
+      </c>
+      <c r="BE111">
+        <v>8</v>
+      </c>
+      <c r="BF111">
+        <v>2.75</v>
+      </c>
+      <c r="BG111">
+        <v>1.36</v>
+      </c>
+      <c r="BH111">
+        <v>2.9</v>
+      </c>
+      <c r="BI111">
+        <v>1.54</v>
+      </c>
+      <c r="BJ111">
+        <v>2.32</v>
+      </c>
+      <c r="BK111">
+        <v>1.98</v>
+      </c>
+      <c r="BL111">
+        <v>1.82</v>
+      </c>
+      <c r="BM111">
+        <v>2.55</v>
+      </c>
+      <c r="BN111">
+        <v>1.45</v>
+      </c>
+      <c r="BO111">
+        <v>3.3</v>
+      </c>
+      <c r="BP111">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7343755</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45438.625</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>82</v>
+      </c>
+      <c r="H112" t="s">
+        <v>76</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>4</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>165</v>
+      </c>
+      <c r="P112" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q112">
+        <v>3.75</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>2.85</v>
+      </c>
+      <c r="T112">
+        <v>1.46</v>
+      </c>
+      <c r="U112">
+        <v>2.55</v>
+      </c>
+      <c r="V112">
+        <v>3.1</v>
+      </c>
+      <c r="W112">
+        <v>1.34</v>
+      </c>
+      <c r="X112">
+        <v>8.1</v>
+      </c>
+      <c r="Y112">
+        <v>1.06</v>
+      </c>
+      <c r="Z112">
+        <v>3.43</v>
+      </c>
+      <c r="AA112">
+        <v>3.31</v>
+      </c>
+      <c r="AB112">
+        <v>2.1</v>
+      </c>
+      <c r="AC112">
+        <v>1.03</v>
+      </c>
+      <c r="AD112">
+        <v>7.9</v>
+      </c>
+      <c r="AE112">
+        <v>1.36</v>
+      </c>
+      <c r="AF112">
+        <v>3</v>
+      </c>
+      <c r="AG112">
+        <v>2.1</v>
+      </c>
+      <c r="AH112">
+        <v>1.7</v>
+      </c>
+      <c r="AI112">
+        <v>1.83</v>
+      </c>
+      <c r="AJ112">
+        <v>1.9</v>
+      </c>
+      <c r="AK112">
+        <v>1.65</v>
+      </c>
+      <c r="AL112">
+        <v>1.28</v>
+      </c>
+      <c r="AM112">
+        <v>1.3</v>
+      </c>
+      <c r="AN112">
+        <v>1.83</v>
+      </c>
+      <c r="AO112">
+        <v>1.38</v>
+      </c>
+      <c r="AP112">
+        <v>2</v>
+      </c>
+      <c r="AQ112">
+        <v>1.22</v>
+      </c>
+      <c r="AR112">
+        <v>1.46</v>
+      </c>
+      <c r="AS112">
+        <v>1.14</v>
+      </c>
+      <c r="AT112">
+        <v>2.6</v>
+      </c>
+      <c r="AU112">
+        <v>5</v>
+      </c>
+      <c r="AV112">
+        <v>5</v>
+      </c>
+      <c r="AW112">
+        <v>1</v>
+      </c>
+      <c r="AX112">
+        <v>10</v>
+      </c>
+      <c r="AY112">
+        <v>6</v>
+      </c>
+      <c r="AZ112">
+        <v>15</v>
+      </c>
+      <c r="BA112">
+        <v>2</v>
+      </c>
+      <c r="BB112">
+        <v>6</v>
+      </c>
+      <c r="BC112">
+        <v>8</v>
+      </c>
+      <c r="BD112">
+        <v>2.38</v>
+      </c>
+      <c r="BE112">
+        <v>8</v>
+      </c>
+      <c r="BF112">
+        <v>1.8</v>
+      </c>
+      <c r="BG112">
+        <v>1.33</v>
+      </c>
+      <c r="BH112">
+        <v>3</v>
+      </c>
+      <c r="BI112">
+        <v>1.48</v>
+      </c>
+      <c r="BJ112">
+        <v>2.47</v>
+      </c>
+      <c r="BK112">
+        <v>2</v>
+      </c>
+      <c r="BL112">
+        <v>1.8</v>
+      </c>
+      <c r="BM112">
+        <v>2.47</v>
+      </c>
+      <c r="BN112">
+        <v>1.48</v>
+      </c>
+      <c r="BO112">
+        <v>3.2</v>
+      </c>
+      <c r="BP112">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7343749</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45438.72916666666</v>
+      </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H113" t="s">
+        <v>71</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>93</v>
+      </c>
+      <c r="P113" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q113">
+        <v>3.1</v>
+      </c>
+      <c r="R113">
+        <v>2.05</v>
+      </c>
+      <c r="S113">
+        <v>3.75</v>
+      </c>
+      <c r="T113">
+        <v>1.5</v>
+      </c>
+      <c r="U113">
+        <v>2.5</v>
+      </c>
+      <c r="V113">
+        <v>3.4</v>
+      </c>
+      <c r="W113">
+        <v>1.3</v>
+      </c>
+      <c r="X113">
+        <v>10</v>
+      </c>
+      <c r="Y113">
+        <v>1.06</v>
+      </c>
+      <c r="Z113">
+        <v>2.22</v>
+      </c>
+      <c r="AA113">
+        <v>3.07</v>
+      </c>
+      <c r="AB113">
+        <v>3.41</v>
+      </c>
+      <c r="AC113">
+        <v>1.05</v>
+      </c>
+      <c r="AD113">
+        <v>7.3</v>
+      </c>
+      <c r="AE113">
+        <v>1.36</v>
+      </c>
+      <c r="AF113">
+        <v>2.79</v>
+      </c>
+      <c r="AG113">
+        <v>2.37</v>
+      </c>
+      <c r="AH113">
+        <v>1.52</v>
+      </c>
+      <c r="AI113">
+        <v>1.83</v>
+      </c>
+      <c r="AJ113">
+        <v>1.83</v>
+      </c>
+      <c r="AK113">
+        <v>1.33</v>
+      </c>
+      <c r="AL113">
+        <v>1.35</v>
+      </c>
+      <c r="AM113">
+        <v>1.4</v>
+      </c>
+      <c r="AN113">
+        <v>0.86</v>
+      </c>
+      <c r="AO113">
+        <v>1</v>
+      </c>
+      <c r="AP113">
+        <v>0.75</v>
+      </c>
+      <c r="AQ113">
+        <v>1.29</v>
+      </c>
+      <c r="AR113">
+        <v>1.08</v>
+      </c>
+      <c r="AS113">
+        <v>1.34</v>
+      </c>
+      <c r="AT113">
+        <v>2.42</v>
+      </c>
+      <c r="AU113">
+        <v>4</v>
+      </c>
+      <c r="AV113">
+        <v>2</v>
+      </c>
+      <c r="AW113">
+        <v>1</v>
+      </c>
+      <c r="AX113">
+        <v>0</v>
+      </c>
+      <c r="AY113">
+        <v>5</v>
+      </c>
+      <c r="AZ113">
+        <v>2</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>0</v>
+      </c>
+      <c r="BD113">
+        <v>1.91</v>
+      </c>
+      <c r="BE113">
+        <v>8</v>
+      </c>
+      <c r="BF113">
+        <v>2.1</v>
+      </c>
+      <c r="BG113">
+        <v>1.25</v>
+      </c>
+      <c r="BH113">
+        <v>3.6</v>
+      </c>
+      <c r="BI113">
+        <v>1.42</v>
+      </c>
+      <c r="BJ113">
+        <v>2.65</v>
+      </c>
+      <c r="BK113">
+        <v>1.7</v>
+      </c>
+      <c r="BL113">
+        <v>2.05</v>
+      </c>
+      <c r="BM113">
+        <v>2.17</v>
+      </c>
+      <c r="BN113">
+        <v>1.61</v>
+      </c>
+      <c r="BO113">
+        <v>2.85</v>
+      </c>
+      <c r="BP113">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -508,7 +508,7 @@
     <t>['84']</t>
   </si>
   <si>
-    <t>['50', '71', '73']</t>
+    <t>['50', '70', '73']</t>
   </si>
   <si>
     <t>['9', '15', '45+4']</t>
@@ -23874,22 +23874,22 @@
         <v>2.13</v>
       </c>
       <c r="AU111">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV111">
+        <v>4</v>
+      </c>
+      <c r="AW111">
         <v>5</v>
       </c>
-      <c r="AW111">
-        <v>4</v>
-      </c>
       <c r="AX111">
         <v>3</v>
       </c>
       <c r="AY111">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ111">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA111">
         <v>8</v>
@@ -24289,28 +24289,28 @@
         <v>4</v>
       </c>
       <c r="AV113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY113">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ113">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BA113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD113">
         <v>1.91</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -23874,22 +23874,22 @@
         <v>2.13</v>
       </c>
       <c r="AU111">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV111">
+        <v>5</v>
+      </c>
+      <c r="AW111">
         <v>4</v>
       </c>
-      <c r="AW111">
-        <v>5</v>
-      </c>
       <c r="AX111">
         <v>3</v>
       </c>
       <c r="AY111">
+        <v>10</v>
+      </c>
+      <c r="AZ111">
         <v>8</v>
-      </c>
-      <c r="AZ111">
-        <v>7</v>
       </c>
       <c r="BA111">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>['9', '15', '45+4']</t>
+  </si>
+  <si>
+    <t>['40', '90+4']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1068,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1330,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1533,7 +1536,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1739,7 +1742,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1945,7 +1948,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2151,7 +2154,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2357,7 +2360,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2563,7 +2566,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2769,7 +2772,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3053,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -4211,7 +4214,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4417,7 +4420,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4623,7 +4626,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5241,7 +5244,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5447,7 +5450,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5653,7 +5656,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5859,7 +5862,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6065,7 +6068,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6477,7 +6480,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6683,7 +6686,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6889,7 +6892,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7176,7 +7179,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7379,7 +7382,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7919,7 +7922,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8125,7 +8128,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8743,7 +8746,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8949,7 +8952,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9155,7 +9158,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9236,7 +9239,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR40">
         <v>1.57</v>
@@ -9361,7 +9364,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9979,7 +9982,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10597,7 +10600,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10803,7 +10806,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10881,7 +10884,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48">
         <v>2.25</v>
@@ -11009,7 +11012,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11215,7 +11218,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11421,7 +11424,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11627,7 +11630,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12120,7 +12123,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12245,7 +12248,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12451,7 +12454,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13069,7 +13072,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13275,7 +13278,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13481,7 +13484,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13893,7 +13896,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13971,7 +13974,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ63">
         <v>1.6</v>
@@ -14099,7 +14102,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14305,7 +14308,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14717,7 +14720,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14923,7 +14926,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15129,7 +15132,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15210,7 +15213,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -15335,7 +15338,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15541,7 +15544,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15747,7 +15750,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15953,7 +15956,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16159,7 +16162,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16571,7 +16574,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16983,7 +16986,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17189,7 +17192,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17807,7 +17810,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17888,7 +17891,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18013,7 +18016,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18219,7 +18222,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18425,7 +18428,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18709,7 +18712,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ86">
         <v>1.13</v>
@@ -18837,7 +18840,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19043,7 +19046,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19455,7 +19458,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20073,7 +20076,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20485,7 +20488,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20691,7 +20694,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20897,7 +20900,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21309,7 +21312,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21390,7 +21393,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21515,7 +21518,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22211,7 +22214,7 @@
         <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ103">
         <v>1.22</v>
@@ -22339,7 +22342,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22545,7 +22548,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22957,7 +22960,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23369,7 +23372,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23450,7 +23453,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -23781,7 +23784,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24193,7 +24196,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24350,6 +24353,212 @@
       </c>
       <c r="BP113">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7343760</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45444.72916666666</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>78</v>
+      </c>
+      <c r="H114" t="s">
+        <v>83</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>166</v>
+      </c>
+      <c r="P114" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q114">
+        <v>2.65</v>
+      </c>
+      <c r="R114">
+        <v>2.03</v>
+      </c>
+      <c r="S114">
+        <v>4.05</v>
+      </c>
+      <c r="T114">
+        <v>1.44</v>
+      </c>
+      <c r="U114">
+        <v>2.66</v>
+      </c>
+      <c r="V114">
+        <v>3.04</v>
+      </c>
+      <c r="W114">
+        <v>1.35</v>
+      </c>
+      <c r="X114">
+        <v>8</v>
+      </c>
+      <c r="Y114">
+        <v>1.06</v>
+      </c>
+      <c r="Z114">
+        <v>2.09</v>
+      </c>
+      <c r="AA114">
+        <v>3.07</v>
+      </c>
+      <c r="AB114">
+        <v>3.27</v>
+      </c>
+      <c r="AC114">
+        <v>1.03</v>
+      </c>
+      <c r="AD114">
+        <v>8</v>
+      </c>
+      <c r="AE114">
+        <v>1.33</v>
+      </c>
+      <c r="AF114">
+        <v>2.93</v>
+      </c>
+      <c r="AG114">
+        <v>2.13</v>
+      </c>
+      <c r="AH114">
+        <v>1.64</v>
+      </c>
+      <c r="AI114">
+        <v>1.83</v>
+      </c>
+      <c r="AJ114">
+        <v>1.83</v>
+      </c>
+      <c r="AK114">
+        <v>1.28</v>
+      </c>
+      <c r="AL114">
+        <v>1.28</v>
+      </c>
+      <c r="AM114">
+        <v>1.67</v>
+      </c>
+      <c r="AN114">
+        <v>1.17</v>
+      </c>
+      <c r="AO114">
+        <v>1</v>
+      </c>
+      <c r="AP114">
+        <v>1.43</v>
+      </c>
+      <c r="AQ114">
+        <v>0.88</v>
+      </c>
+      <c r="AR114">
+        <v>1.67</v>
+      </c>
+      <c r="AS114">
+        <v>1.08</v>
+      </c>
+      <c r="AT114">
+        <v>2.75</v>
+      </c>
+      <c r="AU114">
+        <v>2</v>
+      </c>
+      <c r="AV114">
+        <v>0</v>
+      </c>
+      <c r="AW114">
+        <v>4</v>
+      </c>
+      <c r="AX114">
+        <v>3</v>
+      </c>
+      <c r="AY114">
+        <v>6</v>
+      </c>
+      <c r="AZ114">
+        <v>3</v>
+      </c>
+      <c r="BA114">
+        <v>2</v>
+      </c>
+      <c r="BB114">
+        <v>1</v>
+      </c>
+      <c r="BC114">
+        <v>3</v>
+      </c>
+      <c r="BD114">
+        <v>1.91</v>
+      </c>
+      <c r="BE114">
+        <v>8</v>
+      </c>
+      <c r="BF114">
+        <v>2.2</v>
+      </c>
+      <c r="BG114">
+        <v>1.36</v>
+      </c>
+      <c r="BH114">
+        <v>2.9</v>
+      </c>
+      <c r="BI114">
+        <v>1.51</v>
+      </c>
+      <c r="BJ114">
+        <v>2.37</v>
+      </c>
+      <c r="BK114">
+        <v>2</v>
+      </c>
+      <c r="BL114">
+        <v>1.8</v>
+      </c>
+      <c r="BM114">
+        <v>2.55</v>
+      </c>
+      <c r="BN114">
+        <v>1.45</v>
+      </c>
+      <c r="BO114">
+        <v>3.3</v>
+      </c>
+      <c r="BP114">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -24495,31 +24495,31 @@
         <v>2.75</v>
       </c>
       <c r="AU114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW114">
         <v>4</v>
       </c>
       <c r="AX114">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY114">
+        <v>7</v>
+      </c>
+      <c r="AZ114">
+        <v>11</v>
+      </c>
+      <c r="BA114">
+        <v>3</v>
+      </c>
+      <c r="BB114">
+        <v>3</v>
+      </c>
+      <c r="BC114">
         <v>6</v>
-      </c>
-      <c r="AZ114">
-        <v>3</v>
-      </c>
-      <c r="BA114">
-        <v>2</v>
-      </c>
-      <c r="BB114">
-        <v>1</v>
-      </c>
-      <c r="BC114">
-        <v>3</v>
       </c>
       <c r="BD114">
         <v>1.91</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,7 +514,16 @@
     <t>['9', '15', '45+4']</t>
   </si>
   <si>
-    <t>['40', '90+4']</t>
+    <t>['39', '90+4']</t>
+  </si>
+  <si>
+    <t>['63', '90+1', '90+10']</t>
+  </si>
+  <si>
+    <t>['41', '85', '90']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -710,6 +719,15 @@
   </si>
   <si>
     <t>['12', '30']</t>
+  </si>
+  <si>
+    <t>['17', '43', '48']</t>
+  </si>
+  <si>
+    <t>['55', '57', '84']</t>
+  </si>
+  <si>
+    <t>['89']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1348,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1536,7 +1554,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1614,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>1.11</v>
@@ -1742,7 +1760,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1948,7 +1966,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2154,7 +2172,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2360,7 +2378,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2566,7 +2584,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2647,7 +2665,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2772,7 +2790,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2850,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3059,7 +3077,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3471,7 +3489,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ12">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3880,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -4086,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ15">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4214,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4420,7 +4438,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4626,7 +4644,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4910,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19">
         <v>1.11</v>
@@ -5244,7 +5262,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5322,7 +5340,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>2.25</v>
@@ -5450,7 +5468,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5528,10 +5546,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
         <v>1.2</v>
@@ -5656,7 +5674,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5737,7 +5755,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ23">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5862,7 +5880,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6068,7 +6086,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6146,7 +6164,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25">
         <v>2.25</v>
@@ -6355,7 +6373,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -6480,7 +6498,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6558,7 +6576,7 @@
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>1.11</v>
@@ -6686,7 +6704,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6767,7 +6785,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6892,7 +6910,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -6970,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7385,7 +7403,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR31">
         <v>0.74</v>
@@ -7794,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ33">
         <v>0.43</v>
@@ -7922,7 +7940,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8003,7 +8021,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ34">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -8128,7 +8146,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8209,7 +8227,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR35">
         <v>0.51</v>
@@ -8746,7 +8764,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8952,7 +8970,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9030,7 +9048,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9158,7 +9176,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9364,7 +9382,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9445,7 +9463,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9982,7 +10000,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10060,7 +10078,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0.43</v>
@@ -10266,7 +10284,7 @@
         <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ45">
         <v>1.11</v>
@@ -10475,7 +10493,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR46">
         <v>1.56</v>
@@ -10600,7 +10618,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10681,7 +10699,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10806,7 +10824,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11012,7 +11030,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11218,7 +11236,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11296,7 +11314,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11424,7 +11442,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11505,7 +11523,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ51">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR51">
         <v>1.16</v>
@@ -11630,7 +11648,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11708,7 +11726,7 @@
         <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ52">
         <v>1.13</v>
@@ -12248,7 +12266,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12326,7 +12344,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ55">
         <v>1.6</v>
@@ -12454,7 +12472,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12535,7 +12553,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ56">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -13072,7 +13090,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13278,7 +13296,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13359,7 +13377,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13484,7 +13502,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13562,7 +13580,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ61">
         <v>0.43</v>
@@ -13896,7 +13914,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14102,7 +14120,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14308,7 +14326,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14389,7 +14407,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ65">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14592,7 +14610,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1.57</v>
@@ -14720,7 +14738,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14798,7 +14816,7 @@
         <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ67">
         <v>1.22</v>
@@ -14926,7 +14944,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15007,7 +15025,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15132,7 +15150,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15338,7 +15356,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15419,7 +15437,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ70">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15544,7 +15562,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15622,7 +15640,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15750,7 +15768,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15828,7 +15846,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -15956,7 +15974,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16162,7 +16180,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16243,7 +16261,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR74">
         <v>0.9</v>
@@ -16574,7 +16592,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16986,7 +17004,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17192,7 +17210,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17270,7 +17288,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17810,7 +17828,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17888,7 +17906,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ82">
         <v>0.88</v>
@@ -18016,7 +18034,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18094,10 +18112,10 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18222,7 +18240,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18303,7 +18321,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18428,7 +18446,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18509,7 +18527,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18840,7 +18858,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18918,7 +18936,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87">
         <v>1.22</v>
@@ -19046,7 +19064,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19124,7 +19142,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ88">
         <v>1.57</v>
@@ -19333,7 +19351,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ89">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR89">
         <v>1.29</v>
@@ -19458,7 +19476,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20076,7 +20094,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20157,7 +20175,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
         <v>1.47</v>
@@ -20488,7 +20506,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20566,7 +20584,7 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>1.22</v>
@@ -20694,7 +20712,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20900,7 +20918,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21184,7 +21202,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ98">
         <v>1.13</v>
@@ -21312,7 +21330,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21390,7 +21408,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ99">
         <v>0.88</v>
@@ -21518,7 +21536,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21596,10 +21614,10 @@
         <v>2.67</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ100">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR100">
         <v>1.43</v>
@@ -21802,10 +21820,10 @@
         <v>1.8</v>
       </c>
       <c r="AP101">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ101">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR101">
         <v>1.11</v>
@@ -22011,7 +22029,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR102">
         <v>1.47</v>
@@ -22342,7 +22360,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22420,10 +22438,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ104">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR104">
         <v>1.56</v>
@@ -22548,7 +22566,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22960,7 +22978,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23372,7 +23390,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23450,7 +23468,7 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
         <v>0.88</v>
@@ -23784,7 +23802,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24068,7 +24086,7 @@
         <v>1.38</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ112">
         <v>1.22</v>
@@ -24196,7 +24214,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24559,6 +24577,1036 @@
       </c>
       <c r="BP114">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7343762</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45445.41666666666</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>77</v>
+      </c>
+      <c r="H115" t="s">
+        <v>75</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>2</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+      <c r="N115">
+        <v>6</v>
+      </c>
+      <c r="O115" t="s">
+        <v>167</v>
+      </c>
+      <c r="P115" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q115">
+        <v>3.75</v>
+      </c>
+      <c r="R115">
+        <v>2.05</v>
+      </c>
+      <c r="S115">
+        <v>3</v>
+      </c>
+      <c r="T115">
+        <v>1.44</v>
+      </c>
+      <c r="U115">
+        <v>2.63</v>
+      </c>
+      <c r="V115">
+        <v>3.25</v>
+      </c>
+      <c r="W115">
+        <v>1.33</v>
+      </c>
+      <c r="X115">
+        <v>9</v>
+      </c>
+      <c r="Y115">
+        <v>1.07</v>
+      </c>
+      <c r="Z115">
+        <v>3</v>
+      </c>
+      <c r="AA115">
+        <v>3.1</v>
+      </c>
+      <c r="AB115">
+        <v>2.15</v>
+      </c>
+      <c r="AC115">
+        <v>1.05</v>
+      </c>
+      <c r="AD115">
+        <v>8</v>
+      </c>
+      <c r="AE115">
+        <v>1.36</v>
+      </c>
+      <c r="AF115">
+        <v>2.9</v>
+      </c>
+      <c r="AG115">
+        <v>2.11</v>
+      </c>
+      <c r="AH115">
+        <v>1.68</v>
+      </c>
+      <c r="AI115">
+        <v>1.83</v>
+      </c>
+      <c r="AJ115">
+        <v>1.83</v>
+      </c>
+      <c r="AK115">
+        <v>1.62</v>
+      </c>
+      <c r="AL115">
+        <v>1.33</v>
+      </c>
+      <c r="AM115">
+        <v>1.38</v>
+      </c>
+      <c r="AN115">
+        <v>1.43</v>
+      </c>
+      <c r="AO115">
+        <v>2</v>
+      </c>
+      <c r="AP115">
+        <v>1.38</v>
+      </c>
+      <c r="AQ115">
+        <v>1.86</v>
+      </c>
+      <c r="AR115">
+        <v>1.43</v>
+      </c>
+      <c r="AS115">
+        <v>1.3</v>
+      </c>
+      <c r="AT115">
+        <v>2.73</v>
+      </c>
+      <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>10</v>
+      </c>
+      <c r="AW115">
+        <v>10</v>
+      </c>
+      <c r="AX115">
+        <v>3</v>
+      </c>
+      <c r="AY115">
+        <v>14</v>
+      </c>
+      <c r="AZ115">
+        <v>13</v>
+      </c>
+      <c r="BA115">
+        <v>9</v>
+      </c>
+      <c r="BB115">
+        <v>6</v>
+      </c>
+      <c r="BC115">
+        <v>15</v>
+      </c>
+      <c r="BD115">
+        <v>2.1</v>
+      </c>
+      <c r="BE115">
+        <v>8</v>
+      </c>
+      <c r="BF115">
+        <v>1.91</v>
+      </c>
+      <c r="BG115">
+        <v>1.3</v>
+      </c>
+      <c r="BH115">
+        <v>3.2</v>
+      </c>
+      <c r="BI115">
+        <v>1.49</v>
+      </c>
+      <c r="BJ115">
+        <v>2.45</v>
+      </c>
+      <c r="BK115">
+        <v>1.88</v>
+      </c>
+      <c r="BL115">
+        <v>1.92</v>
+      </c>
+      <c r="BM115">
+        <v>2.37</v>
+      </c>
+      <c r="BN115">
+        <v>1.51</v>
+      </c>
+      <c r="BO115">
+        <v>3.2</v>
+      </c>
+      <c r="BP115">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7343757</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45445.625</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>71</v>
+      </c>
+      <c r="H116" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116" t="s">
+        <v>93</v>
+      </c>
+      <c r="P116" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q116">
+        <v>5.75</v>
+      </c>
+      <c r="R116">
+        <v>2.07</v>
+      </c>
+      <c r="S116">
+        <v>2.17</v>
+      </c>
+      <c r="T116">
+        <v>1.45</v>
+      </c>
+      <c r="U116">
+        <v>2.63</v>
+      </c>
+      <c r="V116">
+        <v>3.12</v>
+      </c>
+      <c r="W116">
+        <v>1.33</v>
+      </c>
+      <c r="X116">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y116">
+        <v>1.06</v>
+      </c>
+      <c r="Z116">
+        <v>5.13</v>
+      </c>
+      <c r="AA116">
+        <v>3.8</v>
+      </c>
+      <c r="AB116">
+        <v>1.57</v>
+      </c>
+      <c r="AC116">
+        <v>1.03</v>
+      </c>
+      <c r="AD116">
+        <v>7.9</v>
+      </c>
+      <c r="AE116">
+        <v>1.35</v>
+      </c>
+      <c r="AF116">
+        <v>2.84</v>
+      </c>
+      <c r="AG116">
+        <v>2.03</v>
+      </c>
+      <c r="AH116">
+        <v>1.7</v>
+      </c>
+      <c r="AI116">
+        <v>2.05</v>
+      </c>
+      <c r="AJ116">
+        <v>1.65</v>
+      </c>
+      <c r="AK116">
+        <v>2.16</v>
+      </c>
+      <c r="AL116">
+        <v>1.24</v>
+      </c>
+      <c r="AM116">
+        <v>1.12</v>
+      </c>
+      <c r="AN116">
+        <v>0.57</v>
+      </c>
+      <c r="AO116">
+        <v>2.71</v>
+      </c>
+      <c r="AP116">
+        <v>0.5</v>
+      </c>
+      <c r="AQ116">
+        <v>2.75</v>
+      </c>
+      <c r="AR116">
+        <v>1.25</v>
+      </c>
+      <c r="AS116">
+        <v>1.58</v>
+      </c>
+      <c r="AT116">
+        <v>2.83</v>
+      </c>
+      <c r="AU116">
+        <v>3</v>
+      </c>
+      <c r="AV116">
+        <v>3</v>
+      </c>
+      <c r="AW116">
+        <v>2</v>
+      </c>
+      <c r="AX116">
+        <v>3</v>
+      </c>
+      <c r="AY116">
+        <v>5</v>
+      </c>
+      <c r="AZ116">
+        <v>6</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>2</v>
+      </c>
+      <c r="BC116">
+        <v>7</v>
+      </c>
+      <c r="BD116">
+        <v>3</v>
+      </c>
+      <c r="BE116">
+        <v>8.5</v>
+      </c>
+      <c r="BF116">
+        <v>1.53</v>
+      </c>
+      <c r="BG116">
+        <v>1.27</v>
+      </c>
+      <c r="BH116">
+        <v>3.28</v>
+      </c>
+      <c r="BI116">
+        <v>1.5</v>
+      </c>
+      <c r="BJ116">
+        <v>2.35</v>
+      </c>
+      <c r="BK116">
+        <v>1.98</v>
+      </c>
+      <c r="BL116">
+        <v>1.82</v>
+      </c>
+      <c r="BM116">
+        <v>2.42</v>
+      </c>
+      <c r="BN116">
+        <v>1.47</v>
+      </c>
+      <c r="BO116">
+        <v>3.28</v>
+      </c>
+      <c r="BP116">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7343759</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45445.72916666666</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>82</v>
+      </c>
+      <c r="H117" t="s">
+        <v>72</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>3</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>168</v>
+      </c>
+      <c r="P117" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q117">
+        <v>2.18</v>
+      </c>
+      <c r="R117">
+        <v>2.18</v>
+      </c>
+      <c r="S117">
+        <v>5.3</v>
+      </c>
+      <c r="T117">
+        <v>1.38</v>
+      </c>
+      <c r="U117">
+        <v>2.9</v>
+      </c>
+      <c r="V117">
+        <v>2.77</v>
+      </c>
+      <c r="W117">
+        <v>1.41</v>
+      </c>
+      <c r="X117">
+        <v>6.9</v>
+      </c>
+      <c r="Y117">
+        <v>1.08</v>
+      </c>
+      <c r="Z117">
+        <v>1.6</v>
+      </c>
+      <c r="AA117">
+        <v>3.8</v>
+      </c>
+      <c r="AB117">
+        <v>4.83</v>
+      </c>
+      <c r="AC117">
+        <v>1.01</v>
+      </c>
+      <c r="AD117">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE117">
+        <v>1.26</v>
+      </c>
+      <c r="AF117">
+        <v>3.34</v>
+      </c>
+      <c r="AG117">
+        <v>1.85</v>
+      </c>
+      <c r="AH117">
+        <v>1.85</v>
+      </c>
+      <c r="AI117">
+        <v>1.83</v>
+      </c>
+      <c r="AJ117">
+        <v>1.83</v>
+      </c>
+      <c r="AK117">
+        <v>1.14</v>
+      </c>
+      <c r="AL117">
+        <v>1.22</v>
+      </c>
+      <c r="AM117">
+        <v>2.13</v>
+      </c>
+      <c r="AN117">
+        <v>2</v>
+      </c>
+      <c r="AO117">
+        <v>0.83</v>
+      </c>
+      <c r="AP117">
+        <v>2.13</v>
+      </c>
+      <c r="AQ117">
+        <v>0.71</v>
+      </c>
+      <c r="AR117">
+        <v>1.4</v>
+      </c>
+      <c r="AS117">
+        <v>0.99</v>
+      </c>
+      <c r="AT117">
+        <v>2.39</v>
+      </c>
+      <c r="AU117">
+        <v>6</v>
+      </c>
+      <c r="AV117">
+        <v>7</v>
+      </c>
+      <c r="AW117">
+        <v>6</v>
+      </c>
+      <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>12</v>
+      </c>
+      <c r="AZ117">
+        <v>11</v>
+      </c>
+      <c r="BA117">
+        <v>3</v>
+      </c>
+      <c r="BB117">
+        <v>5</v>
+      </c>
+      <c r="BC117">
+        <v>8</v>
+      </c>
+      <c r="BD117">
+        <v>1.4</v>
+      </c>
+      <c r="BE117">
+        <v>9</v>
+      </c>
+      <c r="BF117">
+        <v>3.5</v>
+      </c>
+      <c r="BG117">
+        <v>1.25</v>
+      </c>
+      <c r="BH117">
+        <v>3.6</v>
+      </c>
+      <c r="BI117">
+        <v>1.39</v>
+      </c>
+      <c r="BJ117">
+        <v>2.77</v>
+      </c>
+      <c r="BK117">
+        <v>1.82</v>
+      </c>
+      <c r="BL117">
+        <v>1.98</v>
+      </c>
+      <c r="BM117">
+        <v>2.13</v>
+      </c>
+      <c r="BN117">
+        <v>1.63</v>
+      </c>
+      <c r="BO117">
+        <v>2.8</v>
+      </c>
+      <c r="BP117">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7343761</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45446.52083333334</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>81</v>
+      </c>
+      <c r="H118" t="s">
+        <v>74</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>93</v>
+      </c>
+      <c r="P118" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q118">
+        <v>2.5</v>
+      </c>
+      <c r="R118">
+        <v>2.2</v>
+      </c>
+      <c r="S118">
+        <v>4.5</v>
+      </c>
+      <c r="T118">
+        <v>1.4</v>
+      </c>
+      <c r="U118">
+        <v>2.75</v>
+      </c>
+      <c r="V118">
+        <v>3</v>
+      </c>
+      <c r="W118">
+        <v>1.36</v>
+      </c>
+      <c r="X118">
+        <v>8</v>
+      </c>
+      <c r="Y118">
+        <v>1.08</v>
+      </c>
+      <c r="Z118">
+        <v>1.8</v>
+      </c>
+      <c r="AA118">
+        <v>3.4</v>
+      </c>
+      <c r="AB118">
+        <v>4</v>
+      </c>
+      <c r="AC118">
+        <v>1.02</v>
+      </c>
+      <c r="AD118">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE118">
+        <v>1.28</v>
+      </c>
+      <c r="AF118">
+        <v>3.18</v>
+      </c>
+      <c r="AG118">
+        <v>1.91</v>
+      </c>
+      <c r="AH118">
+        <v>1.8</v>
+      </c>
+      <c r="AI118">
+        <v>1.83</v>
+      </c>
+      <c r="AJ118">
+        <v>1.83</v>
+      </c>
+      <c r="AK118">
+        <v>1.22</v>
+      </c>
+      <c r="AL118">
+        <v>1.26</v>
+      </c>
+      <c r="AM118">
+        <v>1.84</v>
+      </c>
+      <c r="AN118">
+        <v>1.11</v>
+      </c>
+      <c r="AO118">
+        <v>0.33</v>
+      </c>
+      <c r="AP118">
+        <v>1</v>
+      </c>
+      <c r="AQ118">
+        <v>0.71</v>
+      </c>
+      <c r="AR118">
+        <v>1.48</v>
+      </c>
+      <c r="AS118">
+        <v>0.68</v>
+      </c>
+      <c r="AT118">
+        <v>2.16</v>
+      </c>
+      <c r="AU118">
+        <v>7</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>10</v>
+      </c>
+      <c r="AX118">
+        <v>4</v>
+      </c>
+      <c r="AY118">
+        <v>17</v>
+      </c>
+      <c r="AZ118">
+        <v>8</v>
+      </c>
+      <c r="BA118">
+        <v>14</v>
+      </c>
+      <c r="BB118">
+        <v>5</v>
+      </c>
+      <c r="BC118">
+        <v>19</v>
+      </c>
+      <c r="BD118">
+        <v>1.73</v>
+      </c>
+      <c r="BE118">
+        <v>8</v>
+      </c>
+      <c r="BF118">
+        <v>2.4</v>
+      </c>
+      <c r="BG118">
+        <v>1.3</v>
+      </c>
+      <c r="BH118">
+        <v>3.2</v>
+      </c>
+      <c r="BI118">
+        <v>1.46</v>
+      </c>
+      <c r="BJ118">
+        <v>2.52</v>
+      </c>
+      <c r="BK118">
+        <v>1.85</v>
+      </c>
+      <c r="BL118">
+        <v>1.85</v>
+      </c>
+      <c r="BM118">
+        <v>2.37</v>
+      </c>
+      <c r="BN118">
+        <v>1.51</v>
+      </c>
+      <c r="BO118">
+        <v>3.2</v>
+      </c>
+      <c r="BP118">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7343764</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45446.625</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>85</v>
+      </c>
+      <c r="H119" t="s">
+        <v>73</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>169</v>
+      </c>
+      <c r="P119" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q119">
+        <v>3.1</v>
+      </c>
+      <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
+        <v>3.75</v>
+      </c>
+      <c r="T119">
+        <v>1.5</v>
+      </c>
+      <c r="U119">
+        <v>2.5</v>
+      </c>
+      <c r="V119">
+        <v>3.4</v>
+      </c>
+      <c r="W119">
+        <v>1.3</v>
+      </c>
+      <c r="X119">
+        <v>10</v>
+      </c>
+      <c r="Y119">
+        <v>1.06</v>
+      </c>
+      <c r="Z119">
+        <v>2.38</v>
+      </c>
+      <c r="AA119">
+        <v>3</v>
+      </c>
+      <c r="AB119">
+        <v>2.9</v>
+      </c>
+      <c r="AC119">
+        <v>1.05</v>
+      </c>
+      <c r="AD119">
+        <v>7.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.37</v>
+      </c>
+      <c r="AF119">
+        <v>2.8</v>
+      </c>
+      <c r="AG119">
+        <v>2.2</v>
+      </c>
+      <c r="AH119">
+        <v>1.62</v>
+      </c>
+      <c r="AI119">
+        <v>1.91</v>
+      </c>
+      <c r="AJ119">
+        <v>1.8</v>
+      </c>
+      <c r="AK119">
+        <v>1.25</v>
+      </c>
+      <c r="AL119">
+        <v>1.33</v>
+      </c>
+      <c r="AM119">
+        <v>1.52</v>
+      </c>
+      <c r="AN119">
+        <v>0.6</v>
+      </c>
+      <c r="AO119">
+        <v>1.33</v>
+      </c>
+      <c r="AP119">
+        <v>0.67</v>
+      </c>
+      <c r="AQ119">
+        <v>1.29</v>
+      </c>
+      <c r="AR119">
+        <v>1.01</v>
+      </c>
+      <c r="AS119">
+        <v>1.35</v>
+      </c>
+      <c r="AT119">
+        <v>2.36</v>
+      </c>
+      <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>4</v>
+      </c>
+      <c r="AW119">
+        <v>2</v>
+      </c>
+      <c r="AX119">
+        <v>1</v>
+      </c>
+      <c r="AY119">
+        <v>6</v>
+      </c>
+      <c r="AZ119">
+        <v>5</v>
+      </c>
+      <c r="BA119">
+        <v>4</v>
+      </c>
+      <c r="BB119">
+        <v>4</v>
+      </c>
+      <c r="BC119">
+        <v>8</v>
+      </c>
+      <c r="BD119">
+        <v>1.8</v>
+      </c>
+      <c r="BE119">
+        <v>8</v>
+      </c>
+      <c r="BF119">
+        <v>2.3</v>
+      </c>
+      <c r="BG119">
+        <v>1.33</v>
+      </c>
+      <c r="BH119">
+        <v>3</v>
+      </c>
+      <c r="BI119">
+        <v>1.59</v>
+      </c>
+      <c r="BJ119">
+        <v>2.31</v>
+      </c>
+      <c r="BK119">
+        <v>1.95</v>
+      </c>
+      <c r="BL119">
+        <v>1.77</v>
+      </c>
+      <c r="BM119">
+        <v>2.53</v>
+      </c>
+      <c r="BN119">
+        <v>1.5</v>
+      </c>
+      <c r="BO119">
+        <v>3.2</v>
+      </c>
+      <c r="BP119">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -523,7 +523,7 @@
     <t>['41', '85', '90']</t>
   </si>
   <si>
-    <t>['79']</t>
+    <t>['78']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -25337,22 +25337,22 @@
         <v>2.16</v>
       </c>
       <c r="AU118">
+        <v>6</v>
+      </c>
+      <c r="AV118">
+        <v>2</v>
+      </c>
+      <c r="AW118">
         <v>7</v>
       </c>
-      <c r="AV118">
+      <c r="AX118">
+        <v>2</v>
+      </c>
+      <c r="AY118">
+        <v>13</v>
+      </c>
+      <c r="AZ118">
         <v>4</v>
-      </c>
-      <c r="AW118">
-        <v>10</v>
-      </c>
-      <c r="AX118">
-        <v>4</v>
-      </c>
-      <c r="AY118">
-        <v>17</v>
-      </c>
-      <c r="AZ118">
-        <v>8</v>
       </c>
       <c r="BA118">
         <v>14</v>
@@ -25543,22 +25543,22 @@
         <v>2.36</v>
       </c>
       <c r="AU119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW119">
         <v>2</v>
       </c>
       <c r="AX119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ119">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA119">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -729,6 +729,9 @@
   <si>
     <t>['89']</t>
   </si>
+  <si>
+    <t>['12', '45+7', '69']</t>
+  </si>
 </sst>
 </file>
 
@@ -1089,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3280,7 +3283,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
         <v>1.11</v>
@@ -3901,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4519,7 +4522,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ17">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -6782,7 +6785,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ28">
         <v>1.86</v>
@@ -6991,7 +6994,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR29">
         <v>1.71</v>
@@ -7606,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
         <v>1.6</v>
@@ -8845,7 +8848,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -9254,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ40">
         <v>0.88</v>
@@ -9669,7 +9672,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR42">
         <v>1.51</v>
@@ -10490,7 +10493,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ46">
         <v>1.29</v>
@@ -11108,7 +11111,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ49">
         <v>1.57</v>
@@ -11935,7 +11938,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ53">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12756,7 +12759,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ57">
         <v>2.25</v>
@@ -13171,7 +13174,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ59">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -14201,7 +14204,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR64">
         <v>1.2</v>
@@ -14819,7 +14822,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ67">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -15022,7 +15025,7 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ68">
         <v>2.75</v>
@@ -16876,7 +16879,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77">
         <v>1.6</v>
@@ -17085,7 +17088,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR78">
         <v>1.11</v>
@@ -18524,7 +18527,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ85">
         <v>0.71</v>
@@ -18939,7 +18942,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ87">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -20587,7 +20590,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR95">
         <v>1.59</v>
@@ -20996,7 +20999,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ97">
         <v>1.57</v>
@@ -22026,7 +22029,7 @@
         <v>0.4</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
         <v>0.71</v>
@@ -22235,7 +22238,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ103">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR103">
         <v>1.68</v>
@@ -22647,7 +22650,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ105">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR105">
         <v>1.17</v>
@@ -24089,7 +24092,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ112">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -25337,22 +25340,22 @@
         <v>2.16</v>
       </c>
       <c r="AU118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW118">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY118">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ118">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA118">
         <v>14</v>
@@ -25607,6 +25610,418 @@
       </c>
       <c r="BP119">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7343758</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45447.625</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>84</v>
+      </c>
+      <c r="H120" t="s">
+        <v>76</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>93</v>
+      </c>
+      <c r="P120" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q120">
+        <v>2.93</v>
+      </c>
+      <c r="R120">
+        <v>1.99</v>
+      </c>
+      <c r="S120">
+        <v>3.65</v>
+      </c>
+      <c r="T120">
+        <v>1.46</v>
+      </c>
+      <c r="U120">
+        <v>2.6</v>
+      </c>
+      <c r="V120">
+        <v>3.14</v>
+      </c>
+      <c r="W120">
+        <v>1.33</v>
+      </c>
+      <c r="X120">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y120">
+        <v>1.05</v>
+      </c>
+      <c r="Z120">
+        <v>2.25</v>
+      </c>
+      <c r="AA120">
+        <v>3.1</v>
+      </c>
+      <c r="AB120">
+        <v>3</v>
+      </c>
+      <c r="AC120">
+        <v>1.04</v>
+      </c>
+      <c r="AD120">
+        <v>7.7</v>
+      </c>
+      <c r="AE120">
+        <v>1.35</v>
+      </c>
+      <c r="AF120">
+        <v>2.84</v>
+      </c>
+      <c r="AG120">
+        <v>2.1</v>
+      </c>
+      <c r="AH120">
+        <v>1.67</v>
+      </c>
+      <c r="AI120">
+        <v>1.84</v>
+      </c>
+      <c r="AJ120">
+        <v>1.82</v>
+      </c>
+      <c r="AK120">
+        <v>1.35</v>
+      </c>
+      <c r="AL120">
+        <v>1.3</v>
+      </c>
+      <c r="AM120">
+        <v>1.54</v>
+      </c>
+      <c r="AN120">
+        <v>2.5</v>
+      </c>
+      <c r="AO120">
+        <v>1.22</v>
+      </c>
+      <c r="AP120">
+        <v>2.14</v>
+      </c>
+      <c r="AQ120">
+        <v>1.4</v>
+      </c>
+      <c r="AR120">
+        <v>1.7</v>
+      </c>
+      <c r="AS120">
+        <v>1.2</v>
+      </c>
+      <c r="AT120">
+        <v>2.9</v>
+      </c>
+      <c r="AU120">
+        <v>5</v>
+      </c>
+      <c r="AV120">
+        <v>2</v>
+      </c>
+      <c r="AW120">
+        <v>6</v>
+      </c>
+      <c r="AX120">
+        <v>6</v>
+      </c>
+      <c r="AY120">
+        <v>11</v>
+      </c>
+      <c r="AZ120">
+        <v>8</v>
+      </c>
+      <c r="BA120">
+        <v>6</v>
+      </c>
+      <c r="BB120">
+        <v>3</v>
+      </c>
+      <c r="BC120">
+        <v>9</v>
+      </c>
+      <c r="BD120">
+        <v>1.73</v>
+      </c>
+      <c r="BE120">
+        <v>8</v>
+      </c>
+      <c r="BF120">
+        <v>2.4</v>
+      </c>
+      <c r="BG120">
+        <v>1.25</v>
+      </c>
+      <c r="BH120">
+        <v>3.6</v>
+      </c>
+      <c r="BI120">
+        <v>1.38</v>
+      </c>
+      <c r="BJ120">
+        <v>2.8</v>
+      </c>
+      <c r="BK120">
+        <v>1.7</v>
+      </c>
+      <c r="BL120">
+        <v>2.05</v>
+      </c>
+      <c r="BM120">
+        <v>2.12</v>
+      </c>
+      <c r="BN120">
+        <v>1.64</v>
+      </c>
+      <c r="BO120">
+        <v>2.77</v>
+      </c>
+      <c r="BP120">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7343763</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45447.79166666666</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H121" t="s">
+        <v>70</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>111</v>
+      </c>
+      <c r="P121" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q121">
+        <v>4.75</v>
+      </c>
+      <c r="R121">
+        <v>2.2</v>
+      </c>
+      <c r="S121">
+        <v>2.5</v>
+      </c>
+      <c r="T121">
+        <v>1.4</v>
+      </c>
+      <c r="U121">
+        <v>2.75</v>
+      </c>
+      <c r="V121">
+        <v>2.75</v>
+      </c>
+      <c r="W121">
+        <v>1.4</v>
+      </c>
+      <c r="X121">
+        <v>8</v>
+      </c>
+      <c r="Y121">
+        <v>1.08</v>
+      </c>
+      <c r="Z121">
+        <v>4.2</v>
+      </c>
+      <c r="AA121">
+        <v>3.4</v>
+      </c>
+      <c r="AB121">
+        <v>1.75</v>
+      </c>
+      <c r="AC121">
+        <v>1.05</v>
+      </c>
+      <c r="AD121">
+        <v>8.5</v>
+      </c>
+      <c r="AE121">
+        <v>1.3</v>
+      </c>
+      <c r="AF121">
+        <v>3.3</v>
+      </c>
+      <c r="AG121">
+        <v>1.91</v>
+      </c>
+      <c r="AH121">
+        <v>1.8</v>
+      </c>
+      <c r="AI121">
+        <v>1.83</v>
+      </c>
+      <c r="AJ121">
+        <v>1.83</v>
+      </c>
+      <c r="AK121">
+        <v>1.95</v>
+      </c>
+      <c r="AL121">
+        <v>1.22</v>
+      </c>
+      <c r="AM121">
+        <v>1.17</v>
+      </c>
+      <c r="AN121">
+        <v>1.5</v>
+      </c>
+      <c r="AO121">
+        <v>2</v>
+      </c>
+      <c r="AP121">
+        <v>1.29</v>
+      </c>
+      <c r="AQ121">
+        <v>2.14</v>
+      </c>
+      <c r="AR121">
+        <v>1.48</v>
+      </c>
+      <c r="AS121">
+        <v>1.34</v>
+      </c>
+      <c r="AT121">
+        <v>2.82</v>
+      </c>
+      <c r="AU121">
+        <v>5</v>
+      </c>
+      <c r="AV121">
+        <v>8</v>
+      </c>
+      <c r="AW121">
+        <v>5</v>
+      </c>
+      <c r="AX121">
+        <v>8</v>
+      </c>
+      <c r="AY121">
+        <v>10</v>
+      </c>
+      <c r="AZ121">
+        <v>16</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>6</v>
+      </c>
+      <c r="BC121">
+        <v>6</v>
+      </c>
+      <c r="BD121">
+        <v>2.62</v>
+      </c>
+      <c r="BE121">
+        <v>8</v>
+      </c>
+      <c r="BF121">
+        <v>1.62</v>
+      </c>
+      <c r="BG121">
+        <v>1.27</v>
+      </c>
+      <c r="BH121">
+        <v>3.28</v>
+      </c>
+      <c r="BI121">
+        <v>1.51</v>
+      </c>
+      <c r="BJ121">
+        <v>2.32</v>
+      </c>
+      <c r="BK121">
+        <v>1.85</v>
+      </c>
+      <c r="BL121">
+        <v>1.85</v>
+      </c>
+      <c r="BM121">
+        <v>2.45</v>
+      </c>
+      <c r="BN121">
+        <v>1.46</v>
+      </c>
+      <c r="BO121">
+        <v>3.34</v>
+      </c>
+      <c r="BP121">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,12 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['42', '90+1']</t>
+  </si>
+  <si>
+    <t>['16', '50']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -731,6 +737,12 @@
   </si>
   <si>
     <t>['12', '45+7', '69']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1363,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1557,7 +1569,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1763,7 +1775,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1969,7 +1981,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2047,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>2.25</v>
@@ -2175,7 +2187,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2381,7 +2393,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2459,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1.6</v>
@@ -2587,7 +2599,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2668,7 +2680,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2793,7 +2805,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3077,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ10">
         <v>1.86</v>
@@ -3492,7 +3504,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ12">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3698,7 +3710,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -3901,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ14">
         <v>2.14</v>
@@ -4235,7 +4247,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4441,7 +4453,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4647,7 +4659,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4725,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -5265,7 +5277,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5471,7 +5483,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5549,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ22">
         <v>1.29</v>
@@ -5677,7 +5689,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5758,7 +5770,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ23">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5883,7 +5895,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5964,7 +5976,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -6089,7 +6101,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6501,7 +6513,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6579,7 +6591,7 @@
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ27">
         <v>1.11</v>
@@ -6707,7 +6719,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6913,7 +6925,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7403,7 +7415,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
         <v>1.29</v>
@@ -7943,7 +7955,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8021,10 +8033,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -8149,7 +8161,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8230,7 +8242,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ35">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>0.51</v>
@@ -8639,10 +8651,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ37">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -8767,7 +8779,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8973,7 +8985,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9179,7 +9191,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9385,7 +9397,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9878,7 +9890,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR43">
         <v>0.6899999999999999</v>
@@ -10003,7 +10015,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10081,7 +10093,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ44">
         <v>0.43</v>
@@ -10621,7 +10633,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10827,7 +10839,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10905,7 +10917,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
         <v>2.25</v>
@@ -11033,7 +11045,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11114,7 +11126,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ49">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11239,7 +11251,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11445,7 +11457,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11523,10 +11535,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.16</v>
@@ -11651,7 +11663,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12269,7 +12281,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12475,7 +12487,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12553,10 +12565,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ56">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -12968,7 +12980,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR58">
         <v>1.2</v>
@@ -13093,7 +13105,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13171,7 +13183,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ59">
         <v>1.4</v>
@@ -13299,7 +13311,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13505,7 +13517,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13917,7 +13929,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13995,7 +14007,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ63">
         <v>1.6</v>
@@ -14123,7 +14135,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14329,7 +14341,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14407,7 +14419,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>0.71</v>
@@ -14613,10 +14625,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -14741,7 +14753,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14947,7 +14959,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15028,7 +15040,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ68">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15153,7 +15165,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15359,7 +15371,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15437,10 +15449,10 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ70">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15565,7 +15577,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15771,7 +15783,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15977,7 +15989,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16058,7 +16070,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR73">
         <v>0.8</v>
@@ -16183,7 +16195,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16595,7 +16607,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17007,7 +17019,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17213,7 +17225,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17497,10 +17509,10 @@
         <v>0.75</v>
       </c>
       <c r="AP80">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR80">
         <v>1.38</v>
@@ -17831,7 +17843,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18037,7 +18049,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18115,10 +18127,10 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ83">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18243,7 +18255,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18449,7 +18461,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18530,7 +18542,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ85">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18733,7 +18745,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ86">
         <v>1.13</v>
@@ -18861,7 +18873,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19067,7 +19079,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19148,7 +19160,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ88">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19351,7 +19363,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ89">
         <v>0.71</v>
@@ -19479,7 +19491,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19560,7 +19572,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ90">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR90">
         <v>1.78</v>
@@ -20097,7 +20109,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20175,7 +20187,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
         <v>1.29</v>
@@ -20509,7 +20521,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20587,7 +20599,7 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ95">
         <v>1.4</v>
@@ -20715,7 +20727,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20921,7 +20933,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21002,7 +21014,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ97">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21333,7 +21345,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21539,7 +21551,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21620,7 +21632,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ100">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR100">
         <v>1.43</v>
@@ -22235,7 +22247,7 @@
         <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ103">
         <v>1.4</v>
@@ -22363,7 +22375,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22441,10 +22453,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ104">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.56</v>
@@ -22569,7 +22581,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22647,7 +22659,7 @@
         <v>1.8</v>
       </c>
       <c r="AP105">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ105">
         <v>2.14</v>
@@ -22981,7 +22993,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23059,7 +23071,7 @@
         <v>2.14</v>
       </c>
       <c r="AP107">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
         <v>2.25</v>
@@ -23393,7 +23405,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23471,7 +23483,7 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ109">
         <v>0.88</v>
@@ -23805,7 +23817,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24217,7 +24229,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24295,10 +24307,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ113">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR113">
         <v>1.08</v>
@@ -24501,7 +24513,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ114">
         <v>0.88</v>
@@ -24629,7 +24641,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24835,7 +24847,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -24916,7 +24928,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ116">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR116">
         <v>1.25</v>
@@ -25122,7 +25134,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ117">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.4</v>
@@ -25247,7 +25259,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25325,7 +25337,7 @@
         <v>0.33</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ118">
         <v>0.71</v>
@@ -25453,7 +25465,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25865,7 +25877,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26022,6 +26034,830 @@
       </c>
       <c r="BP121">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7446468</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45451.52083333334</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>81</v>
+      </c>
+      <c r="H122" t="s">
+        <v>72</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>93</v>
+      </c>
+      <c r="P122" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q122">
+        <v>2.44</v>
+      </c>
+      <c r="R122">
+        <v>2.3</v>
+      </c>
+      <c r="S122">
+        <v>4.7</v>
+      </c>
+      <c r="T122">
+        <v>1.37</v>
+      </c>
+      <c r="U122">
+        <v>3.1</v>
+      </c>
+      <c r="V122">
+        <v>2.84</v>
+      </c>
+      <c r="W122">
+        <v>1.43</v>
+      </c>
+      <c r="X122">
+        <v>6.4</v>
+      </c>
+      <c r="Y122">
+        <v>1.08</v>
+      </c>
+      <c r="Z122">
+        <v>1.8</v>
+      </c>
+      <c r="AA122">
+        <v>3.5</v>
+      </c>
+      <c r="AB122">
+        <v>3.8</v>
+      </c>
+      <c r="AC122">
+        <v>1.05</v>
+      </c>
+      <c r="AD122">
+        <v>8.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.28</v>
+      </c>
+      <c r="AF122">
+        <v>3.4</v>
+      </c>
+      <c r="AG122">
+        <v>1.92</v>
+      </c>
+      <c r="AH122">
+        <v>1.83</v>
+      </c>
+      <c r="AI122">
+        <v>1.75</v>
+      </c>
+      <c r="AJ122">
+        <v>1.96</v>
+      </c>
+      <c r="AK122">
+        <v>1.22</v>
+      </c>
+      <c r="AL122">
+        <v>1.26</v>
+      </c>
+      <c r="AM122">
+        <v>1.85</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
+        <v>0.71</v>
+      </c>
+      <c r="AP122">
+        <v>0.91</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>1.55</v>
+      </c>
+      <c r="AS122">
+        <v>1.08</v>
+      </c>
+      <c r="AT122">
+        <v>2.63</v>
+      </c>
+      <c r="AU122">
+        <v>2</v>
+      </c>
+      <c r="AV122">
+        <v>2</v>
+      </c>
+      <c r="AW122">
+        <v>8</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>10</v>
+      </c>
+      <c r="AZ122">
+        <v>4</v>
+      </c>
+      <c r="BA122">
+        <v>8</v>
+      </c>
+      <c r="BB122">
+        <v>7</v>
+      </c>
+      <c r="BC122">
+        <v>15</v>
+      </c>
+      <c r="BD122">
+        <v>1.52</v>
+      </c>
+      <c r="BE122">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF122">
+        <v>2.85</v>
+      </c>
+      <c r="BG122">
+        <v>1.19</v>
+      </c>
+      <c r="BH122">
+        <v>4.1</v>
+      </c>
+      <c r="BI122">
+        <v>1.33</v>
+      </c>
+      <c r="BJ122">
+        <v>3.05</v>
+      </c>
+      <c r="BK122">
+        <v>1.65</v>
+      </c>
+      <c r="BL122">
+        <v>2.22</v>
+      </c>
+      <c r="BM122">
+        <v>2.05</v>
+      </c>
+      <c r="BN122">
+        <v>1.76</v>
+      </c>
+      <c r="BO122">
+        <v>2.62</v>
+      </c>
+      <c r="BP122">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7446469</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45451.625</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>75</v>
+      </c>
+      <c r="H123" t="s">
+        <v>71</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>170</v>
+      </c>
+      <c r="P123" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q123">
+        <v>2.84</v>
+      </c>
+      <c r="R123">
+        <v>2.07</v>
+      </c>
+      <c r="S123">
+        <v>4.51</v>
+      </c>
+      <c r="T123">
+        <v>1.48</v>
+      </c>
+      <c r="U123">
+        <v>2.55</v>
+      </c>
+      <c r="V123">
+        <v>3.2</v>
+      </c>
+      <c r="W123">
+        <v>1.3</v>
+      </c>
+      <c r="X123">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y123">
+        <v>1.03</v>
+      </c>
+      <c r="Z123">
+        <v>2.17</v>
+      </c>
+      <c r="AA123">
+        <v>3.15</v>
+      </c>
+      <c r="AB123">
+        <v>2.92</v>
+      </c>
+      <c r="AC123">
+        <v>1.09</v>
+      </c>
+      <c r="AD123">
+        <v>6.5</v>
+      </c>
+      <c r="AE123">
+        <v>1.45</v>
+      </c>
+      <c r="AF123">
+        <v>2.62</v>
+      </c>
+      <c r="AG123">
+        <v>2.17</v>
+      </c>
+      <c r="AH123">
+        <v>1.64</v>
+      </c>
+      <c r="AI123">
+        <v>2.02</v>
+      </c>
+      <c r="AJ123">
+        <v>1.75</v>
+      </c>
+      <c r="AK123">
+        <v>1.27</v>
+      </c>
+      <c r="AL123">
+        <v>1.34</v>
+      </c>
+      <c r="AM123">
+        <v>1.7</v>
+      </c>
+      <c r="AN123">
+        <v>0.75</v>
+      </c>
+      <c r="AO123">
+        <v>1.29</v>
+      </c>
+      <c r="AP123">
+        <v>1</v>
+      </c>
+      <c r="AQ123">
+        <v>1.13</v>
+      </c>
+      <c r="AR123">
+        <v>1.37</v>
+      </c>
+      <c r="AS123">
+        <v>1.3</v>
+      </c>
+      <c r="AT123">
+        <v>2.67</v>
+      </c>
+      <c r="AU123">
+        <v>3</v>
+      </c>
+      <c r="AV123">
+        <v>5</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>9</v>
+      </c>
+      <c r="AZ123">
+        <v>5</v>
+      </c>
+      <c r="BA123">
+        <v>6</v>
+      </c>
+      <c r="BB123">
+        <v>4</v>
+      </c>
+      <c r="BC123">
+        <v>10</v>
+      </c>
+      <c r="BD123">
+        <v>1.67</v>
+      </c>
+      <c r="BE123">
+        <v>8.5</v>
+      </c>
+      <c r="BF123">
+        <v>2.5</v>
+      </c>
+      <c r="BG123">
+        <v>1.19</v>
+      </c>
+      <c r="BH123">
+        <v>4.68</v>
+      </c>
+      <c r="BI123">
+        <v>1.33</v>
+      </c>
+      <c r="BJ123">
+        <v>2.93</v>
+      </c>
+      <c r="BK123">
+        <v>1.58</v>
+      </c>
+      <c r="BL123">
+        <v>2.17</v>
+      </c>
+      <c r="BM123">
+        <v>1.95</v>
+      </c>
+      <c r="BN123">
+        <v>1.77</v>
+      </c>
+      <c r="BO123">
+        <v>2.57</v>
+      </c>
+      <c r="BP123">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7446470</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45451.72916666666</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" t="s">
+        <v>80</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>171</v>
+      </c>
+      <c r="P124" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q124">
+        <v>5.25</v>
+      </c>
+      <c r="R124">
+        <v>2.15</v>
+      </c>
+      <c r="S124">
+        <v>2.15</v>
+      </c>
+      <c r="T124">
+        <v>1.38</v>
+      </c>
+      <c r="U124">
+        <v>2.8</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>7.5</v>
+      </c>
+      <c r="Y124">
+        <v>1.06</v>
+      </c>
+      <c r="Z124">
+        <v>5.2</v>
+      </c>
+      <c r="AA124">
+        <v>3.8</v>
+      </c>
+      <c r="AB124">
+        <v>1.5</v>
+      </c>
+      <c r="AC124">
+        <v>1.06</v>
+      </c>
+      <c r="AD124">
+        <v>8</v>
+      </c>
+      <c r="AE124">
+        <v>1.36</v>
+      </c>
+      <c r="AF124">
+        <v>3</v>
+      </c>
+      <c r="AG124">
+        <v>2.02</v>
+      </c>
+      <c r="AH124">
+        <v>1.8</v>
+      </c>
+      <c r="AI124">
+        <v>2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.67</v>
+      </c>
+      <c r="AK124">
+        <v>2.3</v>
+      </c>
+      <c r="AL124">
+        <v>1.22</v>
+      </c>
+      <c r="AM124">
+        <v>1.08</v>
+      </c>
+      <c r="AN124">
+        <v>1.43</v>
+      </c>
+      <c r="AO124">
+        <v>2.75</v>
+      </c>
+      <c r="AP124">
+        <v>1.63</v>
+      </c>
+      <c r="AQ124">
+        <v>2.44</v>
+      </c>
+      <c r="AR124">
+        <v>1.6</v>
+      </c>
+      <c r="AS124">
+        <v>1.5</v>
+      </c>
+      <c r="AT124">
+        <v>3.1</v>
+      </c>
+      <c r="AU124">
+        <v>3</v>
+      </c>
+      <c r="AV124">
+        <v>2</v>
+      </c>
+      <c r="AW124">
+        <v>4</v>
+      </c>
+      <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>7</v>
+      </c>
+      <c r="AZ124">
+        <v>5</v>
+      </c>
+      <c r="BA124">
+        <v>4</v>
+      </c>
+      <c r="BB124">
+        <v>2</v>
+      </c>
+      <c r="BC124">
+        <v>6</v>
+      </c>
+      <c r="BD124">
+        <v>3.4</v>
+      </c>
+      <c r="BE124">
+        <v>7.7</v>
+      </c>
+      <c r="BF124">
+        <v>1.48</v>
+      </c>
+      <c r="BG124">
+        <v>1.28</v>
+      </c>
+      <c r="BH124">
+        <v>3.35</v>
+      </c>
+      <c r="BI124">
+        <v>1.66</v>
+      </c>
+      <c r="BJ124">
+        <v>2.2</v>
+      </c>
+      <c r="BK124">
+        <v>2.06</v>
+      </c>
+      <c r="BL124">
+        <v>1.75</v>
+      </c>
+      <c r="BM124">
+        <v>2.62</v>
+      </c>
+      <c r="BN124">
+        <v>1.43</v>
+      </c>
+      <c r="BO124">
+        <v>3.6</v>
+      </c>
+      <c r="BP124">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7446471</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45451.83333333334</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125" t="s">
+        <v>82</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P125" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q125">
+        <v>3.8</v>
+      </c>
+      <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
+        <v>2.7</v>
+      </c>
+      <c r="T125">
+        <v>1.4</v>
+      </c>
+      <c r="U125">
+        <v>2.7</v>
+      </c>
+      <c r="V125">
+        <v>2.8</v>
+      </c>
+      <c r="W125">
+        <v>1.38</v>
+      </c>
+      <c r="X125">
+        <v>6.9</v>
+      </c>
+      <c r="Y125">
+        <v>1.07</v>
+      </c>
+      <c r="Z125">
+        <v>3.05</v>
+      </c>
+      <c r="AA125">
+        <v>3.3</v>
+      </c>
+      <c r="AB125">
+        <v>2.04</v>
+      </c>
+      <c r="AC125">
+        <v>1.06</v>
+      </c>
+      <c r="AD125">
+        <v>8</v>
+      </c>
+      <c r="AE125">
+        <v>1.33</v>
+      </c>
+      <c r="AF125">
+        <v>3.1</v>
+      </c>
+      <c r="AG125">
+        <v>1.98</v>
+      </c>
+      <c r="AH125">
+        <v>1.84</v>
+      </c>
+      <c r="AI125">
+        <v>1.73</v>
+      </c>
+      <c r="AJ125">
+        <v>1.93</v>
+      </c>
+      <c r="AK125">
+        <v>1.67</v>
+      </c>
+      <c r="AL125">
+        <v>1.28</v>
+      </c>
+      <c r="AM125">
+        <v>1.3</v>
+      </c>
+      <c r="AN125">
+        <v>0.75</v>
+      </c>
+      <c r="AO125">
+        <v>1.57</v>
+      </c>
+      <c r="AP125">
+        <v>0.67</v>
+      </c>
+      <c r="AQ125">
+        <v>1.75</v>
+      </c>
+      <c r="AR125">
+        <v>1.09</v>
+      </c>
+      <c r="AS125">
+        <v>1.67</v>
+      </c>
+      <c r="AT125">
+        <v>2.76</v>
+      </c>
+      <c r="AU125">
+        <v>2</v>
+      </c>
+      <c r="AV125">
+        <v>3</v>
+      </c>
+      <c r="AW125">
+        <v>2</v>
+      </c>
+      <c r="AX125">
+        <v>2</v>
+      </c>
+      <c r="AY125">
+        <v>4</v>
+      </c>
+      <c r="AZ125">
+        <v>5</v>
+      </c>
+      <c r="BA125">
+        <v>3</v>
+      </c>
+      <c r="BB125">
+        <v>8</v>
+      </c>
+      <c r="BC125">
+        <v>11</v>
+      </c>
+      <c r="BD125">
+        <v>2.75</v>
+      </c>
+      <c r="BE125">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF125">
+        <v>1.63</v>
+      </c>
+      <c r="BG125">
+        <v>1.27</v>
+      </c>
+      <c r="BH125">
+        <v>3.4</v>
+      </c>
+      <c r="BI125">
+        <v>1.51</v>
+      </c>
+      <c r="BJ125">
+        <v>2.49</v>
+      </c>
+      <c r="BK125">
+        <v>1.85</v>
+      </c>
+      <c r="BL125">
+        <v>1.95</v>
+      </c>
+      <c r="BM125">
+        <v>2.32</v>
+      </c>
+      <c r="BN125">
+        <v>1.59</v>
+      </c>
+      <c r="BO125">
+        <v>3.1</v>
+      </c>
+      <c r="BP125">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,12 @@
     <t>['16', '50']</t>
   </si>
   <si>
+    <t>['51', '90+7']</t>
+  </si>
+  <si>
+    <t>['14', '84', '88']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -743,6 +749,9 @@
   </si>
   <si>
     <t>['8']</t>
+  </si>
+  <si>
+    <t>['34', '86']</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1372,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1444,7 +1453,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ2">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1569,7 +1578,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1650,7 +1659,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1775,7 +1784,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1981,7 +1990,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2187,7 +2196,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2265,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2393,7 +2402,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2599,7 +2608,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2677,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>2.44</v>
@@ -2805,7 +2814,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3298,7 +3307,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ11">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3707,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.13</v>
@@ -3916,7 +3925,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ14">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4247,7 +4256,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4325,7 +4334,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -4453,7 +4462,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4659,7 +4668,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4946,7 +4955,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR19">
         <v>1.89</v>
@@ -5277,7 +5286,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5483,7 +5492,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5689,7 +5698,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5895,7 +5904,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6101,7 +6110,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6513,7 +6522,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6594,7 +6603,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ27">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6719,7 +6728,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6797,7 +6806,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ28">
         <v>1.86</v>
@@ -6925,7 +6934,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7006,7 +7015,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR29">
         <v>1.71</v>
@@ -7209,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
         <v>0.88</v>
@@ -7830,7 +7839,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ33">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -7955,7 +7964,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8161,7 +8170,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8779,7 +8788,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8857,7 +8866,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>1.4</v>
@@ -8985,7 +8994,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9191,7 +9200,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9269,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40">
         <v>0.88</v>
@@ -9397,7 +9406,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9475,7 +9484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>1.86</v>
@@ -9684,7 +9693,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ42">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR42">
         <v>1.51</v>
@@ -10015,7 +10024,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10096,7 +10105,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ44">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10302,7 +10311,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ45">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR45">
         <v>1.48</v>
@@ -10505,7 +10514,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46">
         <v>1.29</v>
@@ -10633,7 +10642,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10839,7 +10848,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11045,7 +11054,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11251,7 +11260,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11457,7 +11466,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11663,7 +11672,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12153,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
         <v>0.88</v>
@@ -12281,7 +12290,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12487,7 +12496,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12771,7 +12780,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ57">
         <v>2.25</v>
@@ -12977,7 +12986,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
         <v>1.13</v>
@@ -13105,7 +13114,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13311,7 +13320,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13517,7 +13526,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13598,7 +13607,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ61">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -13804,7 +13813,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ62">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR62">
         <v>1.31</v>
@@ -13929,7 +13938,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14135,7 +14144,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14216,7 +14225,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ64">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR64">
         <v>1.2</v>
@@ -14341,7 +14350,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14753,7 +14762,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14959,7 +14968,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15165,7 +15174,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15371,7 +15380,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15577,7 +15586,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15783,7 +15792,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15989,7 +15998,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16195,7 +16204,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16479,7 +16488,7 @@
         <v>2.4</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
         <v>2.25</v>
@@ -16607,7 +16616,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16688,7 +16697,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ76">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR76">
         <v>1.18</v>
@@ -16891,7 +16900,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
         <v>1.6</v>
@@ -17019,7 +17028,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17097,10 +17106,10 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR78">
         <v>1.11</v>
@@ -17225,7 +17234,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17718,7 +17727,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ81">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR81">
         <v>1.33</v>
@@ -17843,7 +17852,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18049,7 +18058,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18255,7 +18264,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18461,7 +18470,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18873,7 +18882,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19079,7 +19088,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19491,7 +19500,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19775,10 +19784,10 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ91">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR91">
         <v>1.05</v>
@@ -19984,7 +19993,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ92">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -20109,7 +20118,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20521,7 +20530,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20727,7 +20736,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20933,7 +20942,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21011,7 +21020,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ97">
         <v>1.75</v>
@@ -21345,7 +21354,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21551,7 +21560,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22375,7 +22384,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22581,7 +22590,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22662,7 +22671,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ105">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR105">
         <v>1.17</v>
@@ -22993,7 +23002,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23405,7 +23414,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23692,7 +23701,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ110">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR110">
         <v>1.77</v>
@@ -23817,7 +23826,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -23895,10 +23904,10 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ111">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24229,7 +24238,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24641,7 +24650,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24847,7 +24856,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25259,7 +25268,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25465,7 +25474,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25749,7 +25758,7 @@
         <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ120">
         <v>1.4</v>
@@ -25877,7 +25886,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -25958,7 +25967,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ121">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26083,7 +26092,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26289,7 +26298,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26701,7 +26710,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -26858,6 +26867,624 @@
       </c>
       <c r="BP125">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7446473</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45452.52083333334</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>76</v>
+      </c>
+      <c r="H126" t="s">
+        <v>85</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>172</v>
+      </c>
+      <c r="P126" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q126">
+        <v>2.9</v>
+      </c>
+      <c r="R126">
+        <v>1.9</v>
+      </c>
+      <c r="S126">
+        <v>4</v>
+      </c>
+      <c r="T126">
+        <v>1.54</v>
+      </c>
+      <c r="U126">
+        <v>2.36</v>
+      </c>
+      <c r="V126">
+        <v>3.4</v>
+      </c>
+      <c r="W126">
+        <v>1.28</v>
+      </c>
+      <c r="X126">
+        <v>9</v>
+      </c>
+      <c r="Y126">
+        <v>1.03</v>
+      </c>
+      <c r="Z126">
+        <v>2.27</v>
+      </c>
+      <c r="AA126">
+        <v>3.17</v>
+      </c>
+      <c r="AB126">
+        <v>3.19</v>
+      </c>
+      <c r="AC126">
+        <v>1.09</v>
+      </c>
+      <c r="AD126">
+        <v>6.5</v>
+      </c>
+      <c r="AE126">
+        <v>1.45</v>
+      </c>
+      <c r="AF126">
+        <v>2.65</v>
+      </c>
+      <c r="AG126">
+        <v>2.35</v>
+      </c>
+      <c r="AH126">
+        <v>1.55</v>
+      </c>
+      <c r="AI126">
+        <v>2</v>
+      </c>
+      <c r="AJ126">
+        <v>1.75</v>
+      </c>
+      <c r="AK126">
+        <v>1.3</v>
+      </c>
+      <c r="AL126">
+        <v>1.3</v>
+      </c>
+      <c r="AM126">
+        <v>1.63</v>
+      </c>
+      <c r="AN126">
+        <v>1.4</v>
+      </c>
+      <c r="AO126">
+        <v>1.11</v>
+      </c>
+      <c r="AP126">
+        <v>1.33</v>
+      </c>
+      <c r="AQ126">
+        <v>1.1</v>
+      </c>
+      <c r="AR126">
+        <v>1.36</v>
+      </c>
+      <c r="AS126">
+        <v>1.29</v>
+      </c>
+      <c r="AT126">
+        <v>2.65</v>
+      </c>
+      <c r="AU126">
+        <v>9</v>
+      </c>
+      <c r="AV126">
+        <v>5</v>
+      </c>
+      <c r="AW126">
+        <v>11</v>
+      </c>
+      <c r="AX126">
+        <v>7</v>
+      </c>
+      <c r="AY126">
+        <v>20</v>
+      </c>
+      <c r="AZ126">
+        <v>12</v>
+      </c>
+      <c r="BA126">
+        <v>8</v>
+      </c>
+      <c r="BB126">
+        <v>6</v>
+      </c>
+      <c r="BC126">
+        <v>14</v>
+      </c>
+      <c r="BD126">
+        <v>1.76</v>
+      </c>
+      <c r="BE126">
+        <v>8.4</v>
+      </c>
+      <c r="BF126">
+        <v>2.32</v>
+      </c>
+      <c r="BG126">
+        <v>1.27</v>
+      </c>
+      <c r="BH126">
+        <v>3.28</v>
+      </c>
+      <c r="BI126">
+        <v>1.51</v>
+      </c>
+      <c r="BJ126">
+        <v>2.32</v>
+      </c>
+      <c r="BK126">
+        <v>1.91</v>
+      </c>
+      <c r="BL126">
+        <v>1.8</v>
+      </c>
+      <c r="BM126">
+        <v>2.45</v>
+      </c>
+      <c r="BN126">
+        <v>1.46</v>
+      </c>
+      <c r="BO126">
+        <v>3.34</v>
+      </c>
+      <c r="BP126">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7446474</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45452.625</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>84</v>
+      </c>
+      <c r="H127" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>125</v>
+      </c>
+      <c r="P127" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q127">
+        <v>2.67</v>
+      </c>
+      <c r="R127">
+        <v>2.23</v>
+      </c>
+      <c r="S127">
+        <v>4.31</v>
+      </c>
+      <c r="T127">
+        <v>1.41</v>
+      </c>
+      <c r="U127">
+        <v>3</v>
+      </c>
+      <c r="V127">
+        <v>3.02</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>6.9</v>
+      </c>
+      <c r="Y127">
+        <v>1.07</v>
+      </c>
+      <c r="Z127">
+        <v>1.98</v>
+      </c>
+      <c r="AA127">
+        <v>3.35</v>
+      </c>
+      <c r="AB127">
+        <v>3.52</v>
+      </c>
+      <c r="AC127">
+        <v>1.05</v>
+      </c>
+      <c r="AD127">
+        <v>8.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.3</v>
+      </c>
+      <c r="AF127">
+        <v>3.25</v>
+      </c>
+      <c r="AG127">
+        <v>1.94</v>
+      </c>
+      <c r="AH127">
+        <v>1.78</v>
+      </c>
+      <c r="AI127">
+        <v>1.81</v>
+      </c>
+      <c r="AJ127">
+        <v>1.9</v>
+      </c>
+      <c r="AK127">
+        <v>1.25</v>
+      </c>
+      <c r="AL127">
+        <v>1.28</v>
+      </c>
+      <c r="AM127">
+        <v>1.75</v>
+      </c>
+      <c r="AN127">
+        <v>2.14</v>
+      </c>
+      <c r="AO127">
+        <v>0.43</v>
+      </c>
+      <c r="AP127">
+        <v>2.25</v>
+      </c>
+      <c r="AQ127">
+        <v>0.38</v>
+      </c>
+      <c r="AR127">
+        <v>1.68</v>
+      </c>
+      <c r="AS127">
+        <v>1.09</v>
+      </c>
+      <c r="AT127">
+        <v>2.77</v>
+      </c>
+      <c r="AU127">
+        <v>5</v>
+      </c>
+      <c r="AV127">
+        <v>6</v>
+      </c>
+      <c r="AW127">
+        <v>4</v>
+      </c>
+      <c r="AX127">
+        <v>5</v>
+      </c>
+      <c r="AY127">
+        <v>9</v>
+      </c>
+      <c r="AZ127">
+        <v>11</v>
+      </c>
+      <c r="BA127">
+        <v>2</v>
+      </c>
+      <c r="BB127">
+        <v>5</v>
+      </c>
+      <c r="BC127">
+        <v>7</v>
+      </c>
+      <c r="BD127">
+        <v>1.55</v>
+      </c>
+      <c r="BE127">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF127">
+        <v>2.75</v>
+      </c>
+      <c r="BG127">
+        <v>1.22</v>
+      </c>
+      <c r="BH127">
+        <v>3.8</v>
+      </c>
+      <c r="BI127">
+        <v>1.33</v>
+      </c>
+      <c r="BJ127">
+        <v>3.05</v>
+      </c>
+      <c r="BK127">
+        <v>1.65</v>
+      </c>
+      <c r="BL127">
+        <v>2.19</v>
+      </c>
+      <c r="BM127">
+        <v>2.05</v>
+      </c>
+      <c r="BN127">
+        <v>1.74</v>
+      </c>
+      <c r="BO127">
+        <v>2.65</v>
+      </c>
+      <c r="BP127">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7446475</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45452.75</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>74</v>
+      </c>
+      <c r="H128" t="s">
+        <v>70</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>173</v>
+      </c>
+      <c r="P128" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q128">
+        <v>5.3</v>
+      </c>
+      <c r="R128">
+        <v>2.15</v>
+      </c>
+      <c r="S128">
+        <v>2.1</v>
+      </c>
+      <c r="T128">
+        <v>1.42</v>
+      </c>
+      <c r="U128">
+        <v>2.6</v>
+      </c>
+      <c r="V128">
+        <v>2.85</v>
+      </c>
+      <c r="W128">
+        <v>1.35</v>
+      </c>
+      <c r="X128">
+        <v>6.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.07</v>
+      </c>
+      <c r="Z128">
+        <v>4.5</v>
+      </c>
+      <c r="AA128">
+        <v>3.6</v>
+      </c>
+      <c r="AB128">
+        <v>1.6</v>
+      </c>
+      <c r="AC128">
+        <v>1.05</v>
+      </c>
+      <c r="AD128">
+        <v>7.8</v>
+      </c>
+      <c r="AE128">
+        <v>1.3</v>
+      </c>
+      <c r="AF128">
+        <v>3.2</v>
+      </c>
+      <c r="AG128">
+        <v>1.95</v>
+      </c>
+      <c r="AH128">
+        <v>1.75</v>
+      </c>
+      <c r="AI128">
+        <v>1.93</v>
+      </c>
+      <c r="AJ128">
+        <v>1.75</v>
+      </c>
+      <c r="AK128">
+        <v>2.2</v>
+      </c>
+      <c r="AL128">
+        <v>1.2</v>
+      </c>
+      <c r="AM128">
+        <v>1.09</v>
+      </c>
+      <c r="AN128">
+        <v>1.5</v>
+      </c>
+      <c r="AO128">
+        <v>2.14</v>
+      </c>
+      <c r="AP128">
+        <v>1.67</v>
+      </c>
+      <c r="AQ128">
+        <v>1.88</v>
+      </c>
+      <c r="AR128">
+        <v>1.14</v>
+      </c>
+      <c r="AS128">
+        <v>1.43</v>
+      </c>
+      <c r="AT128">
+        <v>2.57</v>
+      </c>
+      <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>14</v>
+      </c>
+      <c r="AW128">
+        <v>1</v>
+      </c>
+      <c r="AX128">
+        <v>2</v>
+      </c>
+      <c r="AY128">
+        <v>5</v>
+      </c>
+      <c r="AZ128">
+        <v>16</v>
+      </c>
+      <c r="BA128">
+        <v>4</v>
+      </c>
+      <c r="BB128">
+        <v>6</v>
+      </c>
+      <c r="BC128">
+        <v>10</v>
+      </c>
+      <c r="BD128">
+        <v>2.75</v>
+      </c>
+      <c r="BE128">
+        <v>8</v>
+      </c>
+      <c r="BF128">
+        <v>1.62</v>
+      </c>
+      <c r="BG128">
+        <v>1.3</v>
+      </c>
+      <c r="BH128">
+        <v>3.2</v>
+      </c>
+      <c r="BI128">
+        <v>1.54</v>
+      </c>
+      <c r="BJ128">
+        <v>2.33</v>
+      </c>
+      <c r="BK128">
+        <v>1.77</v>
+      </c>
+      <c r="BL128">
+        <v>1.95</v>
+      </c>
+      <c r="BM128">
+        <v>2.4</v>
+      </c>
+      <c r="BN128">
+        <v>1.51</v>
+      </c>
+      <c r="BO128">
+        <v>3.1</v>
+      </c>
+      <c r="BP128">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1113,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2071,7 +2071,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -5367,7 +5367,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ21">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR21">
         <v>1.09</v>
@@ -5776,7 +5776,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ23">
         <v>2.44</v>
@@ -6191,7 +6191,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR25">
         <v>1.39</v>
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -9896,7 +9896,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
         <v>1.13</v>
@@ -10929,7 +10929,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ48">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -12783,7 +12783,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ57">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13398,7 +13398,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60">
         <v>1.86</v>
@@ -16076,7 +16076,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73">
         <v>1.75</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74">
         <v>1.29</v>
@@ -16491,7 +16491,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR75">
         <v>1.21</v>
@@ -20814,10 +20814,10 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR96">
         <v>0.91</v>
@@ -23083,7 +23083,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -27484,6 +27484,212 @@
         <v>3.1</v>
       </c>
       <c r="BP128">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7446472</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45454.625</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>83</v>
+      </c>
+      <c r="H129" t="s">
+        <v>79</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>136</v>
+      </c>
+      <c r="P129" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q129">
+        <v>3.3</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>3.1</v>
+      </c>
+      <c r="T129">
+        <v>1.42</v>
+      </c>
+      <c r="U129">
+        <v>2.65</v>
+      </c>
+      <c r="V129">
+        <v>2.88</v>
+      </c>
+      <c r="W129">
+        <v>1.36</v>
+      </c>
+      <c r="X129">
+        <v>7.6</v>
+      </c>
+      <c r="Y129">
+        <v>1.05</v>
+      </c>
+      <c r="Z129">
+        <v>3.1</v>
+      </c>
+      <c r="AA129">
+        <v>3.2</v>
+      </c>
+      <c r="AB129">
+        <v>2.15</v>
+      </c>
+      <c r="AC129">
+        <v>1.07</v>
+      </c>
+      <c r="AD129">
+        <v>7.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.36</v>
+      </c>
+      <c r="AF129">
+        <v>2.95</v>
+      </c>
+      <c r="AG129">
+        <v>1.91</v>
+      </c>
+      <c r="AH129">
+        <v>1.8</v>
+      </c>
+      <c r="AI129">
+        <v>1.75</v>
+      </c>
+      <c r="AJ129">
+        <v>1.9</v>
+      </c>
+      <c r="AK129">
+        <v>1.48</v>
+      </c>
+      <c r="AL129">
+        <v>1.3</v>
+      </c>
+      <c r="AM129">
+        <v>1.42</v>
+      </c>
+      <c r="AN129">
+        <v>1.14</v>
+      </c>
+      <c r="AO129">
+        <v>2.25</v>
+      </c>
+      <c r="AP129">
+        <v>1.13</v>
+      </c>
+      <c r="AQ129">
+        <v>2.11</v>
+      </c>
+      <c r="AR129">
+        <v>1.01</v>
+      </c>
+      <c r="AS129">
+        <v>1.26</v>
+      </c>
+      <c r="AT129">
+        <v>2.27</v>
+      </c>
+      <c r="AU129">
+        <v>2</v>
+      </c>
+      <c r="AV129">
+        <v>2</v>
+      </c>
+      <c r="AW129">
+        <v>6</v>
+      </c>
+      <c r="AX129">
+        <v>4</v>
+      </c>
+      <c r="AY129">
+        <v>8</v>
+      </c>
+      <c r="AZ129">
+        <v>6</v>
+      </c>
+      <c r="BA129">
+        <v>6</v>
+      </c>
+      <c r="BB129">
+        <v>3</v>
+      </c>
+      <c r="BC129">
+        <v>9</v>
+      </c>
+      <c r="BD129">
+        <v>1.88</v>
+      </c>
+      <c r="BE129">
+        <v>8.4</v>
+      </c>
+      <c r="BF129">
+        <v>2.14</v>
+      </c>
+      <c r="BG129">
+        <v>1.24</v>
+      </c>
+      <c r="BH129">
+        <v>3.48</v>
+      </c>
+      <c r="BI129">
+        <v>1.51</v>
+      </c>
+      <c r="BJ129">
+        <v>2.47</v>
+      </c>
+      <c r="BK129">
+        <v>1.87</v>
+      </c>
+      <c r="BL129">
+        <v>1.93</v>
+      </c>
+      <c r="BM129">
+        <v>2.34</v>
+      </c>
+      <c r="BN129">
+        <v>1.56</v>
+      </c>
+      <c r="BO129">
+        <v>3.15</v>
+      </c>
+      <c r="BP129">
         <v>1.31</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -27534,7 +27534,7 @@
         <v>136</v>
       </c>
       <c r="P129" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Q129">
         <v>3.3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1113,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1.13</v>
@@ -4131,7 +4131,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>1.4</v>
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.13</v>
@@ -6397,7 +6397,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ26">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -10720,10 +10720,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -14222,7 +14222,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1.88</v>
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -16694,7 +16694,7 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
         <v>1.1</v>
@@ -19375,7 +19375,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ89">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR89">
         <v>1.29</v>
@@ -19990,7 +19990,7 @@
         <v>0.4</v>
       </c>
       <c r="AP92">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>0.38</v>
@@ -22053,7 +22053,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ102">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR102">
         <v>1.47</v>
@@ -23286,7 +23286,7 @@
         <v>1.14</v>
       </c>
       <c r="AP108">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -25349,7 +25349,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ118">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -27691,6 +27691,212 @@
       </c>
       <c r="BP129">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7446482</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45457.79166666666</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>72</v>
+      </c>
+      <c r="H130" t="s">
+        <v>74</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>123</v>
+      </c>
+      <c r="P130" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q130">
+        <v>3.1</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>3.5</v>
+      </c>
+      <c r="T130">
+        <v>1.45</v>
+      </c>
+      <c r="U130">
+        <v>2.5</v>
+      </c>
+      <c r="V130">
+        <v>3.1</v>
+      </c>
+      <c r="W130">
+        <v>1.3</v>
+      </c>
+      <c r="X130">
+        <v>7.2</v>
+      </c>
+      <c r="Y130">
+        <v>1.05</v>
+      </c>
+      <c r="Z130">
+        <v>2.65</v>
+      </c>
+      <c r="AA130">
+        <v>3</v>
+      </c>
+      <c r="AB130">
+        <v>2.6</v>
+      </c>
+      <c r="AC130">
+        <v>1.08</v>
+      </c>
+      <c r="AD130">
+        <v>6.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.37</v>
+      </c>
+      <c r="AF130">
+        <v>2.85</v>
+      </c>
+      <c r="AG130">
+        <v>2.2</v>
+      </c>
+      <c r="AH130">
+        <v>1.6</v>
+      </c>
+      <c r="AI130">
+        <v>1.83</v>
+      </c>
+      <c r="AJ130">
+        <v>1.8</v>
+      </c>
+      <c r="AK130">
+        <v>1.38</v>
+      </c>
+      <c r="AL130">
+        <v>1.3</v>
+      </c>
+      <c r="AM130">
+        <v>1.5</v>
+      </c>
+      <c r="AN130">
+        <v>0.75</v>
+      </c>
+      <c r="AO130">
+        <v>0.71</v>
+      </c>
+      <c r="AP130">
+        <v>1</v>
+      </c>
+      <c r="AQ130">
+        <v>0.63</v>
+      </c>
+      <c r="AR130">
+        <v>1.22</v>
+      </c>
+      <c r="AS130">
+        <v>0.73</v>
+      </c>
+      <c r="AT130">
+        <v>1.95</v>
+      </c>
+      <c r="AU130">
+        <v>10</v>
+      </c>
+      <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
+        <v>4</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>14</v>
+      </c>
+      <c r="AZ130">
+        <v>6</v>
+      </c>
+      <c r="BA130">
+        <v>2</v>
+      </c>
+      <c r="BB130">
+        <v>1</v>
+      </c>
+      <c r="BC130">
+        <v>3</v>
+      </c>
+      <c r="BD130">
+        <v>2.05</v>
+      </c>
+      <c r="BE130">
+        <v>8</v>
+      </c>
+      <c r="BF130">
+        <v>2</v>
+      </c>
+      <c r="BG130">
+        <v>1.22</v>
+      </c>
+      <c r="BH130">
+        <v>3.65</v>
+      </c>
+      <c r="BI130">
+        <v>1.41</v>
+      </c>
+      <c r="BJ130">
+        <v>2.6</v>
+      </c>
+      <c r="BK130">
+        <v>1.77</v>
+      </c>
+      <c r="BL130">
+        <v>1.95</v>
+      </c>
+      <c r="BM130">
+        <v>2.19</v>
+      </c>
+      <c r="BN130">
+        <v>1.57</v>
+      </c>
+      <c r="BO130">
+        <v>2.93</v>
+      </c>
+      <c r="BP130">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,15 @@
     <t>['14', '84', '88']</t>
   </si>
   <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['2', '79']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -752,6 +761,12 @@
   </si>
   <si>
     <t>['34', '86']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1387,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1450,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ2">
         <v>0.38</v>
@@ -1578,7 +1593,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1784,7 +1799,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1865,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1990,7 +2005,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2196,7 +2211,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2402,7 +2417,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2483,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2608,7 +2623,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2814,7 +2829,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2892,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4128,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.63</v>
@@ -4256,7 +4271,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4337,7 +4352,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR16">
         <v>1.34</v>
@@ -4462,7 +4477,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4668,7 +4683,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4952,7 +4967,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>1.1</v>
@@ -5158,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5286,7 +5301,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5492,7 +5507,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5573,7 +5588,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.2</v>
@@ -5698,7 +5713,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5904,7 +5919,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6110,7 +6125,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6188,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>2.11</v>
@@ -6522,7 +6537,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6728,7 +6743,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6934,7 +6949,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7012,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.88</v>
@@ -7427,7 +7442,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ31">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
         <v>0.74</v>
@@ -7633,7 +7648,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.15</v>
@@ -7964,7 +7979,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8170,7 +8185,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8454,10 +8469,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8788,7 +8803,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8994,7 +9009,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9200,7 +9215,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9406,7 +9421,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10024,7 +10039,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10308,7 +10323,7 @@
         <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.1</v>
@@ -10517,7 +10532,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ46">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>1.56</v>
@@ -10642,7 +10657,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10848,7 +10863,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11054,7 +11069,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11260,7 +11275,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11338,7 +11353,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11466,7 +11481,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11672,7 +11687,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11753,7 +11768,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ52">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR52">
         <v>1.3</v>
@@ -11956,7 +11971,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ53">
         <v>1.4</v>
@@ -12290,7 +12305,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12371,7 +12386,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.09</v>
@@ -12496,7 +12511,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13114,7 +13129,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13320,7 +13335,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13526,7 +13541,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13604,7 +13619,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>0.38</v>
@@ -13938,7 +13953,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14019,7 +14034,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ63">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14144,7 +14159,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14350,7 +14365,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14762,7 +14777,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14968,7 +14983,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15174,7 +15189,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15252,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ69">
         <v>0.88</v>
@@ -15380,7 +15395,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15586,7 +15601,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15792,7 +15807,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15870,10 +15885,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.26</v>
@@ -15998,7 +16013,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16204,7 +16219,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16285,7 +16300,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ74">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
         <v>0.9</v>
@@ -16616,7 +16631,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16903,7 +16918,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17028,7 +17043,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17234,7 +17249,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17312,7 +17327,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17852,7 +17867,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18058,7 +18073,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18264,7 +18279,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18342,7 +18357,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ84">
         <v>1.86</v>
@@ -18470,7 +18485,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18757,7 +18772,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ86">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR86">
         <v>1.57</v>
@@ -18882,7 +18897,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18960,7 +18975,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
         <v>1.4</v>
@@ -19088,7 +19103,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19500,7 +19515,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19578,7 +19593,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ90">
         <v>1.13</v>
@@ -20118,7 +20133,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20199,7 +20214,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
         <v>1.47</v>
@@ -20530,7 +20545,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20736,7 +20751,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20942,7 +20957,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21229,7 +21244,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR98">
         <v>1.19</v>
@@ -21354,7 +21369,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21432,7 +21447,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
         <v>0.88</v>
@@ -21560,7 +21575,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21638,7 +21653,7 @@
         <v>2.67</v>
       </c>
       <c r="AP100">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>2.44</v>
@@ -22384,7 +22399,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22590,7 +22605,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22877,7 +22892,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ106">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR106">
         <v>1.37</v>
@@ -23002,7 +23017,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23414,7 +23429,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23698,7 +23713,7 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ110">
         <v>1.1</v>
@@ -23826,7 +23841,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24110,7 +24125,7 @@
         <v>1.38</v>
       </c>
       <c r="AP112">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
         <v>1.4</v>
@@ -24238,7 +24253,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24650,7 +24665,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24728,7 +24743,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ115">
         <v>1.86</v>
@@ -24856,7 +24871,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25140,7 +25155,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25268,7 +25283,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25474,7 +25489,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25555,7 +25570,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ119">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR119">
         <v>1.01</v>
@@ -25886,7 +25901,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26092,7 +26107,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26298,7 +26313,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26710,7 +26725,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -26916,7 +26931,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27737,7 +27752,7 @@
         <v>1</v>
       </c>
       <c r="O130" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="P130" t="s">
         <v>93</v>
@@ -27897,6 +27912,624 @@
       </c>
       <c r="BP130">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7446478</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45458.625</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131" t="s">
+        <v>77</v>
+      </c>
+      <c r="H131" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>102</v>
+      </c>
+      <c r="P131" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q131">
+        <v>3.25</v>
+      </c>
+      <c r="R131">
+        <v>1.93</v>
+      </c>
+      <c r="S131">
+        <v>3.4</v>
+      </c>
+      <c r="T131">
+        <v>1.45</v>
+      </c>
+      <c r="U131">
+        <v>2.5</v>
+      </c>
+      <c r="V131">
+        <v>3</v>
+      </c>
+      <c r="W131">
+        <v>1.32</v>
+      </c>
+      <c r="X131">
+        <v>7.2</v>
+      </c>
+      <c r="Y131">
+        <v>1.05</v>
+      </c>
+      <c r="Z131">
+        <v>2.7</v>
+      </c>
+      <c r="AA131">
+        <v>3</v>
+      </c>
+      <c r="AB131">
+        <v>2.7</v>
+      </c>
+      <c r="AC131">
+        <v>1.08</v>
+      </c>
+      <c r="AD131">
+        <v>6.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.35</v>
+      </c>
+      <c r="AF131">
+        <v>2.9</v>
+      </c>
+      <c r="AG131">
+        <v>2.2</v>
+      </c>
+      <c r="AH131">
+        <v>1.63</v>
+      </c>
+      <c r="AI131">
+        <v>1.83</v>
+      </c>
+      <c r="AJ131">
+        <v>1.8</v>
+      </c>
+      <c r="AK131">
+        <v>1.42</v>
+      </c>
+      <c r="AL131">
+        <v>1.3</v>
+      </c>
+      <c r="AM131">
+        <v>1.45</v>
+      </c>
+      <c r="AN131">
+        <v>1.38</v>
+      </c>
+      <c r="AO131">
+        <v>1.29</v>
+      </c>
+      <c r="AP131">
+        <v>1.33</v>
+      </c>
+      <c r="AQ131">
+        <v>1.25</v>
+      </c>
+      <c r="AR131">
+        <v>1.46</v>
+      </c>
+      <c r="AS131">
+        <v>1.31</v>
+      </c>
+      <c r="AT131">
+        <v>2.77</v>
+      </c>
+      <c r="AU131">
+        <v>7</v>
+      </c>
+      <c r="AV131">
+        <v>2</v>
+      </c>
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
+        <v>3</v>
+      </c>
+      <c r="AY131">
+        <v>12</v>
+      </c>
+      <c r="AZ131">
+        <v>5</v>
+      </c>
+      <c r="BA131">
+        <v>7</v>
+      </c>
+      <c r="BB131">
+        <v>5</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>1.8</v>
+      </c>
+      <c r="BE131">
+        <v>8</v>
+      </c>
+      <c r="BF131">
+        <v>2.3</v>
+      </c>
+      <c r="BG131">
+        <v>1.23</v>
+      </c>
+      <c r="BH131">
+        <v>3.56</v>
+      </c>
+      <c r="BI131">
+        <v>1.44</v>
+      </c>
+      <c r="BJ131">
+        <v>2.51</v>
+      </c>
+      <c r="BK131">
+        <v>1.8</v>
+      </c>
+      <c r="BL131">
+        <v>1.91</v>
+      </c>
+      <c r="BM131">
+        <v>2.3</v>
+      </c>
+      <c r="BN131">
+        <v>1.52</v>
+      </c>
+      <c r="BO131">
+        <v>3.08</v>
+      </c>
+      <c r="BP131">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7446480</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45458.72916666666</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132" t="s">
+        <v>70</v>
+      </c>
+      <c r="H132" t="s">
+        <v>81</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>175</v>
+      </c>
+      <c r="P132" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q132">
+        <v>2.05</v>
+      </c>
+      <c r="R132">
+        <v>2.25</v>
+      </c>
+      <c r="S132">
+        <v>5.25</v>
+      </c>
+      <c r="T132">
+        <v>1.33</v>
+      </c>
+      <c r="U132">
+        <v>3</v>
+      </c>
+      <c r="V132">
+        <v>2.45</v>
+      </c>
+      <c r="W132">
+        <v>1.48</v>
+      </c>
+      <c r="X132">
+        <v>5.8</v>
+      </c>
+      <c r="Y132">
+        <v>1.09</v>
+      </c>
+      <c r="Z132">
+        <v>1.57</v>
+      </c>
+      <c r="AA132">
+        <v>4</v>
+      </c>
+      <c r="AB132">
+        <v>5</v>
+      </c>
+      <c r="AC132">
+        <v>1.04</v>
+      </c>
+      <c r="AD132">
+        <v>9</v>
+      </c>
+      <c r="AE132">
+        <v>1.22</v>
+      </c>
+      <c r="AF132">
+        <v>3.85</v>
+      </c>
+      <c r="AG132">
+        <v>1.77</v>
+      </c>
+      <c r="AH132">
+        <v>1.98</v>
+      </c>
+      <c r="AI132">
+        <v>1.73</v>
+      </c>
+      <c r="AJ132">
+        <v>1.93</v>
+      </c>
+      <c r="AK132">
+        <v>1.1</v>
+      </c>
+      <c r="AL132">
+        <v>1.18</v>
+      </c>
+      <c r="AM132">
+        <v>2.4</v>
+      </c>
+      <c r="AN132">
+        <v>2.38</v>
+      </c>
+      <c r="AO132">
+        <v>1.6</v>
+      </c>
+      <c r="AP132">
+        <v>2.44</v>
+      </c>
+      <c r="AQ132">
+        <v>1.33</v>
+      </c>
+      <c r="AR132">
+        <v>1.77</v>
+      </c>
+      <c r="AS132">
+        <v>1.76</v>
+      </c>
+      <c r="AT132">
+        <v>3.53</v>
+      </c>
+      <c r="AU132">
+        <v>3</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>2</v>
+      </c>
+      <c r="AX132">
+        <v>2</v>
+      </c>
+      <c r="AY132">
+        <v>5</v>
+      </c>
+      <c r="AZ132">
+        <v>5</v>
+      </c>
+      <c r="BA132">
+        <v>5</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>9</v>
+      </c>
+      <c r="BD132">
+        <v>1.36</v>
+      </c>
+      <c r="BE132">
+        <v>9</v>
+      </c>
+      <c r="BF132">
+        <v>3.6</v>
+      </c>
+      <c r="BG132">
+        <v>1.32</v>
+      </c>
+      <c r="BH132">
+        <v>3.1</v>
+      </c>
+      <c r="BI132">
+        <v>1.57</v>
+      </c>
+      <c r="BJ132">
+        <v>2.26</v>
+      </c>
+      <c r="BK132">
+        <v>1.95</v>
+      </c>
+      <c r="BL132">
+        <v>1.77</v>
+      </c>
+      <c r="BM132">
+        <v>2.46</v>
+      </c>
+      <c r="BN132">
+        <v>1.48</v>
+      </c>
+      <c r="BO132">
+        <v>3.2</v>
+      </c>
+      <c r="BP132">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7446477</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45458.83333333334</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H133" t="s">
+        <v>84</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>176</v>
+      </c>
+      <c r="P133" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q133">
+        <v>2.3</v>
+      </c>
+      <c r="R133">
+        <v>2.2</v>
+      </c>
+      <c r="S133">
+        <v>4.4</v>
+      </c>
+      <c r="T133">
+        <v>1.3</v>
+      </c>
+      <c r="U133">
+        <v>3.1</v>
+      </c>
+      <c r="V133">
+        <v>2.6</v>
+      </c>
+      <c r="W133">
+        <v>1.42</v>
+      </c>
+      <c r="X133">
+        <v>5.8</v>
+      </c>
+      <c r="Y133">
+        <v>1.09</v>
+      </c>
+      <c r="Z133">
+        <v>1.82</v>
+      </c>
+      <c r="AA133">
+        <v>3.7</v>
+      </c>
+      <c r="AB133">
+        <v>3.8</v>
+      </c>
+      <c r="AC133">
+        <v>1.01</v>
+      </c>
+      <c r="AD133">
+        <v>10.2</v>
+      </c>
+      <c r="AE133">
+        <v>1.25</v>
+      </c>
+      <c r="AF133">
+        <v>3.92</v>
+      </c>
+      <c r="AG133">
+        <v>1.74</v>
+      </c>
+      <c r="AH133">
+        <v>2.04</v>
+      </c>
+      <c r="AI133">
+        <v>1.68</v>
+      </c>
+      <c r="AJ133">
+        <v>2.01</v>
+      </c>
+      <c r="AK133">
+        <v>1.21</v>
+      </c>
+      <c r="AL133">
+        <v>1.24</v>
+      </c>
+      <c r="AM133">
+        <v>1.91</v>
+      </c>
+      <c r="AN133">
+        <v>2.13</v>
+      </c>
+      <c r="AO133">
+        <v>1.13</v>
+      </c>
+      <c r="AP133">
+        <v>2</v>
+      </c>
+      <c r="AQ133">
+        <v>1.11</v>
+      </c>
+      <c r="AR133">
+        <v>1.43</v>
+      </c>
+      <c r="AS133">
+        <v>1.41</v>
+      </c>
+      <c r="AT133">
+        <v>2.84</v>
+      </c>
+      <c r="AU133">
+        <v>0</v>
+      </c>
+      <c r="AV133">
+        <v>3</v>
+      </c>
+      <c r="AW133">
+        <v>7</v>
+      </c>
+      <c r="AX133">
+        <v>2</v>
+      </c>
+      <c r="AY133">
+        <v>7</v>
+      </c>
+      <c r="AZ133">
+        <v>5</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
+        <v>9</v>
+      </c>
+      <c r="BD133">
+        <v>1.67</v>
+      </c>
+      <c r="BE133">
+        <v>8</v>
+      </c>
+      <c r="BF133">
+        <v>2.6</v>
+      </c>
+      <c r="BG133">
+        <v>1.21</v>
+      </c>
+      <c r="BH133">
+        <v>3.74</v>
+      </c>
+      <c r="BI133">
+        <v>1.4</v>
+      </c>
+      <c r="BJ133">
+        <v>2.64</v>
+      </c>
+      <c r="BK133">
+        <v>1.77</v>
+      </c>
+      <c r="BL133">
+        <v>1.95</v>
+      </c>
+      <c r="BM133">
+        <v>2.14</v>
+      </c>
+      <c r="BN133">
+        <v>1.6</v>
+      </c>
+      <c r="BO133">
+        <v>2.79</v>
+      </c>
+      <c r="BP133">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,10 +541,19 @@
     <t>['29']</t>
   </si>
   <si>
-    <t>['2', '79']</t>
+    <t>['1', '79']</t>
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['30', '83', '90+4']</t>
+  </si>
+  <si>
+    <t>['4', '86']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -557,9 +566,6 @@
   </si>
   <si>
     <t>['52', '89']</t>
-  </si>
-  <si>
-    <t>['54']</t>
   </si>
   <si>
     <t>['47', '78']</t>
@@ -763,10 +769,13 @@
     <t>['34', '86']</t>
   </si>
   <si>
-    <t>['45']</t>
+    <t>['87']</t>
   </si>
   <si>
-    <t>['87']</t>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1396,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1593,7 +1602,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1671,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ3">
         <v>1.1</v>
@@ -1799,7 +1808,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2005,7 +2014,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2211,7 +2220,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2292,7 +2301,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2417,7 +2426,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2623,7 +2632,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2829,7 +2838,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3116,7 +3125,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ10">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3525,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -4271,7 +4280,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4477,7 +4486,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4683,7 +4692,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5176,7 +5185,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5301,7 +5310,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5379,7 +5388,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ21">
         <v>2.11</v>
@@ -5507,7 +5516,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5713,7 +5722,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5919,7 +5928,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6125,7 +6134,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6409,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
         <v>0.63</v>
@@ -6537,7 +6546,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6743,7 +6752,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6824,7 +6833,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ28">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6949,7 +6958,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7236,7 +7245,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7851,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ33">
         <v>0.38</v>
@@ -7979,7 +7988,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8185,7 +8194,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8803,7 +8812,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -9009,7 +9018,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9087,10 +9096,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9215,7 +9224,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9296,7 +9305,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR40">
         <v>1.57</v>
@@ -9421,7 +9430,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9502,7 +9511,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9705,7 +9714,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
         <v>1.88</v>
@@ -10039,7 +10048,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10657,7 +10666,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10863,7 +10872,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11069,7 +11078,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11275,7 +11284,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11356,7 +11365,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR50">
         <v>1.19</v>
@@ -11481,7 +11490,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11687,7 +11696,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11765,7 +11774,7 @@
         <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>1.11</v>
@@ -12180,7 +12189,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ54">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12305,7 +12314,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12383,7 +12392,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ55">
         <v>1.33</v>
@@ -12511,7 +12520,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13129,7 +13138,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13335,7 +13344,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13416,7 +13425,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ60">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13541,7 +13550,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13825,7 +13834,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ62">
         <v>1.1</v>
@@ -13953,7 +13962,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14159,7 +14168,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14365,7 +14374,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14777,7 +14786,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14855,7 +14864,7 @@
         <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.4</v>
@@ -14983,7 +14992,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15189,7 +15198,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15270,7 +15279,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ69">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -15395,7 +15404,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15601,7 +15610,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15679,10 +15688,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR71">
         <v>1.16</v>
@@ -15807,7 +15816,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16013,7 +16022,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16219,7 +16228,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16631,7 +16640,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17043,7 +17052,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17249,7 +17258,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17330,7 +17339,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -17739,7 +17748,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ81">
         <v>0.38</v>
@@ -17867,7 +17876,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17945,10 +17954,10 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18073,7 +18082,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18279,7 +18288,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18360,7 +18369,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ84">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18485,7 +18494,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18897,7 +18906,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19103,7 +19112,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19181,7 +19190,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ88">
         <v>1.75</v>
@@ -19515,7 +19524,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20133,7 +20142,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20417,10 +20426,10 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR94">
         <v>1.37</v>
@@ -20545,7 +20554,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20751,7 +20760,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20957,7 +20966,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21241,7 +21250,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ98">
         <v>1.11</v>
@@ -21369,7 +21378,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21450,7 +21459,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21575,7 +21584,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21859,10 +21868,10 @@
         <v>1.8</v>
       </c>
       <c r="AP101">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR101">
         <v>1.11</v>
@@ -22399,7 +22408,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22605,7 +22614,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22889,7 +22898,7 @@
         <v>1.29</v>
       </c>
       <c r="AP106">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ106">
         <v>1.11</v>
@@ -23017,7 +23026,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23304,7 +23313,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR108">
         <v>1.21</v>
@@ -23429,7 +23438,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23510,7 +23519,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ109">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -23841,7 +23850,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24253,7 +24262,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24540,7 +24549,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ114">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR114">
         <v>1.67</v>
@@ -24665,7 +24674,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24746,7 +24755,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ115">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -24871,7 +24880,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -24949,7 +24958,7 @@
         <v>2.71</v>
       </c>
       <c r="AP116">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ116">
         <v>2.44</v>
@@ -25283,7 +25292,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25489,7 +25498,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25567,7 +25576,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>1.25</v>
@@ -25901,7 +25910,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26107,7 +26116,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26313,7 +26322,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26725,7 +26734,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -26931,7 +26940,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27961,7 +27970,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="Q131">
         <v>3.25</v>
@@ -28167,7 +28176,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28373,7 +28382,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -28530,6 +28539,624 @@
       </c>
       <c r="BP133">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7446479</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45459.52083333334</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134" t="s">
+        <v>71</v>
+      </c>
+      <c r="H134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>177</v>
+      </c>
+      <c r="P134" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q134">
+        <v>2.91</v>
+      </c>
+      <c r="R134">
+        <v>1.89</v>
+      </c>
+      <c r="S134">
+        <v>4.1</v>
+      </c>
+      <c r="T134">
+        <v>1.47</v>
+      </c>
+      <c r="U134">
+        <v>2.4</v>
+      </c>
+      <c r="V134">
+        <v>3.5</v>
+      </c>
+      <c r="W134">
+        <v>1.25</v>
+      </c>
+      <c r="X134">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y134">
+        <v>1.03</v>
+      </c>
+      <c r="Z134">
+        <v>2.45</v>
+      </c>
+      <c r="AA134">
+        <v>3</v>
+      </c>
+      <c r="AB134">
+        <v>2.87</v>
+      </c>
+      <c r="AC134">
+        <v>1.06</v>
+      </c>
+      <c r="AD134">
+        <v>6.55</v>
+      </c>
+      <c r="AE134">
+        <v>1.44</v>
+      </c>
+      <c r="AF134">
+        <v>2.51</v>
+      </c>
+      <c r="AG134">
+        <v>2.41</v>
+      </c>
+      <c r="AH134">
+        <v>1.5</v>
+      </c>
+      <c r="AI134">
+        <v>2.01</v>
+      </c>
+      <c r="AJ134">
+        <v>1.68</v>
+      </c>
+      <c r="AK134">
+        <v>1.29</v>
+      </c>
+      <c r="AL134">
+        <v>1.33</v>
+      </c>
+      <c r="AM134">
+        <v>1.57</v>
+      </c>
+      <c r="AN134">
+        <v>0.5</v>
+      </c>
+      <c r="AO134">
+        <v>1</v>
+      </c>
+      <c r="AP134">
+        <v>0.78</v>
+      </c>
+      <c r="AQ134">
+        <v>0.89</v>
+      </c>
+      <c r="AR134">
+        <v>1.24</v>
+      </c>
+      <c r="AS134">
+        <v>1.13</v>
+      </c>
+      <c r="AT134">
+        <v>2.37</v>
+      </c>
+      <c r="AU134">
+        <v>9</v>
+      </c>
+      <c r="AV134">
+        <v>9</v>
+      </c>
+      <c r="AW134">
+        <v>2</v>
+      </c>
+      <c r="AX134">
+        <v>6</v>
+      </c>
+      <c r="AY134">
+        <v>11</v>
+      </c>
+      <c r="AZ134">
+        <v>15</v>
+      </c>
+      <c r="BA134">
+        <v>4</v>
+      </c>
+      <c r="BB134">
+        <v>3</v>
+      </c>
+      <c r="BC134">
+        <v>7</v>
+      </c>
+      <c r="BD134">
+        <v>1.44</v>
+      </c>
+      <c r="BE134">
+        <v>8.5</v>
+      </c>
+      <c r="BF134">
+        <v>3.2</v>
+      </c>
+      <c r="BG134">
+        <v>1.33</v>
+      </c>
+      <c r="BH134">
+        <v>2.93</v>
+      </c>
+      <c r="BI134">
+        <v>1.6</v>
+      </c>
+      <c r="BJ134">
+        <v>2.14</v>
+      </c>
+      <c r="BK134">
+        <v>1.95</v>
+      </c>
+      <c r="BL134">
+        <v>1.77</v>
+      </c>
+      <c r="BM134">
+        <v>2.64</v>
+      </c>
+      <c r="BN134">
+        <v>1.4</v>
+      </c>
+      <c r="BO134">
+        <v>3.65</v>
+      </c>
+      <c r="BP134">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7446481</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45459.625</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135" t="s">
+        <v>85</v>
+      </c>
+      <c r="H135" t="s">
+        <v>83</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>178</v>
+      </c>
+      <c r="P135" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q135">
+        <v>2.63</v>
+      </c>
+      <c r="R135">
+        <v>2.05</v>
+      </c>
+      <c r="S135">
+        <v>4.5</v>
+      </c>
+      <c r="T135">
+        <v>1.48</v>
+      </c>
+      <c r="U135">
+        <v>2.5</v>
+      </c>
+      <c r="V135">
+        <v>3.2</v>
+      </c>
+      <c r="W135">
+        <v>1.3</v>
+      </c>
+      <c r="X135">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y135">
+        <v>1.05</v>
+      </c>
+      <c r="Z135">
+        <v>2</v>
+      </c>
+      <c r="AA135">
+        <v>3.1</v>
+      </c>
+      <c r="AB135">
+        <v>3.5</v>
+      </c>
+      <c r="AC135">
+        <v>1.04</v>
+      </c>
+      <c r="AD135">
+        <v>7.8</v>
+      </c>
+      <c r="AE135">
+        <v>1.35</v>
+      </c>
+      <c r="AF135">
+        <v>2.84</v>
+      </c>
+      <c r="AG135">
+        <v>2.11</v>
+      </c>
+      <c r="AH135">
+        <v>1.65</v>
+      </c>
+      <c r="AI135">
+        <v>1.9</v>
+      </c>
+      <c r="AJ135">
+        <v>1.75</v>
+      </c>
+      <c r="AK135">
+        <v>1.25</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.8</v>
+      </c>
+      <c r="AN135">
+        <v>0.67</v>
+      </c>
+      <c r="AO135">
+        <v>0.88</v>
+      </c>
+      <c r="AP135">
+        <v>1</v>
+      </c>
+      <c r="AQ135">
+        <v>0.78</v>
+      </c>
+      <c r="AR135">
+        <v>1.01</v>
+      </c>
+      <c r="AS135">
+        <v>1.12</v>
+      </c>
+      <c r="AT135">
+        <v>2.13</v>
+      </c>
+      <c r="AU135">
+        <v>6</v>
+      </c>
+      <c r="AV135">
+        <v>0</v>
+      </c>
+      <c r="AW135">
+        <v>4</v>
+      </c>
+      <c r="AX135">
+        <v>5</v>
+      </c>
+      <c r="AY135">
+        <v>10</v>
+      </c>
+      <c r="AZ135">
+        <v>5</v>
+      </c>
+      <c r="BA135">
+        <v>1</v>
+      </c>
+      <c r="BB135">
+        <v>1</v>
+      </c>
+      <c r="BC135">
+        <v>2</v>
+      </c>
+      <c r="BD135">
+        <v>1.73</v>
+      </c>
+      <c r="BE135">
+        <v>8</v>
+      </c>
+      <c r="BF135">
+        <v>2.5</v>
+      </c>
+      <c r="BG135">
+        <v>1.28</v>
+      </c>
+      <c r="BH135">
+        <v>3.3</v>
+      </c>
+      <c r="BI135">
+        <v>1.5</v>
+      </c>
+      <c r="BJ135">
+        <v>2.4</v>
+      </c>
+      <c r="BK135">
+        <v>1.85</v>
+      </c>
+      <c r="BL135">
+        <v>1.85</v>
+      </c>
+      <c r="BM135">
+        <v>2.32</v>
+      </c>
+      <c r="BN135">
+        <v>1.54</v>
+      </c>
+      <c r="BO135">
+        <v>3</v>
+      </c>
+      <c r="BP135">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7446476</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45459.75</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136" t="s">
+        <v>80</v>
+      </c>
+      <c r="H136" t="s">
+        <v>75</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>179</v>
+      </c>
+      <c r="P136" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q136">
+        <v>2.1</v>
+      </c>
+      <c r="R136">
+        <v>2.18</v>
+      </c>
+      <c r="S136">
+        <v>5.45</v>
+      </c>
+      <c r="T136">
+        <v>1.33</v>
+      </c>
+      <c r="U136">
+        <v>2.9</v>
+      </c>
+      <c r="V136">
+        <v>2.75</v>
+      </c>
+      <c r="W136">
+        <v>1.37</v>
+      </c>
+      <c r="X136">
+        <v>6.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.07</v>
+      </c>
+      <c r="Z136">
+        <v>1.5</v>
+      </c>
+      <c r="AA136">
+        <v>3.8</v>
+      </c>
+      <c r="AB136">
+        <v>5.5</v>
+      </c>
+      <c r="AC136">
+        <v>1.02</v>
+      </c>
+      <c r="AD136">
+        <v>9.1</v>
+      </c>
+      <c r="AE136">
+        <v>1.29</v>
+      </c>
+      <c r="AF136">
+        <v>3.41</v>
+      </c>
+      <c r="AG136">
+        <v>1.89</v>
+      </c>
+      <c r="AH136">
+        <v>1.83</v>
+      </c>
+      <c r="AI136">
+        <v>1.92</v>
+      </c>
+      <c r="AJ136">
+        <v>1.75</v>
+      </c>
+      <c r="AK136">
+        <v>1.11</v>
+      </c>
+      <c r="AL136">
+        <v>1.21</v>
+      </c>
+      <c r="AM136">
+        <v>2.28</v>
+      </c>
+      <c r="AN136">
+        <v>2.71</v>
+      </c>
+      <c r="AO136">
+        <v>1.86</v>
+      </c>
+      <c r="AP136">
+        <v>2.5</v>
+      </c>
+      <c r="AQ136">
+        <v>1.75</v>
+      </c>
+      <c r="AR136">
+        <v>1.33</v>
+      </c>
+      <c r="AS136">
+        <v>1.37</v>
+      </c>
+      <c r="AT136">
+        <v>2.7</v>
+      </c>
+      <c r="AU136">
+        <v>2</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
+        <v>4</v>
+      </c>
+      <c r="AX136">
+        <v>2</v>
+      </c>
+      <c r="AY136">
+        <v>6</v>
+      </c>
+      <c r="AZ136">
+        <v>6</v>
+      </c>
+      <c r="BA136">
+        <v>8</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>11</v>
+      </c>
+      <c r="BD136">
+        <v>1.36</v>
+      </c>
+      <c r="BE136">
+        <v>9</v>
+      </c>
+      <c r="BF136">
+        <v>3.6</v>
+      </c>
+      <c r="BG136">
+        <v>1.27</v>
+      </c>
+      <c r="BH136">
+        <v>3.28</v>
+      </c>
+      <c r="BI136">
+        <v>1.5</v>
+      </c>
+      <c r="BJ136">
+        <v>2.35</v>
+      </c>
+      <c r="BK136">
+        <v>1.77</v>
+      </c>
+      <c r="BL136">
+        <v>1.95</v>
+      </c>
+      <c r="BM136">
+        <v>2.4</v>
+      </c>
+      <c r="BN136">
+        <v>1.48</v>
+      </c>
+      <c r="BO136">
+        <v>3.2</v>
+      </c>
+      <c r="BP136">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,36 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['42', '90+1']</t>
+  </si>
+  <si>
+    <t>['16', '50']</t>
+  </si>
+  <si>
+    <t>['51', '90+7']</t>
+  </si>
+  <si>
+    <t>['14', '84', '88']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['1', '79']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['28', '82', '90+4']</t>
+  </si>
+  <si>
+    <t>['3', '85']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -536,9 +566,6 @@
   </si>
   <si>
     <t>['52', '89']</t>
-  </si>
-  <si>
-    <t>['54']</t>
   </si>
   <si>
     <t>['47', '78']</t>
@@ -731,6 +758,27 @@
   </si>
   <si>
     <t>['12', '45+7', '69']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['34', '86']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['43', '55']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1399,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1429,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ2">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1557,7 +1605,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1635,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ3">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1763,7 +1811,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1841,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1969,7 +2017,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2047,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2175,7 +2223,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>3.41</v>
@@ -2253,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2381,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2459,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2587,7 +2635,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2665,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2793,7 +2841,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2871,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3077,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ10">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3283,10 +3331,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ11">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3489,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ12">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3695,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -3901,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ14">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4107,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4235,7 +4283,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4313,10 +4361,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR16">
         <v>1.34</v>
@@ -4441,7 +4489,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4519,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4647,7 +4695,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4725,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -4931,10 +4979,10 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR19">
         <v>1.89</v>
@@ -5137,10 +5185,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5265,7 +5313,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5343,10 +5391,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ21">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR21">
         <v>1.09</v>
@@ -5471,7 +5519,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5549,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.2</v>
@@ -5677,7 +5725,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5755,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ23">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5883,7 +5931,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5961,10 +6009,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -6089,7 +6137,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6167,10 +6215,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR25">
         <v>1.39</v>
@@ -6373,10 +6421,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -6501,7 +6549,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6579,10 +6627,10 @@
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ27">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6707,7 +6755,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6785,10 +6833,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ28">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6913,7 +6961,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -6991,10 +7039,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR29">
         <v>1.71</v>
@@ -7197,10 +7245,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7403,10 +7451,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
         <v>0.74</v>
@@ -7609,10 +7657,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.15</v>
@@ -7815,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ33">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -7943,7 +7991,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8021,10 +8069,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -8149,7 +8197,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8227,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ35">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>0.51</v>
@@ -8433,10 +8481,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8639,10 +8687,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ37">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -8767,7 +8815,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8845,10 +8893,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8973,7 +9021,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9051,10 +9099,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9179,7 +9227,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9257,10 +9305,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR40">
         <v>1.57</v>
@@ -9385,7 +9433,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9463,10 +9511,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9669,10 +9717,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR42">
         <v>1.51</v>
@@ -9875,10 +9923,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR43">
         <v>0.6899999999999999</v>
@@ -10003,7 +10051,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10081,10 +10129,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ44">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10287,10 +10335,10 @@
         <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR45">
         <v>1.48</v>
@@ -10493,10 +10541,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>1.56</v>
@@ -10621,7 +10669,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10699,10 +10747,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10827,7 +10875,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10905,10 +10953,10 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11033,7 +11081,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11111,10 +11159,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11239,7 +11287,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11317,10 +11365,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR50">
         <v>1.19</v>
@@ -11445,7 +11493,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11523,10 +11571,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.16</v>
@@ -11651,7 +11699,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11729,10 +11777,10 @@
         <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR52">
         <v>1.3</v>
@@ -11935,10 +11983,10 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ53">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12141,10 +12189,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12269,7 +12317,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12347,10 +12395,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.09</v>
@@ -12475,7 +12523,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12553,10 +12601,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ56">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -12759,10 +12807,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ57">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -12965,10 +13013,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR58">
         <v>1.2</v>
@@ -13093,7 +13141,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13171,10 +13219,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ59">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -13299,7 +13347,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13377,10 +13425,10 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13505,7 +13553,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13583,10 +13631,10 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -13789,10 +13837,10 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ62">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR62">
         <v>1.31</v>
@@ -13917,7 +13965,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13995,10 +14043,10 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ63">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14123,7 +14171,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14201,10 +14249,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR64">
         <v>1.2</v>
@@ -14329,7 +14377,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14407,10 +14455,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14613,10 +14661,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -14741,7 +14789,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14819,10 +14867,10 @@
         <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -14947,7 +14995,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15025,10 +15073,10 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ68">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15153,7 +15201,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15231,10 +15279,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ69">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -15359,7 +15407,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15437,10 +15485,10 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ70">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15565,7 +15613,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15643,10 +15691,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR71">
         <v>1.16</v>
@@ -15771,7 +15819,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15849,10 +15897,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.26</v>
@@ -15977,7 +16025,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16055,10 +16103,10 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR73">
         <v>0.8</v>
@@ -16183,7 +16231,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16261,10 +16309,10 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
         <v>0.9</v>
@@ -16467,10 +16515,10 @@
         <v>2.4</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR75">
         <v>1.21</v>
@@ -16595,7 +16643,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16673,10 +16721,10 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR76">
         <v>1.18</v>
@@ -16879,10 +16927,10 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17007,7 +17055,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17085,10 +17133,10 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR78">
         <v>1.11</v>
@@ -17213,7 +17261,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17291,10 +17339,10 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -17497,10 +17545,10 @@
         <v>0.75</v>
       </c>
       <c r="AP80">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR80">
         <v>1.38</v>
@@ -17703,10 +17751,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ81">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR81">
         <v>1.33</v>
@@ -17831,7 +17879,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17909,10 +17957,10 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18037,7 +18085,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18115,10 +18163,10 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ83">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18243,7 +18291,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18321,10 +18369,10 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ84">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18449,7 +18497,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18527,10 +18575,10 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ85">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18733,10 +18781,10 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ86">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR86">
         <v>1.57</v>
@@ -18861,7 +18909,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18939,10 +18987,10 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -19067,7 +19115,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19145,10 +19193,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ88">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19351,10 +19399,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ89">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR89">
         <v>1.29</v>
@@ -19479,7 +19527,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19557,10 +19605,10 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ90">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR90">
         <v>1.78</v>
@@ -19763,10 +19811,10 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ91">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR91">
         <v>1.05</v>
@@ -19969,10 +20017,10 @@
         <v>0.4</v>
       </c>
       <c r="AP92">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -20097,7 +20145,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20175,10 +20223,10 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR93">
         <v>1.47</v>
@@ -20381,10 +20429,10 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR94">
         <v>1.37</v>
@@ -20509,7 +20557,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20587,10 +20635,10 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR95">
         <v>1.59</v>
@@ -20715,7 +20763,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20793,10 +20841,10 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR96">
         <v>0.91</v>
@@ -20921,7 +20969,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -20999,10 +21047,10 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ97">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21205,10 +21253,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR98">
         <v>1.19</v>
@@ -21333,7 +21381,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21411,10 +21459,10 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21539,7 +21587,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21617,10 +21665,10 @@
         <v>2.67</v>
       </c>
       <c r="AP100">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR100">
         <v>1.43</v>
@@ -21823,10 +21871,10 @@
         <v>1.8</v>
       </c>
       <c r="AP101">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR101">
         <v>1.11</v>
@@ -22029,10 +22077,10 @@
         <v>0.4</v>
       </c>
       <c r="AP102">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ102">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR102">
         <v>1.47</v>
@@ -22235,10 +22283,10 @@
         <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ103">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR103">
         <v>1.68</v>
@@ -22363,7 +22411,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22441,10 +22489,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ104">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.56</v>
@@ -22569,7 +22617,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22647,10 +22695,10 @@
         <v>1.8</v>
       </c>
       <c r="AP105">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ105">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR105">
         <v>1.17</v>
@@ -22853,10 +22901,10 @@
         <v>1.29</v>
       </c>
       <c r="AP106">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ106">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR106">
         <v>1.37</v>
@@ -22981,7 +23029,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23059,10 +23107,10 @@
         <v>2.14</v>
       </c>
       <c r="AP107">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -23265,10 +23313,10 @@
         <v>1.14</v>
       </c>
       <c r="AP108">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR108">
         <v>1.21</v>
@@ -23393,7 +23441,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23471,10 +23519,10 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ109">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -23677,10 +23725,10 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ110">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR110">
         <v>1.77</v>
@@ -23805,7 +23853,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -23883,10 +23931,10 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ111">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24089,10 +24137,10 @@
         <v>1.38</v>
       </c>
       <c r="AP112">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24217,7 +24265,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24295,10 +24343,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ113">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR113">
         <v>1.08</v>
@@ -24501,10 +24549,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ114">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR114">
         <v>1.67</v>
@@ -24629,7 +24677,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24707,10 +24755,10 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ115">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -24835,7 +24883,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -24913,10 +24961,10 @@
         <v>2.71</v>
       </c>
       <c r="AP116">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ116">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR116">
         <v>1.25</v>
@@ -25119,10 +25167,10 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.4</v>
@@ -25247,7 +25295,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25325,10 +25373,10 @@
         <v>0.33</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ118">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -25453,7 +25501,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25531,10 +25579,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR119">
         <v>1.01</v>
@@ -25737,10 +25785,10 @@
         <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ120">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR120">
         <v>1.7</v>
@@ -25865,7 +25913,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -25943,10 +25991,10 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ121">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26021,6 +26069,3302 @@
         <v>3.34</v>
       </c>
       <c r="BP121">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7446468</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45451.52083333334</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>81</v>
+      </c>
+      <c r="H122" t="s">
+        <v>72</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>93</v>
+      </c>
+      <c r="P122" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q122">
+        <v>2.44</v>
+      </c>
+      <c r="R122">
+        <v>2.3</v>
+      </c>
+      <c r="S122">
+        <v>4.7</v>
+      </c>
+      <c r="T122">
+        <v>1.37</v>
+      </c>
+      <c r="U122">
+        <v>3.1</v>
+      </c>
+      <c r="V122">
+        <v>2.84</v>
+      </c>
+      <c r="W122">
+        <v>1.43</v>
+      </c>
+      <c r="X122">
+        <v>6.4</v>
+      </c>
+      <c r="Y122">
+        <v>1.08</v>
+      </c>
+      <c r="Z122">
+        <v>1.8</v>
+      </c>
+      <c r="AA122">
+        <v>3.5</v>
+      </c>
+      <c r="AB122">
+        <v>3.8</v>
+      </c>
+      <c r="AC122">
+        <v>1.05</v>
+      </c>
+      <c r="AD122">
+        <v>8.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.28</v>
+      </c>
+      <c r="AF122">
+        <v>3.4</v>
+      </c>
+      <c r="AG122">
+        <v>1.92</v>
+      </c>
+      <c r="AH122">
+        <v>1.83</v>
+      </c>
+      <c r="AI122">
+        <v>1.75</v>
+      </c>
+      <c r="AJ122">
+        <v>1.96</v>
+      </c>
+      <c r="AK122">
+        <v>1.22</v>
+      </c>
+      <c r="AL122">
+        <v>1.26</v>
+      </c>
+      <c r="AM122">
+        <v>1.85</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
+        <v>0.71</v>
+      </c>
+      <c r="AP122">
+        <v>0.91</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>1.55</v>
+      </c>
+      <c r="AS122">
+        <v>1.08</v>
+      </c>
+      <c r="AT122">
+        <v>2.63</v>
+      </c>
+      <c r="AU122">
+        <v>2</v>
+      </c>
+      <c r="AV122">
+        <v>2</v>
+      </c>
+      <c r="AW122">
+        <v>8</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>10</v>
+      </c>
+      <c r="AZ122">
+        <v>4</v>
+      </c>
+      <c r="BA122">
+        <v>8</v>
+      </c>
+      <c r="BB122">
+        <v>7</v>
+      </c>
+      <c r="BC122">
+        <v>15</v>
+      </c>
+      <c r="BD122">
+        <v>1.52</v>
+      </c>
+      <c r="BE122">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF122">
+        <v>2.85</v>
+      </c>
+      <c r="BG122">
+        <v>1.19</v>
+      </c>
+      <c r="BH122">
+        <v>4.1</v>
+      </c>
+      <c r="BI122">
+        <v>1.33</v>
+      </c>
+      <c r="BJ122">
+        <v>3.05</v>
+      </c>
+      <c r="BK122">
+        <v>1.65</v>
+      </c>
+      <c r="BL122">
+        <v>2.22</v>
+      </c>
+      <c r="BM122">
+        <v>2.05</v>
+      </c>
+      <c r="BN122">
+        <v>1.76</v>
+      </c>
+      <c r="BO122">
+        <v>2.62</v>
+      </c>
+      <c r="BP122">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7446469</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45451.625</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>75</v>
+      </c>
+      <c r="H123" t="s">
+        <v>71</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>170</v>
+      </c>
+      <c r="P123" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q123">
+        <v>2.84</v>
+      </c>
+      <c r="R123">
+        <v>2.07</v>
+      </c>
+      <c r="S123">
+        <v>4.51</v>
+      </c>
+      <c r="T123">
+        <v>1.48</v>
+      </c>
+      <c r="U123">
+        <v>2.55</v>
+      </c>
+      <c r="V123">
+        <v>3.2</v>
+      </c>
+      <c r="W123">
+        <v>1.3</v>
+      </c>
+      <c r="X123">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y123">
+        <v>1.03</v>
+      </c>
+      <c r="Z123">
+        <v>2.17</v>
+      </c>
+      <c r="AA123">
+        <v>3.15</v>
+      </c>
+      <c r="AB123">
+        <v>2.92</v>
+      </c>
+      <c r="AC123">
+        <v>1.09</v>
+      </c>
+      <c r="AD123">
+        <v>6.5</v>
+      </c>
+      <c r="AE123">
+        <v>1.45</v>
+      </c>
+      <c r="AF123">
+        <v>2.62</v>
+      </c>
+      <c r="AG123">
+        <v>2.17</v>
+      </c>
+      <c r="AH123">
+        <v>1.64</v>
+      </c>
+      <c r="AI123">
+        <v>2.02</v>
+      </c>
+      <c r="AJ123">
+        <v>1.75</v>
+      </c>
+      <c r="AK123">
+        <v>1.27</v>
+      </c>
+      <c r="AL123">
+        <v>1.34</v>
+      </c>
+      <c r="AM123">
+        <v>1.7</v>
+      </c>
+      <c r="AN123">
+        <v>0.75</v>
+      </c>
+      <c r="AO123">
+        <v>1.29</v>
+      </c>
+      <c r="AP123">
+        <v>1</v>
+      </c>
+      <c r="AQ123">
+        <v>1.13</v>
+      </c>
+      <c r="AR123">
+        <v>1.37</v>
+      </c>
+      <c r="AS123">
+        <v>1.3</v>
+      </c>
+      <c r="AT123">
+        <v>2.67</v>
+      </c>
+      <c r="AU123">
+        <v>3</v>
+      </c>
+      <c r="AV123">
+        <v>5</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>9</v>
+      </c>
+      <c r="AZ123">
+        <v>5</v>
+      </c>
+      <c r="BA123">
+        <v>6</v>
+      </c>
+      <c r="BB123">
+        <v>4</v>
+      </c>
+      <c r="BC123">
+        <v>10</v>
+      </c>
+      <c r="BD123">
+        <v>1.67</v>
+      </c>
+      <c r="BE123">
+        <v>8.5</v>
+      </c>
+      <c r="BF123">
+        <v>2.5</v>
+      </c>
+      <c r="BG123">
+        <v>1.19</v>
+      </c>
+      <c r="BH123">
+        <v>4.68</v>
+      </c>
+      <c r="BI123">
+        <v>1.33</v>
+      </c>
+      <c r="BJ123">
+        <v>2.93</v>
+      </c>
+      <c r="BK123">
+        <v>1.58</v>
+      </c>
+      <c r="BL123">
+        <v>2.17</v>
+      </c>
+      <c r="BM123">
+        <v>1.95</v>
+      </c>
+      <c r="BN123">
+        <v>1.77</v>
+      </c>
+      <c r="BO123">
+        <v>2.57</v>
+      </c>
+      <c r="BP123">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7446470</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45451.72916666666</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" t="s">
+        <v>80</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>171</v>
+      </c>
+      <c r="P124" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q124">
+        <v>5.25</v>
+      </c>
+      <c r="R124">
+        <v>2.15</v>
+      </c>
+      <c r="S124">
+        <v>2.15</v>
+      </c>
+      <c r="T124">
+        <v>1.38</v>
+      </c>
+      <c r="U124">
+        <v>2.8</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>7.5</v>
+      </c>
+      <c r="Y124">
+        <v>1.06</v>
+      </c>
+      <c r="Z124">
+        <v>5.2</v>
+      </c>
+      <c r="AA124">
+        <v>3.8</v>
+      </c>
+      <c r="AB124">
+        <v>1.5</v>
+      </c>
+      <c r="AC124">
+        <v>1.06</v>
+      </c>
+      <c r="AD124">
+        <v>8</v>
+      </c>
+      <c r="AE124">
+        <v>1.36</v>
+      </c>
+      <c r="AF124">
+        <v>3</v>
+      </c>
+      <c r="AG124">
+        <v>2.02</v>
+      </c>
+      <c r="AH124">
+        <v>1.8</v>
+      </c>
+      <c r="AI124">
+        <v>2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.67</v>
+      </c>
+      <c r="AK124">
+        <v>2.3</v>
+      </c>
+      <c r="AL124">
+        <v>1.22</v>
+      </c>
+      <c r="AM124">
+        <v>1.08</v>
+      </c>
+      <c r="AN124">
+        <v>1.43</v>
+      </c>
+      <c r="AO124">
+        <v>2.75</v>
+      </c>
+      <c r="AP124">
+        <v>1.63</v>
+      </c>
+      <c r="AQ124">
+        <v>2.44</v>
+      </c>
+      <c r="AR124">
+        <v>1.6</v>
+      </c>
+      <c r="AS124">
+        <v>1.5</v>
+      </c>
+      <c r="AT124">
+        <v>3.1</v>
+      </c>
+      <c r="AU124">
+        <v>3</v>
+      </c>
+      <c r="AV124">
+        <v>2</v>
+      </c>
+      <c r="AW124">
+        <v>4</v>
+      </c>
+      <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>7</v>
+      </c>
+      <c r="AZ124">
+        <v>5</v>
+      </c>
+      <c r="BA124">
+        <v>4</v>
+      </c>
+      <c r="BB124">
+        <v>2</v>
+      </c>
+      <c r="BC124">
+        <v>6</v>
+      </c>
+      <c r="BD124">
+        <v>3.4</v>
+      </c>
+      <c r="BE124">
+        <v>7.7</v>
+      </c>
+      <c r="BF124">
+        <v>1.48</v>
+      </c>
+      <c r="BG124">
+        <v>1.28</v>
+      </c>
+      <c r="BH124">
+        <v>3.35</v>
+      </c>
+      <c r="BI124">
+        <v>1.66</v>
+      </c>
+      <c r="BJ124">
+        <v>2.2</v>
+      </c>
+      <c r="BK124">
+        <v>2.06</v>
+      </c>
+      <c r="BL124">
+        <v>1.75</v>
+      </c>
+      <c r="BM124">
+        <v>2.62</v>
+      </c>
+      <c r="BN124">
+        <v>1.43</v>
+      </c>
+      <c r="BO124">
+        <v>3.6</v>
+      </c>
+      <c r="BP124">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7446471</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45451.83333333334</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125" t="s">
+        <v>82</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>93</v>
+      </c>
+      <c r="P125" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q125">
+        <v>3.8</v>
+      </c>
+      <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
+        <v>2.7</v>
+      </c>
+      <c r="T125">
+        <v>1.4</v>
+      </c>
+      <c r="U125">
+        <v>2.7</v>
+      </c>
+      <c r="V125">
+        <v>2.8</v>
+      </c>
+      <c r="W125">
+        <v>1.38</v>
+      </c>
+      <c r="X125">
+        <v>6.9</v>
+      </c>
+      <c r="Y125">
+        <v>1.07</v>
+      </c>
+      <c r="Z125">
+        <v>3.05</v>
+      </c>
+      <c r="AA125">
+        <v>3.3</v>
+      </c>
+      <c r="AB125">
+        <v>2.04</v>
+      </c>
+      <c r="AC125">
+        <v>1.06</v>
+      </c>
+      <c r="AD125">
+        <v>8</v>
+      </c>
+      <c r="AE125">
+        <v>1.33</v>
+      </c>
+      <c r="AF125">
+        <v>3.1</v>
+      </c>
+      <c r="AG125">
+        <v>1.98</v>
+      </c>
+      <c r="AH125">
+        <v>1.84</v>
+      </c>
+      <c r="AI125">
+        <v>1.73</v>
+      </c>
+      <c r="AJ125">
+        <v>1.93</v>
+      </c>
+      <c r="AK125">
+        <v>1.67</v>
+      </c>
+      <c r="AL125">
+        <v>1.28</v>
+      </c>
+      <c r="AM125">
+        <v>1.3</v>
+      </c>
+      <c r="AN125">
+        <v>0.75</v>
+      </c>
+      <c r="AO125">
+        <v>1.57</v>
+      </c>
+      <c r="AP125">
+        <v>0.67</v>
+      </c>
+      <c r="AQ125">
+        <v>1.75</v>
+      </c>
+      <c r="AR125">
+        <v>1.09</v>
+      </c>
+      <c r="AS125">
+        <v>1.67</v>
+      </c>
+      <c r="AT125">
+        <v>2.76</v>
+      </c>
+      <c r="AU125">
+        <v>2</v>
+      </c>
+      <c r="AV125">
+        <v>3</v>
+      </c>
+      <c r="AW125">
+        <v>2</v>
+      </c>
+      <c r="AX125">
+        <v>2</v>
+      </c>
+      <c r="AY125">
+        <v>4</v>
+      </c>
+      <c r="AZ125">
+        <v>5</v>
+      </c>
+      <c r="BA125">
+        <v>3</v>
+      </c>
+      <c r="BB125">
+        <v>8</v>
+      </c>
+      <c r="BC125">
+        <v>11</v>
+      </c>
+      <c r="BD125">
+        <v>2.75</v>
+      </c>
+      <c r="BE125">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF125">
+        <v>1.63</v>
+      </c>
+      <c r="BG125">
+        <v>1.27</v>
+      </c>
+      <c r="BH125">
+        <v>3.4</v>
+      </c>
+      <c r="BI125">
+        <v>1.51</v>
+      </c>
+      <c r="BJ125">
+        <v>2.49</v>
+      </c>
+      <c r="BK125">
+        <v>1.85</v>
+      </c>
+      <c r="BL125">
+        <v>1.95</v>
+      </c>
+      <c r="BM125">
+        <v>2.32</v>
+      </c>
+      <c r="BN125">
+        <v>1.59</v>
+      </c>
+      <c r="BO125">
+        <v>3.1</v>
+      </c>
+      <c r="BP125">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7446473</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45452.52083333334</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>76</v>
+      </c>
+      <c r="H126" t="s">
+        <v>85</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>172</v>
+      </c>
+      <c r="P126" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q126">
+        <v>2.9</v>
+      </c>
+      <c r="R126">
+        <v>1.9</v>
+      </c>
+      <c r="S126">
+        <v>4</v>
+      </c>
+      <c r="T126">
+        <v>1.54</v>
+      </c>
+      <c r="U126">
+        <v>2.36</v>
+      </c>
+      <c r="V126">
+        <v>3.4</v>
+      </c>
+      <c r="W126">
+        <v>1.28</v>
+      </c>
+      <c r="X126">
+        <v>9</v>
+      </c>
+      <c r="Y126">
+        <v>1.03</v>
+      </c>
+      <c r="Z126">
+        <v>2.27</v>
+      </c>
+      <c r="AA126">
+        <v>3.17</v>
+      </c>
+      <c r="AB126">
+        <v>3.19</v>
+      </c>
+      <c r="AC126">
+        <v>1.09</v>
+      </c>
+      <c r="AD126">
+        <v>6.5</v>
+      </c>
+      <c r="AE126">
+        <v>1.45</v>
+      </c>
+      <c r="AF126">
+        <v>2.65</v>
+      </c>
+      <c r="AG126">
+        <v>2.35</v>
+      </c>
+      <c r="AH126">
+        <v>1.55</v>
+      </c>
+      <c r="AI126">
+        <v>2</v>
+      </c>
+      <c r="AJ126">
+        <v>1.75</v>
+      </c>
+      <c r="AK126">
+        <v>1.3</v>
+      </c>
+      <c r="AL126">
+        <v>1.3</v>
+      </c>
+      <c r="AM126">
+        <v>1.63</v>
+      </c>
+      <c r="AN126">
+        <v>1.4</v>
+      </c>
+      <c r="AO126">
+        <v>1.11</v>
+      </c>
+      <c r="AP126">
+        <v>1.33</v>
+      </c>
+      <c r="AQ126">
+        <v>1.1</v>
+      </c>
+      <c r="AR126">
+        <v>1.36</v>
+      </c>
+      <c r="AS126">
+        <v>1.29</v>
+      </c>
+      <c r="AT126">
+        <v>2.65</v>
+      </c>
+      <c r="AU126">
+        <v>9</v>
+      </c>
+      <c r="AV126">
+        <v>5</v>
+      </c>
+      <c r="AW126">
+        <v>11</v>
+      </c>
+      <c r="AX126">
+        <v>7</v>
+      </c>
+      <c r="AY126">
+        <v>20</v>
+      </c>
+      <c r="AZ126">
+        <v>12</v>
+      </c>
+      <c r="BA126">
+        <v>8</v>
+      </c>
+      <c r="BB126">
+        <v>6</v>
+      </c>
+      <c r="BC126">
+        <v>14</v>
+      </c>
+      <c r="BD126">
+        <v>1.76</v>
+      </c>
+      <c r="BE126">
+        <v>8.4</v>
+      </c>
+      <c r="BF126">
+        <v>2.32</v>
+      </c>
+      <c r="BG126">
+        <v>1.27</v>
+      </c>
+      <c r="BH126">
+        <v>3.28</v>
+      </c>
+      <c r="BI126">
+        <v>1.51</v>
+      </c>
+      <c r="BJ126">
+        <v>2.32</v>
+      </c>
+      <c r="BK126">
+        <v>1.91</v>
+      </c>
+      <c r="BL126">
+        <v>1.8</v>
+      </c>
+      <c r="BM126">
+        <v>2.45</v>
+      </c>
+      <c r="BN126">
+        <v>1.46</v>
+      </c>
+      <c r="BO126">
+        <v>3.34</v>
+      </c>
+      <c r="BP126">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7446474</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45452.625</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>84</v>
+      </c>
+      <c r="H127" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>125</v>
+      </c>
+      <c r="P127" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q127">
+        <v>2.67</v>
+      </c>
+      <c r="R127">
+        <v>2.23</v>
+      </c>
+      <c r="S127">
+        <v>4.31</v>
+      </c>
+      <c r="T127">
+        <v>1.41</v>
+      </c>
+      <c r="U127">
+        <v>3</v>
+      </c>
+      <c r="V127">
+        <v>3.02</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>6.9</v>
+      </c>
+      <c r="Y127">
+        <v>1.07</v>
+      </c>
+      <c r="Z127">
+        <v>1.98</v>
+      </c>
+      <c r="AA127">
+        <v>3.35</v>
+      </c>
+      <c r="AB127">
+        <v>3.52</v>
+      </c>
+      <c r="AC127">
+        <v>1.05</v>
+      </c>
+      <c r="AD127">
+        <v>8.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.3</v>
+      </c>
+      <c r="AF127">
+        <v>3.25</v>
+      </c>
+      <c r="AG127">
+        <v>1.94</v>
+      </c>
+      <c r="AH127">
+        <v>1.78</v>
+      </c>
+      <c r="AI127">
+        <v>1.81</v>
+      </c>
+      <c r="AJ127">
+        <v>1.9</v>
+      </c>
+      <c r="AK127">
+        <v>1.25</v>
+      </c>
+      <c r="AL127">
+        <v>1.28</v>
+      </c>
+      <c r="AM127">
+        <v>1.75</v>
+      </c>
+      <c r="AN127">
+        <v>2.14</v>
+      </c>
+      <c r="AO127">
+        <v>0.43</v>
+      </c>
+      <c r="AP127">
+        <v>2.25</v>
+      </c>
+      <c r="AQ127">
+        <v>0.38</v>
+      </c>
+      <c r="AR127">
+        <v>1.68</v>
+      </c>
+      <c r="AS127">
+        <v>1.09</v>
+      </c>
+      <c r="AT127">
+        <v>2.77</v>
+      </c>
+      <c r="AU127">
+        <v>5</v>
+      </c>
+      <c r="AV127">
+        <v>6</v>
+      </c>
+      <c r="AW127">
+        <v>4</v>
+      </c>
+      <c r="AX127">
+        <v>5</v>
+      </c>
+      <c r="AY127">
+        <v>9</v>
+      </c>
+      <c r="AZ127">
+        <v>11</v>
+      </c>
+      <c r="BA127">
+        <v>2</v>
+      </c>
+      <c r="BB127">
+        <v>5</v>
+      </c>
+      <c r="BC127">
+        <v>7</v>
+      </c>
+      <c r="BD127">
+        <v>1.55</v>
+      </c>
+      <c r="BE127">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF127">
+        <v>2.75</v>
+      </c>
+      <c r="BG127">
+        <v>1.22</v>
+      </c>
+      <c r="BH127">
+        <v>3.8</v>
+      </c>
+      <c r="BI127">
+        <v>1.33</v>
+      </c>
+      <c r="BJ127">
+        <v>3.05</v>
+      </c>
+      <c r="BK127">
+        <v>1.65</v>
+      </c>
+      <c r="BL127">
+        <v>2.19</v>
+      </c>
+      <c r="BM127">
+        <v>2.05</v>
+      </c>
+      <c r="BN127">
+        <v>1.74</v>
+      </c>
+      <c r="BO127">
+        <v>2.65</v>
+      </c>
+      <c r="BP127">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7446475</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45452.75</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>74</v>
+      </c>
+      <c r="H128" t="s">
+        <v>70</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>173</v>
+      </c>
+      <c r="P128" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q128">
+        <v>5.3</v>
+      </c>
+      <c r="R128">
+        <v>2.15</v>
+      </c>
+      <c r="S128">
+        <v>2.1</v>
+      </c>
+      <c r="T128">
+        <v>1.42</v>
+      </c>
+      <c r="U128">
+        <v>2.6</v>
+      </c>
+      <c r="V128">
+        <v>2.85</v>
+      </c>
+      <c r="W128">
+        <v>1.35</v>
+      </c>
+      <c r="X128">
+        <v>6.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.07</v>
+      </c>
+      <c r="Z128">
+        <v>4.5</v>
+      </c>
+      <c r="AA128">
+        <v>3.6</v>
+      </c>
+      <c r="AB128">
+        <v>1.6</v>
+      </c>
+      <c r="AC128">
+        <v>1.05</v>
+      </c>
+      <c r="AD128">
+        <v>7.8</v>
+      </c>
+      <c r="AE128">
+        <v>1.3</v>
+      </c>
+      <c r="AF128">
+        <v>3.2</v>
+      </c>
+      <c r="AG128">
+        <v>1.95</v>
+      </c>
+      <c r="AH128">
+        <v>1.75</v>
+      </c>
+      <c r="AI128">
+        <v>1.93</v>
+      </c>
+      <c r="AJ128">
+        <v>1.75</v>
+      </c>
+      <c r="AK128">
+        <v>2.2</v>
+      </c>
+      <c r="AL128">
+        <v>1.2</v>
+      </c>
+      <c r="AM128">
+        <v>1.09</v>
+      </c>
+      <c r="AN128">
+        <v>1.5</v>
+      </c>
+      <c r="AO128">
+        <v>2.14</v>
+      </c>
+      <c r="AP128">
+        <v>1.67</v>
+      </c>
+      <c r="AQ128">
+        <v>1.88</v>
+      </c>
+      <c r="AR128">
+        <v>1.14</v>
+      </c>
+      <c r="AS128">
+        <v>1.43</v>
+      </c>
+      <c r="AT128">
+        <v>2.57</v>
+      </c>
+      <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>14</v>
+      </c>
+      <c r="AW128">
+        <v>1</v>
+      </c>
+      <c r="AX128">
+        <v>2</v>
+      </c>
+      <c r="AY128">
+        <v>5</v>
+      </c>
+      <c r="AZ128">
+        <v>16</v>
+      </c>
+      <c r="BA128">
+        <v>4</v>
+      </c>
+      <c r="BB128">
+        <v>6</v>
+      </c>
+      <c r="BC128">
+        <v>10</v>
+      </c>
+      <c r="BD128">
+        <v>2.75</v>
+      </c>
+      <c r="BE128">
+        <v>8</v>
+      </c>
+      <c r="BF128">
+        <v>1.62</v>
+      </c>
+      <c r="BG128">
+        <v>1.3</v>
+      </c>
+      <c r="BH128">
+        <v>3.2</v>
+      </c>
+      <c r="BI128">
+        <v>1.54</v>
+      </c>
+      <c r="BJ128">
+        <v>2.33</v>
+      </c>
+      <c r="BK128">
+        <v>1.77</v>
+      </c>
+      <c r="BL128">
+        <v>1.95</v>
+      </c>
+      <c r="BM128">
+        <v>2.4</v>
+      </c>
+      <c r="BN128">
+        <v>1.51</v>
+      </c>
+      <c r="BO128">
+        <v>3.1</v>
+      </c>
+      <c r="BP128">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7446472</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45454.625</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>83</v>
+      </c>
+      <c r="H129" t="s">
+        <v>79</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>136</v>
+      </c>
+      <c r="P129" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q129">
+        <v>3.3</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>3.1</v>
+      </c>
+      <c r="T129">
+        <v>1.42</v>
+      </c>
+      <c r="U129">
+        <v>2.65</v>
+      </c>
+      <c r="V129">
+        <v>2.88</v>
+      </c>
+      <c r="W129">
+        <v>1.36</v>
+      </c>
+      <c r="X129">
+        <v>7.6</v>
+      </c>
+      <c r="Y129">
+        <v>1.05</v>
+      </c>
+      <c r="Z129">
+        <v>3.1</v>
+      </c>
+      <c r="AA129">
+        <v>3.2</v>
+      </c>
+      <c r="AB129">
+        <v>2.15</v>
+      </c>
+      <c r="AC129">
+        <v>1.07</v>
+      </c>
+      <c r="AD129">
+        <v>7.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.36</v>
+      </c>
+      <c r="AF129">
+        <v>2.95</v>
+      </c>
+      <c r="AG129">
+        <v>1.91</v>
+      </c>
+      <c r="AH129">
+        <v>1.8</v>
+      </c>
+      <c r="AI129">
+        <v>1.75</v>
+      </c>
+      <c r="AJ129">
+        <v>1.9</v>
+      </c>
+      <c r="AK129">
+        <v>1.48</v>
+      </c>
+      <c r="AL129">
+        <v>1.3</v>
+      </c>
+      <c r="AM129">
+        <v>1.42</v>
+      </c>
+      <c r="AN129">
+        <v>1.14</v>
+      </c>
+      <c r="AO129">
+        <v>2.25</v>
+      </c>
+      <c r="AP129">
+        <v>1.13</v>
+      </c>
+      <c r="AQ129">
+        <v>2.11</v>
+      </c>
+      <c r="AR129">
+        <v>1.01</v>
+      </c>
+      <c r="AS129">
+        <v>1.26</v>
+      </c>
+      <c r="AT129">
+        <v>2.27</v>
+      </c>
+      <c r="AU129">
+        <v>2</v>
+      </c>
+      <c r="AV129">
+        <v>2</v>
+      </c>
+      <c r="AW129">
+        <v>6</v>
+      </c>
+      <c r="AX129">
+        <v>4</v>
+      </c>
+      <c r="AY129">
+        <v>8</v>
+      </c>
+      <c r="AZ129">
+        <v>6</v>
+      </c>
+      <c r="BA129">
+        <v>6</v>
+      </c>
+      <c r="BB129">
+        <v>3</v>
+      </c>
+      <c r="BC129">
+        <v>9</v>
+      </c>
+      <c r="BD129">
+        <v>1.88</v>
+      </c>
+      <c r="BE129">
+        <v>8.4</v>
+      </c>
+      <c r="BF129">
+        <v>2.14</v>
+      </c>
+      <c r="BG129">
+        <v>1.24</v>
+      </c>
+      <c r="BH129">
+        <v>3.48</v>
+      </c>
+      <c r="BI129">
+        <v>1.51</v>
+      </c>
+      <c r="BJ129">
+        <v>2.47</v>
+      </c>
+      <c r="BK129">
+        <v>1.87</v>
+      </c>
+      <c r="BL129">
+        <v>1.93</v>
+      </c>
+      <c r="BM129">
+        <v>2.34</v>
+      </c>
+      <c r="BN129">
+        <v>1.56</v>
+      </c>
+      <c r="BO129">
+        <v>3.15</v>
+      </c>
+      <c r="BP129">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7446482</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45457.79166666666</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>72</v>
+      </c>
+      <c r="H130" t="s">
+        <v>74</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>174</v>
+      </c>
+      <c r="P130" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q130">
+        <v>3.1</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>3.5</v>
+      </c>
+      <c r="T130">
+        <v>1.45</v>
+      </c>
+      <c r="U130">
+        <v>2.5</v>
+      </c>
+      <c r="V130">
+        <v>3.1</v>
+      </c>
+      <c r="W130">
+        <v>1.3</v>
+      </c>
+      <c r="X130">
+        <v>7.2</v>
+      </c>
+      <c r="Y130">
+        <v>1.05</v>
+      </c>
+      <c r="Z130">
+        <v>2.65</v>
+      </c>
+      <c r="AA130">
+        <v>3</v>
+      </c>
+      <c r="AB130">
+        <v>2.6</v>
+      </c>
+      <c r="AC130">
+        <v>1.08</v>
+      </c>
+      <c r="AD130">
+        <v>6.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.37</v>
+      </c>
+      <c r="AF130">
+        <v>2.85</v>
+      </c>
+      <c r="AG130">
+        <v>2.2</v>
+      </c>
+      <c r="AH130">
+        <v>1.6</v>
+      </c>
+      <c r="AI130">
+        <v>1.83</v>
+      </c>
+      <c r="AJ130">
+        <v>1.8</v>
+      </c>
+      <c r="AK130">
+        <v>1.38</v>
+      </c>
+      <c r="AL130">
+        <v>1.3</v>
+      </c>
+      <c r="AM130">
+        <v>1.5</v>
+      </c>
+      <c r="AN130">
+        <v>0.75</v>
+      </c>
+      <c r="AO130">
+        <v>0.71</v>
+      </c>
+      <c r="AP130">
+        <v>1</v>
+      </c>
+      <c r="AQ130">
+        <v>0.63</v>
+      </c>
+      <c r="AR130">
+        <v>1.22</v>
+      </c>
+      <c r="AS130">
+        <v>0.73</v>
+      </c>
+      <c r="AT130">
+        <v>1.95</v>
+      </c>
+      <c r="AU130">
+        <v>10</v>
+      </c>
+      <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
+        <v>4</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>14</v>
+      </c>
+      <c r="AZ130">
+        <v>6</v>
+      </c>
+      <c r="BA130">
+        <v>2</v>
+      </c>
+      <c r="BB130">
+        <v>1</v>
+      </c>
+      <c r="BC130">
+        <v>3</v>
+      </c>
+      <c r="BD130">
+        <v>2.05</v>
+      </c>
+      <c r="BE130">
+        <v>8</v>
+      </c>
+      <c r="BF130">
+        <v>2</v>
+      </c>
+      <c r="BG130">
+        <v>1.22</v>
+      </c>
+      <c r="BH130">
+        <v>3.65</v>
+      </c>
+      <c r="BI130">
+        <v>1.41</v>
+      </c>
+      <c r="BJ130">
+        <v>2.6</v>
+      </c>
+      <c r="BK130">
+        <v>1.77</v>
+      </c>
+      <c r="BL130">
+        <v>1.95</v>
+      </c>
+      <c r="BM130">
+        <v>2.19</v>
+      </c>
+      <c r="BN130">
+        <v>1.57</v>
+      </c>
+      <c r="BO130">
+        <v>2.93</v>
+      </c>
+      <c r="BP130">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7446478</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45458.625</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131" t="s">
+        <v>77</v>
+      </c>
+      <c r="H131" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>102</v>
+      </c>
+      <c r="P131" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q131">
+        <v>3.25</v>
+      </c>
+      <c r="R131">
+        <v>1.93</v>
+      </c>
+      <c r="S131">
+        <v>3.4</v>
+      </c>
+      <c r="T131">
+        <v>1.45</v>
+      </c>
+      <c r="U131">
+        <v>2.5</v>
+      </c>
+      <c r="V131">
+        <v>3</v>
+      </c>
+      <c r="W131">
+        <v>1.32</v>
+      </c>
+      <c r="X131">
+        <v>7.2</v>
+      </c>
+      <c r="Y131">
+        <v>1.05</v>
+      </c>
+      <c r="Z131">
+        <v>2.7</v>
+      </c>
+      <c r="AA131">
+        <v>3</v>
+      </c>
+      <c r="AB131">
+        <v>2.7</v>
+      </c>
+      <c r="AC131">
+        <v>1.08</v>
+      </c>
+      <c r="AD131">
+        <v>6.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.35</v>
+      </c>
+      <c r="AF131">
+        <v>2.9</v>
+      </c>
+      <c r="AG131">
+        <v>2.2</v>
+      </c>
+      <c r="AH131">
+        <v>1.63</v>
+      </c>
+      <c r="AI131">
+        <v>1.83</v>
+      </c>
+      <c r="AJ131">
+        <v>1.8</v>
+      </c>
+      <c r="AK131">
+        <v>1.42</v>
+      </c>
+      <c r="AL131">
+        <v>1.3</v>
+      </c>
+      <c r="AM131">
+        <v>1.45</v>
+      </c>
+      <c r="AN131">
+        <v>1.38</v>
+      </c>
+      <c r="AO131">
+        <v>1.29</v>
+      </c>
+      <c r="AP131">
+        <v>1.33</v>
+      </c>
+      <c r="AQ131">
+        <v>1.25</v>
+      </c>
+      <c r="AR131">
+        <v>1.46</v>
+      </c>
+      <c r="AS131">
+        <v>1.31</v>
+      </c>
+      <c r="AT131">
+        <v>2.77</v>
+      </c>
+      <c r="AU131">
+        <v>7</v>
+      </c>
+      <c r="AV131">
+        <v>2</v>
+      </c>
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
+        <v>3</v>
+      </c>
+      <c r="AY131">
+        <v>12</v>
+      </c>
+      <c r="AZ131">
+        <v>5</v>
+      </c>
+      <c r="BA131">
+        <v>7</v>
+      </c>
+      <c r="BB131">
+        <v>5</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>1.8</v>
+      </c>
+      <c r="BE131">
+        <v>8</v>
+      </c>
+      <c r="BF131">
+        <v>2.3</v>
+      </c>
+      <c r="BG131">
+        <v>1.23</v>
+      </c>
+      <c r="BH131">
+        <v>3.56</v>
+      </c>
+      <c r="BI131">
+        <v>1.44</v>
+      </c>
+      <c r="BJ131">
+        <v>2.51</v>
+      </c>
+      <c r="BK131">
+        <v>1.8</v>
+      </c>
+      <c r="BL131">
+        <v>1.91</v>
+      </c>
+      <c r="BM131">
+        <v>2.3</v>
+      </c>
+      <c r="BN131">
+        <v>1.52</v>
+      </c>
+      <c r="BO131">
+        <v>3.08</v>
+      </c>
+      <c r="BP131">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7446480</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45458.72916666666</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132" t="s">
+        <v>70</v>
+      </c>
+      <c r="H132" t="s">
+        <v>81</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>175</v>
+      </c>
+      <c r="P132" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q132">
+        <v>2.05</v>
+      </c>
+      <c r="R132">
+        <v>2.25</v>
+      </c>
+      <c r="S132">
+        <v>5.25</v>
+      </c>
+      <c r="T132">
+        <v>1.33</v>
+      </c>
+      <c r="U132">
+        <v>3</v>
+      </c>
+      <c r="V132">
+        <v>2.45</v>
+      </c>
+      <c r="W132">
+        <v>1.48</v>
+      </c>
+      <c r="X132">
+        <v>5.8</v>
+      </c>
+      <c r="Y132">
+        <v>1.09</v>
+      </c>
+      <c r="Z132">
+        <v>1.57</v>
+      </c>
+      <c r="AA132">
+        <v>4</v>
+      </c>
+      <c r="AB132">
+        <v>5</v>
+      </c>
+      <c r="AC132">
+        <v>1.04</v>
+      </c>
+      <c r="AD132">
+        <v>9</v>
+      </c>
+      <c r="AE132">
+        <v>1.22</v>
+      </c>
+      <c r="AF132">
+        <v>3.85</v>
+      </c>
+      <c r="AG132">
+        <v>1.77</v>
+      </c>
+      <c r="AH132">
+        <v>1.98</v>
+      </c>
+      <c r="AI132">
+        <v>1.73</v>
+      </c>
+      <c r="AJ132">
+        <v>1.93</v>
+      </c>
+      <c r="AK132">
+        <v>1.1</v>
+      </c>
+      <c r="AL132">
+        <v>1.18</v>
+      </c>
+      <c r="AM132">
+        <v>2.4</v>
+      </c>
+      <c r="AN132">
+        <v>2.38</v>
+      </c>
+      <c r="AO132">
+        <v>1.6</v>
+      </c>
+      <c r="AP132">
+        <v>2.44</v>
+      </c>
+      <c r="AQ132">
+        <v>1.33</v>
+      </c>
+      <c r="AR132">
+        <v>1.77</v>
+      </c>
+      <c r="AS132">
+        <v>1.76</v>
+      </c>
+      <c r="AT132">
+        <v>3.53</v>
+      </c>
+      <c r="AU132">
+        <v>3</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>2</v>
+      </c>
+      <c r="AX132">
+        <v>2</v>
+      </c>
+      <c r="AY132">
+        <v>5</v>
+      </c>
+      <c r="AZ132">
+        <v>5</v>
+      </c>
+      <c r="BA132">
+        <v>5</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>9</v>
+      </c>
+      <c r="BD132">
+        <v>1.36</v>
+      </c>
+      <c r="BE132">
+        <v>9</v>
+      </c>
+      <c r="BF132">
+        <v>3.6</v>
+      </c>
+      <c r="BG132">
+        <v>1.32</v>
+      </c>
+      <c r="BH132">
+        <v>3.1</v>
+      </c>
+      <c r="BI132">
+        <v>1.57</v>
+      </c>
+      <c r="BJ132">
+        <v>2.26</v>
+      </c>
+      <c r="BK132">
+        <v>1.95</v>
+      </c>
+      <c r="BL132">
+        <v>1.77</v>
+      </c>
+      <c r="BM132">
+        <v>2.46</v>
+      </c>
+      <c r="BN132">
+        <v>1.48</v>
+      </c>
+      <c r="BO132">
+        <v>3.2</v>
+      </c>
+      <c r="BP132">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7446477</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45458.83333333334</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H133" t="s">
+        <v>84</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>176</v>
+      </c>
+      <c r="P133" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q133">
+        <v>2.3</v>
+      </c>
+      <c r="R133">
+        <v>2.2</v>
+      </c>
+      <c r="S133">
+        <v>4.4</v>
+      </c>
+      <c r="T133">
+        <v>1.3</v>
+      </c>
+      <c r="U133">
+        <v>3.1</v>
+      </c>
+      <c r="V133">
+        <v>2.6</v>
+      </c>
+      <c r="W133">
+        <v>1.42</v>
+      </c>
+      <c r="X133">
+        <v>5.8</v>
+      </c>
+      <c r="Y133">
+        <v>1.09</v>
+      </c>
+      <c r="Z133">
+        <v>1.82</v>
+      </c>
+      <c r="AA133">
+        <v>3.7</v>
+      </c>
+      <c r="AB133">
+        <v>3.8</v>
+      </c>
+      <c r="AC133">
+        <v>1.01</v>
+      </c>
+      <c r="AD133">
+        <v>10.2</v>
+      </c>
+      <c r="AE133">
+        <v>1.25</v>
+      </c>
+      <c r="AF133">
+        <v>3.92</v>
+      </c>
+      <c r="AG133">
+        <v>1.74</v>
+      </c>
+      <c r="AH133">
+        <v>2.04</v>
+      </c>
+      <c r="AI133">
+        <v>1.68</v>
+      </c>
+      <c r="AJ133">
+        <v>2.01</v>
+      </c>
+      <c r="AK133">
+        <v>1.21</v>
+      </c>
+      <c r="AL133">
+        <v>1.24</v>
+      </c>
+      <c r="AM133">
+        <v>1.91</v>
+      </c>
+      <c r="AN133">
+        <v>2.13</v>
+      </c>
+      <c r="AO133">
+        <v>1.13</v>
+      </c>
+      <c r="AP133">
+        <v>2</v>
+      </c>
+      <c r="AQ133">
+        <v>1.11</v>
+      </c>
+      <c r="AR133">
+        <v>1.43</v>
+      </c>
+      <c r="AS133">
+        <v>1.41</v>
+      </c>
+      <c r="AT133">
+        <v>2.84</v>
+      </c>
+      <c r="AU133">
+        <v>0</v>
+      </c>
+      <c r="AV133">
+        <v>3</v>
+      </c>
+      <c r="AW133">
+        <v>7</v>
+      </c>
+      <c r="AX133">
+        <v>2</v>
+      </c>
+      <c r="AY133">
+        <v>7</v>
+      </c>
+      <c r="AZ133">
+        <v>5</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
+        <v>9</v>
+      </c>
+      <c r="BD133">
+        <v>1.67</v>
+      </c>
+      <c r="BE133">
+        <v>8</v>
+      </c>
+      <c r="BF133">
+        <v>2.6</v>
+      </c>
+      <c r="BG133">
+        <v>1.21</v>
+      </c>
+      <c r="BH133">
+        <v>3.74</v>
+      </c>
+      <c r="BI133">
+        <v>1.4</v>
+      </c>
+      <c r="BJ133">
+        <v>2.64</v>
+      </c>
+      <c r="BK133">
+        <v>1.77</v>
+      </c>
+      <c r="BL133">
+        <v>1.95</v>
+      </c>
+      <c r="BM133">
+        <v>2.14</v>
+      </c>
+      <c r="BN133">
+        <v>1.6</v>
+      </c>
+      <c r="BO133">
+        <v>2.79</v>
+      </c>
+      <c r="BP133">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7446479</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45459.52083333334</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134" t="s">
+        <v>71</v>
+      </c>
+      <c r="H134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>177</v>
+      </c>
+      <c r="P134" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q134">
+        <v>2.91</v>
+      </c>
+      <c r="R134">
+        <v>1.89</v>
+      </c>
+      <c r="S134">
+        <v>4.1</v>
+      </c>
+      <c r="T134">
+        <v>1.47</v>
+      </c>
+      <c r="U134">
+        <v>2.4</v>
+      </c>
+      <c r="V134">
+        <v>3.5</v>
+      </c>
+      <c r="W134">
+        <v>1.25</v>
+      </c>
+      <c r="X134">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y134">
+        <v>1.03</v>
+      </c>
+      <c r="Z134">
+        <v>2.45</v>
+      </c>
+      <c r="AA134">
+        <v>3</v>
+      </c>
+      <c r="AB134">
+        <v>2.87</v>
+      </c>
+      <c r="AC134">
+        <v>1.06</v>
+      </c>
+      <c r="AD134">
+        <v>6.55</v>
+      </c>
+      <c r="AE134">
+        <v>1.44</v>
+      </c>
+      <c r="AF134">
+        <v>2.51</v>
+      </c>
+      <c r="AG134">
+        <v>2.41</v>
+      </c>
+      <c r="AH134">
+        <v>1.5</v>
+      </c>
+      <c r="AI134">
+        <v>2.01</v>
+      </c>
+      <c r="AJ134">
+        <v>1.68</v>
+      </c>
+      <c r="AK134">
+        <v>1.29</v>
+      </c>
+      <c r="AL134">
+        <v>1.33</v>
+      </c>
+      <c r="AM134">
+        <v>1.57</v>
+      </c>
+      <c r="AN134">
+        <v>0.5</v>
+      </c>
+      <c r="AO134">
+        <v>1</v>
+      </c>
+      <c r="AP134">
+        <v>0.78</v>
+      </c>
+      <c r="AQ134">
+        <v>0.89</v>
+      </c>
+      <c r="AR134">
+        <v>1.24</v>
+      </c>
+      <c r="AS134">
+        <v>1.13</v>
+      </c>
+      <c r="AT134">
+        <v>2.37</v>
+      </c>
+      <c r="AU134">
+        <v>9</v>
+      </c>
+      <c r="AV134">
+        <v>9</v>
+      </c>
+      <c r="AW134">
+        <v>2</v>
+      </c>
+      <c r="AX134">
+        <v>6</v>
+      </c>
+      <c r="AY134">
+        <v>11</v>
+      </c>
+      <c r="AZ134">
+        <v>15</v>
+      </c>
+      <c r="BA134">
+        <v>4</v>
+      </c>
+      <c r="BB134">
+        <v>3</v>
+      </c>
+      <c r="BC134">
+        <v>7</v>
+      </c>
+      <c r="BD134">
+        <v>1.44</v>
+      </c>
+      <c r="BE134">
+        <v>8.5</v>
+      </c>
+      <c r="BF134">
+        <v>3.2</v>
+      </c>
+      <c r="BG134">
+        <v>1.33</v>
+      </c>
+      <c r="BH134">
+        <v>2.93</v>
+      </c>
+      <c r="BI134">
+        <v>1.6</v>
+      </c>
+      <c r="BJ134">
+        <v>2.14</v>
+      </c>
+      <c r="BK134">
+        <v>1.95</v>
+      </c>
+      <c r="BL134">
+        <v>1.77</v>
+      </c>
+      <c r="BM134">
+        <v>2.64</v>
+      </c>
+      <c r="BN134">
+        <v>1.4</v>
+      </c>
+      <c r="BO134">
+        <v>3.65</v>
+      </c>
+      <c r="BP134">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7446481</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45459.625</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135" t="s">
+        <v>85</v>
+      </c>
+      <c r="H135" t="s">
+        <v>83</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>178</v>
+      </c>
+      <c r="P135" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q135">
+        <v>2.63</v>
+      </c>
+      <c r="R135">
+        <v>2.05</v>
+      </c>
+      <c r="S135">
+        <v>4.5</v>
+      </c>
+      <c r="T135">
+        <v>1.48</v>
+      </c>
+      <c r="U135">
+        <v>2.5</v>
+      </c>
+      <c r="V135">
+        <v>3.2</v>
+      </c>
+      <c r="W135">
+        <v>1.3</v>
+      </c>
+      <c r="X135">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y135">
+        <v>1.05</v>
+      </c>
+      <c r="Z135">
+        <v>2</v>
+      </c>
+      <c r="AA135">
+        <v>3.1</v>
+      </c>
+      <c r="AB135">
+        <v>3.5</v>
+      </c>
+      <c r="AC135">
+        <v>1.04</v>
+      </c>
+      <c r="AD135">
+        <v>7.8</v>
+      </c>
+      <c r="AE135">
+        <v>1.35</v>
+      </c>
+      <c r="AF135">
+        <v>2.84</v>
+      </c>
+      <c r="AG135">
+        <v>2.11</v>
+      </c>
+      <c r="AH135">
+        <v>1.65</v>
+      </c>
+      <c r="AI135">
+        <v>1.9</v>
+      </c>
+      <c r="AJ135">
+        <v>1.75</v>
+      </c>
+      <c r="AK135">
+        <v>1.25</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.8</v>
+      </c>
+      <c r="AN135">
+        <v>0.67</v>
+      </c>
+      <c r="AO135">
+        <v>0.88</v>
+      </c>
+      <c r="AP135">
+        <v>1</v>
+      </c>
+      <c r="AQ135">
+        <v>0.78</v>
+      </c>
+      <c r="AR135">
+        <v>1.01</v>
+      </c>
+      <c r="AS135">
+        <v>1.12</v>
+      </c>
+      <c r="AT135">
+        <v>2.13</v>
+      </c>
+      <c r="AU135">
+        <v>6</v>
+      </c>
+      <c r="AV135">
+        <v>0</v>
+      </c>
+      <c r="AW135">
+        <v>4</v>
+      </c>
+      <c r="AX135">
+        <v>5</v>
+      </c>
+      <c r="AY135">
+        <v>10</v>
+      </c>
+      <c r="AZ135">
+        <v>5</v>
+      </c>
+      <c r="BA135">
+        <v>1</v>
+      </c>
+      <c r="BB135">
+        <v>1</v>
+      </c>
+      <c r="BC135">
+        <v>2</v>
+      </c>
+      <c r="BD135">
+        <v>1.73</v>
+      </c>
+      <c r="BE135">
+        <v>8</v>
+      </c>
+      <c r="BF135">
+        <v>2.5</v>
+      </c>
+      <c r="BG135">
+        <v>1.28</v>
+      </c>
+      <c r="BH135">
+        <v>3.3</v>
+      </c>
+      <c r="BI135">
+        <v>1.5</v>
+      </c>
+      <c r="BJ135">
+        <v>2.4</v>
+      </c>
+      <c r="BK135">
+        <v>1.85</v>
+      </c>
+      <c r="BL135">
+        <v>1.85</v>
+      </c>
+      <c r="BM135">
+        <v>2.32</v>
+      </c>
+      <c r="BN135">
+        <v>1.54</v>
+      </c>
+      <c r="BO135">
+        <v>3</v>
+      </c>
+      <c r="BP135">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7446476</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45459.75</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136" t="s">
+        <v>80</v>
+      </c>
+      <c r="H136" t="s">
+        <v>75</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>179</v>
+      </c>
+      <c r="P136" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q136">
+        <v>2.1</v>
+      </c>
+      <c r="R136">
+        <v>2.18</v>
+      </c>
+      <c r="S136">
+        <v>5.45</v>
+      </c>
+      <c r="T136">
+        <v>1.33</v>
+      </c>
+      <c r="U136">
+        <v>2.9</v>
+      </c>
+      <c r="V136">
+        <v>2.75</v>
+      </c>
+      <c r="W136">
+        <v>1.37</v>
+      </c>
+      <c r="X136">
+        <v>6.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.07</v>
+      </c>
+      <c r="Z136">
+        <v>1.5</v>
+      </c>
+      <c r="AA136">
+        <v>3.8</v>
+      </c>
+      <c r="AB136">
+        <v>5.5</v>
+      </c>
+      <c r="AC136">
+        <v>1.02</v>
+      </c>
+      <c r="AD136">
+        <v>9.1</v>
+      </c>
+      <c r="AE136">
+        <v>1.29</v>
+      </c>
+      <c r="AF136">
+        <v>3.41</v>
+      </c>
+      <c r="AG136">
+        <v>1.89</v>
+      </c>
+      <c r="AH136">
+        <v>1.83</v>
+      </c>
+      <c r="AI136">
+        <v>1.92</v>
+      </c>
+      <c r="AJ136">
+        <v>1.75</v>
+      </c>
+      <c r="AK136">
+        <v>1.11</v>
+      </c>
+      <c r="AL136">
+        <v>1.21</v>
+      </c>
+      <c r="AM136">
+        <v>2.28</v>
+      </c>
+      <c r="AN136">
+        <v>2.71</v>
+      </c>
+      <c r="AO136">
+        <v>1.86</v>
+      </c>
+      <c r="AP136">
+        <v>2.5</v>
+      </c>
+      <c r="AQ136">
+        <v>1.75</v>
+      </c>
+      <c r="AR136">
+        <v>1.33</v>
+      </c>
+      <c r="AS136">
+        <v>1.37</v>
+      </c>
+      <c r="AT136">
+        <v>2.7</v>
+      </c>
+      <c r="AU136">
+        <v>2</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
+        <v>4</v>
+      </c>
+      <c r="AX136">
+        <v>2</v>
+      </c>
+      <c r="AY136">
+        <v>6</v>
+      </c>
+      <c r="AZ136">
+        <v>6</v>
+      </c>
+      <c r="BA136">
+        <v>8</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>11</v>
+      </c>
+      <c r="BD136">
+        <v>1.36</v>
+      </c>
+      <c r="BE136">
+        <v>9</v>
+      </c>
+      <c r="BF136">
+        <v>3.6</v>
+      </c>
+      <c r="BG136">
+        <v>1.27</v>
+      </c>
+      <c r="BH136">
+        <v>3.28</v>
+      </c>
+      <c r="BI136">
+        <v>1.5</v>
+      </c>
+      <c r="BJ136">
+        <v>2.35</v>
+      </c>
+      <c r="BK136">
+        <v>1.77</v>
+      </c>
+      <c r="BL136">
+        <v>1.95</v>
+      </c>
+      <c r="BM136">
+        <v>2.4</v>
+      </c>
+      <c r="BN136">
+        <v>1.48</v>
+      </c>
+      <c r="BO136">
+        <v>3.2</v>
+      </c>
+      <c r="BP136">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7446483</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45460.70833333334</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137" t="s">
+        <v>79</v>
+      </c>
+      <c r="H137" t="s">
+        <v>76</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>93</v>
+      </c>
+      <c r="P137" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q137">
+        <v>3.08</v>
+      </c>
+      <c r="R137">
+        <v>1.95</v>
+      </c>
+      <c r="S137">
+        <v>3.6</v>
+      </c>
+      <c r="T137">
+        <v>1.49</v>
+      </c>
+      <c r="U137">
+        <v>2.51</v>
+      </c>
+      <c r="V137">
+        <v>3.32</v>
+      </c>
+      <c r="W137">
+        <v>1.3</v>
+      </c>
+      <c r="X137">
+        <v>8.9</v>
+      </c>
+      <c r="Y137">
+        <v>1.04</v>
+      </c>
+      <c r="Z137">
+        <v>2.5</v>
+      </c>
+      <c r="AA137">
+        <v>3</v>
+      </c>
+      <c r="AB137">
+        <v>3</v>
+      </c>
+      <c r="AC137">
+        <v>1.05</v>
+      </c>
+      <c r="AD137">
+        <v>7.2</v>
+      </c>
+      <c r="AE137">
+        <v>1.4</v>
+      </c>
+      <c r="AF137">
+        <v>2.64</v>
+      </c>
+      <c r="AG137">
+        <v>2.25</v>
+      </c>
+      <c r="AH137">
+        <v>1.57</v>
+      </c>
+      <c r="AI137">
+        <v>1.92</v>
+      </c>
+      <c r="AJ137">
+        <v>1.75</v>
+      </c>
+      <c r="AK137">
+        <v>1.36</v>
+      </c>
+      <c r="AL137">
+        <v>1.32</v>
+      </c>
+      <c r="AM137">
+        <v>1.5</v>
+      </c>
+      <c r="AN137">
+        <v>1.29</v>
+      </c>
+      <c r="AO137">
+        <v>1.4</v>
+      </c>
+      <c r="AP137">
+        <v>1.13</v>
+      </c>
+      <c r="AQ137">
+        <v>1.55</v>
+      </c>
+      <c r="AR137">
+        <v>1.46</v>
+      </c>
+      <c r="AS137">
+        <v>1.21</v>
+      </c>
+      <c r="AT137">
+        <v>2.67</v>
+      </c>
+      <c r="AU137">
+        <v>4</v>
+      </c>
+      <c r="AV137">
+        <v>2</v>
+      </c>
+      <c r="AW137">
+        <v>9</v>
+      </c>
+      <c r="AX137">
+        <v>6</v>
+      </c>
+      <c r="AY137">
+        <v>13</v>
+      </c>
+      <c r="AZ137">
+        <v>8</v>
+      </c>
+      <c r="BA137">
+        <v>11</v>
+      </c>
+      <c r="BB137">
+        <v>1</v>
+      </c>
+      <c r="BC137">
+        <v>12</v>
+      </c>
+      <c r="BD137">
+        <v>1.9</v>
+      </c>
+      <c r="BE137">
+        <v>6.25</v>
+      </c>
+      <c r="BF137">
+        <v>2.32</v>
+      </c>
+      <c r="BG137">
+        <v>1.27</v>
+      </c>
+      <c r="BH137">
+        <v>3.28</v>
+      </c>
+      <c r="BI137">
+        <v>1.51</v>
+      </c>
+      <c r="BJ137">
+        <v>2.32</v>
+      </c>
+      <c r="BK137">
+        <v>1.87</v>
+      </c>
+      <c r="BL137">
+        <v>1.79</v>
+      </c>
+      <c r="BM137">
+        <v>2.45</v>
+      </c>
+      <c r="BN137">
+        <v>1.46</v>
+      </c>
+      <c r="BO137">
+        <v>3.34</v>
+      </c>
+      <c r="BP137">
         <v>1.26</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -29305,7 +29305,7 @@
         <v>4</v>
       </c>
       <c r="AV137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW137">
         <v>9</v>
@@ -29317,7 +29317,7 @@
         <v>13</v>
       </c>
       <c r="AZ137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA137">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -780,6 +780,12 @@
   <si>
     <t>['43', '55']</t>
   </si>
+  <si>
+    <t>['7', '63', '79']</t>
+  </si>
+  <si>
+    <t>['61', '90+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1140,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1686,7 +1692,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ3">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2095,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ5">
         <v>2.11</v>
@@ -2301,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6">
         <v>0.89</v>
@@ -2507,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ7">
         <v>1.33</v>
@@ -2716,7 +2722,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3334,7 +3340,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ11">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3746,7 +3752,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -4361,7 +4367,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ16">
         <v>1.11</v>
@@ -4773,10 +4779,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -4982,7 +4988,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR19">
         <v>1.89</v>
@@ -5806,7 +5812,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ23">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6012,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -6630,7 +6636,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ27">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6833,7 +6839,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.75</v>
@@ -8069,10 +8075,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ34">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -8687,10 +8693,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -8893,7 +8899,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ38">
         <v>1.55</v>
@@ -9305,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>0.78</v>
@@ -9926,7 +9932,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ43">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>0.6899999999999999</v>
@@ -10338,7 +10344,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR45">
         <v>1.48</v>
@@ -10541,7 +10547,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.25</v>
@@ -11162,7 +11168,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11571,7 +11577,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12189,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54">
         <v>0.78</v>
@@ -12601,10 +12607,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ56">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -12807,7 +12813,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>2.11</v>
@@ -13013,10 +13019,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ58">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
         <v>1.2</v>
@@ -13219,7 +13225,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ59">
         <v>1.55</v>
@@ -13840,7 +13846,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR62">
         <v>1.31</v>
@@ -14455,7 +14461,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ65">
         <v>0.63</v>
@@ -14664,7 +14670,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ66">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -15076,7 +15082,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ68">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15485,7 +15491,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -16106,7 +16112,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ73">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR73">
         <v>0.8</v>
@@ -16724,7 +16730,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR76">
         <v>1.18</v>
@@ -16927,7 +16933,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -17133,7 +17139,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78">
         <v>1.88</v>
@@ -17545,10 +17551,10 @@
         <v>0.75</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ80">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.38</v>
@@ -18166,7 +18172,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ83">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -19196,7 +19202,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ88">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19399,7 +19405,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ89">
         <v>0.63</v>
@@ -19608,7 +19614,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ90">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.78</v>
@@ -19811,10 +19817,10 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ91">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR91">
         <v>1.05</v>
@@ -20223,7 +20229,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ93">
         <v>1.25</v>
@@ -21047,10 +21053,10 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21668,7 +21674,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR100">
         <v>1.43</v>
@@ -22695,7 +22701,7 @@
         <v>1.8</v>
       </c>
       <c r="AP105">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ105">
         <v>1.88</v>
@@ -23107,7 +23113,7 @@
         <v>2.14</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ107">
         <v>2.11</v>
@@ -23728,7 +23734,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ110">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR110">
         <v>1.77</v>
@@ -23931,7 +23937,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ111">
         <v>0.38</v>
@@ -24343,10 +24349,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ113">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.08</v>
@@ -24964,7 +24970,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ116">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR116">
         <v>1.25</v>
@@ -25785,7 +25791,7 @@
         <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
         <v>1.55</v>
@@ -26403,10 +26409,10 @@
         <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ123">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
@@ -26612,7 +26618,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ124">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -26815,10 +26821,10 @@
         <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ125">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR125">
         <v>1.09</v>
@@ -27024,7 +27030,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ126">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27227,7 +27233,7 @@
         <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ127">
         <v>0.38</v>
@@ -27433,7 +27439,7 @@
         <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ128">
         <v>1.88</v>
@@ -29366,6 +29372,830 @@
       </c>
       <c r="BP137">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7446489</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45465.41666666666</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138" t="s">
+        <v>74</v>
+      </c>
+      <c r="H138" t="s">
+        <v>85</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>93</v>
+      </c>
+      <c r="P138" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q138">
+        <v>3.15</v>
+      </c>
+      <c r="R138">
+        <v>1.89</v>
+      </c>
+      <c r="S138">
+        <v>3.7</v>
+      </c>
+      <c r="T138">
+        <v>1.54</v>
+      </c>
+      <c r="U138">
+        <v>2.38</v>
+      </c>
+      <c r="V138">
+        <v>3.54</v>
+      </c>
+      <c r="W138">
+        <v>1.27</v>
+      </c>
+      <c r="X138">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y138">
+        <v>1.03</v>
+      </c>
+      <c r="Z138">
+        <v>2.6</v>
+      </c>
+      <c r="AA138">
+        <v>2.9</v>
+      </c>
+      <c r="AB138">
+        <v>2.9</v>
+      </c>
+      <c r="AC138">
+        <v>1.1</v>
+      </c>
+      <c r="AD138">
+        <v>6.97</v>
+      </c>
+      <c r="AE138">
+        <v>1.48</v>
+      </c>
+      <c r="AF138">
+        <v>2.68</v>
+      </c>
+      <c r="AG138">
+        <v>2.5</v>
+      </c>
+      <c r="AH138">
+        <v>1.5</v>
+      </c>
+      <c r="AI138">
+        <v>2.02</v>
+      </c>
+      <c r="AJ138">
+        <v>1.67</v>
+      </c>
+      <c r="AK138">
+        <v>1.36</v>
+      </c>
+      <c r="AL138">
+        <v>1.33</v>
+      </c>
+      <c r="AM138">
+        <v>1.48</v>
+      </c>
+      <c r="AN138">
+        <v>1.67</v>
+      </c>
+      <c r="AO138">
+        <v>1.1</v>
+      </c>
+      <c r="AP138">
+        <v>1.6</v>
+      </c>
+      <c r="AQ138">
+        <v>1.09</v>
+      </c>
+      <c r="AR138">
+        <v>1.12</v>
+      </c>
+      <c r="AS138">
+        <v>1.3</v>
+      </c>
+      <c r="AT138">
+        <v>2.42</v>
+      </c>
+      <c r="AU138">
+        <v>2</v>
+      </c>
+      <c r="AV138">
+        <v>7</v>
+      </c>
+      <c r="AW138">
+        <v>6</v>
+      </c>
+      <c r="AX138">
+        <v>10</v>
+      </c>
+      <c r="AY138">
+        <v>8</v>
+      </c>
+      <c r="AZ138">
+        <v>17</v>
+      </c>
+      <c r="BA138">
+        <v>3</v>
+      </c>
+      <c r="BB138">
+        <v>7</v>
+      </c>
+      <c r="BC138">
+        <v>10</v>
+      </c>
+      <c r="BD138">
+        <v>1.62</v>
+      </c>
+      <c r="BE138">
+        <v>8</v>
+      </c>
+      <c r="BF138">
+        <v>2.62</v>
+      </c>
+      <c r="BG138">
+        <v>1.25</v>
+      </c>
+      <c r="BH138">
+        <v>3.6</v>
+      </c>
+      <c r="BI138">
+        <v>1.4</v>
+      </c>
+      <c r="BJ138">
+        <v>2.75</v>
+      </c>
+      <c r="BK138">
+        <v>1.77</v>
+      </c>
+      <c r="BL138">
+        <v>1.95</v>
+      </c>
+      <c r="BM138">
+        <v>2.23</v>
+      </c>
+      <c r="BN138">
+        <v>1.63</v>
+      </c>
+      <c r="BO138">
+        <v>3</v>
+      </c>
+      <c r="BP138">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7446487</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45465.52083333334</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="G139" t="s">
+        <v>73</v>
+      </c>
+      <c r="H139" t="s">
+        <v>71</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>139</v>
+      </c>
+      <c r="P139" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q139">
+        <v>3.25</v>
+      </c>
+      <c r="R139">
+        <v>1.9</v>
+      </c>
+      <c r="S139">
+        <v>3.55</v>
+      </c>
+      <c r="T139">
+        <v>1.55</v>
+      </c>
+      <c r="U139">
+        <v>2.3</v>
+      </c>
+      <c r="V139">
+        <v>3.5</v>
+      </c>
+      <c r="W139">
+        <v>1.25</v>
+      </c>
+      <c r="X139">
+        <v>9.6</v>
+      </c>
+      <c r="Y139">
+        <v>1.03</v>
+      </c>
+      <c r="Z139">
+        <v>2.7</v>
+      </c>
+      <c r="AA139">
+        <v>3</v>
+      </c>
+      <c r="AB139">
+        <v>2.7</v>
+      </c>
+      <c r="AC139">
+        <v>1.09</v>
+      </c>
+      <c r="AD139">
+        <v>6.5</v>
+      </c>
+      <c r="AE139">
+        <v>1.48</v>
+      </c>
+      <c r="AF139">
+        <v>2.55</v>
+      </c>
+      <c r="AG139">
+        <v>2.35</v>
+      </c>
+      <c r="AH139">
+        <v>1.55</v>
+      </c>
+      <c r="AI139">
+        <v>1.95</v>
+      </c>
+      <c r="AJ139">
+        <v>1.7</v>
+      </c>
+      <c r="AK139">
+        <v>1.4</v>
+      </c>
+      <c r="AL139">
+        <v>1.3</v>
+      </c>
+      <c r="AM139">
+        <v>1.48</v>
+      </c>
+      <c r="AN139">
+        <v>0.67</v>
+      </c>
+      <c r="AO139">
+        <v>1.13</v>
+      </c>
+      <c r="AP139">
+        <v>0.6</v>
+      </c>
+      <c r="AQ139">
+        <v>1.33</v>
+      </c>
+      <c r="AR139">
+        <v>1.07</v>
+      </c>
+      <c r="AS139">
+        <v>1.28</v>
+      </c>
+      <c r="AT139">
+        <v>2.35</v>
+      </c>
+      <c r="AU139">
+        <v>5</v>
+      </c>
+      <c r="AV139">
+        <v>7</v>
+      </c>
+      <c r="AW139">
+        <v>6</v>
+      </c>
+      <c r="AX139">
+        <v>2</v>
+      </c>
+      <c r="AY139">
+        <v>11</v>
+      </c>
+      <c r="AZ139">
+        <v>9</v>
+      </c>
+      <c r="BA139">
+        <v>6</v>
+      </c>
+      <c r="BB139">
+        <v>2</v>
+      </c>
+      <c r="BC139">
+        <v>8</v>
+      </c>
+      <c r="BD139">
+        <v>2.4</v>
+      </c>
+      <c r="BE139">
+        <v>8</v>
+      </c>
+      <c r="BF139">
+        <v>1.73</v>
+      </c>
+      <c r="BG139">
+        <v>1.23</v>
+      </c>
+      <c r="BH139">
+        <v>3.56</v>
+      </c>
+      <c r="BI139">
+        <v>1.44</v>
+      </c>
+      <c r="BJ139">
+        <v>2.51</v>
+      </c>
+      <c r="BK139">
+        <v>1.77</v>
+      </c>
+      <c r="BL139">
+        <v>1.95</v>
+      </c>
+      <c r="BM139">
+        <v>2.05</v>
+      </c>
+      <c r="BN139">
+        <v>1.7</v>
+      </c>
+      <c r="BO139">
+        <v>3.04</v>
+      </c>
+      <c r="BP139">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7446486</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45465.625</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+      <c r="G140" t="s">
+        <v>75</v>
+      </c>
+      <c r="H140" t="s">
+        <v>82</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>93</v>
+      </c>
+      <c r="P140" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q140">
+        <v>3.65</v>
+      </c>
+      <c r="R140">
+        <v>2.18</v>
+      </c>
+      <c r="S140">
+        <v>3.09</v>
+      </c>
+      <c r="T140">
+        <v>1.41</v>
+      </c>
+      <c r="U140">
+        <v>2.9</v>
+      </c>
+      <c r="V140">
+        <v>3.06</v>
+      </c>
+      <c r="W140">
+        <v>1.38</v>
+      </c>
+      <c r="X140">
+        <v>7.6</v>
+      </c>
+      <c r="Y140">
+        <v>1.06</v>
+      </c>
+      <c r="Z140">
+        <v>2.8</v>
+      </c>
+      <c r="AA140">
+        <v>3.1</v>
+      </c>
+      <c r="AB140">
+        <v>2.38</v>
+      </c>
+      <c r="AC140">
+        <v>1.03</v>
+      </c>
+      <c r="AD140">
+        <v>8.4</v>
+      </c>
+      <c r="AE140">
+        <v>1.31</v>
+      </c>
+      <c r="AF140">
+        <v>3.04</v>
+      </c>
+      <c r="AG140">
+        <v>2</v>
+      </c>
+      <c r="AH140">
+        <v>1.73</v>
+      </c>
+      <c r="AI140">
+        <v>1.76</v>
+      </c>
+      <c r="AJ140">
+        <v>1.91</v>
+      </c>
+      <c r="AK140">
+        <v>1.57</v>
+      </c>
+      <c r="AL140">
+        <v>1.33</v>
+      </c>
+      <c r="AM140">
+        <v>1.4</v>
+      </c>
+      <c r="AN140">
+        <v>1</v>
+      </c>
+      <c r="AO140">
+        <v>1.75</v>
+      </c>
+      <c r="AP140">
+        <v>0.9</v>
+      </c>
+      <c r="AQ140">
+        <v>1.89</v>
+      </c>
+      <c r="AR140">
+        <v>1.34</v>
+      </c>
+      <c r="AS140">
+        <v>1.6</v>
+      </c>
+      <c r="AT140">
+        <v>2.94</v>
+      </c>
+      <c r="AU140">
+        <v>4</v>
+      </c>
+      <c r="AV140">
+        <v>3</v>
+      </c>
+      <c r="AW140">
+        <v>4</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>8</v>
+      </c>
+      <c r="AZ140">
+        <v>6</v>
+      </c>
+      <c r="BA140">
+        <v>5</v>
+      </c>
+      <c r="BB140">
+        <v>3</v>
+      </c>
+      <c r="BC140">
+        <v>8</v>
+      </c>
+      <c r="BD140">
+        <v>2.2</v>
+      </c>
+      <c r="BE140">
+        <v>8</v>
+      </c>
+      <c r="BF140">
+        <v>1.83</v>
+      </c>
+      <c r="BG140">
+        <v>1.22</v>
+      </c>
+      <c r="BH140">
+        <v>3.64</v>
+      </c>
+      <c r="BI140">
+        <v>1.43</v>
+      </c>
+      <c r="BJ140">
+        <v>2.54</v>
+      </c>
+      <c r="BK140">
+        <v>1.77</v>
+      </c>
+      <c r="BL140">
+        <v>1.95</v>
+      </c>
+      <c r="BM140">
+        <v>2.23</v>
+      </c>
+      <c r="BN140">
+        <v>1.55</v>
+      </c>
+      <c r="BO140">
+        <v>2.98</v>
+      </c>
+      <c r="BP140">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7446484</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45465.75</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141" t="s">
+        <v>84</v>
+      </c>
+      <c r="H141" t="s">
+        <v>80</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>93</v>
+      </c>
+      <c r="P141" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q141">
+        <v>5</v>
+      </c>
+      <c r="R141">
+        <v>2.2</v>
+      </c>
+      <c r="S141">
+        <v>2.4</v>
+      </c>
+      <c r="T141">
+        <v>1.4</v>
+      </c>
+      <c r="U141">
+        <v>2.75</v>
+      </c>
+      <c r="V141">
+        <v>3</v>
+      </c>
+      <c r="W141">
+        <v>1.36</v>
+      </c>
+      <c r="X141">
+        <v>8</v>
+      </c>
+      <c r="Y141">
+        <v>1.08</v>
+      </c>
+      <c r="Z141">
+        <v>4.75</v>
+      </c>
+      <c r="AA141">
+        <v>3.75</v>
+      </c>
+      <c r="AB141">
+        <v>1.62</v>
+      </c>
+      <c r="AC141">
+        <v>0</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>0</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>1.91</v>
+      </c>
+      <c r="AH141">
+        <v>1.8</v>
+      </c>
+      <c r="AI141">
+        <v>1.91</v>
+      </c>
+      <c r="AJ141">
+        <v>1.8</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>2.25</v>
+      </c>
+      <c r="AO141">
+        <v>2.44</v>
+      </c>
+      <c r="AP141">
+        <v>2</v>
+      </c>
+      <c r="AQ141">
+        <v>2.5</v>
+      </c>
+      <c r="AR141">
+        <v>1.64</v>
+      </c>
+      <c r="AS141">
+        <v>1.44</v>
+      </c>
+      <c r="AT141">
+        <v>3.08</v>
+      </c>
+      <c r="AU141">
+        <v>2</v>
+      </c>
+      <c r="AV141">
+        <v>4</v>
+      </c>
+      <c r="AW141">
+        <v>3</v>
+      </c>
+      <c r="AX141">
+        <v>4</v>
+      </c>
+      <c r="AY141">
+        <v>5</v>
+      </c>
+      <c r="AZ141">
+        <v>8</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>3</v>
+      </c>
+      <c r="BC141">
+        <v>3</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>0</v>
+      </c>
+      <c r="BJ141">
+        <v>0</v>
+      </c>
+      <c r="BK141">
+        <v>0</v>
+      </c>
+      <c r="BL141">
+        <v>0</v>
+      </c>
+      <c r="BM141">
+        <v>0</v>
+      </c>
+      <c r="BN141">
+        <v>0</v>
+      </c>
+      <c r="BO141">
+        <v>0</v>
+      </c>
+      <c r="BP141">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,12 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -650,9 +656,6 @@
   </si>
   <si>
     <t>['67']</t>
-  </si>
-  <si>
-    <t>['41']</t>
   </si>
   <si>
     <t>['39', '52', '59']</t>
@@ -781,10 +784,22 @@
     <t>['43', '55']</t>
   </si>
   <si>
-    <t>['7', '63', '79']</t>
+    <t>['6', '63', '79']</t>
   </si>
   <si>
-    <t>['61', '90+1']</t>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['60', '90+1']</t>
+  </si>
+  <si>
+    <t>['29', '49']</t>
+  </si>
+  <si>
+    <t>['13', '45+5', '49', '75']</t>
+  </si>
+  <si>
+    <t>['20', '41', '66']</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1420,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1486,7 +1501,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ2">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1611,7 +1626,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1817,7 +1832,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2023,7 +2038,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2104,7 +2119,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ5">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2435,7 +2450,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2641,7 +2656,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2719,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ8">
         <v>2.5</v>
@@ -2847,7 +2862,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3131,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ10">
         <v>1.75</v>
@@ -3546,7 +3561,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3749,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3955,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ14">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4289,7 +4304,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4495,7 +4510,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4701,7 +4716,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5319,7 +5334,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5400,7 +5415,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ21">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR21">
         <v>1.09</v>
@@ -5525,7 +5540,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5603,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -5731,7 +5746,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5809,7 +5824,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>2.5</v>
@@ -5937,7 +5952,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6143,7 +6158,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6224,7 +6239,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR25">
         <v>1.39</v>
@@ -6555,7 +6570,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6633,7 +6648,7 @@
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ27">
         <v>1.09</v>
@@ -6761,7 +6776,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6967,7 +6982,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7048,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.71</v>
@@ -7251,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ30">
         <v>0.78</v>
@@ -7457,7 +7472,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31">
         <v>1.25</v>
@@ -7872,7 +7887,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ33">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -7997,7 +8012,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8203,7 +8218,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8281,10 +8296,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR35">
         <v>0.51</v>
@@ -8821,7 +8836,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -9027,7 +9042,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9233,7 +9248,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9439,7 +9454,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9517,7 +9532,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ41">
         <v>1.75</v>
@@ -9726,7 +9741,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.51</v>
@@ -9929,7 +9944,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.33</v>
@@ -10057,7 +10072,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10135,10 +10150,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ44">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10675,7 +10690,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10881,7 +10896,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10959,10 +10974,10 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ48">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11087,7 +11102,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11293,7 +11308,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11499,7 +11514,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11580,7 +11595,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR51">
         <v>1.16</v>
@@ -11705,7 +11720,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12323,7 +12338,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12529,7 +12544,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12816,7 +12831,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13147,7 +13162,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13353,7 +13368,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13431,7 +13446,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>1.75</v>
@@ -13559,7 +13574,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13640,7 +13655,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -13971,7 +13986,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14049,7 +14064,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ63">
         <v>1.33</v>
@@ -14177,7 +14192,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14258,7 +14273,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>1.2</v>
@@ -14383,7 +14398,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14667,7 +14682,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ66">
         <v>1.89</v>
@@ -14795,7 +14810,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15001,7 +15016,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15207,7 +15222,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15413,7 +15428,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15494,7 +15509,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15619,7 +15634,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15825,7 +15840,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16031,7 +16046,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16109,7 +16124,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>1.89</v>
@@ -16237,7 +16252,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16315,7 +16330,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>1.25</v>
@@ -16521,10 +16536,10 @@
         <v>2.4</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ75">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR75">
         <v>1.21</v>
@@ -16649,7 +16664,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17061,7 +17076,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17142,7 +17157,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ78">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.11</v>
@@ -17267,7 +17282,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17760,7 +17775,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ81">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
         <v>1.33</v>
@@ -17885,7 +17900,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18091,7 +18106,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18169,7 +18184,7 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ83">
         <v>2.5</v>
@@ -18297,7 +18312,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18503,7 +18518,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18584,7 +18599,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18787,7 +18802,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ86">
         <v>1.11</v>
@@ -18915,7 +18930,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19121,7 +19136,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19533,7 +19548,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20026,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -20151,7 +20166,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20563,7 +20578,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20641,7 +20656,7 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ95">
         <v>1.55</v>
@@ -20769,7 +20784,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20847,10 +20862,10 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR96">
         <v>0.91</v>
@@ -20975,7 +20990,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21387,7 +21402,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21593,7 +21608,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22289,7 +22304,7 @@
         <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ103">
         <v>1.55</v>
@@ -22417,7 +22432,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22495,10 +22510,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR104">
         <v>1.56</v>
@@ -22623,7 +22638,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22704,7 +22719,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ105">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR105">
         <v>1.17</v>
@@ -23035,7 +23050,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23116,7 +23131,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ107">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -23447,7 +23462,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23525,7 +23540,7 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ109">
         <v>0.78</v>
@@ -23859,7 +23874,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -23940,7 +23955,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ111">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24271,7 +24286,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24555,7 +24570,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ114">
         <v>0.78</v>
@@ -24683,7 +24698,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24889,7 +24904,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25176,7 +25191,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR117">
         <v>1.4</v>
@@ -25301,7 +25316,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25379,7 +25394,7 @@
         <v>0.33</v>
       </c>
       <c r="AP118">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ118">
         <v>0.63</v>
@@ -25507,7 +25522,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25919,7 +25934,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26000,7 +26015,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ121">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26125,7 +26140,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26203,10 +26218,10 @@
         <v>0.71</v>
       </c>
       <c r="AP122">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR122">
         <v>1.55</v>
@@ -26331,7 +26346,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26615,7 +26630,7 @@
         <v>2.75</v>
       </c>
       <c r="AP124">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ124">
         <v>2.5</v>
@@ -26743,7 +26758,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -26949,7 +26964,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27027,7 +27042,7 @@
         <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ126">
         <v>1.09</v>
@@ -27236,7 +27251,7 @@
         <v>2</v>
       </c>
       <c r="AQ127">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR127">
         <v>1.68</v>
@@ -27442,7 +27457,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ128">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR128">
         <v>1.14</v>
@@ -27645,10 +27660,10 @@
         <v>2.25</v>
       </c>
       <c r="AP129">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ129">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR129">
         <v>1.01</v>
@@ -28185,7 +28200,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28597,7 +28612,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q134">
         <v>2.91</v>
@@ -29009,7 +29024,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29215,7 +29230,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29624,10 +29639,10 @@
         <v>4</v>
       </c>
       <c r="O139" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29833,7 +29848,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30039,7 +30054,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30132,70 +30147,894 @@
         <v>3.08</v>
       </c>
       <c r="AU141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV141">
+        <v>6</v>
+      </c>
+      <c r="AW141">
+        <v>6</v>
+      </c>
+      <c r="AX141">
+        <v>9</v>
+      </c>
+      <c r="AY141">
+        <v>9</v>
+      </c>
+      <c r="AZ141">
+        <v>15</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
         <v>4</v>
       </c>
-      <c r="AW141">
-        <v>3</v>
-      </c>
-      <c r="AX141">
+      <c r="BC141">
         <v>4</v>
       </c>
-      <c r="AY141">
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>0</v>
+      </c>
+      <c r="BJ141">
+        <v>0</v>
+      </c>
+      <c r="BK141">
+        <v>0</v>
+      </c>
+      <c r="BL141">
+        <v>0</v>
+      </c>
+      <c r="BM141">
+        <v>0</v>
+      </c>
+      <c r="BN141">
+        <v>0</v>
+      </c>
+      <c r="BO141">
+        <v>0</v>
+      </c>
+      <c r="BP141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7446490</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45466.41666666666</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>79</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
+        <v>181</v>
+      </c>
+      <c r="P142" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q142">
+        <v>2.62</v>
+      </c>
+      <c r="R142">
+        <v>2.1</v>
+      </c>
+      <c r="S142">
+        <v>3.7</v>
+      </c>
+      <c r="T142">
+        <v>1.4</v>
+      </c>
+      <c r="U142">
+        <v>2.75</v>
+      </c>
+      <c r="V142">
+        <v>2.75</v>
+      </c>
+      <c r="W142">
+        <v>1.4</v>
+      </c>
+      <c r="X142">
+        <v>6.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.1</v>
+      </c>
+      <c r="Z142">
+        <v>2.15</v>
+      </c>
+      <c r="AA142">
+        <v>3.2</v>
+      </c>
+      <c r="AB142">
+        <v>3.1</v>
+      </c>
+      <c r="AC142">
+        <v>1.02</v>
+      </c>
+      <c r="AD142">
+        <v>8.6</v>
+      </c>
+      <c r="AE142">
+        <v>1.29</v>
+      </c>
+      <c r="AF142">
+        <v>3.14</v>
+      </c>
+      <c r="AG142">
+        <v>2</v>
+      </c>
+      <c r="AH142">
+        <v>1.73</v>
+      </c>
+      <c r="AI142">
+        <v>1.8</v>
+      </c>
+      <c r="AJ142">
+        <v>1.91</v>
+      </c>
+      <c r="AK142">
+        <v>1.3</v>
+      </c>
+      <c r="AL142">
+        <v>1.33</v>
+      </c>
+      <c r="AM142">
+        <v>1.67</v>
+      </c>
+      <c r="AN142">
+        <v>0.91</v>
+      </c>
+      <c r="AO142">
+        <v>2.11</v>
+      </c>
+      <c r="AP142">
+        <v>1.08</v>
+      </c>
+      <c r="AQ142">
+        <v>1.9</v>
+      </c>
+      <c r="AR142">
+        <v>1.52</v>
+      </c>
+      <c r="AS142">
+        <v>1.22</v>
+      </c>
+      <c r="AT142">
+        <v>2.74</v>
+      </c>
+      <c r="AU142">
+        <v>2</v>
+      </c>
+      <c r="AV142">
+        <v>0</v>
+      </c>
+      <c r="AW142">
         <v>5</v>
       </c>
-      <c r="AZ141">
+      <c r="AX142">
+        <v>6</v>
+      </c>
+      <c r="AY142">
+        <v>7</v>
+      </c>
+      <c r="AZ142">
+        <v>6</v>
+      </c>
+      <c r="BA142">
+        <v>5</v>
+      </c>
+      <c r="BB142">
         <v>8</v>
       </c>
-      <c r="BA141">
-        <v>0</v>
-      </c>
-      <c r="BB141">
-        <v>3</v>
-      </c>
-      <c r="BC141">
-        <v>3</v>
-      </c>
-      <c r="BD141">
-        <v>0</v>
-      </c>
-      <c r="BE141">
-        <v>0</v>
-      </c>
-      <c r="BF141">
-        <v>0</v>
-      </c>
-      <c r="BG141">
-        <v>0</v>
-      </c>
-      <c r="BH141">
-        <v>0</v>
-      </c>
-      <c r="BI141">
-        <v>0</v>
-      </c>
-      <c r="BJ141">
-        <v>0</v>
-      </c>
-      <c r="BK141">
-        <v>0</v>
-      </c>
-      <c r="BL141">
-        <v>0</v>
-      </c>
-      <c r="BM141">
-        <v>0</v>
-      </c>
-      <c r="BN141">
-        <v>0</v>
-      </c>
-      <c r="BO141">
-        <v>0</v>
-      </c>
-      <c r="BP141">
-        <v>0</v>
+      <c r="BC142">
+        <v>13</v>
+      </c>
+      <c r="BD142">
+        <v>1.53</v>
+      </c>
+      <c r="BE142">
+        <v>6.75</v>
+      </c>
+      <c r="BF142">
+        <v>3.16</v>
+      </c>
+      <c r="BG142">
+        <v>1.25</v>
+      </c>
+      <c r="BH142">
+        <v>3.6</v>
+      </c>
+      <c r="BI142">
+        <v>1.44</v>
+      </c>
+      <c r="BJ142">
+        <v>2.6</v>
+      </c>
+      <c r="BK142">
+        <v>1.76</v>
+      </c>
+      <c r="BL142">
+        <v>2.05</v>
+      </c>
+      <c r="BM142">
+        <v>2.21</v>
+      </c>
+      <c r="BN142">
+        <v>1.65</v>
+      </c>
+      <c r="BO142">
+        <v>2.7</v>
+      </c>
+      <c r="BP142">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7446491</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45466.52083333334</v>
+      </c>
+      <c r="F143">
+        <v>3</v>
+      </c>
+      <c r="G143" t="s">
+        <v>83</v>
+      </c>
+      <c r="H143" t="s">
+        <v>72</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>98</v>
+      </c>
+      <c r="P143" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q143">
+        <v>3.37</v>
+      </c>
+      <c r="R143">
+        <v>2.1</v>
+      </c>
+      <c r="S143">
+        <v>3.53</v>
+      </c>
+      <c r="T143">
+        <v>1.46</v>
+      </c>
+      <c r="U143">
+        <v>2.7</v>
+      </c>
+      <c r="V143">
+        <v>3.34</v>
+      </c>
+      <c r="W143">
+        <v>1.33</v>
+      </c>
+      <c r="X143">
+        <v>8.5</v>
+      </c>
+      <c r="Y143">
+        <v>1.05</v>
+      </c>
+      <c r="Z143">
+        <v>2.45</v>
+      </c>
+      <c r="AA143">
+        <v>3</v>
+      </c>
+      <c r="AB143">
+        <v>2.62</v>
+      </c>
+      <c r="AC143">
+        <v>1.04</v>
+      </c>
+      <c r="AD143">
+        <v>7.5</v>
+      </c>
+      <c r="AE143">
+        <v>1.36</v>
+      </c>
+      <c r="AF143">
+        <v>2.78</v>
+      </c>
+      <c r="AG143">
+        <v>2.1</v>
+      </c>
+      <c r="AH143">
+        <v>1.6</v>
+      </c>
+      <c r="AI143">
+        <v>1.86</v>
+      </c>
+      <c r="AJ143">
+        <v>1.8</v>
+      </c>
+      <c r="AK143">
+        <v>1.42</v>
+      </c>
+      <c r="AL143">
+        <v>1.31</v>
+      </c>
+      <c r="AM143">
+        <v>1.45</v>
+      </c>
+      <c r="AN143">
+        <v>1.13</v>
+      </c>
+      <c r="AO143">
+        <v>1</v>
+      </c>
+      <c r="AP143">
+        <v>1</v>
+      </c>
+      <c r="AQ143">
+        <v>1.22</v>
+      </c>
+      <c r="AR143">
+        <v>1.03</v>
+      </c>
+      <c r="AS143">
+        <v>1.06</v>
+      </c>
+      <c r="AT143">
+        <v>2.09</v>
+      </c>
+      <c r="AU143">
+        <v>6</v>
+      </c>
+      <c r="AV143">
+        <v>4</v>
+      </c>
+      <c r="AW143">
+        <v>3</v>
+      </c>
+      <c r="AX143">
+        <v>1</v>
+      </c>
+      <c r="AY143">
+        <v>9</v>
+      </c>
+      <c r="AZ143">
+        <v>5</v>
+      </c>
+      <c r="BA143">
+        <v>10</v>
+      </c>
+      <c r="BB143">
+        <v>1</v>
+      </c>
+      <c r="BC143">
+        <v>11</v>
+      </c>
+      <c r="BD143">
+        <v>1.95</v>
+      </c>
+      <c r="BE143">
+        <v>6.3</v>
+      </c>
+      <c r="BF143">
+        <v>2.24</v>
+      </c>
+      <c r="BG143">
+        <v>1.29</v>
+      </c>
+      <c r="BH143">
+        <v>3.3</v>
+      </c>
+      <c r="BI143">
+        <v>1.49</v>
+      </c>
+      <c r="BJ143">
+        <v>2.57</v>
+      </c>
+      <c r="BK143">
+        <v>1.81</v>
+      </c>
+      <c r="BL143">
+        <v>1.98</v>
+      </c>
+      <c r="BM143">
+        <v>2.27</v>
+      </c>
+      <c r="BN143">
+        <v>1.61</v>
+      </c>
+      <c r="BO143">
+        <v>2.8</v>
+      </c>
+      <c r="BP143">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7446488</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45466.625</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+      <c r="G144" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144" t="s">
+        <v>70</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>4</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144" t="s">
+        <v>93</v>
+      </c>
+      <c r="P144" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q144">
+        <v>4.6</v>
+      </c>
+      <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
+        <v>2.38</v>
+      </c>
+      <c r="T144">
+        <v>1.4</v>
+      </c>
+      <c r="U144">
+        <v>2.75</v>
+      </c>
+      <c r="V144">
+        <v>3</v>
+      </c>
+      <c r="W144">
+        <v>1.36</v>
+      </c>
+      <c r="X144">
+        <v>7</v>
+      </c>
+      <c r="Y144">
+        <v>1.08</v>
+      </c>
+      <c r="Z144">
+        <v>4.1</v>
+      </c>
+      <c r="AA144">
+        <v>3.4</v>
+      </c>
+      <c r="AB144">
+        <v>1.83</v>
+      </c>
+      <c r="AC144">
+        <v>1.03</v>
+      </c>
+      <c r="AD144">
+        <v>7.9</v>
+      </c>
+      <c r="AE144">
+        <v>1.34</v>
+      </c>
+      <c r="AF144">
+        <v>2.88</v>
+      </c>
+      <c r="AG144">
+        <v>2.15</v>
+      </c>
+      <c r="AH144">
+        <v>1.66</v>
+      </c>
+      <c r="AI144">
+        <v>1.91</v>
+      </c>
+      <c r="AJ144">
+        <v>1.8</v>
+      </c>
+      <c r="AK144">
+        <v>1.91</v>
+      </c>
+      <c r="AL144">
+        <v>1.3</v>
+      </c>
+      <c r="AM144">
+        <v>1.2</v>
+      </c>
+      <c r="AN144">
+        <v>1.33</v>
+      </c>
+      <c r="AO144">
+        <v>1.88</v>
+      </c>
+      <c r="AP144">
+        <v>1.14</v>
+      </c>
+      <c r="AQ144">
+        <v>2</v>
+      </c>
+      <c r="AR144">
+        <v>1.53</v>
+      </c>
+      <c r="AS144">
+        <v>1.6</v>
+      </c>
+      <c r="AT144">
+        <v>3.13</v>
+      </c>
+      <c r="AU144">
+        <v>0</v>
+      </c>
+      <c r="AV144">
+        <v>8</v>
+      </c>
+      <c r="AW144">
+        <v>5</v>
+      </c>
+      <c r="AX144">
+        <v>4</v>
+      </c>
+      <c r="AY144">
+        <v>5</v>
+      </c>
+      <c r="AZ144">
+        <v>12</v>
+      </c>
+      <c r="BA144">
+        <v>2</v>
+      </c>
+      <c r="BB144">
+        <v>5</v>
+      </c>
+      <c r="BC144">
+        <v>7</v>
+      </c>
+      <c r="BD144">
+        <v>2.75</v>
+      </c>
+      <c r="BE144">
+        <v>8</v>
+      </c>
+      <c r="BF144">
+        <v>1.57</v>
+      </c>
+      <c r="BG144">
+        <v>1.33</v>
+      </c>
+      <c r="BH144">
+        <v>3</v>
+      </c>
+      <c r="BI144">
+        <v>1.57</v>
+      </c>
+      <c r="BJ144">
+        <v>2.25</v>
+      </c>
+      <c r="BK144">
+        <v>1.95</v>
+      </c>
+      <c r="BL144">
+        <v>1.77</v>
+      </c>
+      <c r="BM144">
+        <v>2.47</v>
+      </c>
+      <c r="BN144">
+        <v>1.48</v>
+      </c>
+      <c r="BO144">
+        <v>3.3</v>
+      </c>
+      <c r="BP144">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7446485</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45466.72916666666</v>
+      </c>
+      <c r="F145">
+        <v>3</v>
+      </c>
+      <c r="G145" t="s">
+        <v>78</v>
+      </c>
+      <c r="H145" t="s">
+        <v>77</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="K145">
+        <v>3</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>4</v>
+      </c>
+      <c r="O145" t="s">
+        <v>107</v>
+      </c>
+      <c r="P145" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q145">
+        <v>2.96</v>
+      </c>
+      <c r="R145">
+        <v>1.97</v>
+      </c>
+      <c r="S145">
+        <v>3.68</v>
+      </c>
+      <c r="T145">
+        <v>1.48</v>
+      </c>
+      <c r="U145">
+        <v>2.54</v>
+      </c>
+      <c r="V145">
+        <v>3.2</v>
+      </c>
+      <c r="W145">
+        <v>1.32</v>
+      </c>
+      <c r="X145">
+        <v>8.6</v>
+      </c>
+      <c r="Y145">
+        <v>1.05</v>
+      </c>
+      <c r="Z145">
+        <v>2.4</v>
+      </c>
+      <c r="AA145">
+        <v>3.15</v>
+      </c>
+      <c r="AB145">
+        <v>2.85</v>
+      </c>
+      <c r="AC145">
+        <v>1.04</v>
+      </c>
+      <c r="AD145">
+        <v>7.4</v>
+      </c>
+      <c r="AE145">
+        <v>1.38</v>
+      </c>
+      <c r="AF145">
+        <v>2.71</v>
+      </c>
+      <c r="AG145">
+        <v>2.19</v>
+      </c>
+      <c r="AH145">
+        <v>1.6</v>
+      </c>
+      <c r="AI145">
+        <v>1.88</v>
+      </c>
+      <c r="AJ145">
+        <v>1.78</v>
+      </c>
+      <c r="AK145">
+        <v>1.35</v>
+      </c>
+      <c r="AL145">
+        <v>1.31</v>
+      </c>
+      <c r="AM145">
+        <v>1.53</v>
+      </c>
+      <c r="AN145">
+        <v>1.63</v>
+      </c>
+      <c r="AO145">
+        <v>0.38</v>
+      </c>
+      <c r="AP145">
+        <v>1.44</v>
+      </c>
+      <c r="AQ145">
+        <v>0.67</v>
+      </c>
+      <c r="AR145">
+        <v>1.53</v>
+      </c>
+      <c r="AS145">
+        <v>1.16</v>
+      </c>
+      <c r="AT145">
+        <v>2.69</v>
+      </c>
+      <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
+        <v>6</v>
+      </c>
+      <c r="AW145">
+        <v>8</v>
+      </c>
+      <c r="AX145">
+        <v>2</v>
+      </c>
+      <c r="AY145">
+        <v>12</v>
+      </c>
+      <c r="AZ145">
+        <v>8</v>
+      </c>
+      <c r="BA145">
+        <v>10</v>
+      </c>
+      <c r="BB145">
+        <v>3</v>
+      </c>
+      <c r="BC145">
+        <v>13</v>
+      </c>
+      <c r="BD145">
+        <v>1.9</v>
+      </c>
+      <c r="BE145">
+        <v>6.25</v>
+      </c>
+      <c r="BF145">
+        <v>2.32</v>
+      </c>
+      <c r="BG145">
+        <v>1.36</v>
+      </c>
+      <c r="BH145">
+        <v>2.9</v>
+      </c>
+      <c r="BI145">
+        <v>1.61</v>
+      </c>
+      <c r="BJ145">
+        <v>2.26</v>
+      </c>
+      <c r="BK145">
+        <v>2.01</v>
+      </c>
+      <c r="BL145">
+        <v>1.79</v>
+      </c>
+      <c r="BM145">
+        <v>2.59</v>
+      </c>
+      <c r="BN145">
+        <v>1.48</v>
+      </c>
+      <c r="BO145">
+        <v>3.3</v>
+      </c>
+      <c r="BP145">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,7 +559,10 @@
     <t>['41']</t>
   </si>
   <si>
-    <t>['18']</t>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -793,13 +796,13 @@
     <t>['60', '90+1']</t>
   </si>
   <si>
-    <t>['29', '49']</t>
+    <t>['28', '49']</t>
   </si>
   <si>
-    <t>['13', '45+5', '49', '75']</t>
+    <t>['12', '45+7', '49', '75']</t>
   </si>
   <si>
-    <t>['20', '41', '66']</t>
+    <t>['19', '40', '66']</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1423,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1626,7 +1629,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1832,7 +1835,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2038,7 +2041,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2450,7 +2453,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2656,7 +2659,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2862,7 +2865,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -4304,7 +4307,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4510,7 +4513,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4716,7 +4719,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5334,7 +5337,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5540,7 +5543,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5746,7 +5749,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5952,7 +5955,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6158,7 +6161,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6570,7 +6573,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6776,7 +6779,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6982,7 +6985,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -8012,7 +8015,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8218,7 +8221,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8836,7 +8839,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -9042,7 +9045,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9248,7 +9251,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9454,7 +9457,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10072,7 +10075,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10690,7 +10693,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10896,7 +10899,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11102,7 +11105,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11308,7 +11311,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11514,7 +11517,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11720,7 +11723,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12338,7 +12341,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12544,7 +12547,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13162,7 +13165,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13574,7 +13577,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13986,7 +13989,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14192,7 +14195,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14398,7 +14401,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14810,7 +14813,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15016,7 +15019,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15222,7 +15225,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15428,7 +15431,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15634,7 +15637,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15840,7 +15843,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16046,7 +16049,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16252,7 +16255,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16664,7 +16667,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17076,7 +17079,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17282,7 +17285,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17900,7 +17903,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18106,7 +18109,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18312,7 +18315,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18518,7 +18521,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18930,7 +18933,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19136,7 +19139,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19548,7 +19551,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20166,7 +20169,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20578,7 +20581,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20784,7 +20787,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20990,7 +20993,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21402,7 +21405,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21608,7 +21611,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22432,7 +22435,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22638,7 +22641,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23050,7 +23053,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23462,7 +23465,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23874,7 +23877,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24286,7 +24289,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24698,7 +24701,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24904,7 +24907,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25316,7 +25319,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25522,7 +25525,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25934,7 +25937,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26140,7 +26143,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26346,7 +26349,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26758,7 +26761,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -26964,7 +26967,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -28200,7 +28203,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28612,7 +28615,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>2.91</v>
@@ -29024,7 +29027,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29230,7 +29233,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29642,7 +29645,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29848,7 +29851,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30054,7 +30057,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30466,7 +30469,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30672,7 +30675,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30875,10 +30878,10 @@
         <v>4</v>
       </c>
       <c r="O145" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q145">
         <v>2.96</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,24 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['35', '80']</t>
+  </si>
+  <si>
+    <t>['8', '44', '78']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['14', '39']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -665,9 +683,6 @@
   </si>
   <si>
     <t>['40', '85']</t>
-  </si>
-  <si>
-    <t>['57']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -803,6 +818,15 @@
   </si>
   <si>
     <t>['19', '40', '66']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['4', '84']</t>
+  </si>
+  <si>
+    <t>['52', '56', '58']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1447,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1501,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1629,7 +1653,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1707,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1835,7 +1859,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1913,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ4">
         <v>1.11</v>
@@ -2041,7 +2065,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2328,7 +2352,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2453,7 +2477,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2534,7 +2558,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2659,7 +2683,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2737,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ8">
         <v>2.5</v>
@@ -2865,7 +2889,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2946,7 +2970,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3152,7 +3176,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3355,10 +3379,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3561,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>1.22</v>
@@ -3767,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -4179,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ15">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4307,7 +4331,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4513,7 +4537,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4591,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ17">
         <v>1.55</v>
@@ -4719,7 +4743,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5006,7 +5030,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>1.89</v>
@@ -5209,10 +5233,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ20">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5337,7 +5361,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5415,7 +5439,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.9</v>
@@ -5543,7 +5567,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5624,7 +5648,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR22">
         <v>1.2</v>
@@ -5749,7 +5773,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5955,7 +5979,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6033,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -6161,7 +6185,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6445,10 +6469,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -6573,7 +6597,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6654,7 +6678,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ27">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6779,7 +6803,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6857,10 +6881,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6985,7 +7009,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7063,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7269,10 +7293,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7478,7 +7502,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR31">
         <v>0.74</v>
@@ -7681,10 +7705,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR32">
         <v>1.15</v>
@@ -7887,10 +7911,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -8015,7 +8039,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8221,7 +8245,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8505,7 +8529,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ36">
         <v>1.11</v>
@@ -8839,7 +8863,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -9045,7 +9069,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9126,7 +9150,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9251,7 +9275,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9329,10 +9353,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ40">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
         <v>1.57</v>
@@ -9457,7 +9481,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9535,10 +9559,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9741,7 +9765,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ42">
         <v>2</v>
@@ -10075,7 +10099,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10156,7 +10180,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10359,10 +10383,10 @@
         <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ45">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.48</v>
@@ -10565,10 +10589,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR46">
         <v>1.56</v>
@@ -10693,7 +10717,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10771,10 +10795,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ47">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10899,7 +10923,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11105,7 +11129,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11183,7 +11207,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>1.89</v>
@@ -11311,7 +11335,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11392,7 +11416,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR50">
         <v>1.19</v>
@@ -11517,7 +11541,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11723,7 +11747,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12007,7 +12031,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ53">
         <v>1.55</v>
@@ -12216,7 +12240,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12341,7 +12365,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12419,10 +12443,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR55">
         <v>1.09</v>
@@ -12547,7 +12571,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12831,7 +12855,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ57">
         <v>1.9</v>
@@ -13165,7 +13189,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13452,7 +13476,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13577,7 +13601,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13655,10 +13679,10 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -13861,10 +13885,10 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.31</v>
@@ -13989,7 +14013,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14070,7 +14094,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14195,7 +14219,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14273,7 +14297,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ64">
         <v>2</v>
@@ -14401,7 +14425,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14482,7 +14506,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ65">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14813,7 +14837,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15019,7 +15043,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15097,7 +15121,7 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68">
         <v>2.5</v>
@@ -15225,7 +15249,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15303,10 +15327,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ69">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -15431,7 +15455,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15637,7 +15661,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15715,10 +15739,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR71">
         <v>1.16</v>
@@ -15843,7 +15867,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16049,7 +16073,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16255,7 +16279,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16336,7 +16360,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR74">
         <v>0.9</v>
@@ -16539,7 +16563,7 @@
         <v>2.4</v>
       </c>
       <c r="AP75">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75">
         <v>1.9</v>
@@ -16667,7 +16691,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16745,10 +16769,10 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ76">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
         <v>1.18</v>
@@ -16951,10 +16975,10 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17079,7 +17103,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17285,7 +17309,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17363,10 +17387,10 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ79">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -17775,10 +17799,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR81">
         <v>1.33</v>
@@ -17903,7 +17927,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17984,7 +18008,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18109,7 +18133,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18315,7 +18339,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18393,10 +18417,10 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ84">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18521,7 +18545,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18599,7 +18623,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85">
         <v>1.22</v>
@@ -18933,7 +18957,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19139,7 +19163,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19217,7 +19241,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>1.89</v>
@@ -19426,7 +19450,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ89">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR89">
         <v>1.29</v>
@@ -19551,7 +19575,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19629,7 +19653,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19838,7 +19862,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ91">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
         <v>1.05</v>
@@ -20041,10 +20065,10 @@
         <v>0.4</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -20169,7 +20193,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20250,7 +20274,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
         <v>1.47</v>
@@ -20453,10 +20477,10 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ94">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR94">
         <v>1.37</v>
@@ -20581,7 +20605,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20787,7 +20811,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20993,7 +21017,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21071,7 +21095,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ97">
         <v>1.89</v>
@@ -21277,7 +21301,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>1.11</v>
@@ -21405,7 +21429,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21486,7 +21510,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21611,7 +21635,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21689,7 +21713,7 @@
         <v>2.67</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ100">
         <v>2.5</v>
@@ -21898,7 +21922,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR101">
         <v>1.11</v>
@@ -22101,10 +22125,10 @@
         <v>0.4</v>
       </c>
       <c r="AP102">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ102">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR102">
         <v>1.47</v>
@@ -22435,7 +22459,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22641,7 +22665,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22925,7 +22949,7 @@
         <v>1.29</v>
       </c>
       <c r="AP106">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ106">
         <v>1.11</v>
@@ -23053,7 +23077,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23337,10 +23361,10 @@
         <v>1.14</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ108">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR108">
         <v>1.21</v>
@@ -23465,7 +23489,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23546,7 +23570,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ109">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -23749,10 +23773,10 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ110">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR110">
         <v>1.77</v>
@@ -23877,7 +23901,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -23958,7 +23982,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ111">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24161,7 +24185,7 @@
         <v>1.38</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ112">
         <v>1.55</v>
@@ -24289,7 +24313,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24576,7 +24600,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ114">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR114">
         <v>1.67</v>
@@ -24701,7 +24725,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24782,7 +24806,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ115">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -24907,7 +24931,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -24985,7 +25009,7 @@
         <v>2.71</v>
       </c>
       <c r="AP116">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
         <v>2.5</v>
@@ -25191,7 +25215,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ117">
         <v>1.22</v>
@@ -25319,7 +25343,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25400,7 +25424,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ118">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -25525,7 +25549,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25606,7 +25630,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR119">
         <v>1.01</v>
@@ -25809,7 +25833,7 @@
         <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ120">
         <v>1.55</v>
@@ -25937,7 +25961,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26015,7 +26039,7 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ121">
         <v>2</v>
@@ -26143,7 +26167,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26349,7 +26373,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26761,7 +26785,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -26967,7 +26991,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27045,10 +27069,10 @@
         <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27251,10 +27275,10 @@
         <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ127">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR127">
         <v>1.68</v>
@@ -27869,10 +27893,10 @@
         <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ130">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR130">
         <v>1.22</v>
@@ -28078,7 +28102,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ131">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR131">
         <v>1.46</v>
@@ -28203,7 +28227,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28281,10 +28305,10 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ132">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR132">
         <v>1.77</v>
@@ -28487,7 +28511,7 @@
         <v>1.13</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ133">
         <v>1.11</v>
@@ -28615,7 +28639,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q134">
         <v>2.91</v>
@@ -28693,10 +28717,10 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ134">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR134">
         <v>1.24</v>
@@ -28902,7 +28926,7 @@
         <v>1</v>
       </c>
       <c r="AQ135">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR135">
         <v>1.01</v>
@@ -29027,7 +29051,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29105,10 +29129,10 @@
         <v>1.86</v>
       </c>
       <c r="AP136">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ136">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR136">
         <v>1.33</v>
@@ -29233,7 +29257,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29311,7 +29335,7 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ137">
         <v>1.55</v>
@@ -29520,7 +29544,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ138">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR138">
         <v>1.12</v>
@@ -29645,7 +29669,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29851,7 +29875,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30057,7 +30081,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30135,7 +30159,7 @@
         <v>2.44</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ141">
         <v>2.5</v>
@@ -30469,7 +30493,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30675,7 +30699,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30753,7 +30777,7 @@
         <v>1.88</v>
       </c>
       <c r="AP144">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ144">
         <v>2</v>
@@ -30881,7 +30905,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -30962,7 +30986,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ145">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR145">
         <v>1.53</v>
@@ -31038,6 +31062,1654 @@
       </c>
       <c r="BP145">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7446499</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45479.41666666666</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="G146" t="s">
+        <v>76</v>
+      </c>
+      <c r="H146" t="s">
+        <v>81</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>183</v>
+      </c>
+      <c r="P146" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q146">
+        <v>3.42</v>
+      </c>
+      <c r="R146">
+        <v>1.93</v>
+      </c>
+      <c r="S146">
+        <v>3.26</v>
+      </c>
+      <c r="T146">
+        <v>1.49</v>
+      </c>
+      <c r="U146">
+        <v>2.51</v>
+      </c>
+      <c r="V146">
+        <v>3.14</v>
+      </c>
+      <c r="W146">
+        <v>1.33</v>
+      </c>
+      <c r="X146">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y146">
+        <v>1.05</v>
+      </c>
+      <c r="Z146">
+        <v>2.62</v>
+      </c>
+      <c r="AA146">
+        <v>3.1</v>
+      </c>
+      <c r="AB146">
+        <v>2.6</v>
+      </c>
+      <c r="AC146">
+        <v>1.05</v>
+      </c>
+      <c r="AD146">
+        <v>7.2</v>
+      </c>
+      <c r="AE146">
+        <v>1.35</v>
+      </c>
+      <c r="AF146">
+        <v>2.84</v>
+      </c>
+      <c r="AG146">
+        <v>2.1</v>
+      </c>
+      <c r="AH146">
+        <v>1.65</v>
+      </c>
+      <c r="AI146">
+        <v>1.83</v>
+      </c>
+      <c r="AJ146">
+        <v>1.83</v>
+      </c>
+      <c r="AK146">
+        <v>1.43</v>
+      </c>
+      <c r="AL146">
+        <v>1.33</v>
+      </c>
+      <c r="AM146">
+        <v>1.41</v>
+      </c>
+      <c r="AN146">
+        <v>1.14</v>
+      </c>
+      <c r="AO146">
+        <v>1.33</v>
+      </c>
+      <c r="AP146">
+        <v>1.38</v>
+      </c>
+      <c r="AQ146">
+        <v>1.14</v>
+      </c>
+      <c r="AR146">
+        <v>1.41</v>
+      </c>
+      <c r="AS146">
+        <v>1.65</v>
+      </c>
+      <c r="AT146">
+        <v>3.06</v>
+      </c>
+      <c r="AU146">
+        <v>4</v>
+      </c>
+      <c r="AV146">
+        <v>5</v>
+      </c>
+      <c r="AW146">
+        <v>6</v>
+      </c>
+      <c r="AX146">
+        <v>7</v>
+      </c>
+      <c r="AY146">
+        <v>10</v>
+      </c>
+      <c r="AZ146">
+        <v>12</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>3</v>
+      </c>
+      <c r="BC146">
+        <v>3</v>
+      </c>
+      <c r="BD146">
+        <v>1.91</v>
+      </c>
+      <c r="BE146">
+        <v>8</v>
+      </c>
+      <c r="BF146">
+        <v>2.1</v>
+      </c>
+      <c r="BG146">
+        <v>1.22</v>
+      </c>
+      <c r="BH146">
+        <v>3.65</v>
+      </c>
+      <c r="BI146">
+        <v>1.43</v>
+      </c>
+      <c r="BJ146">
+        <v>2.54</v>
+      </c>
+      <c r="BK146">
+        <v>1.9</v>
+      </c>
+      <c r="BL146">
+        <v>1.9</v>
+      </c>
+      <c r="BM146">
+        <v>2.23</v>
+      </c>
+      <c r="BN146">
+        <v>1.55</v>
+      </c>
+      <c r="BO146">
+        <v>2.98</v>
+      </c>
+      <c r="BP146">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7446498</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45479.52083333334</v>
+      </c>
+      <c r="F147">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s">
+        <v>79</v>
+      </c>
+      <c r="H147" t="s">
+        <v>74</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>184</v>
+      </c>
+      <c r="P147" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q147">
+        <v>2.84</v>
+      </c>
+      <c r="R147">
+        <v>1.93</v>
+      </c>
+      <c r="S147">
+        <v>4.05</v>
+      </c>
+      <c r="T147">
+        <v>1.5</v>
+      </c>
+      <c r="U147">
+        <v>2.48</v>
+      </c>
+      <c r="V147">
+        <v>3.26</v>
+      </c>
+      <c r="W147">
+        <v>1.31</v>
+      </c>
+      <c r="X147">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y147">
+        <v>1.04</v>
+      </c>
+      <c r="Z147">
+        <v>2.22</v>
+      </c>
+      <c r="AA147">
+        <v>3.1</v>
+      </c>
+      <c r="AB147">
+        <v>3.25</v>
+      </c>
+      <c r="AC147">
+        <v>1.05</v>
+      </c>
+      <c r="AD147">
+        <v>7</v>
+      </c>
+      <c r="AE147">
+        <v>1.39</v>
+      </c>
+      <c r="AF147">
+        <v>2.67</v>
+      </c>
+      <c r="AG147">
+        <v>2.22</v>
+      </c>
+      <c r="AH147">
+        <v>1.59</v>
+      </c>
+      <c r="AI147">
+        <v>1.92</v>
+      </c>
+      <c r="AJ147">
+        <v>1.75</v>
+      </c>
+      <c r="AK147">
+        <v>1.28</v>
+      </c>
+      <c r="AL147">
+        <v>1.32</v>
+      </c>
+      <c r="AM147">
+        <v>1.59</v>
+      </c>
+      <c r="AN147">
+        <v>1.13</v>
+      </c>
+      <c r="AO147">
+        <v>0.63</v>
+      </c>
+      <c r="AP147">
+        <v>1.33</v>
+      </c>
+      <c r="AQ147">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR147">
+        <v>1.51</v>
+      </c>
+      <c r="AS147">
+        <v>0.78</v>
+      </c>
+      <c r="AT147">
+        <v>2.29</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>5</v>
+      </c>
+      <c r="AW147">
+        <v>5</v>
+      </c>
+      <c r="AX147">
+        <v>6</v>
+      </c>
+      <c r="AY147">
+        <v>9</v>
+      </c>
+      <c r="AZ147">
+        <v>11</v>
+      </c>
+      <c r="BA147">
+        <v>4</v>
+      </c>
+      <c r="BB147">
+        <v>5</v>
+      </c>
+      <c r="BC147">
+        <v>9</v>
+      </c>
+      <c r="BD147">
+        <v>2</v>
+      </c>
+      <c r="BE147">
+        <v>8</v>
+      </c>
+      <c r="BF147">
+        <v>2.1</v>
+      </c>
+      <c r="BG147">
+        <v>1.24</v>
+      </c>
+      <c r="BH147">
+        <v>3.48</v>
+      </c>
+      <c r="BI147">
+        <v>1.46</v>
+      </c>
+      <c r="BJ147">
+        <v>2.45</v>
+      </c>
+      <c r="BK147">
+        <v>2</v>
+      </c>
+      <c r="BL147">
+        <v>1.8</v>
+      </c>
+      <c r="BM147">
+        <v>2.32</v>
+      </c>
+      <c r="BN147">
+        <v>1.51</v>
+      </c>
+      <c r="BO147">
+        <v>3.14</v>
+      </c>
+      <c r="BP147">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7446492</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45479.64583333334</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H148" t="s">
+        <v>73</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>89</v>
+      </c>
+      <c r="P148" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q148">
+        <v>1.92</v>
+      </c>
+      <c r="R148">
+        <v>2.24</v>
+      </c>
+      <c r="S148">
+        <v>6.65</v>
+      </c>
+      <c r="T148">
+        <v>1.39</v>
+      </c>
+      <c r="U148">
+        <v>2.85</v>
+      </c>
+      <c r="V148">
+        <v>2.81</v>
+      </c>
+      <c r="W148">
+        <v>1.4</v>
+      </c>
+      <c r="X148">
+        <v>7.1</v>
+      </c>
+      <c r="Y148">
+        <v>1.08</v>
+      </c>
+      <c r="Z148">
+        <v>1.41</v>
+      </c>
+      <c r="AA148">
+        <v>4.41</v>
+      </c>
+      <c r="AB148">
+        <v>7.5</v>
+      </c>
+      <c r="AC148">
+        <v>1.02</v>
+      </c>
+      <c r="AD148">
+        <v>9.1</v>
+      </c>
+      <c r="AE148">
+        <v>1.27</v>
+      </c>
+      <c r="AF148">
+        <v>3.28</v>
+      </c>
+      <c r="AG148">
+        <v>1.84</v>
+      </c>
+      <c r="AH148">
+        <v>1.87</v>
+      </c>
+      <c r="AI148">
+        <v>2.1</v>
+      </c>
+      <c r="AJ148">
+        <v>1.62</v>
+      </c>
+      <c r="AK148">
+        <v>1.06</v>
+      </c>
+      <c r="AL148">
+        <v>1.17</v>
+      </c>
+      <c r="AM148">
+        <v>2.71</v>
+      </c>
+      <c r="AN148">
+        <v>2.5</v>
+      </c>
+      <c r="AO148">
+        <v>1.25</v>
+      </c>
+      <c r="AP148">
+        <v>2.33</v>
+      </c>
+      <c r="AQ148">
+        <v>1.22</v>
+      </c>
+      <c r="AR148">
+        <v>1.3</v>
+      </c>
+      <c r="AS148">
+        <v>1.26</v>
+      </c>
+      <c r="AT148">
+        <v>2.56</v>
+      </c>
+      <c r="AU148">
+        <v>8</v>
+      </c>
+      <c r="AV148">
+        <v>2</v>
+      </c>
+      <c r="AW148">
+        <v>7</v>
+      </c>
+      <c r="AX148">
+        <v>2</v>
+      </c>
+      <c r="AY148">
+        <v>15</v>
+      </c>
+      <c r="AZ148">
+        <v>4</v>
+      </c>
+      <c r="BA148">
+        <v>12</v>
+      </c>
+      <c r="BB148">
+        <v>1</v>
+      </c>
+      <c r="BC148">
+        <v>13</v>
+      </c>
+      <c r="BD148">
+        <v>1.25</v>
+      </c>
+      <c r="BE148">
+        <v>10</v>
+      </c>
+      <c r="BF148">
+        <v>4.5</v>
+      </c>
+      <c r="BG148">
+        <v>1.3</v>
+      </c>
+      <c r="BH148">
+        <v>3.2</v>
+      </c>
+      <c r="BI148">
+        <v>1.44</v>
+      </c>
+      <c r="BJ148">
+        <v>2.6</v>
+      </c>
+      <c r="BK148">
+        <v>1.92</v>
+      </c>
+      <c r="BL148">
+        <v>1.88</v>
+      </c>
+      <c r="BM148">
+        <v>2.33</v>
+      </c>
+      <c r="BN148">
+        <v>1.53</v>
+      </c>
+      <c r="BO148">
+        <v>3.15</v>
+      </c>
+      <c r="BP148">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7446493</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45480.41666666666</v>
+      </c>
+      <c r="F149">
+        <v>4</v>
+      </c>
+      <c r="G149" t="s">
+        <v>71</v>
+      </c>
+      <c r="H149" t="s">
+        <v>77</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
+        <v>174</v>
+      </c>
+      <c r="P149" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q149">
+        <v>2.71</v>
+      </c>
+      <c r="R149">
+        <v>1.94</v>
+      </c>
+      <c r="S149">
+        <v>4.3</v>
+      </c>
+      <c r="T149">
+        <v>1.51</v>
+      </c>
+      <c r="U149">
+        <v>2.45</v>
+      </c>
+      <c r="V149">
+        <v>3.4</v>
+      </c>
+      <c r="W149">
+        <v>1.29</v>
+      </c>
+      <c r="X149">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y149">
+        <v>1.04</v>
+      </c>
+      <c r="Z149">
+        <v>2.15</v>
+      </c>
+      <c r="AA149">
+        <v>3.1</v>
+      </c>
+      <c r="AB149">
+        <v>3.25</v>
+      </c>
+      <c r="AC149">
+        <v>1.05</v>
+      </c>
+      <c r="AD149">
+        <v>6.9</v>
+      </c>
+      <c r="AE149">
+        <v>1.42</v>
+      </c>
+      <c r="AF149">
+        <v>2.57</v>
+      </c>
+      <c r="AG149">
+        <v>2.4</v>
+      </c>
+      <c r="AH149">
+        <v>1.53</v>
+      </c>
+      <c r="AI149">
+        <v>2</v>
+      </c>
+      <c r="AJ149">
+        <v>1.69</v>
+      </c>
+      <c r="AK149">
+        <v>1.26</v>
+      </c>
+      <c r="AL149">
+        <v>1.31</v>
+      </c>
+      <c r="AM149">
+        <v>1.67</v>
+      </c>
+      <c r="AN149">
+        <v>0.78</v>
+      </c>
+      <c r="AO149">
+        <v>0.67</v>
+      </c>
+      <c r="AP149">
+        <v>1</v>
+      </c>
+      <c r="AQ149">
+        <v>0.6</v>
+      </c>
+      <c r="AR149">
+        <v>1.31</v>
+      </c>
+      <c r="AS149">
+        <v>1.18</v>
+      </c>
+      <c r="AT149">
+        <v>2.49</v>
+      </c>
+      <c r="AU149">
+        <v>7</v>
+      </c>
+      <c r="AV149">
+        <v>5</v>
+      </c>
+      <c r="AW149">
+        <v>4</v>
+      </c>
+      <c r="AX149">
+        <v>2</v>
+      </c>
+      <c r="AY149">
+        <v>11</v>
+      </c>
+      <c r="AZ149">
+        <v>7</v>
+      </c>
+      <c r="BA149">
+        <v>6</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>8</v>
+      </c>
+      <c r="BD149">
+        <v>1.5</v>
+      </c>
+      <c r="BE149">
+        <v>8.5</v>
+      </c>
+      <c r="BF149">
+        <v>3.1</v>
+      </c>
+      <c r="BG149">
+        <v>1.28</v>
+      </c>
+      <c r="BH149">
+        <v>3.2</v>
+      </c>
+      <c r="BI149">
+        <v>1.52</v>
+      </c>
+      <c r="BJ149">
+        <v>2.3</v>
+      </c>
+      <c r="BK149">
+        <v>1.95</v>
+      </c>
+      <c r="BL149">
+        <v>1.85</v>
+      </c>
+      <c r="BM149">
+        <v>2.5</v>
+      </c>
+      <c r="BN149">
+        <v>1.44</v>
+      </c>
+      <c r="BO149">
+        <v>3.42</v>
+      </c>
+      <c r="BP149">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7446495</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45480.52083333334</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>84</v>
+      </c>
+      <c r="H150" t="s">
+        <v>75</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>5</v>
+      </c>
+      <c r="O150" t="s">
+        <v>185</v>
+      </c>
+      <c r="P150" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q150">
+        <v>3.4</v>
+      </c>
+      <c r="R150">
+        <v>2.1</v>
+      </c>
+      <c r="S150">
+        <v>3.25</v>
+      </c>
+      <c r="T150">
+        <v>1.44</v>
+      </c>
+      <c r="U150">
+        <v>2.63</v>
+      </c>
+      <c r="V150">
+        <v>3.25</v>
+      </c>
+      <c r="W150">
+        <v>1.33</v>
+      </c>
+      <c r="X150">
+        <v>9</v>
+      </c>
+      <c r="Y150">
+        <v>1.07</v>
+      </c>
+      <c r="Z150">
+        <v>2.55</v>
+      </c>
+      <c r="AA150">
+        <v>2.96</v>
+      </c>
+      <c r="AB150">
+        <v>2.38</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>2.05</v>
+      </c>
+      <c r="AH150">
+        <v>1.68</v>
+      </c>
+      <c r="AI150">
+        <v>1.8</v>
+      </c>
+      <c r="AJ150">
+        <v>1.91</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>2</v>
+      </c>
+      <c r="AO150">
+        <v>1.75</v>
+      </c>
+      <c r="AP150">
+        <v>2.1</v>
+      </c>
+      <c r="AQ150">
+        <v>1.56</v>
+      </c>
+      <c r="AR150">
+        <v>1.56</v>
+      </c>
+      <c r="AS150">
+        <v>1.33</v>
+      </c>
+      <c r="AT150">
+        <v>2.89</v>
+      </c>
+      <c r="AU150">
+        <v>7</v>
+      </c>
+      <c r="AV150">
+        <v>7</v>
+      </c>
+      <c r="AW150">
+        <v>5</v>
+      </c>
+      <c r="AX150">
+        <v>5</v>
+      </c>
+      <c r="AY150">
+        <v>12</v>
+      </c>
+      <c r="AZ150">
+        <v>12</v>
+      </c>
+      <c r="BA150">
+        <v>3</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>7</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0</v>
+      </c>
+      <c r="BJ150">
+        <v>0</v>
+      </c>
+      <c r="BK150">
+        <v>0</v>
+      </c>
+      <c r="BL150">
+        <v>0</v>
+      </c>
+      <c r="BM150">
+        <v>0</v>
+      </c>
+      <c r="BN150">
+        <v>0</v>
+      </c>
+      <c r="BO150">
+        <v>0</v>
+      </c>
+      <c r="BP150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7446496</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45480.64583333334</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
+      </c>
+      <c r="G151" t="s">
+        <v>70</v>
+      </c>
+      <c r="H151" t="s">
+        <v>83</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>186</v>
+      </c>
+      <c r="P151" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q151">
+        <v>1.75</v>
+      </c>
+      <c r="R151">
+        <v>2.68</v>
+      </c>
+      <c r="S151">
+        <v>8.24</v>
+      </c>
+      <c r="T151">
+        <v>1.35</v>
+      </c>
+      <c r="U151">
+        <v>3.33</v>
+      </c>
+      <c r="V151">
+        <v>2.49</v>
+      </c>
+      <c r="W151">
+        <v>1.52</v>
+      </c>
+      <c r="X151">
+        <v>5.75</v>
+      </c>
+      <c r="Y151">
+        <v>1.12</v>
+      </c>
+      <c r="Z151">
+        <v>1.3</v>
+      </c>
+      <c r="AA151">
+        <v>5</v>
+      </c>
+      <c r="AB151">
+        <v>8</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>11</v>
+      </c>
+      <c r="AE151">
+        <v>1.2</v>
+      </c>
+      <c r="AF151">
+        <v>4</v>
+      </c>
+      <c r="AG151">
+        <v>1.6</v>
+      </c>
+      <c r="AH151">
+        <v>2.2</v>
+      </c>
+      <c r="AI151">
+        <v>1.98</v>
+      </c>
+      <c r="AJ151">
+        <v>1.79</v>
+      </c>
+      <c r="AK151">
+        <v>1.04</v>
+      </c>
+      <c r="AL151">
+        <v>1.14</v>
+      </c>
+      <c r="AM151">
+        <v>3.15</v>
+      </c>
+      <c r="AN151">
+        <v>2.44</v>
+      </c>
+      <c r="AO151">
+        <v>0.78</v>
+      </c>
+      <c r="AP151">
+        <v>2.3</v>
+      </c>
+      <c r="AQ151">
+        <v>0.8</v>
+      </c>
+      <c r="AR151">
+        <v>1.68</v>
+      </c>
+      <c r="AS151">
+        <v>1.09</v>
+      </c>
+      <c r="AT151">
+        <v>2.77</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>5</v>
+      </c>
+      <c r="AW151">
+        <v>15</v>
+      </c>
+      <c r="AX151">
+        <v>1</v>
+      </c>
+      <c r="AY151">
+        <v>21</v>
+      </c>
+      <c r="AZ151">
+        <v>6</v>
+      </c>
+      <c r="BA151">
+        <v>6</v>
+      </c>
+      <c r="BB151">
+        <v>1</v>
+      </c>
+      <c r="BC151">
+        <v>7</v>
+      </c>
+      <c r="BD151">
+        <v>1.25</v>
+      </c>
+      <c r="BE151">
+        <v>10</v>
+      </c>
+      <c r="BF151">
+        <v>4.5</v>
+      </c>
+      <c r="BG151">
+        <v>1.28</v>
+      </c>
+      <c r="BH151">
+        <v>3.4</v>
+      </c>
+      <c r="BI151">
+        <v>1.5</v>
+      </c>
+      <c r="BJ151">
+        <v>2.42</v>
+      </c>
+      <c r="BK151">
+        <v>1.9</v>
+      </c>
+      <c r="BL151">
+        <v>1.9</v>
+      </c>
+      <c r="BM151">
+        <v>2.3</v>
+      </c>
+      <c r="BN151">
+        <v>1.55</v>
+      </c>
+      <c r="BO151">
+        <v>3</v>
+      </c>
+      <c r="BP151">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7446494</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45480.75</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>82</v>
+      </c>
+      <c r="H152" t="s">
+        <v>78</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>187</v>
+      </c>
+      <c r="P152" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q152">
+        <v>2.24</v>
+      </c>
+      <c r="R152">
+        <v>2.13</v>
+      </c>
+      <c r="S152">
+        <v>5</v>
+      </c>
+      <c r="T152">
+        <v>1.4</v>
+      </c>
+      <c r="U152">
+        <v>2.81</v>
+      </c>
+      <c r="V152">
+        <v>2.85</v>
+      </c>
+      <c r="W152">
+        <v>1.39</v>
+      </c>
+      <c r="X152">
+        <v>7.3</v>
+      </c>
+      <c r="Y152">
+        <v>1.07</v>
+      </c>
+      <c r="Z152">
+        <v>1.7</v>
+      </c>
+      <c r="AA152">
+        <v>3.6</v>
+      </c>
+      <c r="AB152">
+        <v>4.5</v>
+      </c>
+      <c r="AC152">
+        <v>1.02</v>
+      </c>
+      <c r="AD152">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE152">
+        <v>1.28</v>
+      </c>
+      <c r="AF152">
+        <v>3.2</v>
+      </c>
+      <c r="AG152">
+        <v>1.98</v>
+      </c>
+      <c r="AH152">
+        <v>1.82</v>
+      </c>
+      <c r="AI152">
+        <v>1.84</v>
+      </c>
+      <c r="AJ152">
+        <v>1.82</v>
+      </c>
+      <c r="AK152">
+        <v>1.16</v>
+      </c>
+      <c r="AL152">
+        <v>1.24</v>
+      </c>
+      <c r="AM152">
+        <v>2.01</v>
+      </c>
+      <c r="AN152">
+        <v>2</v>
+      </c>
+      <c r="AO152">
+        <v>0.89</v>
+      </c>
+      <c r="AP152">
+        <v>1.9</v>
+      </c>
+      <c r="AQ152">
+        <v>0.9</v>
+      </c>
+      <c r="AR152">
+        <v>1.38</v>
+      </c>
+      <c r="AS152">
+        <v>1.24</v>
+      </c>
+      <c r="AT152">
+        <v>2.62</v>
+      </c>
+      <c r="AU152">
+        <v>2</v>
+      </c>
+      <c r="AV152">
+        <v>5</v>
+      </c>
+      <c r="AW152">
+        <v>7</v>
+      </c>
+      <c r="AX152">
+        <v>3</v>
+      </c>
+      <c r="AY152">
+        <v>9</v>
+      </c>
+      <c r="AZ152">
+        <v>8</v>
+      </c>
+      <c r="BA152">
+        <v>3</v>
+      </c>
+      <c r="BB152">
+        <v>2</v>
+      </c>
+      <c r="BC152">
+        <v>5</v>
+      </c>
+      <c r="BD152">
+        <v>1.4</v>
+      </c>
+      <c r="BE152">
+        <v>9</v>
+      </c>
+      <c r="BF152">
+        <v>3.4</v>
+      </c>
+      <c r="BG152">
+        <v>1.26</v>
+      </c>
+      <c r="BH152">
+        <v>3.34</v>
+      </c>
+      <c r="BI152">
+        <v>1.5</v>
+      </c>
+      <c r="BJ152">
+        <v>2.35</v>
+      </c>
+      <c r="BK152">
+        <v>1.98</v>
+      </c>
+      <c r="BL152">
+        <v>1.82</v>
+      </c>
+      <c r="BM152">
+        <v>2.42</v>
+      </c>
+      <c r="BN152">
+        <v>1.47</v>
+      </c>
+      <c r="BO152">
+        <v>3.28</v>
+      </c>
+      <c r="BP152">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7446497</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45480.85416666666</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>72</v>
+      </c>
+      <c r="H153" t="s">
+        <v>85</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
+        <v>5</v>
+      </c>
+      <c r="O153" t="s">
+        <v>188</v>
+      </c>
+      <c r="P153" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q153">
+        <v>3.32</v>
+      </c>
+      <c r="R153">
+        <v>1.9</v>
+      </c>
+      <c r="S153">
+        <v>3.45</v>
+      </c>
+      <c r="T153">
+        <v>1.53</v>
+      </c>
+      <c r="U153">
+        <v>2.4</v>
+      </c>
+      <c r="V153">
+        <v>3.54</v>
+      </c>
+      <c r="W153">
+        <v>1.27</v>
+      </c>
+      <c r="X153">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y153">
+        <v>1.03</v>
+      </c>
+      <c r="Z153">
+        <v>2.62</v>
+      </c>
+      <c r="AA153">
+        <v>2.9</v>
+      </c>
+      <c r="AB153">
+        <v>2.75</v>
+      </c>
+      <c r="AC153">
+        <v>1.06</v>
+      </c>
+      <c r="AD153">
+        <v>6.6</v>
+      </c>
+      <c r="AE153">
+        <v>1.45</v>
+      </c>
+      <c r="AF153">
+        <v>2.48</v>
+      </c>
+      <c r="AG153">
+        <v>2.35</v>
+      </c>
+      <c r="AH153">
+        <v>1.53</v>
+      </c>
+      <c r="AI153">
+        <v>2.01</v>
+      </c>
+      <c r="AJ153">
+        <v>1.68</v>
+      </c>
+      <c r="AK153">
+        <v>1.42</v>
+      </c>
+      <c r="AL153">
+        <v>1.33</v>
+      </c>
+      <c r="AM153">
+        <v>1.42</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
+        <v>1.09</v>
+      </c>
+      <c r="AP153">
+        <v>0.9</v>
+      </c>
+      <c r="AQ153">
+        <v>1.25</v>
+      </c>
+      <c r="AR153">
+        <v>1.3</v>
+      </c>
+      <c r="AS153">
+        <v>1.37</v>
+      </c>
+      <c r="AT153">
+        <v>2.67</v>
+      </c>
+      <c r="AU153">
+        <v>2</v>
+      </c>
+      <c r="AV153">
+        <v>0</v>
+      </c>
+      <c r="AW153">
+        <v>3</v>
+      </c>
+      <c r="AX153">
+        <v>3</v>
+      </c>
+      <c r="AY153">
+        <v>5</v>
+      </c>
+      <c r="AZ153">
+        <v>3</v>
+      </c>
+      <c r="BA153">
+        <v>2</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>6</v>
+      </c>
+      <c r="BD153">
+        <v>1.83</v>
+      </c>
+      <c r="BE153">
+        <v>8</v>
+      </c>
+      <c r="BF153">
+        <v>2.25</v>
+      </c>
+      <c r="BG153">
+        <v>1.2</v>
+      </c>
+      <c r="BH153">
+        <v>3.88</v>
+      </c>
+      <c r="BI153">
+        <v>1.39</v>
+      </c>
+      <c r="BJ153">
+        <v>2.67</v>
+      </c>
+      <c r="BK153">
+        <v>1.7</v>
+      </c>
+      <c r="BL153">
+        <v>2.05</v>
+      </c>
+      <c r="BM153">
+        <v>2.14</v>
+      </c>
+      <c r="BN153">
+        <v>1.6</v>
+      </c>
+      <c r="BO153">
+        <v>2.84</v>
+      </c>
+      <c r="BP153">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,7 +571,7 @@
     <t>['35', '80']</t>
   </si>
   <si>
-    <t>['8', '44', '78']</t>
+    <t>['6', '43', '77']</t>
   </si>
   <si>
     <t>['90+7']</t>
@@ -580,7 +580,7 @@
     <t>['57']</t>
   </si>
   <si>
-    <t>['14', '39']</t>
+    <t>['13', '38']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -823,10 +823,13 @@
     <t>['2']</t>
   </si>
   <si>
-    <t>['4', '84']</t>
+    <t>['3', '84']</t>
   </si>
   <si>
-    <t>['52', '56', '58']</t>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['52', '55', '58']</t>
   </si>
 </sst>
 </file>
@@ -31726,7 +31729,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="P149" t="s">
         <v>93</v>
@@ -32347,7 +32350,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32553,7 +32556,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q153">
         <v>3.32</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -26242,25 +26242,25 @@
         <v>1.85</v>
       </c>
       <c r="AN122">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO122">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AP122">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AQ122">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AR122">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AS122">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AT122">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26448,25 +26448,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>0.75</v>
+        <v>1.27</v>
       </c>
       <c r="AO123">
-        <v>1.29</v>
+        <v>0.87</v>
       </c>
       <c r="AP123">
-        <v>0.9</v>
+        <v>1.21</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
       </c>
       <c r="AS123">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AT123">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26654,25 +26654,25 @@
         <v>1.08</v>
       </c>
       <c r="AN124">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="AO124">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="AP124">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AQ124">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AR124">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AS124">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT124">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -26860,25 +26860,25 @@
         <v>1.3</v>
       </c>
       <c r="AN125">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO125">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AP125">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AQ125">
         <v>1.89</v>
       </c>
       <c r="AR125">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AS125">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AU125">
         <v>2</v>
@@ -27069,22 +27069,22 @@
         <v>1.4</v>
       </c>
       <c r="AO126">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AR126">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AS126">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AT126">
-        <v>2.65</v>
+        <v>2.44</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27272,25 +27272,25 @@
         <v>1.75</v>
       </c>
       <c r="AN127">
-        <v>2.14</v>
+        <v>1.6</v>
       </c>
       <c r="AO127">
-        <v>0.43</v>
+        <v>0.93</v>
       </c>
       <c r="AP127">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ127">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="AR127">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AS127">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AT127">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27478,25 +27478,25 @@
         <v>1.09</v>
       </c>
       <c r="AN128">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AO128">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="AP128">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AQ128">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AR128">
-        <v>1.14</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS128">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AT128">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27684,25 +27684,25 @@
         <v>1.42</v>
       </c>
       <c r="AN129">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO129">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ129">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AR129">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AS129">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AT129">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="AU129">
         <v>2</v>
@@ -27890,25 +27890,25 @@
         <v>1.5</v>
       </c>
       <c r="AN130">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO130">
-        <v>0.71</v>
+        <v>1.25</v>
       </c>
       <c r="AP130">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AQ130">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AR130">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AS130">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT130">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="AU130">
         <v>10</v>
@@ -28096,25 +28096,25 @@
         <v>1.45</v>
       </c>
       <c r="AN131">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AO131">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP131">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="AQ131">
-        <v>1.22</v>
+        <v>0.89</v>
       </c>
       <c r="AR131">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AS131">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AT131">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="AU131">
         <v>7</v>
@@ -28302,25 +28302,25 @@
         <v>2.4</v>
       </c>
       <c r="AN132">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
       <c r="AO132">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="AP132">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AQ132">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AR132">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="AS132">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="AT132">
-        <v>3.53</v>
+        <v>3.27</v>
       </c>
       <c r="AU132">
         <v>3</v>
@@ -28508,25 +28508,25 @@
         <v>1.91</v>
       </c>
       <c r="AN133">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="AO133">
-        <v>1.13</v>
+        <v>1.69</v>
       </c>
       <c r="AP133">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AQ133">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AR133">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AS133">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AT133">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="AU133">
         <v>0</v>
@@ -28714,25 +28714,25 @@
         <v>1.57</v>
       </c>
       <c r="AN134">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO134">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AP134">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ134">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="AR134">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AS134">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT134">
-        <v>2.37</v>
+        <v>2.59</v>
       </c>
       <c r="AU134">
         <v>9</v>
@@ -28920,25 +28920,25 @@
         <v>1.8</v>
       </c>
       <c r="AN135">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO135">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ135">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR135">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="AS135">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT135">
-        <v>2.13</v>
+        <v>2.26</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29126,25 +29126,25 @@
         <v>2.28</v>
       </c>
       <c r="AN136">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AO136">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="AP136">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AQ136">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
       <c r="AR136">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AS136">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT136">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29332,25 +29332,25 @@
         <v>1.5</v>
       </c>
       <c r="AN137">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AO137">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AP137">
+        <v>1.63</v>
+      </c>
+      <c r="AQ137">
+        <v>1.47</v>
+      </c>
+      <c r="AR137">
+        <v>1.32</v>
+      </c>
+      <c r="AS137">
         <v>1.33</v>
       </c>
-      <c r="AQ137">
-        <v>1.55</v>
-      </c>
-      <c r="AR137">
-        <v>1.46</v>
-      </c>
-      <c r="AS137">
-        <v>1.21</v>
-      </c>
       <c r="AT137">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU137">
         <v>4</v>
@@ -29538,25 +29538,25 @@
         <v>1.48</v>
       </c>
       <c r="AN138">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="AO138">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AP138">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AQ138">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AR138">
-        <v>1.12</v>
+        <v>0.95</v>
       </c>
       <c r="AS138">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AT138">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="AU138">
         <v>2</v>
@@ -29744,25 +29744,25 @@
         <v>1.48</v>
       </c>
       <c r="AN139">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO139">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP139">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AR139">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="AS139">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT139">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -29950,13 +29950,13 @@
         <v>1.4</v>
       </c>
       <c r="AN140">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="AO140">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AP140">
-        <v>0.9</v>
+        <v>1.21</v>
       </c>
       <c r="AQ140">
         <v>1.89</v>
@@ -29965,10 +29965,10 @@
         <v>1.34</v>
       </c>
       <c r="AS140">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AT140">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="AU140">
         <v>4</v>
@@ -30156,25 +30156,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="AO141">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AP141">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ141">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AR141">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AT141">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="AU141">
         <v>3</v>
@@ -30362,25 +30362,25 @@
         <v>1.67</v>
       </c>
       <c r="AN142">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="AO142">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AP142">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AQ142">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AR142">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AS142">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AT142">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="AU142">
         <v>2</v>
@@ -30568,25 +30568,25 @@
         <v>1.45</v>
       </c>
       <c r="AN143">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO143">
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ143">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AR143">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AS143">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AT143">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -30774,25 +30774,25 @@
         <v>1.2</v>
       </c>
       <c r="AN144">
+        <v>1.47</v>
+      </c>
+      <c r="AO144">
+        <v>2.18</v>
+      </c>
+      <c r="AP144">
+        <v>1.47</v>
+      </c>
+      <c r="AQ144">
+        <v>2.16</v>
+      </c>
+      <c r="AR144">
         <v>1.33</v>
       </c>
-      <c r="AO144">
-        <v>1.88</v>
-      </c>
-      <c r="AP144">
-        <v>1.38</v>
-      </c>
-      <c r="AQ144">
-        <v>2</v>
-      </c>
-      <c r="AR144">
-        <v>1.53</v>
-      </c>
       <c r="AS144">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AT144">
-        <v>3.13</v>
+        <v>2.97</v>
       </c>
       <c r="AU144">
         <v>0</v>
@@ -30980,25 +30980,25 @@
         <v>1.53</v>
       </c>
       <c r="AN145">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="AO145">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AP145">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AQ145">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="AR145">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AS145">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="AT145">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="AU145">
         <v>4</v>
@@ -31186,25 +31186,25 @@
         <v>1.41</v>
       </c>
       <c r="AN146">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AO146">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP146">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ146">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AR146">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AS146">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AT146">
-        <v>3.06</v>
+        <v>2.82</v>
       </c>
       <c r="AU146">
         <v>4</v>
@@ -31392,22 +31392,22 @@
         <v>1.59</v>
       </c>
       <c r="AN147">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AO147">
-        <v>0.63</v>
+        <v>1.17</v>
       </c>
       <c r="AP147">
+        <v>1.63</v>
+      </c>
+      <c r="AQ147">
+        <v>1.11</v>
+      </c>
+      <c r="AR147">
         <v>1.33</v>
       </c>
-      <c r="AQ147">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR147">
-        <v>1.51</v>
-      </c>
       <c r="AS147">
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="AT147">
         <v>2.29</v>
@@ -31601,22 +31601,22 @@
         <v>2.5</v>
       </c>
       <c r="AO148">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AP148">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AQ148">
-        <v>1.22</v>
+        <v>0.89</v>
       </c>
       <c r="AR148">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS148">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AT148">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU148">
         <v>8</v>
@@ -31804,25 +31804,25 @@
         <v>1.67</v>
       </c>
       <c r="AN149">
-        <v>0.78</v>
+        <v>1.06</v>
       </c>
       <c r="AO149">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ149">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="AR149">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AS149">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="AT149">
-        <v>2.49</v>
+        <v>2.64</v>
       </c>
       <c r="AU149">
         <v>7</v>
@@ -32010,25 +32010,25 @@
         <v>0</v>
       </c>
       <c r="AN150">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO150">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="AP150">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ150">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
       <c r="AR150">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AS150">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT150">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32216,25 +32216,25 @@
         <v>3.15</v>
       </c>
       <c r="AN151">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AO151">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AP151">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AQ151">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR151">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AS151">
         <v>1.09</v>
       </c>
       <c r="AT151">
-        <v>2.77</v>
+        <v>2.74</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32422,25 +32422,25 @@
         <v>2.01</v>
       </c>
       <c r="AN152">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AO152">
-        <v>0.89</v>
+        <v>1.17</v>
       </c>
       <c r="AP152">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AQ152">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="AR152">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AS152">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AT152">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32628,25 +32628,25 @@
         <v>1.42</v>
       </c>
       <c r="AN153">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AO153">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AP153">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AQ153">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AR153">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AS153">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AT153">
-        <v>2.67</v>
+        <v>2.44</v>
       </c>
       <c r="AU153">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -26242,25 +26242,25 @@
         <v>1.85</v>
       </c>
       <c r="AN122">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO122">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="AP122">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AQ122">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="AR122">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AS122">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AT122">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26448,25 +26448,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>1.27</v>
+        <v>0.75</v>
       </c>
       <c r="AO123">
-        <v>0.87</v>
+        <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>1.21</v>
+        <v>0.9</v>
       </c>
       <c r="AQ123">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
       </c>
       <c r="AS123">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AT123">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26654,25 +26654,25 @@
         <v>1.08</v>
       </c>
       <c r="AN124">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AO124">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AP124">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AQ124">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AR124">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AS124">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT124">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -26860,25 +26860,25 @@
         <v>1.3</v>
       </c>
       <c r="AN125">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO125">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AQ125">
         <v>1.89</v>
       </c>
       <c r="AR125">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AS125">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT125">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU125">
         <v>2</v>
@@ -27069,22 +27069,22 @@
         <v>1.4</v>
       </c>
       <c r="AO126">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AS126">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AT126">
-        <v>2.44</v>
+        <v>2.65</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27272,25 +27272,25 @@
         <v>1.75</v>
       </c>
       <c r="AN127">
-        <v>1.6</v>
+        <v>2.14</v>
       </c>
       <c r="AO127">
-        <v>0.93</v>
+        <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="AQ127">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="AR127">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AS127">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="AT127">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27478,25 +27478,25 @@
         <v>1.09</v>
       </c>
       <c r="AN128">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AO128">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AQ128">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AR128">
-        <v>0.9399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS128">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AT128">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27684,25 +27684,25 @@
         <v>1.42</v>
       </c>
       <c r="AN129">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO129">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AP129">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ129">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AR129">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AS129">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AT129">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AU129">
         <v>2</v>
@@ -27890,25 +27890,25 @@
         <v>1.5</v>
       </c>
       <c r="AN130">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AO130">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AQ130">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR130">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AS130">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="AT130">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="AU130">
         <v>10</v>
@@ -28096,25 +28096,25 @@
         <v>1.45</v>
       </c>
       <c r="AN131">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO131">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AP131">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
       <c r="AQ131">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="AR131">
+        <v>1.46</v>
+      </c>
+      <c r="AS131">
         <v>1.31</v>
       </c>
-      <c r="AS131">
-        <v>1.18</v>
-      </c>
       <c r="AT131">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="AU131">
         <v>7</v>
@@ -28302,25 +28302,25 @@
         <v>2.4</v>
       </c>
       <c r="AN132">
-        <v>2.13</v>
+        <v>2.38</v>
       </c>
       <c r="AO132">
-        <v>1.13</v>
+        <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AQ132">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AR132">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="AS132">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="AT132">
-        <v>3.27</v>
+        <v>3.53</v>
       </c>
       <c r="AU132">
         <v>3</v>
@@ -28508,25 +28508,25 @@
         <v>1.91</v>
       </c>
       <c r="AN133">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="AO133">
-        <v>1.69</v>
+        <v>1.13</v>
       </c>
       <c r="AP133">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AQ133">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AR133">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AS133">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AT133">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="AU133">
         <v>0</v>
@@ -28714,25 +28714,25 @@
         <v>1.57</v>
       </c>
       <c r="AN134">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AO134">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AQ134">
-        <v>1.16</v>
+        <v>0.9</v>
       </c>
       <c r="AR134">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AS134">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT134">
-        <v>2.59</v>
+        <v>2.37</v>
       </c>
       <c r="AU134">
         <v>9</v>
@@ -28920,25 +28920,25 @@
         <v>1.8</v>
       </c>
       <c r="AN135">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AO135">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP135">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR135">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="AS135">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AT135">
-        <v>2.26</v>
+        <v>2.13</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29126,25 +29126,25 @@
         <v>2.28</v>
       </c>
       <c r="AN136">
-        <v>2.56</v>
+        <v>2.71</v>
       </c>
       <c r="AO136">
-        <v>1.38</v>
+        <v>1.86</v>
       </c>
       <c r="AP136">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="AQ136">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="AR136">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AS136">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AT136">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29332,25 +29332,25 @@
         <v>1.5</v>
       </c>
       <c r="AN137">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AO137">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AQ137">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR137">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AS137">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AT137">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU137">
         <v>4</v>
@@ -29538,25 +29538,25 @@
         <v>1.48</v>
       </c>
       <c r="AN138">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="AO138">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AP138">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AQ138">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR138">
-        <v>0.95</v>
+        <v>1.12</v>
       </c>
       <c r="AS138">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AT138">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="AU138">
         <v>2</v>
@@ -29744,25 +29744,25 @@
         <v>1.48</v>
       </c>
       <c r="AN139">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AO139">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AQ139">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="AS139">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT139">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -29950,13 +29950,13 @@
         <v>1.4</v>
       </c>
       <c r="AN140">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="AO140">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AP140">
-        <v>1.21</v>
+        <v>0.9</v>
       </c>
       <c r="AQ140">
         <v>1.89</v>
@@ -29965,10 +29965,10 @@
         <v>1.34</v>
       </c>
       <c r="AS140">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AT140">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="AU140">
         <v>4</v>
@@ -30156,25 +30156,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="AO141">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AP141">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="AQ141">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AR141">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AS141">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AT141">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="AU141">
         <v>3</v>
@@ -30362,25 +30362,25 @@
         <v>1.67</v>
       </c>
       <c r="AN142">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="AO142">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AP142">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AQ142">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AR142">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AS142">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AT142">
-        <v>2.91</v>
+        <v>2.74</v>
       </c>
       <c r="AU142">
         <v>2</v>
@@ -30568,25 +30568,25 @@
         <v>1.45</v>
       </c>
       <c r="AN143">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AO143">
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="AR143">
+        <v>1.03</v>
+      </c>
+      <c r="AS143">
         <v>1.06</v>
       </c>
-      <c r="AS143">
-        <v>1.19</v>
-      </c>
       <c r="AT143">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -30774,25 +30774,25 @@
         <v>1.2</v>
       </c>
       <c r="AN144">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AO144">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="AP144">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ144">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AR144">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AS144">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT144">
-        <v>2.97</v>
+        <v>3.13</v>
       </c>
       <c r="AU144">
         <v>0</v>
@@ -30980,25 +30980,25 @@
         <v>1.53</v>
       </c>
       <c r="AN145">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="AO145">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AP145">
+        <v>1.44</v>
+      </c>
+      <c r="AQ145">
+        <v>0.6</v>
+      </c>
+      <c r="AR145">
+        <v>1.53</v>
+      </c>
+      <c r="AS145">
         <v>1.16</v>
       </c>
-      <c r="AQ145">
-        <v>0.95</v>
-      </c>
-      <c r="AR145">
-        <v>1.38</v>
-      </c>
-      <c r="AS145">
-        <v>1.34</v>
-      </c>
       <c r="AT145">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="AU145">
         <v>4</v>
@@ -31186,25 +31186,25 @@
         <v>1.41</v>
       </c>
       <c r="AN146">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AO146">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ146">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AR146">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AS146">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AT146">
-        <v>2.82</v>
+        <v>3.06</v>
       </c>
       <c r="AU146">
         <v>4</v>
@@ -31392,22 +31392,22 @@
         <v>1.59</v>
       </c>
       <c r="AN147">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AO147">
-        <v>1.17</v>
+        <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AQ147">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR147">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="AS147">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="AT147">
         <v>2.29</v>
@@ -31601,22 +31601,22 @@
         <v>2.5</v>
       </c>
       <c r="AO148">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="AQ148">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="AR148">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AS148">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AT148">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="AU148">
         <v>8</v>
@@ -31804,25 +31804,25 @@
         <v>1.67</v>
       </c>
       <c r="AN149">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="AO149">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="AR149">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AS149">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="AT149">
-        <v>2.64</v>
+        <v>2.49</v>
       </c>
       <c r="AU149">
         <v>7</v>
@@ -32010,25 +32010,25 @@
         <v>0</v>
       </c>
       <c r="AN150">
+        <v>2</v>
+      </c>
+      <c r="AO150">
+        <v>1.75</v>
+      </c>
+      <c r="AP150">
+        <v>2.1</v>
+      </c>
+      <c r="AQ150">
         <v>1.56</v>
       </c>
-      <c r="AO150">
-        <v>1.28</v>
-      </c>
-      <c r="AP150">
-        <v>1.63</v>
-      </c>
-      <c r="AQ150">
-        <v>1.21</v>
-      </c>
       <c r="AR150">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AS150">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT150">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32216,25 +32216,25 @@
         <v>3.15</v>
       </c>
       <c r="AN151">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AO151">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AQ151">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR151">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AS151">
         <v>1.09</v>
       </c>
       <c r="AT151">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32422,25 +32422,25 @@
         <v>2.01</v>
       </c>
       <c r="AN152">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AO152">
-        <v>1.17</v>
+        <v>0.89</v>
       </c>
       <c r="AP152">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AQ152">
-        <v>1.16</v>
+        <v>0.9</v>
       </c>
       <c r="AR152">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AT152">
-        <v>2.87</v>
+        <v>2.62</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32628,25 +32628,25 @@
         <v>1.42</v>
       </c>
       <c r="AN153">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AO153">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AP153">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AQ153">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR153">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AS153">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AT153">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="AU153">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1191,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AQ2">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AQ4">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AQ5">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2352,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AQ6">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2970,19 +2970,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="AQ9">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AU9">
         <v>9</v>
@@ -3170,25 +3170,25 @@
         <v>1.47</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AQ10">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AU10">
         <v>2</v>
@@ -3376,25 +3376,25 @@
         <v>1.43</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AS11">
         <v>1.43</v>
       </c>
       <c r="AT11">
-        <v>1.43</v>
+        <v>2.51</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3582,25 +3582,25 @@
         <v>2.63</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AQ12">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AU12">
         <v>6</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AT13">
-        <v>1.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -3994,25 +3994,25 @@
         <v>1.41</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4203,22 +4203,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AQ15">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AR15">
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4406,25 +4406,25 @@
         <v>1.77</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO16">
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AQ16">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AR16">
-        <v>1.34</v>
+        <v>0.92</v>
       </c>
       <c r="AS16">
         <v>1.35</v>
       </c>
       <c r="AT16">
-        <v>2.69</v>
+        <v>2.27</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4615,22 +4615,22 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AQ17">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AR17">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AT17">
-        <v>1.17</v>
+        <v>2.07</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -4818,25 +4818,25 @@
         <v>1.24</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
         <v>1.89</v>
       </c>
       <c r="AR18">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AT18">
-        <v>1.29</v>
+        <v>3.05</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5024,25 +5024,25 @@
         <v>1.67</v>
       </c>
       <c r="AN19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO19">
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AR19">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="AS19">
         <v>1.44</v>
       </c>
       <c r="AT19">
-        <v>3.33</v>
+        <v>2.82</v>
       </c>
       <c r="AU19">
         <v>5</v>
@@ -5230,25 +5230,25 @@
         <v>2.28</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP20">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AQ20">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="AR20">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AS20">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="AT20">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="AU20">
         <v>10</v>
@@ -5436,25 +5436,25 @@
         <v>1.52</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ21">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AR21">
-        <v>1.09</v>
+        <v>0.89</v>
       </c>
       <c r="AS21">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AT21">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="AU21">
         <v>3</v>
@@ -5648,19 +5648,19 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AQ22">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR22">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AS22">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="AT22">
-        <v>2.76</v>
+        <v>2.73</v>
       </c>
       <c r="AU22">
         <v>8</v>
@@ -5854,19 +5854,19 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ23">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AR23">
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -6057,22 +6057,22 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP24">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AR24">
-        <v>1.1</v>
+        <v>0.87</v>
       </c>
       <c r="AS24">
-        <v>0.6899999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AT24">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6260,25 +6260,25 @@
         <v>1.47</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="AQ25">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AR25">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AS25">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AT25">
-        <v>2.51</v>
+        <v>2.35</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6469,22 +6469,22 @@
         <v>3</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AQ26">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AR26">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AS26">
-        <v>0.51</v>
+        <v>0.92</v>
       </c>
       <c r="AT26">
-        <v>2.25</v>
+        <v>2.49</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6672,25 +6672,25 @@
         <v>1.57</v>
       </c>
       <c r="AN27">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO27">
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AR27">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AS27">
         <v>1.42</v>
       </c>
       <c r="AT27">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6878,25 +6878,25 @@
         <v>1.4</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO28">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP28">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ28">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AS28">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AT28">
-        <v>1.4</v>
+        <v>2.69</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7087,22 +7087,22 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP29">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AR29">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AS29">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AT29">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="AU29">
         <v>4</v>
@@ -7290,25 +7290,25 @@
         <v>1.83</v>
       </c>
       <c r="AN30">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="AT30">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7496,25 +7496,25 @@
         <v>1.47</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AQ31">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR31">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AS31">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AT31">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="AU31">
         <v>9</v>
@@ -7702,25 +7702,25 @@
         <v>1.38</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AQ32">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AR32">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AT32">
-        <v>2.48</v>
+        <v>2.76</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -7908,25 +7908,25 @@
         <v>1.5</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="AR33">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AS33">
-        <v>0.87</v>
+        <v>1.11</v>
       </c>
       <c r="AT33">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8114,25 +8114,25 @@
         <v>1.19</v>
       </c>
       <c r="AN34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO34">
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ34">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AR34">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AS34">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AT34">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU34">
         <v>4</v>
@@ -8323,22 +8323,22 @@
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ35">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AR35">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="AS35">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
       <c r="AT35">
-        <v>0.93</v>
+        <v>1.36</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8526,25 +8526,25 @@
         <v>2.47</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO36">
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AQ36">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AR36">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="AS36">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AT36">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8732,25 +8732,25 @@
         <v>1.2</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AQ37">
         <v>1.89</v>
       </c>
       <c r="AR37">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS37">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AT37">
-        <v>2.72</v>
+        <v>2.83</v>
       </c>
       <c r="AU37">
         <v>3</v>
@@ -8938,25 +8938,25 @@
         <v>1.4</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO38">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AP38">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AQ38">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AR38">
-        <v>1.34</v>
+        <v>0.89</v>
       </c>
       <c r="AS38">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="AT38">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9144,25 +9144,25 @@
         <v>1.72</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AO39">
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ39">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="AR39">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AS39">
-        <v>0.77</v>
+        <v>1.08</v>
       </c>
       <c r="AT39">
-        <v>0.77</v>
+        <v>2.42</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9350,25 +9350,25 @@
         <v>2</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR40">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AS40">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="AT40">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9556,25 +9556,25 @@
         <v>1.45</v>
       </c>
       <c r="AN41">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO41">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP41">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ41">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="AR41">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AS41">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="AT41">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -9765,22 +9765,22 @@
         <v>3</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AR42">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AS42">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9968,25 +9968,25 @@
         <v>1.36</v>
       </c>
       <c r="AN43">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AR43">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AS43">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AT43">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AU43">
         <v>3</v>
@@ -10174,25 +10174,25 @@
         <v>1.86</v>
       </c>
       <c r="AN44">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AO44">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="AR44">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="AS44">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT44">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -10380,25 +10380,25 @@
         <v>1.81</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO45">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AR45">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10586,25 +10586,25 @@
         <v>1.57</v>
       </c>
       <c r="AN46">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AP46">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ46">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR46">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AS46">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10792,25 +10792,25 @@
         <v>1.5</v>
       </c>
       <c r="AN47">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP47">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AQ47">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AR47">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="AS47">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="AT47">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -10998,25 +10998,25 @@
         <v>1.42</v>
       </c>
       <c r="AN48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AP48">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AQ48">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AR48">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="AS48">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT48">
-        <v>2.61</v>
+        <v>2.35</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11204,25 +11204,25 @@
         <v>1.4</v>
       </c>
       <c r="AN49">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO49">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AQ49">
         <v>1.89</v>
       </c>
       <c r="AR49">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AS49">
         <v>1.51</v>
       </c>
       <c r="AT49">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="AU49">
         <v>7</v>
@@ -11410,25 +11410,25 @@
         <v>1.45</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="AQ50">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="AR50">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AS50">
-        <v>0.85</v>
+        <v>1.13</v>
       </c>
       <c r="AT50">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -11616,25 +11616,25 @@
         <v>1.83</v>
       </c>
       <c r="AN51">
-        <v>0.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO51">
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AR51">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AS51">
-        <v>0.92</v>
+        <v>1.11</v>
       </c>
       <c r="AT51">
-        <v>2.08</v>
+        <v>2.41</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11822,25 +11822,25 @@
         <v>1.55</v>
       </c>
       <c r="AN52">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AO52">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ52">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AR52">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AS52">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="AT52">
-        <v>2.58</v>
+        <v>2.98</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12028,25 +12028,25 @@
         <v>2.45</v>
       </c>
       <c r="AN53">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AQ53">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AR53">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="AS53">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
       <c r="AT53">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12234,25 +12234,25 @@
         <v>1.62</v>
       </c>
       <c r="AN54">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR54">
-        <v>1.15</v>
+        <v>0.92</v>
       </c>
       <c r="AS54">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="AT54">
-        <v>2.17</v>
+        <v>1.77</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12440,25 +12440,25 @@
         <v>1.46</v>
       </c>
       <c r="AN55">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ55">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AR55">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="AS55">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="AT55">
-        <v>2.41</v>
+        <v>2.7</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12646,25 +12646,25 @@
         <v>1.17</v>
       </c>
       <c r="AN56">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AO56">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AP56">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AQ56">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AR56">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AT56">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="AU56">
         <v>5</v>
@@ -12852,25 +12852,25 @@
         <v>1.55</v>
       </c>
       <c r="AN57">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="AO57">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="AP57">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ57">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AR57">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AS57">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AT57">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13058,25 +13058,25 @@
         <v>1.55</v>
       </c>
       <c r="AN58">
-        <v>1.25</v>
+        <v>0.86</v>
       </c>
       <c r="AO58">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="AP58">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AR58">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="AS58">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AT58">
-        <v>2.54</v>
+        <v>2.22</v>
       </c>
       <c r="AU58">
         <v>3</v>
@@ -13267,22 +13267,22 @@
         <v>1</v>
       </c>
       <c r="AO59">
+        <v>1.14</v>
+      </c>
+      <c r="AP59">
+        <v>0.9</v>
+      </c>
+      <c r="AQ59">
+        <v>1.47</v>
+      </c>
+      <c r="AR59">
         <v>1.33</v>
       </c>
-      <c r="AP59">
-        <v>0.6</v>
-      </c>
-      <c r="AQ59">
-        <v>1.55</v>
-      </c>
-      <c r="AR59">
-        <v>1.07</v>
-      </c>
       <c r="AS59">
-        <v>0.9</v>
+        <v>1.08</v>
       </c>
       <c r="AT59">
-        <v>1.97</v>
+        <v>2.41</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13470,25 +13470,25 @@
         <v>1.31</v>
       </c>
       <c r="AN60">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO60">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ60">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="AR60">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="AS60">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AT60">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -13676,25 +13676,25 @@
         <v>2.18</v>
       </c>
       <c r="AN61">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO61">
-        <v>0.67</v>
+        <v>1.57</v>
       </c>
       <c r="AP61">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="AR61">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS61">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AT61">
-        <v>2.58</v>
+        <v>2.71</v>
       </c>
       <c r="AU61">
         <v>5</v>
@@ -13882,22 +13882,22 @@
         <v>2.11</v>
       </c>
       <c r="AN62">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AO62">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="AP62">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AR62">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AS62">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AT62">
         <v>2.8</v>
@@ -14088,25 +14088,25 @@
         <v>1.33</v>
       </c>
       <c r="AN63">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AO63">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AQ63">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AR63">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="AS63">
         <v>1.58</v>
       </c>
       <c r="AT63">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="AU63">
         <v>8</v>
@@ -14294,25 +14294,25 @@
         <v>1.1</v>
       </c>
       <c r="AN64">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP64">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AR64">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="AS64">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="AT64">
-        <v>2.35</v>
+        <v>2.54</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14500,25 +14500,25 @@
         <v>1.6</v>
       </c>
       <c r="AN65">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO65">
-        <v>0.33</v>
+        <v>0.88</v>
       </c>
       <c r="AP65">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AR65">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AS65">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="AT65">
-        <v>2.09</v>
+        <v>2.33</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14706,25 +14706,25 @@
         <v>1.48</v>
       </c>
       <c r="AN66">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO66">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AQ66">
         <v>1.89</v>
       </c>
       <c r="AR66">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AS66">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="AT66">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14912,25 +14912,25 @@
         <v>1.6</v>
       </c>
       <c r="AN67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO67">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ67">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AR67">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="AS67">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AT67">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="AU67">
         <v>2</v>
@@ -15118,25 +15118,25 @@
         <v>1.15</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="AO68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AQ68">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AR68">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT68">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="AU68">
         <v>4</v>
@@ -15324,25 +15324,25 @@
         <v>2.35</v>
       </c>
       <c r="AN69">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AP69">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR69">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="AS69">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="AT69">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="AU69">
         <v>8</v>
@@ -15530,25 +15530,25 @@
         <v>1.55</v>
       </c>
       <c r="AN70">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO70">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AQ70">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AR70">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AS70">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AT70">
-        <v>2.04</v>
+        <v>2.41</v>
       </c>
       <c r="AU70">
         <v>6</v>
@@ -15736,25 +15736,25 @@
         <v>1.45</v>
       </c>
       <c r="AN71">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ71">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="AR71">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AS71">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT71">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -15942,25 +15942,25 @@
         <v>1.43</v>
       </c>
       <c r="AN72">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO72">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="AQ72">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AR72">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AS72">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT72">
-        <v>2.64</v>
+        <v>2.71</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -16148,25 +16148,25 @@
         <v>1.13</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO73">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ73">
         <v>1.89</v>
       </c>
       <c r="AR73">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="AS73">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="AT73">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
       <c r="AU73">
         <v>5</v>
@@ -16354,25 +16354,25 @@
         <v>1.4</v>
       </c>
       <c r="AN74">
-        <v>1.4</v>
+        <v>0.78</v>
       </c>
       <c r="AO74">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ74">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR74">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="AS74">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AT74">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16560,25 +16560,25 @@
         <v>1.41</v>
       </c>
       <c r="AN75">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO75">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ75">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AR75">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AS75">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AT75">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU75">
         <v>8</v>
@@ -16766,25 +16766,25 @@
         <v>1.35</v>
       </c>
       <c r="AN76">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="AO76">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AR76">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AS76">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AT76">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -16972,25 +16972,25 @@
         <v>1.4</v>
       </c>
       <c r="AN77">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO77">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="AP77">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ77">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AR77">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="AS77">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>3.33</v>
+        <v>3.14</v>
       </c>
       <c r="AU77">
         <v>10</v>
@@ -17178,25 +17178,25 @@
         <v>1.13</v>
       </c>
       <c r="AN78">
-        <v>1.2</v>
+        <v>0.89</v>
       </c>
       <c r="AO78">
-        <v>1.5</v>
+        <v>2.11</v>
       </c>
       <c r="AP78">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AR78">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="AS78">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="AT78">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AU78">
         <v>3</v>
@@ -17384,25 +17384,25 @@
         <v>2.2</v>
       </c>
       <c r="AN79">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO79">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AP79">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AQ79">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="AR79">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AS79">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AT79">
-        <v>2.49</v>
+        <v>2.83</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -17590,25 +17590,25 @@
         <v>1.55</v>
       </c>
       <c r="AN80">
-        <v>0.6</v>
+        <v>1.33</v>
       </c>
       <c r="AO80">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="AP80">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AR80">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AS80">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AT80">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17796,25 +17796,25 @@
         <v>2.5</v>
       </c>
       <c r="AN81">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="AO81">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP81">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AQ81">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="AR81">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AS81">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AT81">
-        <v>2.54</v>
+        <v>2.67</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -18002,25 +18002,25 @@
         <v>2.1</v>
       </c>
       <c r="AN82">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="AO82">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ82">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR82">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AS82">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="AT82">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU82">
         <v>4</v>
@@ -18208,25 +18208,25 @@
         <v>1.25</v>
       </c>
       <c r="AN83">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AO83">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AP83">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AR83">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AS83">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AT83">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="AU83">
         <v>8</v>
@@ -18414,25 +18414,25 @@
         <v>2.64</v>
       </c>
       <c r="AN84">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AO84">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AQ84">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="AR84">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="AS84">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AT84">
-        <v>3.16</v>
+        <v>3.03</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -18620,25 +18620,25 @@
         <v>1.77</v>
       </c>
       <c r="AN85">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AQ85">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AR85">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AS85">
-        <v>0.99</v>
+        <v>1.12</v>
       </c>
       <c r="AT85">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18826,25 +18826,25 @@
         <v>1.33</v>
       </c>
       <c r="AN86">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="AO86">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AP86">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AQ86">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AR86">
+        <v>1.31</v>
+      </c>
+      <c r="AS86">
         <v>1.57</v>
       </c>
-      <c r="AS86">
-        <v>1.39</v>
-      </c>
       <c r="AT86">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="AU86">
         <v>8</v>
@@ -19032,25 +19032,25 @@
         <v>1.42</v>
       </c>
       <c r="AN87">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO87">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="AQ87">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AR87">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AS87">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="AT87">
-        <v>2.26</v>
+        <v>2.37</v>
       </c>
       <c r="AU87">
         <v>6</v>
@@ -19238,25 +19238,25 @@
         <v>1.19</v>
       </c>
       <c r="AN88">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AO88">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ88">
         <v>1.89</v>
       </c>
       <c r="AR88">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AS88">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="AT88">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="AU88">
         <v>2</v>
@@ -19444,25 +19444,25 @@
         <v>1.63</v>
       </c>
       <c r="AN89">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AO89">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP89">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AQ89">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AR89">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AS89">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AT89">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19650,25 +19650,25 @@
         <v>3</v>
       </c>
       <c r="AN90">
-        <v>2.67</v>
+        <v>2.27</v>
       </c>
       <c r="AO90">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="AP90">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AR90">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="AS90">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>3.04</v>
+        <v>2.83</v>
       </c>
       <c r="AU90">
         <v>6</v>
@@ -19856,25 +19856,25 @@
         <v>1.48</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AO91">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="AP91">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AR91">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AS91">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT91">
-        <v>2.43</v>
+        <v>2.19</v>
       </c>
       <c r="AU91">
         <v>5</v>
@@ -20062,25 +20062,25 @@
         <v>1.52</v>
       </c>
       <c r="AN92">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
       <c r="AO92">
-        <v>0.4</v>
+        <v>1.09</v>
       </c>
       <c r="AP92">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AQ92">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="AR92">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AS92">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AT92">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="AU92">
         <v>2</v>
@@ -20268,25 +20268,25 @@
         <v>1.65</v>
       </c>
       <c r="AN93">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AO93">
         <v>1</v>
       </c>
       <c r="AP93">
+        <v>1.2</v>
+      </c>
+      <c r="AQ93">
         <v>0.9</v>
       </c>
-      <c r="AQ93">
-        <v>1.22</v>
-      </c>
       <c r="AR93">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AS93">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT93">
-        <v>2.91</v>
+        <v>2.69</v>
       </c>
       <c r="AU93">
         <v>0</v>
@@ -20474,25 +20474,25 @@
         <v>2.66</v>
       </c>
       <c r="AN94">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AO94">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AP94">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AQ94">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="AR94">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="AS94">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AT94">
-        <v>2.5</v>
+        <v>2.89</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20680,25 +20680,25 @@
         <v>1.42</v>
       </c>
       <c r="AN95">
-        <v>0.67</v>
+        <v>1.09</v>
       </c>
       <c r="AO95">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AP95">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AQ95">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AR95">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AS95">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="AT95">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -20886,25 +20886,25 @@
         <v>1.35</v>
       </c>
       <c r="AN96">
-        <v>1.33</v>
+        <v>0.82</v>
       </c>
       <c r="AO96">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ96">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AR96">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AS96">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT96">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21092,25 +21092,25 @@
         <v>1.32</v>
       </c>
       <c r="AN97">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="AO97">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AP97">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ97">
         <v>1.89</v>
       </c>
       <c r="AR97">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AS97">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="AT97">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21298,25 +21298,25 @@
         <v>1.39</v>
       </c>
       <c r="AN98">
-        <v>0.17</v>
+        <v>0.58</v>
       </c>
       <c r="AO98">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ98">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AR98">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AS98">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="AT98">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21504,25 +21504,25 @@
         <v>1.67</v>
       </c>
       <c r="AN99">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="AO99">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="AQ99">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR99">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AT99">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU99">
         <v>8</v>
@@ -21710,25 +21710,25 @@
         <v>1.29</v>
       </c>
       <c r="AN100">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AO100">
         <v>2.67</v>
       </c>
       <c r="AP100">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AQ100">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AR100">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AS100">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AT100">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="AU100">
         <v>6</v>
@@ -21916,25 +21916,25 @@
         <v>1.51</v>
       </c>
       <c r="AN101">
-        <v>0.75</v>
+        <v>1.08</v>
       </c>
       <c r="AO101">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ101">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="AR101">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AS101">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT101">
-        <v>2.43</v>
+        <v>2.62</v>
       </c>
       <c r="AU101">
         <v>0</v>
@@ -22122,25 +22122,25 @@
         <v>1.84</v>
       </c>
       <c r="AN102">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AO102">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
       <c r="AP102">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AQ102">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AR102">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AS102">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT102">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22328,25 +22328,25 @@
         <v>1.45</v>
       </c>
       <c r="AN103">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO103">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AP103">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AQ103">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AR103">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="AS103">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="AT103">
-        <v>2.72</v>
+        <v>2.53</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22534,25 +22534,25 @@
         <v>1.91</v>
       </c>
       <c r="AN104">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO104">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP104">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AQ104">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AR104">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="AS104">
-        <v>0.9399999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AT104">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22740,25 +22740,25 @@
         <v>1.12</v>
       </c>
       <c r="AN105">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO105">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="AP105">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AQ105">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AR105">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AS105">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="AT105">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="AU105">
         <v>2</v>
@@ -22946,25 +22946,25 @@
         <v>2.55</v>
       </c>
       <c r="AN106">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AO106">
-        <v>1.29</v>
+        <v>1.85</v>
       </c>
       <c r="AP106">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AQ106">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AR106">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT106">
-        <v>2.87</v>
+        <v>3.08</v>
       </c>
       <c r="AU106">
         <v>3</v>
@@ -23152,25 +23152,25 @@
         <v>1.65</v>
       </c>
       <c r="AN107">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="AO107">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="AP107">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ107">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="AR107">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AS107">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AT107">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23358,25 +23358,25 @@
         <v>1.48</v>
       </c>
       <c r="AN108">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="AO108">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AP108">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AQ108">
-        <v>0.9</v>
+        <v>1.16</v>
       </c>
       <c r="AR108">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AS108">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="AT108">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="AU108">
         <v>6</v>
@@ -23564,25 +23564,25 @@
         <v>1.25</v>
       </c>
       <c r="AN109">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO109">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP109">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AQ109">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR109">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AS109">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AT109">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="AU109">
         <v>2</v>
@@ -23770,25 +23770,25 @@
         <v>2.4</v>
       </c>
       <c r="AN110">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="AO110">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP110">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="AQ110">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AR110">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AS110">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AT110">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="AU110">
         <v>5</v>
@@ -23976,22 +23976,22 @@
         <v>1.57</v>
       </c>
       <c r="AN111">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AO111">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AQ111">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="AR111">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="AS111">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="AT111">
         <v>2.13</v>
@@ -24182,25 +24182,25 @@
         <v>1.3</v>
       </c>
       <c r="AN112">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AO112">
         <v>1.38</v>
       </c>
       <c r="AP112">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AQ112">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AR112">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="AS112">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AT112">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24388,25 +24388,25 @@
         <v>1.4</v>
       </c>
       <c r="AN113">
-        <v>0.86</v>
+        <v>1.08</v>
       </c>
       <c r="AO113">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AP113">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AR113">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT113">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -24594,25 +24594,25 @@
         <v>1.67</v>
       </c>
       <c r="AN114">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="AO114">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AP114">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AQ114">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AS114">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AT114">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AU114">
         <v>3</v>
@@ -24800,25 +24800,25 @@
         <v>1.38</v>
       </c>
       <c r="AN115">
-        <v>1.43</v>
+        <v>0.93</v>
       </c>
       <c r="AO115">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AP115">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="AQ115">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="AR115">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AS115">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AT115">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="AU115">
         <v>4</v>
@@ -25006,25 +25006,25 @@
         <v>1.12</v>
       </c>
       <c r="AN116">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="AO116">
         <v>2.71</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ116">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AR116">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AS116">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AT116">
-        <v>2.83</v>
+        <v>2.73</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25212,25 +25212,25 @@
         <v>2.13</v>
       </c>
       <c r="AN117">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AO117">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AP117">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AQ117">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AR117">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="AS117">
-        <v>0.99</v>
+        <v>1.12</v>
       </c>
       <c r="AT117">
-        <v>2.39</v>
+        <v>2.66</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25418,25 +25418,25 @@
         <v>1.84</v>
       </c>
       <c r="AN118">
+        <v>1.29</v>
+      </c>
+      <c r="AO118">
+        <v>1</v>
+      </c>
+      <c r="AP118">
         <v>1.11</v>
       </c>
-      <c r="AO118">
-        <v>0.33</v>
-      </c>
-      <c r="AP118">
-        <v>1.08</v>
-      </c>
       <c r="AQ118">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AR118">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AS118">
-        <v>0.68</v>
+        <v>0.93</v>
       </c>
       <c r="AT118">
-        <v>2.16</v>
+        <v>2.51</v>
       </c>
       <c r="AU118">
         <v>7</v>
@@ -25624,25 +25624,25 @@
         <v>1.52</v>
       </c>
       <c r="AN119">
-        <v>0.6</v>
+        <v>0.93</v>
       </c>
       <c r="AO119">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AQ119">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR119">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="AS119">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AT119">
-        <v>2.36</v>
+        <v>2.39</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25830,25 +25830,25 @@
         <v>1.54</v>
       </c>
       <c r="AN120">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="AO120">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ120">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AR120">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AS120">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AT120">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26036,25 +26036,25 @@
         <v>1.17</v>
       </c>
       <c r="AN121">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="AO121">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="AP121">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AQ121">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AR121">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AS121">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="AT121">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26866,7 +26866,7 @@
         <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ125">
         <v>1.89</v>
@@ -29135,7 +29135,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ136">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR136">
         <v>1.33</v>
@@ -29750,7 +29750,7 @@
         <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ139">
         <v>1.33</v>
@@ -32019,7 +32019,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ150">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR150">
         <v>1.56</v>
@@ -32713,6 +32713,212 @@
       </c>
       <c r="BP153">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7446503</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45485.79166666666</v>
+      </c>
+      <c r="F154">
+        <v>5</v>
+      </c>
+      <c r="G154" t="s">
+        <v>73</v>
+      </c>
+      <c r="H154" t="s">
+        <v>75</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>127</v>
+      </c>
+      <c r="P154" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q154">
+        <v>3.69</v>
+      </c>
+      <c r="R154">
+        <v>2.07</v>
+      </c>
+      <c r="S154">
+        <v>3.25</v>
+      </c>
+      <c r="T154">
+        <v>1.48</v>
+      </c>
+      <c r="U154">
+        <v>2.64</v>
+      </c>
+      <c r="V154">
+        <v>3.31</v>
+      </c>
+      <c r="W154">
+        <v>1.35</v>
+      </c>
+      <c r="X154">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y154">
+        <v>1.05</v>
+      </c>
+      <c r="Z154">
+        <v>2.9</v>
+      </c>
+      <c r="AA154">
+        <v>3.05</v>
+      </c>
+      <c r="AB154">
+        <v>2.35</v>
+      </c>
+      <c r="AC154">
+        <v>1.07</v>
+      </c>
+      <c r="AD154">
+        <v>7</v>
+      </c>
+      <c r="AE154">
+        <v>1.38</v>
+      </c>
+      <c r="AF154">
+        <v>2.8</v>
+      </c>
+      <c r="AG154">
+        <v>2.2</v>
+      </c>
+      <c r="AH154">
+        <v>1.58</v>
+      </c>
+      <c r="AI154">
+        <v>1.88</v>
+      </c>
+      <c r="AJ154">
+        <v>1.88</v>
+      </c>
+      <c r="AK154">
+        <v>1.48</v>
+      </c>
+      <c r="AL154">
+        <v>1.34</v>
+      </c>
+      <c r="AM154">
+        <v>1.36</v>
+      </c>
+      <c r="AN154">
+        <v>0.6</v>
+      </c>
+      <c r="AO154">
+        <v>1.56</v>
+      </c>
+      <c r="AP154">
+        <v>0.64</v>
+      </c>
+      <c r="AQ154">
+        <v>1.5</v>
+      </c>
+      <c r="AR154">
+        <v>1.13</v>
+      </c>
+      <c r="AS154">
+        <v>1.37</v>
+      </c>
+      <c r="AT154">
+        <v>2.5</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>8</v>
+      </c>
+      <c r="AW154">
+        <v>5</v>
+      </c>
+      <c r="AX154">
+        <v>10</v>
+      </c>
+      <c r="AY154">
+        <v>9</v>
+      </c>
+      <c r="AZ154">
+        <v>18</v>
+      </c>
+      <c r="BA154">
+        <v>3</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
+        <v>6</v>
+      </c>
+      <c r="BD154">
+        <v>2.22</v>
+      </c>
+      <c r="BE154">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF154">
+        <v>1.83</v>
+      </c>
+      <c r="BG154">
+        <v>1.21</v>
+      </c>
+      <c r="BH154">
+        <v>3.74</v>
+      </c>
+      <c r="BI154">
+        <v>1.41</v>
+      </c>
+      <c r="BJ154">
+        <v>2.6</v>
+      </c>
+      <c r="BK154">
+        <v>1.7</v>
+      </c>
+      <c r="BL154">
+        <v>2.05</v>
+      </c>
+      <c r="BM154">
+        <v>2.17</v>
+      </c>
+      <c r="BN154">
+        <v>1.58</v>
+      </c>
+      <c r="BO154">
+        <v>2.91</v>
+      </c>
+      <c r="BP154">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,15 @@
     <t>['13', '38']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['22', '42', '49']</t>
+  </si>
+  <si>
+    <t>['32', '78']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -820,9 +829,6 @@
     <t>['19', '40', '66']</t>
   </si>
   <si>
-    <t>['2']</t>
-  </si>
-  <si>
     <t>['3', '84']</t>
   </si>
   <si>
@@ -830,6 +836,15 @@
   </si>
   <si>
     <t>['52', '55', '58']</t>
+  </si>
+  <si>
+    <t>['55', '90+1']</t>
+  </si>
+  <si>
+    <t>['24', '35', '38', '61', '88', '90+6']</t>
+  </si>
+  <si>
+    <t>['36']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1465,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1528,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AQ2">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1656,7 +1671,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1734,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1862,7 +1877,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1940,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AQ4">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2068,7 +2083,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2146,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ5">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2352,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6">
-        <v>1.16</v>
+        <v>0.9</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2480,7 +2495,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2558,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ7">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2686,7 +2701,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2764,10 +2779,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ8">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2892,7 +2907,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2970,19 +2985,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AR9">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>9</v>
@@ -3170,25 +3185,25 @@
         <v>1.47</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>2</v>
@@ -3376,25 +3391,25 @@
         <v>1.43</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>1.43</v>
       </c>
       <c r="AT11">
-        <v>2.51</v>
+        <v>1.43</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3582,25 +3597,25 @@
         <v>2.63</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>6</v>
@@ -3794,19 +3809,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
       </c>
       <c r="AS13">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.22</v>
+        <v>1.13</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -3994,25 +4009,25 @@
         <v>1.41</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AQ14">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AR14">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4203,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AQ15">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR15">
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4334,7 +4349,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4406,25 +4421,25 @@
         <v>1.77</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>3</v>
       </c>
       <c r="AP16">
+        <v>1.6</v>
+      </c>
+      <c r="AQ16">
         <v>1.11</v>
       </c>
-      <c r="AQ16">
-        <v>1.63</v>
-      </c>
       <c r="AR16">
-        <v>0.92</v>
+        <v>1.34</v>
       </c>
       <c r="AS16">
         <v>1.35</v>
       </c>
       <c r="AT16">
-        <v>2.27</v>
+        <v>2.69</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4540,7 +4555,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4615,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AQ17">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR17">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AS17">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.07</v>
+        <v>1.17</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -4746,7 +4761,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4818,25 +4833,25 @@
         <v>1.24</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ18">
         <v>1.89</v>
       </c>
       <c r="AR18">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AS18">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>3.05</v>
+        <v>1.29</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5024,25 +5039,25 @@
         <v>1.67</v>
       </c>
       <c r="AN19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO19">
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="AS19">
         <v>1.44</v>
       </c>
       <c r="AT19">
-        <v>2.82</v>
+        <v>3.33</v>
       </c>
       <c r="AU19">
         <v>5</v>
@@ -5230,25 +5245,25 @@
         <v>2.28</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AQ20">
-        <v>1.16</v>
+        <v>0.9</v>
       </c>
       <c r="AR20">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AS20">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="AT20">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="AU20">
         <v>10</v>
@@ -5364,7 +5379,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5436,25 +5451,25 @@
         <v>1.52</v>
       </c>
       <c r="AN21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AR21">
-        <v>0.89</v>
+        <v>1.09</v>
       </c>
       <c r="AS21">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AT21">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="AU21">
         <v>3</v>
@@ -5570,7 +5585,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5648,19 +5663,19 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AQ22">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AR22">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AS22">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="AT22">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="AU22">
         <v>8</v>
@@ -5776,7 +5791,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5854,19 +5869,19 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AR23">
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AT23">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -5982,7 +5997,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6057,22 +6072,22 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AQ24">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
-        <v>0.87</v>
+        <v>1.1</v>
       </c>
       <c r="AS24">
-        <v>0.98</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT24">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6188,7 +6203,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6260,25 +6275,25 @@
         <v>1.47</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AR25">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="AS25">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT25">
-        <v>2.35</v>
+        <v>2.51</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6469,22 +6484,22 @@
         <v>3</v>
       </c>
       <c r="AO26">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR26">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="AS26">
-        <v>0.92</v>
+        <v>0.51</v>
       </c>
       <c r="AT26">
-        <v>2.49</v>
+        <v>2.25</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6600,7 +6615,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6672,25 +6687,25 @@
         <v>1.57</v>
       </c>
       <c r="AN27">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO27">
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AQ27">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AS27">
         <v>1.42</v>
       </c>
       <c r="AT27">
-        <v>2.98</v>
+        <v>3.09</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6806,7 +6821,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6878,25 +6893,25 @@
         <v>1.4</v>
       </c>
       <c r="AN28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="AQ28">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AT28">
-        <v>2.69</v>
+        <v>1.4</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7012,7 +7027,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7087,22 +7102,22 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AQ29">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AR29">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AS29">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AT29">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="AU29">
         <v>4</v>
@@ -7290,25 +7305,25 @@
         <v>1.83</v>
       </c>
       <c r="AN30">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AS30">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7496,25 +7511,25 @@
         <v>1.47</v>
       </c>
       <c r="AN31">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AR31">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AS31">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AT31">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AU31">
         <v>9</v>
@@ -7702,25 +7717,25 @@
         <v>1.38</v>
       </c>
       <c r="AN32">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR32">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AS32">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AT32">
-        <v>2.76</v>
+        <v>2.48</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -7908,25 +7923,25 @@
         <v>1.5</v>
       </c>
       <c r="AN33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AS33">
-        <v>1.11</v>
+        <v>0.87</v>
       </c>
       <c r="AT33">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8042,7 +8057,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8114,25 +8129,25 @@
         <v>1.19</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO34">
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ34">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AR34">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT34">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU34">
         <v>4</v>
@@ -8248,7 +8263,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8323,22 +8338,22 @@
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AR35">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
       <c r="AS35">
-        <v>0.97</v>
+        <v>0.42</v>
       </c>
       <c r="AT35">
-        <v>1.36</v>
+        <v>0.93</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8526,25 +8541,25 @@
         <v>2.47</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO36">
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AQ36">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AR36">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="AS36">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AT36">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8732,25 +8747,25 @@
         <v>1.2</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ37">
         <v>1.89</v>
       </c>
       <c r="AR37">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS37">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AT37">
-        <v>2.83</v>
+        <v>2.72</v>
       </c>
       <c r="AU37">
         <v>3</v>
@@ -8866,7 +8881,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8938,25 +8953,25 @@
         <v>1.4</v>
       </c>
       <c r="AN38">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AQ38">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR38">
-        <v>0.89</v>
+        <v>1.34</v>
       </c>
       <c r="AS38">
-        <v>1.03</v>
+        <v>0.8</v>
       </c>
       <c r="AT38">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9072,7 +9087,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9144,25 +9159,25 @@
         <v>1.72</v>
       </c>
       <c r="AN39">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AO39">
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.16</v>
+        <v>0.88</v>
       </c>
       <c r="AQ39">
-        <v>1.16</v>
+        <v>0.9</v>
       </c>
       <c r="AR39">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.08</v>
+        <v>0.77</v>
       </c>
       <c r="AT39">
-        <v>2.42</v>
+        <v>0.77</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9278,7 +9293,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9350,25 +9365,25 @@
         <v>2</v>
       </c>
       <c r="AN40">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO40">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="AQ40">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AS40">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="AT40">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9484,7 +9499,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9556,25 +9571,25 @@
         <v>1.45</v>
       </c>
       <c r="AN41">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AO41">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AS41">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="AT41">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -9765,22 +9780,22 @@
         <v>3</v>
       </c>
       <c r="AO42">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="AQ42">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AR42">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AS42">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AT42">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9968,25 +9983,25 @@
         <v>1.36</v>
       </c>
       <c r="AN43">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO43">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
-        <v>0.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS43">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AT43">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AU43">
         <v>3</v>
@@ -10102,7 +10117,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10174,25 +10189,25 @@
         <v>1.86</v>
       </c>
       <c r="AN44">
+        <v>0.33</v>
+      </c>
+      <c r="AO44">
+        <v>0.5</v>
+      </c>
+      <c r="AP44">
+        <v>1.08</v>
+      </c>
+      <c r="AQ44">
         <v>0.6</v>
       </c>
-      <c r="AO44">
-        <v>1.4</v>
-      </c>
-      <c r="AP44">
-        <v>1.11</v>
-      </c>
-      <c r="AQ44">
-        <v>0.95</v>
-      </c>
       <c r="AR44">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="AS44">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT44">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -10380,25 +10395,25 @@
         <v>1.81</v>
       </c>
       <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
         <v>1.75</v>
       </c>
-      <c r="AO45">
-        <v>1.4</v>
-      </c>
       <c r="AP45">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AQ45">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT45">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10586,25 +10601,25 @@
         <v>1.57</v>
       </c>
       <c r="AN46">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO46">
+        <v>1.33</v>
+      </c>
+      <c r="AP46">
+        <v>2.1</v>
+      </c>
+      <c r="AQ46">
+        <v>1.22</v>
+      </c>
+      <c r="AR46">
+        <v>1.56</v>
+      </c>
+      <c r="AS46">
         <v>1.4</v>
       </c>
-      <c r="AP46">
-        <v>1.63</v>
-      </c>
-      <c r="AQ46">
-        <v>0.9</v>
-      </c>
-      <c r="AR46">
-        <v>1.42</v>
-      </c>
-      <c r="AS46">
-        <v>1.3</v>
-      </c>
       <c r="AT46">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10720,7 +10735,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10792,25 +10807,25 @@
         <v>1.5</v>
       </c>
       <c r="AN47">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AO47">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AQ47">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR47">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AS47">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AT47">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -10926,7 +10941,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -10998,25 +11013,25 @@
         <v>1.42</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO48">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AQ48">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AR48">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="AS48">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT48">
-        <v>2.35</v>
+        <v>2.61</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11132,7 +11147,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11204,25 +11219,25 @@
         <v>1.4</v>
       </c>
       <c r="AN49">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.89</v>
       </c>
       <c r="AR49">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AS49">
         <v>1.51</v>
       </c>
       <c r="AT49">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="AU49">
         <v>7</v>
@@ -11338,7 +11353,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11410,25 +11425,25 @@
         <v>1.45</v>
       </c>
       <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
         <v>1.33</v>
       </c>
-      <c r="AO50">
-        <v>0.83</v>
-      </c>
       <c r="AP50">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>1.16</v>
+        <v>0.9</v>
       </c>
       <c r="AR50">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AS50">
-        <v>1.13</v>
+        <v>0.85</v>
       </c>
       <c r="AT50">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -11544,7 +11559,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11616,25 +11631,25 @@
         <v>1.83</v>
       </c>
       <c r="AN51">
-        <v>1.17</v>
+        <v>0.33</v>
       </c>
       <c r="AO51">
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ51">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AR51">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AS51">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
       <c r="AT51">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11750,7 +11765,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11822,25 +11837,25 @@
         <v>1.55</v>
       </c>
       <c r="AN52">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AO52">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>1.16</v>
+        <v>0.88</v>
       </c>
       <c r="AQ52">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AR52">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AS52">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="AT52">
-        <v>2.98</v>
+        <v>2.58</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12028,25 +12043,25 @@
         <v>2.45</v>
       </c>
       <c r="AN53">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO53">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AQ53">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR53">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AS53">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="AT53">
-        <v>2.58</v>
+        <v>2.71</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12234,25 +12249,25 @@
         <v>1.62</v>
       </c>
       <c r="AN54">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1.6</v>
+      </c>
+      <c r="AQ54">
         <v>0.8</v>
       </c>
-      <c r="AP54">
-        <v>1.11</v>
-      </c>
-      <c r="AQ54">
-        <v>0.89</v>
-      </c>
       <c r="AR54">
-        <v>0.92</v>
+        <v>1.15</v>
       </c>
       <c r="AS54">
-        <v>0.85</v>
+        <v>1.02</v>
       </c>
       <c r="AT54">
-        <v>1.77</v>
+        <v>2.17</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12368,7 +12383,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12440,25 +12455,25 @@
         <v>1.46</v>
       </c>
       <c r="AN55">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO55">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="AS55">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AT55">
-        <v>2.7</v>
+        <v>2.41</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12574,7 +12589,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12646,25 +12661,25 @@
         <v>1.17</v>
       </c>
       <c r="AN56">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO56">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ56">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AR56">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="AS56">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AT56">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="AU56">
         <v>5</v>
@@ -12852,25 +12867,25 @@
         <v>1.55</v>
       </c>
       <c r="AN57">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="AO57">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="AQ57">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AR57">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AS57">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AT57">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13058,25 +13073,25 @@
         <v>1.55</v>
       </c>
       <c r="AN58">
-        <v>0.86</v>
+        <v>1.25</v>
       </c>
       <c r="AO58">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AQ58">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
-        <v>0.98</v>
+        <v>1.2</v>
       </c>
       <c r="AS58">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AT58">
-        <v>2.22</v>
+        <v>2.54</v>
       </c>
       <c r="AU58">
         <v>3</v>
@@ -13192,7 +13207,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13267,22 +13282,22 @@
         <v>1</v>
       </c>
       <c r="AO59">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
+        <v>0.64</v>
+      </c>
+      <c r="AQ59">
+        <v>1.55</v>
+      </c>
+      <c r="AR59">
+        <v>1.07</v>
+      </c>
+      <c r="AS59">
         <v>0.9</v>
       </c>
-      <c r="AQ59">
-        <v>1.47</v>
-      </c>
-      <c r="AR59">
-        <v>1.33</v>
-      </c>
-      <c r="AS59">
-        <v>1.08</v>
-      </c>
       <c r="AT59">
-        <v>2.41</v>
+        <v>1.97</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13470,25 +13485,25 @@
         <v>1.31</v>
       </c>
       <c r="AN60">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO60">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AP60">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AQ60">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="AS60">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AT60">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -13604,7 +13619,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13676,25 +13691,25 @@
         <v>2.18</v>
       </c>
       <c r="AN61">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO61">
-        <v>1.57</v>
+        <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AQ61">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="AR61">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT61">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="AU61">
         <v>5</v>
@@ -13882,22 +13897,22 @@
         <v>2.11</v>
       </c>
       <c r="AN62">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AO62">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AS62">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AT62">
         <v>2.8</v>
@@ -14016,7 +14031,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14088,25 +14103,25 @@
         <v>1.33</v>
       </c>
       <c r="AN63">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AQ63">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR63">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AS63">
         <v>1.58</v>
       </c>
       <c r="AT63">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="AU63">
         <v>8</v>
@@ -14222,7 +14237,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14294,25 +14309,25 @@
         <v>1.1</v>
       </c>
       <c r="AN64">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AO64">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AQ64">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AR64">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="AS64">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="AT64">
-        <v>2.54</v>
+        <v>2.35</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14500,25 +14515,25 @@
         <v>1.6</v>
       </c>
       <c r="AN65">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
       <c r="AO65">
-        <v>0.88</v>
+        <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ65">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR65">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="AT65">
-        <v>2.33</v>
+        <v>2.09</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14706,25 +14721,25 @@
         <v>1.48</v>
       </c>
       <c r="AN66">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AQ66">
         <v>1.89</v>
       </c>
       <c r="AR66">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="AS66">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="AT66">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14840,7 +14855,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14912,25 +14927,25 @@
         <v>1.6</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO67">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>1.16</v>
+        <v>0.88</v>
       </c>
       <c r="AQ67">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR67">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="AS67">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AT67">
-        <v>2.47</v>
+        <v>2.21</v>
       </c>
       <c r="AU67">
         <v>2</v>
@@ -15046,7 +15061,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15118,25 +15133,25 @@
         <v>1.15</v>
       </c>
       <c r="AN68">
-        <v>1.88</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AR68">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="AU68">
         <v>4</v>
@@ -15252,7 +15267,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15324,25 +15339,25 @@
         <v>2.35</v>
       </c>
       <c r="AN69">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO69">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AQ69">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="AT69">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="AU69">
         <v>8</v>
@@ -15458,7 +15473,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15530,25 +15545,25 @@
         <v>1.55</v>
       </c>
       <c r="AN70">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AO70">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ70">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AR70">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AS70">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AT70">
-        <v>2.41</v>
+        <v>2.04</v>
       </c>
       <c r="AU70">
         <v>6</v>
@@ -15664,7 +15679,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15736,25 +15751,25 @@
         <v>1.45</v>
       </c>
       <c r="AN71">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO71">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>0.9</v>
+      </c>
+      <c r="AR71">
         <v>1.16</v>
       </c>
-      <c r="AQ71">
-        <v>1.16</v>
-      </c>
-      <c r="AR71">
-        <v>1.21</v>
-      </c>
       <c r="AS71">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AT71">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -15870,7 +15885,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15942,25 +15957,25 @@
         <v>1.43</v>
       </c>
       <c r="AN72">
+        <v>2.25</v>
+      </c>
+      <c r="AO72">
+        <v>2</v>
+      </c>
+      <c r="AP72">
+        <v>1.33</v>
+      </c>
+      <c r="AQ72">
+        <v>1.11</v>
+      </c>
+      <c r="AR72">
+        <v>1.26</v>
+      </c>
+      <c r="AS72">
         <v>1.38</v>
       </c>
-      <c r="AO72">
-        <v>2.5</v>
-      </c>
-      <c r="AP72">
-        <v>0.95</v>
-      </c>
-      <c r="AQ72">
-        <v>1.63</v>
-      </c>
-      <c r="AR72">
-        <v>1.24</v>
-      </c>
-      <c r="AS72">
-        <v>1.47</v>
-      </c>
       <c r="AT72">
-        <v>2.71</v>
+        <v>2.64</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -16076,7 +16091,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16148,25 +16163,25 @@
         <v>1.13</v>
       </c>
       <c r="AN73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AQ73">
         <v>1.89</v>
       </c>
       <c r="AR73">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="AS73">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="AT73">
-        <v>2.46</v>
+        <v>2.49</v>
       </c>
       <c r="AU73">
         <v>5</v>
@@ -16282,7 +16297,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16354,25 +16369,25 @@
         <v>1.4</v>
       </c>
       <c r="AN74">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="AO74">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74">
+        <v>1.22</v>
+      </c>
+      <c r="AR74">
         <v>0.9</v>
       </c>
-      <c r="AR74">
-        <v>0.95</v>
-      </c>
       <c r="AS74">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AT74">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16560,25 +16575,25 @@
         <v>1.41</v>
       </c>
       <c r="AN75">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO75">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="AP75">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AR75">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AS75">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AT75">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU75">
         <v>8</v>
@@ -16694,7 +16709,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16766,25 +16781,25 @@
         <v>1.35</v>
       </c>
       <c r="AN76">
-        <v>0.78</v>
+        <v>0.4</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AQ76">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AS76">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AT76">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -16972,25 +16987,25 @@
         <v>1.4</v>
       </c>
       <c r="AN77">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO77">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="AQ77">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR77">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AS77">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="AT77">
-        <v>3.14</v>
+        <v>3.33</v>
       </c>
       <c r="AU77">
         <v>10</v>
@@ -17106,7 +17121,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17178,25 +17193,25 @@
         <v>1.13</v>
       </c>
       <c r="AN78">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AO78">
-        <v>2.11</v>
+        <v>1.5</v>
       </c>
       <c r="AP78">
+        <v>1.6</v>
+      </c>
+      <c r="AQ78">
+        <v>2.1</v>
+      </c>
+      <c r="AR78">
         <v>1.11</v>
       </c>
-      <c r="AQ78">
-        <v>2.16</v>
-      </c>
-      <c r="AR78">
-        <v>1.02</v>
-      </c>
       <c r="AS78">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="AU78">
         <v>3</v>
@@ -17312,7 +17327,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17384,25 +17399,25 @@
         <v>2.2</v>
       </c>
       <c r="AN79">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="AO79">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AQ79">
-        <v>1.16</v>
+        <v>0.9</v>
       </c>
       <c r="AR79">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="AS79">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="AT79">
-        <v>2.83</v>
+        <v>2.49</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -17590,25 +17605,25 @@
         <v>1.55</v>
       </c>
       <c r="AN80">
+        <v>0.6</v>
+      </c>
+      <c r="AO80">
+        <v>0.75</v>
+      </c>
+      <c r="AP80">
+        <v>0.9</v>
+      </c>
+      <c r="AQ80">
         <v>1.33</v>
       </c>
-      <c r="AO80">
-        <v>0.44</v>
-      </c>
-      <c r="AP80">
-        <v>1.2</v>
-      </c>
-      <c r="AQ80">
-        <v>1.16</v>
-      </c>
       <c r="AR80">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AS80">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AT80">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17796,25 +17811,25 @@
         <v>2.5</v>
       </c>
       <c r="AN81">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AO81">
+        <v>0.5</v>
+      </c>
+      <c r="AP81">
+        <v>2.33</v>
+      </c>
+      <c r="AQ81">
+        <v>0.6</v>
+      </c>
+      <c r="AR81">
         <v>1.33</v>
       </c>
-      <c r="AP81">
-        <v>2.42</v>
-      </c>
-      <c r="AQ81">
-        <v>0.95</v>
-      </c>
-      <c r="AR81">
-        <v>1.45</v>
-      </c>
       <c r="AS81">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AT81">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -17930,7 +17945,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18002,25 +18017,25 @@
         <v>2.1</v>
       </c>
       <c r="AN82">
-        <v>1.2</v>
+        <v>0.67</v>
       </c>
       <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0.88</v>
+      </c>
+      <c r="AQ82">
         <v>0.8</v>
       </c>
-      <c r="AP82">
-        <v>1.16</v>
-      </c>
-      <c r="AQ82">
-        <v>0.89</v>
-      </c>
       <c r="AR82">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AS82">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="AT82">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AU82">
         <v>4</v>
@@ -18136,7 +18151,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18208,25 +18223,25 @@
         <v>1.25</v>
       </c>
       <c r="AN83">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AO83">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AP83">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AQ83">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AR83">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AS83">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AT83">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="AU83">
         <v>8</v>
@@ -18342,7 +18357,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18414,25 +18429,25 @@
         <v>2.64</v>
       </c>
       <c r="AN84">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AO84">
+        <v>2.25</v>
+      </c>
+      <c r="AP84">
+        <v>2.3</v>
+      </c>
+      <c r="AQ84">
         <v>1.5</v>
       </c>
-      <c r="AP84">
-        <v>2.16</v>
-      </c>
-      <c r="AQ84">
-        <v>1.2</v>
-      </c>
       <c r="AR84">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AT84">
-        <v>3.03</v>
+        <v>3.16</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -18548,7 +18563,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18620,25 +18635,25 @@
         <v>1.77</v>
       </c>
       <c r="AN85">
+        <v>0.75</v>
+      </c>
+      <c r="AO85">
+        <v>1.25</v>
+      </c>
+      <c r="AP85">
         <v>1.5</v>
       </c>
-      <c r="AO85">
-        <v>0.7</v>
-      </c>
-      <c r="AP85">
-        <v>1.63</v>
-      </c>
       <c r="AQ85">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AR85">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AS85">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="AT85">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18826,25 +18841,25 @@
         <v>1.33</v>
       </c>
       <c r="AN86">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="AO86">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AQ86">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AR86">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AS86">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AT86">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="AU86">
         <v>8</v>
@@ -18960,7 +18975,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19032,25 +19047,25 @@
         <v>1.42</v>
       </c>
       <c r="AN87">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AO87">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR87">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AS87">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="AT87">
-        <v>2.37</v>
+        <v>2.26</v>
       </c>
       <c r="AU87">
         <v>6</v>
@@ -19166,7 +19181,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19238,25 +19253,25 @@
         <v>1.19</v>
       </c>
       <c r="AN88">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AO88">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>1.89</v>
       </c>
       <c r="AR88">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AS88">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT88">
-        <v>2.75</v>
+        <v>2.81</v>
       </c>
       <c r="AU88">
         <v>2</v>
@@ -19444,25 +19459,25 @@
         <v>1.63</v>
       </c>
       <c r="AN89">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AO89">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ89">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR89">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT89">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19578,7 +19593,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19650,25 +19665,25 @@
         <v>3</v>
       </c>
       <c r="AN90">
-        <v>2.27</v>
+        <v>2.67</v>
       </c>
       <c r="AO90">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AQ90">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="AS90">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AT90">
-        <v>2.83</v>
+        <v>3.04</v>
       </c>
       <c r="AU90">
         <v>6</v>
@@ -19856,25 +19871,25 @@
         <v>1.48</v>
       </c>
       <c r="AN91">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AO91">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AQ91">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="AS91">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT91">
-        <v>2.19</v>
+        <v>2.43</v>
       </c>
       <c r="AU91">
         <v>5</v>
@@ -20062,25 +20077,25 @@
         <v>1.52</v>
       </c>
       <c r="AN92">
-        <v>0.64</v>
+        <v>0.33</v>
       </c>
       <c r="AO92">
-        <v>1.09</v>
+        <v>0.4</v>
       </c>
       <c r="AP92">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AQ92">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="AR92">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AS92">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="AT92">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="AU92">
         <v>2</v>
@@ -20196,7 +20211,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20268,25 +20283,25 @@
         <v>1.65</v>
       </c>
       <c r="AN93">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AO93">
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ93">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS93">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT93">
-        <v>2.69</v>
+        <v>2.91</v>
       </c>
       <c r="AU93">
         <v>0</v>
@@ -20474,25 +20489,25 @@
         <v>2.66</v>
       </c>
       <c r="AN94">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="AO94">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="AQ94">
-        <v>1.16</v>
+        <v>0.9</v>
       </c>
       <c r="AR94">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="AS94">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AT94">
-        <v>2.89</v>
+        <v>2.5</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20608,7 +20623,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20680,25 +20695,25 @@
         <v>1.42</v>
       </c>
       <c r="AN95">
+        <v>0.67</v>
+      </c>
+      <c r="AO95">
+        <v>1.83</v>
+      </c>
+      <c r="AP95">
+        <v>1.08</v>
+      </c>
+      <c r="AQ95">
+        <v>1.55</v>
+      </c>
+      <c r="AR95">
+        <v>1.59</v>
+      </c>
+      <c r="AS95">
         <v>1.09</v>
       </c>
-      <c r="AO95">
-        <v>1.64</v>
-      </c>
-      <c r="AP95">
-        <v>1.11</v>
-      </c>
-      <c r="AQ95">
-        <v>1.47</v>
-      </c>
-      <c r="AR95">
-        <v>1.67</v>
-      </c>
-      <c r="AS95">
-        <v>1.21</v>
-      </c>
       <c r="AT95">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -20814,7 +20829,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20886,25 +20901,25 @@
         <v>1.35</v>
       </c>
       <c r="AN96">
-        <v>0.82</v>
+        <v>1.33</v>
       </c>
       <c r="AO96">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AP96">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AQ96">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AR96">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="AS96">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AT96">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21020,7 +21035,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21092,25 +21107,25 @@
         <v>1.32</v>
       </c>
       <c r="AN97">
-        <v>2.18</v>
+        <v>3</v>
       </c>
       <c r="AO97">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="AQ97">
         <v>1.89</v>
       </c>
       <c r="AR97">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AS97">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="AT97">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21298,25 +21313,25 @@
         <v>1.39</v>
       </c>
       <c r="AN98">
-        <v>0.58</v>
+        <v>0.17</v>
       </c>
       <c r="AO98">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AR98">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AS98">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT98">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21432,7 +21447,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21504,25 +21519,25 @@
         <v>1.67</v>
       </c>
       <c r="AN99">
-        <v>1.08</v>
+        <v>1.67</v>
       </c>
       <c r="AO99">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR99">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AS99">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AT99">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="AU99">
         <v>8</v>
@@ -21638,7 +21653,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21710,25 +21725,25 @@
         <v>1.29</v>
       </c>
       <c r="AN100">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AO100">
         <v>2.67</v>
       </c>
       <c r="AP100">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AQ100">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AR100">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AS100">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT100">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="AU100">
         <v>6</v>
@@ -21916,25 +21931,25 @@
         <v>1.51</v>
       </c>
       <c r="AN101">
-        <v>1.08</v>
+        <v>0.75</v>
       </c>
       <c r="AO101">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="AP101">
-        <v>1.16</v>
+        <v>0.88</v>
       </c>
       <c r="AQ101">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR101">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AS101">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT101">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU101">
         <v>0</v>
@@ -22122,25 +22137,25 @@
         <v>1.84</v>
       </c>
       <c r="AN102">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AO102">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="AP102">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR102">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AS102">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="AT102">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22328,25 +22343,25 @@
         <v>1.45</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO103">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AQ103">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR103">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="AS103">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="AT103">
-        <v>2.53</v>
+        <v>2.72</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22462,7 +22477,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22534,25 +22549,25 @@
         <v>1.91</v>
       </c>
       <c r="AN104">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO104">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AQ104">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AR104">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="AS104">
-        <v>1.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT104">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22668,7 +22683,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22740,25 +22755,25 @@
         <v>1.12</v>
       </c>
       <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
+        <v>1.8</v>
+      </c>
+      <c r="AP105">
+        <v>0.64</v>
+      </c>
+      <c r="AQ105">
+        <v>2.1</v>
+      </c>
+      <c r="AR105">
         <v>1.17</v>
       </c>
-      <c r="AO105">
-        <v>2.08</v>
-      </c>
-      <c r="AP105">
-        <v>0.9</v>
-      </c>
-      <c r="AQ105">
-        <v>2.16</v>
-      </c>
-      <c r="AR105">
-        <v>1.26</v>
-      </c>
       <c r="AS105">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="AT105">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="AU105">
         <v>2</v>
@@ -22946,25 +22961,25 @@
         <v>2.55</v>
       </c>
       <c r="AN106">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AO106">
-        <v>1.85</v>
+        <v>1.29</v>
       </c>
       <c r="AP106">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="AQ106">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AR106">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="AS106">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>3.08</v>
+        <v>2.87</v>
       </c>
       <c r="AU106">
         <v>3</v>
@@ -23080,7 +23095,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23152,25 +23167,25 @@
         <v>1.65</v>
       </c>
       <c r="AN107">
-        <v>1.38</v>
+        <v>0.86</v>
       </c>
       <c r="AO107">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="AP107">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ107">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="AR107">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AS107">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT107">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23358,25 +23373,25 @@
         <v>1.48</v>
       </c>
       <c r="AN108">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
       <c r="AO108">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AP108">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AQ108">
-        <v>1.16</v>
+        <v>0.9</v>
       </c>
       <c r="AR108">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AS108">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="AT108">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="AU108">
         <v>6</v>
@@ -23492,7 +23507,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23564,25 +23579,25 @@
         <v>1.25</v>
       </c>
       <c r="AN109">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AO109">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AQ109">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR109">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AS109">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AT109">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="AU109">
         <v>2</v>
@@ -23770,25 +23785,25 @@
         <v>2.4</v>
       </c>
       <c r="AN110">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="AO110">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AQ110">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AR110">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AS110">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT110">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="AU110">
         <v>5</v>
@@ -23904,7 +23919,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -23976,22 +23991,22 @@
         <v>1.57</v>
       </c>
       <c r="AN111">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AO111">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AQ111">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="AR111">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="AS111">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="AT111">
         <v>2.13</v>
@@ -24182,25 +24197,25 @@
         <v>1.3</v>
       </c>
       <c r="AN112">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AO112">
         <v>1.38</v>
       </c>
       <c r="AP112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AQ112">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR112">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AS112">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AT112">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24316,7 +24331,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24388,25 +24403,25 @@
         <v>1.4</v>
       </c>
       <c r="AN113">
+        <v>0.86</v>
+      </c>
+      <c r="AO113">
+        <v>1</v>
+      </c>
+      <c r="AP113">
+        <v>0.64</v>
+      </c>
+      <c r="AQ113">
+        <v>1.33</v>
+      </c>
+      <c r="AR113">
         <v>1.08</v>
       </c>
-      <c r="AO113">
-        <v>0.77</v>
-      </c>
-      <c r="AP113">
-        <v>0.9</v>
-      </c>
-      <c r="AQ113">
-        <v>1.16</v>
-      </c>
-      <c r="AR113">
-        <v>1.2</v>
-      </c>
       <c r="AS113">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AT113">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -24594,25 +24609,25 @@
         <v>1.67</v>
       </c>
       <c r="AN114">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AO114">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AQ114">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR114">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AS114">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AT114">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU114">
         <v>3</v>
@@ -24728,7 +24743,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24800,25 +24815,25 @@
         <v>1.38</v>
       </c>
       <c r="AN115">
-        <v>0.93</v>
+        <v>1.43</v>
       </c>
       <c r="AO115">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AP115">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
       <c r="AQ115">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="AS115">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT115">
-        <v>2.6</v>
+        <v>2.73</v>
       </c>
       <c r="AU115">
         <v>4</v>
@@ -24934,7 +24949,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25006,25 +25021,25 @@
         <v>1.12</v>
       </c>
       <c r="AN116">
-        <v>0.93</v>
+        <v>0.57</v>
       </c>
       <c r="AO116">
         <v>2.71</v>
       </c>
       <c r="AP116">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AR116">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AS116">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT116">
-        <v>2.73</v>
+        <v>2.83</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25212,25 +25227,25 @@
         <v>2.13</v>
       </c>
       <c r="AN117">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AO117">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AQ117">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AR117">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="AS117">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="AT117">
-        <v>2.66</v>
+        <v>2.39</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25346,7 +25361,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25418,25 +25433,25 @@
         <v>1.84</v>
       </c>
       <c r="AN118">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="AO118">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP118">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AQ118">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR118">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AS118">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="AT118">
-        <v>2.51</v>
+        <v>2.16</v>
       </c>
       <c r="AU118">
         <v>7</v>
@@ -25552,7 +25567,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25624,25 +25639,25 @@
         <v>1.52</v>
       </c>
       <c r="AN119">
-        <v>0.93</v>
+        <v>0.6</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.16</v>
+        <v>0.88</v>
       </c>
       <c r="AQ119">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AR119">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="AS119">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AT119">
-        <v>2.39</v>
+        <v>2.36</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25830,25 +25845,25 @@
         <v>1.54</v>
       </c>
       <c r="AN120">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="AO120">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="AQ120">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR120">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AS120">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AT120">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -25964,7 +25979,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26036,25 +26051,25 @@
         <v>1.17</v>
       </c>
       <c r="AN121">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="AO121">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AR121">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AS121">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="AT121">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26170,7 +26185,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26251,7 +26266,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ122">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR122">
         <v>1.55</v>
@@ -26376,7 +26391,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26788,7 +26803,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -26994,7 +27009,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27487,7 +27502,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ128">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR128">
         <v>1.14</v>
@@ -27690,7 +27705,7 @@
         <v>2.25</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ129">
         <v>1.9</v>
@@ -28230,7 +28245,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28311,7 +28326,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ132">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.77</v>
@@ -28642,7 +28657,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q134">
         <v>2.91</v>
@@ -28926,7 +28941,7 @@
         <v>0.88</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ135">
         <v>0.8</v>
@@ -29054,7 +29069,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29260,7 +29275,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29338,7 +29353,7 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
         <v>1.55</v>
@@ -29672,7 +29687,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29878,7 +29893,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30084,7 +30099,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30496,7 +30511,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30574,10 +30589,10 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ143">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR143">
         <v>1.03</v>
@@ -30702,7 +30717,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30783,7 +30798,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ144">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR144">
         <v>1.53</v>
@@ -30908,7 +30923,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31195,7 +31210,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ146">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR146">
         <v>1.41</v>
@@ -31398,7 +31413,7 @@
         <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
         <v>0.5600000000000001</v>
@@ -31526,7 +31541,7 @@
         <v>89</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="Q148">
         <v>1.92</v>
@@ -31938,7 +31953,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32144,7 +32159,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>1.75</v>
@@ -32350,7 +32365,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32556,7 +32571,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -32759,7 +32774,7 @@
         <v>2</v>
       </c>
       <c r="O154" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="P154" t="s">
         <v>102</v>
@@ -32919,6 +32934,624 @@
       </c>
       <c r="BP154">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7446506</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45486.52083333334</v>
+      </c>
+      <c r="F155">
+        <v>5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>83</v>
+      </c>
+      <c r="H155" t="s">
+        <v>81</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>3</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>5</v>
+      </c>
+      <c r="O155" t="s">
+        <v>190</v>
+      </c>
+      <c r="P155" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q155">
+        <v>4.55</v>
+      </c>
+      <c r="R155">
+        <v>2.14</v>
+      </c>
+      <c r="S155">
+        <v>2.33</v>
+      </c>
+      <c r="T155">
+        <v>1.38</v>
+      </c>
+      <c r="U155">
+        <v>2.9</v>
+      </c>
+      <c r="V155">
+        <v>2.77</v>
+      </c>
+      <c r="W155">
+        <v>1.41</v>
+      </c>
+      <c r="X155">
+        <v>7</v>
+      </c>
+      <c r="Y155">
+        <v>1.08</v>
+      </c>
+      <c r="Z155">
+        <v>3.8</v>
+      </c>
+      <c r="AA155">
+        <v>3.7</v>
+      </c>
+      <c r="AB155">
+        <v>1.85</v>
+      </c>
+      <c r="AC155">
+        <v>1.02</v>
+      </c>
+      <c r="AD155">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE155">
+        <v>1.26</v>
+      </c>
+      <c r="AF155">
+        <v>3.34</v>
+      </c>
+      <c r="AG155">
+        <v>1.93</v>
+      </c>
+      <c r="AH155">
+        <v>1.88</v>
+      </c>
+      <c r="AI155">
+        <v>1.77</v>
+      </c>
+      <c r="AJ155">
+        <v>1.89</v>
+      </c>
+      <c r="AK155">
+        <v>1.91</v>
+      </c>
+      <c r="AL155">
+        <v>1.25</v>
+      </c>
+      <c r="AM155">
+        <v>1.19</v>
+      </c>
+      <c r="AN155">
+        <v>1</v>
+      </c>
+      <c r="AO155">
+        <v>1.14</v>
+      </c>
+      <c r="AP155">
+        <v>1.2</v>
+      </c>
+      <c r="AQ155">
+        <v>1</v>
+      </c>
+      <c r="AR155">
+        <v>1.09</v>
+      </c>
+      <c r="AS155">
+        <v>1.65</v>
+      </c>
+      <c r="AT155">
+        <v>2.74</v>
+      </c>
+      <c r="AU155">
+        <v>4</v>
+      </c>
+      <c r="AV155">
+        <v>3</v>
+      </c>
+      <c r="AW155">
+        <v>2</v>
+      </c>
+      <c r="AX155">
+        <v>6</v>
+      </c>
+      <c r="AY155">
+        <v>6</v>
+      </c>
+      <c r="AZ155">
+        <v>9</v>
+      </c>
+      <c r="BA155">
+        <v>2</v>
+      </c>
+      <c r="BB155">
+        <v>4</v>
+      </c>
+      <c r="BC155">
+        <v>6</v>
+      </c>
+      <c r="BD155">
+        <v>2.33</v>
+      </c>
+      <c r="BE155">
+        <v>6.4</v>
+      </c>
+      <c r="BF155">
+        <v>1.88</v>
+      </c>
+      <c r="BG155">
+        <v>1.2</v>
+      </c>
+      <c r="BH155">
+        <v>3.84</v>
+      </c>
+      <c r="BI155">
+        <v>1.39</v>
+      </c>
+      <c r="BJ155">
+        <v>2.67</v>
+      </c>
+      <c r="BK155">
+        <v>1.77</v>
+      </c>
+      <c r="BL155">
+        <v>1.95</v>
+      </c>
+      <c r="BM155">
+        <v>2.14</v>
+      </c>
+      <c r="BN155">
+        <v>1.6</v>
+      </c>
+      <c r="BO155">
+        <v>2.84</v>
+      </c>
+      <c r="BP155">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7446504</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45486.625</v>
+      </c>
+      <c r="F156">
+        <v>5</v>
+      </c>
+      <c r="G156" t="s">
+        <v>85</v>
+      </c>
+      <c r="H156" t="s">
+        <v>70</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>3</v>
+      </c>
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>6</v>
+      </c>
+      <c r="N156">
+        <v>6</v>
+      </c>
+      <c r="O156" t="s">
+        <v>93</v>
+      </c>
+      <c r="P156" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q156">
+        <v>5.3</v>
+      </c>
+      <c r="R156">
+        <v>2.07</v>
+      </c>
+      <c r="S156">
+        <v>2.25</v>
+      </c>
+      <c r="T156">
+        <v>1.44</v>
+      </c>
+      <c r="U156">
+        <v>2.66</v>
+      </c>
+      <c r="V156">
+        <v>3.1</v>
+      </c>
+      <c r="W156">
+        <v>1.34</v>
+      </c>
+      <c r="X156">
+        <v>8.1</v>
+      </c>
+      <c r="Y156">
+        <v>1.06</v>
+      </c>
+      <c r="Z156">
+        <v>4.5</v>
+      </c>
+      <c r="AA156">
+        <v>3.5</v>
+      </c>
+      <c r="AB156">
+        <v>1.77</v>
+      </c>
+      <c r="AC156">
+        <v>1.03</v>
+      </c>
+      <c r="AD156">
+        <v>8</v>
+      </c>
+      <c r="AE156">
+        <v>1.33</v>
+      </c>
+      <c r="AF156">
+        <v>2.91</v>
+      </c>
+      <c r="AG156">
+        <v>2.14</v>
+      </c>
+      <c r="AH156">
+        <v>1.67</v>
+      </c>
+      <c r="AI156">
+        <v>1.97</v>
+      </c>
+      <c r="AJ156">
+        <v>1.71</v>
+      </c>
+      <c r="AK156">
+        <v>2.05</v>
+      </c>
+      <c r="AL156">
+        <v>1.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.14</v>
+      </c>
+      <c r="AN156">
+        <v>1</v>
+      </c>
+      <c r="AO156">
+        <v>2</v>
+      </c>
+      <c r="AP156">
+        <v>0.88</v>
+      </c>
+      <c r="AQ156">
+        <v>2.1</v>
+      </c>
+      <c r="AR156">
+        <v>1.07</v>
+      </c>
+      <c r="AS156">
+        <v>1.63</v>
+      </c>
+      <c r="AT156">
+        <v>2.7</v>
+      </c>
+      <c r="AU156">
+        <v>0</v>
+      </c>
+      <c r="AV156">
+        <v>9</v>
+      </c>
+      <c r="AW156">
+        <v>3</v>
+      </c>
+      <c r="AX156">
+        <v>1</v>
+      </c>
+      <c r="AY156">
+        <v>3</v>
+      </c>
+      <c r="AZ156">
+        <v>10</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>7</v>
+      </c>
+      <c r="BC156">
+        <v>7</v>
+      </c>
+      <c r="BD156">
+        <v>3.5</v>
+      </c>
+      <c r="BE156">
+        <v>9</v>
+      </c>
+      <c r="BF156">
+        <v>1.4</v>
+      </c>
+      <c r="BG156">
+        <v>1.36</v>
+      </c>
+      <c r="BH156">
+        <v>2.9</v>
+      </c>
+      <c r="BI156">
+        <v>1.61</v>
+      </c>
+      <c r="BJ156">
+        <v>2.17</v>
+      </c>
+      <c r="BK156">
+        <v>1.95</v>
+      </c>
+      <c r="BL156">
+        <v>1.77</v>
+      </c>
+      <c r="BM156">
+        <v>2.55</v>
+      </c>
+      <c r="BN156">
+        <v>1.45</v>
+      </c>
+      <c r="BO156">
+        <v>3.4</v>
+      </c>
+      <c r="BP156">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7446507</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45486.72916666666</v>
+      </c>
+      <c r="F157">
+        <v>5</v>
+      </c>
+      <c r="G157" t="s">
+        <v>79</v>
+      </c>
+      <c r="H157" t="s">
+        <v>72</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>191</v>
+      </c>
+      <c r="P157" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q157">
+        <v>2.88</v>
+      </c>
+      <c r="R157">
+        <v>2.05</v>
+      </c>
+      <c r="S157">
+        <v>4</v>
+      </c>
+      <c r="T157">
+        <v>1.44</v>
+      </c>
+      <c r="U157">
+        <v>2.63</v>
+      </c>
+      <c r="V157">
+        <v>3.25</v>
+      </c>
+      <c r="W157">
+        <v>1.33</v>
+      </c>
+      <c r="X157">
+        <v>10</v>
+      </c>
+      <c r="Y157">
+        <v>1.06</v>
+      </c>
+      <c r="Z157">
+        <v>2.06</v>
+      </c>
+      <c r="AA157">
+        <v>3.19</v>
+      </c>
+      <c r="AB157">
+        <v>3.44</v>
+      </c>
+      <c r="AC157">
+        <v>0</v>
+      </c>
+      <c r="AD157">
+        <v>0</v>
+      </c>
+      <c r="AE157">
+        <v>0</v>
+      </c>
+      <c r="AF157">
+        <v>0</v>
+      </c>
+      <c r="AG157">
+        <v>2.15</v>
+      </c>
+      <c r="AH157">
+        <v>1.65</v>
+      </c>
+      <c r="AI157">
+        <v>1.91</v>
+      </c>
+      <c r="AJ157">
+        <v>1.8</v>
+      </c>
+      <c r="AK157">
+        <v>0</v>
+      </c>
+      <c r="AL157">
+        <v>0</v>
+      </c>
+      <c r="AM157">
+        <v>0</v>
+      </c>
+      <c r="AN157">
+        <v>1.33</v>
+      </c>
+      <c r="AO157">
+        <v>1.22</v>
+      </c>
+      <c r="AP157">
+        <v>1.5</v>
+      </c>
+      <c r="AQ157">
+        <v>1.1</v>
+      </c>
+      <c r="AR157">
+        <v>1.48</v>
+      </c>
+      <c r="AS157">
+        <v>1.05</v>
+      </c>
+      <c r="AT157">
+        <v>2.53</v>
+      </c>
+      <c r="AU157">
+        <v>6</v>
+      </c>
+      <c r="AV157">
+        <v>7</v>
+      </c>
+      <c r="AW157">
+        <v>4</v>
+      </c>
+      <c r="AX157">
+        <v>4</v>
+      </c>
+      <c r="AY157">
+        <v>10</v>
+      </c>
+      <c r="AZ157">
+        <v>11</v>
+      </c>
+      <c r="BA157">
+        <v>3</v>
+      </c>
+      <c r="BB157">
+        <v>2</v>
+      </c>
+      <c r="BC157">
+        <v>5</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>0</v>
+      </c>
+      <c r="BG157">
+        <v>0</v>
+      </c>
+      <c r="BH157">
+        <v>0</v>
+      </c>
+      <c r="BI157">
+        <v>0</v>
+      </c>
+      <c r="BJ157">
+        <v>0</v>
+      </c>
+      <c r="BK157">
+        <v>0</v>
+      </c>
+      <c r="BL157">
+        <v>0</v>
+      </c>
+      <c r="BM157">
+        <v>0</v>
+      </c>
+      <c r="BN157">
+        <v>0</v>
+      </c>
+      <c r="BO157">
+        <v>0</v>
+      </c>
+      <c r="BP157">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,10 +586,16 @@
     <t>['2']</t>
   </si>
   <si>
-    <t>['22', '42', '49']</t>
+    <t>['21', '41', '49']</t>
   </si>
   <si>
-    <t>['32', '78']</t>
+    <t>['31', '78']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['20', '25', '68', '90+4']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -841,10 +847,16 @@
     <t>['55', '90+1']</t>
   </si>
   <si>
-    <t>['24', '35', '38', '61', '88', '90+6']</t>
+    <t>['23', '34', '37', '51', '88', '90+6']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['5', '44']</t>
+  </si>
+  <si>
+    <t>['11', '61', '88']</t>
+  </si>
+  <si>
+    <t>['13', '83']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1477,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1671,7 +1683,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1749,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ3">
         <v>1.25</v>
@@ -1877,7 +1889,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1958,7 +1970,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ4">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2083,7 +2095,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2367,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ6">
         <v>0.9</v>
@@ -2495,7 +2507,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2701,7 +2713,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2782,7 +2794,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ8">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2907,7 +2919,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2985,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ9">
         <v>1.22</v>
@@ -3191,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -4349,7 +4361,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4427,10 +4439,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ16">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.34</v>
@@ -4555,7 +4567,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4636,7 +4648,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ17">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4761,7 +4773,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4842,7 +4854,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ18">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -5045,7 +5057,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ19">
         <v>1.25</v>
@@ -5379,7 +5391,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5457,7 +5469,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ21">
         <v>1.9</v>
@@ -5585,7 +5597,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5791,7 +5803,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5872,7 +5884,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ23">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5997,7 +6009,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6203,7 +6215,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6281,7 +6293,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ25">
         <v>1.9</v>
@@ -6615,7 +6627,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6821,7 +6833,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7027,7 +7039,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7517,7 +7529,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ31">
         <v>1.22</v>
@@ -7929,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ33">
         <v>0.6</v>
@@ -8057,7 +8069,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8138,7 +8150,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ34">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -8263,7 +8275,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8550,7 +8562,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ36">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8756,7 +8768,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ37">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -8881,7 +8893,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8959,10 +8971,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ38">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -9087,7 +9099,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9293,7 +9305,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9499,7 +9511,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10117,7 +10129,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10735,7 +10747,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10941,7 +10953,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11019,7 +11031,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
         <v>1.9</v>
@@ -11147,7 +11159,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11228,7 +11240,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11353,7 +11365,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11431,7 +11443,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ50">
         <v>0.9</v>
@@ -11559,7 +11571,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11765,7 +11777,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11846,7 +11858,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ52">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.3</v>
@@ -12052,7 +12064,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ53">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12255,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ54">
         <v>0.8</v>
@@ -12383,7 +12395,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12461,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12589,7 +12601,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12670,7 +12682,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ56">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -13079,7 +13091,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ58">
         <v>1.33</v>
@@ -13207,7 +13219,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13288,7 +13300,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ59">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -13619,7 +13631,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -14031,7 +14043,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14109,7 +14121,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14237,7 +14249,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14730,7 +14742,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ66">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -14855,7 +14867,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14936,7 +14948,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ67">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -15061,7 +15073,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15142,7 +15154,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15267,7 +15279,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15473,7 +15485,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15679,7 +15691,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15757,7 +15769,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ71">
         <v>0.9</v>
@@ -15885,7 +15897,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15963,10 +15975,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ72">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.26</v>
@@ -16091,7 +16103,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16172,7 +16184,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR73">
         <v>0.8</v>
@@ -16297,7 +16309,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16709,7 +16721,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17121,7 +17133,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17199,7 +17211,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ78">
         <v>2.1</v>
@@ -17327,7 +17339,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17945,7 +17957,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18151,7 +18163,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18232,7 +18244,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ83">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18357,7 +18369,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18563,7 +18575,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18847,10 +18859,10 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ86">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.57</v>
@@ -18975,7 +18987,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19053,10 +19065,10 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ87">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -19181,7 +19193,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19259,10 +19271,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ88">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19593,7 +19605,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19877,7 +19889,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ91">
         <v>1.25</v>
@@ -20211,7 +20223,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20623,7 +20635,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20704,7 +20716,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ95">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>1.59</v>
@@ -20829,7 +20841,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21035,7 +21047,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21116,7 +21128,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ97">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21319,10 +21331,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ98">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.19</v>
@@ -21447,7 +21459,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21525,7 +21537,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ99">
         <v>0.8</v>
@@ -21653,7 +21665,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21734,7 +21746,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ100">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR100">
         <v>1.43</v>
@@ -22349,10 +22361,10 @@
         <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ103">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR103">
         <v>1.68</v>
@@ -22477,7 +22489,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22683,7 +22695,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22970,7 +22982,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ106">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.37</v>
@@ -23095,7 +23107,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23507,7 +23519,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23919,7 +23931,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -23997,7 +24009,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ111">
         <v>0.6</v>
@@ -24206,7 +24218,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ112">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24331,7 +24343,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24615,7 +24627,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ114">
         <v>0.8</v>
@@ -24743,7 +24755,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24821,7 +24833,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ115">
         <v>1.5</v>
@@ -24949,7 +24961,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25027,10 +25039,10 @@
         <v>2.71</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ116">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR116">
         <v>1.25</v>
@@ -25361,7 +25373,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25567,7 +25579,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25854,7 +25866,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ120">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR120">
         <v>1.7</v>
@@ -25979,7 +25991,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26185,7 +26197,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26391,7 +26403,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26675,10 +26687,10 @@
         <v>2.75</v>
       </c>
       <c r="AP124">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ124">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -26803,7 +26815,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -26884,7 +26896,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ125">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR125">
         <v>1.09</v>
@@ -27009,7 +27021,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27499,7 +27511,7 @@
         <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ128">
         <v>2.1</v>
@@ -28117,7 +28129,7 @@
         <v>1.29</v>
       </c>
       <c r="AP131">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ131">
         <v>1.22</v>
@@ -28245,7 +28257,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28532,7 +28544,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ133">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.43</v>
@@ -28657,7 +28669,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q134">
         <v>2.91</v>
@@ -28735,7 +28747,7 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ134">
         <v>0.9</v>
@@ -29069,7 +29081,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29275,7 +29287,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29356,7 +29368,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR137">
         <v>1.46</v>
@@ -29559,7 +29571,7 @@
         <v>1.1</v>
       </c>
       <c r="AP138">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ138">
         <v>1.25</v>
@@ -29687,7 +29699,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29893,7 +29905,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -29974,7 +29986,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ140">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30099,7 +30111,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30180,7 +30192,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ141">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -30511,7 +30523,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30717,7 +30729,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30923,7 +30935,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31001,7 +31013,7 @@
         <v>0.38</v>
       </c>
       <c r="AP145">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ145">
         <v>0.6</v>
@@ -31825,7 +31837,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ149">
         <v>0.6</v>
@@ -31953,7 +31965,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32159,7 +32171,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>1.75</v>
@@ -32365,7 +32377,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32571,7 +32583,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -32983,7 +32995,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33189,7 +33201,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33395,7 +33407,7 @@
         <v>191</v>
       </c>
       <c r="P157" t="s">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33552,6 +33564,830 @@
       </c>
       <c r="BP157">
         <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7446505</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45487.41666666666</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>74</v>
+      </c>
+      <c r="H158" t="s">
+        <v>76</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>93</v>
+      </c>
+      <c r="P158" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q158">
+        <v>3.14</v>
+      </c>
+      <c r="R158">
+        <v>1.93</v>
+      </c>
+      <c r="S158">
+        <v>3.55</v>
+      </c>
+      <c r="T158">
+        <v>1.51</v>
+      </c>
+      <c r="U158">
+        <v>2.45</v>
+      </c>
+      <c r="V158">
+        <v>3.4</v>
+      </c>
+      <c r="W158">
+        <v>1.29</v>
+      </c>
+      <c r="X158">
+        <v>9.1</v>
+      </c>
+      <c r="Y158">
+        <v>1.04</v>
+      </c>
+      <c r="Z158">
+        <v>2.45</v>
+      </c>
+      <c r="AA158">
+        <v>3.15</v>
+      </c>
+      <c r="AB158">
+        <v>2.75</v>
+      </c>
+      <c r="AC158">
+        <v>1.05</v>
+      </c>
+      <c r="AD158">
+        <v>7</v>
+      </c>
+      <c r="AE158">
+        <v>1.41</v>
+      </c>
+      <c r="AF158">
+        <v>2.6</v>
+      </c>
+      <c r="AG158">
+        <v>2.25</v>
+      </c>
+      <c r="AH158">
+        <v>1.57</v>
+      </c>
+      <c r="AI158">
+        <v>1.94</v>
+      </c>
+      <c r="AJ158">
+        <v>1.73</v>
+      </c>
+      <c r="AK158">
+        <v>1.38</v>
+      </c>
+      <c r="AL158">
+        <v>1.32</v>
+      </c>
+      <c r="AM158">
+        <v>1.47</v>
+      </c>
+      <c r="AN158">
+        <v>1.6</v>
+      </c>
+      <c r="AO158">
+        <v>1.55</v>
+      </c>
+      <c r="AP158">
+        <v>1.45</v>
+      </c>
+      <c r="AQ158">
+        <v>1.67</v>
+      </c>
+      <c r="AR158">
+        <v>1.13</v>
+      </c>
+      <c r="AS158">
+        <v>1.22</v>
+      </c>
+      <c r="AT158">
+        <v>2.35</v>
+      </c>
+      <c r="AU158">
+        <v>3</v>
+      </c>
+      <c r="AV158">
+        <v>2</v>
+      </c>
+      <c r="AW158">
+        <v>4</v>
+      </c>
+      <c r="AX158">
+        <v>4</v>
+      </c>
+      <c r="AY158">
+        <v>7</v>
+      </c>
+      <c r="AZ158">
+        <v>6</v>
+      </c>
+      <c r="BA158">
+        <v>8</v>
+      </c>
+      <c r="BB158">
+        <v>3</v>
+      </c>
+      <c r="BC158">
+        <v>11</v>
+      </c>
+      <c r="BD158">
+        <v>1.83</v>
+      </c>
+      <c r="BE158">
+        <v>6.25</v>
+      </c>
+      <c r="BF158">
+        <v>2.43</v>
+      </c>
+      <c r="BG158">
+        <v>1.28</v>
+      </c>
+      <c r="BH158">
+        <v>3.18</v>
+      </c>
+      <c r="BI158">
+        <v>1.54</v>
+      </c>
+      <c r="BJ158">
+        <v>2.25</v>
+      </c>
+      <c r="BK158">
+        <v>1.85</v>
+      </c>
+      <c r="BL158">
+        <v>1.85</v>
+      </c>
+      <c r="BM158">
+        <v>2.54</v>
+      </c>
+      <c r="BN158">
+        <v>1.43</v>
+      </c>
+      <c r="BO158">
+        <v>3.48</v>
+      </c>
+      <c r="BP158">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7446501</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45487.52083333334</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>71</v>
+      </c>
+      <c r="H159" t="s">
+        <v>82</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>102</v>
+      </c>
+      <c r="P159" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q159">
+        <v>4.05</v>
+      </c>
+      <c r="R159">
+        <v>1.95</v>
+      </c>
+      <c r="S159">
+        <v>2.8</v>
+      </c>
+      <c r="T159">
+        <v>1.48</v>
+      </c>
+      <c r="U159">
+        <v>2.54</v>
+      </c>
+      <c r="V159">
+        <v>3.14</v>
+      </c>
+      <c r="W159">
+        <v>1.33</v>
+      </c>
+      <c r="X159">
+        <v>8.4</v>
+      </c>
+      <c r="Y159">
+        <v>1.05</v>
+      </c>
+      <c r="Z159">
+        <v>3.02</v>
+      </c>
+      <c r="AA159">
+        <v>2.98</v>
+      </c>
+      <c r="AB159">
+        <v>2.07</v>
+      </c>
+      <c r="AC159">
+        <v>1.04</v>
+      </c>
+      <c r="AD159">
+        <v>7.3</v>
+      </c>
+      <c r="AE159">
+        <v>1.36</v>
+      </c>
+      <c r="AF159">
+        <v>2.79</v>
+      </c>
+      <c r="AG159">
+        <v>2.1</v>
+      </c>
+      <c r="AH159">
+        <v>1.65</v>
+      </c>
+      <c r="AI159">
+        <v>1.86</v>
+      </c>
+      <c r="AJ159">
+        <v>1.8</v>
+      </c>
+      <c r="AK159">
+        <v>1.61</v>
+      </c>
+      <c r="AL159">
+        <v>1.31</v>
+      </c>
+      <c r="AM159">
+        <v>1.28</v>
+      </c>
+      <c r="AN159">
+        <v>1</v>
+      </c>
+      <c r="AO159">
+        <v>1.89</v>
+      </c>
+      <c r="AP159">
+        <v>0.91</v>
+      </c>
+      <c r="AQ159">
+        <v>2</v>
+      </c>
+      <c r="AR159">
+        <v>1.36</v>
+      </c>
+      <c r="AS159">
+        <v>1.54</v>
+      </c>
+      <c r="AT159">
+        <v>2.9</v>
+      </c>
+      <c r="AU159">
+        <v>7</v>
+      </c>
+      <c r="AV159">
+        <v>8</v>
+      </c>
+      <c r="AW159">
+        <v>4</v>
+      </c>
+      <c r="AX159">
+        <v>8</v>
+      </c>
+      <c r="AY159">
+        <v>11</v>
+      </c>
+      <c r="AZ159">
+        <v>16</v>
+      </c>
+      <c r="BA159">
+        <v>4</v>
+      </c>
+      <c r="BB159">
+        <v>3</v>
+      </c>
+      <c r="BC159">
+        <v>7</v>
+      </c>
+      <c r="BD159">
+        <v>2.09</v>
+      </c>
+      <c r="BE159">
+        <v>6.2</v>
+      </c>
+      <c r="BF159">
+        <v>2.09</v>
+      </c>
+      <c r="BG159">
+        <v>1.27</v>
+      </c>
+      <c r="BH159">
+        <v>3.28</v>
+      </c>
+      <c r="BI159">
+        <v>1.51</v>
+      </c>
+      <c r="BJ159">
+        <v>2.32</v>
+      </c>
+      <c r="BK159">
+        <v>1.85</v>
+      </c>
+      <c r="BL159">
+        <v>1.85</v>
+      </c>
+      <c r="BM159">
+        <v>2.45</v>
+      </c>
+      <c r="BN159">
+        <v>1.46</v>
+      </c>
+      <c r="BO159">
+        <v>3.34</v>
+      </c>
+      <c r="BP159">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7446500</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45487.625</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>77</v>
+      </c>
+      <c r="H160" t="s">
+        <v>80</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>3</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>192</v>
+      </c>
+      <c r="P160" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q160">
+        <v>6.05</v>
+      </c>
+      <c r="R160">
+        <v>2.11</v>
+      </c>
+      <c r="S160">
+        <v>2.09</v>
+      </c>
+      <c r="T160">
+        <v>1.43</v>
+      </c>
+      <c r="U160">
+        <v>2.7</v>
+      </c>
+      <c r="V160">
+        <v>3.04</v>
+      </c>
+      <c r="W160">
+        <v>1.35</v>
+      </c>
+      <c r="X160">
+        <v>7.9</v>
+      </c>
+      <c r="Y160">
+        <v>1.06</v>
+      </c>
+      <c r="Z160">
+        <v>5.13</v>
+      </c>
+      <c r="AA160">
+        <v>3.44</v>
+      </c>
+      <c r="AB160">
+        <v>1.51</v>
+      </c>
+      <c r="AC160">
+        <v>1.03</v>
+      </c>
+      <c r="AD160">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE160">
+        <v>1.33</v>
+      </c>
+      <c r="AF160">
+        <v>2.93</v>
+      </c>
+      <c r="AG160">
+        <v>2</v>
+      </c>
+      <c r="AH160">
+        <v>1.7</v>
+      </c>
+      <c r="AI160">
+        <v>2.05</v>
+      </c>
+      <c r="AJ160">
+        <v>1.65</v>
+      </c>
+      <c r="AK160">
+        <v>2.28</v>
+      </c>
+      <c r="AL160">
+        <v>1.22</v>
+      </c>
+      <c r="AM160">
+        <v>1.1</v>
+      </c>
+      <c r="AN160">
+        <v>1.33</v>
+      </c>
+      <c r="AO160">
+        <v>2.5</v>
+      </c>
+      <c r="AP160">
+        <v>1.2</v>
+      </c>
+      <c r="AQ160">
+        <v>2.55</v>
+      </c>
+      <c r="AR160">
+        <v>1.5</v>
+      </c>
+      <c r="AS160">
+        <v>1.49</v>
+      </c>
+      <c r="AT160">
+        <v>2.99</v>
+      </c>
+      <c r="AU160">
+        <v>2</v>
+      </c>
+      <c r="AV160">
+        <v>5</v>
+      </c>
+      <c r="AW160">
+        <v>0</v>
+      </c>
+      <c r="AX160">
+        <v>2</v>
+      </c>
+      <c r="AY160">
+        <v>2</v>
+      </c>
+      <c r="AZ160">
+        <v>7</v>
+      </c>
+      <c r="BA160">
+        <v>0</v>
+      </c>
+      <c r="BB160">
+        <v>8</v>
+      </c>
+      <c r="BC160">
+        <v>8</v>
+      </c>
+      <c r="BD160">
+        <v>3.82</v>
+      </c>
+      <c r="BE160">
+        <v>7.1</v>
+      </c>
+      <c r="BF160">
+        <v>1.4</v>
+      </c>
+      <c r="BG160">
+        <v>1.28</v>
+      </c>
+      <c r="BH160">
+        <v>3.2</v>
+      </c>
+      <c r="BI160">
+        <v>1.52</v>
+      </c>
+      <c r="BJ160">
+        <v>2.3</v>
+      </c>
+      <c r="BK160">
+        <v>1.91</v>
+      </c>
+      <c r="BL160">
+        <v>1.8</v>
+      </c>
+      <c r="BM160">
+        <v>2.48</v>
+      </c>
+      <c r="BN160">
+        <v>1.45</v>
+      </c>
+      <c r="BO160">
+        <v>3.34</v>
+      </c>
+      <c r="BP160">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7446502</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45487.72916666666</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>78</v>
+      </c>
+      <c r="H161" t="s">
+        <v>84</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>3</v>
+      </c>
+      <c r="L161">
+        <v>4</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>6</v>
+      </c>
+      <c r="O161" t="s">
+        <v>193</v>
+      </c>
+      <c r="P161" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q161">
+        <v>3.1</v>
+      </c>
+      <c r="R161">
+        <v>2.1</v>
+      </c>
+      <c r="S161">
+        <v>3.6</v>
+      </c>
+      <c r="T161">
+        <v>1.44</v>
+      </c>
+      <c r="U161">
+        <v>2.63</v>
+      </c>
+      <c r="V161">
+        <v>3.25</v>
+      </c>
+      <c r="W161">
+        <v>1.33</v>
+      </c>
+      <c r="X161">
+        <v>9</v>
+      </c>
+      <c r="Y161">
+        <v>1.07</v>
+      </c>
+      <c r="Z161">
+        <v>2.26</v>
+      </c>
+      <c r="AA161">
+        <v>3.1</v>
+      </c>
+      <c r="AB161">
+        <v>2.82</v>
+      </c>
+      <c r="AC161">
+        <v>1.06</v>
+      </c>
+      <c r="AD161">
+        <v>8</v>
+      </c>
+      <c r="AE161">
+        <v>1.33</v>
+      </c>
+      <c r="AF161">
+        <v>3.1</v>
+      </c>
+      <c r="AG161">
+        <v>2</v>
+      </c>
+      <c r="AH161">
+        <v>1.72</v>
+      </c>
+      <c r="AI161">
+        <v>1.8</v>
+      </c>
+      <c r="AJ161">
+        <v>1.91</v>
+      </c>
+      <c r="AK161">
+        <v>1.38</v>
+      </c>
+      <c r="AL161">
+        <v>1.28</v>
+      </c>
+      <c r="AM161">
+        <v>1.53</v>
+      </c>
+      <c r="AN161">
+        <v>1.44</v>
+      </c>
+      <c r="AO161">
+        <v>1.11</v>
+      </c>
+      <c r="AP161">
+        <v>1.6</v>
+      </c>
+      <c r="AQ161">
+        <v>1</v>
+      </c>
+      <c r="AR161">
+        <v>1.57</v>
+      </c>
+      <c r="AS161">
+        <v>1.36</v>
+      </c>
+      <c r="AT161">
+        <v>2.93</v>
+      </c>
+      <c r="AU161">
+        <v>9</v>
+      </c>
+      <c r="AV161">
+        <v>3</v>
+      </c>
+      <c r="AW161">
+        <v>2</v>
+      </c>
+      <c r="AX161">
+        <v>5</v>
+      </c>
+      <c r="AY161">
+        <v>11</v>
+      </c>
+      <c r="AZ161">
+        <v>8</v>
+      </c>
+      <c r="BA161">
+        <v>2</v>
+      </c>
+      <c r="BB161">
+        <v>7</v>
+      </c>
+      <c r="BC161">
+        <v>9</v>
+      </c>
+      <c r="BD161">
+        <v>1.94</v>
+      </c>
+      <c r="BE161">
+        <v>6.25</v>
+      </c>
+      <c r="BF161">
+        <v>2.26</v>
+      </c>
+      <c r="BG161">
+        <v>1.26</v>
+      </c>
+      <c r="BH161">
+        <v>3.34</v>
+      </c>
+      <c r="BI161">
+        <v>1.48</v>
+      </c>
+      <c r="BJ161">
+        <v>2.4</v>
+      </c>
+      <c r="BK161">
+        <v>1.85</v>
+      </c>
+      <c r="BL161">
+        <v>1.85</v>
+      </c>
+      <c r="BM161">
+        <v>2.38</v>
+      </c>
+      <c r="BN161">
+        <v>1.49</v>
+      </c>
+      <c r="BO161">
+        <v>3.2</v>
+      </c>
+      <c r="BP161">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,10 +592,7 @@
     <t>['31', '78']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
-    <t>['20', '25', '68', '90+4']</t>
+    <t>['20', '25', '68', '90+3']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -850,13 +847,13 @@
     <t>['23', '34', '37', '51', '88', '90+6']</t>
   </si>
   <si>
-    <t>['5', '44']</t>
+    <t>['4', '43']</t>
   </si>
   <si>
-    <t>['11', '61', '88']</t>
+    <t>['10', '61', '88']</t>
   </si>
   <si>
-    <t>['13', '83']</t>
+    <t>['12', '83']</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1474,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1683,7 +1680,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1889,7 +1886,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2095,7 +2092,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2507,7 +2504,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2713,7 +2710,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2919,7 +2916,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -4361,7 +4358,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4567,7 +4564,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4773,7 +4770,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5391,7 +5388,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5597,7 +5594,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5803,7 +5800,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6009,7 +6006,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6215,7 +6212,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6627,7 +6624,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6833,7 +6830,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7039,7 +7036,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -8069,7 +8066,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8275,7 +8272,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8893,7 +8890,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -9099,7 +9096,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9305,7 +9302,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9511,7 +9508,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10129,7 +10126,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10747,7 +10744,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10953,7 +10950,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11159,7 +11156,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11365,7 +11362,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11571,7 +11568,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11777,7 +11774,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12395,7 +12392,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12601,7 +12598,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13219,7 +13216,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13631,7 +13628,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -14043,7 +14040,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14249,7 +14246,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14867,7 +14864,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15073,7 +15070,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15279,7 +15276,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15485,7 +15482,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15691,7 +15688,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15897,7 +15894,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16103,7 +16100,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16309,7 +16306,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16721,7 +16718,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17133,7 +17130,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17339,7 +17336,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17957,7 +17954,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18163,7 +18160,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18369,7 +18366,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18575,7 +18572,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18987,7 +18984,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19193,7 +19190,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19605,7 +19602,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20223,7 +20220,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20635,7 +20632,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20841,7 +20838,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21047,7 +21044,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21459,7 +21456,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21665,7 +21662,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22489,7 +22486,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22695,7 +22692,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23107,7 +23104,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23519,7 +23516,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23931,7 +23928,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24343,7 +24340,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24755,7 +24752,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24961,7 +24958,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25373,7 +25370,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25579,7 +25576,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25991,7 +25988,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26197,7 +26194,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26403,7 +26400,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26815,7 +26812,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27021,7 +27018,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -28257,7 +28254,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28669,7 +28666,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>2.91</v>
@@ -29081,7 +29078,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29287,7 +29284,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29699,7 +29696,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29905,7 +29902,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30111,7 +30108,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30523,7 +30520,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30729,7 +30726,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30935,7 +30932,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31965,7 +31962,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32171,7 +32168,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q151">
         <v>1.75</v>
@@ -32377,7 +32374,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32583,7 +32580,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -32995,7 +32992,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33201,7 +33198,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33613,7 +33610,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q158">
         <v>3.14</v>
@@ -33706,22 +33703,22 @@
         <v>2.35</v>
       </c>
       <c r="AU158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV158">
         <v>2</v>
       </c>
       <c r="AW158">
+        <v>1</v>
+      </c>
+      <c r="AX158">
+        <v>2</v>
+      </c>
+      <c r="AY158">
+        <v>3</v>
+      </c>
+      <c r="AZ158">
         <v>4</v>
-      </c>
-      <c r="AX158">
-        <v>4</v>
-      </c>
-      <c r="AY158">
-        <v>7</v>
-      </c>
-      <c r="AZ158">
-        <v>6</v>
       </c>
       <c r="BA158">
         <v>8</v>
@@ -33819,7 +33816,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34022,10 +34019,10 @@
         <v>4</v>
       </c>
       <c r="O160" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34228,10 +34225,10 @@
         <v>6</v>
       </c>
       <c r="O161" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q161">
         <v>3.1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AQ2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2170,10 +2170,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="AQ5">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2376,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AQ6">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2582,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2788,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AQ8">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ9">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AU9">
         <v>9</v>
@@ -3194,25 +3194,25 @@
         <v>1.47</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AU10">
         <v>2</v>
@@ -3400,25 +3400,25 @@
         <v>1.43</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AS11">
         <v>1.43</v>
       </c>
       <c r="AT11">
-        <v>1.43</v>
+        <v>2.51</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3606,25 +3606,25 @@
         <v>2.63</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AQ12">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AU12">
         <v>6</v>
@@ -3818,19 +3818,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AT13">
-        <v>1.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -4018,25 +4018,25 @@
         <v>1.41</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AQ14">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4227,22 +4227,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ15">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AR15">
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4430,25 +4430,25 @@
         <v>1.77</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO16">
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AR16">
-        <v>1.34</v>
+        <v>0.92</v>
       </c>
       <c r="AS16">
         <v>1.35</v>
       </c>
       <c r="AT16">
-        <v>2.69</v>
+        <v>2.27</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4639,22 +4639,22 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR17">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AT17">
-        <v>1.17</v>
+        <v>2.07</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -4842,25 +4842,25 @@
         <v>1.24</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR18">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AT18">
-        <v>1.29</v>
+        <v>3.05</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5048,25 +5048,25 @@
         <v>1.67</v>
       </c>
       <c r="AN19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO19">
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AR19">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="AS19">
         <v>1.44</v>
       </c>
       <c r="AT19">
-        <v>3.33</v>
+        <v>2.82</v>
       </c>
       <c r="AU19">
         <v>5</v>
@@ -5254,25 +5254,25 @@
         <v>2.28</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP20">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AQ20">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AS20">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="AT20">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="AU20">
         <v>10</v>
@@ -5460,25 +5460,25 @@
         <v>1.52</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP21">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="AQ21">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR21">
-        <v>1.09</v>
+        <v>0.89</v>
       </c>
       <c r="AS21">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AT21">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="AU21">
         <v>3</v>
@@ -5672,19 +5672,19 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AQ22">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR22">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AS22">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="AT22">
-        <v>2.76</v>
+        <v>2.73</v>
       </c>
       <c r="AU22">
         <v>8</v>
@@ -5878,19 +5878,19 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AR23">
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -6081,22 +6081,22 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP24">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AR24">
-        <v>1.1</v>
+        <v>0.87</v>
       </c>
       <c r="AS24">
-        <v>0.6899999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AT24">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6284,25 +6284,25 @@
         <v>1.47</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ25">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR25">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AS25">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AT25">
-        <v>2.51</v>
+        <v>2.35</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6493,22 +6493,22 @@
         <v>3</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AQ26">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AR26">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AS26">
-        <v>0.51</v>
+        <v>0.92</v>
       </c>
       <c r="AT26">
-        <v>2.25</v>
+        <v>2.49</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6696,25 +6696,25 @@
         <v>1.57</v>
       </c>
       <c r="AN27">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO27">
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AR27">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AS27">
         <v>1.42</v>
       </c>
       <c r="AT27">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6902,25 +6902,25 @@
         <v>1.4</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO28">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP28">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AS28">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AT28">
-        <v>1.4</v>
+        <v>2.69</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7111,22 +7111,22 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ29">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AR29">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AS29">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AT29">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="AU29">
         <v>4</v>
@@ -7314,25 +7314,25 @@
         <v>1.83</v>
       </c>
       <c r="AN30">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="AT30">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7520,25 +7520,25 @@
         <v>1.47</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR31">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AS31">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AT31">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="AU31">
         <v>9</v>
@@ -7726,25 +7726,25 @@
         <v>1.38</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR32">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AT32">
-        <v>2.48</v>
+        <v>2.76</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -7932,25 +7932,25 @@
         <v>1.5</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR33">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AS33">
-        <v>0.87</v>
+        <v>1.11</v>
       </c>
       <c r="AT33">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8138,25 +8138,25 @@
         <v>1.19</v>
       </c>
       <c r="AN34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO34">
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ34">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AR34">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AS34">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AT34">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU34">
         <v>4</v>
@@ -8347,22 +8347,22 @@
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR35">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="AS35">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
       <c r="AT35">
-        <v>0.93</v>
+        <v>1.36</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8550,25 +8550,25 @@
         <v>2.47</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO36">
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AR36">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="AS36">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AT36">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8756,25 +8756,25 @@
         <v>1.2</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR37">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS37">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AT37">
-        <v>2.72</v>
+        <v>2.83</v>
       </c>
       <c r="AU37">
         <v>3</v>
@@ -8962,25 +8962,25 @@
         <v>1.4</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO38">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AP38">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR38">
-        <v>1.34</v>
+        <v>0.89</v>
       </c>
       <c r="AS38">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="AT38">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9168,25 +9168,25 @@
         <v>1.72</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AO39">
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.88</v>
+        <v>1.1</v>
       </c>
       <c r="AQ39">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AS39">
-        <v>0.77</v>
+        <v>1.08</v>
       </c>
       <c r="AT39">
-        <v>0.77</v>
+        <v>2.42</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9374,25 +9374,25 @@
         <v>2</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR40">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AS40">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="AT40">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9580,25 +9580,25 @@
         <v>1.45</v>
       </c>
       <c r="AN41">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO41">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP41">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR41">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AS41">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="AT41">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -9789,22 +9789,22 @@
         <v>3</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AQ42">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AR42">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AS42">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9992,25 +9992,25 @@
         <v>1.36</v>
       </c>
       <c r="AN43">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AR43">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AS43">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AT43">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AU43">
         <v>3</v>
@@ -10198,25 +10198,25 @@
         <v>1.86</v>
       </c>
       <c r="AN44">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AO44">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR44">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="AS44">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT44">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -10404,25 +10404,25 @@
         <v>1.81</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO45">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AR45">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10610,25 +10610,25 @@
         <v>1.57</v>
       </c>
       <c r="AN46">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AP46">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AQ46">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR46">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AS46">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10816,25 +10816,25 @@
         <v>1.5</v>
       </c>
       <c r="AN47">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AP47">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AR47">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="AS47">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="AT47">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11022,25 +11022,25 @@
         <v>1.42</v>
       </c>
       <c r="AN48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR48">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="AS48">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT48">
-        <v>2.61</v>
+        <v>2.35</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11228,25 +11228,25 @@
         <v>1.4</v>
       </c>
       <c r="AN49">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO49">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR49">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AS49">
         <v>1.51</v>
       </c>
       <c r="AT49">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="AU49">
         <v>7</v>
@@ -11434,25 +11434,25 @@
         <v>1.45</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP50">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ50">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AS50">
-        <v>0.85</v>
+        <v>1.13</v>
       </c>
       <c r="AT50">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -11640,25 +11640,25 @@
         <v>1.83</v>
       </c>
       <c r="AN51">
-        <v>0.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO51">
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR51">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AS51">
-        <v>0.92</v>
+        <v>1.11</v>
       </c>
       <c r="AT51">
-        <v>2.08</v>
+        <v>2.41</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11846,25 +11846,25 @@
         <v>1.55</v>
       </c>
       <c r="AN52">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AO52">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AP52">
-        <v>0.88</v>
+        <v>1.1</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AR52">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AS52">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="AT52">
-        <v>2.58</v>
+        <v>2.98</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12052,25 +12052,25 @@
         <v>2.45</v>
       </c>
       <c r="AN53">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR53">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="AS53">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
       <c r="AT53">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12258,25 +12258,25 @@
         <v>1.62</v>
       </c>
       <c r="AN54">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP54">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR54">
-        <v>1.15</v>
+        <v>0.92</v>
       </c>
       <c r="AS54">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="AT54">
-        <v>2.17</v>
+        <v>1.77</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12464,25 +12464,25 @@
         <v>1.46</v>
       </c>
       <c r="AN55">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP55">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR55">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="AS55">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="AT55">
-        <v>2.41</v>
+        <v>2.7</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12670,25 +12670,25 @@
         <v>1.17</v>
       </c>
       <c r="AN56">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AO56">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AP56">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="AQ56">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AR56">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AT56">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="AU56">
         <v>5</v>
@@ -12876,25 +12876,25 @@
         <v>1.55</v>
       </c>
       <c r="AN57">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="AO57">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="AP57">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AQ57">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR57">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AS57">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AT57">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13082,25 +13082,25 @@
         <v>1.55</v>
       </c>
       <c r="AN58">
-        <v>1.25</v>
+        <v>0.86</v>
       </c>
       <c r="AO58">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="AP58">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AR58">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="AS58">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AT58">
-        <v>2.54</v>
+        <v>2.22</v>
       </c>
       <c r="AU58">
         <v>3</v>
@@ -13291,22 +13291,22 @@
         <v>1</v>
       </c>
       <c r="AO59">
+        <v>1.14</v>
+      </c>
+      <c r="AP59">
+        <v>0.9</v>
+      </c>
+      <c r="AQ59">
+        <v>1.55</v>
+      </c>
+      <c r="AR59">
         <v>1.33</v>
       </c>
-      <c r="AP59">
-        <v>0.64</v>
-      </c>
-      <c r="AQ59">
-        <v>1.67</v>
-      </c>
-      <c r="AR59">
-        <v>1.07</v>
-      </c>
       <c r="AS59">
-        <v>0.9</v>
+        <v>1.08</v>
       </c>
       <c r="AT59">
-        <v>1.97</v>
+        <v>2.41</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13494,25 +13494,25 @@
         <v>1.31</v>
       </c>
       <c r="AN60">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO60">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
         <v>1.2</v>
       </c>
-      <c r="AQ60">
-        <v>1.5</v>
-      </c>
       <c r="AR60">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="AS60">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AT60">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -13700,25 +13700,25 @@
         <v>2.18</v>
       </c>
       <c r="AN61">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO61">
-        <v>0.67</v>
+        <v>1.57</v>
       </c>
       <c r="AP61">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ61">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR61">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS61">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AT61">
-        <v>2.58</v>
+        <v>2.71</v>
       </c>
       <c r="AU61">
         <v>5</v>
@@ -13906,22 +13906,22 @@
         <v>2.11</v>
       </c>
       <c r="AN62">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AO62">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="AP62">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AR62">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AS62">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AT62">
         <v>2.8</v>
@@ -14112,25 +14112,25 @@
         <v>1.33</v>
       </c>
       <c r="AN63">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AO63">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR63">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="AS63">
         <v>1.58</v>
       </c>
       <c r="AT63">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="AU63">
         <v>8</v>
@@ -14318,25 +14318,25 @@
         <v>1.1</v>
       </c>
       <c r="AN64">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP64">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AR64">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="AS64">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="AT64">
-        <v>2.35</v>
+        <v>2.54</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14524,25 +14524,25 @@
         <v>1.6</v>
       </c>
       <c r="AN65">
-        <v>0.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO65">
-        <v>0.33</v>
+        <v>0.88</v>
       </c>
       <c r="AP65">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AR65">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AS65">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="AT65">
-        <v>2.09</v>
+        <v>2.33</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14730,25 +14730,25 @@
         <v>1.48</v>
       </c>
       <c r="AN66">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO66">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AQ66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR66">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AS66">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="AT66">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14936,25 +14936,25 @@
         <v>1.6</v>
       </c>
       <c r="AN67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO67">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AP67">
-        <v>0.88</v>
+        <v>1.1</v>
       </c>
       <c r="AQ67">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR67">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="AS67">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AT67">
-        <v>2.21</v>
+        <v>2.47</v>
       </c>
       <c r="AU67">
         <v>2</v>
@@ -15142,25 +15142,25 @@
         <v>1.15</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="AO68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AQ68">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AR68">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT68">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="AU68">
         <v>4</v>
@@ -15348,25 +15348,25 @@
         <v>2.35</v>
       </c>
       <c r="AN69">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AP69">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR69">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="AS69">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="AT69">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="AU69">
         <v>8</v>
@@ -15554,25 +15554,25 @@
         <v>1.55</v>
       </c>
       <c r="AN70">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO70">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="AQ70">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AS70">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="AT70">
-        <v>2.04</v>
+        <v>2.41</v>
       </c>
       <c r="AU70">
         <v>6</v>
@@ -15760,25 +15760,25 @@
         <v>1.45</v>
       </c>
       <c r="AN71">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AP71">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="AQ71">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AR71">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AS71">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT71">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -15966,25 +15966,25 @@
         <v>1.43</v>
       </c>
       <c r="AN72">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO72">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AR72">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AS72">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT72">
-        <v>2.64</v>
+        <v>2.71</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -16172,25 +16172,25 @@
         <v>1.13</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO73">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AP73">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR73">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="AS73">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="AT73">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
       <c r="AU73">
         <v>5</v>
@@ -16378,25 +16378,25 @@
         <v>1.4</v>
       </c>
       <c r="AN74">
-        <v>1.4</v>
+        <v>0.78</v>
       </c>
       <c r="AO74">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP74">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR74">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="AS74">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AT74">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16584,25 +16584,25 @@
         <v>1.41</v>
       </c>
       <c r="AN75">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO75">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AQ75">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR75">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AS75">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AT75">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU75">
         <v>8</v>
@@ -16790,25 +16790,25 @@
         <v>1.35</v>
       </c>
       <c r="AN76">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="AO76">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AR76">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AS76">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AT76">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -16996,25 +16996,25 @@
         <v>1.4</v>
       </c>
       <c r="AN77">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO77">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="AP77">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR77">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="AS77">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>3.33</v>
+        <v>3.14</v>
       </c>
       <c r="AU77">
         <v>10</v>
@@ -17202,25 +17202,25 @@
         <v>1.13</v>
       </c>
       <c r="AN78">
-        <v>1.2</v>
+        <v>0.89</v>
       </c>
       <c r="AO78">
-        <v>1.5</v>
+        <v>2.11</v>
       </c>
       <c r="AP78">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AQ78">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AR78">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="AS78">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="AT78">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AU78">
         <v>3</v>
@@ -17408,25 +17408,25 @@
         <v>2.2</v>
       </c>
       <c r="AN79">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO79">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AP79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ79">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AR79">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AS79">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AT79">
-        <v>2.49</v>
+        <v>2.83</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -17614,25 +17614,25 @@
         <v>1.55</v>
       </c>
       <c r="AN80">
-        <v>0.6</v>
+        <v>1.33</v>
       </c>
       <c r="AO80">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="AP80">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AR80">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AS80">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AT80">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17820,25 +17820,25 @@
         <v>2.5</v>
       </c>
       <c r="AN81">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="AO81">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP81">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AQ81">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR81">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AS81">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AT81">
-        <v>2.54</v>
+        <v>2.67</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -18026,25 +18026,25 @@
         <v>2.1</v>
       </c>
       <c r="AN82">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="AO82">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP82">
-        <v>0.88</v>
+        <v>1.1</v>
       </c>
       <c r="AQ82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR82">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AS82">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="AT82">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU82">
         <v>4</v>
@@ -18232,25 +18232,25 @@
         <v>1.25</v>
       </c>
       <c r="AN83">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AO83">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AP83">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AQ83">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AR83">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AS83">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AT83">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="AU83">
         <v>8</v>
@@ -18438,25 +18438,25 @@
         <v>2.64</v>
       </c>
       <c r="AN84">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AO84">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AQ84">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR84">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="AS84">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AT84">
-        <v>3.16</v>
+        <v>3.03</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -18644,25 +18644,25 @@
         <v>1.77</v>
       </c>
       <c r="AN85">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO85">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AQ85">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR85">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AS85">
-        <v>0.99</v>
+        <v>1.12</v>
       </c>
       <c r="AT85">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18850,25 +18850,25 @@
         <v>1.33</v>
       </c>
       <c r="AN86">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="AO86">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AP86">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AR86">
+        <v>1.31</v>
+      </c>
+      <c r="AS86">
         <v>1.57</v>
       </c>
-      <c r="AS86">
-        <v>1.39</v>
-      </c>
       <c r="AT86">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="AU86">
         <v>8</v>
@@ -19056,25 +19056,25 @@
         <v>1.42</v>
       </c>
       <c r="AN87">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO87">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR87">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AS87">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="AT87">
-        <v>2.26</v>
+        <v>2.37</v>
       </c>
       <c r="AU87">
         <v>6</v>
@@ -19262,25 +19262,25 @@
         <v>1.19</v>
       </c>
       <c r="AN88">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AO88">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AP88">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR88">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AS88">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="AT88">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="AU88">
         <v>2</v>
@@ -19468,25 +19468,25 @@
         <v>1.63</v>
       </c>
       <c r="AN89">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AO89">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP89">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="AQ89">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AR89">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AS89">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AT89">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19674,25 +19674,25 @@
         <v>3</v>
       </c>
       <c r="AN90">
-        <v>2.67</v>
+        <v>2.27</v>
       </c>
       <c r="AO90">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="AP90">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AR90">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="AS90">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>3.04</v>
+        <v>2.83</v>
       </c>
       <c r="AU90">
         <v>6</v>
@@ -19880,25 +19880,25 @@
         <v>1.48</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AO91">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="AP91">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AR91">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="AS91">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT91">
-        <v>2.43</v>
+        <v>2.19</v>
       </c>
       <c r="AU91">
         <v>5</v>
@@ -20086,25 +20086,25 @@
         <v>1.52</v>
       </c>
       <c r="AN92">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
       <c r="AO92">
-        <v>0.4</v>
+        <v>1.09</v>
       </c>
       <c r="AP92">
+        <v>1</v>
+      </c>
+      <c r="AQ92">
         <v>0.9</v>
       </c>
-      <c r="AQ92">
-        <v>0.6</v>
-      </c>
       <c r="AR92">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AS92">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AT92">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="AU92">
         <v>2</v>
@@ -20292,25 +20292,25 @@
         <v>1.65</v>
       </c>
       <c r="AN93">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AO93">
         <v>1</v>
       </c>
       <c r="AP93">
+        <v>1.2</v>
+      </c>
+      <c r="AQ93">
         <v>0.9</v>
       </c>
-      <c r="AQ93">
-        <v>1.22</v>
-      </c>
       <c r="AR93">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AS93">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AT93">
-        <v>2.91</v>
+        <v>2.69</v>
       </c>
       <c r="AU93">
         <v>0</v>
@@ -20498,25 +20498,25 @@
         <v>2.66</v>
       </c>
       <c r="AN94">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AO94">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AP94">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AQ94">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AR94">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="AS94">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AT94">
-        <v>2.5</v>
+        <v>2.89</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20704,25 +20704,25 @@
         <v>1.42</v>
       </c>
       <c r="AN95">
-        <v>0.67</v>
+        <v>1.09</v>
       </c>
       <c r="AO95">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AP95">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AQ95">
+        <v>1.55</v>
+      </c>
+      <c r="AR95">
         <v>1.67</v>
       </c>
-      <c r="AR95">
-        <v>1.59</v>
-      </c>
       <c r="AS95">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="AT95">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -20910,25 +20910,25 @@
         <v>1.35</v>
       </c>
       <c r="AN96">
-        <v>1.33</v>
+        <v>0.82</v>
       </c>
       <c r="AO96">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AP96">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR96">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="AS96">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT96">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21116,25 +21116,25 @@
         <v>1.32</v>
       </c>
       <c r="AN97">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="AO97">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AP97">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR97">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AS97">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="AT97">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21322,25 +21322,25 @@
         <v>1.39</v>
       </c>
       <c r="AN98">
-        <v>0.17</v>
+        <v>0.58</v>
       </c>
       <c r="AO98">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP98">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AR98">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AS98">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="AT98">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21528,25 +21528,25 @@
         <v>1.67</v>
       </c>
       <c r="AN99">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="AO99">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AP99">
+        <v>0.9</v>
+      </c>
+      <c r="AQ99">
+        <v>1</v>
+      </c>
+      <c r="AR99">
         <v>1.2</v>
       </c>
-      <c r="AQ99">
-        <v>0.8</v>
-      </c>
-      <c r="AR99">
-        <v>1.32</v>
-      </c>
       <c r="AS99">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AT99">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU99">
         <v>8</v>
@@ -21734,25 +21734,25 @@
         <v>1.29</v>
       </c>
       <c r="AN100">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AO100">
         <v>2.67</v>
       </c>
       <c r="AP100">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ100">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AR100">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AS100">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AT100">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="AU100">
         <v>6</v>
@@ -21940,25 +21940,25 @@
         <v>1.51</v>
       </c>
       <c r="AN101">
-        <v>0.75</v>
+        <v>1.08</v>
       </c>
       <c r="AO101">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>0.88</v>
+        <v>1.1</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR101">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="AS101">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT101">
-        <v>2.43</v>
+        <v>2.62</v>
       </c>
       <c r="AU101">
         <v>0</v>
@@ -22146,25 +22146,25 @@
         <v>1.84</v>
       </c>
       <c r="AN102">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AO102">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AQ102">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AR102">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AS102">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT102">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22352,25 +22352,25 @@
         <v>1.45</v>
       </c>
       <c r="AN103">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO103">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AP103">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ103">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR103">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="AS103">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="AT103">
-        <v>2.72</v>
+        <v>2.53</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22558,25 +22558,25 @@
         <v>1.91</v>
       </c>
       <c r="AN104">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO104">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP104">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AQ104">
+        <v>1</v>
+      </c>
+      <c r="AR104">
+        <v>1.64</v>
+      </c>
+      <c r="AS104">
         <v>1.1</v>
       </c>
-      <c r="AR104">
-        <v>1.56</v>
-      </c>
-      <c r="AS104">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="AT104">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22764,25 +22764,25 @@
         <v>1.12</v>
       </c>
       <c r="AN105">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO105">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="AP105">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="AQ105">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AR105">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AS105">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="AT105">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="AU105">
         <v>2</v>
@@ -22970,25 +22970,25 @@
         <v>2.55</v>
       </c>
       <c r="AN106">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AO106">
-        <v>1.29</v>
+        <v>1.85</v>
       </c>
       <c r="AP106">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AR106">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT106">
-        <v>2.87</v>
+        <v>3.08</v>
       </c>
       <c r="AU106">
         <v>3</v>
@@ -23176,25 +23176,25 @@
         <v>1.65</v>
       </c>
       <c r="AN107">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="AO107">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="AP107">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ107">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR107">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AS107">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AT107">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23382,25 +23382,25 @@
         <v>1.48</v>
       </c>
       <c r="AN108">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="AO108">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AP108">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AR108">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AS108">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="AT108">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="AU108">
         <v>6</v>
@@ -23588,25 +23588,25 @@
         <v>1.25</v>
       </c>
       <c r="AN109">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO109">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP109">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AQ109">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR109">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AS109">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AT109">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="AU109">
         <v>2</v>
@@ -23794,25 +23794,25 @@
         <v>2.4</v>
       </c>
       <c r="AN110">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="AO110">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP110">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AQ110">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AR110">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="AS110">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AT110">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="AU110">
         <v>5</v>
@@ -24000,22 +24000,22 @@
         <v>1.57</v>
       </c>
       <c r="AN111">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AO111">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AQ111">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR111">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="AS111">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="AT111">
         <v>2.13</v>
@@ -24206,25 +24206,25 @@
         <v>1.3</v>
       </c>
       <c r="AN112">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AO112">
         <v>1.38</v>
       </c>
       <c r="AP112">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ112">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR112">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="AS112">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AT112">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24412,25 +24412,25 @@
         <v>1.4</v>
       </c>
       <c r="AN113">
-        <v>0.86</v>
+        <v>1.08</v>
       </c>
       <c r="AO113">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AP113">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AR113">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT113">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -24618,25 +24618,25 @@
         <v>1.67</v>
       </c>
       <c r="AN114">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="AO114">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AP114">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ114">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR114">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AS114">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AT114">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AU114">
         <v>3</v>
@@ -24824,25 +24824,25 @@
         <v>1.38</v>
       </c>
       <c r="AN115">
-        <v>1.43</v>
+        <v>0.93</v>
       </c>
       <c r="AO115">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AP115">
+        <v>0.9</v>
+      </c>
+      <c r="AQ115">
         <v>1.2</v>
       </c>
-      <c r="AQ115">
-        <v>1.5</v>
-      </c>
       <c r="AR115">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AS115">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AT115">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="AU115">
         <v>4</v>
@@ -25030,25 +25030,25 @@
         <v>1.12</v>
       </c>
       <c r="AN116">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="AO116">
         <v>2.71</v>
       </c>
       <c r="AP116">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="AQ116">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AR116">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AS116">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AT116">
-        <v>2.83</v>
+        <v>2.73</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25236,25 +25236,25 @@
         <v>2.13</v>
       </c>
       <c r="AN117">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="AO117">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AP117">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ117">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR117">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="AS117">
-        <v>0.99</v>
+        <v>1.12</v>
       </c>
       <c r="AT117">
-        <v>2.39</v>
+        <v>2.66</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25442,25 +25442,25 @@
         <v>1.84</v>
       </c>
       <c r="AN118">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="AO118">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AQ118">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AR118">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AS118">
-        <v>0.68</v>
+        <v>0.93</v>
       </c>
       <c r="AT118">
-        <v>2.16</v>
+        <v>2.51</v>
       </c>
       <c r="AU118">
         <v>7</v>
@@ -25648,25 +25648,25 @@
         <v>1.52</v>
       </c>
       <c r="AN119">
-        <v>0.6</v>
+        <v>0.93</v>
       </c>
       <c r="AO119">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP119">
-        <v>0.88</v>
+        <v>1.1</v>
       </c>
       <c r="AQ119">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR119">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="AS119">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AT119">
-        <v>2.36</v>
+        <v>2.39</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25854,25 +25854,25 @@
         <v>1.54</v>
       </c>
       <c r="AN120">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="AO120">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AP120">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AQ120">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR120">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AS120">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AT120">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26060,25 +26060,25 @@
         <v>1.17</v>
       </c>
       <c r="AN121">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="AO121">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AQ121">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AR121">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AS121">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="AT121">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26266,25 +26266,25 @@
         <v>1.85</v>
       </c>
       <c r="AN122">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO122">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AP122">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AQ122">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR122">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AS122">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AT122">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26472,25 +26472,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>0.75</v>
+        <v>1.27</v>
       </c>
       <c r="AO123">
-        <v>1.29</v>
+        <v>0.87</v>
       </c>
       <c r="AP123">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
       </c>
       <c r="AS123">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AT123">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26678,25 +26678,25 @@
         <v>1.08</v>
       </c>
       <c r="AN124">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="AO124">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="AP124">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AR124">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AS124">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT124">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -26884,25 +26884,25 @@
         <v>1.3</v>
       </c>
       <c r="AN125">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO125">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AP125">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="AQ125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR125">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AS125">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AU125">
         <v>2</v>
@@ -27093,22 +27093,22 @@
         <v>1.4</v>
       </c>
       <c r="AO126">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AR126">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AS126">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AT126">
-        <v>2.65</v>
+        <v>2.44</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27296,25 +27296,25 @@
         <v>1.75</v>
       </c>
       <c r="AN127">
-        <v>2.14</v>
+        <v>1.6</v>
       </c>
       <c r="AO127">
-        <v>0.43</v>
+        <v>0.93</v>
       </c>
       <c r="AP127">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AQ127">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR127">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AS127">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AT127">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27502,25 +27502,25 @@
         <v>1.09</v>
       </c>
       <c r="AN128">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AO128">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="AP128">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AQ128">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AR128">
-        <v>1.14</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS128">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AT128">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27708,25 +27708,25 @@
         <v>1.42</v>
       </c>
       <c r="AN129">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO129">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AP129">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ129">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR129">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AS129">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AT129">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="AU129">
         <v>2</v>
@@ -27914,25 +27914,25 @@
         <v>1.5</v>
       </c>
       <c r="AN130">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO130">
-        <v>0.71</v>
+        <v>1.25</v>
       </c>
       <c r="AP130">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AR130">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AS130">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT130">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="AU130">
         <v>10</v>
@@ -28120,25 +28120,25 @@
         <v>1.45</v>
       </c>
       <c r="AN131">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AO131">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP131">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ131">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR131">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AS131">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AT131">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="AU131">
         <v>7</v>
@@ -28326,25 +28326,25 @@
         <v>2.4</v>
       </c>
       <c r="AN132">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
       <c r="AO132">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="AP132">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR132">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="AS132">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="AT132">
-        <v>3.53</v>
+        <v>3.27</v>
       </c>
       <c r="AU132">
         <v>3</v>
@@ -28532,25 +28532,25 @@
         <v>1.91</v>
       </c>
       <c r="AN133">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="AO133">
-        <v>1.13</v>
+        <v>1.69</v>
       </c>
       <c r="AP133">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AR133">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AS133">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AT133">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="AU133">
         <v>0</v>
@@ -28738,25 +28738,25 @@
         <v>1.57</v>
       </c>
       <c r="AN134">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO134">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AP134">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="AQ134">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AR134">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AS134">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT134">
-        <v>2.37</v>
+        <v>2.59</v>
       </c>
       <c r="AU134">
         <v>9</v>
@@ -28944,25 +28944,25 @@
         <v>1.8</v>
       </c>
       <c r="AN135">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO135">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP135">
-        <v>0.88</v>
+        <v>1.1</v>
       </c>
       <c r="AQ135">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR135">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="AS135">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT135">
-        <v>2.13</v>
+        <v>2.26</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29150,25 +29150,25 @@
         <v>2.28</v>
       </c>
       <c r="AN136">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AO136">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="AP136">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AQ136">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR136">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AS136">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT136">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29356,25 +29356,25 @@
         <v>1.5</v>
       </c>
       <c r="AN137">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AO137">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AP137">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AQ137">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AR137">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AS137">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU137">
         <v>4</v>
@@ -29562,25 +29562,25 @@
         <v>1.48</v>
       </c>
       <c r="AN138">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="AO138">
+        <v>1.06</v>
+      </c>
+      <c r="AP138">
+        <v>1.05</v>
+      </c>
+      <c r="AQ138">
         <v>1.1</v>
       </c>
-      <c r="AP138">
-        <v>1.45</v>
-      </c>
-      <c r="AQ138">
-        <v>1.25</v>
-      </c>
       <c r="AR138">
-        <v>1.12</v>
+        <v>0.95</v>
       </c>
       <c r="AS138">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AT138">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="AU138">
         <v>2</v>
@@ -29768,25 +29768,25 @@
         <v>1.48</v>
       </c>
       <c r="AN139">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO139">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP139">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AR139">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="AS139">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT139">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -29974,25 +29974,25 @@
         <v>1.4</v>
       </c>
       <c r="AN140">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="AO140">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AP140">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
       </c>
       <c r="AS140">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AT140">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="AU140">
         <v>4</v>
@@ -30180,25 +30180,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="AO141">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AP141">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AQ141">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AR141">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AT141">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="AU141">
         <v>3</v>
@@ -30386,25 +30386,25 @@
         <v>1.67</v>
       </c>
       <c r="AN142">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="AO142">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AP142">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AQ142">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AR142">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AS142">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AT142">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="AU142">
         <v>2</v>
@@ -30592,25 +30592,25 @@
         <v>1.45</v>
       </c>
       <c r="AN143">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO143">
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR143">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AS143">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AT143">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -30798,25 +30798,25 @@
         <v>1.2</v>
       </c>
       <c r="AN144">
+        <v>1.47</v>
+      </c>
+      <c r="AO144">
+        <v>2.18</v>
+      </c>
+      <c r="AP144">
+        <v>1.55</v>
+      </c>
+      <c r="AQ144">
+        <v>2.2</v>
+      </c>
+      <c r="AR144">
         <v>1.33</v>
       </c>
-      <c r="AO144">
-        <v>1.88</v>
-      </c>
-      <c r="AP144">
-        <v>1.38</v>
-      </c>
-      <c r="AQ144">
-        <v>2.1</v>
-      </c>
-      <c r="AR144">
-        <v>1.53</v>
-      </c>
       <c r="AS144">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AT144">
-        <v>3.13</v>
+        <v>2.97</v>
       </c>
       <c r="AU144">
         <v>0</v>
@@ -31004,25 +31004,25 @@
         <v>1.53</v>
       </c>
       <c r="AN145">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="AO145">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AP145">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ145">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR145">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AS145">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="AT145">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="AU145">
         <v>4</v>
@@ -31210,25 +31210,25 @@
         <v>1.41</v>
       </c>
       <c r="AN146">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AO146">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP146">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR146">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AS146">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AT146">
-        <v>3.06</v>
+        <v>2.82</v>
       </c>
       <c r="AU146">
         <v>4</v>
@@ -31416,22 +31416,22 @@
         <v>1.59</v>
       </c>
       <c r="AN147">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AO147">
-        <v>0.63</v>
+        <v>1.17</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AQ147">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AR147">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="AS147">
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="AT147">
         <v>2.29</v>
@@ -31625,22 +31625,22 @@
         <v>2.5</v>
       </c>
       <c r="AO148">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AP148">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AQ148">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AR148">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS148">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AT148">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU148">
         <v>8</v>
@@ -31828,25 +31828,25 @@
         <v>1.67</v>
       </c>
       <c r="AN149">
-        <v>0.78</v>
+        <v>1.06</v>
       </c>
       <c r="AO149">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP149">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="AQ149">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR149">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AS149">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="AT149">
-        <v>2.49</v>
+        <v>2.64</v>
       </c>
       <c r="AU149">
         <v>7</v>
@@ -32034,25 +32034,25 @@
         <v>0</v>
       </c>
       <c r="AN150">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO150">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="AP150">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR150">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AS150">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT150">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32240,25 +32240,25 @@
         <v>3.15</v>
       </c>
       <c r="AN151">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AO151">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AP151">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AQ151">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR151">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AS151">
         <v>1.09</v>
       </c>
       <c r="AT151">
-        <v>2.77</v>
+        <v>2.74</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32446,25 +32446,25 @@
         <v>2.01</v>
       </c>
       <c r="AN152">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AO152">
-        <v>0.89</v>
+        <v>1.17</v>
       </c>
       <c r="AP152">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ152">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AR152">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AS152">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AT152">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32652,25 +32652,25 @@
         <v>1.42</v>
       </c>
       <c r="AN153">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AO153">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AP153">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ153">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AR153">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AS153">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AT153">
-        <v>2.67</v>
+        <v>2.44</v>
       </c>
       <c r="AU153">
         <v>2</v>
@@ -32858,25 +32858,25 @@
         <v>1.36</v>
       </c>
       <c r="AN154">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AO154">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
       <c r="AP154">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
       <c r="AQ154">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR154">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AS154">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT154">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="AU154">
         <v>4</v>
@@ -33064,25 +33064,25 @@
         <v>1.19</v>
       </c>
       <c r="AN155">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AO155">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AP155">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR155">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AS155">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AT155">
-        <v>2.74</v>
+        <v>2.61</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33270,25 +33270,25 @@
         <v>1.14</v>
       </c>
       <c r="AN156">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AO156">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AP156">
-        <v>0.88</v>
+        <v>1.1</v>
       </c>
       <c r="AQ156">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AR156">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="AS156">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AT156">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="AU156">
         <v>0</v>
@@ -33476,25 +33476,25 @@
         <v>0</v>
       </c>
       <c r="AN157">
+        <v>1.63</v>
+      </c>
+      <c r="AO157">
+        <v>1.05</v>
+      </c>
+      <c r="AP157">
+        <v>1.7</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="AR157">
         <v>1.33</v>
       </c>
-      <c r="AO157">
-        <v>1.22</v>
-      </c>
-      <c r="AP157">
-        <v>1.5</v>
-      </c>
-      <c r="AQ157">
-        <v>1.1</v>
-      </c>
-      <c r="AR157">
-        <v>1.48</v>
-      </c>
       <c r="AS157">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="AT157">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33682,25 +33682,25 @@
         <v>1.47</v>
       </c>
       <c r="AN158">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AO158">
+        <v>1.47</v>
+      </c>
+      <c r="AP158">
+        <v>1.05</v>
+      </c>
+      <c r="AQ158">
         <v>1.55</v>
       </c>
-      <c r="AP158">
-        <v>1.45</v>
-      </c>
-      <c r="AQ158">
-        <v>1.67</v>
-      </c>
       <c r="AR158">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AS158">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AT158">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="AU158">
         <v>2</v>
@@ -33888,25 +33888,25 @@
         <v>1.28</v>
       </c>
       <c r="AN159">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AO159">
         <v>1.89</v>
       </c>
       <c r="AP159">
-        <v>0.91</v>
+        <v>1.1</v>
       </c>
       <c r="AQ159">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR159">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AS159">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AT159">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="AU159">
         <v>7</v>
@@ -34094,25 +34094,25 @@
         <v>1.1</v>
       </c>
       <c r="AN160">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="AO160">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AP160">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ160">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AR160">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AS160">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AT160">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="AU160">
         <v>2</v>
@@ -34300,25 +34300,25 @@
         <v>1.53</v>
       </c>
       <c r="AN161">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AO161">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AP161">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AR161">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AS161">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT161">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="AU161">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AQ2">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ3">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ4">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2170,10 +2170,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ5">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2376,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2582,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ7">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2788,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AQ8">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ9">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AR9">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>9</v>
@@ -3194,25 +3194,25 @@
         <v>1.47</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>2</v>
@@ -3400,25 +3400,25 @@
         <v>1.43</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>1.43</v>
       </c>
       <c r="AT11">
-        <v>2.51</v>
+        <v>1.43</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3606,25 +3606,25 @@
         <v>2.63</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>6</v>
@@ -3818,19 +3818,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
       </c>
       <c r="AS13">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.22</v>
+        <v>1.13</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -4018,25 +4018,25 @@
         <v>1.41</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AQ14">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AR14">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>4</v>
@@ -4227,22 +4227,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ15">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR15">
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4430,25 +4430,25 @@
         <v>1.77</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="AQ16">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AR16">
-        <v>0.92</v>
+        <v>1.34</v>
       </c>
       <c r="AS16">
         <v>1.35</v>
       </c>
       <c r="AT16">
-        <v>2.27</v>
+        <v>2.69</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4639,22 +4639,22 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ17">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AS17">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.07</v>
+        <v>1.17</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -4842,25 +4842,25 @@
         <v>1.24</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR18">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AS18">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>3.05</v>
+        <v>1.29</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5048,25 +5048,25 @@
         <v>1.67</v>
       </c>
       <c r="AN19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO19">
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ19">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="AS19">
         <v>1.44</v>
       </c>
       <c r="AT19">
-        <v>2.82</v>
+        <v>3.33</v>
       </c>
       <c r="AU19">
         <v>5</v>
@@ -5254,25 +5254,25 @@
         <v>2.28</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="AR20">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AS20">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="AT20">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="AU20">
         <v>10</v>
@@ -5460,25 +5460,25 @@
         <v>1.52</v>
       </c>
       <c r="AN21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ21">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AR21">
-        <v>0.89</v>
+        <v>1.09</v>
       </c>
       <c r="AS21">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AT21">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="AU21">
         <v>3</v>
@@ -5672,19 +5672,19 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AQ22">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AR22">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AS22">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="AT22">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="AU22">
         <v>8</v>
@@ -5878,19 +5878,19 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AR23">
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AT23">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -6081,22 +6081,22 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ24">
+        <v>1.33</v>
+      </c>
+      <c r="AR24">
         <v>1.1</v>
       </c>
-      <c r="AR24">
-        <v>0.87</v>
-      </c>
       <c r="AS24">
-        <v>0.98</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT24">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6284,25 +6284,25 @@
         <v>1.47</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ25">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AR25">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="AS25">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT25">
-        <v>2.35</v>
+        <v>2.51</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6493,22 +6493,22 @@
         <v>3</v>
       </c>
       <c r="AO26">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR26">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="AS26">
-        <v>0.92</v>
+        <v>0.51</v>
       </c>
       <c r="AT26">
-        <v>2.49</v>
+        <v>2.25</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6696,25 +6696,25 @@
         <v>1.57</v>
       </c>
       <c r="AN27">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO27">
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AQ27">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AS27">
         <v>1.42</v>
       </c>
       <c r="AT27">
-        <v>2.98</v>
+        <v>3.09</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6902,25 +6902,25 @@
         <v>1.4</v>
       </c>
       <c r="AN28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AQ28">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AT28">
-        <v>2.69</v>
+        <v>1.4</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7111,22 +7111,22 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ29">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AR29">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AS29">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AT29">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="AU29">
         <v>4</v>
@@ -7314,25 +7314,25 @@
         <v>1.83</v>
       </c>
       <c r="AN30">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AS30">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7520,25 +7520,25 @@
         <v>1.47</v>
       </c>
       <c r="AN31">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ31">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AR31">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AS31">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AT31">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AU31">
         <v>9</v>
@@ -7726,25 +7726,25 @@
         <v>1.38</v>
       </c>
       <c r="AN32">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR32">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AS32">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AT32">
-        <v>2.76</v>
+        <v>2.48</v>
       </c>
       <c r="AU32">
         <v>6</v>
@@ -7932,25 +7932,25 @@
         <v>1.5</v>
       </c>
       <c r="AN33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ33">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AS33">
-        <v>1.11</v>
+        <v>0.87</v>
       </c>
       <c r="AT33">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="AU33">
         <v>3</v>
@@ -8138,25 +8138,25 @@
         <v>1.19</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO34">
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ34">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AR34">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT34">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU34">
         <v>4</v>
@@ -8347,22 +8347,22 @@
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR35">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
       <c r="AS35">
-        <v>0.97</v>
+        <v>0.42</v>
       </c>
       <c r="AT35">
-        <v>1.36</v>
+        <v>0.93</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8550,25 +8550,25 @@
         <v>2.47</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO36">
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AQ36">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AR36">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="AS36">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AT36">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8756,25 +8756,25 @@
         <v>1.2</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ37">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR37">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS37">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AT37">
-        <v>2.83</v>
+        <v>2.72</v>
       </c>
       <c r="AU37">
         <v>3</v>
@@ -8962,25 +8962,25 @@
         <v>1.4</v>
       </c>
       <c r="AN38">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="AQ38">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
-        <v>0.89</v>
+        <v>1.34</v>
       </c>
       <c r="AS38">
-        <v>1.03</v>
+        <v>0.8</v>
       </c>
       <c r="AT38">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9168,25 +9168,25 @@
         <v>1.72</v>
       </c>
       <c r="AN39">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AO39">
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="AR39">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.08</v>
+        <v>0.77</v>
       </c>
       <c r="AT39">
-        <v>2.42</v>
+        <v>0.77</v>
       </c>
       <c r="AU39">
         <v>3</v>
@@ -9374,25 +9374,25 @@
         <v>2</v>
       </c>
       <c r="AN40">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO40">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AS40">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="AT40">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9580,25 +9580,25 @@
         <v>1.45</v>
       </c>
       <c r="AN41">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AO41">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AS41">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="AT41">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -9789,22 +9789,22 @@
         <v>3</v>
       </c>
       <c r="AO42">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ42">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AR42">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AS42">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AT42">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9992,25 +9992,25 @@
         <v>1.36</v>
       </c>
       <c r="AN43">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO43">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
-        <v>0.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS43">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AT43">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AU43">
         <v>3</v>
@@ -10198,25 +10198,25 @@
         <v>1.86</v>
       </c>
       <c r="AN44">
+        <v>0.33</v>
+      </c>
+      <c r="AO44">
+        <v>0.5</v>
+      </c>
+      <c r="AP44">
+        <v>1.08</v>
+      </c>
+      <c r="AQ44">
         <v>0.6</v>
       </c>
-      <c r="AO44">
-        <v>1.4</v>
-      </c>
-      <c r="AP44">
-        <v>1.05</v>
-      </c>
-      <c r="AQ44">
-        <v>0.9</v>
-      </c>
       <c r="AR44">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="AS44">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT44">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -10404,25 +10404,25 @@
         <v>1.81</v>
       </c>
       <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
         <v>1.75</v>
       </c>
-      <c r="AO45">
-        <v>1.4</v>
-      </c>
       <c r="AP45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ45">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT45">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10610,25 +10610,25 @@
         <v>1.57</v>
       </c>
       <c r="AN46">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO46">
+        <v>1.33</v>
+      </c>
+      <c r="AP46">
+        <v>2.1</v>
+      </c>
+      <c r="AQ46">
+        <v>1.22</v>
+      </c>
+      <c r="AR46">
+        <v>1.56</v>
+      </c>
+      <c r="AS46">
         <v>1.4</v>
       </c>
-      <c r="AP46">
-        <v>1.55</v>
-      </c>
-      <c r="AQ46">
-        <v>0.9</v>
-      </c>
-      <c r="AR46">
-        <v>1.42</v>
-      </c>
-      <c r="AS46">
-        <v>1.3</v>
-      </c>
       <c r="AT46">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="AU46">
         <v>8</v>
@@ -10816,25 +10816,25 @@
         <v>1.5</v>
       </c>
       <c r="AN47">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AO47">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ47">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR47">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AS47">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="AT47">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11022,25 +11022,25 @@
         <v>1.42</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO48">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AR48">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="AS48">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT48">
-        <v>2.35</v>
+        <v>2.61</v>
       </c>
       <c r="AU48">
         <v>4</v>
@@ -11228,25 +11228,25 @@
         <v>1.4</v>
       </c>
       <c r="AN49">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR49">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AS49">
         <v>1.51</v>
       </c>
       <c r="AT49">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="AU49">
         <v>7</v>
@@ -11434,25 +11434,25 @@
         <v>1.45</v>
       </c>
       <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
         <v>1.33</v>
       </c>
-      <c r="AO50">
-        <v>0.83</v>
-      </c>
       <c r="AP50">
+        <v>1.2</v>
+      </c>
+      <c r="AQ50">
         <v>0.9</v>
       </c>
-      <c r="AQ50">
-        <v>1.25</v>
-      </c>
       <c r="AR50">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AS50">
-        <v>1.13</v>
+        <v>0.85</v>
       </c>
       <c r="AT50">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -11640,25 +11640,25 @@
         <v>1.83</v>
       </c>
       <c r="AN51">
-        <v>1.17</v>
+        <v>0.33</v>
       </c>
       <c r="AO51">
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR51">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AS51">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
       <c r="AT51">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11846,25 +11846,25 @@
         <v>1.55</v>
       </c>
       <c r="AN52">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AO52">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>1.1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ52">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AR52">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AS52">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="AT52">
-        <v>2.98</v>
+        <v>2.58</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12052,25 +12052,25 @@
         <v>2.45</v>
       </c>
       <c r="AN53">
+        <v>2.33</v>
+      </c>
+      <c r="AO53">
+        <v>2</v>
+      </c>
+      <c r="AP53">
+        <v>2.3</v>
+      </c>
+      <c r="AQ53">
         <v>1.67</v>
       </c>
-      <c r="AO53">
-        <v>1.33</v>
-      </c>
-      <c r="AP53">
-        <v>2.2</v>
-      </c>
-      <c r="AQ53">
-        <v>1.55</v>
-      </c>
       <c r="AR53">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AS53">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="AT53">
-        <v>2.58</v>
+        <v>2.71</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12258,25 +12258,25 @@
         <v>1.62</v>
       </c>
       <c r="AN54">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1.45</v>
+      </c>
+      <c r="AQ54">
         <v>0.8</v>
       </c>
-      <c r="AP54">
-        <v>1.05</v>
-      </c>
-      <c r="AQ54">
-        <v>1</v>
-      </c>
       <c r="AR54">
-        <v>0.92</v>
+        <v>1.15</v>
       </c>
       <c r="AS54">
-        <v>0.85</v>
+        <v>1.02</v>
       </c>
       <c r="AT54">
-        <v>1.77</v>
+        <v>2.17</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12464,25 +12464,25 @@
         <v>1.46</v>
       </c>
       <c r="AN55">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO55">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ55">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="AS55">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AT55">
-        <v>2.7</v>
+        <v>2.41</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12670,25 +12670,25 @@
         <v>1.17</v>
       </c>
       <c r="AN56">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO56">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ56">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AR56">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="AS56">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AT56">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="AU56">
         <v>5</v>
@@ -12876,25 +12876,25 @@
         <v>1.55</v>
       </c>
       <c r="AN57">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="AO57">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AQ57">
+        <v>1.9</v>
+      </c>
+      <c r="AR57">
         <v>1.7</v>
       </c>
-      <c r="AR57">
-        <v>1.54</v>
-      </c>
       <c r="AS57">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AT57">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13082,25 +13082,25 @@
         <v>1.55</v>
       </c>
       <c r="AN58">
-        <v>0.86</v>
+        <v>1.25</v>
       </c>
       <c r="AO58">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="AQ58">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
-        <v>0.98</v>
+        <v>1.2</v>
       </c>
       <c r="AS58">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AT58">
-        <v>2.22</v>
+        <v>2.54</v>
       </c>
       <c r="AU58">
         <v>3</v>
@@ -13291,22 +13291,22 @@
         <v>1</v>
       </c>
       <c r="AO59">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
+        <v>0.64</v>
+      </c>
+      <c r="AQ59">
+        <v>1.67</v>
+      </c>
+      <c r="AR59">
+        <v>1.07</v>
+      </c>
+      <c r="AS59">
         <v>0.9</v>
       </c>
-      <c r="AQ59">
-        <v>1.55</v>
-      </c>
-      <c r="AR59">
-        <v>1.33</v>
-      </c>
-      <c r="AS59">
-        <v>1.08</v>
-      </c>
       <c r="AT59">
-        <v>2.41</v>
+        <v>1.97</v>
       </c>
       <c r="AU59">
         <v>3</v>
@@ -13494,25 +13494,25 @@
         <v>1.31</v>
       </c>
       <c r="AN60">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO60">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ60">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="AS60">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AT60">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -13700,25 +13700,25 @@
         <v>2.18</v>
       </c>
       <c r="AN61">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO61">
-        <v>1.57</v>
+        <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ61">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AR61">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT61">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="AU61">
         <v>5</v>
@@ -13906,22 +13906,22 @@
         <v>2.11</v>
       </c>
       <c r="AN62">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AO62">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AS62">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AT62">
         <v>2.8</v>
@@ -14112,25 +14112,25 @@
         <v>1.33</v>
       </c>
       <c r="AN63">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR63">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AS63">
         <v>1.58</v>
       </c>
       <c r="AT63">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="AU63">
         <v>8</v>
@@ -14318,25 +14318,25 @@
         <v>1.1</v>
       </c>
       <c r="AN64">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AO64">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ64">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AR64">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="AS64">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="AT64">
-        <v>2.54</v>
+        <v>2.35</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14524,25 +14524,25 @@
         <v>1.6</v>
       </c>
       <c r="AN65">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
       <c r="AO65">
-        <v>0.88</v>
+        <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ65">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR65">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="AT65">
-        <v>2.33</v>
+        <v>2.09</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14730,25 +14730,25 @@
         <v>1.48</v>
       </c>
       <c r="AN66">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AQ66">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR66">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="AS66">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="AT66">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14936,25 +14936,25 @@
         <v>1.6</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO67">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>1.1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ67">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR67">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="AS67">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AT67">
-        <v>2.47</v>
+        <v>2.21</v>
       </c>
       <c r="AU67">
         <v>2</v>
@@ -15142,25 +15142,25 @@
         <v>1.15</v>
       </c>
       <c r="AN68">
-        <v>1.88</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AR68">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="AU68">
         <v>4</v>
@@ -15348,25 +15348,25 @@
         <v>2.35</v>
       </c>
       <c r="AN69">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO69">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
-        <v>1.51</v>
+        <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="AT69">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="AU69">
         <v>8</v>
@@ -15554,25 +15554,25 @@
         <v>1.55</v>
       </c>
       <c r="AN70">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AO70">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR70">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AS70">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="AT70">
-        <v>2.41</v>
+        <v>2.04</v>
       </c>
       <c r="AU70">
         <v>6</v>
@@ -15760,25 +15760,25 @@
         <v>1.45</v>
       </c>
       <c r="AN71">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO71">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="AR71">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AS71">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AT71">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -15966,25 +15966,25 @@
         <v>1.43</v>
       </c>
       <c r="AN72">
+        <v>2.25</v>
+      </c>
+      <c r="AO72">
+        <v>2</v>
+      </c>
+      <c r="AP72">
+        <v>1.2</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>1.26</v>
+      </c>
+      <c r="AS72">
         <v>1.38</v>
       </c>
-      <c r="AO72">
-        <v>2.5</v>
-      </c>
-      <c r="AP72">
-        <v>0.9</v>
-      </c>
-      <c r="AQ72">
-        <v>1.55</v>
-      </c>
-      <c r="AR72">
-        <v>1.24</v>
-      </c>
-      <c r="AS72">
-        <v>1.47</v>
-      </c>
       <c r="AT72">
-        <v>2.71</v>
+        <v>2.64</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -16172,25 +16172,25 @@
         <v>1.13</v>
       </c>
       <c r="AN73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR73">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="AS73">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="AT73">
-        <v>2.46</v>
+        <v>2.49</v>
       </c>
       <c r="AU73">
         <v>5</v>
@@ -16378,25 +16378,25 @@
         <v>1.4</v>
       </c>
       <c r="AN74">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="AO74">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74">
+        <v>1.22</v>
+      </c>
+      <c r="AR74">
         <v>0.9</v>
       </c>
-      <c r="AR74">
-        <v>0.95</v>
-      </c>
       <c r="AS74">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AT74">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16584,25 +16584,25 @@
         <v>1.41</v>
       </c>
       <c r="AN75">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO75">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="AP75">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AR75">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AS75">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AT75">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU75">
         <v>8</v>
@@ -16790,25 +16790,25 @@
         <v>1.35</v>
       </c>
       <c r="AN76">
-        <v>0.78</v>
+        <v>0.4</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ76">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AR76">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AS76">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AT76">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -16996,25 +16996,25 @@
         <v>1.4</v>
       </c>
       <c r="AN77">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO77">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AQ77">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR77">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AS77">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="AT77">
-        <v>3.14</v>
+        <v>3.33</v>
       </c>
       <c r="AU77">
         <v>10</v>
@@ -17202,25 +17202,25 @@
         <v>1.13</v>
       </c>
       <c r="AN78">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AO78">
-        <v>2.11</v>
+        <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="AQ78">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AR78">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="AS78">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="AU78">
         <v>3</v>
@@ -17408,25 +17408,25 @@
         <v>2.2</v>
       </c>
       <c r="AN79">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="AO79">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ79">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="AR79">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="AS79">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="AT79">
-        <v>2.83</v>
+        <v>2.49</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -17614,25 +17614,25 @@
         <v>1.55</v>
       </c>
       <c r="AN80">
+        <v>0.6</v>
+      </c>
+      <c r="AO80">
+        <v>0.75</v>
+      </c>
+      <c r="AP80">
+        <v>0.9</v>
+      </c>
+      <c r="AQ80">
         <v>1.33</v>
       </c>
-      <c r="AO80">
-        <v>0.44</v>
-      </c>
-      <c r="AP80">
-        <v>1.2</v>
-      </c>
-      <c r="AQ80">
-        <v>1.1</v>
-      </c>
       <c r="AR80">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AS80">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AT80">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17820,25 +17820,25 @@
         <v>2.5</v>
       </c>
       <c r="AN81">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AO81">
+        <v>0.5</v>
+      </c>
+      <c r="AP81">
+        <v>2.33</v>
+      </c>
+      <c r="AQ81">
+        <v>0.6</v>
+      </c>
+      <c r="AR81">
         <v>1.33</v>
       </c>
-      <c r="AP81">
-        <v>2.45</v>
-      </c>
-      <c r="AQ81">
-        <v>0.9</v>
-      </c>
-      <c r="AR81">
-        <v>1.45</v>
-      </c>
       <c r="AS81">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AT81">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -18026,25 +18026,25 @@
         <v>2.1</v>
       </c>
       <c r="AN82">
-        <v>1.2</v>
+        <v>0.67</v>
       </c>
       <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0.88</v>
+      </c>
+      <c r="AQ82">
         <v>0.8</v>
       </c>
-      <c r="AP82">
-        <v>1.1</v>
-      </c>
-      <c r="AQ82">
-        <v>1</v>
-      </c>
       <c r="AR82">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AS82">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="AT82">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AU82">
         <v>4</v>
@@ -18232,25 +18232,25 @@
         <v>1.25</v>
       </c>
       <c r="AN83">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AO83">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AP83">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AQ83">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AR83">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AS83">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AT83">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="AU83">
         <v>8</v>
@@ -18438,25 +18438,25 @@
         <v>2.64</v>
       </c>
       <c r="AN84">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AO84">
+        <v>2.25</v>
+      </c>
+      <c r="AP84">
+        <v>2.3</v>
+      </c>
+      <c r="AQ84">
         <v>1.5</v>
       </c>
-      <c r="AP84">
-        <v>2.2</v>
-      </c>
-      <c r="AQ84">
-        <v>1.2</v>
-      </c>
       <c r="AR84">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AT84">
-        <v>3.03</v>
+        <v>3.16</v>
       </c>
       <c r="AU84">
         <v>9</v>
@@ -18644,25 +18644,25 @@
         <v>1.77</v>
       </c>
       <c r="AN85">
+        <v>0.75</v>
+      </c>
+      <c r="AO85">
+        <v>1.25</v>
+      </c>
+      <c r="AP85">
         <v>1.5</v>
       </c>
-      <c r="AO85">
-        <v>0.7</v>
-      </c>
-      <c r="AP85">
-        <v>1.7</v>
-      </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR85">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AS85">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="AT85">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="AU85">
         <v>8</v>
@@ -18850,25 +18850,25 @@
         <v>1.33</v>
       </c>
       <c r="AN86">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="AO86">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ86">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AR86">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AS86">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AT86">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="AU86">
         <v>8</v>
@@ -19056,25 +19056,25 @@
         <v>1.42</v>
       </c>
       <c r="AN87">
+        <v>2</v>
+      </c>
+      <c r="AO87">
+        <v>1.6</v>
+      </c>
+      <c r="AP87">
         <v>1.2</v>
       </c>
-      <c r="AO87">
-        <v>1.5</v>
-      </c>
-      <c r="AP87">
-        <v>0.9</v>
-      </c>
       <c r="AQ87">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AS87">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="AT87">
-        <v>2.37</v>
+        <v>2.26</v>
       </c>
       <c r="AU87">
         <v>6</v>
@@ -19262,25 +19262,25 @@
         <v>1.19</v>
       </c>
       <c r="AN88">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AO88">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR88">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AS88">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT88">
-        <v>2.75</v>
+        <v>2.81</v>
       </c>
       <c r="AU88">
         <v>2</v>
@@ -19468,25 +19468,25 @@
         <v>1.63</v>
       </c>
       <c r="AN89">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AO89">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ89">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR89">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT89">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19674,25 +19674,25 @@
         <v>3</v>
       </c>
       <c r="AN90">
-        <v>2.27</v>
+        <v>2.67</v>
       </c>
       <c r="AO90">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AQ90">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="AS90">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AT90">
-        <v>2.83</v>
+        <v>3.04</v>
       </c>
       <c r="AU90">
         <v>6</v>
@@ -19880,25 +19880,25 @@
         <v>1.48</v>
       </c>
       <c r="AN91">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AO91">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="AP91">
+        <v>1.45</v>
+      </c>
+      <c r="AQ91">
+        <v>1.25</v>
+      </c>
+      <c r="AR91">
         <v>1.05</v>
       </c>
-      <c r="AQ91">
-        <v>1.1</v>
-      </c>
-      <c r="AR91">
-        <v>0.9</v>
-      </c>
       <c r="AS91">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AT91">
-        <v>2.19</v>
+        <v>2.43</v>
       </c>
       <c r="AU91">
         <v>5</v>
@@ -20086,25 +20086,25 @@
         <v>1.52</v>
       </c>
       <c r="AN92">
-        <v>0.64</v>
+        <v>0.33</v>
       </c>
       <c r="AO92">
-        <v>1.09</v>
+        <v>0.4</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ92">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AR92">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AS92">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="AT92">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="AU92">
         <v>2</v>
@@ -20292,25 +20292,25 @@
         <v>1.65</v>
       </c>
       <c r="AN93">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AO93">
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ93">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AS93">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AT93">
-        <v>2.69</v>
+        <v>2.91</v>
       </c>
       <c r="AU93">
         <v>0</v>
@@ -20498,25 +20498,25 @@
         <v>2.66</v>
       </c>
       <c r="AN94">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="AO94">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="AR94">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="AS94">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AT94">
-        <v>2.89</v>
+        <v>2.5</v>
       </c>
       <c r="AU94">
         <v>5</v>
@@ -20704,25 +20704,25 @@
         <v>1.42</v>
       </c>
       <c r="AN95">
+        <v>0.67</v>
+      </c>
+      <c r="AO95">
+        <v>1.83</v>
+      </c>
+      <c r="AP95">
+        <v>1.08</v>
+      </c>
+      <c r="AQ95">
+        <v>1.67</v>
+      </c>
+      <c r="AR95">
+        <v>1.59</v>
+      </c>
+      <c r="AS95">
         <v>1.09</v>
       </c>
-      <c r="AO95">
-        <v>1.64</v>
-      </c>
-      <c r="AP95">
-        <v>1.05</v>
-      </c>
-      <c r="AQ95">
-        <v>1.55</v>
-      </c>
-      <c r="AR95">
-        <v>1.67</v>
-      </c>
-      <c r="AS95">
-        <v>1.21</v>
-      </c>
       <c r="AT95">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -20910,25 +20910,25 @@
         <v>1.35</v>
       </c>
       <c r="AN96">
-        <v>0.82</v>
+        <v>1.33</v>
       </c>
       <c r="AO96">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ96">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AR96">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="AS96">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AT96">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -21116,25 +21116,25 @@
         <v>1.32</v>
       </c>
       <c r="AN97">
-        <v>2.18</v>
+        <v>3</v>
       </c>
       <c r="AO97">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AQ97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR97">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AS97">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="AT97">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21322,25 +21322,25 @@
         <v>1.39</v>
       </c>
       <c r="AN98">
-        <v>0.58</v>
+        <v>0.17</v>
       </c>
       <c r="AO98">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ98">
+        <v>1</v>
+      </c>
+      <c r="AR98">
+        <v>1.19</v>
+      </c>
+      <c r="AS98">
         <v>1.55</v>
       </c>
-      <c r="AR98">
-        <v>1.27</v>
-      </c>
-      <c r="AS98">
-        <v>1.63</v>
-      </c>
       <c r="AT98">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="AU98">
         <v>6</v>
@@ -21528,25 +21528,25 @@
         <v>1.67</v>
       </c>
       <c r="AN99">
-        <v>1.08</v>
+        <v>1.67</v>
       </c>
       <c r="AO99">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR99">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AS99">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AT99">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="AU99">
         <v>8</v>
@@ -21734,25 +21734,25 @@
         <v>1.29</v>
       </c>
       <c r="AN100">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AO100">
         <v>2.67</v>
       </c>
       <c r="AP100">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ100">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AR100">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AS100">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT100">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="AU100">
         <v>6</v>
@@ -21940,25 +21940,25 @@
         <v>1.51</v>
       </c>
       <c r="AN101">
-        <v>1.08</v>
+        <v>0.75</v>
       </c>
       <c r="AO101">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="AP101">
-        <v>1.1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ101">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR101">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="AS101">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT101">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU101">
         <v>0</v>
@@ -22146,25 +22146,25 @@
         <v>1.84</v>
       </c>
       <c r="AN102">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AO102">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="AP102">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR102">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AS102">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="AT102">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22352,25 +22352,25 @@
         <v>1.45</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO103">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ103">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR103">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="AS103">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="AT103">
-        <v>2.53</v>
+        <v>2.72</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22558,25 +22558,25 @@
         <v>1.91</v>
       </c>
       <c r="AN104">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO104">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR104">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="AS104">
-        <v>1.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT104">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="AU104">
         <v>5</v>
@@ -22764,25 +22764,25 @@
         <v>1.12</v>
       </c>
       <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
+        <v>1.8</v>
+      </c>
+      <c r="AP105">
+        <v>0.64</v>
+      </c>
+      <c r="AQ105">
+        <v>2.1</v>
+      </c>
+      <c r="AR105">
         <v>1.17</v>
       </c>
-      <c r="AO105">
-        <v>2.08</v>
-      </c>
-      <c r="AP105">
-        <v>0.9</v>
-      </c>
-      <c r="AQ105">
-        <v>2.2</v>
-      </c>
-      <c r="AR105">
-        <v>1.26</v>
-      </c>
       <c r="AS105">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="AT105">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="AU105">
         <v>2</v>
@@ -22970,25 +22970,25 @@
         <v>2.55</v>
       </c>
       <c r="AN106">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AO106">
-        <v>1.85</v>
+        <v>1.29</v>
       </c>
       <c r="AP106">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ106">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AR106">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="AS106">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>3.08</v>
+        <v>2.87</v>
       </c>
       <c r="AU106">
         <v>3</v>
@@ -23176,25 +23176,25 @@
         <v>1.65</v>
       </c>
       <c r="AN107">
-        <v>1.38</v>
+        <v>0.86</v>
       </c>
       <c r="AO107">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="AP107">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ107">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AR107">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AS107">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT107">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23382,25 +23382,25 @@
         <v>1.48</v>
       </c>
       <c r="AN108">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
       <c r="AO108">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ108">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="AR108">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AS108">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="AT108">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="AU108">
         <v>6</v>
@@ -23588,25 +23588,25 @@
         <v>1.25</v>
       </c>
       <c r="AN109">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AO109">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR109">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AS109">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AT109">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="AU109">
         <v>2</v>
@@ -23794,25 +23794,25 @@
         <v>2.4</v>
       </c>
       <c r="AN110">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="AO110">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AQ110">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AR110">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AS110">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT110">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="AU110">
         <v>5</v>
@@ -24000,22 +24000,22 @@
         <v>1.57</v>
       </c>
       <c r="AN111">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AO111">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="AQ111">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AR111">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="AS111">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="AT111">
         <v>2.13</v>
@@ -24206,25 +24206,25 @@
         <v>1.3</v>
       </c>
       <c r="AN112">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AO112">
         <v>1.38</v>
       </c>
       <c r="AP112">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ112">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR112">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AS112">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AT112">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24412,25 +24412,25 @@
         <v>1.4</v>
       </c>
       <c r="AN113">
+        <v>0.86</v>
+      </c>
+      <c r="AO113">
+        <v>1</v>
+      </c>
+      <c r="AP113">
+        <v>0.64</v>
+      </c>
+      <c r="AQ113">
+        <v>1.33</v>
+      </c>
+      <c r="AR113">
         <v>1.08</v>
       </c>
-      <c r="AO113">
-        <v>0.77</v>
-      </c>
-      <c r="AP113">
-        <v>0.9</v>
-      </c>
-      <c r="AQ113">
-        <v>1.1</v>
-      </c>
-      <c r="AR113">
-        <v>1.2</v>
-      </c>
       <c r="AS113">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AT113">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AU113">
         <v>4</v>
@@ -24618,25 +24618,25 @@
         <v>1.67</v>
       </c>
       <c r="AN114">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AO114">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR114">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AS114">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AT114">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU114">
         <v>3</v>
@@ -24824,25 +24824,25 @@
         <v>1.38</v>
       </c>
       <c r="AN115">
-        <v>0.93</v>
+        <v>1.43</v>
       </c>
       <c r="AO115">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AP115">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ115">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="AS115">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT115">
-        <v>2.6</v>
+        <v>2.73</v>
       </c>
       <c r="AU115">
         <v>4</v>
@@ -25030,25 +25030,25 @@
         <v>1.12</v>
       </c>
       <c r="AN116">
-        <v>0.93</v>
+        <v>0.57</v>
       </c>
       <c r="AO116">
         <v>2.71</v>
       </c>
       <c r="AP116">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ116">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AR116">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AS116">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT116">
-        <v>2.73</v>
+        <v>2.83</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25236,25 +25236,25 @@
         <v>2.13</v>
       </c>
       <c r="AN117">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AO117">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR117">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="AS117">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="AT117">
-        <v>2.66</v>
+        <v>2.39</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25442,25 +25442,25 @@
         <v>1.84</v>
       </c>
       <c r="AN118">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="AO118">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP118">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AQ118">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR118">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AS118">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="AT118">
-        <v>2.51</v>
+        <v>2.16</v>
       </c>
       <c r="AU118">
         <v>7</v>
@@ -25648,25 +25648,25 @@
         <v>1.52</v>
       </c>
       <c r="AN119">
-        <v>0.93</v>
+        <v>0.6</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ119">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AR119">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="AS119">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AT119">
-        <v>2.39</v>
+        <v>2.36</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25854,25 +25854,25 @@
         <v>1.54</v>
       </c>
       <c r="AN120">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="AO120">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AQ120">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR120">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AS120">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AT120">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26060,25 +26060,25 @@
         <v>1.17</v>
       </c>
       <c r="AN121">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="AO121">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AR121">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AS121">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="AT121">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26266,25 +26266,25 @@
         <v>1.85</v>
       </c>
       <c r="AN122">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO122">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="AP122">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR122">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AS122">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AT122">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26472,25 +26472,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>1.27</v>
+        <v>0.75</v>
       </c>
       <c r="AO123">
-        <v>0.87</v>
+        <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ123">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
       </c>
       <c r="AS123">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AT123">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26678,25 +26678,25 @@
         <v>1.08</v>
       </c>
       <c r="AN124">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AO124">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ124">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AR124">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AS124">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT124">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -26884,25 +26884,25 @@
         <v>1.3</v>
       </c>
       <c r="AN125">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO125">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ125">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR125">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AS125">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT125">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU125">
         <v>2</v>
@@ -27093,22 +27093,22 @@
         <v>1.4</v>
       </c>
       <c r="AO126">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AS126">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AT126">
-        <v>2.44</v>
+        <v>2.65</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27296,25 +27296,25 @@
         <v>1.75</v>
       </c>
       <c r="AN127">
-        <v>1.6</v>
+        <v>2.14</v>
       </c>
       <c r="AO127">
-        <v>0.93</v>
+        <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AQ127">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AR127">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AS127">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="AT127">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27502,25 +27502,25 @@
         <v>1.09</v>
       </c>
       <c r="AN128">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AO128">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="AQ128">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AR128">
-        <v>0.9399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS128">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AT128">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27708,25 +27708,25 @@
         <v>1.42</v>
       </c>
       <c r="AN129">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO129">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ129">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AR129">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AS129">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AT129">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AU129">
         <v>2</v>
@@ -27914,25 +27914,25 @@
         <v>1.5</v>
       </c>
       <c r="AN130">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AO130">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ130">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR130">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AS130">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="AT130">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="AU130">
         <v>10</v>
@@ -28120,25 +28120,25 @@
         <v>1.45</v>
       </c>
       <c r="AN131">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO131">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AP131">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ131">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AR131">
+        <v>1.46</v>
+      </c>
+      <c r="AS131">
         <v>1.31</v>
       </c>
-      <c r="AS131">
-        <v>1.18</v>
-      </c>
       <c r="AT131">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="AU131">
         <v>7</v>
@@ -28326,25 +28326,25 @@
         <v>2.4</v>
       </c>
       <c r="AN132">
-        <v>2.13</v>
+        <v>2.38</v>
       </c>
       <c r="AO132">
-        <v>1.13</v>
+        <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AQ132">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR132">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="AS132">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="AT132">
-        <v>3.27</v>
+        <v>3.53</v>
       </c>
       <c r="AU132">
         <v>3</v>
@@ -28532,25 +28532,25 @@
         <v>1.91</v>
       </c>
       <c r="AN133">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="AO133">
-        <v>1.69</v>
+        <v>1.13</v>
       </c>
       <c r="AP133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ133">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AR133">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AS133">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AT133">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="AU133">
         <v>0</v>
@@ -28738,25 +28738,25 @@
         <v>1.57</v>
       </c>
       <c r="AN134">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AO134">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ134">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="AR134">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AS134">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT134">
-        <v>2.59</v>
+        <v>2.37</v>
       </c>
       <c r="AU134">
         <v>9</v>
@@ -28944,25 +28944,25 @@
         <v>1.8</v>
       </c>
       <c r="AN135">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AO135">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP135">
-        <v>1.1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR135">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="AS135">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AT135">
-        <v>2.26</v>
+        <v>2.13</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29150,25 +29150,25 @@
         <v>2.28</v>
       </c>
       <c r="AN136">
-        <v>2.56</v>
+        <v>2.71</v>
       </c>
       <c r="AO136">
-        <v>1.38</v>
+        <v>1.86</v>
       </c>
       <c r="AP136">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ136">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR136">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AS136">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AT136">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29356,25 +29356,25 @@
         <v>1.5</v>
       </c>
       <c r="AN137">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AO137">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR137">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AS137">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AT137">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU137">
         <v>4</v>
@@ -29562,25 +29562,25 @@
         <v>1.48</v>
       </c>
       <c r="AN138">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="AO138">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AP138">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="AQ138">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AR138">
-        <v>0.95</v>
+        <v>1.12</v>
       </c>
       <c r="AS138">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AT138">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="AU138">
         <v>2</v>
@@ -29768,25 +29768,25 @@
         <v>1.48</v>
       </c>
       <c r="AN139">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AO139">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ139">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="AS139">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT139">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -29974,25 +29974,25 @@
         <v>1.4</v>
       </c>
       <c r="AN140">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="AO140">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AP140">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AQ140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
       </c>
       <c r="AS140">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AT140">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="AU140">
         <v>4</v>
@@ -30180,25 +30180,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="AO141">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AP141">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AQ141">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AR141">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AS141">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AT141">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="AU141">
         <v>3</v>
@@ -30386,25 +30386,25 @@
         <v>1.67</v>
       </c>
       <c r="AN142">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="AO142">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AP142">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AQ142">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AR142">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AS142">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AT142">
-        <v>2.91</v>
+        <v>2.74</v>
       </c>
       <c r="AU142">
         <v>2</v>
@@ -30592,25 +30592,25 @@
         <v>1.45</v>
       </c>
       <c r="AN143">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AO143">
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR143">
+        <v>1.03</v>
+      </c>
+      <c r="AS143">
         <v>1.06</v>
       </c>
-      <c r="AS143">
-        <v>1.19</v>
-      </c>
       <c r="AT143">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -30798,25 +30798,25 @@
         <v>1.2</v>
       </c>
       <c r="AN144">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AO144">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="AP144">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AQ144">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AR144">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AS144">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT144">
-        <v>2.97</v>
+        <v>3.13</v>
       </c>
       <c r="AU144">
         <v>0</v>
@@ -31004,25 +31004,25 @@
         <v>1.53</v>
       </c>
       <c r="AN145">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="AO145">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AP145">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ145">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AR145">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AS145">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="AT145">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="AU145">
         <v>4</v>
@@ -31210,25 +31210,25 @@
         <v>1.41</v>
       </c>
       <c r="AN146">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AO146">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AQ146">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR146">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AS146">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AT146">
-        <v>2.82</v>
+        <v>3.06</v>
       </c>
       <c r="AU146">
         <v>4</v>
@@ -31416,22 +31416,22 @@
         <v>1.59</v>
       </c>
       <c r="AN147">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AO147">
-        <v>1.17</v>
+        <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR147">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="AS147">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="AT147">
         <v>2.29</v>
@@ -31625,22 +31625,22 @@
         <v>2.5</v>
       </c>
       <c r="AO148">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ148">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AR148">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AS148">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AT148">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="AU148">
         <v>8</v>
@@ -31828,25 +31828,25 @@
         <v>1.67</v>
       </c>
       <c r="AN149">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="AO149">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ149">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AR149">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AS149">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="AT149">
-        <v>2.64</v>
+        <v>2.49</v>
       </c>
       <c r="AU149">
         <v>7</v>
@@ -32034,25 +32034,25 @@
         <v>0</v>
       </c>
       <c r="AN150">
+        <v>2</v>
+      </c>
+      <c r="AO150">
+        <v>1.75</v>
+      </c>
+      <c r="AP150">
+        <v>2.1</v>
+      </c>
+      <c r="AQ150">
+        <v>1.5</v>
+      </c>
+      <c r="AR150">
         <v>1.56</v>
       </c>
-      <c r="AO150">
-        <v>1.28</v>
-      </c>
-      <c r="AP150">
-        <v>1.55</v>
-      </c>
-      <c r="AQ150">
-        <v>1.2</v>
-      </c>
-      <c r="AR150">
-        <v>1.47</v>
-      </c>
       <c r="AS150">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT150">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32240,25 +32240,25 @@
         <v>3.15</v>
       </c>
       <c r="AN151">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AO151">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR151">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AS151">
         <v>1.09</v>
       </c>
       <c r="AT151">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32446,25 +32446,25 @@
         <v>2.01</v>
       </c>
       <c r="AN152">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AO152">
-        <v>1.17</v>
+        <v>0.89</v>
       </c>
       <c r="AP152">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ152">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="AR152">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AT152">
-        <v>2.87</v>
+        <v>2.62</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32652,25 +32652,25 @@
         <v>1.42</v>
       </c>
       <c r="AN153">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AO153">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AP153">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ153">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AR153">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AS153">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AT153">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="AU153">
         <v>2</v>
@@ -32858,25 +32858,25 @@
         <v>1.36</v>
       </c>
       <c r="AN154">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AO154">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="AP154">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AQ154">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR154">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AS154">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AT154">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="AU154">
         <v>4</v>
@@ -33064,25 +33064,25 @@
         <v>1.19</v>
       </c>
       <c r="AN155">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AO155">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ155">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR155">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AS155">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AT155">
-        <v>2.61</v>
+        <v>2.74</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33270,25 +33270,25 @@
         <v>1.14</v>
       </c>
       <c r="AN156">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AO156">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AP156">
-        <v>1.1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ156">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AR156">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="AS156">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AT156">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="AU156">
         <v>0</v>
@@ -33476,25 +33476,25 @@
         <v>0</v>
       </c>
       <c r="AN157">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AO157">
+        <v>1.22</v>
+      </c>
+      <c r="AP157">
+        <v>1.5</v>
+      </c>
+      <c r="AQ157">
+        <v>1.1</v>
+      </c>
+      <c r="AR157">
+        <v>1.48</v>
+      </c>
+      <c r="AS157">
         <v>1.05</v>
       </c>
-      <c r="AP157">
-        <v>1.7</v>
-      </c>
-      <c r="AQ157">
-        <v>1</v>
-      </c>
-      <c r="AR157">
-        <v>1.33</v>
-      </c>
-      <c r="AS157">
-        <v>1.17</v>
-      </c>
       <c r="AT157">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33682,25 +33682,25 @@
         <v>1.47</v>
       </c>
       <c r="AN158">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AO158">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AP158">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="AQ158">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR158">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AS158">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT158">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="AU158">
         <v>2</v>
@@ -33888,25 +33888,25 @@
         <v>1.28</v>
       </c>
       <c r="AN159">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AO159">
         <v>1.89</v>
       </c>
       <c r="AP159">
-        <v>1.1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR159">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AS159">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AT159">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="AU159">
         <v>7</v>
@@ -34094,25 +34094,25 @@
         <v>1.1</v>
       </c>
       <c r="AN160">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
       <c r="AO160">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AP160">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AQ160">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AR160">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AT160">
-        <v>2.81</v>
+        <v>2.99</v>
       </c>
       <c r="AU160">
         <v>2</v>
@@ -34300,25 +34300,25 @@
         <v>1.53</v>
       </c>
       <c r="AN161">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AO161">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AP161">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ161">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AR161">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AS161">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AT161">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="AU161">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -855,6 +855,9 @@
   <si>
     <t>['12', '83']</t>
   </si>
+  <si>
+    <t>['22']</t>
+  </si>
 </sst>
 </file>
 
@@ -1215,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1558,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ2">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -4230,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ15">
         <v>0.5600000000000001</v>
@@ -7114,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ29">
         <v>2.1</v>
@@ -7941,7 +7944,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -10207,7 +10210,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10410,7 +10413,7 @@
         <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -13706,10 +13709,10 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ61">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -17414,7 +17417,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ79">
         <v>0.9</v>
@@ -17829,7 +17832,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ81">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR81">
         <v>1.33</v>
@@ -20095,7 +20098,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ92">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -21740,7 +21743,7 @@
         <v>2.67</v>
       </c>
       <c r="AP100">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ100">
         <v>2.55</v>
@@ -24009,7 +24012,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ111">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24212,7 +24215,7 @@
         <v>1.38</v>
       </c>
       <c r="AP112">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ112">
         <v>1.67</v>
@@ -25242,7 +25245,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ117">
         <v>1.1</v>
@@ -27305,7 +27308,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ127">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR127">
         <v>1.68</v>
@@ -28538,7 +28541,7 @@
         <v>1.13</v>
       </c>
       <c r="AP133">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -31013,7 +31016,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ145">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR145">
         <v>1.53</v>
@@ -31837,7 +31840,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ149">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR149">
         <v>1.31</v>
@@ -32452,7 +32455,7 @@
         <v>0.89</v>
       </c>
       <c r="AP152">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ152">
         <v>0.9</v>
@@ -34385,6 +34388,212 @@
       </c>
       <c r="BP161">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7446509</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45492.79166666666</v>
+      </c>
+      <c r="F162">
+        <v>6</v>
+      </c>
+      <c r="G162" t="s">
+        <v>82</v>
+      </c>
+      <c r="H162" t="s">
+        <v>77</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>93</v>
+      </c>
+      <c r="P162" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q162">
+        <v>2.35</v>
+      </c>
+      <c r="R162">
+        <v>2.1</v>
+      </c>
+      <c r="S162">
+        <v>4.5</v>
+      </c>
+      <c r="T162">
+        <v>1.41</v>
+      </c>
+      <c r="U162">
+        <v>2.7</v>
+      </c>
+      <c r="V162">
+        <v>2.95</v>
+      </c>
+      <c r="W162">
+        <v>1.35</v>
+      </c>
+      <c r="X162">
+        <v>7.5</v>
+      </c>
+      <c r="Y162">
+        <v>1.07</v>
+      </c>
+      <c r="Z162">
+        <v>1.75</v>
+      </c>
+      <c r="AA162">
+        <v>3.4</v>
+      </c>
+      <c r="AB162">
+        <v>3.95</v>
+      </c>
+      <c r="AC162">
+        <v>1.06</v>
+      </c>
+      <c r="AD162">
+        <v>8</v>
+      </c>
+      <c r="AE162">
+        <v>1.33</v>
+      </c>
+      <c r="AF162">
+        <v>3.1</v>
+      </c>
+      <c r="AG162">
+        <v>1.99</v>
+      </c>
+      <c r="AH162">
+        <v>1.79</v>
+      </c>
+      <c r="AI162">
+        <v>1.9</v>
+      </c>
+      <c r="AJ162">
+        <v>1.85</v>
+      </c>
+      <c r="AK162">
+        <v>1.16</v>
+      </c>
+      <c r="AL162">
+        <v>1.22</v>
+      </c>
+      <c r="AM162">
+        <v>2</v>
+      </c>
+      <c r="AN162">
+        <v>1.9</v>
+      </c>
+      <c r="AO162">
+        <v>0.6</v>
+      </c>
+      <c r="AP162">
+        <v>1.73</v>
+      </c>
+      <c r="AQ162">
+        <v>0.82</v>
+      </c>
+      <c r="AR162">
+        <v>1.37</v>
+      </c>
+      <c r="AS162">
+        <v>1.2</v>
+      </c>
+      <c r="AT162">
+        <v>2.57</v>
+      </c>
+      <c r="AU162">
+        <v>3</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>5</v>
+      </c>
+      <c r="AX162">
+        <v>3</v>
+      </c>
+      <c r="AY162">
+        <v>8</v>
+      </c>
+      <c r="AZ162">
+        <v>6</v>
+      </c>
+      <c r="BA162">
+        <v>5</v>
+      </c>
+      <c r="BB162">
+        <v>3</v>
+      </c>
+      <c r="BC162">
+        <v>8</v>
+      </c>
+      <c r="BD162">
+        <v>1.5</v>
+      </c>
+      <c r="BE162">
+        <v>8.5</v>
+      </c>
+      <c r="BF162">
+        <v>3.1</v>
+      </c>
+      <c r="BG162">
+        <v>1.23</v>
+      </c>
+      <c r="BH162">
+        <v>3.56</v>
+      </c>
+      <c r="BI162">
+        <v>1.44</v>
+      </c>
+      <c r="BJ162">
+        <v>2.5</v>
+      </c>
+      <c r="BK162">
+        <v>1.95</v>
+      </c>
+      <c r="BL162">
+        <v>1.85</v>
+      </c>
+      <c r="BM162">
+        <v>2.28</v>
+      </c>
+      <c r="BN162">
+        <v>1.53</v>
+      </c>
+      <c r="BO162">
+        <v>3.04</v>
+      </c>
+      <c r="BP162">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,15 @@
     <t>['20', '25', '68', '90+3']</t>
   </si>
   <si>
+    <t>['21', '47', '69', '72']</t>
+  </si>
+  <si>
+    <t>['23', '52']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -713,9 +722,6 @@
   </si>
   <si>
     <t>['6', '63']</t>
-  </si>
-  <si>
-    <t>['7']</t>
   </si>
   <si>
     <t>['58']</t>
@@ -856,7 +862,13 @@
     <t>['12', '83']</t>
   </si>
   <si>
-    <t>['22']</t>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['79', '90']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,7 +1489,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1555,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ2">
         <v>0.82</v>
@@ -1683,7 +1695,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1764,7 +1776,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1889,7 +1901,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2095,7 +2107,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2382,7 +2394,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ6">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2507,7 +2519,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2585,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2713,7 +2725,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2791,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ8">
         <v>2.55</v>
@@ -2919,7 +2931,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3000,7 +3012,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ9">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3409,10 +3421,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3615,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ12">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3821,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -4027,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>2.1</v>
@@ -4236,7 +4248,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ15">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4361,7 +4373,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4567,7 +4579,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4773,7 +4785,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4851,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -5060,7 +5072,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>1.89</v>
@@ -5263,10 +5275,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ20">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5391,7 +5403,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5597,7 +5609,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5675,10 +5687,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>1.2</v>
@@ -5803,7 +5815,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6009,7 +6021,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6090,7 +6102,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -6215,7 +6227,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6499,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ26">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -6627,7 +6639,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6705,10 +6717,10 @@
         <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6833,7 +6845,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6911,7 +6923,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -7039,7 +7051,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7323,10 +7335,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7532,7 +7544,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ31">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>0.74</v>
@@ -7735,7 +7747,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -8069,7 +8081,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8147,7 +8159,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ34">
         <v>2.55</v>
@@ -8275,7 +8287,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8356,7 +8368,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>0.51</v>
@@ -8559,7 +8571,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8893,7 +8905,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -9099,7 +9111,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9180,7 +9192,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ39">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9305,7 +9317,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9383,10 +9395,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.57</v>
@@ -9511,7 +9523,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9589,7 +9601,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9795,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ42">
         <v>2.1</v>
@@ -10004,7 +10016,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
         <v>0.6899999999999999</v>
@@ -10129,7 +10141,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10207,7 +10219,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0.82</v>
@@ -10416,7 +10428,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR45">
         <v>1.48</v>
@@ -10619,10 +10631,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ46">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR46">
         <v>1.56</v>
@@ -10747,7 +10759,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10828,7 +10840,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ47">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10953,7 +10965,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11159,7 +11171,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11237,7 +11249,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11365,7 +11377,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11446,7 +11458,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ50">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR50">
         <v>1.19</v>
@@ -11571,7 +11583,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11649,10 +11661,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ51">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.16</v>
@@ -11777,7 +11789,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12061,7 +12073,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ53">
         <v>1.67</v>
@@ -12270,7 +12282,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12395,7 +12407,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12601,7 +12613,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12885,7 +12897,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ57">
         <v>1.9</v>
@@ -13094,7 +13106,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR58">
         <v>1.2</v>
@@ -13219,7 +13231,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13631,7 +13643,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13915,10 +13927,10 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR62">
         <v>1.31</v>
@@ -14043,7 +14055,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14249,7 +14261,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14533,10 +14545,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ65">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14739,7 +14751,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>2</v>
@@ -14867,7 +14879,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15073,7 +15085,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15151,7 +15163,7 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ68">
         <v>2.55</v>
@@ -15279,7 +15291,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15357,10 +15369,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -15485,7 +15497,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15566,7 +15578,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ70">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15691,7 +15703,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15772,7 +15784,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ71">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR71">
         <v>1.16</v>
@@ -15897,7 +15909,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16103,7 +16115,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16309,7 +16321,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16390,7 +16402,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ74">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR74">
         <v>0.9</v>
@@ -16593,7 +16605,7 @@
         <v>2.4</v>
       </c>
       <c r="AP75">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ75">
         <v>1.9</v>
@@ -16721,7 +16733,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16802,7 +16814,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR76">
         <v>1.18</v>
@@ -17005,7 +17017,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17133,7 +17145,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17339,7 +17351,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17420,7 +17432,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ79">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -17623,10 +17635,10 @@
         <v>0.75</v>
       </c>
       <c r="AP80">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR80">
         <v>1.38</v>
@@ -17829,7 +17841,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ81">
         <v>0.82</v>
@@ -17957,7 +17969,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18038,7 +18050,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18163,7 +18175,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18241,7 +18253,7 @@
         <v>3</v>
       </c>
       <c r="AP83">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>2.55</v>
@@ -18369,7 +18381,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18447,7 +18459,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ84">
         <v>1.5</v>
@@ -18575,7 +18587,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18653,10 +18665,10 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ85">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18987,7 +18999,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19193,7 +19205,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19480,7 +19492,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ89">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR89">
         <v>1.29</v>
@@ -19605,7 +19617,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19683,10 +19695,10 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR90">
         <v>1.78</v>
@@ -19892,7 +19904,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR91">
         <v>1.05</v>
@@ -20223,7 +20235,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20301,10 +20313,10 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ93">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR93">
         <v>1.47</v>
@@ -20507,10 +20519,10 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ94">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR94">
         <v>1.37</v>
@@ -20635,7 +20647,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20713,7 +20725,7 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20841,7 +20853,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21047,7 +21059,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21125,7 +21137,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ97">
         <v>2</v>
@@ -21459,7 +21471,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21540,7 +21552,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ99">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21665,7 +21677,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22155,10 +22167,10 @@
         <v>0.4</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ102">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR102">
         <v>1.47</v>
@@ -22489,7 +22501,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22567,10 +22579,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ104">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.56</v>
@@ -22695,7 +22707,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22979,7 +22991,7 @@
         <v>1.29</v>
       </c>
       <c r="AP106">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23107,7 +23119,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23185,7 +23197,7 @@
         <v>2.14</v>
       </c>
       <c r="AP107">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ107">
         <v>1.9</v>
@@ -23394,7 +23406,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ108">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR108">
         <v>1.21</v>
@@ -23519,7 +23531,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23597,10 +23609,10 @@
         <v>0.67</v>
       </c>
       <c r="AP109">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -23803,10 +23815,10 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ110">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR110">
         <v>1.77</v>
@@ -23931,7 +23943,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24343,7 +24355,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24424,7 +24436,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR113">
         <v>1.08</v>
@@ -24630,7 +24642,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ114">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.67</v>
@@ -24755,7 +24767,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24961,7 +24973,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25248,7 +25260,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ117">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.4</v>
@@ -25373,7 +25385,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25451,10 +25463,10 @@
         <v>0.33</v>
       </c>
       <c r="AP118">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -25579,7 +25591,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25660,7 +25672,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ119">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR119">
         <v>1.01</v>
@@ -25863,7 +25875,7 @@
         <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ120">
         <v>1.67</v>
@@ -25991,7 +26003,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26069,7 +26081,7 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ121">
         <v>2.1</v>
@@ -26197,7 +26209,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26275,10 +26287,10 @@
         <v>0.71</v>
       </c>
       <c r="AP122">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.55</v>
@@ -26403,7 +26415,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26481,10 +26493,10 @@
         <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
@@ -26815,7 +26827,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27021,7 +27033,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27099,10 +27111,10 @@
         <v>1.11</v>
       </c>
       <c r="AP126">
+        <v>1.22</v>
+      </c>
+      <c r="AQ126">
         <v>1.38</v>
-      </c>
-      <c r="AQ126">
-        <v>1.25</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27305,7 +27317,7 @@
         <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ127">
         <v>0.82</v>
@@ -27926,7 +27938,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ130">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR130">
         <v>1.22</v>
@@ -28132,7 +28144,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ131">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR131">
         <v>1.46</v>
@@ -28257,7 +28269,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28335,7 +28347,7 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -28669,7 +28681,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>2.91</v>
@@ -28750,7 +28762,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ134">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR134">
         <v>1.24</v>
@@ -28956,7 +28968,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ135">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.01</v>
@@ -29081,7 +29093,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29159,7 +29171,7 @@
         <v>1.86</v>
       </c>
       <c r="AP136">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ136">
         <v>1.5</v>
@@ -29287,7 +29299,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29365,7 +29377,7 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ137">
         <v>1.67</v>
@@ -29574,7 +29586,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ138">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR138">
         <v>1.12</v>
@@ -29699,7 +29711,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29780,7 +29792,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR139">
         <v>1.07</v>
@@ -29905,7 +29917,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -29983,7 +29995,7 @@
         <v>1.75</v>
       </c>
       <c r="AP140">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ140">
         <v>2</v>
@@ -30111,7 +30123,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30189,7 +30201,7 @@
         <v>2.44</v>
       </c>
       <c r="AP141">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ141">
         <v>2.55</v>
@@ -30395,7 +30407,7 @@
         <v>2.11</v>
       </c>
       <c r="AP142">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ142">
         <v>1.9</v>
@@ -30523,7 +30535,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30604,7 +30616,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ143">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>1.03</v>
@@ -30729,7 +30741,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30807,7 +30819,7 @@
         <v>1.88</v>
       </c>
       <c r="AP144">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ144">
         <v>2.1</v>
@@ -30935,7 +30947,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31219,7 +31231,7 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ146">
         <v>1</v>
@@ -31425,10 +31437,10 @@
         <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR147">
         <v>1.51</v>
@@ -31631,10 +31643,10 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ148">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -31965,7 +31977,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32043,7 +32055,7 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ150">
         <v>1.5</v>
@@ -32171,7 +32183,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q151">
         <v>1.75</v>
@@ -32249,10 +32261,10 @@
         <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ151">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.68</v>
@@ -32377,7 +32389,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32458,7 +32470,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ152">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR152">
         <v>1.38</v>
@@ -32583,7 +32595,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -32664,7 +32676,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ153">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR153">
         <v>1.3</v>
@@ -32995,7 +33007,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33201,7 +33213,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33485,10 +33497,10 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ157">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>1.48</v>
@@ -33613,7 +33625,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="Q158">
         <v>3.14</v>
@@ -33819,7 +33831,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34025,7 +34037,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34231,7 +34243,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34437,7 +34449,7 @@
         <v>93</v>
       </c>
       <c r="P162" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="Q162">
         <v>2.35</v>
@@ -34594,6 +34606,1448 @@
       </c>
       <c r="BP162">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7446514</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45493.41666666666</v>
+      </c>
+      <c r="F163">
+        <v>6</v>
+      </c>
+      <c r="G163" t="s">
+        <v>76</v>
+      </c>
+      <c r="H163" t="s">
+        <v>83</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163" t="s">
+        <v>93</v>
+      </c>
+      <c r="P163" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q163">
+        <v>2.6</v>
+      </c>
+      <c r="R163">
+        <v>2.05</v>
+      </c>
+      <c r="S163">
+        <v>4</v>
+      </c>
+      <c r="T163">
+        <v>1.4</v>
+      </c>
+      <c r="U163">
+        <v>2.75</v>
+      </c>
+      <c r="V163">
+        <v>3</v>
+      </c>
+      <c r="W163">
+        <v>1.36</v>
+      </c>
+      <c r="X163">
+        <v>7</v>
+      </c>
+      <c r="Y163">
+        <v>1.08</v>
+      </c>
+      <c r="Z163">
+        <v>1.95</v>
+      </c>
+      <c r="AA163">
+        <v>3.25</v>
+      </c>
+      <c r="AB163">
+        <v>3.6</v>
+      </c>
+      <c r="AC163">
+        <v>1.04</v>
+      </c>
+      <c r="AD163">
+        <v>7.8</v>
+      </c>
+      <c r="AE163">
+        <v>1.35</v>
+      </c>
+      <c r="AF163">
+        <v>2.84</v>
+      </c>
+      <c r="AG163">
+        <v>2.18</v>
+      </c>
+      <c r="AH163">
+        <v>1.64</v>
+      </c>
+      <c r="AI163">
+        <v>1.85</v>
+      </c>
+      <c r="AJ163">
+        <v>1.85</v>
+      </c>
+      <c r="AK163">
+        <v>1.22</v>
+      </c>
+      <c r="AL163">
+        <v>1.33</v>
+      </c>
+      <c r="AM163">
+        <v>1.75</v>
+      </c>
+      <c r="AN163">
+        <v>1.38</v>
+      </c>
+      <c r="AO163">
+        <v>0.8</v>
+      </c>
+      <c r="AP163">
+        <v>1.22</v>
+      </c>
+      <c r="AQ163">
+        <v>1</v>
+      </c>
+      <c r="AR163">
+        <v>1.38</v>
+      </c>
+      <c r="AS163">
+        <v>1.08</v>
+      </c>
+      <c r="AT163">
+        <v>2.46</v>
+      </c>
+      <c r="AU163">
+        <v>4</v>
+      </c>
+      <c r="AV163">
+        <v>2</v>
+      </c>
+      <c r="AW163">
+        <v>11</v>
+      </c>
+      <c r="AX163">
+        <v>3</v>
+      </c>
+      <c r="AY163">
+        <v>15</v>
+      </c>
+      <c r="AZ163">
+        <v>5</v>
+      </c>
+      <c r="BA163">
+        <v>4</v>
+      </c>
+      <c r="BB163">
+        <v>1</v>
+      </c>
+      <c r="BC163">
+        <v>5</v>
+      </c>
+      <c r="BD163">
+        <v>1.73</v>
+      </c>
+      <c r="BE163">
+        <v>8</v>
+      </c>
+      <c r="BF163">
+        <v>2.42</v>
+      </c>
+      <c r="BG163">
+        <v>1.32</v>
+      </c>
+      <c r="BH163">
+        <v>2.98</v>
+      </c>
+      <c r="BI163">
+        <v>1.7</v>
+      </c>
+      <c r="BJ163">
+        <v>2.05</v>
+      </c>
+      <c r="BK163">
+        <v>2.05</v>
+      </c>
+      <c r="BL163">
+        <v>1.7</v>
+      </c>
+      <c r="BM163">
+        <v>2.64</v>
+      </c>
+      <c r="BN163">
+        <v>1.4</v>
+      </c>
+      <c r="BO163">
+        <v>3.65</v>
+      </c>
+      <c r="BP163">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7446510</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45493.52083333334</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>75</v>
+      </c>
+      <c r="H164" t="s">
+        <v>78</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>93</v>
+      </c>
+      <c r="P164" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q164">
+        <v>2.8</v>
+      </c>
+      <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>3.75</v>
+      </c>
+      <c r="T164">
+        <v>1.48</v>
+      </c>
+      <c r="U164">
+        <v>2.5</v>
+      </c>
+      <c r="V164">
+        <v>3</v>
+      </c>
+      <c r="W164">
+        <v>1.36</v>
+      </c>
+      <c r="X164">
+        <v>7.5</v>
+      </c>
+      <c r="Y164">
+        <v>1.07</v>
+      </c>
+      <c r="Z164">
+        <v>2.1</v>
+      </c>
+      <c r="AA164">
+        <v>3.3</v>
+      </c>
+      <c r="AB164">
+        <v>3.4</v>
+      </c>
+      <c r="AC164">
+        <v>1.04</v>
+      </c>
+      <c r="AD164">
+        <v>7.7</v>
+      </c>
+      <c r="AE164">
+        <v>1.38</v>
+      </c>
+      <c r="AF164">
+        <v>2.9</v>
+      </c>
+      <c r="AG164">
+        <v>2.18</v>
+      </c>
+      <c r="AH164">
+        <v>1.64</v>
+      </c>
+      <c r="AI164">
+        <v>1.9</v>
+      </c>
+      <c r="AJ164">
+        <v>1.83</v>
+      </c>
+      <c r="AK164">
+        <v>1.3</v>
+      </c>
+      <c r="AL164">
+        <v>1.25</v>
+      </c>
+      <c r="AM164">
+        <v>1.68</v>
+      </c>
+      <c r="AN164">
+        <v>0.9</v>
+      </c>
+      <c r="AO164">
+        <v>0.9</v>
+      </c>
+      <c r="AP164">
+        <v>0.82</v>
+      </c>
+      <c r="AQ164">
+        <v>1.09</v>
+      </c>
+      <c r="AR164">
+        <v>1.35</v>
+      </c>
+      <c r="AS164">
+        <v>1.26</v>
+      </c>
+      <c r="AT164">
+        <v>2.61</v>
+      </c>
+      <c r="AU164">
+        <v>6</v>
+      </c>
+      <c r="AV164">
+        <v>5</v>
+      </c>
+      <c r="AW164">
+        <v>4</v>
+      </c>
+      <c r="AX164">
+        <v>4</v>
+      </c>
+      <c r="AY164">
+        <v>10</v>
+      </c>
+      <c r="AZ164">
+        <v>9</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>5</v>
+      </c>
+      <c r="BC164">
+        <v>10</v>
+      </c>
+      <c r="BD164">
+        <v>1.62</v>
+      </c>
+      <c r="BE164">
+        <v>8</v>
+      </c>
+      <c r="BF164">
+        <v>2.75</v>
+      </c>
+      <c r="BG164">
+        <v>1.28</v>
+      </c>
+      <c r="BH164">
+        <v>3.2</v>
+      </c>
+      <c r="BI164">
+        <v>1.53</v>
+      </c>
+      <c r="BJ164">
+        <v>2.28</v>
+      </c>
+      <c r="BK164">
+        <v>1.8</v>
+      </c>
+      <c r="BL164">
+        <v>2</v>
+      </c>
+      <c r="BM164">
+        <v>2.51</v>
+      </c>
+      <c r="BN164">
+        <v>1.44</v>
+      </c>
+      <c r="BO164">
+        <v>3.42</v>
+      </c>
+      <c r="BP164">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7446512</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45493.64583333334</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>70</v>
+      </c>
+      <c r="H165" t="s">
+        <v>72</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>4</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165" t="s">
+        <v>193</v>
+      </c>
+      <c r="P165" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q165">
+        <v>1.87</v>
+      </c>
+      <c r="R165">
+        <v>2.33</v>
+      </c>
+      <c r="S165">
+        <v>6.5</v>
+      </c>
+      <c r="T165">
+        <v>1.34</v>
+      </c>
+      <c r="U165">
+        <v>3.1</v>
+      </c>
+      <c r="V165">
+        <v>2.6</v>
+      </c>
+      <c r="W165">
+        <v>1.46</v>
+      </c>
+      <c r="X165">
+        <v>6.3</v>
+      </c>
+      <c r="Y165">
+        <v>1.1</v>
+      </c>
+      <c r="Z165">
+        <v>1.42</v>
+      </c>
+      <c r="AA165">
+        <v>4.5</v>
+      </c>
+      <c r="AB165">
+        <v>6.75</v>
+      </c>
+      <c r="AC165">
+        <v>1.01</v>
+      </c>
+      <c r="AD165">
+        <v>10.25</v>
+      </c>
+      <c r="AE165">
+        <v>1.22</v>
+      </c>
+      <c r="AF165">
+        <v>3.65</v>
+      </c>
+      <c r="AG165">
+        <v>1.77</v>
+      </c>
+      <c r="AH165">
+        <v>1.98</v>
+      </c>
+      <c r="AI165">
+        <v>1.95</v>
+      </c>
+      <c r="AJ165">
+        <v>1.73</v>
+      </c>
+      <c r="AK165">
+        <v>1.06</v>
+      </c>
+      <c r="AL165">
+        <v>1.16</v>
+      </c>
+      <c r="AM165">
+        <v>2.74</v>
+      </c>
+      <c r="AN165">
+        <v>2.3</v>
+      </c>
+      <c r="AO165">
+        <v>1.1</v>
+      </c>
+      <c r="AP165">
+        <v>2.36</v>
+      </c>
+      <c r="AQ165">
+        <v>1</v>
+      </c>
+      <c r="AR165">
+        <v>1.76</v>
+      </c>
+      <c r="AS165">
+        <v>1.1</v>
+      </c>
+      <c r="AT165">
+        <v>2.86</v>
+      </c>
+      <c r="AU165">
+        <v>10</v>
+      </c>
+      <c r="AV165">
+        <v>2</v>
+      </c>
+      <c r="AW165">
+        <v>6</v>
+      </c>
+      <c r="AX165">
+        <v>0</v>
+      </c>
+      <c r="AY165">
+        <v>16</v>
+      </c>
+      <c r="AZ165">
+        <v>2</v>
+      </c>
+      <c r="BA165">
+        <v>5</v>
+      </c>
+      <c r="BB165">
+        <v>2</v>
+      </c>
+      <c r="BC165">
+        <v>7</v>
+      </c>
+      <c r="BD165">
+        <v>1.3</v>
+      </c>
+      <c r="BE165">
+        <v>9.5</v>
+      </c>
+      <c r="BF165">
+        <v>4</v>
+      </c>
+      <c r="BG165">
+        <v>1.24</v>
+      </c>
+      <c r="BH165">
+        <v>3.6</v>
+      </c>
+      <c r="BI165">
+        <v>1.44</v>
+      </c>
+      <c r="BJ165">
+        <v>2.55</v>
+      </c>
+      <c r="BK165">
+        <v>1.73</v>
+      </c>
+      <c r="BL165">
+        <v>2</v>
+      </c>
+      <c r="BM165">
+        <v>2.18</v>
+      </c>
+      <c r="BN165">
+        <v>1.61</v>
+      </c>
+      <c r="BO165">
+        <v>2.75</v>
+      </c>
+      <c r="BP165">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7446515</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45494.41666666666</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166" t="s">
+        <v>81</v>
+      </c>
+      <c r="H166" t="s">
+        <v>74</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>93</v>
+      </c>
+      <c r="P166" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q166">
+        <v>2.3</v>
+      </c>
+      <c r="R166">
+        <v>2.15</v>
+      </c>
+      <c r="S166">
+        <v>4.5</v>
+      </c>
+      <c r="T166">
+        <v>1.4</v>
+      </c>
+      <c r="U166">
+        <v>2.75</v>
+      </c>
+      <c r="V166">
+        <v>2.62</v>
+      </c>
+      <c r="W166">
+        <v>1.44</v>
+      </c>
+      <c r="X166">
+        <v>6.5</v>
+      </c>
+      <c r="Y166">
+        <v>1.1</v>
+      </c>
+      <c r="Z166">
+        <v>1.74</v>
+      </c>
+      <c r="AA166">
+        <v>3.6</v>
+      </c>
+      <c r="AB166">
+        <v>4.4</v>
+      </c>
+      <c r="AC166">
+        <v>1.02</v>
+      </c>
+      <c r="AD166">
+        <v>8.9</v>
+      </c>
+      <c r="AE166">
+        <v>1.3</v>
+      </c>
+      <c r="AF166">
+        <v>3.3</v>
+      </c>
+      <c r="AG166">
+        <v>1.97</v>
+      </c>
+      <c r="AH166">
+        <v>1.83</v>
+      </c>
+      <c r="AI166">
+        <v>1.87</v>
+      </c>
+      <c r="AJ166">
+        <v>1.87</v>
+      </c>
+      <c r="AK166">
+        <v>1.16</v>
+      </c>
+      <c r="AL166">
+        <v>1.22</v>
+      </c>
+      <c r="AM166">
+        <v>2.05</v>
+      </c>
+      <c r="AN166">
+        <v>1.08</v>
+      </c>
+      <c r="AO166">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP166">
+        <v>1</v>
+      </c>
+      <c r="AQ166">
+        <v>0.8</v>
+      </c>
+      <c r="AR166">
+        <v>1.47</v>
+      </c>
+      <c r="AS166">
+        <v>0.87</v>
+      </c>
+      <c r="AT166">
+        <v>2.34</v>
+      </c>
+      <c r="AU166">
+        <v>0</v>
+      </c>
+      <c r="AV166">
+        <v>2</v>
+      </c>
+      <c r="AW166">
+        <v>5</v>
+      </c>
+      <c r="AX166">
+        <v>3</v>
+      </c>
+      <c r="AY166">
+        <v>5</v>
+      </c>
+      <c r="AZ166">
+        <v>5</v>
+      </c>
+      <c r="BA166">
+        <v>10</v>
+      </c>
+      <c r="BB166">
+        <v>5</v>
+      </c>
+      <c r="BC166">
+        <v>15</v>
+      </c>
+      <c r="BD166">
+        <v>1.73</v>
+      </c>
+      <c r="BE166">
+        <v>8</v>
+      </c>
+      <c r="BF166">
+        <v>2.4</v>
+      </c>
+      <c r="BG166">
+        <v>1.22</v>
+      </c>
+      <c r="BH166">
+        <v>3.65</v>
+      </c>
+      <c r="BI166">
+        <v>1.43</v>
+      </c>
+      <c r="BJ166">
+        <v>2.54</v>
+      </c>
+      <c r="BK166">
+        <v>1.92</v>
+      </c>
+      <c r="BL166">
+        <v>1.88</v>
+      </c>
+      <c r="BM166">
+        <v>2.23</v>
+      </c>
+      <c r="BN166">
+        <v>1.55</v>
+      </c>
+      <c r="BO166">
+        <v>2.98</v>
+      </c>
+      <c r="BP166">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7446511</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45494.52083333334</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167" t="s">
+        <v>84</v>
+      </c>
+      <c r="H167" t="s">
+        <v>73</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>93</v>
+      </c>
+      <c r="P167" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q167">
+        <v>2.8</v>
+      </c>
+      <c r="R167">
+        <v>2.05</v>
+      </c>
+      <c r="S167">
+        <v>3.6</v>
+      </c>
+      <c r="T167">
+        <v>1.43</v>
+      </c>
+      <c r="U167">
+        <v>2.65</v>
+      </c>
+      <c r="V167">
+        <v>3</v>
+      </c>
+      <c r="W167">
+        <v>1.36</v>
+      </c>
+      <c r="X167">
+        <v>7</v>
+      </c>
+      <c r="Y167">
+        <v>1.08</v>
+      </c>
+      <c r="Z167">
+        <v>2.1</v>
+      </c>
+      <c r="AA167">
+        <v>3.3</v>
+      </c>
+      <c r="AB167">
+        <v>3.4</v>
+      </c>
+      <c r="AC167">
+        <v>1.04</v>
+      </c>
+      <c r="AD167">
+        <v>8.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.33</v>
+      </c>
+      <c r="AF167">
+        <v>3.1</v>
+      </c>
+      <c r="AG167">
+        <v>2.04</v>
+      </c>
+      <c r="AH167">
+        <v>1.73</v>
+      </c>
+      <c r="AI167">
+        <v>1.8</v>
+      </c>
+      <c r="AJ167">
+        <v>1.95</v>
+      </c>
+      <c r="AK167">
+        <v>1.33</v>
+      </c>
+      <c r="AL167">
+        <v>1.25</v>
+      </c>
+      <c r="AM167">
+        <v>1.63</v>
+      </c>
+      <c r="AN167">
+        <v>2.1</v>
+      </c>
+      <c r="AO167">
+        <v>1.22</v>
+      </c>
+      <c r="AP167">
+        <v>1.91</v>
+      </c>
+      <c r="AQ167">
+        <v>1.4</v>
+      </c>
+      <c r="AR167">
+        <v>1.56</v>
+      </c>
+      <c r="AS167">
+        <v>1.18</v>
+      </c>
+      <c r="AT167">
+        <v>2.74</v>
+      </c>
+      <c r="AU167">
+        <v>2</v>
+      </c>
+      <c r="AV167">
+        <v>9</v>
+      </c>
+      <c r="AW167">
+        <v>5</v>
+      </c>
+      <c r="AX167">
+        <v>6</v>
+      </c>
+      <c r="AY167">
+        <v>7</v>
+      </c>
+      <c r="AZ167">
+        <v>15</v>
+      </c>
+      <c r="BA167">
+        <v>2</v>
+      </c>
+      <c r="BB167">
+        <v>5</v>
+      </c>
+      <c r="BC167">
+        <v>7</v>
+      </c>
+      <c r="BD167">
+        <v>1.62</v>
+      </c>
+      <c r="BE167">
+        <v>8.5</v>
+      </c>
+      <c r="BF167">
+        <v>2.75</v>
+      </c>
+      <c r="BG167">
+        <v>1.2</v>
+      </c>
+      <c r="BH167">
+        <v>3.88</v>
+      </c>
+      <c r="BI167">
+        <v>1.39</v>
+      </c>
+      <c r="BJ167">
+        <v>2.67</v>
+      </c>
+      <c r="BK167">
+        <v>1.68</v>
+      </c>
+      <c r="BL167">
+        <v>2.01</v>
+      </c>
+      <c r="BM167">
+        <v>1.95</v>
+      </c>
+      <c r="BN167">
+        <v>1.77</v>
+      </c>
+      <c r="BO167">
+        <v>2.84</v>
+      </c>
+      <c r="BP167">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7446508</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45494.66666666666</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>80</v>
+      </c>
+      <c r="H168" t="s">
+        <v>71</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>194</v>
+      </c>
+      <c r="P168" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q168">
+        <v>2.05</v>
+      </c>
+      <c r="R168">
+        <v>2.15</v>
+      </c>
+      <c r="S168">
+        <v>6</v>
+      </c>
+      <c r="T168">
+        <v>1.41</v>
+      </c>
+      <c r="U168">
+        <v>2.7</v>
+      </c>
+      <c r="V168">
+        <v>2.75</v>
+      </c>
+      <c r="W168">
+        <v>1.4</v>
+      </c>
+      <c r="X168">
+        <v>7</v>
+      </c>
+      <c r="Y168">
+        <v>1.08</v>
+      </c>
+      <c r="Z168">
+        <v>1.5</v>
+      </c>
+      <c r="AA168">
+        <v>3.85</v>
+      </c>
+      <c r="AB168">
+        <v>6.25</v>
+      </c>
+      <c r="AC168">
+        <v>1.02</v>
+      </c>
+      <c r="AD168">
+        <v>8.5</v>
+      </c>
+      <c r="AE168">
+        <v>1.33</v>
+      </c>
+      <c r="AF168">
+        <v>3.1</v>
+      </c>
+      <c r="AG168">
+        <v>2</v>
+      </c>
+      <c r="AH168">
+        <v>1.75</v>
+      </c>
+      <c r="AI168">
+        <v>2.1</v>
+      </c>
+      <c r="AJ168">
+        <v>1.68</v>
+      </c>
+      <c r="AK168">
+        <v>1.06</v>
+      </c>
+      <c r="AL168">
+        <v>1.18</v>
+      </c>
+      <c r="AM168">
+        <v>2.5</v>
+      </c>
+      <c r="AN168">
+        <v>2.33</v>
+      </c>
+      <c r="AO168">
+        <v>1.33</v>
+      </c>
+      <c r="AP168">
+        <v>2.4</v>
+      </c>
+      <c r="AQ168">
+        <v>1.2</v>
+      </c>
+      <c r="AR168">
+        <v>1.42</v>
+      </c>
+      <c r="AS168">
+        <v>1.3</v>
+      </c>
+      <c r="AT168">
+        <v>2.72</v>
+      </c>
+      <c r="AU168">
+        <v>8</v>
+      </c>
+      <c r="AV168">
+        <v>0</v>
+      </c>
+      <c r="AW168">
+        <v>8</v>
+      </c>
+      <c r="AX168">
+        <v>4</v>
+      </c>
+      <c r="AY168">
+        <v>16</v>
+      </c>
+      <c r="AZ168">
+        <v>4</v>
+      </c>
+      <c r="BA168">
+        <v>3</v>
+      </c>
+      <c r="BB168">
+        <v>3</v>
+      </c>
+      <c r="BC168">
+        <v>6</v>
+      </c>
+      <c r="BD168">
+        <v>1.5</v>
+      </c>
+      <c r="BE168">
+        <v>8.5</v>
+      </c>
+      <c r="BF168">
+        <v>3</v>
+      </c>
+      <c r="BG168">
+        <v>1.28</v>
+      </c>
+      <c r="BH168">
+        <v>3.2</v>
+      </c>
+      <c r="BI168">
+        <v>1.52</v>
+      </c>
+      <c r="BJ168">
+        <v>2.3</v>
+      </c>
+      <c r="BK168">
+        <v>1.8</v>
+      </c>
+      <c r="BL168">
+        <v>2</v>
+      </c>
+      <c r="BM168">
+        <v>2.48</v>
+      </c>
+      <c r="BN168">
+        <v>1.45</v>
+      </c>
+      <c r="BO168">
+        <v>3.42</v>
+      </c>
+      <c r="BP168">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7446513</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45494.77083333334</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169" t="s">
+        <v>79</v>
+      </c>
+      <c r="H169" t="s">
+        <v>85</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>195</v>
+      </c>
+      <c r="P169" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q169">
+        <v>3</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>1.5</v>
+      </c>
+      <c r="U169">
+        <v>2.5</v>
+      </c>
+      <c r="V169">
+        <v>3.5</v>
+      </c>
+      <c r="W169">
+        <v>1.29</v>
+      </c>
+      <c r="X169">
+        <v>10</v>
+      </c>
+      <c r="Y169">
+        <v>1.06</v>
+      </c>
+      <c r="Z169">
+        <v>2.1</v>
+      </c>
+      <c r="AA169">
+        <v>3</v>
+      </c>
+      <c r="AB169">
+        <v>3.3</v>
+      </c>
+      <c r="AC169">
+        <v>0</v>
+      </c>
+      <c r="AD169">
+        <v>0</v>
+      </c>
+      <c r="AE169">
+        <v>0</v>
+      </c>
+      <c r="AF169">
+        <v>0</v>
+      </c>
+      <c r="AG169">
+        <v>2.29</v>
+      </c>
+      <c r="AH169">
+        <v>1.55</v>
+      </c>
+      <c r="AI169">
+        <v>2</v>
+      </c>
+      <c r="AJ169">
+        <v>1.73</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>0</v>
+      </c>
+      <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>1.5</v>
+      </c>
+      <c r="AO169">
+        <v>1.25</v>
+      </c>
+      <c r="AP169">
+        <v>1.36</v>
+      </c>
+      <c r="AQ169">
+        <v>1.38</v>
+      </c>
+      <c r="AR169">
+        <v>1.47</v>
+      </c>
+      <c r="AS169">
+        <v>1.31</v>
+      </c>
+      <c r="AT169">
+        <v>2.78</v>
+      </c>
+      <c r="AU169">
+        <v>5</v>
+      </c>
+      <c r="AV169">
+        <v>7</v>
+      </c>
+      <c r="AW169">
+        <v>6</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>11</v>
+      </c>
+      <c r="AZ169">
+        <v>11</v>
+      </c>
+      <c r="BA169">
+        <v>2</v>
+      </c>
+      <c r="BB169">
+        <v>4</v>
+      </c>
+      <c r="BC169">
+        <v>6</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>0</v>
+      </c>
+      <c r="BG169">
+        <v>0</v>
+      </c>
+      <c r="BH169">
+        <v>0</v>
+      </c>
+      <c r="BI169">
+        <v>0</v>
+      </c>
+      <c r="BJ169">
+        <v>0</v>
+      </c>
+      <c r="BK169">
+        <v>0</v>
+      </c>
+      <c r="BL169">
+        <v>0</v>
+      </c>
+      <c r="BM169">
+        <v>0</v>
+      </c>
+      <c r="BN169">
+        <v>0</v>
+      </c>
+      <c r="BO169">
+        <v>0</v>
+      </c>
+      <c r="BP169">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,10 +598,10 @@
     <t>['21', '47', '69', '72']</t>
   </si>
   <si>
-    <t>['23', '52']</t>
+    <t>['22', '52']</t>
   </si>
   <si>
-    <t>['7']</t>
+    <t>['6']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>['6', '63']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
   <si>
     <t>['58']</t>
@@ -16115,7 +16118,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16321,7 +16324,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16733,7 +16736,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17145,7 +17148,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17351,7 +17354,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17969,7 +17972,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18175,7 +18178,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18381,7 +18384,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18587,7 +18590,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18999,7 +19002,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19205,7 +19208,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19617,7 +19620,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20235,7 +20238,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20647,7 +20650,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20853,7 +20856,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21059,7 +21062,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21471,7 +21474,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21677,7 +21680,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22501,7 +22504,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22707,7 +22710,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23119,7 +23122,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23531,7 +23534,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23943,7 +23946,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24355,7 +24358,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24767,7 +24770,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25385,7 +25388,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25591,7 +25594,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26003,7 +26006,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26209,7 +26212,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26281,25 +26284,25 @@
         <v>1.85</v>
       </c>
       <c r="AN122">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO122">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AP122">
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR122">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AS122">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AT122">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26415,7 +26418,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26487,25 +26490,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>0.75</v>
+        <v>1.27</v>
       </c>
       <c r="AO123">
-        <v>1.29</v>
+        <v>0.87</v>
       </c>
       <c r="AP123">
-        <v>0.82</v>
+        <v>1.14</v>
       </c>
       <c r="AQ123">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
       </c>
       <c r="AS123">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AT123">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26693,25 +26696,25 @@
         <v>1.08</v>
       </c>
       <c r="AN124">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="AO124">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="AP124">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ124">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AR124">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AS124">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AT124">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -26899,25 +26902,25 @@
         <v>1.3</v>
       </c>
       <c r="AN125">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO125">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AP125">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR125">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AS125">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="AU125">
         <v>2</v>
@@ -27033,7 +27036,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27108,22 +27111,22 @@
         <v>1.4</v>
       </c>
       <c r="AO126">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
       <c r="AP126">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="AQ126">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AR126">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AS126">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AT126">
-        <v>2.65</v>
+        <v>2.44</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27311,25 +27314,25 @@
         <v>1.75</v>
       </c>
       <c r="AN127">
-        <v>2.14</v>
+        <v>1.6</v>
       </c>
       <c r="AO127">
-        <v>0.43</v>
+        <v>0.93</v>
       </c>
       <c r="AP127">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="AQ127">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR127">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AS127">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AT127">
-        <v>2.77</v>
+        <v>2.83</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27517,25 +27520,25 @@
         <v>1.09</v>
       </c>
       <c r="AN128">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AO128">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="AP128">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="AQ128">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="AR128">
-        <v>1.14</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS128">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AT128">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27723,25 +27726,25 @@
         <v>1.42</v>
       </c>
       <c r="AN129">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO129">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AP129">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AQ129">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="AR129">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AS129">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AT129">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="AU129">
         <v>2</v>
@@ -27929,25 +27932,25 @@
         <v>1.5</v>
       </c>
       <c r="AN130">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO130">
-        <v>0.71</v>
+        <v>1.25</v>
       </c>
       <c r="AP130">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="AQ130">
-        <v>0.8</v>
+        <v>1.14</v>
       </c>
       <c r="AR130">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AS130">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT130">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="AU130">
         <v>10</v>
@@ -28135,25 +28138,25 @@
         <v>1.45</v>
       </c>
       <c r="AN131">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AO131">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP131">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR131">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="AS131">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AT131">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="AU131">
         <v>7</v>
@@ -28269,7 +28272,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28341,25 +28344,25 @@
         <v>2.4</v>
       </c>
       <c r="AN132">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
       <c r="AO132">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="AP132">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="AQ132">
         <v>1</v>
       </c>
       <c r="AR132">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="AS132">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="AT132">
-        <v>3.53</v>
+        <v>3.27</v>
       </c>
       <c r="AU132">
         <v>3</v>
@@ -28547,25 +28550,25 @@
         <v>1.91</v>
       </c>
       <c r="AN133">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="AO133">
-        <v>1.13</v>
+        <v>1.69</v>
       </c>
       <c r="AP133">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR133">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AS133">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AT133">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="AU133">
         <v>0</v>
@@ -28681,7 +28684,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>2.91</v>
@@ -28753,25 +28756,25 @@
         <v>1.57</v>
       </c>
       <c r="AN134">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO134">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AP134">
-        <v>0.91</v>
+        <v>1.05</v>
       </c>
       <c r="AQ134">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AR134">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AS134">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT134">
-        <v>2.37</v>
+        <v>2.59</v>
       </c>
       <c r="AU134">
         <v>9</v>
@@ -28959,25 +28962,25 @@
         <v>1.8</v>
       </c>
       <c r="AN135">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO135">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AP135">
-        <v>0.88</v>
+        <v>1.19</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR135">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="AS135">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT135">
-        <v>2.13</v>
+        <v>2.26</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29093,7 +29096,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29165,25 +29168,25 @@
         <v>2.28</v>
       </c>
       <c r="AN136">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AO136">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="AP136">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="AQ136">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AR136">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AS136">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT136">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29299,7 +29302,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29371,25 +29374,25 @@
         <v>1.5</v>
       </c>
       <c r="AN137">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AO137">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AP137">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AQ137">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR137">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AS137">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU137">
         <v>4</v>
@@ -29577,25 +29580,25 @@
         <v>1.48</v>
       </c>
       <c r="AN138">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="AO138">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AP138">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="AQ138">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AR138">
-        <v>1.12</v>
+        <v>0.95</v>
       </c>
       <c r="AS138">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AT138">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="AU138">
         <v>2</v>
@@ -29711,7 +29714,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29783,25 +29786,25 @@
         <v>1.48</v>
       </c>
       <c r="AN139">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO139">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP139">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="AR139">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="AS139">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT139">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -29917,7 +29920,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -29989,25 +29992,25 @@
         <v>1.4</v>
       </c>
       <c r="AN140">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="AO140">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AP140">
-        <v>0.82</v>
+        <v>1.14</v>
       </c>
       <c r="AQ140">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
       </c>
       <c r="AS140">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AT140">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="AU140">
         <v>4</v>
@@ -30123,7 +30126,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30195,25 +30198,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="AO141">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AP141">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="AQ141">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AR141">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AS141">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AT141">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="AU141">
         <v>3</v>
@@ -30401,25 +30404,25 @@
         <v>1.67</v>
       </c>
       <c r="AN142">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="AO142">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AP142">
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="AR142">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AS142">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AT142">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="AU142">
         <v>2</v>
@@ -30535,7 +30538,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30607,25 +30610,25 @@
         <v>1.45</v>
       </c>
       <c r="AN143">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO143">
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR143">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AS143">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AT143">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -30741,7 +30744,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30813,25 +30816,25 @@
         <v>1.2</v>
       </c>
       <c r="AN144">
+        <v>1.47</v>
+      </c>
+      <c r="AO144">
+        <v>2.18</v>
+      </c>
+      <c r="AP144">
+        <v>1.48</v>
+      </c>
+      <c r="AQ144">
+        <v>2.24</v>
+      </c>
+      <c r="AR144">
         <v>1.33</v>
       </c>
-      <c r="AO144">
-        <v>1.88</v>
-      </c>
-      <c r="AP144">
-        <v>1.22</v>
-      </c>
-      <c r="AQ144">
-        <v>2.1</v>
-      </c>
-      <c r="AR144">
-        <v>1.53</v>
-      </c>
       <c r="AS144">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AT144">
-        <v>3.13</v>
+        <v>2.97</v>
       </c>
       <c r="AU144">
         <v>0</v>
@@ -30947,7 +30950,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31019,25 +31022,25 @@
         <v>1.53</v>
       </c>
       <c r="AN145">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="AO145">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AP145">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ145">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR145">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AS145">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="AT145">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="AU145">
         <v>4</v>
@@ -31225,25 +31228,25 @@
         <v>1.41</v>
       </c>
       <c r="AN146">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AO146">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP146">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="AQ146">
         <v>1</v>
       </c>
       <c r="AR146">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AS146">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AT146">
-        <v>3.06</v>
+        <v>2.82</v>
       </c>
       <c r="AU146">
         <v>4</v>
@@ -31431,22 +31434,22 @@
         <v>1.59</v>
       </c>
       <c r="AN147">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AO147">
-        <v>0.63</v>
+        <v>1.17</v>
       </c>
       <c r="AP147">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AQ147">
-        <v>0.8</v>
+        <v>1.14</v>
       </c>
       <c r="AR147">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="AS147">
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="AT147">
         <v>2.29</v>
@@ -31640,22 +31643,22 @@
         <v>2.5</v>
       </c>
       <c r="AO148">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AP148">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="AQ148">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR148">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS148">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AT148">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU148">
         <v>8</v>
@@ -31843,25 +31846,25 @@
         <v>1.67</v>
       </c>
       <c r="AN149">
-        <v>0.78</v>
+        <v>1.06</v>
       </c>
       <c r="AO149">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP149">
-        <v>0.91</v>
+        <v>1.05</v>
       </c>
       <c r="AQ149">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR149">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AS149">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="AT149">
-        <v>2.49</v>
+        <v>2.64</v>
       </c>
       <c r="AU149">
         <v>7</v>
@@ -31977,7 +31980,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32049,25 +32052,25 @@
         <v>0</v>
       </c>
       <c r="AN150">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO150">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="AP150">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AR150">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AS150">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT150">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32183,7 +32186,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>1.75</v>
@@ -32255,25 +32258,25 @@
         <v>3.15</v>
       </c>
       <c r="AN151">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AO151">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AP151">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR151">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AS151">
         <v>1.09</v>
       </c>
       <c r="AT151">
-        <v>2.77</v>
+        <v>2.74</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32389,7 +32392,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32461,25 +32464,25 @@
         <v>2.01</v>
       </c>
       <c r="AN152">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AO152">
-        <v>0.89</v>
+        <v>1.17</v>
       </c>
       <c r="AP152">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="AQ152">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AR152">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AS152">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AT152">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32595,7 +32598,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -32667,25 +32670,25 @@
         <v>1.42</v>
       </c>
       <c r="AN153">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AO153">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AP153">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="AQ153">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AR153">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AS153">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AT153">
-        <v>2.67</v>
+        <v>2.44</v>
       </c>
       <c r="AU153">
         <v>2</v>
@@ -32873,25 +32876,25 @@
         <v>1.36</v>
       </c>
       <c r="AN154">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AO154">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
       <c r="AP154">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AQ154">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AR154">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AS154">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT154">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="AU154">
         <v>4</v>
@@ -33007,7 +33010,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33079,25 +33082,25 @@
         <v>1.19</v>
       </c>
       <c r="AN155">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AO155">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AP155">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AQ155">
         <v>1</v>
       </c>
       <c r="AR155">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AS155">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AT155">
-        <v>2.74</v>
+        <v>2.61</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33213,7 +33216,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33285,25 +33288,25 @@
         <v>1.14</v>
       </c>
       <c r="AN156">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AO156">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AP156">
-        <v>0.88</v>
+        <v>1.19</v>
       </c>
       <c r="AQ156">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="AR156">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="AS156">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AT156">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="AU156">
         <v>0</v>
@@ -33491,25 +33494,25 @@
         <v>0</v>
       </c>
       <c r="AN157">
+        <v>1.63</v>
+      </c>
+      <c r="AO157">
+        <v>1.05</v>
+      </c>
+      <c r="AP157">
+        <v>1.62</v>
+      </c>
+      <c r="AQ157">
+        <v>0.95</v>
+      </c>
+      <c r="AR157">
         <v>1.33</v>
       </c>
-      <c r="AO157">
-        <v>1.22</v>
-      </c>
-      <c r="AP157">
-        <v>1.36</v>
-      </c>
-      <c r="AQ157">
-        <v>1</v>
-      </c>
-      <c r="AR157">
-        <v>1.48</v>
-      </c>
       <c r="AS157">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="AT157">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33625,7 +33628,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="Q158">
         <v>3.14</v>
@@ -33697,25 +33700,25 @@
         <v>1.47</v>
       </c>
       <c r="AN158">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AO158">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AP158">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="AQ158">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AR158">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AS158">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AT158">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="AU158">
         <v>2</v>
@@ -33831,7 +33834,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -33903,25 +33906,25 @@
         <v>1.28</v>
       </c>
       <c r="AN159">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AO159">
         <v>1.89</v>
       </c>
       <c r="AP159">
-        <v>0.91</v>
+        <v>1.05</v>
       </c>
       <c r="AQ159">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR159">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AS159">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AT159">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="AU159">
         <v>7</v>
@@ -34037,7 +34040,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34109,25 +34112,25 @@
         <v>1.1</v>
       </c>
       <c r="AN160">
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="AO160">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AP160">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ160">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AR160">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AS160">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AT160">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="AU160">
         <v>2</v>
@@ -34243,7 +34246,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34315,25 +34318,25 @@
         <v>1.53</v>
       </c>
       <c r="AN161">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AO161">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AP161">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AR161">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AS161">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT161">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="AU161">
         <v>9</v>
@@ -34521,25 +34524,25 @@
         <v>2</v>
       </c>
       <c r="AN162">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AO162">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AP162">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="AQ162">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR162">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AS162">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT162">
-        <v>2.57</v>
+        <v>2.79</v>
       </c>
       <c r="AU162">
         <v>3</v>
@@ -34655,7 +34658,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34727,25 +34730,25 @@
         <v>1.75</v>
       </c>
       <c r="AN163">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AO163">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="AQ163">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR163">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AS163">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AT163">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AU163">
         <v>4</v>
@@ -34861,7 +34864,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -34933,25 +34936,25 @@
         <v>1.68</v>
       </c>
       <c r="AN164">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AO164">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="AP164">
-        <v>0.82</v>
+        <v>1.14</v>
       </c>
       <c r="AQ164">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AR164">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AS164">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="AT164">
-        <v>2.61</v>
+        <v>2.82</v>
       </c>
       <c r="AU164">
         <v>6</v>
@@ -35139,25 +35142,25 @@
         <v>2.74</v>
       </c>
       <c r="AN165">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AO165">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AP165">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="AQ165">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR165">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AS165">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AT165">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="AU165">
         <v>10</v>
@@ -35273,7 +35276,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35345,25 +35348,25 @@
         <v>2.05</v>
       </c>
       <c r="AN166">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AO166">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AP166">
         <v>1</v>
       </c>
       <c r="AQ166">
-        <v>0.8</v>
+        <v>1.14</v>
       </c>
       <c r="AR166">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AS166">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="AT166">
-        <v>2.34</v>
+        <v>2.51</v>
       </c>
       <c r="AU166">
         <v>0</v>
@@ -35551,25 +35554,25 @@
         <v>1.63</v>
       </c>
       <c r="AN167">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AO167">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="AP167">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="AQ167">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR167">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AS167">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AT167">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="AU167">
         <v>2</v>
@@ -35757,25 +35760,25 @@
         <v>2.5</v>
       </c>
       <c r="AN168">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AO168">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AP168">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="AQ168">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="AR168">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AS168">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AT168">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="AU168">
         <v>8</v>
@@ -35891,7 +35894,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -35963,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="AN169">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AO169">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AP169">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AQ169">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AR169">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AS169">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="AT169">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="AU169">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -26284,25 +26284,25 @@
         <v>1.85</v>
       </c>
       <c r="AN122">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO122">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="AP122">
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AR122">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AS122">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AT122">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26490,25 +26490,25 @@
         <v>1.7</v>
       </c>
       <c r="AN123">
-        <v>1.27</v>
+        <v>0.75</v>
       </c>
       <c r="AO123">
-        <v>0.87</v>
+        <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>1.14</v>
+        <v>0.82</v>
       </c>
       <c r="AQ123">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
       </c>
       <c r="AS123">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AT123">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26696,25 +26696,25 @@
         <v>1.08</v>
       </c>
       <c r="AN124">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AO124">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AP124">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AQ124">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AR124">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AS124">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT124">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -26902,25 +26902,25 @@
         <v>1.3</v>
       </c>
       <c r="AN125">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO125">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="AQ125">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR125">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AS125">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT125">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU125">
         <v>2</v>
@@ -27111,22 +27111,22 @@
         <v>1.4</v>
       </c>
       <c r="AO126">
-        <v>0.93</v>
+        <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="AQ126">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AR126">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AS126">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AT126">
-        <v>2.44</v>
+        <v>2.65</v>
       </c>
       <c r="AU126">
         <v>9</v>
@@ -27314,25 +27314,25 @@
         <v>1.75</v>
       </c>
       <c r="AN127">
-        <v>1.6</v>
+        <v>2.14</v>
       </c>
       <c r="AO127">
-        <v>0.93</v>
+        <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR127">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AS127">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="AT127">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27520,25 +27520,25 @@
         <v>1.09</v>
       </c>
       <c r="AN128">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AO128">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="AP128">
+        <v>1.45</v>
+      </c>
+      <c r="AQ128">
+        <v>2.1</v>
+      </c>
+      <c r="AR128">
         <v>1.14</v>
       </c>
-      <c r="AQ128">
-        <v>2.24</v>
-      </c>
-      <c r="AR128">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="AS128">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AT128">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27726,25 +27726,25 @@
         <v>1.42</v>
       </c>
       <c r="AN129">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO129">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AP129">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ129">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="AR129">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AS129">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AT129">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="AU129">
         <v>2</v>
@@ -27932,25 +27932,25 @@
         <v>1.5</v>
       </c>
       <c r="AN130">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AO130">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ130">
-        <v>1.14</v>
+        <v>0.8</v>
       </c>
       <c r="AR130">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AS130">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="AT130">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="AU130">
         <v>10</v>
@@ -28138,25 +28138,25 @@
         <v>1.45</v>
       </c>
       <c r="AN131">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO131">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR131">
+        <v>1.46</v>
+      </c>
+      <c r="AS131">
         <v>1.31</v>
       </c>
-      <c r="AS131">
-        <v>1.18</v>
-      </c>
       <c r="AT131">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="AU131">
         <v>7</v>
@@ -28344,25 +28344,25 @@
         <v>2.4</v>
       </c>
       <c r="AN132">
-        <v>2.13</v>
+        <v>2.38</v>
       </c>
       <c r="AO132">
-        <v>1.13</v>
+        <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="AQ132">
         <v>1</v>
       </c>
       <c r="AR132">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="AS132">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="AT132">
-        <v>3.27</v>
+        <v>3.53</v>
       </c>
       <c r="AU132">
         <v>3</v>
@@ -28550,25 +28550,25 @@
         <v>1.91</v>
       </c>
       <c r="AN133">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="AO133">
-        <v>1.69</v>
+        <v>1.13</v>
       </c>
       <c r="AP133">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ133">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AR133">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AS133">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AT133">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="AU133">
         <v>0</v>
@@ -28756,25 +28756,25 @@
         <v>1.57</v>
       </c>
       <c r="AN134">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AO134">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="AQ134">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AR134">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AS134">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT134">
-        <v>2.59</v>
+        <v>2.37</v>
       </c>
       <c r="AU134">
         <v>9</v>
@@ -28962,25 +28962,25 @@
         <v>1.8</v>
       </c>
       <c r="AN135">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AO135">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AP135">
-        <v>1.19</v>
+        <v>0.88</v>
       </c>
       <c r="AQ135">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR135">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="AS135">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AT135">
-        <v>2.26</v>
+        <v>2.13</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29168,25 +29168,25 @@
         <v>2.28</v>
       </c>
       <c r="AN136">
-        <v>2.56</v>
+        <v>2.71</v>
       </c>
       <c r="AO136">
-        <v>1.38</v>
+        <v>1.86</v>
       </c>
       <c r="AP136">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AQ136">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AR136">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AS136">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AT136">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU136">
         <v>2</v>
@@ -29374,25 +29374,25 @@
         <v>1.5</v>
       </c>
       <c r="AN137">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AO137">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="AQ137">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="AR137">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AS137">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AT137">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU137">
         <v>4</v>
@@ -29580,25 +29580,25 @@
         <v>1.48</v>
       </c>
       <c r="AN138">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="AO138">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AP138">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="AQ138">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AR138">
-        <v>0.95</v>
+        <v>1.12</v>
       </c>
       <c r="AS138">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AT138">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="AU138">
         <v>2</v>
@@ -29786,25 +29786,25 @@
         <v>1.48</v>
       </c>
       <c r="AN139">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AO139">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="AQ139">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="AR139">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="AS139">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT139">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -29992,25 +29992,25 @@
         <v>1.4</v>
       </c>
       <c r="AN140">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="AO140">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AP140">
-        <v>1.14</v>
+        <v>0.82</v>
       </c>
       <c r="AQ140">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
       </c>
       <c r="AS140">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AT140">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="AU140">
         <v>4</v>
@@ -30198,25 +30198,25 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="AO141">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AP141">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="AQ141">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AR141">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AS141">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AT141">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="AU141">
         <v>3</v>
@@ -30404,25 +30404,25 @@
         <v>1.67</v>
       </c>
       <c r="AN142">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="AO142">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="AP142">
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="AR142">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AS142">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AT142">
-        <v>2.91</v>
+        <v>2.74</v>
       </c>
       <c r="AU142">
         <v>2</v>
@@ -30610,25 +30610,25 @@
         <v>1.45</v>
       </c>
       <c r="AN143">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="AO143">
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ143">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AR143">
+        <v>1.03</v>
+      </c>
+      <c r="AS143">
         <v>1.06</v>
       </c>
-      <c r="AS143">
-        <v>1.19</v>
-      </c>
       <c r="AT143">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -30816,25 +30816,25 @@
         <v>1.2</v>
       </c>
       <c r="AN144">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AO144">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="AP144">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="AQ144">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="AR144">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AS144">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT144">
-        <v>2.97</v>
+        <v>3.13</v>
       </c>
       <c r="AU144">
         <v>0</v>
@@ -31022,25 +31022,25 @@
         <v>1.53</v>
       </c>
       <c r="AN145">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="AO145">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR145">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AS145">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="AT145">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="AU145">
         <v>4</v>
@@ -31228,25 +31228,25 @@
         <v>1.41</v>
       </c>
       <c r="AN146">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AO146">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="AQ146">
         <v>1</v>
       </c>
       <c r="AR146">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AS146">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AT146">
-        <v>2.82</v>
+        <v>3.06</v>
       </c>
       <c r="AU146">
         <v>4</v>
@@ -31434,22 +31434,22 @@
         <v>1.59</v>
       </c>
       <c r="AN147">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AO147">
-        <v>1.17</v>
+        <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147">
-        <v>1.14</v>
+        <v>0.8</v>
       </c>
       <c r="AR147">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="AS147">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="AT147">
         <v>2.29</v>
@@ -31643,22 +31643,22 @@
         <v>2.5</v>
       </c>
       <c r="AO148">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR148">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AS148">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AT148">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="AU148">
         <v>8</v>
@@ -31846,25 +31846,25 @@
         <v>1.67</v>
       </c>
       <c r="AN149">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="AO149">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR149">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AS149">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="AT149">
-        <v>2.64</v>
+        <v>2.49</v>
       </c>
       <c r="AU149">
         <v>7</v>
@@ -32052,25 +32052,25 @@
         <v>0</v>
       </c>
       <c r="AN150">
+        <v>2</v>
+      </c>
+      <c r="AO150">
+        <v>1.75</v>
+      </c>
+      <c r="AP150">
+        <v>1.91</v>
+      </c>
+      <c r="AQ150">
+        <v>1.5</v>
+      </c>
+      <c r="AR150">
         <v>1.56</v>
       </c>
-      <c r="AO150">
-        <v>1.28</v>
-      </c>
-      <c r="AP150">
-        <v>1.48</v>
-      </c>
-      <c r="AQ150">
-        <v>1.14</v>
-      </c>
-      <c r="AR150">
-        <v>1.47</v>
-      </c>
       <c r="AS150">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT150">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
       <c r="AU150">
         <v>7</v>
@@ -32258,25 +32258,25 @@
         <v>3.15</v>
       </c>
       <c r="AN151">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AO151">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="AQ151">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR151">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AS151">
         <v>1.09</v>
       </c>
       <c r="AT151">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32464,25 +32464,25 @@
         <v>2.01</v>
       </c>
       <c r="AN152">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AO152">
-        <v>1.17</v>
+        <v>0.89</v>
       </c>
       <c r="AP152">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ152">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AR152">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AT152">
-        <v>2.87</v>
+        <v>2.62</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32670,25 +32670,25 @@
         <v>1.42</v>
       </c>
       <c r="AN153">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AO153">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AP153">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ153">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AR153">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AS153">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AT153">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="AU153">
         <v>2</v>
@@ -32876,25 +32876,25 @@
         <v>1.36</v>
       </c>
       <c r="AN154">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AO154">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="AP154">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="AQ154">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AR154">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AS154">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AT154">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="AU154">
         <v>4</v>
@@ -33082,25 +33082,25 @@
         <v>1.19</v>
       </c>
       <c r="AN155">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AO155">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AP155">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ155">
         <v>1</v>
       </c>
       <c r="AR155">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AS155">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AT155">
-        <v>2.61</v>
+        <v>2.74</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33288,25 +33288,25 @@
         <v>1.14</v>
       </c>
       <c r="AN156">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AO156">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AP156">
-        <v>1.19</v>
+        <v>0.88</v>
       </c>
       <c r="AQ156">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="AR156">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="AS156">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AT156">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="AU156">
         <v>0</v>
@@ -33494,25 +33494,25 @@
         <v>0</v>
       </c>
       <c r="AN157">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AO157">
+        <v>1.22</v>
+      </c>
+      <c r="AP157">
+        <v>1.36</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="AR157">
+        <v>1.48</v>
+      </c>
+      <c r="AS157">
         <v>1.05</v>
       </c>
-      <c r="AP157">
-        <v>1.62</v>
-      </c>
-      <c r="AQ157">
-        <v>0.95</v>
-      </c>
-      <c r="AR157">
-        <v>1.33</v>
-      </c>
-      <c r="AS157">
-        <v>1.17</v>
-      </c>
       <c r="AT157">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33700,25 +33700,25 @@
         <v>1.47</v>
       </c>
       <c r="AN158">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AO158">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AP158">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="AQ158">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="AR158">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AS158">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT158">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="AU158">
         <v>2</v>
@@ -33906,25 +33906,25 @@
         <v>1.28</v>
       </c>
       <c r="AN159">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AO159">
         <v>1.89</v>
       </c>
       <c r="AP159">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="AQ159">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR159">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AS159">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AT159">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="AU159">
         <v>7</v>
@@ -34112,25 +34112,25 @@
         <v>1.1</v>
       </c>
       <c r="AN160">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
       <c r="AO160">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AP160">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ160">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AR160">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AS160">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AT160">
-        <v>2.81</v>
+        <v>2.99</v>
       </c>
       <c r="AU160">
         <v>2</v>
@@ -34318,25 +34318,25 @@
         <v>1.53</v>
       </c>
       <c r="AN161">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AO161">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AP161">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AQ161">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AR161">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AS161">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AT161">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="AU161">
         <v>9</v>
@@ -34524,25 +34524,25 @@
         <v>2</v>
       </c>
       <c r="AN162">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AO162">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AP162">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ162">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AR162">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="AS162">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AT162">
-        <v>2.79</v>
+        <v>2.57</v>
       </c>
       <c r="AU162">
         <v>3</v>
@@ -34730,25 +34730,25 @@
         <v>1.75</v>
       </c>
       <c r="AN163">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AO163">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP163">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="AQ163">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR163">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AS163">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT163">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="AU163">
         <v>4</v>
@@ -34936,25 +34936,25 @@
         <v>1.68</v>
       </c>
       <c r="AN164">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AO164">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="AP164">
-        <v>1.14</v>
+        <v>0.82</v>
       </c>
       <c r="AQ164">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AR164">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AS164">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="AT164">
-        <v>2.82</v>
+        <v>2.61</v>
       </c>
       <c r="AU164">
         <v>6</v>
@@ -35142,25 +35142,25 @@
         <v>2.74</v>
       </c>
       <c r="AN165">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AO165">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="AQ165">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AR165">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AS165">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AT165">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="AU165">
         <v>10</v>
@@ -35348,25 +35348,25 @@
         <v>2.05</v>
       </c>
       <c r="AN166">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AO166">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP166">
         <v>1</v>
       </c>
       <c r="AQ166">
-        <v>1.14</v>
+        <v>0.8</v>
       </c>
       <c r="AR166">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AS166">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="AT166">
-        <v>2.51</v>
+        <v>2.34</v>
       </c>
       <c r="AU166">
         <v>0</v>
@@ -35554,25 +35554,25 @@
         <v>1.63</v>
       </c>
       <c r="AN167">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AO167">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="AP167">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="AQ167">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR167">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS167">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AT167">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="AU167">
         <v>2</v>
@@ -35760,25 +35760,25 @@
         <v>2.5</v>
       </c>
       <c r="AN168">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AO168">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AP168">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AQ168">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="AR168">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AS168">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT168">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="AU168">
         <v>8</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="AN169">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AO169">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AP169">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="AQ169">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AR169">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AS169">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="AT169">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="AU169">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,15 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -802,9 +811,6 @@
     <t>['12', '45+7', '69']</t>
   </si>
   <si>
-    <t>['38']</t>
-  </si>
-  <si>
     <t>['8']</t>
   </si>
   <si>
@@ -812,9 +818,6 @@
   </si>
   <si>
     <t>['87']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['74']</t>
@@ -1233,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1492,7 +1495,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1698,7 +1701,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1776,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ3">
         <v>1.38</v>
@@ -1904,7 +1907,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1982,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2110,7 +2113,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2522,7 +2525,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2728,7 +2731,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2934,7 +2937,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3015,7 +3018,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3218,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3630,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -4376,7 +4379,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4582,7 +4585,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4660,10 +4663,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4788,7 +4791,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4869,7 +4872,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -5406,7 +5409,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5484,7 +5487,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ21">
         <v>1.9</v>
@@ -5612,7 +5615,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5693,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR22">
         <v>1.2</v>
@@ -5818,7 +5821,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6024,7 +6027,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6102,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ24">
         <v>1.2</v>
@@ -6230,7 +6233,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6514,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ26">
         <v>0.8</v>
@@ -6642,7 +6645,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6848,7 +6851,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7054,7 +7057,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7544,10 +7547,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR31">
         <v>0.74</v>
@@ -7956,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ33">
         <v>0.82</v>
@@ -8084,7 +8087,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8290,7 +8293,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8783,7 +8786,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -8908,7 +8911,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8989,7 +8992,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -9114,7 +9117,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9320,7 +9323,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9526,7 +9529,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9810,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ42">
         <v>2.1</v>
@@ -10144,7 +10147,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10637,7 +10640,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ46">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR46">
         <v>1.56</v>
@@ -10762,7 +10765,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10840,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ47">
         <v>0.8</v>
@@ -10968,7 +10971,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11046,7 +11049,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ48">
         <v>1.9</v>
@@ -11174,7 +11177,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11255,7 +11258,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11380,7 +11383,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11586,7 +11589,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11792,7 +11795,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12079,7 +12082,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12410,7 +12413,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12488,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12616,7 +12619,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13234,7 +13237,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13315,7 +13318,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -13646,7 +13649,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13930,7 +13933,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ62">
         <v>1.38</v>
@@ -14058,7 +14061,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14136,7 +14139,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14264,7 +14267,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14342,7 +14345,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ64">
         <v>2.1</v>
@@ -14757,7 +14760,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -14882,7 +14885,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14963,7 +14966,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ67">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -15088,7 +15091,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15294,7 +15297,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15500,7 +15503,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15706,7 +15709,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15784,7 +15787,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ71">
         <v>1.09</v>
@@ -15912,7 +15915,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16118,7 +16121,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16199,7 +16202,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR73">
         <v>0.8</v>
@@ -16324,7 +16327,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16405,7 +16408,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR74">
         <v>0.9</v>
@@ -16736,7 +16739,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16814,7 +16817,7 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ76">
         <v>1.38</v>
@@ -17148,7 +17151,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17354,7 +17357,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17844,7 +17847,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ81">
         <v>0.82</v>
@@ -17972,7 +17975,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18178,7 +18181,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18384,7 +18387,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18590,7 +18593,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18874,7 +18877,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19002,7 +19005,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19083,7 +19086,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -19208,7 +19211,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19286,10 +19289,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19620,7 +19623,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20110,7 +20113,7 @@
         <v>0.4</v>
       </c>
       <c r="AP92">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ92">
         <v>0.82</v>
@@ -20238,7 +20241,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20319,7 +20322,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ93">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR93">
         <v>1.47</v>
@@ -20522,7 +20525,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ94">
         <v>1.09</v>
@@ -20650,7 +20653,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20731,7 +20734,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR95">
         <v>1.59</v>
@@ -20856,7 +20859,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21062,7 +21065,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21143,7 +21146,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21346,7 +21349,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21474,7 +21477,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21680,7 +21683,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22376,10 +22379,10 @@
         <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ103">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR103">
         <v>1.68</v>
@@ -22504,7 +22507,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22710,7 +22713,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22994,7 +22997,7 @@
         <v>1.29</v>
       </c>
       <c r="AP106">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23122,7 +23125,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23406,7 +23409,7 @@
         <v>1.14</v>
       </c>
       <c r="AP108">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ108">
         <v>1.09</v>
@@ -23534,7 +23537,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23946,7 +23949,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24233,7 +24236,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ112">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24358,7 +24361,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24642,7 +24645,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24770,7 +24773,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24976,7 +24979,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25054,7 +25057,7 @@
         <v>2.71</v>
       </c>
       <c r="AP116">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ116">
         <v>2.55</v>
@@ -25388,7 +25391,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25594,7 +25597,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25675,7 +25678,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ119">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR119">
         <v>1.01</v>
@@ -25881,7 +25884,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ120">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR120">
         <v>1.7</v>
@@ -26006,7 +26009,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26212,7 +26215,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26418,7 +26421,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26702,7 +26705,7 @@
         <v>2.75</v>
       </c>
       <c r="AP124">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ124">
         <v>2.55</v>
@@ -26830,7 +26833,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -26911,7 +26914,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ125">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR125">
         <v>1.09</v>
@@ -27036,7 +27039,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27938,7 +27941,7 @@
         <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ130">
         <v>0.8</v>
@@ -28147,7 +28150,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ131">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR131">
         <v>1.46</v>
@@ -28272,7 +28275,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28684,7 +28687,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="Q134">
         <v>2.91</v>
@@ -28762,7 +28765,7 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ134">
         <v>1.09</v>
@@ -29096,7 +29099,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29174,7 +29177,7 @@
         <v>1.86</v>
       </c>
       <c r="AP136">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ136">
         <v>1.5</v>
@@ -29302,7 +29305,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29383,7 +29386,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ137">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR137">
         <v>1.46</v>
@@ -29714,7 +29717,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29920,7 +29923,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30001,7 +30004,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ140">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30126,7 +30129,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30538,7 +30541,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30744,7 +30747,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30950,7 +30953,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31028,7 +31031,7 @@
         <v>0.38</v>
       </c>
       <c r="AP145">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ145">
         <v>0.82</v>
@@ -31646,10 +31649,10 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ148">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -31852,7 +31855,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ149">
         <v>0.82</v>
@@ -31980,7 +31983,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32186,7 +32189,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="Q151">
         <v>1.75</v>
@@ -32392,7 +32395,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32598,7 +32601,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -32676,7 +32679,7 @@
         <v>1.09</v>
       </c>
       <c r="AP153">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ153">
         <v>1.38</v>
@@ -33010,7 +33013,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33216,7 +33219,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33628,7 +33631,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q158">
         <v>3.14</v>
@@ -33709,7 +33712,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ158">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR158">
         <v>1.13</v>
@@ -33834,7 +33837,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -33912,10 +33915,10 @@
         <v>1.89</v>
       </c>
       <c r="AP159">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ159">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR159">
         <v>1.36</v>
@@ -34040,7 +34043,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34246,7 +34249,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34324,7 +34327,7 @@
         <v>1.11</v>
       </c>
       <c r="AP161">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -34658,7 +34661,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34864,7 +34867,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35276,7 +35279,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35563,7 +35566,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ167">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR167">
         <v>1.56</v>
@@ -35766,7 +35769,7 @@
         <v>1.33</v>
       </c>
       <c r="AP168">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ168">
         <v>1.2</v>
@@ -35894,7 +35897,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36051,6 +36054,830 @@
       </c>
       <c r="BP169">
         <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7446523</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45500.41666666666</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170" t="s">
+        <v>76</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170" t="s">
+        <v>93</v>
+      </c>
+      <c r="P170" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q170">
+        <v>3.22</v>
+      </c>
+      <c r="R170">
+        <v>1.96</v>
+      </c>
+      <c r="S170">
+        <v>3.38</v>
+      </c>
+      <c r="T170">
+        <v>1.48</v>
+      </c>
+      <c r="U170">
+        <v>2.54</v>
+      </c>
+      <c r="V170">
+        <v>3.26</v>
+      </c>
+      <c r="W170">
+        <v>1.31</v>
+      </c>
+      <c r="X170">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y170">
+        <v>1.05</v>
+      </c>
+      <c r="Z170">
+        <v>2.67</v>
+      </c>
+      <c r="AA170">
+        <v>3.05</v>
+      </c>
+      <c r="AB170">
+        <v>2.76</v>
+      </c>
+      <c r="AC170">
+        <v>1.04</v>
+      </c>
+      <c r="AD170">
+        <v>7.3</v>
+      </c>
+      <c r="AE170">
+        <v>1.38</v>
+      </c>
+      <c r="AF170">
+        <v>2.71</v>
+      </c>
+      <c r="AG170">
+        <v>2.16</v>
+      </c>
+      <c r="AH170">
+        <v>1.52</v>
+      </c>
+      <c r="AI170">
+        <v>1.88</v>
+      </c>
+      <c r="AJ170">
+        <v>1.78</v>
+      </c>
+      <c r="AK170">
+        <v>1.42</v>
+      </c>
+      <c r="AL170">
+        <v>1.31</v>
+      </c>
+      <c r="AM170">
+        <v>1.44</v>
+      </c>
+      <c r="AN170">
+        <v>0.9</v>
+      </c>
+      <c r="AO170">
+        <v>1.67</v>
+      </c>
+      <c r="AP170">
+        <v>0.91</v>
+      </c>
+      <c r="AQ170">
+        <v>1.62</v>
+      </c>
+      <c r="AR170">
+        <v>1.27</v>
+      </c>
+      <c r="AS170">
+        <v>1.19</v>
+      </c>
+      <c r="AT170">
+        <v>2.46</v>
+      </c>
+      <c r="AU170">
+        <v>5</v>
+      </c>
+      <c r="AV170">
+        <v>4</v>
+      </c>
+      <c r="AW170">
+        <v>2</v>
+      </c>
+      <c r="AX170">
+        <v>5</v>
+      </c>
+      <c r="AY170">
+        <v>7</v>
+      </c>
+      <c r="AZ170">
+        <v>9</v>
+      </c>
+      <c r="BA170">
+        <v>2</v>
+      </c>
+      <c r="BB170">
+        <v>3</v>
+      </c>
+      <c r="BC170">
+        <v>5</v>
+      </c>
+      <c r="BD170">
+        <v>1.5</v>
+      </c>
+      <c r="BE170">
+        <v>8</v>
+      </c>
+      <c r="BF170">
+        <v>3</v>
+      </c>
+      <c r="BG170">
+        <v>1.33</v>
+      </c>
+      <c r="BH170">
+        <v>3</v>
+      </c>
+      <c r="BI170">
+        <v>1.51</v>
+      </c>
+      <c r="BJ170">
+        <v>2.37</v>
+      </c>
+      <c r="BK170">
+        <v>2.05</v>
+      </c>
+      <c r="BL170">
+        <v>1.7</v>
+      </c>
+      <c r="BM170">
+        <v>2.5</v>
+      </c>
+      <c r="BN170">
+        <v>1.47</v>
+      </c>
+      <c r="BO170">
+        <v>3.2</v>
+      </c>
+      <c r="BP170">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7446517</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45500.52083333334</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" t="s">
+        <v>84</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>196</v>
+      </c>
+      <c r="P171" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q171">
+        <v>3.1</v>
+      </c>
+      <c r="R171">
+        <v>2.05</v>
+      </c>
+      <c r="S171">
+        <v>3.75</v>
+      </c>
+      <c r="T171">
+        <v>1.44</v>
+      </c>
+      <c r="U171">
+        <v>2.63</v>
+      </c>
+      <c r="V171">
+        <v>3.25</v>
+      </c>
+      <c r="W171">
+        <v>1.33</v>
+      </c>
+      <c r="X171">
+        <v>10</v>
+      </c>
+      <c r="Y171">
+        <v>1.06</v>
+      </c>
+      <c r="Z171">
+        <v>2.55</v>
+      </c>
+      <c r="AA171">
+        <v>3.25</v>
+      </c>
+      <c r="AB171">
+        <v>2.55</v>
+      </c>
+      <c r="AC171">
+        <v>1.05</v>
+      </c>
+      <c r="AD171">
+        <v>8</v>
+      </c>
+      <c r="AE171">
+        <v>1.36</v>
+      </c>
+      <c r="AF171">
+        <v>2.9</v>
+      </c>
+      <c r="AG171">
+        <v>2</v>
+      </c>
+      <c r="AH171">
+        <v>1.75</v>
+      </c>
+      <c r="AI171">
+        <v>1.83</v>
+      </c>
+      <c r="AJ171">
+        <v>1.83</v>
+      </c>
+      <c r="AK171">
+        <v>1.35</v>
+      </c>
+      <c r="AL171">
+        <v>1.31</v>
+      </c>
+      <c r="AM171">
+        <v>1.54</v>
+      </c>
+      <c r="AN171">
+        <v>0.91</v>
+      </c>
+      <c r="AO171">
+        <v>1</v>
+      </c>
+      <c r="AP171">
+        <v>0.92</v>
+      </c>
+      <c r="AQ171">
+        <v>1</v>
+      </c>
+      <c r="AR171">
+        <v>1.38</v>
+      </c>
+      <c r="AS171">
+        <v>1.33</v>
+      </c>
+      <c r="AT171">
+        <v>2.71</v>
+      </c>
+      <c r="AU171">
+        <v>3</v>
+      </c>
+      <c r="AV171">
+        <v>4</v>
+      </c>
+      <c r="AW171">
+        <v>5</v>
+      </c>
+      <c r="AX171">
+        <v>7</v>
+      </c>
+      <c r="AY171">
+        <v>8</v>
+      </c>
+      <c r="AZ171">
+        <v>11</v>
+      </c>
+      <c r="BA171">
+        <v>4</v>
+      </c>
+      <c r="BB171">
+        <v>2</v>
+      </c>
+      <c r="BC171">
+        <v>6</v>
+      </c>
+      <c r="BD171">
+        <v>1.73</v>
+      </c>
+      <c r="BE171">
+        <v>8</v>
+      </c>
+      <c r="BF171">
+        <v>2.5</v>
+      </c>
+      <c r="BG171">
+        <v>1.3</v>
+      </c>
+      <c r="BH171">
+        <v>3.2</v>
+      </c>
+      <c r="BI171">
+        <v>1.47</v>
+      </c>
+      <c r="BJ171">
+        <v>2.5</v>
+      </c>
+      <c r="BK171">
+        <v>2.05</v>
+      </c>
+      <c r="BL171">
+        <v>1.7</v>
+      </c>
+      <c r="BM171">
+        <v>2.35</v>
+      </c>
+      <c r="BN171">
+        <v>1.52</v>
+      </c>
+      <c r="BO171">
+        <v>3.2</v>
+      </c>
+      <c r="BP171">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7446516</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45500.72916666666</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>80</v>
+      </c>
+      <c r="H172" t="s">
+        <v>82</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>197</v>
+      </c>
+      <c r="P172" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q172">
+        <v>2.4</v>
+      </c>
+      <c r="R172">
+        <v>2.2</v>
+      </c>
+      <c r="S172">
+        <v>4.75</v>
+      </c>
+      <c r="T172">
+        <v>1.4</v>
+      </c>
+      <c r="U172">
+        <v>2.75</v>
+      </c>
+      <c r="V172">
+        <v>3</v>
+      </c>
+      <c r="W172">
+        <v>1.36</v>
+      </c>
+      <c r="X172">
+        <v>8</v>
+      </c>
+      <c r="Y172">
+        <v>1.08</v>
+      </c>
+      <c r="Z172">
+        <v>1.8</v>
+      </c>
+      <c r="AA172">
+        <v>3.4</v>
+      </c>
+      <c r="AB172">
+        <v>3.75</v>
+      </c>
+      <c r="AC172">
+        <v>1.03</v>
+      </c>
+      <c r="AD172">
+        <v>8.4</v>
+      </c>
+      <c r="AE172">
+        <v>1.31</v>
+      </c>
+      <c r="AF172">
+        <v>3.04</v>
+      </c>
+      <c r="AG172">
+        <v>2</v>
+      </c>
+      <c r="AH172">
+        <v>1.73</v>
+      </c>
+      <c r="AI172">
+        <v>1.83</v>
+      </c>
+      <c r="AJ172">
+        <v>1.83</v>
+      </c>
+      <c r="AK172">
+        <v>1.19</v>
+      </c>
+      <c r="AL172">
+        <v>1.26</v>
+      </c>
+      <c r="AM172">
+        <v>1.93</v>
+      </c>
+      <c r="AN172">
+        <v>2.4</v>
+      </c>
+      <c r="AO172">
+        <v>2</v>
+      </c>
+      <c r="AP172">
+        <v>2.45</v>
+      </c>
+      <c r="AQ172">
+        <v>1.82</v>
+      </c>
+      <c r="AR172">
+        <v>1.48</v>
+      </c>
+      <c r="AS172">
+        <v>1.58</v>
+      </c>
+      <c r="AT172">
+        <v>3.06</v>
+      </c>
+      <c r="AU172">
+        <v>3</v>
+      </c>
+      <c r="AV172">
+        <v>6</v>
+      </c>
+      <c r="AW172">
+        <v>6</v>
+      </c>
+      <c r="AX172">
+        <v>2</v>
+      </c>
+      <c r="AY172">
+        <v>9</v>
+      </c>
+      <c r="AZ172">
+        <v>8</v>
+      </c>
+      <c r="BA172">
+        <v>10</v>
+      </c>
+      <c r="BB172">
+        <v>3</v>
+      </c>
+      <c r="BC172">
+        <v>13</v>
+      </c>
+      <c r="BD172">
+        <v>1.5</v>
+      </c>
+      <c r="BE172">
+        <v>8</v>
+      </c>
+      <c r="BF172">
+        <v>3</v>
+      </c>
+      <c r="BG172">
+        <v>1.33</v>
+      </c>
+      <c r="BH172">
+        <v>3</v>
+      </c>
+      <c r="BI172">
+        <v>1.7</v>
+      </c>
+      <c r="BJ172">
+        <v>2.05</v>
+      </c>
+      <c r="BK172">
+        <v>1.9</v>
+      </c>
+      <c r="BL172">
+        <v>1.8</v>
+      </c>
+      <c r="BM172">
+        <v>2.47</v>
+      </c>
+      <c r="BN172">
+        <v>1.48</v>
+      </c>
+      <c r="BO172">
+        <v>3.2</v>
+      </c>
+      <c r="BP172">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7446518</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45500.72916666666</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>78</v>
+      </c>
+      <c r="H173" t="s">
+        <v>73</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173" t="s">
+        <v>198</v>
+      </c>
+      <c r="P173" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q173">
+        <v>2.75</v>
+      </c>
+      <c r="R173">
+        <v>2.05</v>
+      </c>
+      <c r="S173">
+        <v>4.33</v>
+      </c>
+      <c r="T173">
+        <v>1.44</v>
+      </c>
+      <c r="U173">
+        <v>2.63</v>
+      </c>
+      <c r="V173">
+        <v>3.25</v>
+      </c>
+      <c r="W173">
+        <v>1.33</v>
+      </c>
+      <c r="X173">
+        <v>10</v>
+      </c>
+      <c r="Y173">
+        <v>1.06</v>
+      </c>
+      <c r="Z173">
+        <v>2.1</v>
+      </c>
+      <c r="AA173">
+        <v>3.25</v>
+      </c>
+      <c r="AB173">
+        <v>3.2</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>8</v>
+      </c>
+      <c r="AE173">
+        <v>1.37</v>
+      </c>
+      <c r="AF173">
+        <v>3.06</v>
+      </c>
+      <c r="AG173">
+        <v>2.15</v>
+      </c>
+      <c r="AH173">
+        <v>1.65</v>
+      </c>
+      <c r="AI173">
+        <v>1.91</v>
+      </c>
+      <c r="AJ173">
+        <v>1.8</v>
+      </c>
+      <c r="AK173">
+        <v>1.28</v>
+      </c>
+      <c r="AL173">
+        <v>1.29</v>
+      </c>
+      <c r="AM173">
+        <v>1.66</v>
+      </c>
+      <c r="AN173">
+        <v>1.6</v>
+      </c>
+      <c r="AO173">
+        <v>1.4</v>
+      </c>
+      <c r="AP173">
+        <v>1.73</v>
+      </c>
+      <c r="AQ173">
+        <v>1.27</v>
+      </c>
+      <c r="AR173">
+        <v>1.58</v>
+      </c>
+      <c r="AS173">
+        <v>1.27</v>
+      </c>
+      <c r="AT173">
+        <v>2.85</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>5</v>
+      </c>
+      <c r="AW173">
+        <v>8</v>
+      </c>
+      <c r="AX173">
+        <v>7</v>
+      </c>
+      <c r="AY173">
+        <v>12</v>
+      </c>
+      <c r="AZ173">
+        <v>12</v>
+      </c>
+      <c r="BA173">
+        <v>4</v>
+      </c>
+      <c r="BB173">
+        <v>1</v>
+      </c>
+      <c r="BC173">
+        <v>5</v>
+      </c>
+      <c r="BD173">
+        <v>1.73</v>
+      </c>
+      <c r="BE173">
+        <v>7.5</v>
+      </c>
+      <c r="BF173">
+        <v>2.4</v>
+      </c>
+      <c r="BG173">
+        <v>1.3</v>
+      </c>
+      <c r="BH173">
+        <v>3.08</v>
+      </c>
+      <c r="BI173">
+        <v>1.7</v>
+      </c>
+      <c r="BJ173">
+        <v>2.05</v>
+      </c>
+      <c r="BK173">
+        <v>2.05</v>
+      </c>
+      <c r="BL173">
+        <v>1.7</v>
+      </c>
+      <c r="BM173">
+        <v>2.55</v>
+      </c>
+      <c r="BN173">
+        <v>1.5</v>
+      </c>
+      <c r="BO173">
+        <v>3.56</v>
+      </c>
+      <c r="BP173">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,13 +604,19 @@
     <t>['6']</t>
   </si>
   <si>
-    <t>['38']</t>
+    <t>['37']</t>
   </si>
   <si>
     <t>['90+1']</t>
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['2', '23', '50']</t>
+  </si>
+  <si>
+    <t>['42', '66']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -809,6 +815,9 @@
   </si>
   <si>
     <t>['12', '45+7', '69']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
   <si>
     <t>['8']</t>
@@ -1236,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1504,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1573,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ2">
         <v>0.82</v>
@@ -1701,7 +1710,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1907,7 +1916,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2113,7 +2122,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2194,7 +2203,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ5">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2397,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ6">
         <v>1.09</v>
@@ -2525,7 +2534,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2606,7 +2615,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2731,7 +2740,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2937,7 +2946,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -4379,7 +4388,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4457,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4585,7 +4594,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4791,7 +4800,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5281,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ20">
         <v>1.09</v>
@@ -5409,7 +5418,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5490,7 +5499,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ21">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR21">
         <v>1.09</v>
@@ -5615,7 +5624,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5821,7 +5830,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6027,7 +6036,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6233,7 +6242,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6314,7 +6323,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ25">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR25">
         <v>1.39</v>
@@ -6645,7 +6654,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6851,7 +6860,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7057,7 +7066,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7344,7 +7353,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7756,7 +7765,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR32">
         <v>1.15</v>
@@ -8087,7 +8096,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8293,7 +8302,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8577,7 +8586,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8911,7 +8920,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -8989,7 +8998,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ38">
         <v>1.62</v>
@@ -9117,7 +9126,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9195,7 +9204,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ39">
         <v>1.09</v>
@@ -9323,7 +9332,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9404,7 +9413,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR40">
         <v>1.57</v>
@@ -9529,7 +9538,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10147,7 +10156,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10765,7 +10774,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10971,7 +10980,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11052,7 +11061,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ48">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11177,7 +11186,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11383,7 +11392,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11589,7 +11598,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11795,7 +11804,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11873,7 +11882,7 @@
         <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -12079,7 +12088,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ53">
         <v>1.62</v>
@@ -12285,10 +12294,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12413,7 +12422,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12494,7 +12503,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR55">
         <v>1.09</v>
@@ -12619,7 +12628,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12906,7 +12915,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ57">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13109,7 +13118,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ58">
         <v>1.2</v>
@@ -13237,7 +13246,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13649,7 +13658,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -14061,7 +14070,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14142,7 +14151,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14267,7 +14276,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14885,7 +14894,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14963,7 +14972,7 @@
         <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
         <v>1.62</v>
@@ -15091,7 +15100,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15297,7 +15306,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15375,10 +15384,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -15503,7 +15512,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15709,7 +15718,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15915,7 +15924,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16121,7 +16130,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16327,7 +16336,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16614,7 +16623,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ75">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR75">
         <v>1.21</v>
@@ -16739,7 +16748,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17026,7 +17035,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17151,7 +17160,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17229,7 +17238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ78">
         <v>2.1</v>
@@ -17357,7 +17366,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17975,7 +17984,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18053,10 +18062,10 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18181,7 +18190,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18387,7 +18396,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18465,7 +18474,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ84">
         <v>1.5</v>
@@ -18593,7 +18602,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -19005,7 +19014,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19211,7 +19220,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19623,7 +19632,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19701,7 +19710,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ90">
         <v>1.2</v>
@@ -19907,7 +19916,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ91">
         <v>1.38</v>
@@ -20241,7 +20250,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20653,7 +20662,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20859,7 +20868,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20940,7 +20949,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ96">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR96">
         <v>0.91</v>
@@ -21065,7 +21074,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21477,7 +21486,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21558,7 +21567,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21683,7 +21692,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21967,7 +21976,7 @@
         <v>1.8</v>
       </c>
       <c r="AP101">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ101">
         <v>1.5</v>
@@ -22507,7 +22516,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22713,7 +22722,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23125,7 +23134,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23206,7 +23215,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ107">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -23537,7 +23546,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23618,7 +23627,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -23821,7 +23830,7 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ110">
         <v>1.38</v>
@@ -23949,7 +23958,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24027,7 +24036,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ111">
         <v>0.82</v>
@@ -24361,7 +24370,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24648,7 +24657,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR114">
         <v>1.67</v>
@@ -24773,7 +24782,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24979,7 +24988,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25391,7 +25400,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25597,7 +25606,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25675,7 +25684,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ119">
         <v>1.27</v>
@@ -26009,7 +26018,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26215,7 +26224,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26421,7 +26430,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26833,7 +26842,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27039,7 +27048,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27529,7 +27538,7 @@
         <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ128">
         <v>2.1</v>
@@ -27738,7 +27747,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ129">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR129">
         <v>1.01</v>
@@ -28275,7 +28284,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28353,10 +28362,10 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR132">
         <v>1.77</v>
@@ -28971,10 +28980,10 @@
         <v>0.88</v>
       </c>
       <c r="AP135">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR135">
         <v>1.01</v>
@@ -29099,7 +29108,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29305,7 +29314,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29589,7 +29598,7 @@
         <v>1.1</v>
       </c>
       <c r="AP138">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ138">
         <v>1.38</v>
@@ -29717,7 +29726,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29923,7 +29932,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30129,7 +30138,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30416,7 +30425,7 @@
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AR142">
         <v>1.52</v>
@@ -30541,7 +30550,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30747,7 +30756,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30953,7 +30962,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31240,7 +31249,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR146">
         <v>1.41</v>
@@ -31983,7 +31992,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32267,10 +32276,10 @@
         <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR151">
         <v>1.68</v>
@@ -32395,7 +32404,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32601,7 +32610,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -33013,7 +33022,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33094,7 +33103,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR155">
         <v>1.09</v>
@@ -33219,7 +33228,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33297,7 +33306,7 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ156">
         <v>2.1</v>
@@ -33631,7 +33640,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q158">
         <v>3.14</v>
@@ -33709,7 +33718,7 @@
         <v>1.55</v>
       </c>
       <c r="AP158">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ158">
         <v>1.62</v>
@@ -33837,7 +33846,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34043,7 +34052,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34249,7 +34258,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34661,7 +34670,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34742,7 +34751,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ163">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -34867,7 +34876,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35151,7 +35160,7 @@
         <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35279,7 +35288,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35897,7 +35906,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36309,7 +36318,7 @@
         <v>196</v>
       </c>
       <c r="P171" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="Q171">
         <v>3.1</v>
@@ -36878,6 +36887,624 @@
       </c>
       <c r="BP173">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7446522</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45501.52083333334</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>74</v>
+      </c>
+      <c r="H174" t="s">
+        <v>83</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>3</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>4</v>
+      </c>
+      <c r="O174" t="s">
+        <v>199</v>
+      </c>
+      <c r="P174" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q174">
+        <v>3</v>
+      </c>
+      <c r="R174">
+        <v>2.05</v>
+      </c>
+      <c r="S174">
+        <v>4</v>
+      </c>
+      <c r="T174">
+        <v>1.5</v>
+      </c>
+      <c r="U174">
+        <v>2.5</v>
+      </c>
+      <c r="V174">
+        <v>3.4</v>
+      </c>
+      <c r="W174">
+        <v>1.3</v>
+      </c>
+      <c r="X174">
+        <v>10</v>
+      </c>
+      <c r="Y174">
+        <v>1.06</v>
+      </c>
+      <c r="Z174">
+        <v>2.2</v>
+      </c>
+      <c r="AA174">
+        <v>3.15</v>
+      </c>
+      <c r="AB174">
+        <v>3.25</v>
+      </c>
+      <c r="AC174">
+        <v>1.05</v>
+      </c>
+      <c r="AD174">
+        <v>8</v>
+      </c>
+      <c r="AE174">
+        <v>1.38</v>
+      </c>
+      <c r="AF174">
+        <v>2.8</v>
+      </c>
+      <c r="AG174">
+        <v>2.1</v>
+      </c>
+      <c r="AH174">
+        <v>1.65</v>
+      </c>
+      <c r="AI174">
+        <v>1.91</v>
+      </c>
+      <c r="AJ174">
+        <v>1.8</v>
+      </c>
+      <c r="AK174">
+        <v>1.32</v>
+      </c>
+      <c r="AL174">
+        <v>1.31</v>
+      </c>
+      <c r="AM174">
+        <v>1.57</v>
+      </c>
+      <c r="AN174">
+        <v>1.45</v>
+      </c>
+      <c r="AO174">
+        <v>1</v>
+      </c>
+      <c r="AP174">
+        <v>1.58</v>
+      </c>
+      <c r="AQ174">
+        <v>0.92</v>
+      </c>
+      <c r="AR174">
+        <v>1.11</v>
+      </c>
+      <c r="AS174">
+        <v>1.04</v>
+      </c>
+      <c r="AT174">
+        <v>2.15</v>
+      </c>
+      <c r="AU174">
+        <v>6</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>3</v>
+      </c>
+      <c r="AX174">
+        <v>8</v>
+      </c>
+      <c r="AY174">
+        <v>9</v>
+      </c>
+      <c r="AZ174">
+        <v>11</v>
+      </c>
+      <c r="BA174">
+        <v>2</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>4</v>
+      </c>
+      <c r="BD174">
+        <v>1.67</v>
+      </c>
+      <c r="BE174">
+        <v>8.5</v>
+      </c>
+      <c r="BF174">
+        <v>2.45</v>
+      </c>
+      <c r="BG174">
+        <v>1.36</v>
+      </c>
+      <c r="BH174">
+        <v>2.9</v>
+      </c>
+      <c r="BI174">
+        <v>1.54</v>
+      </c>
+      <c r="BJ174">
+        <v>2.32</v>
+      </c>
+      <c r="BK174">
+        <v>1.96</v>
+      </c>
+      <c r="BL174">
+        <v>1.75</v>
+      </c>
+      <c r="BM174">
+        <v>2.55</v>
+      </c>
+      <c r="BN174">
+        <v>1.45</v>
+      </c>
+      <c r="BO174">
+        <v>3.3</v>
+      </c>
+      <c r="BP174">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7446520</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45501.625</v>
+      </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>70</v>
+      </c>
+      <c r="H175" t="s">
+        <v>79</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>181</v>
+      </c>
+      <c r="P175" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q175">
+        <v>2.1</v>
+      </c>
+      <c r="R175">
+        <v>2.3</v>
+      </c>
+      <c r="S175">
+        <v>6</v>
+      </c>
+      <c r="T175">
+        <v>1.36</v>
+      </c>
+      <c r="U175">
+        <v>3</v>
+      </c>
+      <c r="V175">
+        <v>2.75</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>7</v>
+      </c>
+      <c r="Y175">
+        <v>1.1</v>
+      </c>
+      <c r="Z175">
+        <v>1.5</v>
+      </c>
+      <c r="AA175">
+        <v>4.1</v>
+      </c>
+      <c r="AB175">
+        <v>6</v>
+      </c>
+      <c r="AC175">
+        <v>1.01</v>
+      </c>
+      <c r="AD175">
+        <v>9.5</v>
+      </c>
+      <c r="AE175">
+        <v>1.25</v>
+      </c>
+      <c r="AF175">
+        <v>3.42</v>
+      </c>
+      <c r="AG175">
+        <v>1.85</v>
+      </c>
+      <c r="AH175">
+        <v>1.85</v>
+      </c>
+      <c r="AI175">
+        <v>1.91</v>
+      </c>
+      <c r="AJ175">
+        <v>1.8</v>
+      </c>
+      <c r="AK175">
+        <v>1.1</v>
+      </c>
+      <c r="AL175">
+        <v>1.19</v>
+      </c>
+      <c r="AM175">
+        <v>2.4</v>
+      </c>
+      <c r="AN175">
+        <v>2.36</v>
+      </c>
+      <c r="AO175">
+        <v>1.9</v>
+      </c>
+      <c r="AP175">
+        <v>2.42</v>
+      </c>
+      <c r="AQ175">
+        <v>1.73</v>
+      </c>
+      <c r="AR175">
+        <v>1.8</v>
+      </c>
+      <c r="AS175">
+        <v>1.18</v>
+      </c>
+      <c r="AT175">
+        <v>2.98</v>
+      </c>
+      <c r="AU175">
+        <v>4</v>
+      </c>
+      <c r="AV175">
+        <v>3</v>
+      </c>
+      <c r="AW175">
+        <v>4</v>
+      </c>
+      <c r="AX175">
+        <v>1</v>
+      </c>
+      <c r="AY175">
+        <v>8</v>
+      </c>
+      <c r="AZ175">
+        <v>4</v>
+      </c>
+      <c r="BA175">
+        <v>8</v>
+      </c>
+      <c r="BB175">
+        <v>7</v>
+      </c>
+      <c r="BC175">
+        <v>15</v>
+      </c>
+      <c r="BD175">
+        <v>1.19</v>
+      </c>
+      <c r="BE175">
+        <v>10.5</v>
+      </c>
+      <c r="BF175">
+        <v>5.4</v>
+      </c>
+      <c r="BG175">
+        <v>1.32</v>
+      </c>
+      <c r="BH175">
+        <v>2.98</v>
+      </c>
+      <c r="BI175">
+        <v>1.59</v>
+      </c>
+      <c r="BJ175">
+        <v>2.16</v>
+      </c>
+      <c r="BK175">
+        <v>1.95</v>
+      </c>
+      <c r="BL175">
+        <v>1.77</v>
+      </c>
+      <c r="BM175">
+        <v>2.64</v>
+      </c>
+      <c r="BN175">
+        <v>1.4</v>
+      </c>
+      <c r="BO175">
+        <v>3.65</v>
+      </c>
+      <c r="BP175">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7446521</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45501.625</v>
+      </c>
+      <c r="F176">
+        <v>7</v>
+      </c>
+      <c r="G176" t="s">
+        <v>85</v>
+      </c>
+      <c r="H176" t="s">
+        <v>81</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>200</v>
+      </c>
+      <c r="P176" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q176">
+        <v>3.6</v>
+      </c>
+      <c r="R176">
+        <v>2.05</v>
+      </c>
+      <c r="S176">
+        <v>3.2</v>
+      </c>
+      <c r="T176">
+        <v>1.44</v>
+      </c>
+      <c r="U176">
+        <v>2.63</v>
+      </c>
+      <c r="V176">
+        <v>3.25</v>
+      </c>
+      <c r="W176">
+        <v>1.33</v>
+      </c>
+      <c r="X176">
+        <v>10</v>
+      </c>
+      <c r="Y176">
+        <v>1.06</v>
+      </c>
+      <c r="Z176">
+        <v>2.75</v>
+      </c>
+      <c r="AA176">
+        <v>3.2</v>
+      </c>
+      <c r="AB176">
+        <v>2.45</v>
+      </c>
+      <c r="AC176">
+        <v>1.04</v>
+      </c>
+      <c r="AD176">
+        <v>7.8</v>
+      </c>
+      <c r="AE176">
+        <v>1.35</v>
+      </c>
+      <c r="AF176">
+        <v>2.84</v>
+      </c>
+      <c r="AG176">
+        <v>2.1</v>
+      </c>
+      <c r="AH176">
+        <v>1.65</v>
+      </c>
+      <c r="AI176">
+        <v>1.83</v>
+      </c>
+      <c r="AJ176">
+        <v>1.83</v>
+      </c>
+      <c r="AK176">
+        <v>1.52</v>
+      </c>
+      <c r="AL176">
+        <v>1.3</v>
+      </c>
+      <c r="AM176">
+        <v>1.36</v>
+      </c>
+      <c r="AN176">
+        <v>0.88</v>
+      </c>
+      <c r="AO176">
+        <v>1</v>
+      </c>
+      <c r="AP176">
+        <v>1.11</v>
+      </c>
+      <c r="AQ176">
+        <v>0.89</v>
+      </c>
+      <c r="AR176">
+        <v>1.02</v>
+      </c>
+      <c r="AS176">
+        <v>1.59</v>
+      </c>
+      <c r="AT176">
+        <v>2.61</v>
+      </c>
+      <c r="AU176">
+        <v>11</v>
+      </c>
+      <c r="AV176">
+        <v>0</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>8</v>
+      </c>
+      <c r="AY176">
+        <v>16</v>
+      </c>
+      <c r="AZ176">
+        <v>8</v>
+      </c>
+      <c r="BA176">
+        <v>3</v>
+      </c>
+      <c r="BB176">
+        <v>5</v>
+      </c>
+      <c r="BC176">
+        <v>8</v>
+      </c>
+      <c r="BD176">
+        <v>2</v>
+      </c>
+      <c r="BE176">
+        <v>7.5</v>
+      </c>
+      <c r="BF176">
+        <v>2.1</v>
+      </c>
+      <c r="BG176">
+        <v>1.41</v>
+      </c>
+      <c r="BH176">
+        <v>2.6</v>
+      </c>
+      <c r="BI176">
+        <v>1.8</v>
+      </c>
+      <c r="BJ176">
+        <v>2</v>
+      </c>
+      <c r="BK176">
+        <v>2.27</v>
+      </c>
+      <c r="BL176">
+        <v>1.53</v>
+      </c>
+      <c r="BM176">
+        <v>3.08</v>
+      </c>
+      <c r="BN176">
+        <v>1.3</v>
+      </c>
+      <c r="BO176">
+        <v>4.6</v>
+      </c>
+      <c r="BP176">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,10 +613,16 @@
     <t>['80']</t>
   </si>
   <si>
-    <t>['2', '23', '50']</t>
+    <t>['1', '22', '50', '67']</t>
+  </si>
+  <si>
+    <t>['16']</t>
   </si>
   <si>
     <t>['42', '66']</t>
+  </si>
+  <si>
+    <t>['55', '75']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -884,6 +890,9 @@
   </si>
   <si>
     <t>['79', '90']</t>
+  </si>
+  <si>
+    <t>['18', '28']</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1513,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1710,7 +1719,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1916,7 +1925,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -1994,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2122,7 +2131,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2534,7 +2543,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2740,7 +2749,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2946,7 +2955,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3024,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ9">
         <v>1.27</v>
@@ -3233,7 +3242,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4388,7 +4397,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4594,7 +4603,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4672,10 +4681,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="AQ17">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4800,7 +4809,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5084,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ19">
         <v>1.38</v>
@@ -5418,7 +5427,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5624,7 +5633,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5830,7 +5839,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6036,7 +6045,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6114,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="AQ24">
         <v>1.2</v>
@@ -6242,7 +6251,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6320,7 +6329,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ25">
         <v>1.73</v>
@@ -6654,7 +6663,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6860,7 +6869,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6941,7 +6950,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7066,7 +7075,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -8096,7 +8105,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8302,7 +8311,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8920,7 +8929,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -9001,7 +9010,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ38">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -9126,7 +9135,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9332,7 +9341,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9538,7 +9547,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9619,7 +9628,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -10156,7 +10165,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10774,7 +10783,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10852,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="AQ47">
         <v>0.8</v>
@@ -10980,7 +10989,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11186,7 +11195,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11392,7 +11401,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11470,7 +11479,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ50">
         <v>1.09</v>
@@ -11598,7 +11607,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11804,7 +11813,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12091,7 +12100,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ53">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12422,7 +12431,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12628,7 +12637,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13246,7 +13255,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13327,7 +13336,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ59">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -13533,7 +13542,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13658,7 +13667,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -14070,7 +14079,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14276,7 +14285,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14354,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="AQ64">
         <v>2.1</v>
@@ -14894,7 +14903,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14975,7 +14984,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ67">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -15100,7 +15109,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15306,7 +15315,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15512,7 +15521,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15718,7 +15727,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15924,7 +15933,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16002,7 +16011,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16130,7 +16139,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16336,7 +16345,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16748,7 +16757,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16826,7 +16835,7 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="AQ76">
         <v>1.38</v>
@@ -17160,7 +17169,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17366,7 +17375,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17984,7 +17993,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18190,7 +18199,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18396,7 +18405,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18477,7 +18486,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ84">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18602,7 +18611,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -19014,7 +19023,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19092,10 +19101,10 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ87">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -19220,7 +19229,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19632,7 +19641,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20122,7 +20131,7 @@
         <v>0.4</v>
       </c>
       <c r="AP92">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="AQ92">
         <v>0.82</v>
@@ -20250,7 +20259,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20662,7 +20671,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20743,7 +20752,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>1.59</v>
@@ -20868,7 +20877,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21074,7 +21083,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21486,7 +21495,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21564,7 +21573,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ99">
         <v>0.92</v>
@@ -21692,7 +21701,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21979,7 +21988,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR101">
         <v>1.11</v>
@@ -22391,7 +22400,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ103">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AR103">
         <v>1.68</v>
@@ -22516,7 +22525,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22722,7 +22731,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23134,7 +23143,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23418,7 +23427,7 @@
         <v>1.14</v>
       </c>
       <c r="AP108">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="AQ108">
         <v>1.09</v>
@@ -23546,7 +23555,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23958,7 +23967,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24245,7 +24254,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ112">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24370,7 +24379,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24782,7 +24791,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24860,10 +24869,10 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -24988,7 +24997,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25400,7 +25409,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25606,7 +25615,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25893,7 +25902,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ120">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AR120">
         <v>1.7</v>
@@ -26018,7 +26027,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26224,7 +26233,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26430,7 +26439,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26842,7 +26851,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27048,7 +27057,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27950,7 +27959,7 @@
         <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="AQ130">
         <v>0.8</v>
@@ -28156,7 +28165,7 @@
         <v>1.29</v>
       </c>
       <c r="AP131">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ131">
         <v>1.27</v>
@@ -28284,7 +28293,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -29108,7 +29117,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29189,7 +29198,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ136">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR136">
         <v>1.33</v>
@@ -29314,7 +29323,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29395,7 +29404,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ137">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AR137">
         <v>1.46</v>
@@ -29726,7 +29735,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29932,7 +29941,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30138,7 +30147,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30550,7 +30559,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30756,7 +30765,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30962,7 +30971,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31992,7 +32001,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32073,7 +32082,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR150">
         <v>1.56</v>
@@ -32404,7 +32413,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32610,7 +32619,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -32688,7 +32697,7 @@
         <v>1.09</v>
       </c>
       <c r="AP153">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="AQ153">
         <v>1.38</v>
@@ -32897,7 +32906,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ154">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR154">
         <v>1.13</v>
@@ -33022,7 +33031,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33228,7 +33237,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33640,7 +33649,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q158">
         <v>3.14</v>
@@ -33721,7 +33730,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ158">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AR158">
         <v>1.13</v>
@@ -33846,7 +33855,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34052,7 +34061,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34130,7 +34139,7 @@
         <v>2.5</v>
       </c>
       <c r="AP160">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ160">
         <v>2.55</v>
@@ -34258,7 +34267,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34670,7 +34679,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34876,7 +34885,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35288,7 +35297,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35906,7 +35915,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36070,7 +36079,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7446523</v>
+        <v>7446517</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36079,178 +36088,178 @@
         <v>69</v>
       </c>
       <c r="E170" s="2">
-        <v>45500.41666666666</v>
+        <v>45500.52083333334</v>
       </c>
       <c r="F170">
         <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H170" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O170" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="P170" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="Q170">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="R170">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="S170">
-        <v>3.38</v>
+        <v>3.75</v>
       </c>
       <c r="T170">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="U170">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
       <c r="V170">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="W170">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X170">
-        <v>8.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="Y170">
+        <v>1.06</v>
+      </c>
+      <c r="Z170">
+        <v>2.55</v>
+      </c>
+      <c r="AA170">
+        <v>3.25</v>
+      </c>
+      <c r="AB170">
+        <v>2.55</v>
+      </c>
+      <c r="AC170">
         <v>1.05</v>
       </c>
-      <c r="Z170">
-        <v>2.67</v>
-      </c>
-      <c r="AA170">
-        <v>3.05</v>
-      </c>
-      <c r="AB170">
-        <v>2.76</v>
-      </c>
-      <c r="AC170">
-        <v>1.04</v>
-      </c>
       <c r="AD170">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AE170">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AF170">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="AG170">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AH170">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="AI170">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AJ170">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AK170">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AL170">
         <v>1.31</v>
       </c>
       <c r="AM170">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AN170">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AO170">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP170">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ170">
-        <v>1.62</v>
+        <v>1</v>
       </c>
       <c r="AR170">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AS170">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AT170">
-        <v>2.46</v>
+        <v>2.71</v>
       </c>
       <c r="AU170">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV170">
         <v>4</v>
       </c>
       <c r="AW170">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX170">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY170">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ170">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC170">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD170">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="BE170">
         <v>8</v>
       </c>
       <c r="BF170">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BG170">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BH170">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BI170">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="BJ170">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="BK170">
         <v>2.05</v>
@@ -36259,10 +36268,10 @@
         <v>1.7</v>
       </c>
       <c r="BM170">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="BN170">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BO170">
         <v>3.2</v>
@@ -36276,7 +36285,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>7446517</v>
+        <v>7446516</v>
       </c>
       <c r="C171" t="s">
         <v>68</v>
@@ -36285,94 +36294,94 @@
         <v>69</v>
       </c>
       <c r="E171" s="2">
-        <v>45500.52083333334</v>
+        <v>45500.72916666666</v>
       </c>
       <c r="F171">
         <v>7</v>
       </c>
       <c r="G171" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H171" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L171">
         <v>1</v>
       </c>
       <c r="M171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O171" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="Q171">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="R171">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S171">
+        <v>4.75</v>
+      </c>
+      <c r="T171">
+        <v>1.4</v>
+      </c>
+      <c r="U171">
+        <v>2.75</v>
+      </c>
+      <c r="V171">
+        <v>3</v>
+      </c>
+      <c r="W171">
+        <v>1.36</v>
+      </c>
+      <c r="X171">
+        <v>8</v>
+      </c>
+      <c r="Y171">
+        <v>1.08</v>
+      </c>
+      <c r="Z171">
+        <v>1.8</v>
+      </c>
+      <c r="AA171">
+        <v>3.4</v>
+      </c>
+      <c r="AB171">
         <v>3.75</v>
       </c>
-      <c r="T171">
-        <v>1.44</v>
-      </c>
-      <c r="U171">
-        <v>2.63</v>
-      </c>
-      <c r="V171">
-        <v>3.25</v>
-      </c>
-      <c r="W171">
-        <v>1.33</v>
-      </c>
-      <c r="X171">
-        <v>10</v>
-      </c>
-      <c r="Y171">
-        <v>1.06</v>
-      </c>
-      <c r="Z171">
-        <v>2.55</v>
-      </c>
-      <c r="AA171">
-        <v>3.25</v>
-      </c>
-      <c r="AB171">
-        <v>2.55</v>
-      </c>
       <c r="AC171">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD171">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AE171">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AF171">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
       <c r="AG171">
         <v>2</v>
       </c>
       <c r="AH171">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AI171">
         <v>1.83</v>
@@ -36381,94 +36390,94 @@
         <v>1.83</v>
       </c>
       <c r="AK171">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AL171">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AM171">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="AN171">
-        <v>0.91</v>
+        <v>2.4</v>
       </c>
       <c r="AO171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP171">
-        <v>0.92</v>
+        <v>2.45</v>
       </c>
       <c r="AQ171">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="AR171">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AS171">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AT171">
-        <v>2.71</v>
+        <v>3.06</v>
       </c>
       <c r="AU171">
         <v>3</v>
       </c>
       <c r="AV171">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW171">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX171">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY171">
+        <v>9</v>
+      </c>
+      <c r="AZ171">
         <v>8</v>
       </c>
-      <c r="AZ171">
-        <v>11</v>
-      </c>
       <c r="BA171">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BB171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC171">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD171">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="BE171">
         <v>8</v>
       </c>
       <c r="BF171">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BG171">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BH171">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="BI171">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="BJ171">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="BK171">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="BL171">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BM171">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="BN171">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BO171">
         <v>3.2</v>
@@ -36482,7 +36491,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7446516</v>
+        <v>7446518</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36497,10 +36506,10 @@
         <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H172" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -36521,142 +36530,142 @@
         <v>1</v>
       </c>
       <c r="O172" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P172" t="s">
         <v>93</v>
       </c>
       <c r="Q172">
+        <v>2.75</v>
+      </c>
+      <c r="R172">
+        <v>2.05</v>
+      </c>
+      <c r="S172">
+        <v>4.33</v>
+      </c>
+      <c r="T172">
+        <v>1.44</v>
+      </c>
+      <c r="U172">
+        <v>2.63</v>
+      </c>
+      <c r="V172">
+        <v>3.25</v>
+      </c>
+      <c r="W172">
+        <v>1.33</v>
+      </c>
+      <c r="X172">
+        <v>10</v>
+      </c>
+      <c r="Y172">
+        <v>1.06</v>
+      </c>
+      <c r="Z172">
+        <v>2.1</v>
+      </c>
+      <c r="AA172">
+        <v>3.25</v>
+      </c>
+      <c r="AB172">
+        <v>3.2</v>
+      </c>
+      <c r="AC172">
+        <v>1.05</v>
+      </c>
+      <c r="AD172">
+        <v>8</v>
+      </c>
+      <c r="AE172">
+        <v>1.37</v>
+      </c>
+      <c r="AF172">
+        <v>3.06</v>
+      </c>
+      <c r="AG172">
+        <v>2.15</v>
+      </c>
+      <c r="AH172">
+        <v>1.65</v>
+      </c>
+      <c r="AI172">
+        <v>1.91</v>
+      </c>
+      <c r="AJ172">
+        <v>1.8</v>
+      </c>
+      <c r="AK172">
+        <v>1.28</v>
+      </c>
+      <c r="AL172">
+        <v>1.29</v>
+      </c>
+      <c r="AM172">
+        <v>1.66</v>
+      </c>
+      <c r="AN172">
+        <v>1.6</v>
+      </c>
+      <c r="AO172">
+        <v>1.4</v>
+      </c>
+      <c r="AP172">
+        <v>1.73</v>
+      </c>
+      <c r="AQ172">
+        <v>1.27</v>
+      </c>
+      <c r="AR172">
+        <v>1.58</v>
+      </c>
+      <c r="AS172">
+        <v>1.27</v>
+      </c>
+      <c r="AT172">
+        <v>2.85</v>
+      </c>
+      <c r="AU172">
+        <v>4</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>8</v>
+      </c>
+      <c r="AX172">
+        <v>7</v>
+      </c>
+      <c r="AY172">
+        <v>12</v>
+      </c>
+      <c r="AZ172">
+        <v>12</v>
+      </c>
+      <c r="BA172">
+        <v>4</v>
+      </c>
+      <c r="BB172">
+        <v>1</v>
+      </c>
+      <c r="BC172">
+        <v>5</v>
+      </c>
+      <c r="BD172">
+        <v>1.73</v>
+      </c>
+      <c r="BE172">
+        <v>7.5</v>
+      </c>
+      <c r="BF172">
         <v>2.4</v>
       </c>
-      <c r="R172">
-        <v>2.2</v>
-      </c>
-      <c r="S172">
-        <v>4.75</v>
-      </c>
-      <c r="T172">
-        <v>1.4</v>
-      </c>
-      <c r="U172">
-        <v>2.75</v>
-      </c>
-      <c r="V172">
-        <v>3</v>
-      </c>
-      <c r="W172">
-        <v>1.36</v>
-      </c>
-      <c r="X172">
-        <v>8</v>
-      </c>
-      <c r="Y172">
-        <v>1.08</v>
-      </c>
-      <c r="Z172">
-        <v>1.8</v>
-      </c>
-      <c r="AA172">
-        <v>3.4</v>
-      </c>
-      <c r="AB172">
-        <v>3.75</v>
-      </c>
-      <c r="AC172">
-        <v>1.03</v>
-      </c>
-      <c r="AD172">
-        <v>8.4</v>
-      </c>
-      <c r="AE172">
-        <v>1.31</v>
-      </c>
-      <c r="AF172">
-        <v>3.04</v>
-      </c>
-      <c r="AG172">
-        <v>2</v>
-      </c>
-      <c r="AH172">
-        <v>1.73</v>
-      </c>
-      <c r="AI172">
-        <v>1.83</v>
-      </c>
-      <c r="AJ172">
-        <v>1.83</v>
-      </c>
-      <c r="AK172">
-        <v>1.19</v>
-      </c>
-      <c r="AL172">
-        <v>1.26</v>
-      </c>
-      <c r="AM172">
-        <v>1.93</v>
-      </c>
-      <c r="AN172">
-        <v>2.4</v>
-      </c>
-      <c r="AO172">
-        <v>2</v>
-      </c>
-      <c r="AP172">
-        <v>2.45</v>
-      </c>
-      <c r="AQ172">
-        <v>1.82</v>
-      </c>
-      <c r="AR172">
-        <v>1.48</v>
-      </c>
-      <c r="AS172">
-        <v>1.58</v>
-      </c>
-      <c r="AT172">
-        <v>3.06</v>
-      </c>
-      <c r="AU172">
-        <v>3</v>
-      </c>
-      <c r="AV172">
-        <v>6</v>
-      </c>
-      <c r="AW172">
-        <v>6</v>
-      </c>
-      <c r="AX172">
-        <v>2</v>
-      </c>
-      <c r="AY172">
-        <v>9</v>
-      </c>
-      <c r="AZ172">
-        <v>8</v>
-      </c>
-      <c r="BA172">
-        <v>10</v>
-      </c>
-      <c r="BB172">
-        <v>3</v>
-      </c>
-      <c r="BC172">
-        <v>13</v>
-      </c>
-      <c r="BD172">
-        <v>1.5</v>
-      </c>
-      <c r="BE172">
-        <v>8</v>
-      </c>
-      <c r="BF172">
-        <v>3</v>
-      </c>
       <c r="BG172">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BH172">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="BI172">
         <v>1.7</v>
@@ -36665,22 +36674,22 @@
         <v>2.05</v>
       </c>
       <c r="BK172">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="BL172">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BM172">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="BN172">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BO172">
-        <v>3.2</v>
+        <v>3.56</v>
       </c>
       <c r="BP172">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -36688,7 +36697,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7446518</v>
+        <v>7446522</v>
       </c>
       <c r="C173" t="s">
         <v>68</v>
@@ -36697,61 +36706,61 @@
         <v>69</v>
       </c>
       <c r="E173" s="2">
-        <v>45500.72916666666</v>
+        <v>45501.52083333334</v>
       </c>
       <c r="F173">
         <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H173" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N173">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O173" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P173" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="Q173">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R173">
         <v>2.05</v>
       </c>
       <c r="S173">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T173">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U173">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V173">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W173">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X173">
         <v>10</v>
@@ -36760,13 +36769,13 @@
         <v>1.06</v>
       </c>
       <c r="Z173">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA173">
+        <v>3.15</v>
+      </c>
+      <c r="AB173">
         <v>3.25</v>
-      </c>
-      <c r="AB173">
-        <v>3.2</v>
       </c>
       <c r="AC173">
         <v>1.05</v>
@@ -36775,13 +36784,13 @@
         <v>8</v>
       </c>
       <c r="AE173">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AF173">
-        <v>3.06</v>
+        <v>2.8</v>
       </c>
       <c r="AG173">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AH173">
         <v>1.65</v>
@@ -36793,100 +36802,100 @@
         <v>1.8</v>
       </c>
       <c r="AK173">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AL173">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AM173">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="AN173">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AO173">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ173">
-        <v>1.27</v>
+        <v>0.92</v>
       </c>
       <c r="AR173">
-        <v>1.58</v>
+        <v>1.11</v>
       </c>
       <c r="AS173">
-        <v>1.27</v>
+        <v>1.04</v>
       </c>
       <c r="AT173">
-        <v>2.85</v>
+        <v>2.15</v>
       </c>
       <c r="AU173">
+        <v>6</v>
+      </c>
+      <c r="AV173">
+        <v>3</v>
+      </c>
+      <c r="AW173">
+        <v>3</v>
+      </c>
+      <c r="AX173">
+        <v>8</v>
+      </c>
+      <c r="AY173">
+        <v>9</v>
+      </c>
+      <c r="AZ173">
+        <v>11</v>
+      </c>
+      <c r="BA173">
+        <v>2</v>
+      </c>
+      <c r="BB173">
+        <v>2</v>
+      </c>
+      <c r="BC173">
         <v>4</v>
       </c>
-      <c r="AV173">
-        <v>5</v>
-      </c>
-      <c r="AW173">
-        <v>8</v>
-      </c>
-      <c r="AX173">
-        <v>7</v>
-      </c>
-      <c r="AY173">
-        <v>12</v>
-      </c>
-      <c r="AZ173">
-        <v>12</v>
-      </c>
-      <c r="BA173">
-        <v>4</v>
-      </c>
-      <c r="BB173">
-        <v>1</v>
-      </c>
-      <c r="BC173">
-        <v>5</v>
-      </c>
       <c r="BD173">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="BE173">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF173">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BG173">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="BH173">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="BI173">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="BJ173">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="BK173">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="BL173">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="BM173">
         <v>2.55</v>
       </c>
       <c r="BN173">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="BO173">
-        <v>3.56</v>
+        <v>3.3</v>
       </c>
       <c r="BP173">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="174" spans="1:68">
@@ -36894,7 +36903,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7446522</v>
+        <v>7446520</v>
       </c>
       <c r="C174" t="s">
         <v>68</v>
@@ -36903,94 +36912,94 @@
         <v>69</v>
       </c>
       <c r="E174" s="2">
-        <v>45501.52083333334</v>
+        <v>45501.625</v>
       </c>
       <c r="F174">
         <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H174" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O174" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P174" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="Q174">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R174">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S174">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T174">
+        <v>1.36</v>
+      </c>
+      <c r="U174">
+        <v>3</v>
+      </c>
+      <c r="V174">
+        <v>2.75</v>
+      </c>
+      <c r="W174">
+        <v>1.4</v>
+      </c>
+      <c r="X174">
+        <v>7</v>
+      </c>
+      <c r="Y174">
+        <v>1.1</v>
+      </c>
+      <c r="Z174">
         <v>1.5</v>
       </c>
-      <c r="U174">
-        <v>2.5</v>
-      </c>
-      <c r="V174">
-        <v>3.4</v>
-      </c>
-      <c r="W174">
-        <v>1.3</v>
-      </c>
-      <c r="X174">
-        <v>10</v>
-      </c>
-      <c r="Y174">
-        <v>1.06</v>
-      </c>
-      <c r="Z174">
-        <v>2.2</v>
-      </c>
       <c r="AA174">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="AB174">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="AC174">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD174">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE174">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AF174">
-        <v>2.8</v>
+        <v>3.42</v>
       </c>
       <c r="AG174">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH174">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AI174">
         <v>1.91</v>
@@ -36999,100 +37008,100 @@
         <v>1.8</v>
       </c>
       <c r="AK174">
+        <v>1.1</v>
+      </c>
+      <c r="AL174">
+        <v>1.19</v>
+      </c>
+      <c r="AM174">
+        <v>2.4</v>
+      </c>
+      <c r="AN174">
+        <v>2.36</v>
+      </c>
+      <c r="AO174">
+        <v>1.9</v>
+      </c>
+      <c r="AP174">
+        <v>2.42</v>
+      </c>
+      <c r="AQ174">
+        <v>1.73</v>
+      </c>
+      <c r="AR174">
+        <v>1.8</v>
+      </c>
+      <c r="AS174">
+        <v>1.18</v>
+      </c>
+      <c r="AT174">
+        <v>2.98</v>
+      </c>
+      <c r="AU174">
+        <v>4</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>4</v>
+      </c>
+      <c r="AX174">
+        <v>1</v>
+      </c>
+      <c r="AY174">
+        <v>8</v>
+      </c>
+      <c r="AZ174">
+        <v>4</v>
+      </c>
+      <c r="BA174">
+        <v>8</v>
+      </c>
+      <c r="BB174">
+        <v>7</v>
+      </c>
+      <c r="BC174">
+        <v>15</v>
+      </c>
+      <c r="BD174">
+        <v>1.19</v>
+      </c>
+      <c r="BE174">
+        <v>10.5</v>
+      </c>
+      <c r="BF174">
+        <v>5.4</v>
+      </c>
+      <c r="BG174">
         <v>1.32</v>
       </c>
-      <c r="AL174">
-        <v>1.31</v>
-      </c>
-      <c r="AM174">
-        <v>1.57</v>
-      </c>
-      <c r="AN174">
-        <v>1.45</v>
-      </c>
-      <c r="AO174">
-        <v>1</v>
-      </c>
-      <c r="AP174">
-        <v>1.58</v>
-      </c>
-      <c r="AQ174">
-        <v>0.92</v>
-      </c>
-      <c r="AR174">
-        <v>1.11</v>
-      </c>
-      <c r="AS174">
-        <v>1.04</v>
-      </c>
-      <c r="AT174">
-        <v>2.15</v>
-      </c>
-      <c r="AU174">
-        <v>6</v>
-      </c>
-      <c r="AV174">
-        <v>3</v>
-      </c>
-      <c r="AW174">
-        <v>3</v>
-      </c>
-      <c r="AX174">
-        <v>8</v>
-      </c>
-      <c r="AY174">
-        <v>9</v>
-      </c>
-      <c r="AZ174">
-        <v>11</v>
-      </c>
-      <c r="BA174">
-        <v>2</v>
-      </c>
-      <c r="BB174">
-        <v>2</v>
-      </c>
-      <c r="BC174">
-        <v>4</v>
-      </c>
-      <c r="BD174">
-        <v>1.67</v>
-      </c>
-      <c r="BE174">
-        <v>8.5</v>
-      </c>
-      <c r="BF174">
-        <v>2.45</v>
-      </c>
-      <c r="BG174">
-        <v>1.36</v>
-      </c>
       <c r="BH174">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="BI174">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="BJ174">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="BK174">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="BL174">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="BM174">
-        <v>2.55</v>
+        <v>2.64</v>
       </c>
       <c r="BN174">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="BO174">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="BP174">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="175" spans="1:68">
@@ -37100,7 +37109,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7446520</v>
+        <v>7446521</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37115,10 +37124,10 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H175" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -37130,175 +37139,175 @@
         <v>1</v>
       </c>
       <c r="L175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O175" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P175" t="s">
         <v>93</v>
       </c>
       <c r="Q175">
+        <v>3.6</v>
+      </c>
+      <c r="R175">
+        <v>2.05</v>
+      </c>
+      <c r="S175">
+        <v>3.2</v>
+      </c>
+      <c r="T175">
+        <v>1.44</v>
+      </c>
+      <c r="U175">
+        <v>2.63</v>
+      </c>
+      <c r="V175">
+        <v>3.25</v>
+      </c>
+      <c r="W175">
+        <v>1.33</v>
+      </c>
+      <c r="X175">
+        <v>10</v>
+      </c>
+      <c r="Y175">
+        <v>1.06</v>
+      </c>
+      <c r="Z175">
+        <v>2.75</v>
+      </c>
+      <c r="AA175">
+        <v>3.2</v>
+      </c>
+      <c r="AB175">
+        <v>2.45</v>
+      </c>
+      <c r="AC175">
+        <v>1.04</v>
+      </c>
+      <c r="AD175">
+        <v>7.8</v>
+      </c>
+      <c r="AE175">
+        <v>1.35</v>
+      </c>
+      <c r="AF175">
+        <v>2.84</v>
+      </c>
+      <c r="AG175">
         <v>2.1</v>
       </c>
-      <c r="R175">
-        <v>2.3</v>
-      </c>
-      <c r="S175">
-        <v>6</v>
-      </c>
-      <c r="T175">
+      <c r="AH175">
+        <v>1.65</v>
+      </c>
+      <c r="AI175">
+        <v>1.83</v>
+      </c>
+      <c r="AJ175">
+        <v>1.83</v>
+      </c>
+      <c r="AK175">
+        <v>1.52</v>
+      </c>
+      <c r="AL175">
+        <v>1.3</v>
+      </c>
+      <c r="AM175">
         <v>1.36</v>
       </c>
-      <c r="U175">
-        <v>3</v>
-      </c>
-      <c r="V175">
-        <v>2.75</v>
-      </c>
-      <c r="W175">
-        <v>1.4</v>
-      </c>
-      <c r="X175">
-        <v>7</v>
-      </c>
-      <c r="Y175">
-        <v>1.1</v>
-      </c>
-      <c r="Z175">
-        <v>1.5</v>
-      </c>
-      <c r="AA175">
-        <v>4.1</v>
-      </c>
-      <c r="AB175">
-        <v>6</v>
-      </c>
-      <c r="AC175">
-        <v>1.01</v>
-      </c>
-      <c r="AD175">
-        <v>9.5</v>
-      </c>
-      <c r="AE175">
-        <v>1.25</v>
-      </c>
-      <c r="AF175">
-        <v>3.42</v>
-      </c>
-      <c r="AG175">
-        <v>1.85</v>
-      </c>
-      <c r="AH175">
-        <v>1.85</v>
-      </c>
-      <c r="AI175">
-        <v>1.91</v>
-      </c>
-      <c r="AJ175">
+      <c r="AN175">
+        <v>0.88</v>
+      </c>
+      <c r="AO175">
+        <v>1</v>
+      </c>
+      <c r="AP175">
+        <v>1.11</v>
+      </c>
+      <c r="AQ175">
+        <v>0.89</v>
+      </c>
+      <c r="AR175">
+        <v>1.02</v>
+      </c>
+      <c r="AS175">
+        <v>1.59</v>
+      </c>
+      <c r="AT175">
+        <v>2.61</v>
+      </c>
+      <c r="AU175">
+        <v>11</v>
+      </c>
+      <c r="AV175">
+        <v>0</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>8</v>
+      </c>
+      <c r="AY175">
+        <v>16</v>
+      </c>
+      <c r="AZ175">
+        <v>8</v>
+      </c>
+      <c r="BA175">
+        <v>3</v>
+      </c>
+      <c r="BB175">
+        <v>5</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>2</v>
+      </c>
+      <c r="BE175">
+        <v>7.5</v>
+      </c>
+      <c r="BF175">
+        <v>2.1</v>
+      </c>
+      <c r="BG175">
+        <v>1.41</v>
+      </c>
+      <c r="BH175">
+        <v>2.6</v>
+      </c>
+      <c r="BI175">
         <v>1.8</v>
       </c>
-      <c r="AK175">
-        <v>1.1</v>
-      </c>
-      <c r="AL175">
-        <v>1.19</v>
-      </c>
-      <c r="AM175">
-        <v>2.4</v>
-      </c>
-      <c r="AN175">
-        <v>2.36</v>
-      </c>
-      <c r="AO175">
-        <v>1.9</v>
-      </c>
-      <c r="AP175">
-        <v>2.42</v>
-      </c>
-      <c r="AQ175">
-        <v>1.73</v>
-      </c>
-      <c r="AR175">
-        <v>1.8</v>
-      </c>
-      <c r="AS175">
+      <c r="BJ175">
+        <v>2</v>
+      </c>
+      <c r="BK175">
+        <v>2.27</v>
+      </c>
+      <c r="BL175">
+        <v>1.53</v>
+      </c>
+      <c r="BM175">
+        <v>3.08</v>
+      </c>
+      <c r="BN175">
+        <v>1.3</v>
+      </c>
+      <c r="BO175">
+        <v>4.6</v>
+      </c>
+      <c r="BP175">
         <v>1.18</v>
-      </c>
-      <c r="AT175">
-        <v>2.98</v>
-      </c>
-      <c r="AU175">
-        <v>4</v>
-      </c>
-      <c r="AV175">
-        <v>3</v>
-      </c>
-      <c r="AW175">
-        <v>4</v>
-      </c>
-      <c r="AX175">
-        <v>1</v>
-      </c>
-      <c r="AY175">
-        <v>8</v>
-      </c>
-      <c r="AZ175">
-        <v>4</v>
-      </c>
-      <c r="BA175">
-        <v>8</v>
-      </c>
-      <c r="BB175">
-        <v>7</v>
-      </c>
-      <c r="BC175">
-        <v>15</v>
-      </c>
-      <c r="BD175">
-        <v>1.19</v>
-      </c>
-      <c r="BE175">
-        <v>10.5</v>
-      </c>
-      <c r="BF175">
-        <v>5.4</v>
-      </c>
-      <c r="BG175">
-        <v>1.32</v>
-      </c>
-      <c r="BH175">
-        <v>2.98</v>
-      </c>
-      <c r="BI175">
-        <v>1.59</v>
-      </c>
-      <c r="BJ175">
-        <v>2.16</v>
-      </c>
-      <c r="BK175">
-        <v>1.95</v>
-      </c>
-      <c r="BL175">
-        <v>1.77</v>
-      </c>
-      <c r="BM175">
-        <v>2.64</v>
-      </c>
-      <c r="BN175">
-        <v>1.4</v>
-      </c>
-      <c r="BO175">
-        <v>3.65</v>
-      </c>
-      <c r="BP175">
-        <v>1.22</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37306,7 +37315,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7446521</v>
+        <v>7446519</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37315,40 +37324,40 @@
         <v>69</v>
       </c>
       <c r="E176" s="2">
-        <v>45501.625</v>
+        <v>45502.625</v>
       </c>
       <c r="F176">
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H176" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L176">
         <v>2</v>
       </c>
       <c r="M176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O176" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P176" t="s">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="Q176">
         <v>3.6</v>
@@ -37360,16 +37369,16 @@
         <v>3.2</v>
       </c>
       <c r="T176">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U176">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V176">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W176">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X176">
         <v>10</v>
@@ -37384,127 +37393,127 @@
         <v>3.2</v>
       </c>
       <c r="AB176">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AC176">
         <v>1.04</v>
       </c>
       <c r="AD176">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE176">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AF176">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="AG176">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="AH176">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AI176">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ176">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK176">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AL176">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AM176">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AN176">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
       <c r="AO176">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP176">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AQ176">
-        <v>0.89</v>
+        <v>1.45</v>
       </c>
       <c r="AR176">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="AS176">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AT176">
-        <v>2.61</v>
+        <v>2.86</v>
       </c>
       <c r="AU176">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AV176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW176">
+        <v>2</v>
+      </c>
+      <c r="AX176">
         <v>5</v>
       </c>
-      <c r="AX176">
-        <v>8</v>
-      </c>
       <c r="AY176">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AZ176">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA176">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB176">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC176">
         <v>8</v>
       </c>
       <c r="BD176">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="BE176">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF176">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="BG176">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="BH176">
-        <v>2.6</v>
+        <v>3.48</v>
       </c>
       <c r="BI176">
+        <v>1.5</v>
+      </c>
+      <c r="BJ176">
+        <v>2.52</v>
+      </c>
+      <c r="BK176">
+        <v>2</v>
+      </c>
+      <c r="BL176">
         <v>1.8</v>
       </c>
-      <c r="BJ176">
-        <v>2</v>
-      </c>
-      <c r="BK176">
-        <v>2.27</v>
-      </c>
-      <c r="BL176">
-        <v>1.53</v>
-      </c>
       <c r="BM176">
+        <v>2.31</v>
+      </c>
+      <c r="BN176">
+        <v>1.59</v>
+      </c>
+      <c r="BO176">
         <v>3.08</v>
       </c>
-      <c r="BN176">
+      <c r="BP176">
         <v>1.3</v>
-      </c>
-      <c r="BO176">
-        <v>4.6</v>
-      </c>
-      <c r="BP176">
-        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -892,7 +892,7 @@
     <t>['79', '90']</t>
   </si>
   <si>
-    <t>['18', '28']</t>
+    <t>['17', '27']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -4681,10 +4681,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ24">
         <v>1.2</v>
@@ -9010,7 +9010,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ47">
         <v>0.8</v>
@@ -12100,7 +12100,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -13336,7 +13336,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ64">
         <v>2.1</v>
@@ -14984,7 +14984,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ67">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -16835,7 +16835,7 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ76">
         <v>1.38</v>
@@ -19104,7 +19104,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -20131,7 +20131,7 @@
         <v>0.4</v>
       </c>
       <c r="AP92">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ92">
         <v>0.82</v>
@@ -20752,7 +20752,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR95">
         <v>1.59</v>
@@ -22400,7 +22400,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ103">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR103">
         <v>1.68</v>
@@ -23427,7 +23427,7 @@
         <v>1.14</v>
       </c>
       <c r="AP108">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ108">
         <v>1.09</v>
@@ -24254,7 +24254,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ112">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -25902,7 +25902,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ120">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR120">
         <v>1.7</v>
@@ -27959,7 +27959,7 @@
         <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ130">
         <v>0.8</v>
@@ -29404,7 +29404,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ137">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR137">
         <v>1.46</v>
@@ -32697,7 +32697,7 @@
         <v>1.09</v>
       </c>
       <c r="AP153">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ153">
         <v>1.38</v>
@@ -33730,7 +33730,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ158">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AR158">
         <v>1.13</v>
@@ -36079,7 +36079,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7446517</v>
+        <v>7446523</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36088,178 +36088,178 @@
         <v>69</v>
       </c>
       <c r="E170" s="2">
-        <v>45500.52083333334</v>
+        <v>45500.41666666666</v>
       </c>
       <c r="F170">
         <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H170" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O170" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="P170" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="Q170">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="R170">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="S170">
-        <v>3.75</v>
+        <v>3.38</v>
       </c>
       <c r="T170">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="U170">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="V170">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="W170">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X170">
-        <v>10</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Y170">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z170">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="AA170">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AB170">
-        <v>2.55</v>
+        <v>2.76</v>
       </c>
       <c r="AC170">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD170">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AE170">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AF170">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="AG170">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AH170">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="AI170">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AJ170">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AK170">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AL170">
         <v>1.31</v>
       </c>
       <c r="AM170">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AN170">
+        <v>0.9</v>
+      </c>
+      <c r="AO170">
+        <v>1.67</v>
+      </c>
+      <c r="AP170">
         <v>0.91</v>
       </c>
-      <c r="AO170">
-        <v>1</v>
-      </c>
-      <c r="AP170">
-        <v>0.92</v>
-      </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>1.62</v>
       </c>
       <c r="AR170">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AS170">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AT170">
-        <v>2.71</v>
+        <v>2.46</v>
       </c>
       <c r="AU170">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV170">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW170">
         <v>5</v>
       </c>
       <c r="AX170">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY170">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ170">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC170">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD170">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="BE170">
         <v>8</v>
       </c>
       <c r="BF170">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BG170">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BH170">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="BI170">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="BJ170">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="BK170">
         <v>2.05</v>
@@ -36268,10 +36268,10 @@
         <v>1.7</v>
       </c>
       <c r="BM170">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BN170">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BO170">
         <v>3.2</v>
@@ -36285,7 +36285,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>7446516</v>
+        <v>7446517</v>
       </c>
       <c r="C171" t="s">
         <v>68</v>
@@ -36294,94 +36294,94 @@
         <v>69</v>
       </c>
       <c r="E171" s="2">
-        <v>45500.72916666666</v>
+        <v>45500.52083333334</v>
       </c>
       <c r="F171">
         <v>7</v>
       </c>
       <c r="G171" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H171" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L171">
         <v>1</v>
       </c>
       <c r="M171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O171" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P171" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="Q171">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="R171">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S171">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="T171">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U171">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V171">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W171">
+        <v>1.33</v>
+      </c>
+      <c r="X171">
+        <v>10</v>
+      </c>
+      <c r="Y171">
+        <v>1.06</v>
+      </c>
+      <c r="Z171">
+        <v>2.55</v>
+      </c>
+      <c r="AA171">
+        <v>3.25</v>
+      </c>
+      <c r="AB171">
+        <v>2.55</v>
+      </c>
+      <c r="AC171">
+        <v>1.05</v>
+      </c>
+      <c r="AD171">
+        <v>8</v>
+      </c>
+      <c r="AE171">
         <v>1.36</v>
       </c>
-      <c r="X171">
-        <v>8</v>
-      </c>
-      <c r="Y171">
-        <v>1.08</v>
-      </c>
-      <c r="Z171">
-        <v>1.8</v>
-      </c>
-      <c r="AA171">
-        <v>3.4</v>
-      </c>
-      <c r="AB171">
-        <v>3.75</v>
-      </c>
-      <c r="AC171">
-        <v>1.03</v>
-      </c>
-      <c r="AD171">
-        <v>8.4</v>
-      </c>
-      <c r="AE171">
-        <v>1.31</v>
-      </c>
       <c r="AF171">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="AG171">
         <v>2</v>
       </c>
       <c r="AH171">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AI171">
         <v>1.83</v>
@@ -36390,94 +36390,94 @@
         <v>1.83</v>
       </c>
       <c r="AK171">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AL171">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AM171">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="AN171">
-        <v>2.4</v>
+        <v>0.91</v>
       </c>
       <c r="AO171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP171">
-        <v>2.45</v>
+        <v>0.92</v>
       </c>
       <c r="AQ171">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="AR171">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AS171">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AT171">
-        <v>3.06</v>
+        <v>2.71</v>
       </c>
       <c r="AU171">
         <v>3</v>
       </c>
       <c r="AV171">
+        <v>4</v>
+      </c>
+      <c r="AW171">
+        <v>5</v>
+      </c>
+      <c r="AX171">
+        <v>7</v>
+      </c>
+      <c r="AY171">
+        <v>8</v>
+      </c>
+      <c r="AZ171">
+        <v>11</v>
+      </c>
+      <c r="BA171">
+        <v>4</v>
+      </c>
+      <c r="BB171">
+        <v>2</v>
+      </c>
+      <c r="BC171">
         <v>6</v>
       </c>
-      <c r="AW171">
-        <v>6</v>
-      </c>
-      <c r="AX171">
-        <v>2</v>
-      </c>
-      <c r="AY171">
-        <v>9</v>
-      </c>
-      <c r="AZ171">
-        <v>8</v>
-      </c>
-      <c r="BA171">
-        <v>10</v>
-      </c>
-      <c r="BB171">
-        <v>3</v>
-      </c>
-      <c r="BC171">
-        <v>13</v>
-      </c>
       <c r="BD171">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="BE171">
         <v>8</v>
       </c>
       <c r="BF171">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BG171">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BH171">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BI171">
+        <v>1.47</v>
+      </c>
+      <c r="BJ171">
+        <v>2.5</v>
+      </c>
+      <c r="BK171">
+        <v>2.05</v>
+      </c>
+      <c r="BL171">
         <v>1.7</v>
       </c>
-      <c r="BJ171">
-        <v>2.05</v>
-      </c>
-      <c r="BK171">
-        <v>1.9</v>
-      </c>
-      <c r="BL171">
-        <v>1.8</v>
-      </c>
       <c r="BM171">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="BN171">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BO171">
         <v>3.2</v>
@@ -36491,7 +36491,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7446518</v>
+        <v>7446516</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36506,10 +36506,10 @@
         <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H172" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -36530,142 +36530,142 @@
         <v>1</v>
       </c>
       <c r="O172" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P172" t="s">
         <v>93</v>
       </c>
       <c r="Q172">
+        <v>2.4</v>
+      </c>
+      <c r="R172">
+        <v>2.2</v>
+      </c>
+      <c r="S172">
+        <v>4.75</v>
+      </c>
+      <c r="T172">
+        <v>1.4</v>
+      </c>
+      <c r="U172">
         <v>2.75</v>
       </c>
-      <c r="R172">
-        <v>2.05</v>
-      </c>
-      <c r="S172">
-        <v>4.33</v>
-      </c>
-      <c r="T172">
-        <v>1.44</v>
-      </c>
-      <c r="U172">
-        <v>2.63</v>
-      </c>
       <c r="V172">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W172">
+        <v>1.36</v>
+      </c>
+      <c r="X172">
+        <v>8</v>
+      </c>
+      <c r="Y172">
+        <v>1.08</v>
+      </c>
+      <c r="Z172">
+        <v>1.8</v>
+      </c>
+      <c r="AA172">
+        <v>3.4</v>
+      </c>
+      <c r="AB172">
+        <v>3.75</v>
+      </c>
+      <c r="AC172">
+        <v>1.03</v>
+      </c>
+      <c r="AD172">
+        <v>8.4</v>
+      </c>
+      <c r="AE172">
+        <v>1.31</v>
+      </c>
+      <c r="AF172">
+        <v>3.04</v>
+      </c>
+      <c r="AG172">
+        <v>2</v>
+      </c>
+      <c r="AH172">
+        <v>1.73</v>
+      </c>
+      <c r="AI172">
+        <v>1.83</v>
+      </c>
+      <c r="AJ172">
+        <v>1.83</v>
+      </c>
+      <c r="AK172">
+        <v>1.19</v>
+      </c>
+      <c r="AL172">
+        <v>1.26</v>
+      </c>
+      <c r="AM172">
+        <v>1.93</v>
+      </c>
+      <c r="AN172">
+        <v>2.4</v>
+      </c>
+      <c r="AO172">
+        <v>2</v>
+      </c>
+      <c r="AP172">
+        <v>2.45</v>
+      </c>
+      <c r="AQ172">
+        <v>1.82</v>
+      </c>
+      <c r="AR172">
+        <v>1.48</v>
+      </c>
+      <c r="AS172">
+        <v>1.58</v>
+      </c>
+      <c r="AT172">
+        <v>3.06</v>
+      </c>
+      <c r="AU172">
+        <v>3</v>
+      </c>
+      <c r="AV172">
+        <v>6</v>
+      </c>
+      <c r="AW172">
+        <v>6</v>
+      </c>
+      <c r="AX172">
+        <v>2</v>
+      </c>
+      <c r="AY172">
+        <v>9</v>
+      </c>
+      <c r="AZ172">
+        <v>8</v>
+      </c>
+      <c r="BA172">
+        <v>10</v>
+      </c>
+      <c r="BB172">
+        <v>3</v>
+      </c>
+      <c r="BC172">
+        <v>13</v>
+      </c>
+      <c r="BD172">
+        <v>1.5</v>
+      </c>
+      <c r="BE172">
+        <v>8</v>
+      </c>
+      <c r="BF172">
+        <v>3</v>
+      </c>
+      <c r="BG172">
         <v>1.33</v>
       </c>
-      <c r="X172">
-        <v>10</v>
-      </c>
-      <c r="Y172">
-        <v>1.06</v>
-      </c>
-      <c r="Z172">
-        <v>2.1</v>
-      </c>
-      <c r="AA172">
-        <v>3.25</v>
-      </c>
-      <c r="AB172">
-        <v>3.2</v>
-      </c>
-      <c r="AC172">
-        <v>1.05</v>
-      </c>
-      <c r="AD172">
-        <v>8</v>
-      </c>
-      <c r="AE172">
-        <v>1.37</v>
-      </c>
-      <c r="AF172">
-        <v>3.06</v>
-      </c>
-      <c r="AG172">
-        <v>2.15</v>
-      </c>
-      <c r="AH172">
-        <v>1.65</v>
-      </c>
-      <c r="AI172">
-        <v>1.91</v>
-      </c>
-      <c r="AJ172">
-        <v>1.8</v>
-      </c>
-      <c r="AK172">
-        <v>1.28</v>
-      </c>
-      <c r="AL172">
-        <v>1.29</v>
-      </c>
-      <c r="AM172">
-        <v>1.66</v>
-      </c>
-      <c r="AN172">
-        <v>1.6</v>
-      </c>
-      <c r="AO172">
-        <v>1.4</v>
-      </c>
-      <c r="AP172">
-        <v>1.73</v>
-      </c>
-      <c r="AQ172">
-        <v>1.27</v>
-      </c>
-      <c r="AR172">
-        <v>1.58</v>
-      </c>
-      <c r="AS172">
-        <v>1.27</v>
-      </c>
-      <c r="AT172">
-        <v>2.85</v>
-      </c>
-      <c r="AU172">
-        <v>4</v>
-      </c>
-      <c r="AV172">
-        <v>5</v>
-      </c>
-      <c r="AW172">
-        <v>8</v>
-      </c>
-      <c r="AX172">
-        <v>7</v>
-      </c>
-      <c r="AY172">
-        <v>12</v>
-      </c>
-      <c r="AZ172">
-        <v>12</v>
-      </c>
-      <c r="BA172">
-        <v>4</v>
-      </c>
-      <c r="BB172">
-        <v>1</v>
-      </c>
-      <c r="BC172">
-        <v>5</v>
-      </c>
-      <c r="BD172">
-        <v>1.73</v>
-      </c>
-      <c r="BE172">
-        <v>7.5</v>
-      </c>
-      <c r="BF172">
-        <v>2.4</v>
-      </c>
-      <c r="BG172">
-        <v>1.3</v>
-      </c>
       <c r="BH172">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="BI172">
         <v>1.7</v>
@@ -36674,22 +36674,22 @@
         <v>2.05</v>
       </c>
       <c r="BK172">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="BL172">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BM172">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="BN172">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BO172">
-        <v>3.56</v>
+        <v>3.2</v>
       </c>
       <c r="BP172">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -36697,7 +36697,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7446522</v>
+        <v>7446518</v>
       </c>
       <c r="C173" t="s">
         <v>68</v>
@@ -36706,61 +36706,61 @@
         <v>69</v>
       </c>
       <c r="E173" s="2">
-        <v>45501.52083333334</v>
+        <v>45500.72916666666</v>
       </c>
       <c r="F173">
         <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H173" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
       <c r="K173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N173">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O173" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P173" t="s">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c r="Q173">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R173">
         <v>2.05</v>
       </c>
       <c r="S173">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T173">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U173">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V173">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W173">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X173">
         <v>10</v>
@@ -36769,13 +36769,13 @@
         <v>1.06</v>
       </c>
       <c r="Z173">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA173">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AB173">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AC173">
         <v>1.05</v>
@@ -36784,13 +36784,13 @@
         <v>8</v>
       </c>
       <c r="AE173">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AF173">
-        <v>2.8</v>
+        <v>3.06</v>
       </c>
       <c r="AG173">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AH173">
         <v>1.65</v>
@@ -36802,100 +36802,100 @@
         <v>1.8</v>
       </c>
       <c r="AK173">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AL173">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AM173">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="AN173">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AO173">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP173">
+        <v>1.73</v>
+      </c>
+      <c r="AQ173">
+        <v>1.27</v>
+      </c>
+      <c r="AR173">
         <v>1.58</v>
       </c>
-      <c r="AQ173">
-        <v>0.92</v>
-      </c>
-      <c r="AR173">
-        <v>1.11</v>
-      </c>
       <c r="AS173">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="AT173">
-        <v>2.15</v>
+        <v>2.85</v>
       </c>
       <c r="AU173">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV173">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW173">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX173">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY173">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ173">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD173">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="BE173">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF173">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BG173">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="BH173">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="BI173">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="BJ173">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="BK173">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="BL173">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="BM173">
         <v>2.55</v>
       </c>
       <c r="BN173">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="BO173">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="BP173">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="174" spans="1:68">
@@ -36903,7 +36903,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7446520</v>
+        <v>7446522</v>
       </c>
       <c r="C174" t="s">
         <v>68</v>
@@ -36912,94 +36912,94 @@
         <v>69</v>
       </c>
       <c r="E174" s="2">
-        <v>45501.625</v>
+        <v>45501.52083333334</v>
       </c>
       <c r="F174">
         <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H174" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O174" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="Q174">
+        <v>3</v>
+      </c>
+      <c r="R174">
+        <v>2.05</v>
+      </c>
+      <c r="S174">
+        <v>4</v>
+      </c>
+      <c r="T174">
+        <v>1.5</v>
+      </c>
+      <c r="U174">
+        <v>2.5</v>
+      </c>
+      <c r="V174">
+        <v>3.4</v>
+      </c>
+      <c r="W174">
+        <v>1.3</v>
+      </c>
+      <c r="X174">
+        <v>10</v>
+      </c>
+      <c r="Y174">
+        <v>1.06</v>
+      </c>
+      <c r="Z174">
+        <v>2.2</v>
+      </c>
+      <c r="AA174">
+        <v>3.15</v>
+      </c>
+      <c r="AB174">
+        <v>3.25</v>
+      </c>
+      <c r="AC174">
+        <v>1.05</v>
+      </c>
+      <c r="AD174">
+        <v>8</v>
+      </c>
+      <c r="AE174">
+        <v>1.38</v>
+      </c>
+      <c r="AF174">
+        <v>2.8</v>
+      </c>
+      <c r="AG174">
         <v>2.1</v>
       </c>
-      <c r="R174">
-        <v>2.3</v>
-      </c>
-      <c r="S174">
-        <v>6</v>
-      </c>
-      <c r="T174">
-        <v>1.36</v>
-      </c>
-      <c r="U174">
-        <v>3</v>
-      </c>
-      <c r="V174">
-        <v>2.75</v>
-      </c>
-      <c r="W174">
-        <v>1.4</v>
-      </c>
-      <c r="X174">
-        <v>7</v>
-      </c>
-      <c r="Y174">
-        <v>1.1</v>
-      </c>
-      <c r="Z174">
-        <v>1.5</v>
-      </c>
-      <c r="AA174">
-        <v>4.1</v>
-      </c>
-      <c r="AB174">
-        <v>6</v>
-      </c>
-      <c r="AC174">
-        <v>1.01</v>
-      </c>
-      <c r="AD174">
-        <v>9.5</v>
-      </c>
-      <c r="AE174">
-        <v>1.25</v>
-      </c>
-      <c r="AF174">
-        <v>3.42</v>
-      </c>
-      <c r="AG174">
-        <v>1.85</v>
-      </c>
       <c r="AH174">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AI174">
         <v>1.91</v>
@@ -37008,100 +37008,100 @@
         <v>1.8</v>
       </c>
       <c r="AK174">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="AL174">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="AM174">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="AN174">
-        <v>2.36</v>
+        <v>1.45</v>
       </c>
       <c r="AO174">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="AP174">
-        <v>2.42</v>
+        <v>1.58</v>
       </c>
       <c r="AQ174">
-        <v>1.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR174">
-        <v>1.8</v>
+        <v>1.11</v>
       </c>
       <c r="AS174">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="AT174">
-        <v>2.98</v>
+        <v>2.15</v>
       </c>
       <c r="AU174">
+        <v>6</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>3</v>
+      </c>
+      <c r="AX174">
+        <v>8</v>
+      </c>
+      <c r="AY174">
+        <v>9</v>
+      </c>
+      <c r="AZ174">
+        <v>11</v>
+      </c>
+      <c r="BA174">
+        <v>2</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
         <v>4</v>
       </c>
-      <c r="AV174">
-        <v>3</v>
-      </c>
-      <c r="AW174">
-        <v>4</v>
-      </c>
-      <c r="AX174">
-        <v>1</v>
-      </c>
-      <c r="AY174">
-        <v>8</v>
-      </c>
-      <c r="AZ174">
-        <v>4</v>
-      </c>
-      <c r="BA174">
-        <v>8</v>
-      </c>
-      <c r="BB174">
-        <v>7</v>
-      </c>
-      <c r="BC174">
-        <v>15</v>
-      </c>
       <c r="BD174">
-        <v>1.19</v>
+        <v>1.67</v>
       </c>
       <c r="BE174">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF174">
-        <v>5.4</v>
+        <v>2.45</v>
       </c>
       <c r="BG174">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="BH174">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="BI174">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="BJ174">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="BK174">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="BL174">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="BM174">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
       <c r="BN174">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="BO174">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="BP174">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="175" spans="1:68">
@@ -37109,7 +37109,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7446521</v>
+        <v>7446520</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37124,10 +37124,10 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H175" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -37139,175 +37139,175 @@
         <v>1</v>
       </c>
       <c r="L175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
       <c r="N175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P175" t="s">
         <v>93</v>
       </c>
       <c r="Q175">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="R175">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S175">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="T175">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U175">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V175">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W175">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X175">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y175">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z175">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA175">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB175">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="AC175">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD175">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="AE175">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF175">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="AG175">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH175">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AI175">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ175">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK175">
-        <v>1.52</v>
+        <v>1.1</v>
       </c>
       <c r="AL175">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AM175">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="AN175">
-        <v>0.88</v>
+        <v>2.36</v>
       </c>
       <c r="AO175">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AP175">
-        <v>1.11</v>
+        <v>2.42</v>
       </c>
       <c r="AQ175">
-        <v>0.89</v>
+        <v>1.73</v>
       </c>
       <c r="AR175">
-        <v>1.02</v>
+        <v>1.8</v>
       </c>
       <c r="AS175">
+        <v>1.18</v>
+      </c>
+      <c r="AT175">
+        <v>2.98</v>
+      </c>
+      <c r="AU175">
+        <v>4</v>
+      </c>
+      <c r="AV175">
+        <v>3</v>
+      </c>
+      <c r="AW175">
+        <v>4</v>
+      </c>
+      <c r="AX175">
+        <v>1</v>
+      </c>
+      <c r="AY175">
+        <v>8</v>
+      </c>
+      <c r="AZ175">
+        <v>4</v>
+      </c>
+      <c r="BA175">
+        <v>8</v>
+      </c>
+      <c r="BB175">
+        <v>7</v>
+      </c>
+      <c r="BC175">
+        <v>15</v>
+      </c>
+      <c r="BD175">
+        <v>1.19</v>
+      </c>
+      <c r="BE175">
+        <v>10.5</v>
+      </c>
+      <c r="BF175">
+        <v>5.4</v>
+      </c>
+      <c r="BG175">
+        <v>1.32</v>
+      </c>
+      <c r="BH175">
+        <v>2.98</v>
+      </c>
+      <c r="BI175">
         <v>1.59</v>
       </c>
-      <c r="AT175">
-        <v>2.61</v>
-      </c>
-      <c r="AU175">
-        <v>11</v>
-      </c>
-      <c r="AV175">
-        <v>0</v>
-      </c>
-      <c r="AW175">
-        <v>5</v>
-      </c>
-      <c r="AX175">
-        <v>8</v>
-      </c>
-      <c r="AY175">
-        <v>16</v>
-      </c>
-      <c r="AZ175">
-        <v>8</v>
-      </c>
-      <c r="BA175">
-        <v>3</v>
-      </c>
-      <c r="BB175">
-        <v>5</v>
-      </c>
-      <c r="BC175">
-        <v>8</v>
-      </c>
-      <c r="BD175">
-        <v>2</v>
-      </c>
-      <c r="BE175">
-        <v>7.5</v>
-      </c>
-      <c r="BF175">
-        <v>2.1</v>
-      </c>
-      <c r="BG175">
-        <v>1.41</v>
-      </c>
-      <c r="BH175">
-        <v>2.6</v>
-      </c>
-      <c r="BI175">
-        <v>1.8</v>
-      </c>
       <c r="BJ175">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="BK175">
-        <v>2.27</v>
+        <v>1.95</v>
       </c>
       <c r="BL175">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="BM175">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="BN175">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BO175">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="BP175">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37315,7 +37315,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7446519</v>
+        <v>7446521</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37324,40 +37324,40 @@
         <v>69</v>
       </c>
       <c r="E176" s="2">
-        <v>45502.625</v>
+        <v>45501.625</v>
       </c>
       <c r="F176">
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H176" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L176">
         <v>2</v>
       </c>
       <c r="M176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O176" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P176" t="s">
-        <v>292</v>
+        <v>93</v>
       </c>
       <c r="Q176">
         <v>3.6</v>
@@ -37369,16 +37369,16 @@
         <v>3.2</v>
       </c>
       <c r="T176">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U176">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V176">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W176">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X176">
         <v>10</v>
@@ -37393,126 +37393,332 @@
         <v>3.2</v>
       </c>
       <c r="AB176">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AC176">
         <v>1.04</v>
       </c>
       <c r="AD176">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AE176">
+        <v>1.35</v>
+      </c>
+      <c r="AF176">
+        <v>2.84</v>
+      </c>
+      <c r="AG176">
+        <v>2.1</v>
+      </c>
+      <c r="AH176">
+        <v>1.65</v>
+      </c>
+      <c r="AI176">
+        <v>1.83</v>
+      </c>
+      <c r="AJ176">
+        <v>1.83</v>
+      </c>
+      <c r="AK176">
+        <v>1.52</v>
+      </c>
+      <c r="AL176">
+        <v>1.3</v>
+      </c>
+      <c r="AM176">
         <v>1.36</v>
       </c>
-      <c r="AF176">
-        <v>2.78</v>
-      </c>
-      <c r="AG176">
-        <v>1.98</v>
-      </c>
-      <c r="AH176">
-        <v>1.6</v>
-      </c>
-      <c r="AI176">
-        <v>1.91</v>
-      </c>
-      <c r="AJ176">
-        <v>1.8</v>
-      </c>
-      <c r="AK176">
-        <v>1.47</v>
-      </c>
-      <c r="AL176">
-        <v>1.31</v>
-      </c>
-      <c r="AM176">
-        <v>1.39</v>
-      </c>
       <c r="AN176">
-        <v>1.2</v>
+        <v>0.88</v>
       </c>
       <c r="AO176">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ176">
-        <v>1.45</v>
+        <v>0.89</v>
       </c>
       <c r="AR176">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="AS176">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AT176">
-        <v>2.86</v>
+        <v>2.61</v>
       </c>
       <c r="AU176">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW176">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX176">
+        <v>8</v>
+      </c>
+      <c r="AY176">
+        <v>16</v>
+      </c>
+      <c r="AZ176">
+        <v>8</v>
+      </c>
+      <c r="BA176">
+        <v>3</v>
+      </c>
+      <c r="BB176">
         <v>5</v>
-      </c>
-      <c r="AY176">
-        <v>9</v>
-      </c>
-      <c r="AZ176">
-        <v>9</v>
-      </c>
-      <c r="BA176">
-        <v>5</v>
-      </c>
-      <c r="BB176">
-        <v>3</v>
       </c>
       <c r="BC176">
         <v>8</v>
       </c>
       <c r="BD176">
+        <v>2</v>
+      </c>
+      <c r="BE176">
+        <v>7.5</v>
+      </c>
+      <c r="BF176">
+        <v>2.1</v>
+      </c>
+      <c r="BG176">
+        <v>1.41</v>
+      </c>
+      <c r="BH176">
+        <v>2.6</v>
+      </c>
+      <c r="BI176">
+        <v>1.8</v>
+      </c>
+      <c r="BJ176">
+        <v>2</v>
+      </c>
+      <c r="BK176">
+        <v>2.27</v>
+      </c>
+      <c r="BL176">
+        <v>1.53</v>
+      </c>
+      <c r="BM176">
+        <v>3.08</v>
+      </c>
+      <c r="BN176">
+        <v>1.3</v>
+      </c>
+      <c r="BO176">
+        <v>4.6</v>
+      </c>
+      <c r="BP176">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7446519</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45502.625</v>
+      </c>
+      <c r="F177">
+        <v>7</v>
+      </c>
+      <c r="G177" t="s">
+        <v>77</v>
+      </c>
+      <c r="H177" t="s">
+        <v>75</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>2</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177" t="s">
+        <v>202</v>
+      </c>
+      <c r="P177" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q177">
+        <v>3.6</v>
+      </c>
+      <c r="R177">
+        <v>2.05</v>
+      </c>
+      <c r="S177">
+        <v>3.2</v>
+      </c>
+      <c r="T177">
+        <v>1.5</v>
+      </c>
+      <c r="U177">
+        <v>2.5</v>
+      </c>
+      <c r="V177">
+        <v>3.4</v>
+      </c>
+      <c r="W177">
+        <v>1.3</v>
+      </c>
+      <c r="X177">
+        <v>10</v>
+      </c>
+      <c r="Y177">
+        <v>1.06</v>
+      </c>
+      <c r="Z177">
+        <v>2.75</v>
+      </c>
+      <c r="AA177">
+        <v>3.2</v>
+      </c>
+      <c r="AB177">
+        <v>2.4</v>
+      </c>
+      <c r="AC177">
+        <v>1.04</v>
+      </c>
+      <c r="AD177">
+        <v>7.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.36</v>
+      </c>
+      <c r="AF177">
+        <v>2.78</v>
+      </c>
+      <c r="AG177">
+        <v>1.98</v>
+      </c>
+      <c r="AH177">
+        <v>1.6</v>
+      </c>
+      <c r="AI177">
+        <v>1.91</v>
+      </c>
+      <c r="AJ177">
+        <v>1.8</v>
+      </c>
+      <c r="AK177">
+        <v>1.47</v>
+      </c>
+      <c r="AL177">
+        <v>1.31</v>
+      </c>
+      <c r="AM177">
+        <v>1.39</v>
+      </c>
+      <c r="AN177">
+        <v>1.2</v>
+      </c>
+      <c r="AO177">
+        <v>1.5</v>
+      </c>
+      <c r="AP177">
+        <v>1.18</v>
+      </c>
+      <c r="AQ177">
+        <v>1.45</v>
+      </c>
+      <c r="AR177">
+        <v>1.41</v>
+      </c>
+      <c r="AS177">
+        <v>1.45</v>
+      </c>
+      <c r="AT177">
+        <v>2.86</v>
+      </c>
+      <c r="AU177">
+        <v>7</v>
+      </c>
+      <c r="AV177">
+        <v>4</v>
+      </c>
+      <c r="AW177">
+        <v>2</v>
+      </c>
+      <c r="AX177">
+        <v>5</v>
+      </c>
+      <c r="AY177">
+        <v>9</v>
+      </c>
+      <c r="AZ177">
+        <v>9</v>
+      </c>
+      <c r="BA177">
+        <v>5</v>
+      </c>
+      <c r="BB177">
+        <v>3</v>
+      </c>
+      <c r="BC177">
+        <v>8</v>
+      </c>
+      <c r="BD177">
         <v>2.14</v>
       </c>
-      <c r="BE176">
+      <c r="BE177">
         <v>6.25</v>
       </c>
-      <c r="BF176">
+      <c r="BF177">
         <v>2.04</v>
       </c>
-      <c r="BG176">
+      <c r="BG177">
         <v>1.24</v>
       </c>
-      <c r="BH176">
+      <c r="BH177">
         <v>3.48</v>
       </c>
-      <c r="BI176">
+      <c r="BI177">
         <v>1.5</v>
       </c>
-      <c r="BJ176">
+      <c r="BJ177">
         <v>2.52</v>
       </c>
-      <c r="BK176">
-        <v>2</v>
-      </c>
-      <c r="BL176">
+      <c r="BK177">
+        <v>2</v>
+      </c>
+      <c r="BL177">
         <v>1.8</v>
       </c>
-      <c r="BM176">
+      <c r="BM177">
         <v>2.31</v>
       </c>
-      <c r="BN176">
+      <c r="BN177">
         <v>1.59</v>
       </c>
-      <c r="BO176">
+      <c r="BO177">
         <v>3.08</v>
       </c>
-      <c r="BP176">
+      <c r="BP177">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -616,10 +616,10 @@
     <t>['1', '22', '50', '67']</t>
   </si>
   <si>
-    <t>['16']</t>
+    <t>['42', '66']</t>
   </si>
   <si>
-    <t>['42', '66']</t>
+    <t>['16']</t>
   </si>
   <si>
     <t>['55', '75']</t>
@@ -37109,7 +37109,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7446520</v>
+        <v>7446521</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37124,10 +37124,10 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H175" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -37139,13 +37139,13 @@
         <v>1</v>
       </c>
       <c r="L175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O175" t="s">
         <v>200</v>
@@ -37154,160 +37154,160 @@
         <v>93</v>
       </c>
       <c r="Q175">
+        <v>3.6</v>
+      </c>
+      <c r="R175">
+        <v>2.05</v>
+      </c>
+      <c r="S175">
+        <v>3.2</v>
+      </c>
+      <c r="T175">
+        <v>1.44</v>
+      </c>
+      <c r="U175">
+        <v>2.63</v>
+      </c>
+      <c r="V175">
+        <v>3.25</v>
+      </c>
+      <c r="W175">
+        <v>1.33</v>
+      </c>
+      <c r="X175">
+        <v>10</v>
+      </c>
+      <c r="Y175">
+        <v>1.06</v>
+      </c>
+      <c r="Z175">
+        <v>2.75</v>
+      </c>
+      <c r="AA175">
+        <v>3.2</v>
+      </c>
+      <c r="AB175">
+        <v>2.45</v>
+      </c>
+      <c r="AC175">
+        <v>1.04</v>
+      </c>
+      <c r="AD175">
+        <v>7.8</v>
+      </c>
+      <c r="AE175">
+        <v>1.35</v>
+      </c>
+      <c r="AF175">
+        <v>2.84</v>
+      </c>
+      <c r="AG175">
         <v>2.1</v>
       </c>
-      <c r="R175">
-        <v>2.3</v>
-      </c>
-      <c r="S175">
-        <v>6</v>
-      </c>
-      <c r="T175">
+      <c r="AH175">
+        <v>1.65</v>
+      </c>
+      <c r="AI175">
+        <v>1.83</v>
+      </c>
+      <c r="AJ175">
+        <v>1.83</v>
+      </c>
+      <c r="AK175">
+        <v>1.52</v>
+      </c>
+      <c r="AL175">
+        <v>1.3</v>
+      </c>
+      <c r="AM175">
         <v>1.36</v>
       </c>
-      <c r="U175">
-        <v>3</v>
-      </c>
-      <c r="V175">
-        <v>2.75</v>
-      </c>
-      <c r="W175">
-        <v>1.4</v>
-      </c>
-      <c r="X175">
-        <v>7</v>
-      </c>
-      <c r="Y175">
-        <v>1.1</v>
-      </c>
-      <c r="Z175">
-        <v>1.5</v>
-      </c>
-      <c r="AA175">
-        <v>4.1</v>
-      </c>
-      <c r="AB175">
-        <v>6</v>
-      </c>
-      <c r="AC175">
-        <v>1.01</v>
-      </c>
-      <c r="AD175">
-        <v>9.5</v>
-      </c>
-      <c r="AE175">
-        <v>1.25</v>
-      </c>
-      <c r="AF175">
-        <v>3.42</v>
-      </c>
-      <c r="AG175">
-        <v>1.85</v>
-      </c>
-      <c r="AH175">
-        <v>1.85</v>
-      </c>
-      <c r="AI175">
-        <v>1.91</v>
-      </c>
-      <c r="AJ175">
+      <c r="AN175">
+        <v>0.88</v>
+      </c>
+      <c r="AO175">
+        <v>1</v>
+      </c>
+      <c r="AP175">
+        <v>1.11</v>
+      </c>
+      <c r="AQ175">
+        <v>0.89</v>
+      </c>
+      <c r="AR175">
+        <v>1.02</v>
+      </c>
+      <c r="AS175">
+        <v>1.59</v>
+      </c>
+      <c r="AT175">
+        <v>2.61</v>
+      </c>
+      <c r="AU175">
+        <v>11</v>
+      </c>
+      <c r="AV175">
+        <v>0</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>8</v>
+      </c>
+      <c r="AY175">
+        <v>16</v>
+      </c>
+      <c r="AZ175">
+        <v>8</v>
+      </c>
+      <c r="BA175">
+        <v>3</v>
+      </c>
+      <c r="BB175">
+        <v>5</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>2</v>
+      </c>
+      <c r="BE175">
+        <v>7.5</v>
+      </c>
+      <c r="BF175">
+        <v>2.1</v>
+      </c>
+      <c r="BG175">
+        <v>1.41</v>
+      </c>
+      <c r="BH175">
+        <v>2.6</v>
+      </c>
+      <c r="BI175">
         <v>1.8</v>
       </c>
-      <c r="AK175">
-        <v>1.1</v>
-      </c>
-      <c r="AL175">
-        <v>1.19</v>
-      </c>
-      <c r="AM175">
-        <v>2.4</v>
-      </c>
-      <c r="AN175">
-        <v>2.36</v>
-      </c>
-      <c r="AO175">
-        <v>1.9</v>
-      </c>
-      <c r="AP175">
-        <v>2.42</v>
-      </c>
-      <c r="AQ175">
-        <v>1.73</v>
-      </c>
-      <c r="AR175">
-        <v>1.8</v>
-      </c>
-      <c r="AS175">
+      <c r="BJ175">
+        <v>2</v>
+      </c>
+      <c r="BK175">
+        <v>2.27</v>
+      </c>
+      <c r="BL175">
+        <v>1.53</v>
+      </c>
+      <c r="BM175">
+        <v>3.08</v>
+      </c>
+      <c r="BN175">
+        <v>1.3</v>
+      </c>
+      <c r="BO175">
+        <v>4.6</v>
+      </c>
+      <c r="BP175">
         <v>1.18</v>
-      </c>
-      <c r="AT175">
-        <v>2.98</v>
-      </c>
-      <c r="AU175">
-        <v>4</v>
-      </c>
-      <c r="AV175">
-        <v>3</v>
-      </c>
-      <c r="AW175">
-        <v>4</v>
-      </c>
-      <c r="AX175">
-        <v>1</v>
-      </c>
-      <c r="AY175">
-        <v>8</v>
-      </c>
-      <c r="AZ175">
-        <v>4</v>
-      </c>
-      <c r="BA175">
-        <v>8</v>
-      </c>
-      <c r="BB175">
-        <v>7</v>
-      </c>
-      <c r="BC175">
-        <v>15</v>
-      </c>
-      <c r="BD175">
-        <v>1.19</v>
-      </c>
-      <c r="BE175">
-        <v>10.5</v>
-      </c>
-      <c r="BF175">
-        <v>5.4</v>
-      </c>
-      <c r="BG175">
-        <v>1.32</v>
-      </c>
-      <c r="BH175">
-        <v>2.98</v>
-      </c>
-      <c r="BI175">
-        <v>1.59</v>
-      </c>
-      <c r="BJ175">
-        <v>2.16</v>
-      </c>
-      <c r="BK175">
-        <v>1.95</v>
-      </c>
-      <c r="BL175">
-        <v>1.77</v>
-      </c>
-      <c r="BM175">
-        <v>2.64</v>
-      </c>
-      <c r="BN175">
-        <v>1.4</v>
-      </c>
-      <c r="BO175">
-        <v>3.65</v>
-      </c>
-      <c r="BP175">
-        <v>1.22</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37315,7 +37315,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7446521</v>
+        <v>7446520</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37330,10 +37330,10 @@
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H176" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -37345,13 +37345,13 @@
         <v>1</v>
       </c>
       <c r="L176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M176">
         <v>0</v>
       </c>
       <c r="N176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O176" t="s">
         <v>201</v>
@@ -37360,160 +37360,160 @@
         <v>93</v>
       </c>
       <c r="Q176">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S176">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="T176">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U176">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V176">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W176">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X176">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y176">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z176">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA176">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB176">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="AC176">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD176">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="AE176">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF176">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="AG176">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH176">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AI176">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ176">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK176">
-        <v>1.52</v>
+        <v>1.1</v>
       </c>
       <c r="AL176">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AM176">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="AN176">
-        <v>0.88</v>
+        <v>2.36</v>
       </c>
       <c r="AO176">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AP176">
-        <v>1.11</v>
+        <v>2.42</v>
       </c>
       <c r="AQ176">
-        <v>0.89</v>
+        <v>1.73</v>
       </c>
       <c r="AR176">
-        <v>1.02</v>
+        <v>1.8</v>
       </c>
       <c r="AS176">
+        <v>1.18</v>
+      </c>
+      <c r="AT176">
+        <v>2.98</v>
+      </c>
+      <c r="AU176">
+        <v>4</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
+        <v>1</v>
+      </c>
+      <c r="AY176">
+        <v>8</v>
+      </c>
+      <c r="AZ176">
+        <v>4</v>
+      </c>
+      <c r="BA176">
+        <v>8</v>
+      </c>
+      <c r="BB176">
+        <v>7</v>
+      </c>
+      <c r="BC176">
+        <v>15</v>
+      </c>
+      <c r="BD176">
+        <v>1.19</v>
+      </c>
+      <c r="BE176">
+        <v>10.5</v>
+      </c>
+      <c r="BF176">
+        <v>5.4</v>
+      </c>
+      <c r="BG176">
+        <v>1.32</v>
+      </c>
+      <c r="BH176">
+        <v>2.98</v>
+      </c>
+      <c r="BI176">
         <v>1.59</v>
       </c>
-      <c r="AT176">
-        <v>2.61</v>
-      </c>
-      <c r="AU176">
-        <v>11</v>
-      </c>
-      <c r="AV176">
-        <v>0</v>
-      </c>
-      <c r="AW176">
-        <v>5</v>
-      </c>
-      <c r="AX176">
-        <v>8</v>
-      </c>
-      <c r="AY176">
-        <v>16</v>
-      </c>
-      <c r="AZ176">
-        <v>8</v>
-      </c>
-      <c r="BA176">
-        <v>3</v>
-      </c>
-      <c r="BB176">
-        <v>5</v>
-      </c>
-      <c r="BC176">
-        <v>8</v>
-      </c>
-      <c r="BD176">
-        <v>2</v>
-      </c>
-      <c r="BE176">
-        <v>7.5</v>
-      </c>
-      <c r="BF176">
-        <v>2.1</v>
-      </c>
-      <c r="BG176">
-        <v>1.41</v>
-      </c>
-      <c r="BH176">
-        <v>2.6</v>
-      </c>
-      <c r="BI176">
-        <v>1.8</v>
-      </c>
       <c r="BJ176">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="BK176">
-        <v>2.27</v>
+        <v>1.95</v>
       </c>
       <c r="BL176">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="BM176">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="BN176">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BO176">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="BP176">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="177" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -623,6 +623,9 @@
   </si>
   <si>
     <t>['55', '75']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1254,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1516,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1591,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ2">
         <v>0.82</v>
@@ -1719,7 +1722,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1925,7 +1928,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2131,7 +2134,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2543,7 +2546,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2749,7 +2752,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2830,7 +2833,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ8">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2955,7 +2958,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -4397,7 +4400,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4603,7 +4606,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4809,7 +4812,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5299,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ20">
         <v>1.09</v>
@@ -5427,7 +5430,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5633,7 +5636,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5839,7 +5842,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5920,7 +5923,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ23">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6045,7 +6048,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6251,7 +6254,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6663,7 +6666,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6869,7 +6872,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7075,7 +7078,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -8105,7 +8108,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8186,7 +8189,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ34">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -8311,7 +8314,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8595,7 +8598,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8929,7 +8932,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -9135,7 +9138,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9341,7 +9344,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9547,7 +9550,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10165,7 +10168,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10783,7 +10786,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10989,7 +10992,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11195,7 +11198,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11401,7 +11404,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11607,7 +11610,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11813,7 +11816,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12097,7 +12100,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ53">
         <v>1.62</v>
@@ -12431,7 +12434,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12637,7 +12640,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12718,7 +12721,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ56">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -13255,7 +13258,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13667,7 +13670,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -14079,7 +14082,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14285,7 +14288,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14903,7 +14906,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15109,7 +15112,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15190,7 +15193,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ68">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15315,7 +15318,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15393,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ69">
         <v>0.92</v>
@@ -15521,7 +15524,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15727,7 +15730,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15933,7 +15936,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16139,7 +16142,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16345,7 +16348,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16757,7 +16760,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17169,7 +17172,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17375,7 +17378,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17993,7 +17996,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18199,7 +18202,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18280,7 +18283,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18405,7 +18408,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18483,7 +18486,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ84">
         <v>1.45</v>
@@ -18611,7 +18614,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -19023,7 +19026,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19229,7 +19232,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19641,7 +19644,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19719,7 +19722,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ90">
         <v>1.2</v>
@@ -20259,7 +20262,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20671,7 +20674,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20877,7 +20880,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21083,7 +21086,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21495,7 +21498,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21701,7 +21704,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21782,7 +21785,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ100">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR100">
         <v>1.43</v>
@@ -22525,7 +22528,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22731,7 +22734,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23143,7 +23146,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23555,7 +23558,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23839,7 +23842,7 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ110">
         <v>1.38</v>
@@ -23967,7 +23970,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24379,7 +24382,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24791,7 +24794,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24997,7 +25000,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25078,7 +25081,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ116">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR116">
         <v>1.25</v>
@@ -25409,7 +25412,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25615,7 +25618,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26027,7 +26030,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26233,7 +26236,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26439,7 +26442,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26726,7 +26729,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ124">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -26851,7 +26854,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27057,7 +27060,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -28293,7 +28296,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28371,7 +28374,7 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ132">
         <v>0.89</v>
@@ -29117,7 +29120,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29323,7 +29326,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29735,7 +29738,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29941,7 +29944,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30147,7 +30150,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30228,7 +30231,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ141">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -30559,7 +30562,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30765,7 +30768,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30971,7 +30974,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -32001,7 +32004,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32285,7 +32288,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ151">
         <v>0.92</v>
@@ -32413,7 +32416,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32619,7 +32622,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -33031,7 +33034,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33237,7 +33240,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33649,7 +33652,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q158">
         <v>3.14</v>
@@ -33855,7 +33858,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34061,7 +34064,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34142,7 +34145,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ160">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR160">
         <v>1.5</v>
@@ -34267,7 +34270,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34679,7 +34682,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34885,7 +34888,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35169,7 +35172,7 @@
         <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35297,7 +35300,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35915,7 +35918,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36945,7 +36948,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37435,7 +37438,7 @@
         <v>1.9</v>
       </c>
       <c r="AP176">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ176">
         <v>1.73</v>
@@ -37563,7 +37566,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q177">
         <v>3.6</v>
@@ -37720,6 +37723,212 @@
       </c>
       <c r="BP177">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7587190</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45508.625</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>70</v>
+      </c>
+      <c r="H178" t="s">
+        <v>80</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>203</v>
+      </c>
+      <c r="P178" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q178">
+        <v>3.5</v>
+      </c>
+      <c r="R178">
+        <v>2.1</v>
+      </c>
+      <c r="S178">
+        <v>3.2</v>
+      </c>
+      <c r="T178">
+        <v>1.44</v>
+      </c>
+      <c r="U178">
+        <v>2.63</v>
+      </c>
+      <c r="V178">
+        <v>3.25</v>
+      </c>
+      <c r="W178">
+        <v>1.33</v>
+      </c>
+      <c r="X178">
+        <v>9</v>
+      </c>
+      <c r="Y178">
+        <v>1.07</v>
+      </c>
+      <c r="Z178">
+        <v>2.67</v>
+      </c>
+      <c r="AA178">
+        <v>3.23</v>
+      </c>
+      <c r="AB178">
+        <v>2.82</v>
+      </c>
+      <c r="AC178">
+        <v>1.07</v>
+      </c>
+      <c r="AD178">
+        <v>7.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.36</v>
+      </c>
+      <c r="AF178">
+        <v>3</v>
+      </c>
+      <c r="AG178">
+        <v>2.1</v>
+      </c>
+      <c r="AH178">
+        <v>1.65</v>
+      </c>
+      <c r="AI178">
+        <v>1.8</v>
+      </c>
+      <c r="AJ178">
+        <v>1.91</v>
+      </c>
+      <c r="AK178">
+        <v>1.5</v>
+      </c>
+      <c r="AL178">
+        <v>1.3</v>
+      </c>
+      <c r="AM178">
+        <v>1.38</v>
+      </c>
+      <c r="AN178">
+        <v>2.27</v>
+      </c>
+      <c r="AO178">
+        <v>2.5</v>
+      </c>
+      <c r="AP178">
+        <v>2.22</v>
+      </c>
+      <c r="AQ178">
+        <v>2.43</v>
+      </c>
+      <c r="AR178">
+        <v>1.7</v>
+      </c>
+      <c r="AS178">
+        <v>1.47</v>
+      </c>
+      <c r="AT178">
+        <v>3.17</v>
+      </c>
+      <c r="AU178">
+        <v>3</v>
+      </c>
+      <c r="AV178">
+        <v>0</v>
+      </c>
+      <c r="AW178">
+        <v>7</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>10</v>
+      </c>
+      <c r="AZ178">
+        <v>4</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>3</v>
+      </c>
+      <c r="BC178">
+        <v>7</v>
+      </c>
+      <c r="BD178">
+        <v>2.1</v>
+      </c>
+      <c r="BE178">
+        <v>7.5</v>
+      </c>
+      <c r="BF178">
+        <v>1.95</v>
+      </c>
+      <c r="BG178">
+        <v>1.35</v>
+      </c>
+      <c r="BH178">
+        <v>2.95</v>
+      </c>
+      <c r="BI178">
+        <v>1.7</v>
+      </c>
+      <c r="BJ178">
+        <v>2.03</v>
+      </c>
+      <c r="BK178">
+        <v>2.2</v>
+      </c>
+      <c r="BL178">
+        <v>1.6</v>
+      </c>
+      <c r="BM178">
+        <v>3</v>
+      </c>
+      <c r="BN178">
+        <v>1.34</v>
+      </c>
+      <c r="BO178">
+        <v>3.9</v>
+      </c>
+      <c r="BP178">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -37865,22 +37865,22 @@
         <v>3.17</v>
       </c>
       <c r="AU178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW178">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX178">
         <v>4</v>
       </c>
       <c r="AY178">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ178">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA178">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -616,10 +616,10 @@
     <t>['1', '22', '50', '67']</t>
   </si>
   <si>
-    <t>['42', '66']</t>
+    <t>['16']</t>
   </si>
   <si>
-    <t>['16']</t>
+    <t>['42', '66']</t>
   </si>
   <si>
     <t>['55', '75']</t>
@@ -37112,7 +37112,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7446521</v>
+        <v>7446520</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37127,10 +37127,10 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H175" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -37142,13 +37142,13 @@
         <v>1</v>
       </c>
       <c r="L175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
       <c r="N175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O175" t="s">
         <v>200</v>
@@ -37157,160 +37157,160 @@
         <v>93</v>
       </c>
       <c r="Q175">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="R175">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S175">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="T175">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U175">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V175">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W175">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X175">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y175">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z175">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA175">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB175">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="AC175">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD175">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="AE175">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF175">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="AG175">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH175">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AI175">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ175">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK175">
-        <v>1.52</v>
+        <v>1.1</v>
       </c>
       <c r="AL175">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AM175">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="AN175">
-        <v>0.88</v>
+        <v>2.36</v>
       </c>
       <c r="AO175">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AP175">
-        <v>1.11</v>
+        <v>2.31</v>
       </c>
       <c r="AQ175">
-        <v>0.89</v>
+        <v>1.73</v>
       </c>
       <c r="AR175">
-        <v>1.02</v>
+        <v>1.8</v>
       </c>
       <c r="AS175">
+        <v>1.18</v>
+      </c>
+      <c r="AT175">
+        <v>2.98</v>
+      </c>
+      <c r="AU175">
+        <v>4</v>
+      </c>
+      <c r="AV175">
+        <v>3</v>
+      </c>
+      <c r="AW175">
+        <v>4</v>
+      </c>
+      <c r="AX175">
+        <v>1</v>
+      </c>
+      <c r="AY175">
+        <v>8</v>
+      </c>
+      <c r="AZ175">
+        <v>4</v>
+      </c>
+      <c r="BA175">
+        <v>8</v>
+      </c>
+      <c r="BB175">
+        <v>7</v>
+      </c>
+      <c r="BC175">
+        <v>15</v>
+      </c>
+      <c r="BD175">
+        <v>1.19</v>
+      </c>
+      <c r="BE175">
+        <v>10.5</v>
+      </c>
+      <c r="BF175">
+        <v>5.4</v>
+      </c>
+      <c r="BG175">
+        <v>1.32</v>
+      </c>
+      <c r="BH175">
+        <v>2.98</v>
+      </c>
+      <c r="BI175">
         <v>1.59</v>
       </c>
-      <c r="AT175">
-        <v>2.61</v>
-      </c>
-      <c r="AU175">
-        <v>11</v>
-      </c>
-      <c r="AV175">
-        <v>0</v>
-      </c>
-      <c r="AW175">
-        <v>5</v>
-      </c>
-      <c r="AX175">
-        <v>8</v>
-      </c>
-      <c r="AY175">
-        <v>16</v>
-      </c>
-      <c r="AZ175">
-        <v>8</v>
-      </c>
-      <c r="BA175">
-        <v>3</v>
-      </c>
-      <c r="BB175">
-        <v>5</v>
-      </c>
-      <c r="BC175">
-        <v>8</v>
-      </c>
-      <c r="BD175">
-        <v>2</v>
-      </c>
-      <c r="BE175">
-        <v>7.5</v>
-      </c>
-      <c r="BF175">
-        <v>2.1</v>
-      </c>
-      <c r="BG175">
-        <v>1.41</v>
-      </c>
-      <c r="BH175">
-        <v>2.6</v>
-      </c>
-      <c r="BI175">
-        <v>1.8</v>
-      </c>
       <c r="BJ175">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="BK175">
-        <v>2.27</v>
+        <v>1.95</v>
       </c>
       <c r="BL175">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="BM175">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="BN175">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BO175">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="BP175">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37318,7 +37318,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7446520</v>
+        <v>7446521</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37333,10 +37333,10 @@
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H176" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -37348,13 +37348,13 @@
         <v>1</v>
       </c>
       <c r="L176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M176">
         <v>0</v>
       </c>
       <c r="N176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O176" t="s">
         <v>201</v>
@@ -37363,160 +37363,160 @@
         <v>93</v>
       </c>
       <c r="Q176">
+        <v>3.6</v>
+      </c>
+      <c r="R176">
+        <v>2.05</v>
+      </c>
+      <c r="S176">
+        <v>3.2</v>
+      </c>
+      <c r="T176">
+        <v>1.44</v>
+      </c>
+      <c r="U176">
+        <v>2.63</v>
+      </c>
+      <c r="V176">
+        <v>3.25</v>
+      </c>
+      <c r="W176">
+        <v>1.33</v>
+      </c>
+      <c r="X176">
+        <v>10</v>
+      </c>
+      <c r="Y176">
+        <v>1.06</v>
+      </c>
+      <c r="Z176">
+        <v>2.75</v>
+      </c>
+      <c r="AA176">
+        <v>3.2</v>
+      </c>
+      <c r="AB176">
+        <v>2.45</v>
+      </c>
+      <c r="AC176">
+        <v>1.04</v>
+      </c>
+      <c r="AD176">
+        <v>7.8</v>
+      </c>
+      <c r="AE176">
+        <v>1.35</v>
+      </c>
+      <c r="AF176">
+        <v>2.84</v>
+      </c>
+      <c r="AG176">
         <v>2.1</v>
       </c>
-      <c r="R176">
-        <v>2.3</v>
-      </c>
-      <c r="S176">
-        <v>6</v>
-      </c>
-      <c r="T176">
+      <c r="AH176">
+        <v>1.65</v>
+      </c>
+      <c r="AI176">
+        <v>1.83</v>
+      </c>
+      <c r="AJ176">
+        <v>1.83</v>
+      </c>
+      <c r="AK176">
+        <v>1.52</v>
+      </c>
+      <c r="AL176">
+        <v>1.3</v>
+      </c>
+      <c r="AM176">
         <v>1.36</v>
       </c>
-      <c r="U176">
-        <v>3</v>
-      </c>
-      <c r="V176">
-        <v>2.75</v>
-      </c>
-      <c r="W176">
-        <v>1.4</v>
-      </c>
-      <c r="X176">
-        <v>7</v>
-      </c>
-      <c r="Y176">
-        <v>1.1</v>
-      </c>
-      <c r="Z176">
-        <v>1.5</v>
-      </c>
-      <c r="AA176">
-        <v>4.1</v>
-      </c>
-      <c r="AB176">
-        <v>6</v>
-      </c>
-      <c r="AC176">
-        <v>1.01</v>
-      </c>
-      <c r="AD176">
-        <v>9.5</v>
-      </c>
-      <c r="AE176">
-        <v>1.25</v>
-      </c>
-      <c r="AF176">
-        <v>3.42</v>
-      </c>
-      <c r="AG176">
-        <v>1.85</v>
-      </c>
-      <c r="AH176">
-        <v>1.85</v>
-      </c>
-      <c r="AI176">
-        <v>1.91</v>
-      </c>
-      <c r="AJ176">
+      <c r="AN176">
+        <v>0.88</v>
+      </c>
+      <c r="AO176">
+        <v>1</v>
+      </c>
+      <c r="AP176">
+        <v>1.11</v>
+      </c>
+      <c r="AQ176">
+        <v>0.89</v>
+      </c>
+      <c r="AR176">
+        <v>1.02</v>
+      </c>
+      <c r="AS176">
+        <v>1.59</v>
+      </c>
+      <c r="AT176">
+        <v>2.61</v>
+      </c>
+      <c r="AU176">
+        <v>11</v>
+      </c>
+      <c r="AV176">
+        <v>0</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>8</v>
+      </c>
+      <c r="AY176">
+        <v>16</v>
+      </c>
+      <c r="AZ176">
+        <v>8</v>
+      </c>
+      <c r="BA176">
+        <v>3</v>
+      </c>
+      <c r="BB176">
+        <v>5</v>
+      </c>
+      <c r="BC176">
+        <v>8</v>
+      </c>
+      <c r="BD176">
+        <v>2</v>
+      </c>
+      <c r="BE176">
+        <v>7.5</v>
+      </c>
+      <c r="BF176">
+        <v>2.1</v>
+      </c>
+      <c r="BG176">
+        <v>1.41</v>
+      </c>
+      <c r="BH176">
+        <v>2.6</v>
+      </c>
+      <c r="BI176">
         <v>1.8</v>
       </c>
-      <c r="AK176">
-        <v>1.1</v>
-      </c>
-      <c r="AL176">
-        <v>1.19</v>
-      </c>
-      <c r="AM176">
-        <v>2.4</v>
-      </c>
-      <c r="AN176">
-        <v>2.36</v>
-      </c>
-      <c r="AO176">
-        <v>1.9</v>
-      </c>
-      <c r="AP176">
-        <v>2.31</v>
-      </c>
-      <c r="AQ176">
-        <v>1.73</v>
-      </c>
-      <c r="AR176">
-        <v>1.8</v>
-      </c>
-      <c r="AS176">
+      <c r="BJ176">
+        <v>2</v>
+      </c>
+      <c r="BK176">
+        <v>2.27</v>
+      </c>
+      <c r="BL176">
+        <v>1.53</v>
+      </c>
+      <c r="BM176">
+        <v>3.08</v>
+      </c>
+      <c r="BN176">
+        <v>1.3</v>
+      </c>
+      <c r="BO176">
+        <v>4.6</v>
+      </c>
+      <c r="BP176">
         <v>1.18</v>
-      </c>
-      <c r="AT176">
-        <v>2.98</v>
-      </c>
-      <c r="AU176">
-        <v>4</v>
-      </c>
-      <c r="AV176">
-        <v>3</v>
-      </c>
-      <c r="AW176">
-        <v>4</v>
-      </c>
-      <c r="AX176">
-        <v>1</v>
-      </c>
-      <c r="AY176">
-        <v>8</v>
-      </c>
-      <c r="AZ176">
-        <v>4</v>
-      </c>
-      <c r="BA176">
-        <v>8</v>
-      </c>
-      <c r="BB176">
-        <v>7</v>
-      </c>
-      <c r="BC176">
-        <v>15</v>
-      </c>
-      <c r="BD176">
-        <v>1.19</v>
-      </c>
-      <c r="BE176">
-        <v>10.5</v>
-      </c>
-      <c r="BF176">
-        <v>5.4</v>
-      </c>
-      <c r="BG176">
-        <v>1.32</v>
-      </c>
-      <c r="BH176">
-        <v>2.98</v>
-      </c>
-      <c r="BI176">
-        <v>1.59</v>
-      </c>
-      <c r="BJ176">
-        <v>2.16</v>
-      </c>
-      <c r="BK176">
-        <v>1.95</v>
-      </c>
-      <c r="BL176">
-        <v>1.77</v>
-      </c>
-      <c r="BM176">
-        <v>2.64</v>
-      </c>
-      <c r="BN176">
-        <v>1.4</v>
-      </c>
-      <c r="BO176">
-        <v>3.65</v>
-      </c>
-      <c r="BP176">
-        <v>1.22</v>
       </c>
     </row>
     <row r="177" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -607,10 +607,10 @@
     <t>['37']</t>
   </si>
   <si>
-    <t>['90+1']</t>
+    <t>['80']</t>
   </si>
   <si>
-    <t>['80']</t>
+    <t>['90+1']</t>
   </si>
   <si>
     <t>['1', '22', '50', '67']</t>
@@ -28708,7 +28708,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q134">
         <v>2.91</v>
@@ -32210,7 +32210,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q151">
         <v>1.75</v>
@@ -36494,7 +36494,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7446516</v>
+        <v>7446518</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36509,10 +36509,10 @@
         <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H172" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -36539,136 +36539,136 @@
         <v>93</v>
       </c>
       <c r="Q172">
+        <v>2.75</v>
+      </c>
+      <c r="R172">
+        <v>2.05</v>
+      </c>
+      <c r="S172">
+        <v>4.33</v>
+      </c>
+      <c r="T172">
+        <v>1.44</v>
+      </c>
+      <c r="U172">
+        <v>2.63</v>
+      </c>
+      <c r="V172">
+        <v>3.25</v>
+      </c>
+      <c r="W172">
+        <v>1.33</v>
+      </c>
+      <c r="X172">
+        <v>10</v>
+      </c>
+      <c r="Y172">
+        <v>1.06</v>
+      </c>
+      <c r="Z172">
+        <v>2.1</v>
+      </c>
+      <c r="AA172">
+        <v>3.25</v>
+      </c>
+      <c r="AB172">
+        <v>3.2</v>
+      </c>
+      <c r="AC172">
+        <v>1.05</v>
+      </c>
+      <c r="AD172">
+        <v>8</v>
+      </c>
+      <c r="AE172">
+        <v>1.37</v>
+      </c>
+      <c r="AF172">
+        <v>3.06</v>
+      </c>
+      <c r="AG172">
+        <v>2.15</v>
+      </c>
+      <c r="AH172">
+        <v>1.65</v>
+      </c>
+      <c r="AI172">
+        <v>1.91</v>
+      </c>
+      <c r="AJ172">
+        <v>1.8</v>
+      </c>
+      <c r="AK172">
+        <v>1.28</v>
+      </c>
+      <c r="AL172">
+        <v>1.29</v>
+      </c>
+      <c r="AM172">
+        <v>1.66</v>
+      </c>
+      <c r="AN172">
+        <v>1.6</v>
+      </c>
+      <c r="AO172">
+        <v>1.4</v>
+      </c>
+      <c r="AP172">
+        <v>1.73</v>
+      </c>
+      <c r="AQ172">
+        <v>1.27</v>
+      </c>
+      <c r="AR172">
+        <v>1.58</v>
+      </c>
+      <c r="AS172">
+        <v>1.27</v>
+      </c>
+      <c r="AT172">
+        <v>2.85</v>
+      </c>
+      <c r="AU172">
+        <v>4</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>8</v>
+      </c>
+      <c r="AX172">
+        <v>7</v>
+      </c>
+      <c r="AY172">
+        <v>12</v>
+      </c>
+      <c r="AZ172">
+        <v>12</v>
+      </c>
+      <c r="BA172">
+        <v>4</v>
+      </c>
+      <c r="BB172">
+        <v>1</v>
+      </c>
+      <c r="BC172">
+        <v>5</v>
+      </c>
+      <c r="BD172">
+        <v>1.73</v>
+      </c>
+      <c r="BE172">
+        <v>7.5</v>
+      </c>
+      <c r="BF172">
         <v>2.4</v>
       </c>
-      <c r="R172">
-        <v>2.2</v>
-      </c>
-      <c r="S172">
-        <v>4.75</v>
-      </c>
-      <c r="T172">
-        <v>1.4</v>
-      </c>
-      <c r="U172">
-        <v>2.75</v>
-      </c>
-      <c r="V172">
-        <v>3</v>
-      </c>
-      <c r="W172">
-        <v>1.36</v>
-      </c>
-      <c r="X172">
-        <v>8</v>
-      </c>
-      <c r="Y172">
-        <v>1.08</v>
-      </c>
-      <c r="Z172">
-        <v>1.8</v>
-      </c>
-      <c r="AA172">
-        <v>3.4</v>
-      </c>
-      <c r="AB172">
-        <v>3.75</v>
-      </c>
-      <c r="AC172">
-        <v>1.03</v>
-      </c>
-      <c r="AD172">
-        <v>8.4</v>
-      </c>
-      <c r="AE172">
-        <v>1.31</v>
-      </c>
-      <c r="AF172">
-        <v>3.04</v>
-      </c>
-      <c r="AG172">
-        <v>2</v>
-      </c>
-      <c r="AH172">
-        <v>1.73</v>
-      </c>
-      <c r="AI172">
-        <v>1.83</v>
-      </c>
-      <c r="AJ172">
-        <v>1.83</v>
-      </c>
-      <c r="AK172">
-        <v>1.19</v>
-      </c>
-      <c r="AL172">
-        <v>1.26</v>
-      </c>
-      <c r="AM172">
-        <v>1.93</v>
-      </c>
-      <c r="AN172">
-        <v>2.4</v>
-      </c>
-      <c r="AO172">
-        <v>2</v>
-      </c>
-      <c r="AP172">
-        <v>2.45</v>
-      </c>
-      <c r="AQ172">
-        <v>1.82</v>
-      </c>
-      <c r="AR172">
-        <v>1.48</v>
-      </c>
-      <c r="AS172">
-        <v>1.58</v>
-      </c>
-      <c r="AT172">
-        <v>3.06</v>
-      </c>
-      <c r="AU172">
-        <v>3</v>
-      </c>
-      <c r="AV172">
-        <v>6</v>
-      </c>
-      <c r="AW172">
-        <v>6</v>
-      </c>
-      <c r="AX172">
-        <v>2</v>
-      </c>
-      <c r="AY172">
-        <v>9</v>
-      </c>
-      <c r="AZ172">
-        <v>8</v>
-      </c>
-      <c r="BA172">
-        <v>10</v>
-      </c>
-      <c r="BB172">
-        <v>3</v>
-      </c>
-      <c r="BC172">
-        <v>13</v>
-      </c>
-      <c r="BD172">
-        <v>1.5</v>
-      </c>
-      <c r="BE172">
-        <v>8</v>
-      </c>
-      <c r="BF172">
-        <v>3</v>
-      </c>
       <c r="BG172">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BH172">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="BI172">
         <v>1.7</v>
@@ -36677,22 +36677,22 @@
         <v>2.05</v>
       </c>
       <c r="BK172">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="BL172">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BM172">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="BN172">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BO172">
-        <v>3.2</v>
+        <v>3.56</v>
       </c>
       <c r="BP172">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -36700,7 +36700,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7446518</v>
+        <v>7446516</v>
       </c>
       <c r="C173" t="s">
         <v>68</v>
@@ -36715,10 +36715,10 @@
         <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H173" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -36745,136 +36745,136 @@
         <v>93</v>
       </c>
       <c r="Q173">
+        <v>2.4</v>
+      </c>
+      <c r="R173">
+        <v>2.2</v>
+      </c>
+      <c r="S173">
+        <v>4.75</v>
+      </c>
+      <c r="T173">
+        <v>1.4</v>
+      </c>
+      <c r="U173">
         <v>2.75</v>
       </c>
-      <c r="R173">
-        <v>2.05</v>
-      </c>
-      <c r="S173">
-        <v>4.33</v>
-      </c>
-      <c r="T173">
-        <v>1.44</v>
-      </c>
-      <c r="U173">
-        <v>2.63</v>
-      </c>
       <c r="V173">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W173">
+        <v>1.36</v>
+      </c>
+      <c r="X173">
+        <v>8</v>
+      </c>
+      <c r="Y173">
+        <v>1.08</v>
+      </c>
+      <c r="Z173">
+        <v>1.8</v>
+      </c>
+      <c r="AA173">
+        <v>3.4</v>
+      </c>
+      <c r="AB173">
+        <v>3.75</v>
+      </c>
+      <c r="AC173">
+        <v>1.03</v>
+      </c>
+      <c r="AD173">
+        <v>8.4</v>
+      </c>
+      <c r="AE173">
+        <v>1.31</v>
+      </c>
+      <c r="AF173">
+        <v>3.04</v>
+      </c>
+      <c r="AG173">
+        <v>2</v>
+      </c>
+      <c r="AH173">
+        <v>1.73</v>
+      </c>
+      <c r="AI173">
+        <v>1.83</v>
+      </c>
+      <c r="AJ173">
+        <v>1.83</v>
+      </c>
+      <c r="AK173">
+        <v>1.19</v>
+      </c>
+      <c r="AL173">
+        <v>1.26</v>
+      </c>
+      <c r="AM173">
+        <v>1.93</v>
+      </c>
+      <c r="AN173">
+        <v>2.4</v>
+      </c>
+      <c r="AO173">
+        <v>2</v>
+      </c>
+      <c r="AP173">
+        <v>2.45</v>
+      </c>
+      <c r="AQ173">
+        <v>1.82</v>
+      </c>
+      <c r="AR173">
+        <v>1.48</v>
+      </c>
+      <c r="AS173">
+        <v>1.58</v>
+      </c>
+      <c r="AT173">
+        <v>3.06</v>
+      </c>
+      <c r="AU173">
+        <v>3</v>
+      </c>
+      <c r="AV173">
+        <v>6</v>
+      </c>
+      <c r="AW173">
+        <v>6</v>
+      </c>
+      <c r="AX173">
+        <v>2</v>
+      </c>
+      <c r="AY173">
+        <v>9</v>
+      </c>
+      <c r="AZ173">
+        <v>8</v>
+      </c>
+      <c r="BA173">
+        <v>10</v>
+      </c>
+      <c r="BB173">
+        <v>3</v>
+      </c>
+      <c r="BC173">
+        <v>13</v>
+      </c>
+      <c r="BD173">
+        <v>1.5</v>
+      </c>
+      <c r="BE173">
+        <v>8</v>
+      </c>
+      <c r="BF173">
+        <v>3</v>
+      </c>
+      <c r="BG173">
         <v>1.33</v>
       </c>
-      <c r="X173">
-        <v>10</v>
-      </c>
-      <c r="Y173">
-        <v>1.06</v>
-      </c>
-      <c r="Z173">
-        <v>2.1</v>
-      </c>
-      <c r="AA173">
-        <v>3.25</v>
-      </c>
-      <c r="AB173">
-        <v>3.2</v>
-      </c>
-      <c r="AC173">
-        <v>1.05</v>
-      </c>
-      <c r="AD173">
-        <v>8</v>
-      </c>
-      <c r="AE173">
-        <v>1.37</v>
-      </c>
-      <c r="AF173">
-        <v>3.06</v>
-      </c>
-      <c r="AG173">
-        <v>2.15</v>
-      </c>
-      <c r="AH173">
-        <v>1.65</v>
-      </c>
-      <c r="AI173">
-        <v>1.91</v>
-      </c>
-      <c r="AJ173">
-        <v>1.8</v>
-      </c>
-      <c r="AK173">
-        <v>1.28</v>
-      </c>
-      <c r="AL173">
-        <v>1.29</v>
-      </c>
-      <c r="AM173">
-        <v>1.66</v>
-      </c>
-      <c r="AN173">
-        <v>1.6</v>
-      </c>
-      <c r="AO173">
-        <v>1.4</v>
-      </c>
-      <c r="AP173">
-        <v>1.73</v>
-      </c>
-      <c r="AQ173">
-        <v>1.27</v>
-      </c>
-      <c r="AR173">
-        <v>1.58</v>
-      </c>
-      <c r="AS173">
-        <v>1.27</v>
-      </c>
-      <c r="AT173">
-        <v>2.85</v>
-      </c>
-      <c r="AU173">
-        <v>4</v>
-      </c>
-      <c r="AV173">
-        <v>5</v>
-      </c>
-      <c r="AW173">
-        <v>8</v>
-      </c>
-      <c r="AX173">
-        <v>7</v>
-      </c>
-      <c r="AY173">
-        <v>12</v>
-      </c>
-      <c r="AZ173">
-        <v>12</v>
-      </c>
-      <c r="BA173">
-        <v>4</v>
-      </c>
-      <c r="BB173">
-        <v>1</v>
-      </c>
-      <c r="BC173">
-        <v>5</v>
-      </c>
-      <c r="BD173">
-        <v>1.73</v>
-      </c>
-      <c r="BE173">
-        <v>7.5</v>
-      </c>
-      <c r="BF173">
-        <v>2.4</v>
-      </c>
-      <c r="BG173">
-        <v>1.3</v>
-      </c>
       <c r="BH173">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="BI173">
         <v>1.7</v>
@@ -36883,22 +36883,22 @@
         <v>2.05</v>
       </c>
       <c r="BK173">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="BL173">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BM173">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="BN173">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BO173">
-        <v>3.56</v>
+        <v>3.2</v>
       </c>
       <c r="BP173">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="174" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1257,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,7 +1519,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1722,7 +1725,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1928,7 +1931,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2134,7 +2137,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2546,7 +2549,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2752,7 +2755,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2958,7 +2961,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3242,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ10">
         <v>1.45</v>
@@ -4275,7 +4278,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4400,7 +4403,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4606,7 +4609,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4812,7 +4815,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5430,7 +5433,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5636,7 +5639,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5842,7 +5845,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6048,7 +6051,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6254,7 +6257,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6541,7 +6544,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -6666,7 +6669,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6872,7 +6875,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7078,7 +7081,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7568,7 +7571,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ31">
         <v>1.27</v>
@@ -8108,7 +8111,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8314,7 +8317,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8932,7 +8935,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -9138,7 +9141,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9344,7 +9347,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9550,7 +9553,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10168,7 +10171,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10786,7 +10789,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10867,7 +10870,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ47">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10992,7 +10995,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11070,7 +11073,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48">
         <v>1.73</v>
@@ -11198,7 +11201,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11404,7 +11407,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11610,7 +11613,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11816,7 +11819,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -12434,7 +12437,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12640,7 +12643,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13258,7 +13261,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13670,7 +13673,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -14082,7 +14085,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14160,7 +14163,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ63">
         <v>0.89</v>
@@ -14288,7 +14291,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14575,7 +14578,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ65">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14906,7 +14909,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15112,7 +15115,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15318,7 +15321,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15524,7 +15527,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15730,7 +15733,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15936,7 +15939,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16142,7 +16145,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16348,7 +16351,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16760,7 +16763,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17172,7 +17175,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17378,7 +17381,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17996,7 +17999,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18202,7 +18205,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18408,7 +18411,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18614,7 +18617,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18898,7 +18901,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19026,7 +19029,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19232,7 +19235,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19519,7 +19522,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ89">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR89">
         <v>1.29</v>
@@ -19644,7 +19647,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20262,7 +20265,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20674,7 +20677,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20880,7 +20883,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21086,7 +21089,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21498,7 +21501,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21704,7 +21707,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22197,7 +22200,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ102">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR102">
         <v>1.47</v>
@@ -22400,7 +22403,7 @@
         <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ103">
         <v>1.62</v>
@@ -22528,7 +22531,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22734,7 +22737,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23146,7 +23149,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23558,7 +23561,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23970,7 +23973,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24382,7 +24385,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24666,7 +24669,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ114">
         <v>0.92</v>
@@ -24794,7 +24797,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25000,7 +25003,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25412,7 +25415,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25493,7 +25496,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -25618,7 +25621,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26030,7 +26033,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26236,7 +26239,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26442,7 +26445,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26726,7 +26729,7 @@
         <v>2.75</v>
       </c>
       <c r="AP124">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ124">
         <v>2.42</v>
@@ -26854,7 +26857,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27060,7 +27063,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27965,7 +27968,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ130">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR130">
         <v>1.22</v>
@@ -28296,7 +28299,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -29120,7 +29123,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29326,7 +29329,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29738,7 +29741,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29944,7 +29947,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30150,7 +30153,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30562,7 +30565,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30768,7 +30771,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30974,7 +30977,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31052,7 +31055,7 @@
         <v>0.38</v>
       </c>
       <c r="AP145">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ145">
         <v>0.82</v>
@@ -31467,7 +31470,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ147">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR147">
         <v>1.51</v>
@@ -32004,7 +32007,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32416,7 +32419,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32622,7 +32625,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -33034,7 +33037,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33240,7 +33243,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33652,7 +33655,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q158">
         <v>3.14</v>
@@ -33858,7 +33861,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34064,7 +34067,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34270,7 +34273,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34348,7 +34351,7 @@
         <v>1.11</v>
       </c>
       <c r="AP161">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -34682,7 +34685,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34888,7 +34891,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35300,7 +35303,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35381,7 +35384,7 @@
         <v>1</v>
       </c>
       <c r="AQ166">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR166">
         <v>1.47</v>
@@ -35918,7 +35921,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36614,7 +36617,7 @@
         <v>1.4</v>
       </c>
       <c r="AP172">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ172">
         <v>1.27</v>
@@ -36948,7 +36951,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37566,7 +37569,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q177">
         <v>3.6</v>
@@ -37929,6 +37932,212 @@
       </c>
       <c r="BP178">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7599959</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45520.79166666666</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s">
+        <v>74</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>204</v>
+      </c>
+      <c r="P179" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q179">
+        <v>3</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>4</v>
+      </c>
+      <c r="T179">
+        <v>1.5</v>
+      </c>
+      <c r="U179">
+        <v>2.5</v>
+      </c>
+      <c r="V179">
+        <v>3.5</v>
+      </c>
+      <c r="W179">
+        <v>1.29</v>
+      </c>
+      <c r="X179">
+        <v>10</v>
+      </c>
+      <c r="Y179">
+        <v>1.06</v>
+      </c>
+      <c r="Z179">
+        <v>2.18</v>
+      </c>
+      <c r="AA179">
+        <v>3.21</v>
+      </c>
+      <c r="AB179">
+        <v>3.35</v>
+      </c>
+      <c r="AC179">
+        <v>1.05</v>
+      </c>
+      <c r="AD179">
+        <v>7.2</v>
+      </c>
+      <c r="AE179">
+        <v>1.4</v>
+      </c>
+      <c r="AF179">
+        <v>2.64</v>
+      </c>
+      <c r="AG179">
+        <v>2.35</v>
+      </c>
+      <c r="AH179">
+        <v>1.56</v>
+      </c>
+      <c r="AI179">
+        <v>2</v>
+      </c>
+      <c r="AJ179">
+        <v>1.73</v>
+      </c>
+      <c r="AK179">
+        <v>1.29</v>
+      </c>
+      <c r="AL179">
+        <v>1.31</v>
+      </c>
+      <c r="AM179">
+        <v>1.62</v>
+      </c>
+      <c r="AN179">
+        <v>1.73</v>
+      </c>
+      <c r="AO179">
+        <v>0.8</v>
+      </c>
+      <c r="AP179">
+        <v>1.83</v>
+      </c>
+      <c r="AQ179">
+        <v>0.73</v>
+      </c>
+      <c r="AR179">
+        <v>1.57</v>
+      </c>
+      <c r="AS179">
+        <v>0.87</v>
+      </c>
+      <c r="AT179">
+        <v>2.44</v>
+      </c>
+      <c r="AU179">
+        <v>9</v>
+      </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
+      <c r="AW179">
+        <v>10</v>
+      </c>
+      <c r="AX179">
+        <v>6</v>
+      </c>
+      <c r="AY179">
+        <v>19</v>
+      </c>
+      <c r="AZ179">
+        <v>10</v>
+      </c>
+      <c r="BA179">
+        <v>5</v>
+      </c>
+      <c r="BB179">
+        <v>3</v>
+      </c>
+      <c r="BC179">
+        <v>8</v>
+      </c>
+      <c r="BD179">
+        <v>2.05</v>
+      </c>
+      <c r="BE179">
+        <v>7.5</v>
+      </c>
+      <c r="BF179">
+        <v>2.05</v>
+      </c>
+      <c r="BG179">
+        <v>1.29</v>
+      </c>
+      <c r="BH179">
+        <v>3.3</v>
+      </c>
+      <c r="BI179">
+        <v>1.55</v>
+      </c>
+      <c r="BJ179">
+        <v>2.3</v>
+      </c>
+      <c r="BK179">
+        <v>2.03</v>
+      </c>
+      <c r="BL179">
+        <v>1.7</v>
+      </c>
+      <c r="BM179">
+        <v>2.65</v>
+      </c>
+      <c r="BN179">
+        <v>1.42</v>
+      </c>
+      <c r="BO179">
+        <v>3.7</v>
+      </c>
+      <c r="BP179">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,7 +628,7 @@
     <t>['79']</t>
   </si>
   <si>
-    <t>['22']</t>
+    <t>['67']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -722,9 +722,6 @@
   </si>
   <si>
     <t>['72', '79']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['39', '52', '59']</t>
@@ -1260,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3042,7 +3039,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ9">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3245,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AQ10">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3451,7 +3448,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.38</v>
@@ -3657,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -4278,7 +4275,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ15">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4690,7 +4687,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ17">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -5720,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
         <v>1.2</v>
@@ -6541,10 +6538,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -6956,7 +6953,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ28">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7571,10 +7568,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AQ31">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>0.74</v>
@@ -7777,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0.89</v>
@@ -9016,7 +9013,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ38">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -9634,7 +9631,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ41">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9837,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ42">
         <v>2.1</v>
@@ -10664,7 +10661,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ46">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>1.56</v>
@@ -10870,7 +10867,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ47">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -11073,7 +11070,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AQ48">
         <v>1.73</v>
@@ -11279,7 +11276,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.82</v>
@@ -12106,7 +12103,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ53">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -13261,7 +13258,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13342,7 +13339,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ59">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -13548,7 +13545,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ60">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13957,7 +13954,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62">
         <v>1.38</v>
@@ -14085,7 +14082,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14163,7 +14160,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AQ63">
         <v>0.89</v>
@@ -14291,7 +14288,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14578,7 +14575,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ65">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14909,7 +14906,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14990,7 +14987,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ67">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -15115,7 +15112,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15193,7 +15190,7 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
         <v>2.42</v>
@@ -15321,7 +15318,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15527,7 +15524,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15733,7 +15730,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15939,7 +15936,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16145,7 +16142,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16351,7 +16348,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16432,7 +16429,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ74">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR74">
         <v>0.9</v>
@@ -16763,7 +16760,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17175,7 +17172,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17381,7 +17378,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17871,7 +17868,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ81">
         <v>0.82</v>
@@ -17999,7 +17996,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18205,7 +18202,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18411,7 +18408,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18492,7 +18489,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ84">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18617,7 +18614,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18695,7 +18692,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18901,7 +18898,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19029,7 +19026,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19110,7 +19107,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ87">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -19235,7 +19232,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19522,7 +19519,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ89">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AR89">
         <v>1.29</v>
@@ -19647,7 +19644,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20265,7 +20262,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20346,7 +20343,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ93">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR93">
         <v>1.47</v>
@@ -20549,7 +20546,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ94">
         <v>1.09</v>
@@ -20677,7 +20674,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20758,7 +20755,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR95">
         <v>1.59</v>
@@ -20883,7 +20880,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21089,7 +21086,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21501,7 +21498,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21707,7 +21704,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21994,7 +21991,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ101">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR101">
         <v>1.11</v>
@@ -22197,10 +22194,10 @@
         <v>0.4</v>
       </c>
       <c r="AP102">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AR102">
         <v>1.47</v>
@@ -22403,10 +22400,10 @@
         <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AQ103">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR103">
         <v>1.68</v>
@@ -22531,7 +22528,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22737,7 +22734,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23021,7 +23018,7 @@
         <v>1.29</v>
       </c>
       <c r="AP106">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23149,7 +23146,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23561,7 +23558,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23973,7 +23970,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24260,7 +24257,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ112">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24385,7 +24382,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24669,7 +24666,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AQ114">
         <v>0.92</v>
@@ -24797,7 +24794,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24878,7 +24875,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ115">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25003,7 +25000,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25415,7 +25412,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25496,7 +25493,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -25621,7 +25618,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25702,7 +25699,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ119">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR119">
         <v>1.01</v>
@@ -25908,7 +25905,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ120">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR120">
         <v>1.7</v>
@@ -26033,7 +26030,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26111,7 +26108,7 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
         <v>2.1</v>
@@ -26239,7 +26236,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26445,7 +26442,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26729,7 +26726,7 @@
         <v>2.75</v>
       </c>
       <c r="AP124">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AQ124">
         <v>2.42</v>
@@ -26857,7 +26854,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27063,7 +27060,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27968,7 +27965,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ130">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AR130">
         <v>1.22</v>
@@ -28174,7 +28171,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ131">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR131">
         <v>1.46</v>
@@ -28299,7 +28296,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -29123,7 +29120,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29201,10 +29198,10 @@
         <v>1.86</v>
       </c>
       <c r="AP136">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ136">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR136">
         <v>1.33</v>
@@ -29329,7 +29326,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29407,10 +29404,10 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR137">
         <v>1.46</v>
@@ -29741,7 +29738,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29947,7 +29944,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30153,7 +30150,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30565,7 +30562,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30771,7 +30768,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30977,7 +30974,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31055,7 +31052,7 @@
         <v>0.38</v>
       </c>
       <c r="AP145">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AQ145">
         <v>0.82</v>
@@ -31467,10 +31464,10 @@
         <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AR147">
         <v>1.51</v>
@@ -31673,10 +31670,10 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ148">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -32007,7 +32004,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32088,7 +32085,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ150">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR150">
         <v>1.56</v>
@@ -32419,7 +32416,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32625,7 +32622,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -32912,7 +32909,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ154">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR154">
         <v>1.13</v>
@@ -33037,7 +33034,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33243,7 +33240,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33527,7 +33524,7 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157">
         <v>1</v>
@@ -33655,7 +33652,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q158">
         <v>3.14</v>
@@ -33736,7 +33733,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ158">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR158">
         <v>1.13</v>
@@ -33861,7 +33858,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34067,7 +34064,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34273,7 +34270,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34351,7 +34348,7 @@
         <v>1.11</v>
       </c>
       <c r="AP161">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -34685,7 +34682,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34891,7 +34888,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35303,7 +35300,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35384,7 +35381,7 @@
         <v>1</v>
       </c>
       <c r="AQ166">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AR166">
         <v>1.47</v>
@@ -35590,7 +35587,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ167">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR167">
         <v>1.56</v>
@@ -35793,7 +35790,7 @@
         <v>1.33</v>
       </c>
       <c r="AP168">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ168">
         <v>1.2</v>
@@ -35921,7 +35918,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -35999,7 +35996,7 @@
         <v>1.25</v>
       </c>
       <c r="AP169">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169">
         <v>1.38</v>
@@ -36208,7 +36205,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ170">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR170">
         <v>1.27</v>
@@ -36617,10 +36614,10 @@
         <v>1.4</v>
       </c>
       <c r="AP172">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AQ172">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR172">
         <v>1.58</v>
@@ -36823,7 +36820,7 @@
         <v>2</v>
       </c>
       <c r="AP173">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ173">
         <v>1.82</v>
@@ -36951,7 +36948,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37569,7 +37566,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q177">
         <v>3.6</v>
@@ -37650,7 +37647,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ177">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR177">
         <v>1.41</v>
@@ -37856,7 +37853,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ178">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="AR178">
         <v>1.7</v>
@@ -37939,7 +37936,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7599959</v>
+        <v>7599955</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -37948,196 +37945,608 @@
         <v>69</v>
       </c>
       <c r="E179" s="2">
-        <v>45520.79166666666</v>
+        <v>45521.58333333334</v>
       </c>
       <c r="F179">
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H179" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L179">
         <v>1</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O179" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="P179" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="Q179">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S179">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T179">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U179">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V179">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W179">
+        <v>1.36</v>
+      </c>
+      <c r="X179">
+        <v>8</v>
+      </c>
+      <c r="Y179">
+        <v>1.08</v>
+      </c>
+      <c r="Z179">
+        <v>2.2</v>
+      </c>
+      <c r="AA179">
+        <v>3.25</v>
+      </c>
+      <c r="AB179">
+        <v>2.75</v>
+      </c>
+      <c r="AC179">
+        <v>1.02</v>
+      </c>
+      <c r="AD179">
+        <v>8.6</v>
+      </c>
+      <c r="AE179">
+        <v>1.3</v>
+      </c>
+      <c r="AF179">
+        <v>3.08</v>
+      </c>
+      <c r="AG179">
+        <v>1.91</v>
+      </c>
+      <c r="AH179">
+        <v>1.73</v>
+      </c>
+      <c r="AI179">
+        <v>1.73</v>
+      </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
+      <c r="AK179">
+        <v>1.34</v>
+      </c>
+      <c r="AL179">
         <v>1.29</v>
       </c>
-      <c r="X179">
-        <v>10</v>
-      </c>
-      <c r="Y179">
-        <v>1.06</v>
-      </c>
-      <c r="Z179">
-        <v>2.18</v>
-      </c>
-      <c r="AA179">
-        <v>3.21</v>
-      </c>
-      <c r="AB179">
-        <v>3.35</v>
-      </c>
-      <c r="AC179">
-        <v>1.05</v>
-      </c>
-      <c r="AD179">
-        <v>7.2</v>
-      </c>
-      <c r="AE179">
-        <v>1.4</v>
-      </c>
-      <c r="AF179">
-        <v>2.64</v>
-      </c>
-      <c r="AG179">
-        <v>2.35</v>
-      </c>
-      <c r="AH179">
-        <v>1.56</v>
-      </c>
-      <c r="AI179">
-        <v>2</v>
-      </c>
-      <c r="AJ179">
-        <v>1.73</v>
-      </c>
-      <c r="AK179">
-        <v>1.29</v>
-      </c>
-      <c r="AL179">
-        <v>1.31</v>
-      </c>
       <c r="AM179">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AN179">
-        <v>1.73</v>
+        <v>1</v>
       </c>
       <c r="AO179">
-        <v>0.8</v>
+        <v>1.45</v>
       </c>
       <c r="AP179">
-        <v>1.83</v>
+        <v>1</v>
       </c>
       <c r="AQ179">
-        <v>0.73</v>
+        <v>1.42</v>
       </c>
       <c r="AR179">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AS179">
-        <v>0.87</v>
+        <v>1.44</v>
       </c>
       <c r="AT179">
-        <v>2.44</v>
+        <v>2.86</v>
       </c>
       <c r="AU179">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW179">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AX179">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY179">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AZ179">
         <v>10</v>
       </c>
       <c r="BA179">
+        <v>2</v>
+      </c>
+      <c r="BB179">
+        <v>11</v>
+      </c>
+      <c r="BC179">
+        <v>13</v>
+      </c>
+      <c r="BD179">
+        <v>1.91</v>
+      </c>
+      <c r="BE179">
+        <v>8</v>
+      </c>
+      <c r="BF179">
+        <v>2.2</v>
+      </c>
+      <c r="BG179">
+        <v>1.21</v>
+      </c>
+      <c r="BH179">
+        <v>3.74</v>
+      </c>
+      <c r="BI179">
+        <v>1.44</v>
+      </c>
+      <c r="BJ179">
+        <v>2.6</v>
+      </c>
+      <c r="BK179">
+        <v>1.8</v>
+      </c>
+      <c r="BL179">
+        <v>1.9</v>
+      </c>
+      <c r="BM179">
+        <v>2.3</v>
+      </c>
+      <c r="BN179">
+        <v>1.55</v>
+      </c>
+      <c r="BO179">
+        <v>3.05</v>
+      </c>
+      <c r="BP179">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7599954</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45521.70833333334</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>80</v>
+      </c>
+      <c r="H180" t="s">
+        <v>76</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>93</v>
+      </c>
+      <c r="P180" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q180">
+        <v>2.1</v>
+      </c>
+      <c r="R180">
+        <v>2.2</v>
+      </c>
+      <c r="S180">
+        <v>6.5</v>
+      </c>
+      <c r="T180">
+        <v>1.44</v>
+      </c>
+      <c r="U180">
+        <v>2.63</v>
+      </c>
+      <c r="V180">
+        <v>3.25</v>
+      </c>
+      <c r="W180">
+        <v>1.33</v>
+      </c>
+      <c r="X180">
+        <v>9</v>
+      </c>
+      <c r="Y180">
+        <v>1.07</v>
+      </c>
+      <c r="Z180">
+        <v>1.42</v>
+      </c>
+      <c r="AA180">
+        <v>4</v>
+      </c>
+      <c r="AB180">
+        <v>7</v>
+      </c>
+      <c r="AC180">
+        <v>1.05</v>
+      </c>
+      <c r="AD180">
+        <v>8.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.33</v>
+      </c>
+      <c r="AF180">
+        <v>3.1</v>
+      </c>
+      <c r="AG180">
+        <v>2.25</v>
+      </c>
+      <c r="AH180">
+        <v>1.61</v>
+      </c>
+      <c r="AI180">
+        <v>2.25</v>
+      </c>
+      <c r="AJ180">
+        <v>1.57</v>
+      </c>
+      <c r="AK180">
+        <v>1.09</v>
+      </c>
+      <c r="AL180">
+        <v>1.18</v>
+      </c>
+      <c r="AM180">
+        <v>2.45</v>
+      </c>
+      <c r="AN180">
+        <v>2.45</v>
+      </c>
+      <c r="AO180">
+        <v>1.62</v>
+      </c>
+      <c r="AP180">
+        <v>2.33</v>
+      </c>
+      <c r="AQ180">
+        <v>1.57</v>
+      </c>
+      <c r="AR180">
+        <v>1.46</v>
+      </c>
+      <c r="AS180">
+        <v>1.19</v>
+      </c>
+      <c r="AT180">
+        <v>2.65</v>
+      </c>
+      <c r="AU180">
+        <v>4</v>
+      </c>
+      <c r="AV180">
+        <v>2</v>
+      </c>
+      <c r="AW180">
         <v>5</v>
       </c>
-      <c r="BB179">
-        <v>3</v>
-      </c>
-      <c r="BC179">
+      <c r="AX180">
+        <v>5</v>
+      </c>
+      <c r="AY180">
+        <v>9</v>
+      </c>
+      <c r="AZ180">
+        <v>7</v>
+      </c>
+      <c r="BA180">
+        <v>2</v>
+      </c>
+      <c r="BB180">
+        <v>4</v>
+      </c>
+      <c r="BC180">
+        <v>6</v>
+      </c>
+      <c r="BD180">
+        <v>1.2</v>
+      </c>
+      <c r="BE180">
+        <v>10</v>
+      </c>
+      <c r="BF180">
+        <v>5.5</v>
+      </c>
+      <c r="BG180">
+        <v>1.32</v>
+      </c>
+      <c r="BH180">
+        <v>3.1</v>
+      </c>
+      <c r="BI180">
+        <v>1.6</v>
+      </c>
+      <c r="BJ180">
+        <v>2.2</v>
+      </c>
+      <c r="BK180">
+        <v>2.07</v>
+      </c>
+      <c r="BL180">
+        <v>1.67</v>
+      </c>
+      <c r="BM180">
+        <v>2.75</v>
+      </c>
+      <c r="BN180">
+        <v>1.4</v>
+      </c>
+      <c r="BO180">
+        <v>3.48</v>
+      </c>
+      <c r="BP180">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7599957</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45521.8125</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>73</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>204</v>
+      </c>
+      <c r="P181" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q181">
+        <v>2.88</v>
+      </c>
+      <c r="R181">
+        <v>2.05</v>
+      </c>
+      <c r="S181">
+        <v>4</v>
+      </c>
+      <c r="T181">
+        <v>1.44</v>
+      </c>
+      <c r="U181">
+        <v>2.63</v>
+      </c>
+      <c r="V181">
+        <v>3.25</v>
+      </c>
+      <c r="W181">
+        <v>1.33</v>
+      </c>
+      <c r="X181">
+        <v>10</v>
+      </c>
+      <c r="Y181">
+        <v>1.06</v>
+      </c>
+      <c r="Z181">
+        <v>2.1</v>
+      </c>
+      <c r="AA181">
+        <v>3.1</v>
+      </c>
+      <c r="AB181">
+        <v>3.3</v>
+      </c>
+      <c r="AC181">
+        <v>1.03</v>
+      </c>
+      <c r="AD181">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE181">
+        <v>1.32</v>
+      </c>
+      <c r="AF181">
+        <v>2.98</v>
+      </c>
+      <c r="AG181">
+        <v>2.16</v>
+      </c>
+      <c r="AH181">
+        <v>1.66</v>
+      </c>
+      <c r="AI181">
+        <v>1.83</v>
+      </c>
+      <c r="AJ181">
+        <v>1.83</v>
+      </c>
+      <c r="AK181">
+        <v>1.3</v>
+      </c>
+      <c r="AL181">
+        <v>1.29</v>
+      </c>
+      <c r="AM181">
+        <v>1.63</v>
+      </c>
+      <c r="AN181">
+        <v>1.36</v>
+      </c>
+      <c r="AO181">
+        <v>1.27</v>
+      </c>
+      <c r="AP181">
+        <v>1.5</v>
+      </c>
+      <c r="AQ181">
+        <v>1.17</v>
+      </c>
+      <c r="AR181">
+        <v>1.47</v>
+      </c>
+      <c r="AS181">
+        <v>1.28</v>
+      </c>
+      <c r="AT181">
+        <v>2.75</v>
+      </c>
+      <c r="AU181">
+        <v>2</v>
+      </c>
+      <c r="AV181">
+        <v>4</v>
+      </c>
+      <c r="AW181">
+        <v>3</v>
+      </c>
+      <c r="AX181">
+        <v>4</v>
+      </c>
+      <c r="AY181">
+        <v>5</v>
+      </c>
+      <c r="AZ181">
         <v>8</v>
       </c>
-      <c r="BD179">
-        <v>2.05</v>
-      </c>
-      <c r="BE179">
-        <v>7.5</v>
-      </c>
-      <c r="BF179">
-        <v>2.05</v>
-      </c>
-      <c r="BG179">
-        <v>1.29</v>
-      </c>
-      <c r="BH179">
-        <v>3.3</v>
-      </c>
-      <c r="BI179">
-        <v>1.55</v>
-      </c>
-      <c r="BJ179">
-        <v>2.3</v>
-      </c>
-      <c r="BK179">
-        <v>2.03</v>
-      </c>
-      <c r="BL179">
-        <v>1.7</v>
-      </c>
-      <c r="BM179">
-        <v>2.65</v>
-      </c>
-      <c r="BN179">
-        <v>1.42</v>
-      </c>
-      <c r="BO179">
-        <v>3.7</v>
-      </c>
-      <c r="BP179">
-        <v>1.23</v>
+      <c r="BA181">
+        <v>2</v>
+      </c>
+      <c r="BB181">
+        <v>5</v>
+      </c>
+      <c r="BC181">
+        <v>7</v>
+      </c>
+      <c r="BD181">
+        <v>1.62</v>
+      </c>
+      <c r="BE181">
+        <v>8</v>
+      </c>
+      <c r="BF181">
+        <v>2.62</v>
+      </c>
+      <c r="BG181">
+        <v>1.26</v>
+      </c>
+      <c r="BH181">
+        <v>3.34</v>
+      </c>
+      <c r="BI181">
+        <v>1.47</v>
+      </c>
+      <c r="BJ181">
+        <v>2.5</v>
+      </c>
+      <c r="BK181">
+        <v>2</v>
+      </c>
+      <c r="BL181">
+        <v>1.8</v>
+      </c>
+      <c r="BM181">
+        <v>2.35</v>
+      </c>
+      <c r="BN181">
+        <v>1.52</v>
+      </c>
+      <c r="BO181">
+        <v>3.15</v>
+      </c>
+      <c r="BP181">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,7 +628,22 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['32', '45+1', '90+3']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -688,9 +703,6 @@
     <t>['19', '39']</t>
   </si>
   <si>
-    <t>['1']</t>
-  </si>
-  <si>
     <t>['10', '49']</t>
   </si>
   <si>
@@ -698,9 +710,6 @@
   </si>
   <si>
     <t>['70', '87']</t>
-  </si>
-  <si>
-    <t>['90+5']</t>
   </si>
   <si>
     <t>['2', '66']</t>
@@ -896,6 +905,15 @@
   </si>
   <si>
     <t>['17', '27']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['4', '60', '90+6']</t>
+  </si>
+  <si>
+    <t>['4', '8']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,7 +1534,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1722,7 +1740,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1928,7 +1946,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2134,7 +2152,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2546,7 +2564,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2752,7 +2770,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2958,7 +2976,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3036,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ9">
         <v>1.17</v>
@@ -3242,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ10">
         <v>1.42</v>
@@ -3863,7 +3881,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ13">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR13">
         <v>1.13</v>
@@ -4069,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4272,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4400,7 +4418,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4606,7 +4624,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4812,7 +4830,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5096,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19">
         <v>1.38</v>
@@ -5430,7 +5448,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5636,7 +5654,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5842,7 +5860,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6048,7 +6066,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6129,7 +6147,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR24">
         <v>1.1</v>
@@ -6254,7 +6272,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6332,7 +6350,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ25">
         <v>1.73</v>
@@ -6541,7 +6559,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -6666,7 +6684,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6872,7 +6890,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6950,7 +6968,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28">
         <v>1.42</v>
@@ -7078,7 +7096,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7156,10 +7174,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.71</v>
@@ -7365,7 +7383,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ30">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -7568,7 +7586,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ31">
         <v>1.17</v>
@@ -8108,7 +8126,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8314,7 +8332,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8932,7 +8950,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="Q38">
         <v>3.6</v>
@@ -9138,7 +9156,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9216,7 +9234,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ39">
         <v>1.09</v>
@@ -9344,7 +9362,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9422,10 +9440,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR40">
         <v>1.57</v>
@@ -9550,7 +9568,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9837,7 +9855,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ42">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.51</v>
@@ -10043,7 +10061,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR43">
         <v>0.6899999999999999</v>
@@ -10168,7 +10186,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10452,7 +10470,7 @@
         <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ45">
         <v>1.38</v>
@@ -10658,7 +10676,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10786,7 +10804,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10867,7 +10885,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ47">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10992,7 +11010,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11070,7 +11088,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48">
         <v>1.73</v>
@@ -11198,7 +11216,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11404,7 +11422,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11482,7 +11500,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ50">
         <v>1.09</v>
@@ -11610,7 +11628,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11816,7 +11834,7 @@
         <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>3.2</v>
@@ -11894,7 +11912,7 @@
         <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -12309,7 +12327,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12434,7 +12452,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12640,7 +12658,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12924,7 +12942,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ57">
         <v>1.73</v>
@@ -13133,7 +13151,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ58">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR58">
         <v>1.2</v>
@@ -13258,7 +13276,7 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13670,7 +13688,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13748,7 +13766,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ61">
         <v>0.82</v>
@@ -14082,7 +14100,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14160,7 +14178,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ63">
         <v>0.89</v>
@@ -14288,7 +14306,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14369,7 +14387,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ64">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>1.2</v>
@@ -14575,7 +14593,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ65">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14906,7 +14924,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -14984,7 +15002,7 @@
         <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ67">
         <v>1.57</v>
@@ -15112,7 +15130,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15318,7 +15336,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15399,7 +15417,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ69">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -15524,7 +15542,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15730,7 +15748,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15936,7 +15954,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16014,7 +16032,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16142,7 +16160,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16348,7 +16366,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16760,7 +16778,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17044,7 +17062,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ77">
         <v>0.89</v>
@@ -17172,7 +17190,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17253,7 +17271,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ78">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.11</v>
@@ -17378,7 +17396,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17456,7 +17474,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ79">
         <v>1.09</v>
@@ -17665,7 +17683,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR80">
         <v>1.38</v>
@@ -17996,7 +18014,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18074,10 +18092,10 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ82">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18202,7 +18220,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18408,7 +18426,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18614,7 +18632,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18898,7 +18916,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19026,7 +19044,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19104,7 +19122,7 @@
         <v>1.6</v>
       </c>
       <c r="AP87">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ87">
         <v>1.57</v>
@@ -19232,7 +19250,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19519,7 +19537,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ89">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR89">
         <v>1.29</v>
@@ -19644,7 +19662,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19725,7 +19743,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ90">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR90">
         <v>1.78</v>
@@ -20262,7 +20280,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20674,7 +20692,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20880,7 +20898,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21086,7 +21104,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21164,7 +21182,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ97">
         <v>1.82</v>
@@ -21498,7 +21516,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21576,10 +21594,10 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ99">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21704,7 +21722,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21782,7 +21800,7 @@
         <v>2.67</v>
       </c>
       <c r="AP100">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ100">
         <v>2.42</v>
@@ -21988,7 +22006,7 @@
         <v>1.8</v>
       </c>
       <c r="AP101">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ101">
         <v>1.42</v>
@@ -22197,7 +22215,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR102">
         <v>1.47</v>
@@ -22400,7 +22418,7 @@
         <v>1.57</v>
       </c>
       <c r="AP103">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ103">
         <v>1.57</v>
@@ -22528,7 +22546,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22734,7 +22752,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22815,7 +22833,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ105">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR105">
         <v>1.17</v>
@@ -23146,7 +23164,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23558,7 +23576,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23639,7 +23657,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -23970,7 +23988,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24254,7 +24272,7 @@
         <v>1.38</v>
       </c>
       <c r="AP112">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ112">
         <v>1.57</v>
@@ -24382,7 +24400,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24463,7 +24481,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ113">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR113">
         <v>1.08</v>
@@ -24666,10 +24684,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ114">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR114">
         <v>1.67</v>
@@ -24794,7 +24812,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24872,7 +24890,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ115">
         <v>1.42</v>
@@ -25000,7 +25018,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25284,7 +25302,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25412,7 +25430,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25493,7 +25511,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -25618,7 +25636,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25696,7 +25714,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ119">
         <v>1.17</v>
@@ -25902,7 +25920,7 @@
         <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ120">
         <v>1.57</v>
@@ -26030,7 +26048,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26111,7 +26129,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ121">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR121">
         <v>1.48</v>
@@ -26236,7 +26254,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26442,7 +26460,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26523,7 +26541,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ123">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR123">
         <v>1.37</v>
@@ -26726,7 +26744,7 @@
         <v>2.75</v>
       </c>
       <c r="AP124">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ124">
         <v>2.42</v>
@@ -26854,7 +26872,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27060,7 +27078,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27344,7 +27362,7 @@
         <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ127">
         <v>0.82</v>
@@ -27553,7 +27571,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ128">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR128">
         <v>1.14</v>
@@ -27965,7 +27983,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ130">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR130">
         <v>1.22</v>
@@ -28168,7 +28186,7 @@
         <v>1.29</v>
       </c>
       <c r="AP131">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ131">
         <v>1.17</v>
@@ -28296,7 +28314,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28580,7 +28598,7 @@
         <v>1.13</v>
       </c>
       <c r="AP133">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -28992,10 +29010,10 @@
         <v>0.88</v>
       </c>
       <c r="AP135">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ135">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR135">
         <v>1.01</v>
@@ -29120,7 +29138,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29326,7 +29344,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29738,7 +29756,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29819,7 +29837,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ139">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR139">
         <v>1.07</v>
@@ -29944,7 +29962,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30150,7 +30168,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30228,7 +30246,7 @@
         <v>2.44</v>
       </c>
       <c r="AP141">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ141">
         <v>2.42</v>
@@ -30562,7 +30580,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30768,7 +30786,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30849,7 +30867,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ144">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR144">
         <v>1.53</v>
@@ -30974,7 +30992,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31052,7 +31070,7 @@
         <v>0.38</v>
       </c>
       <c r="AP145">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ145">
         <v>0.82</v>
@@ -31467,7 +31485,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ147">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR147">
         <v>1.51</v>
@@ -32004,7 +32022,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32082,7 +32100,7 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ150">
         <v>1.42</v>
@@ -32291,7 +32309,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ151">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR151">
         <v>1.68</v>
@@ -32416,7 +32434,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32494,7 +32512,7 @@
         <v>0.89</v>
       </c>
       <c r="AP152">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ152">
         <v>1.09</v>
@@ -32622,7 +32640,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -33034,7 +33052,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33240,7 +33258,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33318,10 +33336,10 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ156">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR156">
         <v>1.07</v>
@@ -33652,7 +33670,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q158">
         <v>3.14</v>
@@ -33858,7 +33876,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -34064,7 +34082,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34142,7 +34160,7 @@
         <v>2.5</v>
       </c>
       <c r="AP160">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ160">
         <v>2.42</v>
@@ -34270,7 +34288,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34348,7 +34366,7 @@
         <v>1.11</v>
       </c>
       <c r="AP161">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -34554,7 +34572,7 @@
         <v>0.6</v>
       </c>
       <c r="AP162">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ162">
         <v>0.82</v>
@@ -34682,7 +34700,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34763,7 +34781,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ163">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -34888,7 +34906,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35300,7 +35318,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35381,7 +35399,7 @@
         <v>1</v>
       </c>
       <c r="AQ166">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR166">
         <v>1.47</v>
@@ -35584,7 +35602,7 @@
         <v>1.22</v>
       </c>
       <c r="AP167">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ167">
         <v>1.17</v>
@@ -35793,7 +35811,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ168">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR168">
         <v>1.42</v>
@@ -35918,7 +35936,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36614,7 +36632,7 @@
         <v>1.4</v>
       </c>
       <c r="AP172">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ172">
         <v>1.17</v>
@@ -36948,7 +36966,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37029,7 +37047,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ174">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR174">
         <v>1.11</v>
@@ -37438,7 +37456,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ176">
         <v>0.89</v>
@@ -37566,7 +37584,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q177">
         <v>3.6</v>
@@ -37644,7 +37662,7 @@
         <v>1.5</v>
       </c>
       <c r="AP177">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ177">
         <v>1.42</v>
@@ -37850,7 +37868,7 @@
         <v>2.5</v>
       </c>
       <c r="AP178">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="AQ178">
         <v>2.38</v>
@@ -37936,7 +37954,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7599955</v>
+        <v>7599959</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -37945,196 +37963,196 @@
         <v>69</v>
       </c>
       <c r="E179" s="2">
-        <v>45521.58333333334</v>
+        <v>45520.79166666666</v>
       </c>
       <c r="F179">
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H179" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L179">
         <v>1</v>
       </c>
       <c r="M179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O179" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="P179" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="Q179">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R179">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S179">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T179">
+        <v>1.5</v>
+      </c>
+      <c r="U179">
+        <v>2.5</v>
+      </c>
+      <c r="V179">
+        <v>3.5</v>
+      </c>
+      <c r="W179">
+        <v>1.29</v>
+      </c>
+      <c r="X179">
+        <v>10</v>
+      </c>
+      <c r="Y179">
+        <v>1.06</v>
+      </c>
+      <c r="Z179">
+        <v>2.18</v>
+      </c>
+      <c r="AA179">
+        <v>3.21</v>
+      </c>
+      <c r="AB179">
+        <v>3.35</v>
+      </c>
+      <c r="AC179">
+        <v>1.05</v>
+      </c>
+      <c r="AD179">
+        <v>7.2</v>
+      </c>
+      <c r="AE179">
         <v>1.4</v>
       </c>
-      <c r="U179">
-        <v>2.75</v>
-      </c>
-      <c r="V179">
-        <v>3</v>
-      </c>
-      <c r="W179">
-        <v>1.36</v>
-      </c>
-      <c r="X179">
-        <v>8</v>
-      </c>
-      <c r="Y179">
-        <v>1.08</v>
-      </c>
-      <c r="Z179">
-        <v>2.2</v>
-      </c>
-      <c r="AA179">
-        <v>3.25</v>
-      </c>
-      <c r="AB179">
-        <v>2.75</v>
-      </c>
-      <c r="AC179">
-        <v>1.02</v>
-      </c>
-      <c r="AD179">
-        <v>8.6</v>
-      </c>
-      <c r="AE179">
-        <v>1.3</v>
-      </c>
       <c r="AF179">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="AG179">
-        <v>1.91</v>
+        <v>2.35</v>
       </c>
       <c r="AH179">
+        <v>1.56</v>
+      </c>
+      <c r="AI179">
+        <v>2</v>
+      </c>
+      <c r="AJ179">
         <v>1.73</v>
       </c>
-      <c r="AI179">
+      <c r="AK179">
+        <v>1.29</v>
+      </c>
+      <c r="AL179">
+        <v>1.31</v>
+      </c>
+      <c r="AM179">
+        <v>1.62</v>
+      </c>
+      <c r="AN179">
         <v>1.73</v>
       </c>
-      <c r="AJ179">
-        <v>2</v>
-      </c>
-      <c r="AK179">
-        <v>1.34</v>
-      </c>
-      <c r="AL179">
-        <v>1.29</v>
-      </c>
-      <c r="AM179">
-        <v>1.58</v>
-      </c>
-      <c r="AN179">
-        <v>1</v>
-      </c>
       <c r="AO179">
-        <v>1.45</v>
+        <v>0.8</v>
       </c>
       <c r="AP179">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="AQ179">
-        <v>1.42</v>
+        <v>0.73</v>
       </c>
       <c r="AR179">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AS179">
-        <v>1.44</v>
+        <v>0.87</v>
       </c>
       <c r="AT179">
-        <v>2.86</v>
+        <v>2.44</v>
       </c>
       <c r="AU179">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW179">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX179">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY179">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AZ179">
         <v>10</v>
       </c>
       <c r="BA179">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB179">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BC179">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD179">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="BE179">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF179">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BG179">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="BH179">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="BI179">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="BJ179">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="BK179">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="BL179">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="BM179">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="BN179">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="BO179">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="BP179">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="180" spans="1:68">
@@ -38142,7 +38160,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>7599954</v>
+        <v>7599955</v>
       </c>
       <c r="C180" t="s">
         <v>68</v>
@@ -38151,196 +38169,196 @@
         <v>69</v>
       </c>
       <c r="E180" s="2">
-        <v>45521.70833333334</v>
+        <v>45521.58333333334</v>
       </c>
       <c r="F180">
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H180" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O180" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="Q180">
+        <v>2.88</v>
+      </c>
+      <c r="R180">
         <v>2.1</v>
       </c>
-      <c r="R180">
+      <c r="S180">
+        <v>3.75</v>
+      </c>
+      <c r="T180">
+        <v>1.4</v>
+      </c>
+      <c r="U180">
+        <v>2.75</v>
+      </c>
+      <c r="V180">
+        <v>3</v>
+      </c>
+      <c r="W180">
+        <v>1.36</v>
+      </c>
+      <c r="X180">
+        <v>8</v>
+      </c>
+      <c r="Y180">
+        <v>1.08</v>
+      </c>
+      <c r="Z180">
         <v>2.2</v>
       </c>
-      <c r="S180">
-        <v>6.5</v>
-      </c>
-      <c r="T180">
+      <c r="AA180">
+        <v>3.25</v>
+      </c>
+      <c r="AB180">
+        <v>2.75</v>
+      </c>
+      <c r="AC180">
+        <v>1.02</v>
+      </c>
+      <c r="AD180">
+        <v>8.6</v>
+      </c>
+      <c r="AE180">
+        <v>1.3</v>
+      </c>
+      <c r="AF180">
+        <v>3.08</v>
+      </c>
+      <c r="AG180">
+        <v>1.91</v>
+      </c>
+      <c r="AH180">
+        <v>1.73</v>
+      </c>
+      <c r="AI180">
+        <v>1.73</v>
+      </c>
+      <c r="AJ180">
+        <v>2</v>
+      </c>
+      <c r="AK180">
+        <v>1.34</v>
+      </c>
+      <c r="AL180">
+        <v>1.29</v>
+      </c>
+      <c r="AM180">
+        <v>1.58</v>
+      </c>
+      <c r="AN180">
+        <v>1</v>
+      </c>
+      <c r="AO180">
+        <v>1.45</v>
+      </c>
+      <c r="AP180">
+        <v>1</v>
+      </c>
+      <c r="AQ180">
+        <v>1.42</v>
+      </c>
+      <c r="AR180">
+        <v>1.42</v>
+      </c>
+      <c r="AS180">
         <v>1.44</v>
       </c>
-      <c r="U180">
-        <v>2.63</v>
-      </c>
-      <c r="V180">
-        <v>3.25</v>
-      </c>
-      <c r="W180">
+      <c r="AT180">
+        <v>2.86</v>
+      </c>
+      <c r="AU180">
+        <v>2</v>
+      </c>
+      <c r="AV180">
+        <v>3</v>
+      </c>
+      <c r="AW180">
+        <v>3</v>
+      </c>
+      <c r="AX180">
+        <v>7</v>
+      </c>
+      <c r="AY180">
+        <v>5</v>
+      </c>
+      <c r="AZ180">
+        <v>10</v>
+      </c>
+      <c r="BA180">
+        <v>2</v>
+      </c>
+      <c r="BB180">
+        <v>11</v>
+      </c>
+      <c r="BC180">
+        <v>13</v>
+      </c>
+      <c r="BD180">
+        <v>1.91</v>
+      </c>
+      <c r="BE180">
+        <v>8</v>
+      </c>
+      <c r="BF180">
+        <v>2.2</v>
+      </c>
+      <c r="BG180">
+        <v>1.21</v>
+      </c>
+      <c r="BH180">
+        <v>3.74</v>
+      </c>
+      <c r="BI180">
+        <v>1.44</v>
+      </c>
+      <c r="BJ180">
+        <v>2.6</v>
+      </c>
+      <c r="BK180">
+        <v>1.8</v>
+      </c>
+      <c r="BL180">
+        <v>1.9</v>
+      </c>
+      <c r="BM180">
+        <v>2.3</v>
+      </c>
+      <c r="BN180">
+        <v>1.55</v>
+      </c>
+      <c r="BO180">
+        <v>3.05</v>
+      </c>
+      <c r="BP180">
         <v>1.33</v>
-      </c>
-      <c r="X180">
-        <v>9</v>
-      </c>
-      <c r="Y180">
-        <v>1.07</v>
-      </c>
-      <c r="Z180">
-        <v>1.42</v>
-      </c>
-      <c r="AA180">
-        <v>4</v>
-      </c>
-      <c r="AB180">
-        <v>7</v>
-      </c>
-      <c r="AC180">
-        <v>1.05</v>
-      </c>
-      <c r="AD180">
-        <v>8.5</v>
-      </c>
-      <c r="AE180">
-        <v>1.33</v>
-      </c>
-      <c r="AF180">
-        <v>3.1</v>
-      </c>
-      <c r="AG180">
-        <v>2.25</v>
-      </c>
-      <c r="AH180">
-        <v>1.61</v>
-      </c>
-      <c r="AI180">
-        <v>2.25</v>
-      </c>
-      <c r="AJ180">
-        <v>1.57</v>
-      </c>
-      <c r="AK180">
-        <v>1.09</v>
-      </c>
-      <c r="AL180">
-        <v>1.18</v>
-      </c>
-      <c r="AM180">
-        <v>2.45</v>
-      </c>
-      <c r="AN180">
-        <v>2.45</v>
-      </c>
-      <c r="AO180">
-        <v>1.62</v>
-      </c>
-      <c r="AP180">
-        <v>2.33</v>
-      </c>
-      <c r="AQ180">
-        <v>1.57</v>
-      </c>
-      <c r="AR180">
-        <v>1.46</v>
-      </c>
-      <c r="AS180">
-        <v>1.19</v>
-      </c>
-      <c r="AT180">
-        <v>2.65</v>
-      </c>
-      <c r="AU180">
-        <v>4</v>
-      </c>
-      <c r="AV180">
-        <v>2</v>
-      </c>
-      <c r="AW180">
-        <v>5</v>
-      </c>
-      <c r="AX180">
-        <v>5</v>
-      </c>
-      <c r="AY180">
-        <v>9</v>
-      </c>
-      <c r="AZ180">
-        <v>7</v>
-      </c>
-      <c r="BA180">
-        <v>2</v>
-      </c>
-      <c r="BB180">
-        <v>4</v>
-      </c>
-      <c r="BC180">
-        <v>6</v>
-      </c>
-      <c r="BD180">
-        <v>1.2</v>
-      </c>
-      <c r="BE180">
-        <v>10</v>
-      </c>
-      <c r="BF180">
-        <v>5.5</v>
-      </c>
-      <c r="BG180">
-        <v>1.32</v>
-      </c>
-      <c r="BH180">
-        <v>3.1</v>
-      </c>
-      <c r="BI180">
-        <v>1.6</v>
-      </c>
-      <c r="BJ180">
-        <v>2.2</v>
-      </c>
-      <c r="BK180">
-        <v>2.07</v>
-      </c>
-      <c r="BL180">
-        <v>1.67</v>
-      </c>
-      <c r="BM180">
-        <v>2.75</v>
-      </c>
-      <c r="BN180">
-        <v>1.4</v>
-      </c>
-      <c r="BO180">
-        <v>3.48</v>
-      </c>
-      <c r="BP180">
-        <v>1.24</v>
       </c>
     </row>
     <row r="181" spans="1:68">
@@ -38348,7 +38366,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>7599957</v>
+        <v>7599954</v>
       </c>
       <c r="C181" t="s">
         <v>68</v>
@@ -38357,16 +38375,16 @@
         <v>69</v>
       </c>
       <c r="E181" s="2">
-        <v>45521.8125</v>
+        <v>45521.70833333334</v>
       </c>
       <c r="F181">
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H181" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -38378,28 +38396,28 @@
         <v>0</v>
       </c>
       <c r="L181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M181">
         <v>0</v>
       </c>
       <c r="N181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O181" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="P181" t="s">
         <v>93</v>
       </c>
       <c r="Q181">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R181">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S181">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="T181">
         <v>1.44</v>
@@ -38414,139 +38432,1169 @@
         <v>1.33</v>
       </c>
       <c r="X181">
+        <v>9</v>
+      </c>
+      <c r="Y181">
+        <v>1.07</v>
+      </c>
+      <c r="Z181">
+        <v>1.42</v>
+      </c>
+      <c r="AA181">
+        <v>4</v>
+      </c>
+      <c r="AB181">
+        <v>7</v>
+      </c>
+      <c r="AC181">
+        <v>1.05</v>
+      </c>
+      <c r="AD181">
+        <v>8.5</v>
+      </c>
+      <c r="AE181">
+        <v>1.33</v>
+      </c>
+      <c r="AF181">
+        <v>3.1</v>
+      </c>
+      <c r="AG181">
+        <v>2.25</v>
+      </c>
+      <c r="AH181">
+        <v>1.61</v>
+      </c>
+      <c r="AI181">
+        <v>2.25</v>
+      </c>
+      <c r="AJ181">
+        <v>1.57</v>
+      </c>
+      <c r="AK181">
+        <v>1.09</v>
+      </c>
+      <c r="AL181">
+        <v>1.18</v>
+      </c>
+      <c r="AM181">
+        <v>2.45</v>
+      </c>
+      <c r="AN181">
+        <v>2.45</v>
+      </c>
+      <c r="AO181">
+        <v>1.62</v>
+      </c>
+      <c r="AP181">
+        <v>2.33</v>
+      </c>
+      <c r="AQ181">
+        <v>1.57</v>
+      </c>
+      <c r="AR181">
+        <v>1.46</v>
+      </c>
+      <c r="AS181">
+        <v>1.19</v>
+      </c>
+      <c r="AT181">
+        <v>2.65</v>
+      </c>
+      <c r="AU181">
+        <v>4</v>
+      </c>
+      <c r="AV181">
+        <v>2</v>
+      </c>
+      <c r="AW181">
+        <v>5</v>
+      </c>
+      <c r="AX181">
+        <v>5</v>
+      </c>
+      <c r="AY181">
+        <v>9</v>
+      </c>
+      <c r="AZ181">
+        <v>7</v>
+      </c>
+      <c r="BA181">
+        <v>2</v>
+      </c>
+      <c r="BB181">
+        <v>4</v>
+      </c>
+      <c r="BC181">
+        <v>6</v>
+      </c>
+      <c r="BD181">
+        <v>1.2</v>
+      </c>
+      <c r="BE181">
         <v>10</v>
       </c>
-      <c r="Y181">
+      <c r="BF181">
+        <v>5.5</v>
+      </c>
+      <c r="BG181">
+        <v>1.32</v>
+      </c>
+      <c r="BH181">
+        <v>3.1</v>
+      </c>
+      <c r="BI181">
+        <v>1.6</v>
+      </c>
+      <c r="BJ181">
+        <v>2.2</v>
+      </c>
+      <c r="BK181">
+        <v>2.07</v>
+      </c>
+      <c r="BL181">
+        <v>1.67</v>
+      </c>
+      <c r="BM181">
+        <v>2.75</v>
+      </c>
+      <c r="BN181">
+        <v>1.4</v>
+      </c>
+      <c r="BO181">
+        <v>3.48</v>
+      </c>
+      <c r="BP181">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7599957</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45521.8125</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182" t="s">
+        <v>79</v>
+      </c>
+      <c r="H182" t="s">
+        <v>73</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>206</v>
+      </c>
+      <c r="P182" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q182">
+        <v>2.88</v>
+      </c>
+      <c r="R182">
+        <v>2.05</v>
+      </c>
+      <c r="S182">
+        <v>4</v>
+      </c>
+      <c r="T182">
+        <v>1.44</v>
+      </c>
+      <c r="U182">
+        <v>2.63</v>
+      </c>
+      <c r="V182">
+        <v>3.25</v>
+      </c>
+      <c r="W182">
+        <v>1.33</v>
+      </c>
+      <c r="X182">
+        <v>10</v>
+      </c>
+      <c r="Y182">
         <v>1.06</v>
       </c>
-      <c r="Z181">
+      <c r="Z182">
         <v>2.1</v>
       </c>
-      <c r="AA181">
+      <c r="AA182">
         <v>3.1</v>
       </c>
-      <c r="AB181">
+      <c r="AB182">
         <v>3.3</v>
       </c>
-      <c r="AC181">
+      <c r="AC182">
         <v>1.03</v>
       </c>
-      <c r="AD181">
+      <c r="AD182">
         <v>8.199999999999999</v>
       </c>
-      <c r="AE181">
+      <c r="AE182">
         <v>1.32</v>
       </c>
-      <c r="AF181">
+      <c r="AF182">
         <v>2.98</v>
       </c>
-      <c r="AG181">
+      <c r="AG182">
         <v>2.16</v>
       </c>
-      <c r="AH181">
+      <c r="AH182">
         <v>1.66</v>
       </c>
-      <c r="AI181">
+      <c r="AI182">
         <v>1.83</v>
       </c>
-      <c r="AJ181">
+      <c r="AJ182">
         <v>1.83</v>
       </c>
-      <c r="AK181">
+      <c r="AK182">
         <v>1.3</v>
       </c>
-      <c r="AL181">
+      <c r="AL182">
         <v>1.29</v>
       </c>
-      <c r="AM181">
+      <c r="AM182">
         <v>1.63</v>
       </c>
-      <c r="AN181">
+      <c r="AN182">
         <v>1.36</v>
       </c>
-      <c r="AO181">
+      <c r="AO182">
         <v>1.27</v>
       </c>
-      <c r="AP181">
+      <c r="AP182">
         <v>1.5</v>
       </c>
-      <c r="AQ181">
+      <c r="AQ182">
         <v>1.17</v>
       </c>
-      <c r="AR181">
+      <c r="AR182">
         <v>1.47</v>
       </c>
-      <c r="AS181">
+      <c r="AS182">
         <v>1.28</v>
       </c>
-      <c r="AT181">
+      <c r="AT182">
         <v>2.75</v>
       </c>
-      <c r="AU181">
-        <v>2</v>
-      </c>
-      <c r="AV181">
+      <c r="AU182">
+        <v>2</v>
+      </c>
+      <c r="AV182">
         <v>4</v>
       </c>
-      <c r="AW181">
-        <v>3</v>
-      </c>
-      <c r="AX181">
+      <c r="AW182">
+        <v>3</v>
+      </c>
+      <c r="AX182">
         <v>4</v>
       </c>
-      <c r="AY181">
+      <c r="AY182">
         <v>5</v>
       </c>
-      <c r="AZ181">
+      <c r="AZ182">
         <v>8</v>
       </c>
-      <c r="BA181">
-        <v>2</v>
-      </c>
-      <c r="BB181">
+      <c r="BA182">
+        <v>2</v>
+      </c>
+      <c r="BB182">
         <v>5</v>
       </c>
-      <c r="BC181">
+      <c r="BC182">
         <v>7</v>
       </c>
-      <c r="BD181">
+      <c r="BD182">
         <v>1.62</v>
       </c>
-      <c r="BE181">
+      <c r="BE182">
         <v>8</v>
       </c>
-      <c r="BF181">
+      <c r="BF182">
         <v>2.62</v>
       </c>
-      <c r="BG181">
+      <c r="BG182">
         <v>1.26</v>
       </c>
-      <c r="BH181">
+      <c r="BH182">
         <v>3.34</v>
       </c>
-      <c r="BI181">
+      <c r="BI182">
         <v>1.47</v>
       </c>
-      <c r="BJ181">
+      <c r="BJ182">
         <v>2.5</v>
       </c>
-      <c r="BK181">
-        <v>2</v>
-      </c>
-      <c r="BL181">
+      <c r="BK182">
+        <v>2</v>
+      </c>
+      <c r="BL182">
         <v>1.8</v>
       </c>
-      <c r="BM181">
+      <c r="BM182">
         <v>2.35</v>
       </c>
-      <c r="BN181">
+      <c r="BN182">
         <v>1.52</v>
       </c>
-      <c r="BO181">
+      <c r="BO182">
         <v>3.15</v>
       </c>
-      <c r="BP181">
+      <c r="BP182">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7599960</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45522.52083333334</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
+        <v>85</v>
+      </c>
+      <c r="H183" t="s">
+        <v>71</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>207</v>
+      </c>
+      <c r="P183" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q183">
+        <v>3</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>1.5</v>
+      </c>
+      <c r="U183">
+        <v>2.5</v>
+      </c>
+      <c r="V183">
+        <v>3.4</v>
+      </c>
+      <c r="W183">
+        <v>1.3</v>
+      </c>
+      <c r="X183">
+        <v>10</v>
+      </c>
+      <c r="Y183">
+        <v>1.06</v>
+      </c>
+      <c r="Z183">
+        <v>2.02</v>
+      </c>
+      <c r="AA183">
+        <v>2.68</v>
+      </c>
+      <c r="AB183">
+        <v>3.12</v>
+      </c>
+      <c r="AC183">
+        <v>1.08</v>
+      </c>
+      <c r="AD183">
+        <v>6.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.35</v>
+      </c>
+      <c r="AF183">
+        <v>2.9</v>
+      </c>
+      <c r="AG183">
+        <v>2.34</v>
+      </c>
+      <c r="AH183">
+        <v>1.53</v>
+      </c>
+      <c r="AI183">
+        <v>1.91</v>
+      </c>
+      <c r="AJ183">
+        <v>1.8</v>
+      </c>
+      <c r="AK183">
+        <v>1.28</v>
+      </c>
+      <c r="AL183">
+        <v>1.32</v>
+      </c>
+      <c r="AM183">
+        <v>1.63</v>
+      </c>
+      <c r="AN183">
+        <v>1.11</v>
+      </c>
+      <c r="AO183">
+        <v>1.2</v>
+      </c>
+      <c r="AP183">
+        <v>1.3</v>
+      </c>
+      <c r="AQ183">
+        <v>1.09</v>
+      </c>
+      <c r="AR183">
+        <v>1.12</v>
+      </c>
+      <c r="AS183">
+        <v>1.22</v>
+      </c>
+      <c r="AT183">
+        <v>2.34</v>
+      </c>
+      <c r="AU183">
+        <v>8</v>
+      </c>
+      <c r="AV183">
+        <v>4</v>
+      </c>
+      <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>1</v>
+      </c>
+      <c r="AY183">
+        <v>11</v>
+      </c>
+      <c r="AZ183">
+        <v>5</v>
+      </c>
+      <c r="BA183">
+        <v>8</v>
+      </c>
+      <c r="BB183">
+        <v>4</v>
+      </c>
+      <c r="BC183">
+        <v>12</v>
+      </c>
+      <c r="BD183">
+        <v>1.73</v>
+      </c>
+      <c r="BE183">
+        <v>8</v>
+      </c>
+      <c r="BF183">
+        <v>2.4</v>
+      </c>
+      <c r="BG183">
+        <v>1.29</v>
+      </c>
+      <c r="BH183">
+        <v>3.3</v>
+      </c>
+      <c r="BI183">
+        <v>1.55</v>
+      </c>
+      <c r="BJ183">
+        <v>2.3</v>
+      </c>
+      <c r="BK183">
+        <v>1.98</v>
+      </c>
+      <c r="BL183">
+        <v>1.82</v>
+      </c>
+      <c r="BM183">
+        <v>2.65</v>
+      </c>
+      <c r="BN183">
+        <v>1.42</v>
+      </c>
+      <c r="BO183">
+        <v>3.74</v>
+      </c>
+      <c r="BP183">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7599958</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45522.625</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184" t="s">
+        <v>84</v>
+      </c>
+      <c r="H184" t="s">
+        <v>72</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184" t="s">
+        <v>93</v>
+      </c>
+      <c r="P184" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q184">
+        <v>2.88</v>
+      </c>
+      <c r="R184">
+        <v>2.2</v>
+      </c>
+      <c r="S184">
+        <v>3.6</v>
+      </c>
+      <c r="T184">
+        <v>1.4</v>
+      </c>
+      <c r="U184">
+        <v>2.75</v>
+      </c>
+      <c r="V184">
+        <v>2.75</v>
+      </c>
+      <c r="W184">
+        <v>1.4</v>
+      </c>
+      <c r="X184">
+        <v>8</v>
+      </c>
+      <c r="Y184">
+        <v>1.08</v>
+      </c>
+      <c r="Z184">
+        <v>2.04</v>
+      </c>
+      <c r="AA184">
+        <v>2.93</v>
+      </c>
+      <c r="AB184">
+        <v>2.79</v>
+      </c>
+      <c r="AC184">
+        <v>1.05</v>
+      </c>
+      <c r="AD184">
+        <v>7.8</v>
+      </c>
+      <c r="AE184">
+        <v>1.25</v>
+      </c>
+      <c r="AF184">
+        <v>3.5</v>
+      </c>
+      <c r="AG184">
+        <v>1.93</v>
+      </c>
+      <c r="AH184">
+        <v>1.81</v>
+      </c>
+      <c r="AI184">
+        <v>1.67</v>
+      </c>
+      <c r="AJ184">
+        <v>2.1</v>
+      </c>
+      <c r="AK184">
+        <v>1.33</v>
+      </c>
+      <c r="AL184">
+        <v>1.29</v>
+      </c>
+      <c r="AM184">
+        <v>1.6</v>
+      </c>
+      <c r="AN184">
+        <v>1.91</v>
+      </c>
+      <c r="AO184">
+        <v>1</v>
+      </c>
+      <c r="AP184">
+        <v>1.83</v>
+      </c>
+      <c r="AQ184">
+        <v>1</v>
+      </c>
+      <c r="AR184">
+        <v>1.52</v>
+      </c>
+      <c r="AS184">
+        <v>1.05</v>
+      </c>
+      <c r="AT184">
+        <v>2.57</v>
+      </c>
+      <c r="AU184">
+        <v>6</v>
+      </c>
+      <c r="AV184">
+        <v>4</v>
+      </c>
+      <c r="AW184">
+        <v>8</v>
+      </c>
+      <c r="AX184">
+        <v>7</v>
+      </c>
+      <c r="AY184">
+        <v>14</v>
+      </c>
+      <c r="AZ184">
+        <v>11</v>
+      </c>
+      <c r="BA184">
+        <v>2</v>
+      </c>
+      <c r="BB184">
+        <v>1</v>
+      </c>
+      <c r="BC184">
+        <v>3</v>
+      </c>
+      <c r="BD184">
+        <v>1.62</v>
+      </c>
+      <c r="BE184">
+        <v>8.5</v>
+      </c>
+      <c r="BF184">
+        <v>2.62</v>
+      </c>
+      <c r="BG184">
+        <v>1.22</v>
+      </c>
+      <c r="BH184">
+        <v>3.65</v>
+      </c>
+      <c r="BI184">
+        <v>1.42</v>
+      </c>
+      <c r="BJ184">
+        <v>2.65</v>
+      </c>
+      <c r="BK184">
+        <v>1.8</v>
+      </c>
+      <c r="BL184">
+        <v>1.9</v>
+      </c>
+      <c r="BM184">
+        <v>2.3</v>
+      </c>
+      <c r="BN184">
+        <v>1.55</v>
+      </c>
+      <c r="BO184">
+        <v>3.05</v>
+      </c>
+      <c r="BP184">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7599956</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45522.75</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185" t="s">
+        <v>77</v>
+      </c>
+      <c r="H185" t="s">
+        <v>70</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>3</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>3</v>
+      </c>
+      <c r="N185">
+        <v>6</v>
+      </c>
+      <c r="O185" t="s">
+        <v>208</v>
+      </c>
+      <c r="P185" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q185">
+        <v>6</v>
+      </c>
+      <c r="R185">
+        <v>2.25</v>
+      </c>
+      <c r="S185">
+        <v>2.1</v>
+      </c>
+      <c r="T185">
+        <v>1.4</v>
+      </c>
+      <c r="U185">
+        <v>2.75</v>
+      </c>
+      <c r="V185">
+        <v>2.75</v>
+      </c>
+      <c r="W185">
+        <v>1.4</v>
+      </c>
+      <c r="X185">
+        <v>8</v>
+      </c>
+      <c r="Y185">
+        <v>1.08</v>
+      </c>
+      <c r="Z185">
+        <v>6.73</v>
+      </c>
+      <c r="AA185">
+        <v>4.22</v>
+      </c>
+      <c r="AB185">
+        <v>1.43</v>
+      </c>
+      <c r="AC185">
+        <v>1.02</v>
+      </c>
+      <c r="AD185">
+        <v>9.1</v>
+      </c>
+      <c r="AE185">
+        <v>1.27</v>
+      </c>
+      <c r="AF185">
+        <v>3.28</v>
+      </c>
+      <c r="AG185">
+        <v>1.89</v>
+      </c>
+      <c r="AH185">
+        <v>1.84</v>
+      </c>
+      <c r="AI185">
+        <v>2</v>
+      </c>
+      <c r="AJ185">
+        <v>1.73</v>
+      </c>
+      <c r="AK185">
+        <v>2.47</v>
+      </c>
+      <c r="AL185">
+        <v>1.2</v>
+      </c>
+      <c r="AM185">
+        <v>1.09</v>
+      </c>
+      <c r="AN185">
+        <v>1.18</v>
+      </c>
+      <c r="AO185">
+        <v>2.1</v>
+      </c>
+      <c r="AP185">
+        <v>1.17</v>
+      </c>
+      <c r="AQ185">
+        <v>2</v>
+      </c>
+      <c r="AR185">
+        <v>1.44</v>
+      </c>
+      <c r="AS185">
+        <v>1.63</v>
+      </c>
+      <c r="AT185">
+        <v>3.07</v>
+      </c>
+      <c r="AU185">
+        <v>7</v>
+      </c>
+      <c r="AV185">
+        <v>7</v>
+      </c>
+      <c r="AW185">
+        <v>5</v>
+      </c>
+      <c r="AX185">
+        <v>5</v>
+      </c>
+      <c r="AY185">
+        <v>12</v>
+      </c>
+      <c r="AZ185">
+        <v>12</v>
+      </c>
+      <c r="BA185">
+        <v>2</v>
+      </c>
+      <c r="BB185">
+        <v>10</v>
+      </c>
+      <c r="BC185">
+        <v>12</v>
+      </c>
+      <c r="BD185">
+        <v>3.75</v>
+      </c>
+      <c r="BE185">
+        <v>9</v>
+      </c>
+      <c r="BF185">
+        <v>1.33</v>
+      </c>
+      <c r="BG185">
+        <v>1.29</v>
+      </c>
+      <c r="BH185">
+        <v>3.3</v>
+      </c>
+      <c r="BI185">
+        <v>1.54</v>
+      </c>
+      <c r="BJ185">
+        <v>2.32</v>
+      </c>
+      <c r="BK185">
+        <v>1.99</v>
+      </c>
+      <c r="BL185">
+        <v>1.73</v>
+      </c>
+      <c r="BM185">
+        <v>2.62</v>
+      </c>
+      <c r="BN185">
+        <v>1.43</v>
+      </c>
+      <c r="BO185">
+        <v>3.42</v>
+      </c>
+      <c r="BP185">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7599961</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45522.85416666666</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186" t="s">
+        <v>82</v>
+      </c>
+      <c r="H186" t="s">
+        <v>83</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>3</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>209</v>
+      </c>
+      <c r="P186" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q186">
+        <v>2.2</v>
+      </c>
+      <c r="R186">
+        <v>2.3</v>
+      </c>
+      <c r="S186">
+        <v>5.5</v>
+      </c>
+      <c r="T186">
+        <v>1.36</v>
+      </c>
+      <c r="U186">
+        <v>3</v>
+      </c>
+      <c r="V186">
+        <v>2.75</v>
+      </c>
+      <c r="W186">
+        <v>1.4</v>
+      </c>
+      <c r="X186">
+        <v>7</v>
+      </c>
+      <c r="Y186">
+        <v>1.1</v>
+      </c>
+      <c r="Z186">
+        <v>1.5</v>
+      </c>
+      <c r="AA186">
+        <v>3.9</v>
+      </c>
+      <c r="AB186">
+        <v>5.5</v>
+      </c>
+      <c r="AC186">
+        <v>1.01</v>
+      </c>
+      <c r="AD186">
+        <v>9.6</v>
+      </c>
+      <c r="AE186">
+        <v>1.25</v>
+      </c>
+      <c r="AF186">
+        <v>3.42</v>
+      </c>
+      <c r="AG186">
+        <v>1.84</v>
+      </c>
+      <c r="AH186">
+        <v>1.9</v>
+      </c>
+      <c r="AI186">
+        <v>1.91</v>
+      </c>
+      <c r="AJ186">
+        <v>1.8</v>
+      </c>
+      <c r="AK186">
+        <v>1.12</v>
+      </c>
+      <c r="AL186">
+        <v>1.21</v>
+      </c>
+      <c r="AM186">
+        <v>2.28</v>
+      </c>
+      <c r="AN186">
+        <v>1.73</v>
+      </c>
+      <c r="AO186">
+        <v>0.92</v>
+      </c>
+      <c r="AP186">
+        <v>1.58</v>
+      </c>
+      <c r="AQ186">
+        <v>1.08</v>
+      </c>
+      <c r="AR186">
+        <v>1.37</v>
+      </c>
+      <c r="AS186">
+        <v>1.06</v>
+      </c>
+      <c r="AT186">
+        <v>2.43</v>
+      </c>
+      <c r="AU186">
+        <v>3</v>
+      </c>
+      <c r="AV186">
+        <v>3</v>
+      </c>
+      <c r="AW186">
+        <v>2</v>
+      </c>
+      <c r="AX186">
+        <v>1</v>
+      </c>
+      <c r="AY186">
+        <v>5</v>
+      </c>
+      <c r="AZ186">
+        <v>4</v>
+      </c>
+      <c r="BA186">
+        <v>5</v>
+      </c>
+      <c r="BB186">
+        <v>2</v>
+      </c>
+      <c r="BC186">
+        <v>7</v>
+      </c>
+      <c r="BD186">
+        <v>1.44</v>
+      </c>
+      <c r="BE186">
+        <v>8.5</v>
+      </c>
+      <c r="BF186">
+        <v>3.2</v>
+      </c>
+      <c r="BG186">
+        <v>1.31</v>
+      </c>
+      <c r="BH186">
+        <v>3.15</v>
+      </c>
+      <c r="BI186">
+        <v>1.56</v>
+      </c>
+      <c r="BJ186">
+        <v>2.27</v>
+      </c>
+      <c r="BK186">
+        <v>2.05</v>
+      </c>
+      <c r="BL186">
+        <v>1.7</v>
+      </c>
+      <c r="BM186">
+        <v>2.55</v>
+      </c>
+      <c r="BN186">
+        <v>1.45</v>
+      </c>
+      <c r="BO186">
+        <v>3.48</v>
+      </c>
+      <c r="BP186">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -607,10 +607,10 @@
     <t>['37']</t>
   </si>
   <si>
-    <t>['80']</t>
+    <t>['90+1']</t>
   </si>
   <si>
-    <t>['90+1']</t>
+    <t>['80']</t>
   </si>
   <si>
     <t>['1', '22', '50', '67']</t>
@@ -28726,7 +28726,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q134">
         <v>2.91</v>
@@ -32228,7 +32228,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q151">
         <v>1.75</v>
@@ -36512,7 +36512,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7446518</v>
+        <v>7446516</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36527,10 +36527,10 @@
         <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H172" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -36557,136 +36557,136 @@
         <v>93</v>
       </c>
       <c r="Q172">
+        <v>2.4</v>
+      </c>
+      <c r="R172">
+        <v>2.2</v>
+      </c>
+      <c r="S172">
+        <v>4.75</v>
+      </c>
+      <c r="T172">
+        <v>1.4</v>
+      </c>
+      <c r="U172">
         <v>2.75</v>
       </c>
-      <c r="R172">
-        <v>2.05</v>
-      </c>
-      <c r="S172">
-        <v>4.33</v>
-      </c>
-      <c r="T172">
-        <v>1.44</v>
-      </c>
-      <c r="U172">
-        <v>2.63</v>
-      </c>
       <c r="V172">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W172">
+        <v>1.36</v>
+      </c>
+      <c r="X172">
+        <v>8</v>
+      </c>
+      <c r="Y172">
+        <v>1.08</v>
+      </c>
+      <c r="Z172">
+        <v>1.8</v>
+      </c>
+      <c r="AA172">
+        <v>3.4</v>
+      </c>
+      <c r="AB172">
+        <v>3.75</v>
+      </c>
+      <c r="AC172">
+        <v>1.03</v>
+      </c>
+      <c r="AD172">
+        <v>8.4</v>
+      </c>
+      <c r="AE172">
+        <v>1.31</v>
+      </c>
+      <c r="AF172">
+        <v>3.04</v>
+      </c>
+      <c r="AG172">
+        <v>2</v>
+      </c>
+      <c r="AH172">
+        <v>1.73</v>
+      </c>
+      <c r="AI172">
+        <v>1.83</v>
+      </c>
+      <c r="AJ172">
+        <v>1.83</v>
+      </c>
+      <c r="AK172">
+        <v>1.19</v>
+      </c>
+      <c r="AL172">
+        <v>1.26</v>
+      </c>
+      <c r="AM172">
+        <v>1.93</v>
+      </c>
+      <c r="AN172">
+        <v>2.4</v>
+      </c>
+      <c r="AO172">
+        <v>2</v>
+      </c>
+      <c r="AP172">
+        <v>2.33</v>
+      </c>
+      <c r="AQ172">
+        <v>1.82</v>
+      </c>
+      <c r="AR172">
+        <v>1.48</v>
+      </c>
+      <c r="AS172">
+        <v>1.58</v>
+      </c>
+      <c r="AT172">
+        <v>3.06</v>
+      </c>
+      <c r="AU172">
+        <v>3</v>
+      </c>
+      <c r="AV172">
+        <v>6</v>
+      </c>
+      <c r="AW172">
+        <v>6</v>
+      </c>
+      <c r="AX172">
+        <v>2</v>
+      </c>
+      <c r="AY172">
+        <v>9</v>
+      </c>
+      <c r="AZ172">
+        <v>8</v>
+      </c>
+      <c r="BA172">
+        <v>10</v>
+      </c>
+      <c r="BB172">
+        <v>3</v>
+      </c>
+      <c r="BC172">
+        <v>13</v>
+      </c>
+      <c r="BD172">
+        <v>1.5</v>
+      </c>
+      <c r="BE172">
+        <v>8</v>
+      </c>
+      <c r="BF172">
+        <v>3</v>
+      </c>
+      <c r="BG172">
         <v>1.33</v>
       </c>
-      <c r="X172">
-        <v>10</v>
-      </c>
-      <c r="Y172">
-        <v>1.06</v>
-      </c>
-      <c r="Z172">
-        <v>2.1</v>
-      </c>
-      <c r="AA172">
-        <v>3.25</v>
-      </c>
-      <c r="AB172">
-        <v>3.2</v>
-      </c>
-      <c r="AC172">
-        <v>1.05</v>
-      </c>
-      <c r="AD172">
-        <v>8</v>
-      </c>
-      <c r="AE172">
-        <v>1.37</v>
-      </c>
-      <c r="AF172">
-        <v>3.06</v>
-      </c>
-      <c r="AG172">
-        <v>2.15</v>
-      </c>
-      <c r="AH172">
-        <v>1.65</v>
-      </c>
-      <c r="AI172">
-        <v>1.91</v>
-      </c>
-      <c r="AJ172">
-        <v>1.8</v>
-      </c>
-      <c r="AK172">
-        <v>1.28</v>
-      </c>
-      <c r="AL172">
-        <v>1.29</v>
-      </c>
-      <c r="AM172">
-        <v>1.66</v>
-      </c>
-      <c r="AN172">
-        <v>1.6</v>
-      </c>
-      <c r="AO172">
-        <v>1.4</v>
-      </c>
-      <c r="AP172">
-        <v>1.83</v>
-      </c>
-      <c r="AQ172">
-        <v>1.17</v>
-      </c>
-      <c r="AR172">
-        <v>1.58</v>
-      </c>
-      <c r="AS172">
-        <v>1.27</v>
-      </c>
-      <c r="AT172">
-        <v>2.85</v>
-      </c>
-      <c r="AU172">
-        <v>4</v>
-      </c>
-      <c r="AV172">
-        <v>5</v>
-      </c>
-      <c r="AW172">
-        <v>8</v>
-      </c>
-      <c r="AX172">
-        <v>7</v>
-      </c>
-      <c r="AY172">
-        <v>12</v>
-      </c>
-      <c r="AZ172">
-        <v>12</v>
-      </c>
-      <c r="BA172">
-        <v>4</v>
-      </c>
-      <c r="BB172">
-        <v>1</v>
-      </c>
-      <c r="BC172">
-        <v>5</v>
-      </c>
-      <c r="BD172">
-        <v>1.73</v>
-      </c>
-      <c r="BE172">
-        <v>7.5</v>
-      </c>
-      <c r="BF172">
-        <v>2.4</v>
-      </c>
-      <c r="BG172">
-        <v>1.3</v>
-      </c>
       <c r="BH172">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="BI172">
         <v>1.7</v>
@@ -36695,22 +36695,22 @@
         <v>2.05</v>
       </c>
       <c r="BK172">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="BL172">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BM172">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="BN172">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BO172">
-        <v>3.56</v>
+        <v>3.2</v>
       </c>
       <c r="BP172">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -36718,7 +36718,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7446516</v>
+        <v>7446518</v>
       </c>
       <c r="C173" t="s">
         <v>68</v>
@@ -36733,10 +36733,10 @@
         <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H173" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -36763,136 +36763,136 @@
         <v>93</v>
       </c>
       <c r="Q173">
+        <v>2.75</v>
+      </c>
+      <c r="R173">
+        <v>2.05</v>
+      </c>
+      <c r="S173">
+        <v>4.33</v>
+      </c>
+      <c r="T173">
+        <v>1.44</v>
+      </c>
+      <c r="U173">
+        <v>2.63</v>
+      </c>
+      <c r="V173">
+        <v>3.25</v>
+      </c>
+      <c r="W173">
+        <v>1.33</v>
+      </c>
+      <c r="X173">
+        <v>10</v>
+      </c>
+      <c r="Y173">
+        <v>1.06</v>
+      </c>
+      <c r="Z173">
+        <v>2.1</v>
+      </c>
+      <c r="AA173">
+        <v>3.25</v>
+      </c>
+      <c r="AB173">
+        <v>3.2</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>8</v>
+      </c>
+      <c r="AE173">
+        <v>1.37</v>
+      </c>
+      <c r="AF173">
+        <v>3.06</v>
+      </c>
+      <c r="AG173">
+        <v>2.15</v>
+      </c>
+      <c r="AH173">
+        <v>1.65</v>
+      </c>
+      <c r="AI173">
+        <v>1.91</v>
+      </c>
+      <c r="AJ173">
+        <v>1.8</v>
+      </c>
+      <c r="AK173">
+        <v>1.28</v>
+      </c>
+      <c r="AL173">
+        <v>1.29</v>
+      </c>
+      <c r="AM173">
+        <v>1.66</v>
+      </c>
+      <c r="AN173">
+        <v>1.6</v>
+      </c>
+      <c r="AO173">
+        <v>1.4</v>
+      </c>
+      <c r="AP173">
+        <v>1.83</v>
+      </c>
+      <c r="AQ173">
+        <v>1.17</v>
+      </c>
+      <c r="AR173">
+        <v>1.58</v>
+      </c>
+      <c r="AS173">
+        <v>1.27</v>
+      </c>
+      <c r="AT173">
+        <v>2.85</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>5</v>
+      </c>
+      <c r="AW173">
+        <v>8</v>
+      </c>
+      <c r="AX173">
+        <v>7</v>
+      </c>
+      <c r="AY173">
+        <v>12</v>
+      </c>
+      <c r="AZ173">
+        <v>12</v>
+      </c>
+      <c r="BA173">
+        <v>4</v>
+      </c>
+      <c r="BB173">
+        <v>1</v>
+      </c>
+      <c r="BC173">
+        <v>5</v>
+      </c>
+      <c r="BD173">
+        <v>1.73</v>
+      </c>
+      <c r="BE173">
+        <v>7.5</v>
+      </c>
+      <c r="BF173">
         <v>2.4</v>
       </c>
-      <c r="R173">
-        <v>2.2</v>
-      </c>
-      <c r="S173">
-        <v>4.75</v>
-      </c>
-      <c r="T173">
-        <v>1.4</v>
-      </c>
-      <c r="U173">
-        <v>2.75</v>
-      </c>
-      <c r="V173">
-        <v>3</v>
-      </c>
-      <c r="W173">
-        <v>1.36</v>
-      </c>
-      <c r="X173">
-        <v>8</v>
-      </c>
-      <c r="Y173">
-        <v>1.08</v>
-      </c>
-      <c r="Z173">
-        <v>1.8</v>
-      </c>
-      <c r="AA173">
-        <v>3.4</v>
-      </c>
-      <c r="AB173">
-        <v>3.75</v>
-      </c>
-      <c r="AC173">
-        <v>1.03</v>
-      </c>
-      <c r="AD173">
-        <v>8.4</v>
-      </c>
-      <c r="AE173">
-        <v>1.31</v>
-      </c>
-      <c r="AF173">
-        <v>3.04</v>
-      </c>
-      <c r="AG173">
-        <v>2</v>
-      </c>
-      <c r="AH173">
-        <v>1.73</v>
-      </c>
-      <c r="AI173">
-        <v>1.83</v>
-      </c>
-      <c r="AJ173">
-        <v>1.83</v>
-      </c>
-      <c r="AK173">
-        <v>1.19</v>
-      </c>
-      <c r="AL173">
-        <v>1.26</v>
-      </c>
-      <c r="AM173">
-        <v>1.93</v>
-      </c>
-      <c r="AN173">
-        <v>2.4</v>
-      </c>
-      <c r="AO173">
-        <v>2</v>
-      </c>
-      <c r="AP173">
-        <v>2.33</v>
-      </c>
-      <c r="AQ173">
-        <v>1.82</v>
-      </c>
-      <c r="AR173">
-        <v>1.48</v>
-      </c>
-      <c r="AS173">
-        <v>1.58</v>
-      </c>
-      <c r="AT173">
-        <v>3.06</v>
-      </c>
-      <c r="AU173">
-        <v>3</v>
-      </c>
-      <c r="AV173">
-        <v>6</v>
-      </c>
-      <c r="AW173">
-        <v>6</v>
-      </c>
-      <c r="AX173">
-        <v>2</v>
-      </c>
-      <c r="AY173">
-        <v>9</v>
-      </c>
-      <c r="AZ173">
-        <v>8</v>
-      </c>
-      <c r="BA173">
-        <v>10</v>
-      </c>
-      <c r="BB173">
-        <v>3</v>
-      </c>
-      <c r="BC173">
-        <v>13</v>
-      </c>
-      <c r="BD173">
-        <v>1.5</v>
-      </c>
-      <c r="BE173">
-        <v>8</v>
-      </c>
-      <c r="BF173">
-        <v>3</v>
-      </c>
       <c r="BG173">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BH173">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="BI173">
         <v>1.7</v>
@@ -36901,22 +36901,22 @@
         <v>2.05</v>
       </c>
       <c r="BK173">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="BL173">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BM173">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="BN173">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BO173">
-        <v>3.2</v>
+        <v>3.56</v>
       </c>
       <c r="BP173">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="174" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,9 @@
     <t>['1']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -838,9 +841,6 @@
     <t>['38']</t>
   </si>
   <si>
-    <t>['8']</t>
-  </si>
-  <si>
     <t>['34', '86']</t>
   </si>
   <si>
@@ -914,6 +914,12 @@
   </si>
   <si>
     <t>['4', '8']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['65', '69']</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP186"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1540,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1615,7 +1621,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ2">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1740,7 +1746,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1946,7 +1952,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2024,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2152,7 +2158,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2230,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ5">
         <v>1.73</v>
@@ -2436,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ6">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2564,7 +2570,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2642,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
         <v>0.89</v>
@@ -2770,7 +2776,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2851,7 +2857,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ8">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2976,7 +2982,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -4418,7 +4424,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4496,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4624,7 +4630,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4702,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ17">
         <v>1.57</v>
@@ -4830,7 +4836,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -4908,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>1.29</v>
@@ -5323,7 +5329,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ20">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5448,7 +5454,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5654,7 +5660,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5860,7 +5866,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5941,7 +5947,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ23">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6066,7 +6072,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6144,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ24">
         <v>1.09</v>
@@ -6272,7 +6278,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6684,7 +6690,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6890,7 +6896,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7096,7 +7102,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -8001,7 +8007,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ33">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.12</v>
@@ -8126,7 +8132,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8204,10 +8210,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ34">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -8332,7 +8338,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8822,10 +8828,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ37">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR37">
         <v>1.36</v>
@@ -9028,7 +9034,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ38">
         <v>1.57</v>
@@ -9156,7 +9162,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9237,7 +9243,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ39">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9362,7 +9368,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9568,7 +9574,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10267,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10804,7 +10810,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10882,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ47">
         <v>0.73</v>
@@ -11010,7 +11016,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11216,7 +11222,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11297,7 +11303,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11422,7 +11428,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11503,7 +11509,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ50">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>1.19</v>
@@ -11628,7 +11634,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11706,7 +11712,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12324,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ54">
         <v>1.08</v>
@@ -12452,7 +12458,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12658,7 +12664,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12736,10 +12742,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ56">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR56">
         <v>1.16</v>
@@ -13148,7 +13154,7 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ58">
         <v>1.09</v>
@@ -13354,7 +13360,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ59">
         <v>1.57</v>
@@ -13769,7 +13775,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ61">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -14100,7 +14106,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14306,7 +14312,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14384,7 +14390,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ64">
         <v>2</v>
@@ -14590,7 +14596,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ65">
         <v>0.73</v>
@@ -14799,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -14924,7 +14930,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15130,7 +15136,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15211,7 +15217,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15336,7 +15342,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15542,7 +15548,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15620,7 +15626,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15748,7 +15754,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15829,7 +15835,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ71">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR71">
         <v>1.16</v>
@@ -15954,7 +15960,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16160,7 +16166,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16241,7 +16247,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR73">
         <v>0.8</v>
@@ -16366,7 +16372,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16778,7 +16784,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16856,7 +16862,7 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ76">
         <v>1.38</v>
@@ -17190,7 +17196,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17268,7 +17274,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17396,7 +17402,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17477,7 +17483,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ79">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -17680,7 +17686,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ80">
         <v>1.09</v>
@@ -17889,7 +17895,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ81">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.33</v>
@@ -18014,7 +18020,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18220,7 +18226,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18301,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR83">
         <v>1.58</v>
@@ -18426,7 +18432,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18632,7 +18638,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -19044,7 +19050,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19250,7 +19256,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19331,7 +19337,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ88">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19534,7 +19540,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ89">
         <v>0.73</v>
@@ -19662,7 +19668,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19946,7 +19952,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ91">
         <v>1.38</v>
@@ -20152,10 +20158,10 @@
         <v>0.4</v>
       </c>
       <c r="AP92">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ92">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -20280,7 +20286,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20358,7 +20364,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ93">
         <v>1.17</v>
@@ -20567,7 +20573,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ94">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR94">
         <v>1.37</v>
@@ -20692,7 +20698,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20898,7 +20904,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21104,7 +21110,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21185,7 +21191,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ97">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21516,7 +21522,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21722,7 +21728,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -21803,7 +21809,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ100">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR100">
         <v>1.43</v>
@@ -22546,7 +22552,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22752,7 +22758,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -22830,7 +22836,7 @@
         <v>1.8</v>
       </c>
       <c r="AP105">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ105">
         <v>2</v>
@@ -23164,7 +23170,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23242,7 +23248,7 @@
         <v>2.14</v>
       </c>
       <c r="AP107">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ107">
         <v>1.73</v>
@@ -23448,10 +23454,10 @@
         <v>1.14</v>
       </c>
       <c r="AP108">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ108">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR108">
         <v>1.21</v>
@@ -23576,7 +23582,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23988,7 +23994,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24066,10 +24072,10 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ111">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24400,7 +24406,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24478,7 +24484,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ113">
         <v>1.09</v>
@@ -24812,7 +24818,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25018,7 +25024,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25099,7 +25105,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ116">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR116">
         <v>1.25</v>
@@ -25430,7 +25436,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25636,7 +25642,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26048,7 +26054,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26254,7 +26260,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26460,7 +26466,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26538,7 +26544,7 @@
         <v>1.29</v>
       </c>
       <c r="AP123">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ123">
         <v>1.09</v>
@@ -26747,7 +26753,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ124">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -26872,7 +26878,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -26950,10 +26956,10 @@
         <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ125">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR125">
         <v>1.09</v>
@@ -27365,7 +27371,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ127">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR127">
         <v>1.68</v>
@@ -27568,7 +27574,7 @@
         <v>2.14</v>
       </c>
       <c r="AP128">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ128">
         <v>2</v>
@@ -27980,7 +27986,7 @@
         <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ130">
         <v>0.73</v>
@@ -28807,7 +28813,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ134">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR134">
         <v>1.24</v>
@@ -29628,7 +29634,7 @@
         <v>1.1</v>
       </c>
       <c r="AP138">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ138">
         <v>1.38</v>
@@ -29834,7 +29840,7 @@
         <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ139">
         <v>1.09</v>
@@ -30040,10 +30046,10 @@
         <v>1.75</v>
       </c>
       <c r="AP140">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ140">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR140">
         <v>1.34</v>
@@ -30249,7 +30255,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ141">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -31073,7 +31079,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ145">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR145">
         <v>1.53</v>
@@ -31897,7 +31903,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ149">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>1.31</v>
@@ -32515,7 +32521,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ152">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR152">
         <v>1.38</v>
@@ -32718,7 +32724,7 @@
         <v>1.09</v>
       </c>
       <c r="AP153">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ153">
         <v>1.38</v>
@@ -32924,7 +32930,7 @@
         <v>1.56</v>
       </c>
       <c r="AP154">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ154">
         <v>1.42</v>
@@ -33670,7 +33676,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q158">
         <v>3.14</v>
@@ -33748,7 +33754,7 @@
         <v>1.55</v>
       </c>
       <c r="AP158">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ158">
         <v>1.57</v>
@@ -33957,7 +33963,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ159">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR159">
         <v>1.36</v>
@@ -34163,7 +34169,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ160">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR160">
         <v>1.5</v>
@@ -34575,7 +34581,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ162">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR162">
         <v>1.37</v>
@@ -34906,7 +34912,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -34984,10 +34990,10 @@
         <v>0.9</v>
       </c>
       <c r="AP164">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ164">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -36220,7 +36226,7 @@
         <v>1.67</v>
       </c>
       <c r="AP170">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ170">
         <v>1.57</v>
@@ -36635,7 +36641,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ172">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR172">
         <v>1.48</v>
@@ -36966,7 +36972,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37044,7 +37050,7 @@
         <v>1</v>
       </c>
       <c r="AP174">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ174">
         <v>1.08</v>
@@ -37871,7 +37877,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ178">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AR178">
         <v>1.7</v>
@@ -39595,6 +39601,830 @@
       </c>
       <c r="BP186">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7636615</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45542.52083333334</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187" t="s">
+        <v>75</v>
+      </c>
+      <c r="H187" t="s">
+        <v>78</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>93</v>
+      </c>
+      <c r="P187" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q187">
+        <v>3.07</v>
+      </c>
+      <c r="R187">
+        <v>2.11</v>
+      </c>
+      <c r="S187">
+        <v>3.83</v>
+      </c>
+      <c r="T187">
+        <v>1.45</v>
+      </c>
+      <c r="U187">
+        <v>2.72</v>
+      </c>
+      <c r="V187">
+        <v>3.28</v>
+      </c>
+      <c r="W187">
+        <v>1.33</v>
+      </c>
+      <c r="X187">
+        <v>8</v>
+      </c>
+      <c r="Y187">
+        <v>1.05</v>
+      </c>
+      <c r="Z187">
+        <v>2.4</v>
+      </c>
+      <c r="AA187">
+        <v>3.1</v>
+      </c>
+      <c r="AB187">
+        <v>3</v>
+      </c>
+      <c r="AC187">
+        <v>1.07</v>
+      </c>
+      <c r="AD187">
+        <v>7.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.4</v>
+      </c>
+      <c r="AF187">
+        <v>2.85</v>
+      </c>
+      <c r="AG187">
+        <v>2.23</v>
+      </c>
+      <c r="AH187">
+        <v>1.62</v>
+      </c>
+      <c r="AI187">
+        <v>1.8</v>
+      </c>
+      <c r="AJ187">
+        <v>1.83</v>
+      </c>
+      <c r="AK187">
+        <v>1.36</v>
+      </c>
+      <c r="AL187">
+        <v>1.3</v>
+      </c>
+      <c r="AM187">
+        <v>1.55</v>
+      </c>
+      <c r="AN187">
+        <v>0.82</v>
+      </c>
+      <c r="AO187">
+        <v>1.09</v>
+      </c>
+      <c r="AP187">
+        <v>0.75</v>
+      </c>
+      <c r="AQ187">
+        <v>1.25</v>
+      </c>
+      <c r="AR187">
+        <v>1.35</v>
+      </c>
+      <c r="AS187">
+        <v>1.26</v>
+      </c>
+      <c r="AT187">
+        <v>2.61</v>
+      </c>
+      <c r="AU187">
+        <v>3</v>
+      </c>
+      <c r="AV187">
+        <v>5</v>
+      </c>
+      <c r="AW187">
+        <v>8</v>
+      </c>
+      <c r="AX187">
+        <v>5</v>
+      </c>
+      <c r="AY187">
+        <v>11</v>
+      </c>
+      <c r="AZ187">
+        <v>10</v>
+      </c>
+      <c r="BA187">
+        <v>9</v>
+      </c>
+      <c r="BB187">
+        <v>4</v>
+      </c>
+      <c r="BC187">
+        <v>13</v>
+      </c>
+      <c r="BD187">
+        <v>1.67</v>
+      </c>
+      <c r="BE187">
+        <v>8</v>
+      </c>
+      <c r="BF187">
+        <v>2.5</v>
+      </c>
+      <c r="BG187">
+        <v>1.33</v>
+      </c>
+      <c r="BH187">
+        <v>3</v>
+      </c>
+      <c r="BI187">
+        <v>1.51</v>
+      </c>
+      <c r="BJ187">
+        <v>2.37</v>
+      </c>
+      <c r="BK187">
+        <v>1.95</v>
+      </c>
+      <c r="BL187">
+        <v>1.77</v>
+      </c>
+      <c r="BM187">
+        <v>2.47</v>
+      </c>
+      <c r="BN187">
+        <v>1.48</v>
+      </c>
+      <c r="BO187">
+        <v>3.2</v>
+      </c>
+      <c r="BP187">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7636616</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45542.625</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="G188" t="s">
+        <v>74</v>
+      </c>
+      <c r="H188" t="s">
+        <v>82</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>195</v>
+      </c>
+      <c r="P188" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q188">
+        <v>4.4</v>
+      </c>
+      <c r="R188">
+        <v>2.19</v>
+      </c>
+      <c r="S188">
+        <v>2.64</v>
+      </c>
+      <c r="T188">
+        <v>1.4</v>
+      </c>
+      <c r="U188">
+        <v>2.84</v>
+      </c>
+      <c r="V188">
+        <v>3.03</v>
+      </c>
+      <c r="W188">
+        <v>1.36</v>
+      </c>
+      <c r="X188">
+        <v>7</v>
+      </c>
+      <c r="Y188">
+        <v>1.07</v>
+      </c>
+      <c r="Z188">
+        <v>3.7</v>
+      </c>
+      <c r="AA188">
+        <v>3.25</v>
+      </c>
+      <c r="AB188">
+        <v>2</v>
+      </c>
+      <c r="AC188">
+        <v>1.06</v>
+      </c>
+      <c r="AD188">
+        <v>8</v>
+      </c>
+      <c r="AE188">
+        <v>1.35</v>
+      </c>
+      <c r="AF188">
+        <v>3</v>
+      </c>
+      <c r="AG188">
+        <v>2.18</v>
+      </c>
+      <c r="AH188">
+        <v>1.64</v>
+      </c>
+      <c r="AI188">
+        <v>1.8</v>
+      </c>
+      <c r="AJ188">
+        <v>1.83</v>
+      </c>
+      <c r="AK188">
+        <v>1.77</v>
+      </c>
+      <c r="AL188">
+        <v>1.25</v>
+      </c>
+      <c r="AM188">
+        <v>1.25</v>
+      </c>
+      <c r="AN188">
+        <v>1.58</v>
+      </c>
+      <c r="AO188">
+        <v>1.82</v>
+      </c>
+      <c r="AP188">
+        <v>1.54</v>
+      </c>
+      <c r="AQ188">
+        <v>1.75</v>
+      </c>
+      <c r="AR188">
+        <v>1.13</v>
+      </c>
+      <c r="AS188">
+        <v>1.56</v>
+      </c>
+      <c r="AT188">
+        <v>2.69</v>
+      </c>
+      <c r="AU188">
+        <v>2</v>
+      </c>
+      <c r="AV188">
+        <v>3</v>
+      </c>
+      <c r="AW188">
+        <v>2</v>
+      </c>
+      <c r="AX188">
+        <v>6</v>
+      </c>
+      <c r="AY188">
+        <v>4</v>
+      </c>
+      <c r="AZ188">
+        <v>9</v>
+      </c>
+      <c r="BA188">
+        <v>4</v>
+      </c>
+      <c r="BB188">
+        <v>11</v>
+      </c>
+      <c r="BC188">
+        <v>15</v>
+      </c>
+      <c r="BD188">
+        <v>2.38</v>
+      </c>
+      <c r="BE188">
+        <v>8</v>
+      </c>
+      <c r="BF188">
+        <v>1.8</v>
+      </c>
+      <c r="BG188">
+        <v>1.33</v>
+      </c>
+      <c r="BH188">
+        <v>3</v>
+      </c>
+      <c r="BI188">
+        <v>1.5</v>
+      </c>
+      <c r="BJ188">
+        <v>2.4</v>
+      </c>
+      <c r="BK188">
+        <v>1.95</v>
+      </c>
+      <c r="BL188">
+        <v>1.77</v>
+      </c>
+      <c r="BM188">
+        <v>2.52</v>
+      </c>
+      <c r="BN188">
+        <v>1.46</v>
+      </c>
+      <c r="BO188">
+        <v>3.2</v>
+      </c>
+      <c r="BP188">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7636620</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45542.75</v>
+      </c>
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="G189" t="s">
+        <v>72</v>
+      </c>
+      <c r="H189" t="s">
+        <v>80</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189" t="s">
+        <v>210</v>
+      </c>
+      <c r="P189" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q189">
+        <v>7.08</v>
+      </c>
+      <c r="R189">
+        <v>2.35</v>
+      </c>
+      <c r="S189">
+        <v>2.01</v>
+      </c>
+      <c r="T189">
+        <v>1.39</v>
+      </c>
+      <c r="U189">
+        <v>2.95</v>
+      </c>
+      <c r="V189">
+        <v>2.97</v>
+      </c>
+      <c r="W189">
+        <v>1.39</v>
+      </c>
+      <c r="X189">
+        <v>6.5</v>
+      </c>
+      <c r="Y189">
+        <v>1.08</v>
+      </c>
+      <c r="Z189">
+        <v>6.25</v>
+      </c>
+      <c r="AA189">
+        <v>3.9</v>
+      </c>
+      <c r="AB189">
+        <v>1.5</v>
+      </c>
+      <c r="AC189">
+        <v>1.03</v>
+      </c>
+      <c r="AD189">
+        <v>9</v>
+      </c>
+      <c r="AE189">
+        <v>1.3</v>
+      </c>
+      <c r="AF189">
+        <v>3.2</v>
+      </c>
+      <c r="AG189">
+        <v>2</v>
+      </c>
+      <c r="AH189">
+        <v>1.7</v>
+      </c>
+      <c r="AI189">
+        <v>2.1</v>
+      </c>
+      <c r="AJ189">
+        <v>1.65</v>
+      </c>
+      <c r="AK189">
+        <v>2.62</v>
+      </c>
+      <c r="AL189">
+        <v>1.22</v>
+      </c>
+      <c r="AM189">
+        <v>1.11</v>
+      </c>
+      <c r="AN189">
+        <v>0.91</v>
+      </c>
+      <c r="AO189">
+        <v>2.42</v>
+      </c>
+      <c r="AP189">
+        <v>0.83</v>
+      </c>
+      <c r="AQ189">
+        <v>2.46</v>
+      </c>
+      <c r="AR189">
+        <v>1.27</v>
+      </c>
+      <c r="AS189">
+        <v>1.44</v>
+      </c>
+      <c r="AT189">
+        <v>2.71</v>
+      </c>
+      <c r="AU189">
+        <v>5</v>
+      </c>
+      <c r="AV189">
+        <v>6</v>
+      </c>
+      <c r="AW189">
+        <v>3</v>
+      </c>
+      <c r="AX189">
+        <v>3</v>
+      </c>
+      <c r="AY189">
+        <v>8</v>
+      </c>
+      <c r="AZ189">
+        <v>9</v>
+      </c>
+      <c r="BA189">
+        <v>2</v>
+      </c>
+      <c r="BB189">
+        <v>2</v>
+      </c>
+      <c r="BC189">
+        <v>4</v>
+      </c>
+      <c r="BD189">
+        <v>4</v>
+      </c>
+      <c r="BE189">
+        <v>9</v>
+      </c>
+      <c r="BF189">
+        <v>1.33</v>
+      </c>
+      <c r="BG189">
+        <v>1.3</v>
+      </c>
+      <c r="BH189">
+        <v>3.2</v>
+      </c>
+      <c r="BI189">
+        <v>1.57</v>
+      </c>
+      <c r="BJ189">
+        <v>2.25</v>
+      </c>
+      <c r="BK189">
+        <v>2.05</v>
+      </c>
+      <c r="BL189">
+        <v>1.7</v>
+      </c>
+      <c r="BM189">
+        <v>2.65</v>
+      </c>
+      <c r="BN189">
+        <v>1.42</v>
+      </c>
+      <c r="BO189">
+        <v>3.3</v>
+      </c>
+      <c r="BP189">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7636617</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45542.85416666666</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+      <c r="G190" t="s">
+        <v>73</v>
+      </c>
+      <c r="H190" t="s">
+        <v>77</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>93</v>
+      </c>
+      <c r="P190" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q190">
+        <v>3.19</v>
+      </c>
+      <c r="R190">
+        <v>2.11</v>
+      </c>
+      <c r="S190">
+        <v>3.64</v>
+      </c>
+      <c r="T190">
+        <v>1.43</v>
+      </c>
+      <c r="U190">
+        <v>2.71</v>
+      </c>
+      <c r="V190">
+        <v>3.22</v>
+      </c>
+      <c r="W190">
+        <v>1.32</v>
+      </c>
+      <c r="X190">
+        <v>8</v>
+      </c>
+      <c r="Y190">
+        <v>1.05</v>
+      </c>
+      <c r="Z190">
+        <v>2.45</v>
+      </c>
+      <c r="AA190">
+        <v>3.1</v>
+      </c>
+      <c r="AB190">
+        <v>2.8</v>
+      </c>
+      <c r="AC190">
+        <v>1.08</v>
+      </c>
+      <c r="AD190">
+        <v>7</v>
+      </c>
+      <c r="AE190">
+        <v>1.38</v>
+      </c>
+      <c r="AF190">
+        <v>2.88</v>
+      </c>
+      <c r="AG190">
+        <v>2.1</v>
+      </c>
+      <c r="AH190">
+        <v>1.65</v>
+      </c>
+      <c r="AI190">
+        <v>1.8</v>
+      </c>
+      <c r="AJ190">
+        <v>1.83</v>
+      </c>
+      <c r="AK190">
+        <v>1.36</v>
+      </c>
+      <c r="AL190">
+        <v>1.3</v>
+      </c>
+      <c r="AM190">
+        <v>1.53</v>
+      </c>
+      <c r="AN190">
+        <v>0.64</v>
+      </c>
+      <c r="AO190">
+        <v>0.82</v>
+      </c>
+      <c r="AP190">
+        <v>0.58</v>
+      </c>
+      <c r="AQ190">
+        <v>1</v>
+      </c>
+      <c r="AR190">
+        <v>1.13</v>
+      </c>
+      <c r="AS190">
+        <v>1.18</v>
+      </c>
+      <c r="AT190">
+        <v>2.31</v>
+      </c>
+      <c r="AU190">
+        <v>0</v>
+      </c>
+      <c r="AV190">
+        <v>2</v>
+      </c>
+      <c r="AW190">
+        <v>3</v>
+      </c>
+      <c r="AX190">
+        <v>0</v>
+      </c>
+      <c r="AY190">
+        <v>3</v>
+      </c>
+      <c r="AZ190">
+        <v>2</v>
+      </c>
+      <c r="BA190">
+        <v>7</v>
+      </c>
+      <c r="BB190">
+        <v>2</v>
+      </c>
+      <c r="BC190">
+        <v>9</v>
+      </c>
+      <c r="BD190">
+        <v>1.73</v>
+      </c>
+      <c r="BE190">
+        <v>8</v>
+      </c>
+      <c r="BF190">
+        <v>2.4</v>
+      </c>
+      <c r="BG190">
+        <v>1.3</v>
+      </c>
+      <c r="BH190">
+        <v>3.2</v>
+      </c>
+      <c r="BI190">
+        <v>1.46</v>
+      </c>
+      <c r="BJ190">
+        <v>2.52</v>
+      </c>
+      <c r="BK190">
+        <v>2.05</v>
+      </c>
+      <c r="BL190">
+        <v>1.7</v>
+      </c>
+      <c r="BM190">
+        <v>2.37</v>
+      </c>
+      <c r="BN190">
+        <v>1.51</v>
+      </c>
+      <c r="BO190">
+        <v>3.2</v>
+      </c>
+      <c r="BP190">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,7 +646,16 @@
     <t>['1']</t>
   </si>
   <si>
-    <t>['8']</t>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['9', '89']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['72', '90+6']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -760,9 +769,6 @@
     <t>['6', '63']</t>
   </si>
   <si>
-    <t>['7']</t>
-  </si>
-  <si>
     <t>['58']</t>
   </si>
   <si>
@@ -832,13 +838,13 @@
     <t>['55', '57', '84']</t>
   </si>
   <si>
-    <t>['89']</t>
-  </si>
-  <si>
     <t>['12', '45+7', '69']</t>
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
   <si>
     <t>['34', '86']</t>
@@ -1281,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1540,7 +1546,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1618,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1746,7 +1752,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1824,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ3">
         <v>1.38</v>
@@ -1952,7 +1958,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2033,7 +2039,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2158,7 +2164,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2239,7 +2245,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ5">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2570,7 +2576,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2651,7 +2657,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ7">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2776,7 +2782,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2982,7 +2988,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -4424,7 +4430,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4505,7 +4511,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR16">
         <v>1.34</v>
@@ -4630,7 +4636,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4711,7 +4717,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ17">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR17">
         <v>1.17</v>
@@ -4836,7 +4842,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5326,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5454,7 +5460,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5532,10 +5538,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ21">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR21">
         <v>1.09</v>
@@ -5660,7 +5666,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5866,7 +5872,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -5944,7 +5950,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ23">
         <v>2.46</v>
@@ -6072,7 +6078,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6278,7 +6284,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6359,7 +6365,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ25">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR25">
         <v>1.39</v>
@@ -6690,7 +6696,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6896,7 +6902,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7102,7 +7108,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7801,7 +7807,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>1.15</v>
@@ -8004,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8132,7 +8138,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8338,7 +8344,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8416,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8622,10 +8628,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -9037,7 +9043,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ38">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -9162,7 +9168,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9240,7 +9246,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9368,7 +9374,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9574,7 +9580,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -10064,7 +10070,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ43">
         <v>1.09</v>
@@ -10810,7 +10816,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11016,7 +11022,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11097,7 +11103,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ48">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11222,7 +11228,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11428,7 +11434,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11634,7 +11640,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11918,10 +11924,10 @@
         <v>2.33</v>
       </c>
       <c r="AP52">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR52">
         <v>1.3</v>
@@ -12124,10 +12130,10 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ53">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR53">
         <v>1.73</v>
@@ -12458,7 +12464,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12536,10 +12542,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ55">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>1.09</v>
@@ -12664,7 +12670,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12951,7 +12957,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ57">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13363,7 +13369,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ59">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR59">
         <v>1.07</v>
@@ -13566,7 +13572,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ60">
         <v>1.42</v>
@@ -14106,7 +14112,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14187,7 +14193,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ63">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR63">
         <v>1.42</v>
@@ -14312,7 +14318,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14930,7 +14936,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15008,10 +15014,10 @@
         <v>1.75</v>
       </c>
       <c r="AP67">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ67">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -15136,7 +15142,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15342,7 +15348,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15420,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ69">
         <v>1.08</v>
@@ -15548,7 +15554,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15754,7 +15760,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15832,7 +15838,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ71">
         <v>1.25</v>
@@ -15960,7 +15966,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16041,7 +16047,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR72">
         <v>1.26</v>
@@ -16166,7 +16172,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16244,7 +16250,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ73">
         <v>1.75</v>
@@ -16372,7 +16378,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -16450,7 +16456,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ74">
         <v>1.17</v>
@@ -16659,7 +16665,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ75">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR75">
         <v>1.21</v>
@@ -16784,7 +16790,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17071,7 +17077,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ77">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17196,7 +17202,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17402,7 +17408,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -18020,7 +18026,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18098,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ82">
         <v>1.08</v>
@@ -18226,7 +18232,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18432,7 +18438,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18510,7 +18516,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ84">
         <v>1.42</v>
@@ -18638,7 +18644,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18925,7 +18931,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR86">
         <v>1.57</v>
@@ -19050,7 +19056,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19131,7 +19137,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ87">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -19256,7 +19262,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19334,7 +19340,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ88">
         <v>1.75</v>
@@ -19668,7 +19674,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -19746,7 +19752,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ90">
         <v>1.09</v>
@@ -20286,7 +20292,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20698,7 +20704,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20779,7 +20785,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR95">
         <v>1.59</v>
@@ -20904,7 +20910,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -20982,10 +20988,10 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ96">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR96">
         <v>0.91</v>
@@ -21110,7 +21116,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21394,10 +21400,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
+        <v>1.08</v>
+      </c>
+      <c r="AQ98">
         <v>0.92</v>
-      </c>
-      <c r="AQ98">
-        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.19</v>
@@ -21522,7 +21528,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21728,7 +21734,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22012,7 +22018,7 @@
         <v>1.8</v>
       </c>
       <c r="AP101">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ101">
         <v>1.42</v>
@@ -22427,7 +22433,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ103">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR103">
         <v>1.68</v>
@@ -22552,7 +22558,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22758,7 +22764,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23045,7 +23051,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR106">
         <v>1.37</v>
@@ -23170,7 +23176,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23251,7 +23257,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ107">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR107">
         <v>1.35</v>
@@ -23582,7 +23588,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23866,7 +23872,7 @@
         <v>1.25</v>
       </c>
       <c r="AP110">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ110">
         <v>1.38</v>
@@ -23994,7 +24000,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24281,7 +24287,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ112">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24406,7 +24412,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24818,7 +24824,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25024,7 +25030,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25102,7 +25108,7 @@
         <v>2.71</v>
       </c>
       <c r="AP116">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ116">
         <v>2.46</v>
@@ -25436,7 +25442,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25642,7 +25648,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25720,7 +25726,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ119">
         <v>1.17</v>
@@ -25929,7 +25935,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ120">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR120">
         <v>1.7</v>
@@ -26054,7 +26060,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26260,7 +26266,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26466,7 +26472,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26878,7 +26884,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27084,7 +27090,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27780,10 +27786,10 @@
         <v>2.25</v>
       </c>
       <c r="AP129">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ129">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR129">
         <v>1.01</v>
@@ -28320,7 +28326,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -28398,10 +28404,10 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ132">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR132">
         <v>1.77</v>
@@ -28607,7 +28613,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR133">
         <v>1.43</v>
@@ -28810,7 +28816,7 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ134">
         <v>1.25</v>
@@ -29016,7 +29022,7 @@
         <v>0.88</v>
       </c>
       <c r="AP135">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ135">
         <v>1.08</v>
@@ -29144,7 +29150,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29350,7 +29356,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29431,7 +29437,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ137">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR137">
         <v>1.46</v>
@@ -29762,7 +29768,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29968,7 +29974,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30174,7 +30180,7 @@
         <v>93</v>
       </c>
       <c r="P141" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30461,7 +30467,7 @@
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR142">
         <v>1.52</v>
@@ -30586,7 +30592,7 @@
         <v>98</v>
       </c>
       <c r="P143" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q143">
         <v>3.37</v>
@@ -30664,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -30792,7 +30798,7 @@
         <v>93</v>
       </c>
       <c r="P144" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q144">
         <v>4.6</v>
@@ -30998,7 +31004,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q145">
         <v>2.96</v>
@@ -31285,7 +31291,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ146">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR146">
         <v>1.41</v>
@@ -31900,7 +31906,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -32028,7 +32034,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32312,7 +32318,7 @@
         <v>0.78</v>
       </c>
       <c r="AP151">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ151">
         <v>1.08</v>
@@ -32440,7 +32446,7 @@
         <v>187</v>
       </c>
       <c r="P152" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q152">
         <v>2.24</v>
@@ -32646,7 +32652,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q153">
         <v>3.32</v>
@@ -33058,7 +33064,7 @@
         <v>190</v>
       </c>
       <c r="P155" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>4.55</v>
@@ -33136,10 +33142,10 @@
         <v>1.14</v>
       </c>
       <c r="AP155">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ155">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR155">
         <v>1.09</v>
@@ -33264,7 +33270,7 @@
         <v>93</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>5.3</v>
@@ -33342,7 +33348,7 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ156">
         <v>2</v>
@@ -33676,7 +33682,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="Q158">
         <v>3.14</v>
@@ -33757,7 +33763,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ158">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR158">
         <v>1.13</v>
@@ -33882,7 +33888,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q159">
         <v>4.05</v>
@@ -33960,7 +33966,7 @@
         <v>1.89</v>
       </c>
       <c r="AP159">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ159">
         <v>1.75</v>
@@ -34088,7 +34094,7 @@
         <v>125</v>
       </c>
       <c r="P160" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q160">
         <v>6.05</v>
@@ -34294,7 +34300,7 @@
         <v>192</v>
       </c>
       <c r="P161" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34375,7 +34381,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR161">
         <v>1.57</v>
@@ -34706,7 +34712,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>2.6</v>
@@ -34912,7 +34918,7 @@
         <v>93</v>
       </c>
       <c r="P164" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q164">
         <v>2.8</v>
@@ -35196,7 +35202,7 @@
         <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35324,7 +35330,7 @@
         <v>93</v>
       </c>
       <c r="P166" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -35942,7 +35948,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -36229,7 +36235,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ170">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR170">
         <v>1.27</v>
@@ -36432,10 +36438,10 @@
         <v>1</v>
       </c>
       <c r="AP171">
+        <v>1.08</v>
+      </c>
+      <c r="AQ171">
         <v>0.92</v>
-      </c>
-      <c r="AQ171">
-        <v>1</v>
       </c>
       <c r="AR171">
         <v>1.38</v>
@@ -36972,7 +36978,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37256,10 +37262,10 @@
         <v>1.9</v>
       </c>
       <c r="AP175">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ175">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR175">
         <v>1.8</v>
@@ -37462,10 +37468,10 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ176">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR176">
         <v>1.02</v>
@@ -37590,7 +37596,7 @@
         <v>202</v>
       </c>
       <c r="P177" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q177">
         <v>3.6</v>
@@ -37874,7 +37880,7 @@
         <v>2.5</v>
       </c>
       <c r="AP178">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="AQ178">
         <v>2.4</v>
@@ -38208,7 +38214,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q180">
         <v>2.88</v>
@@ -38495,7 +38501,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ181">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AR181">
         <v>1.46</v>
@@ -38904,7 +38910,7 @@
         <v>1.2</v>
       </c>
       <c r="AP183">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ183">
         <v>1.09</v>
@@ -39238,7 +39244,7 @@
         <v>208</v>
       </c>
       <c r="P185" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -39444,7 +39450,7 @@
         <v>209</v>
       </c>
       <c r="P186" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39650,7 +39656,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="Q187">
         <v>3.07</v>
@@ -39856,7 +39862,7 @@
         <v>195</v>
       </c>
       <c r="P188" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q188">
         <v>4.4</v>
@@ -40062,7 +40068,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q189">
         <v>7.08</v>
@@ -40268,7 +40274,7 @@
         <v>93</v>
       </c>
       <c r="P190" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="Q190">
         <v>3.19</v>
@@ -40425,6 +40431,830 @@
       </c>
       <c r="BP190">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7636618</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45543.41666666666</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+      <c r="G191" t="s">
+        <v>83</v>
+      </c>
+      <c r="H191" t="s">
+        <v>84</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>211</v>
+      </c>
+      <c r="P191" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q191">
+        <v>3.67</v>
+      </c>
+      <c r="R191">
+        <v>2.24</v>
+      </c>
+      <c r="S191">
+        <v>2.92</v>
+      </c>
+      <c r="T191">
+        <v>1.37</v>
+      </c>
+      <c r="U191">
+        <v>3.06</v>
+      </c>
+      <c r="V191">
+        <v>2.85</v>
+      </c>
+      <c r="W191">
+        <v>1.42</v>
+      </c>
+      <c r="X191">
+        <v>6</v>
+      </c>
+      <c r="Y191">
+        <v>1.09</v>
+      </c>
+      <c r="Z191">
+        <v>2.8</v>
+      </c>
+      <c r="AA191">
+        <v>3.15</v>
+      </c>
+      <c r="AB191">
+        <v>2.5</v>
+      </c>
+      <c r="AC191">
+        <v>1.02</v>
+      </c>
+      <c r="AD191">
+        <v>10</v>
+      </c>
+      <c r="AE191">
+        <v>1.29</v>
+      </c>
+      <c r="AF191">
+        <v>3.4</v>
+      </c>
+      <c r="AG191">
+        <v>1.93</v>
+      </c>
+      <c r="AH191">
+        <v>1.83</v>
+      </c>
+      <c r="AI191">
+        <v>1.67</v>
+      </c>
+      <c r="AJ191">
+        <v>2.1</v>
+      </c>
+      <c r="AK191">
+        <v>1.62</v>
+      </c>
+      <c r="AL191">
+        <v>1.33</v>
+      </c>
+      <c r="AM191">
+        <v>1.38</v>
+      </c>
+      <c r="AN191">
+        <v>1.2</v>
+      </c>
+      <c r="AO191">
+        <v>1</v>
+      </c>
+      <c r="AP191">
+        <v>1.36</v>
+      </c>
+      <c r="AQ191">
+        <v>0.92</v>
+      </c>
+      <c r="AR191">
+        <v>1.09</v>
+      </c>
+      <c r="AS191">
+        <v>1.32</v>
+      </c>
+      <c r="AT191">
+        <v>2.41</v>
+      </c>
+      <c r="AU191">
+        <v>7</v>
+      </c>
+      <c r="AV191">
+        <v>2</v>
+      </c>
+      <c r="AW191">
+        <v>4</v>
+      </c>
+      <c r="AX191">
+        <v>5</v>
+      </c>
+      <c r="AY191">
+        <v>11</v>
+      </c>
+      <c r="AZ191">
+        <v>7</v>
+      </c>
+      <c r="BA191">
+        <v>8</v>
+      </c>
+      <c r="BB191">
+        <v>1</v>
+      </c>
+      <c r="BC191">
+        <v>9</v>
+      </c>
+      <c r="BD191">
+        <v>2.2</v>
+      </c>
+      <c r="BE191">
+        <v>8</v>
+      </c>
+      <c r="BF191">
+        <v>1.91</v>
+      </c>
+      <c r="BG191">
+        <v>1.36</v>
+      </c>
+      <c r="BH191">
+        <v>2.9</v>
+      </c>
+      <c r="BI191">
+        <v>1.55</v>
+      </c>
+      <c r="BJ191">
+        <v>2.3</v>
+      </c>
+      <c r="BK191">
+        <v>1.85</v>
+      </c>
+      <c r="BL191">
+        <v>1.85</v>
+      </c>
+      <c r="BM191">
+        <v>2.6</v>
+      </c>
+      <c r="BN191">
+        <v>1.44</v>
+      </c>
+      <c r="BO191">
+        <v>3.3</v>
+      </c>
+      <c r="BP191">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7636614</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45543.52083333334</v>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="G192" t="s">
+        <v>71</v>
+      </c>
+      <c r="H192" t="s">
+        <v>76</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" t="s">
+        <v>212</v>
+      </c>
+      <c r="P192" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q192">
+        <v>3.3</v>
+      </c>
+      <c r="R192">
+        <v>1.85</v>
+      </c>
+      <c r="S192">
+        <v>3.55</v>
+      </c>
+      <c r="T192">
+        <v>1.55</v>
+      </c>
+      <c r="U192">
+        <v>2.3</v>
+      </c>
+      <c r="V192">
+        <v>3.45</v>
+      </c>
+      <c r="W192">
+        <v>1.25</v>
+      </c>
+      <c r="X192">
+        <v>10</v>
+      </c>
+      <c r="Y192">
+        <v>1.02</v>
+      </c>
+      <c r="Z192">
+        <v>2.43</v>
+      </c>
+      <c r="AA192">
+        <v>2.85</v>
+      </c>
+      <c r="AB192">
+        <v>2.8</v>
+      </c>
+      <c r="AC192">
+        <v>1.1</v>
+      </c>
+      <c r="AD192">
+        <v>6.25</v>
+      </c>
+      <c r="AE192">
+        <v>1.5</v>
+      </c>
+      <c r="AF192">
+        <v>2.5</v>
+      </c>
+      <c r="AG192">
+        <v>2.55</v>
+      </c>
+      <c r="AH192">
+        <v>1.45</v>
+      </c>
+      <c r="AI192">
+        <v>1.95</v>
+      </c>
+      <c r="AJ192">
+        <v>1.7</v>
+      </c>
+      <c r="AK192">
+        <v>1.38</v>
+      </c>
+      <c r="AL192">
+        <v>1.33</v>
+      </c>
+      <c r="AM192">
+        <v>1.48</v>
+      </c>
+      <c r="AN192">
+        <v>0.92</v>
+      </c>
+      <c r="AO192">
+        <v>1.57</v>
+      </c>
+      <c r="AP192">
+        <v>1.08</v>
+      </c>
+      <c r="AQ192">
+        <v>1.47</v>
+      </c>
+      <c r="AR192">
+        <v>1.35</v>
+      </c>
+      <c r="AS192">
+        <v>1.19</v>
+      </c>
+      <c r="AT192">
+        <v>2.54</v>
+      </c>
+      <c r="AU192">
+        <v>6</v>
+      </c>
+      <c r="AV192">
+        <v>6</v>
+      </c>
+      <c r="AW192">
+        <v>2</v>
+      </c>
+      <c r="AX192">
+        <v>3</v>
+      </c>
+      <c r="AY192">
+        <v>8</v>
+      </c>
+      <c r="AZ192">
+        <v>9</v>
+      </c>
+      <c r="BA192">
+        <v>3</v>
+      </c>
+      <c r="BB192">
+        <v>6</v>
+      </c>
+      <c r="BC192">
+        <v>9</v>
+      </c>
+      <c r="BD192">
+        <v>1.67</v>
+      </c>
+      <c r="BE192">
+        <v>8</v>
+      </c>
+      <c r="BF192">
+        <v>2.62</v>
+      </c>
+      <c r="BG192">
+        <v>1.37</v>
+      </c>
+      <c r="BH192">
+        <v>2.85</v>
+      </c>
+      <c r="BI192">
+        <v>1.7</v>
+      </c>
+      <c r="BJ192">
+        <v>2.05</v>
+      </c>
+      <c r="BK192">
+        <v>2.2</v>
+      </c>
+      <c r="BL192">
+        <v>1.6</v>
+      </c>
+      <c r="BM192">
+        <v>3</v>
+      </c>
+      <c r="BN192">
+        <v>1.34</v>
+      </c>
+      <c r="BO192">
+        <v>3.6</v>
+      </c>
+      <c r="BP192">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7636619</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45543.625</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="G193" t="s">
+        <v>85</v>
+      </c>
+      <c r="H193" t="s">
+        <v>79</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>213</v>
+      </c>
+      <c r="P193" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q193">
+        <v>3.19</v>
+      </c>
+      <c r="R193">
+        <v>2.02</v>
+      </c>
+      <c r="S193">
+        <v>3.92</v>
+      </c>
+      <c r="T193">
+        <v>1.51</v>
+      </c>
+      <c r="U193">
+        <v>2.53</v>
+      </c>
+      <c r="V193">
+        <v>3.2</v>
+      </c>
+      <c r="W193">
+        <v>1.3</v>
+      </c>
+      <c r="X193">
+        <v>8.5</v>
+      </c>
+      <c r="Y193">
+        <v>1.04</v>
+      </c>
+      <c r="Z193">
+        <v>2.27</v>
+      </c>
+      <c r="AA193">
+        <v>3.05</v>
+      </c>
+      <c r="AB193">
+        <v>2.84</v>
+      </c>
+      <c r="AC193">
+        <v>1.08</v>
+      </c>
+      <c r="AD193">
+        <v>6.5</v>
+      </c>
+      <c r="AE193">
+        <v>1.48</v>
+      </c>
+      <c r="AF193">
+        <v>2.37</v>
+      </c>
+      <c r="AG193">
+        <v>2.5</v>
+      </c>
+      <c r="AH193">
+        <v>1.5</v>
+      </c>
+      <c r="AI193">
+        <v>2</v>
+      </c>
+      <c r="AJ193">
+        <v>1.73</v>
+      </c>
+      <c r="AK193">
+        <v>1.38</v>
+      </c>
+      <c r="AL193">
+        <v>1.38</v>
+      </c>
+      <c r="AM193">
+        <v>1.55</v>
+      </c>
+      <c r="AN193">
+        <v>1.3</v>
+      </c>
+      <c r="AO193">
+        <v>1.73</v>
+      </c>
+      <c r="AP193">
+        <v>1.45</v>
+      </c>
+      <c r="AQ193">
+        <v>1.58</v>
+      </c>
+      <c r="AR193">
+        <v>1.2</v>
+      </c>
+      <c r="AS193">
+        <v>1.16</v>
+      </c>
+      <c r="AT193">
+        <v>2.36</v>
+      </c>
+      <c r="AU193">
+        <v>3</v>
+      </c>
+      <c r="AV193">
+        <v>2</v>
+      </c>
+      <c r="AW193">
+        <v>1</v>
+      </c>
+      <c r="AX193">
+        <v>0</v>
+      </c>
+      <c r="AY193">
+        <v>4</v>
+      </c>
+      <c r="AZ193">
+        <v>2</v>
+      </c>
+      <c r="BA193">
+        <v>3</v>
+      </c>
+      <c r="BB193">
+        <v>3</v>
+      </c>
+      <c r="BC193">
+        <v>6</v>
+      </c>
+      <c r="BD193">
+        <v>1.83</v>
+      </c>
+      <c r="BE193">
+        <v>8</v>
+      </c>
+      <c r="BF193">
+        <v>2.25</v>
+      </c>
+      <c r="BG193">
+        <v>1.29</v>
+      </c>
+      <c r="BH193">
+        <v>3.3</v>
+      </c>
+      <c r="BI193">
+        <v>1.55</v>
+      </c>
+      <c r="BJ193">
+        <v>2.3</v>
+      </c>
+      <c r="BK193">
+        <v>1.91</v>
+      </c>
+      <c r="BL193">
+        <v>1.8</v>
+      </c>
+      <c r="BM193">
+        <v>2.65</v>
+      </c>
+      <c r="BN193">
+        <v>1.42</v>
+      </c>
+      <c r="BO193">
+        <v>3.4</v>
+      </c>
+      <c r="BP193">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7636621</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45543.75</v>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+      <c r="G194" t="s">
+        <v>70</v>
+      </c>
+      <c r="H194" t="s">
+        <v>81</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>91</v>
+      </c>
+      <c r="P194" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q194">
+        <v>1.99</v>
+      </c>
+      <c r="R194">
+        <v>2.51</v>
+      </c>
+      <c r="S194">
+        <v>6.09</v>
+      </c>
+      <c r="T194">
+        <v>1.3</v>
+      </c>
+      <c r="U194">
+        <v>3.2</v>
+      </c>
+      <c r="V194">
+        <v>2.55</v>
+      </c>
+      <c r="W194">
+        <v>1.5</v>
+      </c>
+      <c r="X194">
+        <v>5.5</v>
+      </c>
+      <c r="Y194">
+        <v>1.11</v>
+      </c>
+      <c r="Z194">
+        <v>1.45</v>
+      </c>
+      <c r="AA194">
+        <v>4.15</v>
+      </c>
+      <c r="AB194">
+        <v>5.2</v>
+      </c>
+      <c r="AC194">
+        <v>1.01</v>
+      </c>
+      <c r="AD194">
+        <v>11</v>
+      </c>
+      <c r="AE194">
+        <v>1.2</v>
+      </c>
+      <c r="AF194">
+        <v>4</v>
+      </c>
+      <c r="AG194">
+        <v>1.79</v>
+      </c>
+      <c r="AH194">
+        <v>2.01</v>
+      </c>
+      <c r="AI194">
+        <v>1.75</v>
+      </c>
+      <c r="AJ194">
+        <v>1.95</v>
+      </c>
+      <c r="AK194">
+        <v>1.13</v>
+      </c>
+      <c r="AL194">
+        <v>1.2</v>
+      </c>
+      <c r="AM194">
+        <v>2.6</v>
+      </c>
+      <c r="AN194">
+        <v>2.31</v>
+      </c>
+      <c r="AO194">
+        <v>0.89</v>
+      </c>
+      <c r="AP194">
+        <v>2.36</v>
+      </c>
+      <c r="AQ194">
+        <v>0.8</v>
+      </c>
+      <c r="AR194">
+        <v>1.72</v>
+      </c>
+      <c r="AS194">
+        <v>1.49</v>
+      </c>
+      <c r="AT194">
+        <v>3.21</v>
+      </c>
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>2</v>
+      </c>
+      <c r="AW194">
+        <v>1</v>
+      </c>
+      <c r="AX194">
+        <v>1</v>
+      </c>
+      <c r="AY194">
+        <v>5</v>
+      </c>
+      <c r="AZ194">
+        <v>3</v>
+      </c>
+      <c r="BA194">
+        <v>2</v>
+      </c>
+      <c r="BB194">
+        <v>5</v>
+      </c>
+      <c r="BC194">
+        <v>7</v>
+      </c>
+      <c r="BD194">
+        <v>1.3</v>
+      </c>
+      <c r="BE194">
+        <v>9.5</v>
+      </c>
+      <c r="BF194">
+        <v>4</v>
+      </c>
+      <c r="BG194">
+        <v>1.33</v>
+      </c>
+      <c r="BH194">
+        <v>3</v>
+      </c>
+      <c r="BI194">
+        <v>1.7</v>
+      </c>
+      <c r="BJ194">
+        <v>2.05</v>
+      </c>
+      <c r="BK194">
+        <v>2.05</v>
+      </c>
+      <c r="BL194">
+        <v>1.7</v>
+      </c>
+      <c r="BM194">
+        <v>2.4</v>
+      </c>
+      <c r="BN194">
+        <v>1.5</v>
+      </c>
+      <c r="BO194">
+        <v>3.3</v>
+      </c>
+      <c r="BP194">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -649,7 +649,7 @@
     <t>['7']</t>
   </si>
   <si>
-    <t>['9', '89']</t>
+    <t>['8', '89']</t>
   </si>
   <si>
     <t>['89']</t>
@@ -41095,7 +41095,7 @@
         <v>1</v>
       </c>
       <c r="O194" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="P194" t="s">
         <v>93</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -616,10 +616,10 @@
     <t>['1', '22', '50', '67']</t>
   </si>
   <si>
-    <t>['16']</t>
+    <t>['42', '66']</t>
   </si>
   <si>
-    <t>['42', '66']</t>
+    <t>['16']</t>
   </si>
   <si>
     <t>['55', '75']</t>
@@ -37142,7 +37142,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7446520</v>
+        <v>7446521</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37157,10 +37157,10 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H175" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -37172,13 +37172,13 @@
         <v>1</v>
       </c>
       <c r="L175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O175" t="s">
         <v>200</v>
@@ -37187,160 +37187,160 @@
         <v>93</v>
       </c>
       <c r="Q175">
+        <v>3.6</v>
+      </c>
+      <c r="R175">
+        <v>2.05</v>
+      </c>
+      <c r="S175">
+        <v>3.2</v>
+      </c>
+      <c r="T175">
+        <v>1.44</v>
+      </c>
+      <c r="U175">
+        <v>2.63</v>
+      </c>
+      <c r="V175">
+        <v>3.25</v>
+      </c>
+      <c r="W175">
+        <v>1.33</v>
+      </c>
+      <c r="X175">
+        <v>10</v>
+      </c>
+      <c r="Y175">
+        <v>1.06</v>
+      </c>
+      <c r="Z175">
+        <v>2.75</v>
+      </c>
+      <c r="AA175">
+        <v>3.2</v>
+      </c>
+      <c r="AB175">
+        <v>2.45</v>
+      </c>
+      <c r="AC175">
+        <v>1.04</v>
+      </c>
+      <c r="AD175">
+        <v>7.8</v>
+      </c>
+      <c r="AE175">
+        <v>1.35</v>
+      </c>
+      <c r="AF175">
+        <v>2.84</v>
+      </c>
+      <c r="AG175">
         <v>2.1</v>
       </c>
-      <c r="R175">
-        <v>2.3</v>
-      </c>
-      <c r="S175">
-        <v>6</v>
-      </c>
-      <c r="T175">
+      <c r="AH175">
+        <v>1.65</v>
+      </c>
+      <c r="AI175">
+        <v>1.83</v>
+      </c>
+      <c r="AJ175">
+        <v>1.83</v>
+      </c>
+      <c r="AK175">
+        <v>1.52</v>
+      </c>
+      <c r="AL175">
+        <v>1.3</v>
+      </c>
+      <c r="AM175">
         <v>1.36</v>
       </c>
-      <c r="U175">
-        <v>3</v>
-      </c>
-      <c r="V175">
-        <v>2.75</v>
-      </c>
-      <c r="W175">
-        <v>1.4</v>
-      </c>
-      <c r="X175">
-        <v>7</v>
-      </c>
-      <c r="Y175">
-        <v>1.1</v>
-      </c>
-      <c r="Z175">
-        <v>1.5</v>
-      </c>
-      <c r="AA175">
-        <v>4.1</v>
-      </c>
-      <c r="AB175">
-        <v>6</v>
-      </c>
-      <c r="AC175">
-        <v>1.01</v>
-      </c>
-      <c r="AD175">
-        <v>9.5</v>
-      </c>
-      <c r="AE175">
-        <v>1.25</v>
-      </c>
-      <c r="AF175">
-        <v>3.42</v>
-      </c>
-      <c r="AG175">
-        <v>1.85</v>
-      </c>
-      <c r="AH175">
-        <v>1.85</v>
-      </c>
-      <c r="AI175">
-        <v>1.91</v>
-      </c>
-      <c r="AJ175">
+      <c r="AN175">
+        <v>0.88</v>
+      </c>
+      <c r="AO175">
+        <v>1</v>
+      </c>
+      <c r="AP175">
+        <v>1.45</v>
+      </c>
+      <c r="AQ175">
+        <v>0.8</v>
+      </c>
+      <c r="AR175">
+        <v>1.02</v>
+      </c>
+      <c r="AS175">
+        <v>1.59</v>
+      </c>
+      <c r="AT175">
+        <v>2.61</v>
+      </c>
+      <c r="AU175">
+        <v>11</v>
+      </c>
+      <c r="AV175">
+        <v>0</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>8</v>
+      </c>
+      <c r="AY175">
+        <v>16</v>
+      </c>
+      <c r="AZ175">
+        <v>8</v>
+      </c>
+      <c r="BA175">
+        <v>3</v>
+      </c>
+      <c r="BB175">
+        <v>5</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>2</v>
+      </c>
+      <c r="BE175">
+        <v>7.5</v>
+      </c>
+      <c r="BF175">
+        <v>2.1</v>
+      </c>
+      <c r="BG175">
+        <v>1.41</v>
+      </c>
+      <c r="BH175">
+        <v>2.6</v>
+      </c>
+      <c r="BI175">
         <v>1.8</v>
       </c>
-      <c r="AK175">
-        <v>1.1</v>
-      </c>
-      <c r="AL175">
-        <v>1.19</v>
-      </c>
-      <c r="AM175">
-        <v>2.4</v>
-      </c>
-      <c r="AN175">
-        <v>2.36</v>
-      </c>
-      <c r="AO175">
-        <v>1.9</v>
-      </c>
-      <c r="AP175">
-        <v>2.36</v>
-      </c>
-      <c r="AQ175">
-        <v>1.58</v>
-      </c>
-      <c r="AR175">
-        <v>1.8</v>
-      </c>
-      <c r="AS175">
+      <c r="BJ175">
+        <v>2</v>
+      </c>
+      <c r="BK175">
+        <v>2.27</v>
+      </c>
+      <c r="BL175">
+        <v>1.53</v>
+      </c>
+      <c r="BM175">
+        <v>3.08</v>
+      </c>
+      <c r="BN175">
+        <v>1.3</v>
+      </c>
+      <c r="BO175">
+        <v>4.6</v>
+      </c>
+      <c r="BP175">
         <v>1.18</v>
-      </c>
-      <c r="AT175">
-        <v>2.98</v>
-      </c>
-      <c r="AU175">
-        <v>4</v>
-      </c>
-      <c r="AV175">
-        <v>3</v>
-      </c>
-      <c r="AW175">
-        <v>4</v>
-      </c>
-      <c r="AX175">
-        <v>1</v>
-      </c>
-      <c r="AY175">
-        <v>8</v>
-      </c>
-      <c r="AZ175">
-        <v>4</v>
-      </c>
-      <c r="BA175">
-        <v>8</v>
-      </c>
-      <c r="BB175">
-        <v>7</v>
-      </c>
-      <c r="BC175">
-        <v>15</v>
-      </c>
-      <c r="BD175">
-        <v>1.19</v>
-      </c>
-      <c r="BE175">
-        <v>10.5</v>
-      </c>
-      <c r="BF175">
-        <v>5.4</v>
-      </c>
-      <c r="BG175">
-        <v>1.32</v>
-      </c>
-      <c r="BH175">
-        <v>2.98</v>
-      </c>
-      <c r="BI175">
-        <v>1.59</v>
-      </c>
-      <c r="BJ175">
-        <v>2.16</v>
-      </c>
-      <c r="BK175">
-        <v>1.95</v>
-      </c>
-      <c r="BL175">
-        <v>1.77</v>
-      </c>
-      <c r="BM175">
-        <v>2.64</v>
-      </c>
-      <c r="BN175">
-        <v>1.4</v>
-      </c>
-      <c r="BO175">
-        <v>3.65</v>
-      </c>
-      <c r="BP175">
-        <v>1.22</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37348,7 +37348,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7446521</v>
+        <v>7446520</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37363,10 +37363,10 @@
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H176" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -37378,13 +37378,13 @@
         <v>1</v>
       </c>
       <c r="L176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M176">
         <v>0</v>
       </c>
       <c r="N176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O176" t="s">
         <v>201</v>
@@ -37393,160 +37393,160 @@
         <v>93</v>
       </c>
       <c r="Q176">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S176">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="T176">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U176">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V176">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W176">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X176">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y176">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z176">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA176">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB176">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="AC176">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD176">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="AE176">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF176">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="AG176">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH176">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AI176">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ176">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK176">
-        <v>1.52</v>
+        <v>1.1</v>
       </c>
       <c r="AL176">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AM176">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="AN176">
-        <v>0.88</v>
+        <v>2.36</v>
       </c>
       <c r="AO176">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AP176">
-        <v>1.45</v>
+        <v>2.36</v>
       </c>
       <c r="AQ176">
-        <v>0.8</v>
+        <v>1.58</v>
       </c>
       <c r="AR176">
-        <v>1.02</v>
+        <v>1.8</v>
       </c>
       <c r="AS176">
+        <v>1.18</v>
+      </c>
+      <c r="AT176">
+        <v>2.98</v>
+      </c>
+      <c r="AU176">
+        <v>4</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
+        <v>1</v>
+      </c>
+      <c r="AY176">
+        <v>8</v>
+      </c>
+      <c r="AZ176">
+        <v>4</v>
+      </c>
+      <c r="BA176">
+        <v>8</v>
+      </c>
+      <c r="BB176">
+        <v>7</v>
+      </c>
+      <c r="BC176">
+        <v>15</v>
+      </c>
+      <c r="BD176">
+        <v>1.19</v>
+      </c>
+      <c r="BE176">
+        <v>10.5</v>
+      </c>
+      <c r="BF176">
+        <v>5.4</v>
+      </c>
+      <c r="BG176">
+        <v>1.32</v>
+      </c>
+      <c r="BH176">
+        <v>2.98</v>
+      </c>
+      <c r="BI176">
         <v>1.59</v>
       </c>
-      <c r="AT176">
-        <v>2.61</v>
-      </c>
-      <c r="AU176">
-        <v>11</v>
-      </c>
-      <c r="AV176">
-        <v>0</v>
-      </c>
-      <c r="AW176">
-        <v>5</v>
-      </c>
-      <c r="AX176">
-        <v>8</v>
-      </c>
-      <c r="AY176">
-        <v>16</v>
-      </c>
-      <c r="AZ176">
-        <v>8</v>
-      </c>
-      <c r="BA176">
-        <v>3</v>
-      </c>
-      <c r="BB176">
-        <v>5</v>
-      </c>
-      <c r="BC176">
-        <v>8</v>
-      </c>
-      <c r="BD176">
-        <v>2</v>
-      </c>
-      <c r="BE176">
-        <v>7.5</v>
-      </c>
-      <c r="BF176">
-        <v>2.1</v>
-      </c>
-      <c r="BG176">
-        <v>1.41</v>
-      </c>
-      <c r="BH176">
-        <v>2.6</v>
-      </c>
-      <c r="BI176">
-        <v>1.8</v>
-      </c>
       <c r="BJ176">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="BK176">
-        <v>2.27</v>
+        <v>1.95</v>
       </c>
       <c r="BL176">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="BM176">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="BN176">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BO176">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="BP176">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="177" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,10 +616,10 @@
     <t>['1', '22', '50', '67']</t>
   </si>
   <si>
-    <t>['42', '66']</t>
+    <t>['16']</t>
   </si>
   <si>
-    <t>['16']</t>
+    <t>['42', '66']</t>
   </si>
   <si>
     <t>['55', '75']</t>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>['72', '90+6']</t>
+  </si>
+  <si>
+    <t>['58']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -767,9 +770,6 @@
   </si>
   <si>
     <t>['6', '63']</t>
-  </si>
-  <si>
-    <t>['58']</t>
   </si>
   <si>
     <t>['26', '45+2', '61', '68', '90+6']</t>
@@ -926,6 +926,9 @@
   </si>
   <si>
     <t>['65', '69']</t>
+  </si>
+  <si>
+    <t>['23', '70']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP194"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1546,7 +1549,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1752,7 +1755,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1958,7 +1961,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2164,7 +2167,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2576,7 +2579,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2782,7 +2785,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2988,7 +2991,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3275,7 +3278,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ10">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4302,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ15">
         <v>0.73</v>
@@ -4430,7 +4433,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4636,7 +4639,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4842,7 +4845,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5460,7 +5463,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5666,7 +5669,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5872,7 +5875,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6078,7 +6081,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6284,7 +6287,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6696,7 +6699,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6902,7 +6905,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6983,7 +6986,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ28">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -7108,7 +7111,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7186,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -8138,7 +8141,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8344,7 +8347,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -9168,7 +9171,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9374,7 +9377,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9580,7 +9583,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9661,7 +9664,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ41">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -10482,7 +10485,7 @@
         <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ45">
         <v>1.38</v>
@@ -10816,7 +10819,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11022,7 +11025,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11228,7 +11231,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11434,7 +11437,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11640,7 +11643,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -12464,7 +12467,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12670,7 +12673,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -13575,7 +13578,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ60">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13778,7 +13781,7 @@
         <v>0.67</v>
       </c>
       <c r="AP61">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -14112,7 +14115,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14318,7 +14321,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14936,7 +14939,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15142,7 +15145,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15348,7 +15351,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15554,7 +15557,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15760,7 +15763,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15966,7 +15969,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16378,7 +16381,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>3.6</v>
@@ -17486,7 +17489,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ79">
         <v>1.25</v>
@@ -18519,7 +18522,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ84">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -21812,7 +21815,7 @@
         <v>2.67</v>
       </c>
       <c r="AP100">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ100">
         <v>2.46</v>
@@ -22021,7 +22024,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ101">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR101">
         <v>1.11</v>
@@ -24284,7 +24287,7 @@
         <v>1.38</v>
       </c>
       <c r="AP112">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ112">
         <v>1.47</v>
@@ -24905,7 +24908,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ115">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25030,7 +25033,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25314,7 +25317,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -26884,7 +26887,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -28610,7 +28613,7 @@
         <v>1.13</v>
       </c>
       <c r="AP133">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ133">
         <v>0.92</v>
@@ -29231,7 +29234,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ136">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR136">
         <v>1.33</v>
@@ -32115,7 +32118,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ150">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR150">
         <v>1.56</v>
@@ -32524,7 +32527,7 @@
         <v>0.89</v>
       </c>
       <c r="AP152">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ152">
         <v>1.25</v>
@@ -32939,7 +32942,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ154">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR154">
         <v>1.13</v>
@@ -34584,7 +34587,7 @@
         <v>0.6</v>
       </c>
       <c r="AP162">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ162">
         <v>1</v>
@@ -36978,7 +36981,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -37142,7 +37145,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7446521</v>
+        <v>7446520</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37157,10 +37160,10 @@
         <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H175" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -37172,13 +37175,13 @@
         <v>1</v>
       </c>
       <c r="L175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
       <c r="N175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O175" t="s">
         <v>200</v>
@@ -37187,160 +37190,160 @@
         <v>93</v>
       </c>
       <c r="Q175">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="R175">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S175">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="T175">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U175">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V175">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W175">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X175">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y175">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z175">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA175">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB175">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="AC175">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD175">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="AE175">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF175">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="AG175">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH175">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AI175">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ175">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK175">
-        <v>1.52</v>
+        <v>1.1</v>
       </c>
       <c r="AL175">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AM175">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="AN175">
-        <v>0.88</v>
+        <v>2.36</v>
       </c>
       <c r="AO175">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AP175">
-        <v>1.45</v>
+        <v>2.36</v>
       </c>
       <c r="AQ175">
-        <v>0.8</v>
+        <v>1.58</v>
       </c>
       <c r="AR175">
-        <v>1.02</v>
+        <v>1.8</v>
       </c>
       <c r="AS175">
+        <v>1.18</v>
+      </c>
+      <c r="AT175">
+        <v>2.98</v>
+      </c>
+      <c r="AU175">
+        <v>4</v>
+      </c>
+      <c r="AV175">
+        <v>3</v>
+      </c>
+      <c r="AW175">
+        <v>4</v>
+      </c>
+      <c r="AX175">
+        <v>1</v>
+      </c>
+      <c r="AY175">
+        <v>8</v>
+      </c>
+      <c r="AZ175">
+        <v>4</v>
+      </c>
+      <c r="BA175">
+        <v>8</v>
+      </c>
+      <c r="BB175">
+        <v>7</v>
+      </c>
+      <c r="BC175">
+        <v>15</v>
+      </c>
+      <c r="BD175">
+        <v>1.19</v>
+      </c>
+      <c r="BE175">
+        <v>10.5</v>
+      </c>
+      <c r="BF175">
+        <v>5.4</v>
+      </c>
+      <c r="BG175">
+        <v>1.32</v>
+      </c>
+      <c r="BH175">
+        <v>2.98</v>
+      </c>
+      <c r="BI175">
         <v>1.59</v>
       </c>
-      <c r="AT175">
-        <v>2.61</v>
-      </c>
-      <c r="AU175">
-        <v>11</v>
-      </c>
-      <c r="AV175">
-        <v>0</v>
-      </c>
-      <c r="AW175">
-        <v>5</v>
-      </c>
-      <c r="AX175">
-        <v>8</v>
-      </c>
-      <c r="AY175">
-        <v>16</v>
-      </c>
-      <c r="AZ175">
-        <v>8</v>
-      </c>
-      <c r="BA175">
-        <v>3</v>
-      </c>
-      <c r="BB175">
-        <v>5</v>
-      </c>
-      <c r="BC175">
-        <v>8</v>
-      </c>
-      <c r="BD175">
-        <v>2</v>
-      </c>
-      <c r="BE175">
-        <v>7.5</v>
-      </c>
-      <c r="BF175">
-        <v>2.1</v>
-      </c>
-      <c r="BG175">
-        <v>1.41</v>
-      </c>
-      <c r="BH175">
-        <v>2.6</v>
-      </c>
-      <c r="BI175">
-        <v>1.8</v>
-      </c>
       <c r="BJ175">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="BK175">
-        <v>2.27</v>
+        <v>1.95</v>
       </c>
       <c r="BL175">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="BM175">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="BN175">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BO175">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="BP175">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37348,7 +37351,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7446520</v>
+        <v>7446521</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37363,10 +37366,10 @@
         <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H176" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -37378,13 +37381,13 @@
         <v>1</v>
       </c>
       <c r="L176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M176">
         <v>0</v>
       </c>
       <c r="N176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O176" t="s">
         <v>201</v>
@@ -37393,160 +37396,160 @@
         <v>93</v>
       </c>
       <c r="Q176">
+        <v>3.6</v>
+      </c>
+      <c r="R176">
+        <v>2.05</v>
+      </c>
+      <c r="S176">
+        <v>3.2</v>
+      </c>
+      <c r="T176">
+        <v>1.44</v>
+      </c>
+      <c r="U176">
+        <v>2.63</v>
+      </c>
+      <c r="V176">
+        <v>3.25</v>
+      </c>
+      <c r="W176">
+        <v>1.33</v>
+      </c>
+      <c r="X176">
+        <v>10</v>
+      </c>
+      <c r="Y176">
+        <v>1.06</v>
+      </c>
+      <c r="Z176">
+        <v>2.75</v>
+      </c>
+      <c r="AA176">
+        <v>3.2</v>
+      </c>
+      <c r="AB176">
+        <v>2.45</v>
+      </c>
+      <c r="AC176">
+        <v>1.04</v>
+      </c>
+      <c r="AD176">
+        <v>7.8</v>
+      </c>
+      <c r="AE176">
+        <v>1.35</v>
+      </c>
+      <c r="AF176">
+        <v>2.84</v>
+      </c>
+      <c r="AG176">
         <v>2.1</v>
       </c>
-      <c r="R176">
-        <v>2.3</v>
-      </c>
-      <c r="S176">
-        <v>6</v>
-      </c>
-      <c r="T176">
+      <c r="AH176">
+        <v>1.65</v>
+      </c>
+      <c r="AI176">
+        <v>1.83</v>
+      </c>
+      <c r="AJ176">
+        <v>1.83</v>
+      </c>
+      <c r="AK176">
+        <v>1.52</v>
+      </c>
+      <c r="AL176">
+        <v>1.3</v>
+      </c>
+      <c r="AM176">
         <v>1.36</v>
       </c>
-      <c r="U176">
-        <v>3</v>
-      </c>
-      <c r="V176">
-        <v>2.75</v>
-      </c>
-      <c r="W176">
-        <v>1.4</v>
-      </c>
-      <c r="X176">
-        <v>7</v>
-      </c>
-      <c r="Y176">
-        <v>1.1</v>
-      </c>
-      <c r="Z176">
-        <v>1.5</v>
-      </c>
-      <c r="AA176">
-        <v>4.1</v>
-      </c>
-      <c r="AB176">
-        <v>6</v>
-      </c>
-      <c r="AC176">
-        <v>1.01</v>
-      </c>
-      <c r="AD176">
-        <v>9.5</v>
-      </c>
-      <c r="AE176">
-        <v>1.25</v>
-      </c>
-      <c r="AF176">
-        <v>3.42</v>
-      </c>
-      <c r="AG176">
-        <v>1.85</v>
-      </c>
-      <c r="AH176">
-        <v>1.85</v>
-      </c>
-      <c r="AI176">
-        <v>1.91</v>
-      </c>
-      <c r="AJ176">
+      <c r="AN176">
+        <v>0.88</v>
+      </c>
+      <c r="AO176">
+        <v>1</v>
+      </c>
+      <c r="AP176">
+        <v>1.45</v>
+      </c>
+      <c r="AQ176">
+        <v>0.8</v>
+      </c>
+      <c r="AR176">
+        <v>1.02</v>
+      </c>
+      <c r="AS176">
+        <v>1.59</v>
+      </c>
+      <c r="AT176">
+        <v>2.61</v>
+      </c>
+      <c r="AU176">
+        <v>11</v>
+      </c>
+      <c r="AV176">
+        <v>0</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>8</v>
+      </c>
+      <c r="AY176">
+        <v>16</v>
+      </c>
+      <c r="AZ176">
+        <v>8</v>
+      </c>
+      <c r="BA176">
+        <v>3</v>
+      </c>
+      <c r="BB176">
+        <v>5</v>
+      </c>
+      <c r="BC176">
+        <v>8</v>
+      </c>
+      <c r="BD176">
+        <v>2</v>
+      </c>
+      <c r="BE176">
+        <v>7.5</v>
+      </c>
+      <c r="BF176">
+        <v>2.1</v>
+      </c>
+      <c r="BG176">
+        <v>1.41</v>
+      </c>
+      <c r="BH176">
+        <v>2.6</v>
+      </c>
+      <c r="BI176">
         <v>1.8</v>
       </c>
-      <c r="AK176">
-        <v>1.1</v>
-      </c>
-      <c r="AL176">
-        <v>1.19</v>
-      </c>
-      <c r="AM176">
-        <v>2.4</v>
-      </c>
-      <c r="AN176">
-        <v>2.36</v>
-      </c>
-      <c r="AO176">
-        <v>1.9</v>
-      </c>
-      <c r="AP176">
-        <v>2.36</v>
-      </c>
-      <c r="AQ176">
-        <v>1.58</v>
-      </c>
-      <c r="AR176">
-        <v>1.8</v>
-      </c>
-      <c r="AS176">
+      <c r="BJ176">
+        <v>2</v>
+      </c>
+      <c r="BK176">
+        <v>2.27</v>
+      </c>
+      <c r="BL176">
+        <v>1.53</v>
+      </c>
+      <c r="BM176">
+        <v>3.08</v>
+      </c>
+      <c r="BN176">
+        <v>1.3</v>
+      </c>
+      <c r="BO176">
+        <v>4.6</v>
+      </c>
+      <c r="BP176">
         <v>1.18</v>
-      </c>
-      <c r="AT176">
-        <v>2.98</v>
-      </c>
-      <c r="AU176">
-        <v>4</v>
-      </c>
-      <c r="AV176">
-        <v>3</v>
-      </c>
-      <c r="AW176">
-        <v>4</v>
-      </c>
-      <c r="AX176">
-        <v>1</v>
-      </c>
-      <c r="AY176">
-        <v>8</v>
-      </c>
-      <c r="AZ176">
-        <v>4</v>
-      </c>
-      <c r="BA176">
-        <v>8</v>
-      </c>
-      <c r="BB176">
-        <v>7</v>
-      </c>
-      <c r="BC176">
-        <v>15</v>
-      </c>
-      <c r="BD176">
-        <v>1.19</v>
-      </c>
-      <c r="BE176">
-        <v>10.5</v>
-      </c>
-      <c r="BF176">
-        <v>5.4</v>
-      </c>
-      <c r="BG176">
-        <v>1.32</v>
-      </c>
-      <c r="BH176">
-        <v>2.98</v>
-      </c>
-      <c r="BI176">
-        <v>1.59</v>
-      </c>
-      <c r="BJ176">
-        <v>2.16</v>
-      </c>
-      <c r="BK176">
-        <v>1.95</v>
-      </c>
-      <c r="BL176">
-        <v>1.77</v>
-      </c>
-      <c r="BM176">
-        <v>2.64</v>
-      </c>
-      <c r="BN176">
-        <v>1.4</v>
-      </c>
-      <c r="BO176">
-        <v>3.65</v>
-      </c>
-      <c r="BP176">
-        <v>1.22</v>
       </c>
     </row>
     <row r="177" spans="1:68">
@@ -37677,7 +37680,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ177">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR177">
         <v>1.41</v>
@@ -38295,7 +38298,7 @@
         <v>1</v>
       </c>
       <c r="AQ180">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR180">
         <v>1.42</v>
@@ -39528,7 +39531,7 @@
         <v>0.92</v>
       </c>
       <c r="AP186">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ186">
         <v>1.08</v>
@@ -39656,7 +39659,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q187">
         <v>3.07</v>
@@ -40274,7 +40277,7 @@
         <v>93</v>
       </c>
       <c r="P190" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q190">
         <v>3.19</v>
@@ -41255,6 +41258,212 @@
       </c>
       <c r="BP194">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7648908</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45548.8125</v>
+      </c>
+      <c r="F195">
+        <v>3</v>
+      </c>
+      <c r="G195" t="s">
+        <v>82</v>
+      </c>
+      <c r="H195" t="s">
+        <v>75</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>214</v>
+      </c>
+      <c r="P195" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q195">
+        <v>2.88</v>
+      </c>
+      <c r="R195">
+        <v>2.1</v>
+      </c>
+      <c r="S195">
+        <v>3.75</v>
+      </c>
+      <c r="T195">
+        <v>1.44</v>
+      </c>
+      <c r="U195">
+        <v>2.63</v>
+      </c>
+      <c r="V195">
+        <v>3</v>
+      </c>
+      <c r="W195">
+        <v>1.36</v>
+      </c>
+      <c r="X195">
+        <v>9</v>
+      </c>
+      <c r="Y195">
+        <v>1.07</v>
+      </c>
+      <c r="Z195">
+        <v>2.15</v>
+      </c>
+      <c r="AA195">
+        <v>3.15</v>
+      </c>
+      <c r="AB195">
+        <v>3.3</v>
+      </c>
+      <c r="AC195">
+        <v>1.03</v>
+      </c>
+      <c r="AD195">
+        <v>8.4</v>
+      </c>
+      <c r="AE195">
+        <v>1.31</v>
+      </c>
+      <c r="AF195">
+        <v>3.04</v>
+      </c>
+      <c r="AG195">
+        <v>2.01</v>
+      </c>
+      <c r="AH195">
+        <v>1.79</v>
+      </c>
+      <c r="AI195">
+        <v>1.8</v>
+      </c>
+      <c r="AJ195">
+        <v>1.91</v>
+      </c>
+      <c r="AK195">
+        <v>1.3</v>
+      </c>
+      <c r="AL195">
+        <v>1.29</v>
+      </c>
+      <c r="AM195">
+        <v>1.63</v>
+      </c>
+      <c r="AN195">
+        <v>1.58</v>
+      </c>
+      <c r="AO195">
+        <v>1.42</v>
+      </c>
+      <c r="AP195">
+        <v>1.46</v>
+      </c>
+      <c r="AQ195">
+        <v>1.54</v>
+      </c>
+      <c r="AR195">
+        <v>1.36</v>
+      </c>
+      <c r="AS195">
+        <v>1.43</v>
+      </c>
+      <c r="AT195">
+        <v>2.79</v>
+      </c>
+      <c r="AU195">
+        <v>5</v>
+      </c>
+      <c r="AV195">
+        <v>3</v>
+      </c>
+      <c r="AW195">
+        <v>6</v>
+      </c>
+      <c r="AX195">
+        <v>3</v>
+      </c>
+      <c r="AY195">
+        <v>11</v>
+      </c>
+      <c r="AZ195">
+        <v>6</v>
+      </c>
+      <c r="BA195">
+        <v>5</v>
+      </c>
+      <c r="BB195">
+        <v>3</v>
+      </c>
+      <c r="BC195">
+        <v>8</v>
+      </c>
+      <c r="BD195">
+        <v>1.73</v>
+      </c>
+      <c r="BE195">
+        <v>8</v>
+      </c>
+      <c r="BF195">
+        <v>2.38</v>
+      </c>
+      <c r="BG195">
+        <v>1.29</v>
+      </c>
+      <c r="BH195">
+        <v>3.4</v>
+      </c>
+      <c r="BI195">
+        <v>1.44</v>
+      </c>
+      <c r="BJ195">
+        <v>2.6</v>
+      </c>
+      <c r="BK195">
+        <v>1.88</v>
+      </c>
+      <c r="BL195">
+        <v>1.92</v>
+      </c>
+      <c r="BM195">
+        <v>2.27</v>
+      </c>
+      <c r="BN195">
+        <v>1.56</v>
+      </c>
+      <c r="BO195">
+        <v>3.05</v>
+      </c>
+      <c r="BP195">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,12 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['44', '69', '79', '86']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -928,7 +934,10 @@
     <t>['65', '69']</t>
   </si>
   <si>
-    <t>['23', '70']</t>
+    <t>['22', '70']</t>
+  </si>
+  <si>
+    <t>['30', '83']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP195"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,7 +1558,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q2">
         <v>2.15</v>
@@ -1755,7 +1764,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1961,7 +1970,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q4">
         <v>3.4</v>
@@ -2167,7 +2176,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2579,7 +2588,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>4.45</v>
@@ -2785,7 +2794,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>5.65</v>
@@ -2863,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ8">
         <v>2.46</v>
@@ -2991,7 +3000,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3687,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3893,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ13">
         <v>1.09</v>
@@ -4308,7 +4317,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ15">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4433,7 +4442,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4639,7 +4648,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q17">
         <v>3.4</v>
@@ -4845,7 +4854,7 @@
         <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q18">
         <v>4.57</v>
@@ -5463,7 +5472,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q21">
         <v>3.17</v>
@@ -5669,7 +5678,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q22">
         <v>2.42</v>
@@ -5875,7 +5884,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>7.5</v>
@@ -6081,7 +6090,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6287,7 +6296,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6571,10 +6580,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ26">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR26">
         <v>1.74</v>
@@ -6699,7 +6708,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q27">
         <v>2.98</v>
@@ -6905,7 +6914,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6983,7 +6992,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ28">
         <v>1.54</v>
@@ -7111,7 +7120,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q29">
         <v>3.09</v>
@@ -7395,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ30">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.27</v>
@@ -8141,7 +8150,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q34">
         <v>4.8</v>
@@ -8347,7 +8356,7 @@
         <v>89</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8428,7 +8437,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR35">
         <v>0.51</v>
@@ -9171,7 +9180,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9377,7 +9386,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>2.35</v>
@@ -9455,10 +9464,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ40">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.57</v>
@@ -9583,7 +9592,7 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q41">
         <v>3.47</v>
@@ -9661,7 +9670,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ41">
         <v>1.54</v>
@@ -9867,7 +9876,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ42">
         <v>2</v>
@@ -10691,7 +10700,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10819,7 +10828,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10900,7 +10909,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ47">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -11025,7 +11034,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q48">
         <v>3.46</v>
@@ -11231,7 +11240,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11437,7 +11446,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11643,7 +11652,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q51">
         <v>2.63</v>
@@ -11724,7 +11733,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR51">
         <v>1.16</v>
@@ -12342,7 +12351,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ54">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.15</v>
@@ -12467,7 +12476,7 @@
         <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q55">
         <v>3.2</v>
@@ -12673,7 +12682,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q56">
         <v>5.49</v>
@@ -12957,7 +12966,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ57">
         <v>1.58</v>
@@ -13987,7 +13996,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ62">
         <v>1.38</v>
@@ -14115,7 +14124,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14321,7 +14330,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14608,7 +14617,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ65">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14939,7 +14948,7 @@
         <v>116</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>3.2</v>
@@ -15145,7 +15154,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>5.5</v>
@@ -15351,7 +15360,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>1.95</v>
@@ -15432,7 +15441,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ69">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.75</v>
@@ -15557,7 +15566,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15638,7 +15647,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15763,7 +15772,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15969,7 +15978,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16665,7 +16674,7 @@
         <v>2.4</v>
       </c>
       <c r="AP75">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ75">
         <v>1.58</v>
@@ -16793,7 +16802,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17077,7 +17086,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ77">
         <v>0.8</v>
@@ -17205,7 +17214,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17411,7 +17420,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>2.25</v>
@@ -17901,7 +17910,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18029,7 +18038,7 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -18110,7 +18119,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ82">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18235,7 +18244,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>4.5</v>
@@ -18441,7 +18450,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -18647,7 +18656,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q85">
         <v>2.59</v>
@@ -18728,7 +18737,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -19059,7 +19068,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19265,7 +19274,7 @@
         <v>93</v>
       </c>
       <c r="P88" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19552,7 +19561,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ89">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR89">
         <v>1.29</v>
@@ -19677,7 +19686,7 @@
         <v>153</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q90">
         <v>1.88</v>
@@ -20295,7 +20304,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q93">
         <v>2.85</v>
@@ -20579,7 +20588,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ94">
         <v>1.25</v>
@@ -20707,7 +20716,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>3.47</v>
@@ -20913,7 +20922,7 @@
         <v>93</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q96">
         <v>3.91</v>
@@ -21119,7 +21128,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q97">
         <v>3.85</v>
@@ -21197,7 +21206,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ97">
         <v>1.75</v>
@@ -21531,7 +21540,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>2.55</v>
@@ -21612,7 +21621,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ99">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.32</v>
@@ -21737,7 +21746,7 @@
         <v>93</v>
       </c>
       <c r="P100" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q100">
         <v>4.05</v>
@@ -22230,7 +22239,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR102">
         <v>1.47</v>
@@ -22561,7 +22570,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q104">
         <v>2.5</v>
@@ -22642,7 +22651,7 @@
         <v>1</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR104">
         <v>1.56</v>
@@ -22767,7 +22776,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q105">
         <v>5.2</v>
@@ -23051,7 +23060,7 @@
         <v>1.29</v>
       </c>
       <c r="AP106">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ106">
         <v>0.92</v>
@@ -23179,7 +23188,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23591,7 +23600,7 @@
         <v>107</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23672,7 +23681,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -24003,7 +24012,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24415,7 +24424,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24702,7 +24711,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ114">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.67</v>
@@ -24827,7 +24836,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25033,7 +25042,7 @@
         <v>93</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q116">
         <v>5.75</v>
@@ -25320,7 +25329,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR117">
         <v>1.4</v>
@@ -25445,7 +25454,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25526,7 +25535,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -25935,7 +25944,7 @@
         <v>1.22</v>
       </c>
       <c r="AP120">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ120">
         <v>1.47</v>
@@ -26063,7 +26072,7 @@
         <v>111</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q121">
         <v>4.75</v>
@@ -26269,7 +26278,7 @@
         <v>93</v>
       </c>
       <c r="P122" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>2.44</v>
@@ -26350,7 +26359,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR122">
         <v>1.55</v>
@@ -26475,7 +26484,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q123">
         <v>2.84</v>
@@ -26887,7 +26896,7 @@
         <v>93</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>3.8</v>
@@ -27093,7 +27102,7 @@
         <v>172</v>
       </c>
       <c r="P126" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27171,7 +27180,7 @@
         <v>1.11</v>
       </c>
       <c r="AP126">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ126">
         <v>1.38</v>
@@ -27377,7 +27386,7 @@
         <v>0.43</v>
       </c>
       <c r="AP127">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27998,7 +28007,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ130">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR130">
         <v>1.22</v>
@@ -28329,7 +28338,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q132">
         <v>2.05</v>
@@ -29028,7 +29037,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ135">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.01</v>
@@ -29153,7 +29162,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>2.1</v>
@@ -29231,7 +29240,7 @@
         <v>1.86</v>
       </c>
       <c r="AP136">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ136">
         <v>1.54</v>
@@ -29359,7 +29368,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>3.08</v>
@@ -29771,7 +29780,7 @@
         <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q139">
         <v>3.25</v>
@@ -29977,7 +29986,7 @@
         <v>93</v>
       </c>
       <c r="P140" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q140">
         <v>3.65</v>
@@ -30183,7